--- a/Registro-de-atividades.xlsx
+++ b/Registro-de-atividades.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="286">
   <si>
     <t>Registro de atividades</t>
   </si>
@@ -823,6 +823,60 @@
   </si>
   <si>
     <t>Retirando  equipamentos de cima da mesa que vai ser retirada</t>
+  </si>
+  <si>
+    <t>Movendo mesa para a sala dos alunos de medicina</t>
+  </si>
+  <si>
+    <t>Verificando microfones de teto e cameras das salas do debrif</t>
+  </si>
+  <si>
+    <t>verificando fonte queimada lab 2</t>
+  </si>
+  <si>
+    <t>clonando imagem windows 11 nós computadores do lab 1</t>
+  </si>
+  <si>
+    <t>Instalando som na palestra no nissa</t>
+  </si>
+  <si>
+    <t>busando microfone no nissa</t>
+  </si>
+  <si>
+    <t>Ligando sistema de som no debrifing</t>
+  </si>
+  <si>
+    <t>Suporte tecnico aos professores semana academica</t>
+  </si>
+  <si>
+    <t>instalando zabbix na maquina lab-01-11</t>
+  </si>
+  <si>
+    <t>Instalando computadpres na sala do proex</t>
+  </si>
+  <si>
+    <t>Pegando caixa de som para carretinha levar para o nissa</t>
+  </si>
+  <si>
+    <t>NISSA</t>
+  </si>
+  <si>
+    <t>Instalando webcan no consultorio de odontologia e deixando notebook</t>
+  </si>
+  <si>
+    <t>Auxiliando professoa a projetar aula</t>
+  </si>
+  <si>
+    <t>Instalando caixas de som em evento de odontologia</t>
+  </si>
+  <si>
+    <t>Suporte a professora Juliana a conectar o notbook ao projetor</t>
+  </si>
+  <si>
+    <t>Manutenção em impressora epslon 3250</t>
+  </si>
+  <si>
+    <t>Conversado para entender como o workchat esta funcionando</t>
   </si>
 </sst>
 </file>
@@ -1525,8 +1579,8 @@
   </sheetPr>
   <dimension ref="A1:V1008"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A258" workbookViewId="0">
-      <selection activeCell="G281" sqref="G281"/>
+    <sheetView tabSelected="1" topLeftCell="A285" workbookViewId="0">
+      <selection activeCell="C300" sqref="C300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7514,151 +7568,562 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="282" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D282" s="11"/>
-      <c r="E282" s="10"/>
-      <c r="F282" s="10"/>
-      <c r="G282" s="10"/>
-      <c r="H282" s="11"/>
-      <c r="I282" s="11"/>
-    </row>
-    <row r="283" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D283" s="11"/>
-      <c r="E283" s="10"/>
-      <c r="F283" s="10"/>
-      <c r="G283" s="10"/>
-      <c r="H283" s="11"/>
-      <c r="I283" s="11"/>
-    </row>
-    <row r="284" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D284" s="11"/>
-      <c r="E284" s="10"/>
-      <c r="F284" s="10"/>
-      <c r="G284" s="10"/>
-      <c r="H284" s="11"/>
-      <c r="I284" s="11"/>
-    </row>
-    <row r="285" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D285" s="11"/>
-      <c r="E285" s="10"/>
-      <c r="F285" s="10"/>
-      <c r="G285" s="10"/>
-      <c r="H285" s="11"/>
-      <c r="I285" s="11"/>
-    </row>
-    <row r="286" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D286" s="11"/>
-      <c r="E286" s="10"/>
-      <c r="F286" s="10"/>
-      <c r="G286" s="10"/>
-      <c r="H286" s="11"/>
-      <c r="I286" s="11"/>
-    </row>
-    <row r="287" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D287" s="11"/>
-      <c r="E287" s="10"/>
-      <c r="F287" s="10"/>
-      <c r="G287" s="10"/>
-      <c r="H287" s="11"/>
-      <c r="I287" s="11"/>
-    </row>
-    <row r="288" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D288" s="11"/>
-      <c r="E288" s="10"/>
-      <c r="F288" s="10"/>
-      <c r="G288" s="10"/>
-      <c r="H288" s="11"/>
-      <c r="I288" s="11"/>
-    </row>
-    <row r="289" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D289" s="11"/>
-      <c r="E289" s="10"/>
-      <c r="F289" s="10"/>
-      <c r="G289" s="10"/>
-      <c r="H289" s="11"/>
-      <c r="I289" s="11"/>
-    </row>
-    <row r="290" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D290" s="11"/>
-      <c r="E290" s="10"/>
-      <c r="F290" s="10"/>
-      <c r="G290" s="10"/>
-      <c r="H290" s="11"/>
-      <c r="I290" s="11"/>
-    </row>
-    <row r="291" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D291" s="11"/>
-      <c r="E291" s="10"/>
-      <c r="F291" s="10"/>
-      <c r="G291" s="10"/>
-      <c r="H291" s="11"/>
-      <c r="I291" s="11"/>
-    </row>
-    <row r="292" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D292" s="11"/>
-      <c r="E292" s="10"/>
-      <c r="F292" s="10"/>
-      <c r="G292" s="10"/>
-      <c r="H292" s="11"/>
-      <c r="I292" s="11"/>
-    </row>
-    <row r="293" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D293" s="11"/>
-      <c r="E293" s="10"/>
-      <c r="F293" s="10"/>
-      <c r="G293" s="10"/>
-      <c r="H293" s="11"/>
-      <c r="I293" s="11"/>
-    </row>
-    <row r="294" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D294" s="11"/>
-      <c r="E294" s="10"/>
-      <c r="F294" s="10"/>
-      <c r="G294" s="10"/>
-      <c r="H294" s="11"/>
-      <c r="I294" s="11"/>
-    </row>
-    <row r="295" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D295" s="11"/>
-      <c r="E295" s="10"/>
-      <c r="F295" s="10"/>
-      <c r="G295" s="10"/>
-      <c r="H295" s="11"/>
-      <c r="I295" s="11"/>
-    </row>
-    <row r="296" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D296" s="11"/>
-      <c r="E296" s="10"/>
-      <c r="F296" s="10"/>
-      <c r="G296" s="10"/>
-      <c r="H296" s="11"/>
-      <c r="I296" s="11"/>
-    </row>
-    <row r="297" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D297" s="11"/>
-      <c r="E297" s="10"/>
-      <c r="F297" s="10"/>
-      <c r="G297" s="10"/>
-      <c r="H297" s="11"/>
-      <c r="I297" s="11"/>
-    </row>
-    <row r="298" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D298" s="11"/>
-      <c r="E298" s="10"/>
-      <c r="F298" s="10"/>
-      <c r="G298" s="10"/>
-      <c r="H298" s="11"/>
-      <c r="I298" s="11"/>
-    </row>
-    <row r="299" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D299" s="11"/>
-      <c r="E299" s="10"/>
-      <c r="F299" s="10"/>
-      <c r="G299" s="10"/>
-      <c r="H299" s="11"/>
-      <c r="I299" s="11"/>
-    </row>
-    <row r="300" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D282" s="4">
+        <v>45604</v>
+      </c>
+      <c r="E282" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F282" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G282" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="H282" s="6">
+        <v>0.4375</v>
+      </c>
+      <c r="I282" s="6">
+        <v>0.44444444444444442</v>
+      </c>
+    </row>
+    <row r="283" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A283" s="22"/>
+      <c r="B283" s="22"/>
+      <c r="C283" s="23"/>
+      <c r="D283" s="24">
+        <v>45607</v>
+      </c>
+      <c r="E283" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F283" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G283" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="H283" s="16">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I283" s="16">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="J283" s="22"/>
+      <c r="K283" s="22"/>
+      <c r="L283" s="22"/>
+      <c r="M283" s="22"/>
+      <c r="N283" s="22"/>
+      <c r="O283" s="22"/>
+    </row>
+    <row r="284" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A284" s="22"/>
+      <c r="B284" s="22"/>
+      <c r="C284" s="23"/>
+      <c r="D284" s="36">
+        <v>45607</v>
+      </c>
+      <c r="E284" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F284" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G284" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="H284" s="19">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="I284" s="19">
+        <v>0.5625</v>
+      </c>
+      <c r="J284" s="22"/>
+      <c r="K284" s="22"/>
+      <c r="L284" s="22"/>
+      <c r="M284" s="22"/>
+      <c r="N284" s="22"/>
+      <c r="O284" s="22"/>
+    </row>
+    <row r="285" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A285" s="22"/>
+      <c r="B285" s="22"/>
+      <c r="C285" s="23"/>
+      <c r="D285" s="36">
+        <v>45608</v>
+      </c>
+      <c r="E285" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F285" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G285" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="H285" s="19">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I285" s="19">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="J285" s="22"/>
+      <c r="K285" s="22"/>
+      <c r="L285" s="22"/>
+      <c r="M285" s="22"/>
+      <c r="N285" s="22"/>
+      <c r="O285" s="22"/>
+    </row>
+    <row r="286" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A286" s="22"/>
+      <c r="B286" s="22"/>
+      <c r="C286" s="23"/>
+      <c r="D286" s="36">
+        <v>45609</v>
+      </c>
+      <c r="E286" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F286" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G286" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="H286" s="19">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I286" s="19">
+        <v>0.375</v>
+      </c>
+      <c r="J286" s="22"/>
+      <c r="K286" s="22"/>
+      <c r="L286" s="22"/>
+      <c r="M286" s="22"/>
+      <c r="N286" s="22"/>
+      <c r="O286" s="22"/>
+    </row>
+    <row r="287" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A287" s="22"/>
+      <c r="B287" s="22"/>
+      <c r="C287" s="23"/>
+      <c r="D287" s="36">
+        <v>45609</v>
+      </c>
+      <c r="E287" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F287" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G287" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="H287" s="19">
+        <v>0.37847222222222227</v>
+      </c>
+      <c r="I287" s="19">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="J287" s="22"/>
+      <c r="K287" s="22"/>
+      <c r="L287" s="22"/>
+      <c r="M287" s="22"/>
+      <c r="N287" s="22"/>
+      <c r="O287" s="22"/>
+    </row>
+    <row r="288" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A288" s="22"/>
+      <c r="B288" s="22"/>
+      <c r="C288" s="23"/>
+      <c r="D288" s="36">
+        <v>45609</v>
+      </c>
+      <c r="E288" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F288" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G288" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="H288" s="19">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="I288" s="19">
+        <v>0.54652777777777783</v>
+      </c>
+      <c r="J288" s="22"/>
+      <c r="K288" s="22"/>
+      <c r="L288" s="22"/>
+      <c r="M288" s="22"/>
+      <c r="N288" s="22"/>
+      <c r="O288" s="22"/>
+    </row>
+    <row r="289" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A289" s="22"/>
+      <c r="B289" s="22"/>
+      <c r="C289" s="23"/>
+      <c r="D289" s="36">
+        <v>45609</v>
+      </c>
+      <c r="E289" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F289" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G289" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="H289" s="19">
+        <v>0.54722222222222217</v>
+      </c>
+      <c r="I289" s="19">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="J289" s="22"/>
+      <c r="K289" s="22"/>
+      <c r="L289" s="22"/>
+      <c r="M289" s="22"/>
+      <c r="N289" s="22"/>
+      <c r="O289" s="22"/>
+    </row>
+    <row r="290" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A290" s="22"/>
+      <c r="B290" s="22"/>
+      <c r="C290" s="23"/>
+      <c r="D290" s="36">
+        <v>45610</v>
+      </c>
+      <c r="E290" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F290" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G290" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="H290" s="19">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I290" s="19">
+        <v>0.375</v>
+      </c>
+      <c r="J290" s="22"/>
+      <c r="K290" s="22"/>
+      <c r="L290" s="22"/>
+      <c r="M290" s="22"/>
+      <c r="N290" s="22"/>
+      <c r="O290" s="22"/>
+    </row>
+    <row r="291" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A291" s="22"/>
+      <c r="B291" s="22"/>
+      <c r="C291" s="23"/>
+      <c r="D291" s="36">
+        <v>45610</v>
+      </c>
+      <c r="E291" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F291" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G291" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="H291" s="19">
+        <v>0.37847222222222227</v>
+      </c>
+      <c r="I291" s="19">
+        <v>0.37986111111111115</v>
+      </c>
+      <c r="J291" s="22"/>
+      <c r="K291" s="22"/>
+      <c r="L291" s="22"/>
+      <c r="M291" s="22"/>
+      <c r="N291" s="22"/>
+      <c r="O291" s="22"/>
+    </row>
+    <row r="292" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A292" s="22"/>
+      <c r="B292" s="22"/>
+      <c r="C292" s="23"/>
+      <c r="D292" s="36">
+        <v>45610</v>
+      </c>
+      <c r="E292" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F292" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G292" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="H292" s="19">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="I292" s="19">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="J292" s="22"/>
+      <c r="K292" s="22"/>
+      <c r="L292" s="22"/>
+      <c r="M292" s="22"/>
+      <c r="N292" s="22"/>
+      <c r="O292" s="22"/>
+    </row>
+    <row r="293" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A293" s="22"/>
+      <c r="B293" s="22"/>
+      <c r="C293" s="23"/>
+      <c r="D293" s="36">
+        <v>45610</v>
+      </c>
+      <c r="E293" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F293" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G293" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="H293" s="19">
+        <v>0.39652777777777781</v>
+      </c>
+      <c r="I293" s="19">
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="J293" s="22"/>
+      <c r="K293" s="22"/>
+      <c r="L293" s="22"/>
+      <c r="M293" s="22"/>
+      <c r="N293" s="22"/>
+      <c r="O293" s="22"/>
+    </row>
+    <row r="294" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A294" s="22"/>
+      <c r="B294" s="22"/>
+      <c r="C294" s="23"/>
+      <c r="D294" s="24">
+        <v>45610</v>
+      </c>
+      <c r="E294" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F294" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="G294" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="H294" s="16">
+        <v>0.4375</v>
+      </c>
+      <c r="I294" s="16">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="J294" s="22"/>
+      <c r="K294" s="22"/>
+      <c r="L294" s="22"/>
+      <c r="M294" s="22"/>
+      <c r="N294" s="22"/>
+      <c r="O294" s="22"/>
+      <c r="P294" s="22"/>
+      <c r="Q294" s="22"/>
+      <c r="R294" s="22"/>
+      <c r="S294" s="22"/>
+      <c r="T294" s="22"/>
+      <c r="U294" s="22"/>
+      <c r="V294" s="22"/>
+    </row>
+    <row r="295" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A295" s="22"/>
+      <c r="B295" s="22"/>
+      <c r="C295" s="23"/>
+      <c r="D295" s="36">
+        <v>45610</v>
+      </c>
+      <c r="E295" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F295" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G295" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="H295" s="19">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="I295" s="19">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="J295" s="22"/>
+      <c r="K295" s="22"/>
+      <c r="L295" s="22"/>
+      <c r="M295" s="22"/>
+      <c r="N295" s="22"/>
+      <c r="O295" s="22"/>
+      <c r="P295" s="22"/>
+      <c r="Q295" s="22"/>
+      <c r="R295" s="22"/>
+      <c r="S295" s="22"/>
+      <c r="T295" s="22"/>
+      <c r="U295" s="22"/>
+      <c r="V295" s="22"/>
+    </row>
+    <row r="296" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A296" s="22"/>
+      <c r="B296" s="22"/>
+      <c r="C296" s="23"/>
+      <c r="D296" s="24">
+        <v>45610</v>
+      </c>
+      <c r="E296" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F296" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="G296" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="H296" s="16">
+        <v>0.5625</v>
+      </c>
+      <c r="I296" s="16">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="J296" s="22"/>
+      <c r="K296" s="22"/>
+      <c r="L296" s="22"/>
+      <c r="M296" s="22"/>
+      <c r="N296" s="22"/>
+      <c r="O296" s="22"/>
+      <c r="P296" s="22"/>
+      <c r="Q296" s="22"/>
+      <c r="R296" s="22"/>
+      <c r="S296" s="22"/>
+      <c r="T296" s="22"/>
+      <c r="U296" s="22"/>
+      <c r="V296" s="22"/>
+    </row>
+    <row r="297" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A297" s="22"/>
+      <c r="B297" s="22"/>
+      <c r="C297" s="23"/>
+      <c r="D297" s="36">
+        <v>45614</v>
+      </c>
+      <c r="E297" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F297" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G297" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="H297" s="19">
+        <v>0.33263888888888887</v>
+      </c>
+      <c r="I297" s="19">
+        <v>0.33611111111111108</v>
+      </c>
+      <c r="J297" s="22"/>
+      <c r="K297" s="22"/>
+      <c r="L297" s="22"/>
+      <c r="M297" s="22"/>
+      <c r="N297" s="22"/>
+      <c r="O297" s="22"/>
+      <c r="P297" s="22"/>
+      <c r="Q297" s="22"/>
+      <c r="R297" s="22"/>
+      <c r="S297" s="22"/>
+      <c r="T297" s="22"/>
+      <c r="U297" s="22"/>
+      <c r="V297" s="22"/>
+    </row>
+    <row r="298" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A298" s="22"/>
+      <c r="B298" s="22"/>
+      <c r="C298" s="23"/>
+      <c r="D298" s="24">
+        <v>45614</v>
+      </c>
+      <c r="E298" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F298" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="G298" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="H298" s="16">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="I298" s="16">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="J298" s="22"/>
+      <c r="K298" s="22"/>
+      <c r="L298" s="22"/>
+      <c r="M298" s="22"/>
+      <c r="N298" s="22"/>
+      <c r="O298" s="22"/>
+      <c r="P298" s="22"/>
+      <c r="Q298" s="22"/>
+      <c r="R298" s="22"/>
+      <c r="S298" s="22"/>
+      <c r="T298" s="22"/>
+      <c r="U298" s="22"/>
+      <c r="V298" s="22"/>
+    </row>
+    <row r="299" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A299" s="22"/>
+      <c r="B299" s="22"/>
+      <c r="C299" s="23"/>
+      <c r="D299" s="24">
+        <v>45614</v>
+      </c>
+      <c r="E299" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F299" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="G299" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="H299" s="16">
+        <v>0.42430555555555555</v>
+      </c>
+      <c r="I299" s="16">
+        <v>0.42638888888888887</v>
+      </c>
+      <c r="J299" s="22"/>
+      <c r="K299" s="22"/>
+      <c r="L299" s="22"/>
+      <c r="M299" s="22"/>
+      <c r="N299" s="22"/>
+      <c r="O299" s="22"/>
+      <c r="P299" s="22"/>
+      <c r="Q299" s="22"/>
+      <c r="R299" s="22"/>
+      <c r="S299" s="22"/>
+      <c r="T299" s="22"/>
+      <c r="U299" s="22"/>
+      <c r="V299" s="22"/>
+    </row>
+    <row r="300" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D300" s="11"/>
       <c r="E300" s="10"/>
       <c r="F300" s="10"/>
@@ -7666,7 +8131,7 @@
       <c r="H300" s="11"/>
       <c r="I300" s="11"/>
     </row>
-    <row r="301" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D301" s="11"/>
       <c r="E301" s="10"/>
       <c r="F301" s="10"/>
@@ -7674,7 +8139,7 @@
       <c r="H301" s="11"/>
       <c r="I301" s="11"/>
     </row>
-    <row r="302" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D302" s="11"/>
       <c r="E302" s="10"/>
       <c r="F302" s="10"/>
@@ -7682,7 +8147,7 @@
       <c r="H302" s="11"/>
       <c r="I302" s="11"/>
     </row>
-    <row r="303" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D303" s="11"/>
       <c r="E303" s="10"/>
       <c r="F303" s="10"/>
@@ -7690,7 +8155,7 @@
       <c r="H303" s="11"/>
       <c r="I303" s="11"/>
     </row>
-    <row r="304" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D304" s="11"/>
       <c r="E304" s="10"/>
       <c r="F304" s="10"/>
@@ -13336,13 +13801,13 @@
     <mergeCell ref="C1:I1"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E3:E176 E180:E183 E188:E194 E196 E202:E203 E207:E208 E239:E243 E254:E257 E267:E278 E280:E1008">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E3:E176 E180:E183 E188:E194 E196 E202:E203 E207:E208 E239:E243 E254:E257 E267:E278 E280:E282 E300:E1008">
       <formula1>"GABRIEL,UILLIAM"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F32 F40">
       <formula1>"TI,NPJ,LAB,MED,PAV01,EAD,AULA,CORD MED,PROF MED,PROG,ARQ,ATEND,CAP,CORD"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F3:F27 F29:F31 F33:F39 F41:F176 F180:F183 F188:F194 F196 F202:F203 F207:F208 F239:F243 F254:F257 F267:F278 F280:F1008">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F3:F27 F29:F31 F33:F39 F41:F176 F180:F183 F188:F194 F196 F202:F203 F207:F208 F239:F243 F254:F257 F267:F278 F280:F282 F300:F1008">
       <formula1>"TI,NPJ,LAB,MED,PAV01,EAD,AULA,CORD MED,PROF MED,PROG,ARQ,ATEND,CAP,CPA,CORD,BLIB,DIR,FIN,RH"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F28">

--- a/Registro-de-atividades.xlsx
+++ b/Registro-de-atividades.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="335">
   <si>
     <t>Registro de atividades</t>
   </si>
@@ -877,6 +877,153 @@
   </si>
   <si>
     <t>Conversado para entender como o workchat esta funcionando</t>
+  </si>
+  <si>
+    <t>Guardando notebooks</t>
+  </si>
+  <si>
+    <t>Regeistrando nomes e telefones na planilha leads ENEM 2024.2</t>
+  </si>
+  <si>
+    <t>Fazenedo testes nos pcs do lab 01</t>
+  </si>
+  <si>
+    <t>Formatando pc lab 01</t>
+  </si>
+  <si>
+    <t>Acompanhando João no treinamento dp work chat</t>
+  </si>
+  <si>
+    <t>recolhendo equipamentos do ti na clinica de odonto</t>
+  </si>
+  <si>
+    <t>Instalando pc lab-01-20 no laboratorio</t>
+  </si>
+  <si>
+    <t>Suporte na projeção e conexão ao som</t>
+  </si>
+  <si>
+    <t>Levando impressora hd para a informak</t>
+  </si>
+  <si>
+    <t>tentando resolver bug do rotaFacenp</t>
+  </si>
+  <si>
+    <t>Refazendo estenção que estava dando curto</t>
+  </si>
+  <si>
+    <t>Tirando fios do debrif</t>
+  </si>
+  <si>
+    <t>Indentificando cabos de som e cortando gesso das salas do debri 2 e 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Passando cabos nas salas do debrif </t>
+  </si>
+  <si>
+    <t>Acompanhando na fechamento do gesso na sala do debrif</t>
+  </si>
+  <si>
+    <t>Importando dados para o CRM</t>
+  </si>
+  <si>
+    <t>Tracando teclado do computador de Rita</t>
+  </si>
+  <si>
+    <t>Ligando Equipamentos de medicina</t>
+  </si>
+  <si>
+    <t>Gravando video para rita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realizando acompanhamento a gravação de comercial </t>
+  </si>
+  <si>
+    <t>Realizando manutenção pc da sala de metodolgias ativas</t>
+  </si>
+  <si>
+    <t>Guardando cabos no deposito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consertando extenções </t>
+  </si>
+  <si>
+    <t>Consertando impressora da secretaria</t>
+  </si>
+  <si>
+    <t>Suporte a João no curso de treinamento a mexer nos bonecos de medicina</t>
+  </si>
+  <si>
+    <t>Importando arquivos para o RD Station CRM</t>
+  </si>
+  <si>
+    <t>Fazendo teste no computador da sala de metodologias ativas</t>
+  </si>
+  <si>
+    <t>cabos fixados na mesa de controle do Debrifing 1, 2 e 3</t>
+  </si>
+  <si>
+    <t>Fixando os 8 computadores e monitores, instalar computadores nas salas de aula</t>
+  </si>
+  <si>
+    <t>Ligando as televisões</t>
+  </si>
+  <si>
+    <t>Fixando os cabos dos computadores da secretaria após a mudança de mesas</t>
+  </si>
+  <si>
+    <t>Fixando cabos na captação, organizar cabos e filtro de linha</t>
+  </si>
+  <si>
+    <t>Fixando fios da speed dome na sala de habilidades clínicas</t>
+  </si>
+  <si>
+    <t>Colocando computador login na sala de apoio tecnico</t>
+  </si>
+  <si>
+    <t>Guardando notbook</t>
+  </si>
+  <si>
+    <t>Instalando e configurando impressora</t>
+  </si>
+  <si>
+    <t>Configurando sistema de buscar sala no linux</t>
+  </si>
+  <si>
+    <t>guardando notbook</t>
+  </si>
+  <si>
+    <t>Ligando televisoões</t>
+  </si>
+  <si>
+    <t>importando videos do app mapa de sala</t>
+  </si>
+  <si>
+    <t>levando microtic lem Fernando</t>
+  </si>
+  <si>
+    <t>editando videos do app mapa de sala</t>
+  </si>
+  <si>
+    <t>Ligando equipamentos no debrif</t>
+  </si>
+  <si>
+    <t>Tirando entrada de ar da impressora epson</t>
+  </si>
+  <si>
+    <t>Ligando monitor</t>
+  </si>
+  <si>
+    <t>realizando orçamento de equipamentos de som</t>
+  </si>
+  <si>
+    <t>programando mapa de sala</t>
+  </si>
+  <si>
+    <t>Instalando TOTVS na computador de dona Leonor</t>
+  </si>
+  <si>
+    <t>instalando DVR</t>
   </si>
 </sst>
 </file>
@@ -886,7 +1033,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -953,6 +1100,13 @@
       <u/>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1218,7 +1372,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1350,6 +1504,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="20" fontId="8" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1577,10 +1755,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:V1008"/>
+  <dimension ref="A1:X1011"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A285" workbookViewId="0">
-      <selection activeCell="C300" sqref="C300"/>
+    <sheetView tabSelected="1" topLeftCell="A347" workbookViewId="0">
+      <selection activeCell="A353" sqref="A353:X356"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1592,17 +1770,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="51"/>
-      <c r="B1" s="52"/>
-      <c r="C1" s="53" t="s">
+      <c r="A1" s="61"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="55"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="65"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -8123,463 +8301,1803 @@
       <c r="U299" s="22"/>
       <c r="V299" s="22"/>
     </row>
-    <row r="300" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D300" s="11"/>
-      <c r="E300" s="10"/>
-      <c r="F300" s="10"/>
-      <c r="G300" s="10"/>
-      <c r="H300" s="11"/>
-      <c r="I300" s="11"/>
-    </row>
-    <row r="301" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D301" s="11"/>
-      <c r="E301" s="10"/>
-      <c r="F301" s="10"/>
-      <c r="G301" s="10"/>
-      <c r="H301" s="11"/>
-      <c r="I301" s="11"/>
-    </row>
-    <row r="302" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D302" s="11"/>
-      <c r="E302" s="10"/>
-      <c r="F302" s="10"/>
-      <c r="G302" s="10"/>
-      <c r="H302" s="11"/>
-      <c r="I302" s="11"/>
+    <row r="300" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D300" s="4">
+        <v>45615</v>
+      </c>
+      <c r="E300" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F300" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G300" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="H300" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I300" s="6">
+        <v>0.33680555555555558</v>
+      </c>
+    </row>
+    <row r="301" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A301" s="22"/>
+      <c r="B301" s="22"/>
+      <c r="C301" s="23"/>
+      <c r="D301" s="24">
+        <v>45615</v>
+      </c>
+      <c r="E301" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F301" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="G301" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="H301" s="16">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="I301" s="16">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="J301" s="22"/>
+      <c r="K301" s="22"/>
+      <c r="L301" s="22"/>
+      <c r="M301" s="22"/>
+      <c r="N301" s="22"/>
+      <c r="O301" s="22"/>
+      <c r="P301" s="22"/>
+      <c r="Q301" s="22"/>
+      <c r="R301" s="22"/>
+      <c r="S301" s="22"/>
+      <c r="T301" s="22"/>
+      <c r="U301" s="22"/>
+      <c r="V301" s="22"/>
+    </row>
+    <row r="302" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A302" s="22"/>
+      <c r="B302" s="22"/>
+      <c r="C302" s="23"/>
+      <c r="D302" s="36">
+        <v>45615</v>
+      </c>
+      <c r="E302" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F302" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G302" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="H302" s="19">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="I302" s="19">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="J302" s="22"/>
+      <c r="K302" s="22"/>
+      <c r="L302" s="22"/>
+      <c r="M302" s="22"/>
+      <c r="N302" s="22"/>
+      <c r="O302" s="22"/>
+      <c r="P302" s="22"/>
+      <c r="Q302" s="22"/>
+      <c r="R302" s="22"/>
+      <c r="S302" s="22"/>
+      <c r="T302" s="22"/>
+      <c r="U302" s="22"/>
+      <c r="V302" s="22"/>
     </row>
     <row r="303" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D303" s="11"/>
-      <c r="E303" s="10"/>
-      <c r="F303" s="10"/>
-      <c r="G303" s="10"/>
-      <c r="H303" s="11"/>
-      <c r="I303" s="11"/>
-    </row>
-    <row r="304" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D304" s="11"/>
-      <c r="E304" s="10"/>
-      <c r="F304" s="10"/>
-      <c r="G304" s="10"/>
-      <c r="H304" s="11"/>
-      <c r="I304" s="11"/>
-    </row>
-    <row r="305" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D305" s="11"/>
-      <c r="E305" s="10"/>
-      <c r="F305" s="10"/>
-      <c r="G305" s="10"/>
-      <c r="H305" s="11"/>
-      <c r="I305" s="11"/>
-    </row>
-    <row r="306" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D306" s="11"/>
-      <c r="E306" s="10"/>
-      <c r="F306" s="10"/>
-      <c r="G306" s="10"/>
-      <c r="H306" s="11"/>
-      <c r="I306" s="11"/>
-    </row>
-    <row r="307" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D307" s="11"/>
-      <c r="E307" s="10"/>
-      <c r="F307" s="10"/>
-      <c r="G307" s="10"/>
-      <c r="H307" s="11"/>
-      <c r="I307" s="11"/>
-    </row>
-    <row r="308" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D308" s="11"/>
-      <c r="E308" s="10"/>
-      <c r="F308" s="10"/>
-      <c r="G308" s="10"/>
-      <c r="H308" s="11"/>
-      <c r="I308" s="11"/>
-    </row>
-    <row r="309" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D309" s="11"/>
-      <c r="E309" s="10"/>
-      <c r="F309" s="10"/>
-      <c r="G309" s="10"/>
-      <c r="H309" s="11"/>
-      <c r="I309" s="11"/>
-    </row>
-    <row r="310" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D310" s="11"/>
-      <c r="E310" s="10"/>
-      <c r="F310" s="10"/>
-      <c r="G310" s="10"/>
-      <c r="H310" s="11"/>
-      <c r="I310" s="11"/>
-    </row>
-    <row r="311" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D311" s="11"/>
-      <c r="E311" s="10"/>
-      <c r="F311" s="10"/>
-      <c r="G311" s="10"/>
-      <c r="H311" s="11"/>
-      <c r="I311" s="11"/>
-    </row>
-    <row r="312" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D312" s="11"/>
-      <c r="E312" s="10"/>
-      <c r="F312" s="10"/>
-      <c r="G312" s="10"/>
-      <c r="H312" s="11"/>
-      <c r="I312" s="11"/>
-    </row>
-    <row r="313" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D313" s="11"/>
-      <c r="E313" s="10"/>
-      <c r="F313" s="10"/>
-      <c r="G313" s="10"/>
-      <c r="H313" s="11"/>
-      <c r="I313" s="11"/>
-    </row>
-    <row r="314" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D314" s="11"/>
-      <c r="E314" s="10"/>
-      <c r="F314" s="10"/>
-      <c r="G314" s="10"/>
-      <c r="H314" s="11"/>
-      <c r="I314" s="11"/>
-    </row>
-    <row r="315" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D315" s="11"/>
-      <c r="E315" s="10"/>
-      <c r="F315" s="10"/>
-      <c r="G315" s="10"/>
-      <c r="H315" s="11"/>
-      <c r="I315" s="11"/>
-    </row>
-    <row r="316" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D316" s="11"/>
-      <c r="E316" s="10"/>
-      <c r="F316" s="10"/>
-      <c r="G316" s="10"/>
-      <c r="H316" s="11"/>
-      <c r="I316" s="11"/>
-    </row>
-    <row r="317" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D317" s="11"/>
-      <c r="E317" s="10"/>
-      <c r="F317" s="10"/>
-      <c r="G317" s="10"/>
-      <c r="H317" s="11"/>
-      <c r="I317" s="11"/>
-    </row>
-    <row r="318" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D318" s="11"/>
-      <c r="E318" s="10"/>
-      <c r="F318" s="10"/>
-      <c r="G318" s="10"/>
-      <c r="H318" s="11"/>
-      <c r="I318" s="11"/>
-    </row>
-    <row r="319" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D319" s="11"/>
-      <c r="E319" s="10"/>
-      <c r="F319" s="10"/>
-      <c r="G319" s="10"/>
-      <c r="H319" s="11"/>
-      <c r="I319" s="11"/>
-    </row>
-    <row r="320" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D320" s="11"/>
-      <c r="E320" s="10"/>
-      <c r="F320" s="10"/>
-      <c r="G320" s="10"/>
-      <c r="H320" s="11"/>
-      <c r="I320" s="11"/>
-    </row>
-    <row r="321" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D321" s="11"/>
-      <c r="E321" s="10"/>
-      <c r="F321" s="10"/>
-      <c r="G321" s="10"/>
-      <c r="H321" s="11"/>
-      <c r="I321" s="11"/>
-    </row>
-    <row r="322" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D322" s="11"/>
-      <c r="E322" s="10"/>
-      <c r="F322" s="10"/>
-      <c r="G322" s="10"/>
-      <c r="H322" s="11"/>
-      <c r="I322" s="11"/>
-    </row>
-    <row r="323" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D323" s="11"/>
-      <c r="E323" s="10"/>
-      <c r="F323" s="10"/>
-      <c r="G323" s="10"/>
-      <c r="H323" s="11"/>
-      <c r="I323" s="11"/>
-    </row>
-    <row r="324" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D324" s="11"/>
-      <c r="E324" s="10"/>
-      <c r="F324" s="10"/>
-      <c r="G324" s="10"/>
-      <c r="H324" s="11"/>
-      <c r="I324" s="11"/>
-    </row>
-    <row r="325" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D325" s="11"/>
-      <c r="E325" s="10"/>
-      <c r="F325" s="10"/>
-      <c r="G325" s="10"/>
-      <c r="H325" s="11"/>
-      <c r="I325" s="11"/>
-    </row>
-    <row r="326" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D326" s="11"/>
-      <c r="E326" s="10"/>
-      <c r="F326" s="10"/>
-      <c r="G326" s="10"/>
-      <c r="H326" s="11"/>
-      <c r="I326" s="11"/>
-    </row>
-    <row r="327" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D327" s="11"/>
-      <c r="E327" s="10"/>
-      <c r="F327" s="10"/>
-      <c r="G327" s="10"/>
-      <c r="H327" s="11"/>
-      <c r="I327" s="11"/>
-    </row>
-    <row r="328" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D328" s="11"/>
-      <c r="E328" s="10"/>
-      <c r="F328" s="10"/>
-      <c r="G328" s="10"/>
-      <c r="H328" s="11"/>
-      <c r="I328" s="11"/>
-    </row>
-    <row r="329" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D329" s="11"/>
-      <c r="E329" s="10"/>
-      <c r="F329" s="10"/>
-      <c r="G329" s="10"/>
-      <c r="H329" s="11"/>
-      <c r="I329" s="11"/>
-    </row>
-    <row r="330" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D330" s="11"/>
-      <c r="E330" s="10"/>
-      <c r="F330" s="10"/>
-      <c r="G330" s="10"/>
-      <c r="H330" s="11"/>
-      <c r="I330" s="11"/>
-    </row>
-    <row r="331" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D331" s="11"/>
-      <c r="E331" s="10"/>
-      <c r="F331" s="10"/>
-      <c r="G331" s="10"/>
-      <c r="H331" s="11"/>
-      <c r="I331" s="11"/>
-    </row>
-    <row r="332" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D332" s="11"/>
-      <c r="E332" s="10"/>
-      <c r="F332" s="10"/>
-      <c r="G332" s="10"/>
-      <c r="H332" s="11"/>
-      <c r="I332" s="11"/>
-    </row>
-    <row r="333" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D333" s="11"/>
-      <c r="E333" s="10"/>
-      <c r="F333" s="10"/>
-      <c r="G333" s="10"/>
-      <c r="H333" s="11"/>
-      <c r="I333" s="11"/>
-    </row>
-    <row r="334" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D334" s="11"/>
-      <c r="E334" s="10"/>
-      <c r="F334" s="10"/>
-      <c r="G334" s="10"/>
-      <c r="H334" s="11"/>
-      <c r="I334" s="11"/>
-    </row>
-    <row r="335" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D335" s="11"/>
-      <c r="E335" s="10"/>
-      <c r="F335" s="10"/>
-      <c r="G335" s="10"/>
-      <c r="H335" s="11"/>
-      <c r="I335" s="11"/>
-    </row>
-    <row r="336" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D336" s="11"/>
-      <c r="E336" s="10"/>
-      <c r="F336" s="10"/>
-      <c r="G336" s="10"/>
-      <c r="H336" s="11"/>
-      <c r="I336" s="11"/>
-    </row>
-    <row r="337" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D337" s="11"/>
-      <c r="E337" s="10"/>
-      <c r="F337" s="10"/>
-      <c r="G337" s="10"/>
-      <c r="H337" s="11"/>
-      <c r="I337" s="11"/>
-    </row>
-    <row r="338" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D338" s="11"/>
-      <c r="E338" s="10"/>
-      <c r="F338" s="10"/>
-      <c r="G338" s="10"/>
-      <c r="H338" s="11"/>
-      <c r="I338" s="11"/>
-    </row>
-    <row r="339" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D339" s="11"/>
-      <c r="E339" s="10"/>
-      <c r="F339" s="10"/>
-      <c r="G339" s="10"/>
-      <c r="H339" s="11"/>
-      <c r="I339" s="11"/>
-    </row>
-    <row r="340" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D340" s="11"/>
-      <c r="E340" s="10"/>
-      <c r="F340" s="10"/>
-      <c r="G340" s="10"/>
-      <c r="H340" s="11"/>
-      <c r="I340" s="11"/>
-    </row>
-    <row r="341" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D341" s="11"/>
-      <c r="E341" s="10"/>
-      <c r="F341" s="10"/>
-      <c r="G341" s="10"/>
-      <c r="H341" s="11"/>
-      <c r="I341" s="11"/>
-    </row>
-    <row r="342" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D342" s="11"/>
-      <c r="E342" s="10"/>
-      <c r="F342" s="10"/>
-      <c r="G342" s="10"/>
-      <c r="H342" s="11"/>
-      <c r="I342" s="11"/>
-    </row>
-    <row r="343" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D343" s="11"/>
-      <c r="E343" s="10"/>
-      <c r="F343" s="10"/>
-      <c r="G343" s="10"/>
-      <c r="H343" s="11"/>
-      <c r="I343" s="11"/>
-    </row>
-    <row r="344" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D344" s="11"/>
-      <c r="E344" s="10"/>
-      <c r="F344" s="10"/>
-      <c r="G344" s="10"/>
-      <c r="H344" s="11"/>
-      <c r="I344" s="11"/>
-    </row>
-    <row r="345" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D345" s="11"/>
-      <c r="E345" s="10"/>
-      <c r="F345" s="10"/>
-      <c r="G345" s="10"/>
-      <c r="H345" s="11"/>
-      <c r="I345" s="11"/>
-    </row>
-    <row r="346" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D346" s="11"/>
-      <c r="E346" s="10"/>
-      <c r="F346" s="10"/>
-      <c r="G346" s="10"/>
-      <c r="H346" s="11"/>
-      <c r="I346" s="11"/>
-    </row>
-    <row r="347" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D347" s="11"/>
-      <c r="E347" s="10"/>
-      <c r="F347" s="10"/>
-      <c r="G347" s="10"/>
-      <c r="H347" s="11"/>
-      <c r="I347" s="11"/>
-    </row>
-    <row r="348" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D348" s="11"/>
-      <c r="E348" s="10"/>
-      <c r="F348" s="10"/>
-      <c r="G348" s="10"/>
-      <c r="H348" s="11"/>
-      <c r="I348" s="11"/>
-    </row>
-    <row r="349" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D349" s="11"/>
-      <c r="E349" s="10"/>
-      <c r="F349" s="10"/>
-      <c r="G349" s="10"/>
-      <c r="H349" s="11"/>
-      <c r="I349" s="11"/>
-    </row>
-    <row r="350" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D350" s="11"/>
-      <c r="E350" s="10"/>
-      <c r="F350" s="10"/>
-      <c r="G350" s="10"/>
-      <c r="H350" s="11"/>
-      <c r="I350" s="11"/>
-    </row>
-    <row r="351" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D351" s="11"/>
-      <c r="E351" s="10"/>
-      <c r="F351" s="10"/>
-      <c r="G351" s="10"/>
-      <c r="H351" s="11"/>
-      <c r="I351" s="11"/>
-    </row>
-    <row r="352" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D352" s="11"/>
-      <c r="E352" s="10"/>
-      <c r="F352" s="10"/>
-      <c r="G352" s="10"/>
-      <c r="H352" s="11"/>
-      <c r="I352" s="11"/>
-    </row>
-    <row r="353" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D353" s="11"/>
-      <c r="E353" s="10"/>
-      <c r="F353" s="10"/>
-      <c r="G353" s="10"/>
-      <c r="H353" s="11"/>
-      <c r="I353" s="11"/>
-    </row>
-    <row r="354" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D354" s="11"/>
-      <c r="E354" s="10"/>
-      <c r="F354" s="10"/>
-      <c r="G354" s="10"/>
-      <c r="H354" s="11"/>
-      <c r="I354" s="11"/>
-    </row>
-    <row r="355" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D355" s="11"/>
-      <c r="E355" s="10"/>
-      <c r="F355" s="10"/>
-      <c r="G355" s="10"/>
-      <c r="H355" s="11"/>
-      <c r="I355" s="11"/>
-    </row>
-    <row r="356" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D356" s="11"/>
-      <c r="E356" s="10"/>
-      <c r="F356" s="10"/>
-      <c r="G356" s="10"/>
-      <c r="H356" s="11"/>
-      <c r="I356" s="11"/>
-    </row>
-    <row r="357" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D303" s="4">
+        <v>45617</v>
+      </c>
+      <c r="E303" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F303" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G303" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="H303" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I303" s="6">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="304" spans="1:22" s="51" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D304" s="4">
+        <v>45617</v>
+      </c>
+      <c r="E304" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F304" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G304" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="H304" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I304" s="6">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="305" spans="1:23" s="51" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D305" s="4">
+        <v>45617</v>
+      </c>
+      <c r="E305" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F305" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G305" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="H305" s="6">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="I305" s="6">
+        <v>0.4055555555555555</v>
+      </c>
+    </row>
+    <row r="306" spans="1:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D306" s="4">
+        <v>45617</v>
+      </c>
+      <c r="E306" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F306" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G306" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="H306" s="6">
+        <v>0.40625</v>
+      </c>
+      <c r="I306" s="6">
+        <v>0.4201388888888889</v>
+      </c>
+    </row>
+    <row r="307" spans="1:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A307" s="22"/>
+      <c r="B307" s="22"/>
+      <c r="C307" s="23"/>
+      <c r="D307" s="24">
+        <v>45617</v>
+      </c>
+      <c r="E307" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F307" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G307" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="H307" s="16">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="I307" s="16">
+        <v>0.48055555555555557</v>
+      </c>
+      <c r="J307" s="22"/>
+      <c r="K307" s="22"/>
+      <c r="L307" s="22"/>
+      <c r="M307" s="22"/>
+      <c r="N307" s="22"/>
+      <c r="O307" s="22"/>
+      <c r="P307" s="22"/>
+      <c r="Q307" s="22"/>
+      <c r="R307" s="22"/>
+      <c r="S307" s="22"/>
+      <c r="T307" s="22"/>
+      <c r="U307" s="22"/>
+      <c r="V307" s="22"/>
+      <c r="W307" s="22"/>
+    </row>
+    <row r="308" spans="1:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A308" s="22"/>
+      <c r="B308" s="22"/>
+      <c r="C308" s="23"/>
+      <c r="D308" s="24">
+        <v>45617</v>
+      </c>
+      <c r="E308" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F308" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G308" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="H308" s="16">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="I308" s="16">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="J308" s="22"/>
+      <c r="K308" s="22"/>
+      <c r="L308" s="22"/>
+      <c r="M308" s="22"/>
+      <c r="N308" s="22"/>
+      <c r="O308" s="22"/>
+      <c r="P308" s="22"/>
+      <c r="Q308" s="22"/>
+      <c r="R308" s="22"/>
+      <c r="S308" s="22"/>
+      <c r="T308" s="22"/>
+      <c r="U308" s="22"/>
+      <c r="V308" s="22"/>
+      <c r="W308" s="22"/>
+    </row>
+    <row r="309" spans="1:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A309" s="22"/>
+      <c r="B309" s="22"/>
+      <c r="C309" s="23"/>
+      <c r="D309" s="24">
+        <v>45618</v>
+      </c>
+      <c r="E309" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F309" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G309" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="H309" s="16">
+        <v>0.33263888888888887</v>
+      </c>
+      <c r="I309" s="16">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="J309" s="22"/>
+      <c r="K309" s="22"/>
+      <c r="L309" s="22"/>
+      <c r="M309" s="22"/>
+      <c r="N309" s="22"/>
+      <c r="O309" s="22"/>
+      <c r="P309" s="22"/>
+      <c r="Q309" s="22"/>
+      <c r="R309" s="22"/>
+      <c r="S309" s="22"/>
+      <c r="T309" s="22"/>
+      <c r="U309" s="22"/>
+      <c r="V309" s="22"/>
+      <c r="W309" s="22"/>
+    </row>
+    <row r="310" spans="1:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A310" s="22"/>
+      <c r="B310" s="22"/>
+      <c r="C310" s="23"/>
+      <c r="D310" s="36">
+        <v>45618</v>
+      </c>
+      <c r="E310" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F310" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G310" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="H310" s="19">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="I310" s="19">
+        <v>0.37152777777777773</v>
+      </c>
+      <c r="J310" s="22"/>
+      <c r="K310" s="22"/>
+      <c r="L310" s="22"/>
+      <c r="M310" s="22"/>
+      <c r="N310" s="22"/>
+      <c r="O310" s="22"/>
+      <c r="P310" s="22"/>
+      <c r="Q310" s="22"/>
+      <c r="R310" s="22"/>
+      <c r="S310" s="22"/>
+      <c r="T310" s="22"/>
+      <c r="U310" s="22"/>
+      <c r="V310" s="22"/>
+      <c r="W310" s="22"/>
+    </row>
+    <row r="311" spans="1:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A311" s="22"/>
+      <c r="B311" s="22"/>
+      <c r="C311" s="23"/>
+      <c r="D311" s="24">
+        <v>45618</v>
+      </c>
+      <c r="E311" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F311" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G311" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="H311" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="I311" s="16">
+        <v>0.4375</v>
+      </c>
+      <c r="J311" s="22"/>
+      <c r="K311" s="22"/>
+      <c r="L311" s="22"/>
+      <c r="M311" s="22"/>
+      <c r="N311" s="22"/>
+    </row>
+    <row r="312" spans="1:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A312" s="22"/>
+      <c r="B312" s="22"/>
+      <c r="C312" s="23"/>
+      <c r="D312" s="36">
+        <v>45618</v>
+      </c>
+      <c r="E312" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F312" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G312" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="H312" s="19">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="I312" s="19">
+        <v>0.49652777777777773</v>
+      </c>
+      <c r="J312" s="22"/>
+      <c r="K312" s="22"/>
+      <c r="L312" s="22"/>
+      <c r="M312" s="22"/>
+      <c r="N312" s="22"/>
+    </row>
+    <row r="313" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D313" s="4">
+        <v>45618</v>
+      </c>
+      <c r="E313" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F313" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G313" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="H313" s="6">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="I313" s="6">
+        <v>0.55902777777777779</v>
+      </c>
+    </row>
+    <row r="314" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D314" s="4">
+        <v>45621</v>
+      </c>
+      <c r="E314" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F314" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G314" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="H314" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="I314" s="6">
+        <v>0.48958333333333331</v>
+      </c>
+    </row>
+    <row r="315" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D315" s="4">
+        <v>45622</v>
+      </c>
+      <c r="E315" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F315" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G315" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="H315" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="I315" s="6">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="316" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D316" s="4">
+        <v>45622</v>
+      </c>
+      <c r="E316" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F316" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G316" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="H316" s="6">
+        <v>0.4381944444444445</v>
+      </c>
+      <c r="I316" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="317" spans="1:23" s="52" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D317" s="4">
+        <v>45622</v>
+      </c>
+      <c r="E317" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F317" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G317" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="H317" s="6">
+        <v>0.46875</v>
+      </c>
+      <c r="I317" s="6">
+        <v>0.47569444444444442</v>
+      </c>
+    </row>
+    <row r="318" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D318" s="4">
+        <v>45622</v>
+      </c>
+      <c r="E318" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F318" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G318" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="H318" s="6">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="I318" s="6">
+        <v>0.55625000000000002</v>
+      </c>
+    </row>
+    <row r="319" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D319" s="4">
+        <v>45623</v>
+      </c>
+      <c r="E319" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F319" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G319" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="H319" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I319" s="6">
+        <v>0.33680555555555558</v>
+      </c>
+    </row>
+    <row r="320" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D320" s="4">
+        <v>45623</v>
+      </c>
+      <c r="E320" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F320" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G320" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="H320" s="6">
+        <v>0.34027777777777773</v>
+      </c>
+      <c r="I320" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="321" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D321" s="4">
+        <v>45623</v>
+      </c>
+      <c r="E321" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F321" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G321" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="H321" s="6">
+        <v>0.35486111111111113</v>
+      </c>
+      <c r="I321" s="6">
+        <v>0.35694444444444445</v>
+      </c>
+    </row>
+    <row r="322" spans="1:24" s="53" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D322" s="4">
+        <v>45623</v>
+      </c>
+      <c r="E322" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F322" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G322" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="H322" s="6">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="I322" s="6">
+        <v>0.42083333333333334</v>
+      </c>
+    </row>
+    <row r="323" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D323" s="4">
+        <v>45623</v>
+      </c>
+      <c r="E323" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F323" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G323" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="H323" s="6">
+        <v>0.42083333333333334</v>
+      </c>
+      <c r="I323" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="324" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D324" s="4">
+        <v>45623</v>
+      </c>
+      <c r="E324" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F324" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G324" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="H324" s="6">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="I324" s="6">
+        <v>0.47222222222222227</v>
+      </c>
+    </row>
+    <row r="325" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D325" s="4">
+        <v>45623</v>
+      </c>
+      <c r="E325" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F325" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G325" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="H325" s="6">
+        <v>0.48055555555555557</v>
+      </c>
+      <c r="I325" s="6">
+        <v>0.4826388888888889</v>
+      </c>
+    </row>
+    <row r="326" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D326" s="4">
+        <v>45623</v>
+      </c>
+      <c r="E326" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F326" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G326" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="H326" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="I326" s="6">
+        <v>0.52777777777777779</v>
+      </c>
+    </row>
+    <row r="327" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A327" s="22"/>
+      <c r="B327" s="22"/>
+      <c r="C327" s="23"/>
+      <c r="D327" s="24">
+        <v>45624</v>
+      </c>
+      <c r="E327" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F327" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G327" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="H327" s="16">
+        <v>0.33194444444444443</v>
+      </c>
+      <c r="I327" s="16">
+        <v>0.3354166666666667</v>
+      </c>
+      <c r="J327" s="22"/>
+      <c r="K327" s="22"/>
+      <c r="L327" s="22"/>
+      <c r="M327" s="22"/>
+      <c r="N327" s="22"/>
+      <c r="O327" s="22"/>
+      <c r="P327" s="22"/>
+      <c r="Q327" s="22"/>
+      <c r="R327" s="22"/>
+      <c r="S327" s="22"/>
+      <c r="T327" s="22"/>
+      <c r="U327" s="22"/>
+      <c r="V327" s="22"/>
+      <c r="W327" s="22"/>
+      <c r="X327" s="22"/>
+    </row>
+    <row r="328" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A328" s="22"/>
+      <c r="B328" s="22"/>
+      <c r="C328" s="23"/>
+      <c r="D328" s="36">
+        <v>45624</v>
+      </c>
+      <c r="E328" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F328" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G328" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="H328" s="19">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="I328" s="19">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="J328" s="22"/>
+      <c r="K328" s="22"/>
+      <c r="L328" s="22"/>
+      <c r="M328" s="22"/>
+      <c r="N328" s="22"/>
+      <c r="O328" s="22"/>
+      <c r="P328" s="22"/>
+      <c r="Q328" s="22"/>
+      <c r="R328" s="22"/>
+      <c r="S328" s="22"/>
+      <c r="T328" s="22"/>
+      <c r="U328" s="22"/>
+      <c r="V328" s="22"/>
+      <c r="W328" s="22"/>
+      <c r="X328" s="22"/>
+    </row>
+    <row r="329" spans="1:24" s="59" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A329" s="55"/>
+      <c r="B329" s="55"/>
+      <c r="C329" s="56"/>
+      <c r="D329" s="57">
+        <v>45624</v>
+      </c>
+      <c r="E329" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="F329" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="G329" s="58" t="s">
+        <v>310</v>
+      </c>
+      <c r="H329" s="54">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="I329" s="54">
+        <v>0.40625</v>
+      </c>
+      <c r="J329" s="55"/>
+      <c r="K329" s="55"/>
+      <c r="L329" s="55"/>
+      <c r="M329" s="55"/>
+      <c r="N329" s="55"/>
+      <c r="O329" s="55"/>
+      <c r="P329" s="55"/>
+      <c r="Q329" s="55"/>
+      <c r="R329" s="55"/>
+      <c r="S329" s="55"/>
+      <c r="T329" s="55"/>
+      <c r="U329" s="55"/>
+      <c r="V329" s="55"/>
+      <c r="W329" s="55"/>
+      <c r="X329" s="55"/>
+    </row>
+    <row r="330" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A330" s="22"/>
+      <c r="B330" s="22"/>
+      <c r="C330" s="23"/>
+      <c r="D330" s="36">
+        <v>45624</v>
+      </c>
+      <c r="E330" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F330" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G330" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="H330" s="19">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="I330" s="19">
+        <v>0.46875</v>
+      </c>
+      <c r="J330" s="22"/>
+      <c r="K330" s="22"/>
+      <c r="L330" s="22"/>
+      <c r="M330" s="22"/>
+      <c r="N330" s="22"/>
+      <c r="O330" s="22"/>
+      <c r="P330" s="22"/>
+      <c r="Q330" s="22"/>
+      <c r="R330" s="22"/>
+      <c r="S330" s="22"/>
+      <c r="T330" s="22"/>
+      <c r="U330" s="22"/>
+      <c r="V330" s="22"/>
+      <c r="W330" s="22"/>
+      <c r="X330" s="22"/>
+    </row>
+    <row r="331" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A331" s="22"/>
+      <c r="B331" s="22"/>
+      <c r="C331" s="23"/>
+      <c r="D331" s="36">
+        <v>45624</v>
+      </c>
+      <c r="E331" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F331" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G331" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="H331" s="19">
+        <v>0.47361111111111115</v>
+      </c>
+      <c r="I331" s="19">
+        <v>0.49791666666666662</v>
+      </c>
+      <c r="J331" s="22"/>
+      <c r="K331" s="22"/>
+      <c r="L331" s="22"/>
+      <c r="M331" s="22"/>
+      <c r="N331" s="22"/>
+      <c r="O331" s="22"/>
+      <c r="P331" s="22"/>
+      <c r="Q331" s="22"/>
+      <c r="R331" s="22"/>
+      <c r="S331" s="22"/>
+      <c r="T331" s="22"/>
+      <c r="U331" s="22"/>
+      <c r="V331" s="22"/>
+      <c r="W331" s="22"/>
+      <c r="X331" s="22"/>
+    </row>
+    <row r="332" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A332" s="22"/>
+      <c r="B332" s="22"/>
+      <c r="C332" s="23"/>
+      <c r="D332" s="24">
+        <v>45625</v>
+      </c>
+      <c r="E332" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F332" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G332" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="H332" s="16">
+        <v>0.33194444444444443</v>
+      </c>
+      <c r="I332" s="16">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="J332" s="22"/>
+      <c r="K332" s="22"/>
+      <c r="L332" s="22"/>
+      <c r="M332" s="22"/>
+      <c r="N332" s="22"/>
+      <c r="O332" s="22"/>
+      <c r="P332" s="22"/>
+      <c r="Q332" s="22"/>
+      <c r="R332" s="22"/>
+      <c r="S332" s="22"/>
+      <c r="T332" s="22"/>
+      <c r="U332" s="22"/>
+      <c r="V332" s="22"/>
+      <c r="W332" s="22"/>
+      <c r="X332" s="22"/>
+    </row>
+    <row r="333" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A333" s="22"/>
+      <c r="B333" s="22"/>
+      <c r="C333" s="23"/>
+      <c r="D333" s="36">
+        <v>45625</v>
+      </c>
+      <c r="E333" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F333" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G333" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="H333" s="19">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="I333" s="19">
+        <v>0.37847222222222227</v>
+      </c>
+      <c r="J333" s="22"/>
+      <c r="K333" s="22"/>
+      <c r="L333" s="22"/>
+      <c r="M333" s="22"/>
+      <c r="N333" s="22"/>
+      <c r="O333" s="22"/>
+      <c r="P333" s="22"/>
+      <c r="Q333" s="22"/>
+      <c r="R333" s="22"/>
+      <c r="S333" s="22"/>
+      <c r="T333" s="22"/>
+      <c r="U333" s="22"/>
+      <c r="V333" s="22"/>
+      <c r="W333" s="22"/>
+      <c r="X333" s="22"/>
+    </row>
+    <row r="334" spans="1:24" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A334" s="22"/>
+      <c r="B334" s="22"/>
+      <c r="C334" s="23"/>
+      <c r="D334" s="57">
+        <v>45625</v>
+      </c>
+      <c r="E334" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="F334" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="G334" s="60" t="s">
+        <v>314</v>
+      </c>
+      <c r="H334" s="54">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="I334" s="54">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="J334" s="22"/>
+      <c r="K334" s="22"/>
+      <c r="L334" s="22"/>
+      <c r="M334" s="22"/>
+      <c r="N334" s="22"/>
+      <c r="O334" s="22"/>
+      <c r="P334" s="22"/>
+      <c r="Q334" s="22"/>
+      <c r="R334" s="22"/>
+      <c r="S334" s="22"/>
+      <c r="T334" s="22"/>
+      <c r="U334" s="22"/>
+      <c r="V334" s="22"/>
+      <c r="W334" s="22"/>
+      <c r="X334" s="22"/>
+    </row>
+    <row r="335" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A335" s="22"/>
+      <c r="B335" s="22"/>
+      <c r="C335" s="23"/>
+      <c r="D335" s="24">
+        <v>45628</v>
+      </c>
+      <c r="E335" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F335" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G335" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="H335" s="16">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I335" s="16">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="J335" s="22"/>
+      <c r="K335" s="22"/>
+      <c r="L335" s="22"/>
+      <c r="M335" s="22"/>
+      <c r="N335" s="22"/>
+      <c r="O335" s="22"/>
+      <c r="P335" s="22"/>
+      <c r="Q335" s="22"/>
+      <c r="R335" s="22"/>
+      <c r="S335" s="22"/>
+      <c r="T335" s="22"/>
+      <c r="U335" s="22"/>
+      <c r="V335" s="22"/>
+      <c r="W335" s="22"/>
+      <c r="X335" s="22"/>
+    </row>
+    <row r="336" spans="1:24" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A336" s="22"/>
+      <c r="B336" s="22"/>
+      <c r="C336" s="23"/>
+      <c r="D336" s="57">
+        <v>45628</v>
+      </c>
+      <c r="E336" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="F336" s="58" t="s">
+        <v>238</v>
+      </c>
+      <c r="G336" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="H336" s="54">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="I336" s="54">
+        <v>0.3576388888888889</v>
+      </c>
+      <c r="J336" s="22"/>
+      <c r="K336" s="22"/>
+      <c r="L336" s="22"/>
+      <c r="M336" s="22"/>
+      <c r="N336" s="22"/>
+      <c r="O336" s="22"/>
+      <c r="P336" s="22"/>
+      <c r="Q336" s="22"/>
+      <c r="R336" s="22"/>
+      <c r="S336" s="22"/>
+      <c r="T336" s="22"/>
+      <c r="U336" s="22"/>
+      <c r="V336" s="22"/>
+      <c r="W336" s="22"/>
+      <c r="X336" s="22"/>
+    </row>
+    <row r="337" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A337" s="22"/>
+      <c r="B337" s="22"/>
+      <c r="C337" s="23"/>
+      <c r="D337" s="36">
+        <v>45628</v>
+      </c>
+      <c r="E337" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F337" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G337" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="H337" s="19">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="I337" s="19">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="J337" s="22"/>
+      <c r="K337" s="22"/>
+      <c r="L337" s="22"/>
+      <c r="M337" s="22"/>
+      <c r="N337" s="22"/>
+      <c r="O337" s="22"/>
+      <c r="P337" s="22"/>
+      <c r="Q337" s="22"/>
+      <c r="R337" s="22"/>
+      <c r="S337" s="22"/>
+      <c r="T337" s="22"/>
+      <c r="U337" s="22"/>
+      <c r="V337" s="22"/>
+      <c r="W337" s="22"/>
+      <c r="X337" s="22"/>
+    </row>
+    <row r="338" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A338" s="22"/>
+      <c r="B338" s="22"/>
+      <c r="C338" s="23"/>
+      <c r="D338" s="36">
+        <v>45628</v>
+      </c>
+      <c r="E338" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F338" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G338" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="H338" s="19">
+        <v>0.4375</v>
+      </c>
+      <c r="I338" s="19">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="J338" s="22"/>
+      <c r="K338" s="22"/>
+      <c r="L338" s="22"/>
+      <c r="M338" s="22"/>
+      <c r="N338" s="22"/>
+      <c r="O338" s="22"/>
+      <c r="P338" s="22"/>
+      <c r="Q338" s="22"/>
+      <c r="R338" s="22"/>
+      <c r="S338" s="22"/>
+      <c r="T338" s="22"/>
+      <c r="U338" s="22"/>
+      <c r="V338" s="22"/>
+      <c r="W338" s="22"/>
+      <c r="X338" s="22"/>
+    </row>
+    <row r="339" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A339" s="22"/>
+      <c r="B339" s="22"/>
+      <c r="C339" s="23"/>
+      <c r="D339" s="36">
+        <v>45628</v>
+      </c>
+      <c r="E339" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F339" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G339" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="H339" s="19">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="I339" s="19">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="J339" s="22"/>
+      <c r="K339" s="22"/>
+      <c r="L339" s="22"/>
+      <c r="M339" s="22"/>
+      <c r="N339" s="22"/>
+      <c r="O339" s="22"/>
+      <c r="P339" s="22"/>
+      <c r="Q339" s="22"/>
+      <c r="R339" s="22"/>
+      <c r="S339" s="22"/>
+      <c r="T339" s="22"/>
+      <c r="U339" s="22"/>
+      <c r="V339" s="22"/>
+      <c r="W339" s="22"/>
+      <c r="X339" s="22"/>
+    </row>
+    <row r="340" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A340" s="22"/>
+      <c r="B340" s="22"/>
+      <c r="C340" s="23"/>
+      <c r="D340" s="24">
+        <v>45629</v>
+      </c>
+      <c r="E340" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F340" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G340" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="H340" s="16">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I340" s="16">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="J340" s="22"/>
+      <c r="K340" s="22"/>
+      <c r="L340" s="22"/>
+      <c r="M340" s="22"/>
+      <c r="N340" s="22"/>
+      <c r="O340" s="22"/>
+      <c r="P340" s="22"/>
+      <c r="Q340" s="22"/>
+      <c r="R340" s="22"/>
+      <c r="S340" s="22"/>
+      <c r="T340" s="22"/>
+      <c r="U340" s="22"/>
+      <c r="V340" s="22"/>
+      <c r="W340" s="22"/>
+      <c r="X340" s="22"/>
+    </row>
+    <row r="341" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A341" s="22"/>
+      <c r="B341" s="22"/>
+      <c r="C341" s="23"/>
+      <c r="D341" s="36">
+        <v>45629</v>
+      </c>
+      <c r="E341" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F341" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G341" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="H341" s="19">
+        <v>0.34027777777777773</v>
+      </c>
+      <c r="I341" s="19">
+        <v>0.34375</v>
+      </c>
+      <c r="J341" s="22"/>
+      <c r="K341" s="22"/>
+      <c r="L341" s="22"/>
+      <c r="M341" s="22"/>
+      <c r="N341" s="22"/>
+      <c r="O341" s="22"/>
+      <c r="P341" s="22"/>
+      <c r="Q341" s="22"/>
+      <c r="R341" s="22"/>
+      <c r="S341" s="22"/>
+      <c r="T341" s="22"/>
+      <c r="U341" s="22"/>
+      <c r="V341" s="22"/>
+      <c r="W341" s="22"/>
+      <c r="X341" s="22"/>
+    </row>
+    <row r="342" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A342" s="22"/>
+      <c r="B342" s="22"/>
+      <c r="C342" s="23"/>
+      <c r="D342" s="36">
+        <v>45629</v>
+      </c>
+      <c r="E342" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F342" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G342" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="H342" s="19">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="I342" s="19">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="J342" s="22"/>
+      <c r="K342" s="22"/>
+      <c r="L342" s="22"/>
+      <c r="M342" s="22"/>
+      <c r="N342" s="22"/>
+      <c r="O342" s="22"/>
+      <c r="P342" s="22"/>
+      <c r="Q342" s="22"/>
+      <c r="R342" s="22"/>
+      <c r="S342" s="22"/>
+      <c r="T342" s="22"/>
+      <c r="U342" s="22"/>
+      <c r="V342" s="22"/>
+      <c r="W342" s="22"/>
+      <c r="X342" s="22"/>
+    </row>
+    <row r="343" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A343" s="22"/>
+      <c r="B343" s="22"/>
+      <c r="C343" s="23"/>
+      <c r="D343" s="36">
+        <v>45629</v>
+      </c>
+      <c r="E343" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F343" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G343" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="H343" s="19">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="I343" s="19">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="J343" s="22"/>
+      <c r="K343" s="22"/>
+      <c r="L343" s="22"/>
+      <c r="M343" s="22"/>
+      <c r="N343" s="22"/>
+      <c r="O343" s="22"/>
+      <c r="P343" s="22"/>
+      <c r="Q343" s="22"/>
+      <c r="R343" s="22"/>
+      <c r="S343" s="22"/>
+      <c r="T343" s="22"/>
+      <c r="U343" s="22"/>
+      <c r="V343" s="22"/>
+      <c r="W343" s="22"/>
+      <c r="X343" s="22"/>
+    </row>
+    <row r="344" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A344" s="22"/>
+      <c r="B344" s="22"/>
+      <c r="C344" s="23"/>
+      <c r="D344" s="24">
+        <v>45630</v>
+      </c>
+      <c r="E344" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F344" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G344" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="H344" s="16">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I344" s="16">
+        <v>0.3354166666666667</v>
+      </c>
+      <c r="J344" s="22"/>
+      <c r="K344" s="22"/>
+      <c r="L344" s="22"/>
+      <c r="M344" s="22"/>
+      <c r="N344" s="22"/>
+      <c r="O344" s="22"/>
+      <c r="P344" s="22"/>
+      <c r="Q344" s="22"/>
+      <c r="R344" s="22"/>
+      <c r="S344" s="22"/>
+      <c r="T344" s="22"/>
+      <c r="U344" s="22"/>
+      <c r="V344" s="22"/>
+      <c r="W344" s="22"/>
+      <c r="X344" s="22"/>
+    </row>
+    <row r="345" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A345" s="22"/>
+      <c r="B345" s="22"/>
+      <c r="C345" s="23"/>
+      <c r="D345" s="36">
+        <v>45630</v>
+      </c>
+      <c r="E345" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F345" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G345" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="H345" s="19">
+        <v>0.34375</v>
+      </c>
+      <c r="I345" s="19">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="J345" s="22"/>
+      <c r="K345" s="22"/>
+      <c r="L345" s="22"/>
+      <c r="M345" s="22"/>
+      <c r="N345" s="22"/>
+      <c r="O345" s="22"/>
+      <c r="P345" s="22"/>
+      <c r="Q345" s="22"/>
+      <c r="R345" s="22"/>
+      <c r="S345" s="22"/>
+      <c r="T345" s="22"/>
+      <c r="U345" s="22"/>
+      <c r="V345" s="22"/>
+      <c r="W345" s="22"/>
+      <c r="X345" s="22"/>
+    </row>
+    <row r="346" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A346" s="22"/>
+      <c r="B346" s="22"/>
+      <c r="C346" s="23"/>
+      <c r="D346" s="36">
+        <v>45630</v>
+      </c>
+      <c r="E346" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F346" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G346" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="H346" s="19">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="I346" s="19">
+        <v>0.375</v>
+      </c>
+      <c r="J346" s="22"/>
+      <c r="K346" s="22"/>
+      <c r="L346" s="22"/>
+      <c r="M346" s="22"/>
+      <c r="N346" s="22"/>
+      <c r="O346" s="22"/>
+      <c r="P346" s="22"/>
+      <c r="Q346" s="22"/>
+      <c r="R346" s="22"/>
+      <c r="S346" s="22"/>
+      <c r="T346" s="22"/>
+      <c r="U346" s="22"/>
+      <c r="V346" s="22"/>
+      <c r="W346" s="22"/>
+      <c r="X346" s="22"/>
+    </row>
+    <row r="347" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A347" s="22"/>
+      <c r="B347" s="22"/>
+      <c r="C347" s="23"/>
+      <c r="D347" s="36">
+        <v>45630</v>
+      </c>
+      <c r="E347" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F347" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G347" s="18" t="s">
+        <v>326</v>
+      </c>
+      <c r="H347" s="19">
+        <v>0.37847222222222227</v>
+      </c>
+      <c r="I347" s="19">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="J347" s="22"/>
+      <c r="K347" s="22"/>
+      <c r="L347" s="22"/>
+      <c r="M347" s="22"/>
+      <c r="N347" s="22"/>
+      <c r="O347" s="22"/>
+      <c r="P347" s="22"/>
+      <c r="Q347" s="22"/>
+      <c r="R347" s="22"/>
+      <c r="S347" s="22"/>
+      <c r="T347" s="22"/>
+      <c r="U347" s="22"/>
+      <c r="V347" s="22"/>
+      <c r="W347" s="22"/>
+      <c r="X347" s="22"/>
+    </row>
+    <row r="348" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A348" s="22"/>
+      <c r="B348" s="22"/>
+      <c r="C348" s="23"/>
+      <c r="D348" s="36">
+        <v>45630</v>
+      </c>
+      <c r="E348" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F348" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G348" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="H348" s="19">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="I348" s="19">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="J348" s="22"/>
+      <c r="K348" s="22"/>
+      <c r="L348" s="22"/>
+      <c r="M348" s="22"/>
+      <c r="N348" s="22"/>
+      <c r="O348" s="22"/>
+      <c r="P348" s="22"/>
+      <c r="Q348" s="22"/>
+      <c r="R348" s="22"/>
+      <c r="S348" s="22"/>
+      <c r="T348" s="22"/>
+      <c r="U348" s="22"/>
+      <c r="V348" s="22"/>
+      <c r="W348" s="22"/>
+      <c r="X348" s="22"/>
+    </row>
+    <row r="349" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A349" s="22"/>
+      <c r="B349" s="22"/>
+      <c r="C349" s="23"/>
+      <c r="D349" s="36">
+        <v>45630</v>
+      </c>
+      <c r="E349" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F349" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G349" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="H349" s="19">
+        <v>0.42222222222222222</v>
+      </c>
+      <c r="I349" s="19">
+        <v>0.4375</v>
+      </c>
+      <c r="J349" s="22"/>
+      <c r="K349" s="22"/>
+      <c r="L349" s="22"/>
+      <c r="M349" s="22"/>
+      <c r="N349" s="22"/>
+      <c r="O349" s="22"/>
+      <c r="P349" s="22"/>
+      <c r="Q349" s="22"/>
+      <c r="R349" s="22"/>
+      <c r="S349" s="22"/>
+      <c r="T349" s="22"/>
+      <c r="U349" s="22"/>
+      <c r="V349" s="22"/>
+      <c r="W349" s="22"/>
+      <c r="X349" s="22"/>
+    </row>
+    <row r="350" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A350" s="22"/>
+      <c r="B350" s="22"/>
+      <c r="C350" s="23"/>
+      <c r="D350" s="36">
+        <v>45630</v>
+      </c>
+      <c r="E350" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F350" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="G350" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="H350" s="19">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="I350" s="19">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="J350" s="22"/>
+      <c r="K350" s="22"/>
+      <c r="L350" s="22"/>
+      <c r="M350" s="22"/>
+      <c r="N350" s="22"/>
+      <c r="O350" s="22"/>
+      <c r="P350" s="22"/>
+      <c r="Q350" s="22"/>
+      <c r="R350" s="22"/>
+      <c r="S350" s="22"/>
+      <c r="T350" s="22"/>
+      <c r="U350" s="22"/>
+      <c r="V350" s="22"/>
+      <c r="W350" s="22"/>
+      <c r="X350" s="22"/>
+    </row>
+    <row r="351" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A351" s="22"/>
+      <c r="B351" s="22"/>
+      <c r="C351" s="23"/>
+      <c r="D351" s="36">
+        <v>45630</v>
+      </c>
+      <c r="E351" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F351" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G351" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="H351" s="19">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="I351" s="19">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="J351" s="22"/>
+      <c r="K351" s="22"/>
+      <c r="L351" s="22"/>
+      <c r="M351" s="22"/>
+      <c r="N351" s="22"/>
+      <c r="O351" s="22"/>
+      <c r="P351" s="22"/>
+      <c r="Q351" s="22"/>
+      <c r="R351" s="22"/>
+      <c r="S351" s="22"/>
+      <c r="T351" s="22"/>
+      <c r="U351" s="22"/>
+      <c r="V351" s="22"/>
+      <c r="W351" s="22"/>
+      <c r="X351" s="22"/>
+    </row>
+    <row r="352" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A352" s="22"/>
+      <c r="B352" s="22"/>
+      <c r="C352" s="23"/>
+      <c r="D352" s="36">
+        <v>45630</v>
+      </c>
+      <c r="E352" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F352" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G352" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="H352" s="19">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="I352" s="19">
+        <v>0.56180555555555556</v>
+      </c>
+      <c r="J352" s="22"/>
+      <c r="K352" s="22"/>
+      <c r="L352" s="22"/>
+      <c r="M352" s="22"/>
+      <c r="N352" s="22"/>
+      <c r="O352" s="22"/>
+      <c r="P352" s="22"/>
+      <c r="Q352" s="22"/>
+      <c r="R352" s="22"/>
+      <c r="S352" s="22"/>
+      <c r="T352" s="22"/>
+      <c r="U352" s="22"/>
+      <c r="V352" s="22"/>
+      <c r="W352" s="22"/>
+      <c r="X352" s="22"/>
+    </row>
+    <row r="353" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A353" s="22"/>
+      <c r="B353" s="22"/>
+      <c r="C353" s="23"/>
+      <c r="D353" s="24">
+        <v>45631</v>
+      </c>
+      <c r="E353" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F353" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G353" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="H353" s="16">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I353" s="16">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="J353" s="22"/>
+      <c r="K353" s="22"/>
+      <c r="L353" s="22"/>
+      <c r="M353" s="22"/>
+      <c r="N353" s="22"/>
+      <c r="O353" s="22"/>
+      <c r="P353" s="22"/>
+      <c r="Q353" s="22"/>
+      <c r="R353" s="22"/>
+      <c r="S353" s="22"/>
+      <c r="T353" s="22"/>
+      <c r="U353" s="22"/>
+      <c r="V353" s="22"/>
+      <c r="W353" s="22"/>
+      <c r="X353" s="22"/>
+    </row>
+    <row r="354" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A354" s="22"/>
+      <c r="B354" s="22"/>
+      <c r="C354" s="23"/>
+      <c r="D354" s="36">
+        <v>45631</v>
+      </c>
+      <c r="E354" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F354" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G354" s="18" t="s">
+        <v>332</v>
+      </c>
+      <c r="H354" s="19">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="I354" s="19">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="J354" s="22"/>
+      <c r="K354" s="22"/>
+      <c r="L354" s="22"/>
+      <c r="M354" s="22"/>
+      <c r="N354" s="22"/>
+      <c r="O354" s="22"/>
+      <c r="P354" s="22"/>
+      <c r="Q354" s="22"/>
+      <c r="R354" s="22"/>
+      <c r="S354" s="22"/>
+      <c r="T354" s="22"/>
+      <c r="U354" s="22"/>
+      <c r="V354" s="22"/>
+      <c r="W354" s="22"/>
+      <c r="X354" s="22"/>
+    </row>
+    <row r="355" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A355" s="22"/>
+      <c r="B355" s="22"/>
+      <c r="C355" s="23"/>
+      <c r="D355" s="36">
+        <v>45631</v>
+      </c>
+      <c r="E355" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F355" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="G355" s="18" t="s">
+        <v>333</v>
+      </c>
+      <c r="H355" s="19">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="I355" s="19">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="J355" s="22"/>
+      <c r="K355" s="22"/>
+      <c r="L355" s="22"/>
+      <c r="M355" s="22"/>
+      <c r="N355" s="22"/>
+      <c r="O355" s="22"/>
+      <c r="P355" s="22"/>
+      <c r="Q355" s="22"/>
+      <c r="R355" s="22"/>
+      <c r="S355" s="22"/>
+      <c r="T355" s="22"/>
+      <c r="U355" s="22"/>
+      <c r="V355" s="22"/>
+      <c r="W355" s="22"/>
+      <c r="X355" s="22"/>
+    </row>
+    <row r="356" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A356" s="22"/>
+      <c r="B356" s="22"/>
+      <c r="C356" s="23"/>
+      <c r="D356" s="36">
+        <v>45631</v>
+      </c>
+      <c r="E356" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F356" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G356" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="H356" s="19">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="I356" s="19">
+        <v>0.50138888888888888</v>
+      </c>
+      <c r="J356" s="22"/>
+      <c r="K356" s="22"/>
+      <c r="L356" s="22"/>
+      <c r="M356" s="22"/>
+      <c r="N356" s="22"/>
+      <c r="O356" s="22"/>
+      <c r="P356" s="22"/>
+      <c r="Q356" s="22"/>
+      <c r="R356" s="22"/>
+      <c r="S356" s="22"/>
+      <c r="T356" s="22"/>
+      <c r="U356" s="22"/>
+      <c r="V356" s="22"/>
+      <c r="W356" s="22"/>
+      <c r="X356" s="22"/>
+    </row>
+    <row r="357" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D357" s="11"/>
       <c r="E357" s="10"/>
       <c r="F357" s="10"/>
@@ -8587,7 +10105,7 @@
       <c r="H357" s="11"/>
       <c r="I357" s="11"/>
     </row>
-    <row r="358" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D358" s="11"/>
       <c r="E358" s="10"/>
       <c r="F358" s="10"/>
@@ -8595,7 +10113,7 @@
       <c r="H358" s="11"/>
       <c r="I358" s="11"/>
     </row>
-    <row r="359" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D359" s="11"/>
       <c r="E359" s="10"/>
       <c r="F359" s="10"/>
@@ -8603,7 +10121,7 @@
       <c r="H359" s="11"/>
       <c r="I359" s="11"/>
     </row>
-    <row r="360" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D360" s="11"/>
       <c r="E360" s="10"/>
       <c r="F360" s="10"/>
@@ -8611,7 +10129,7 @@
       <c r="H360" s="11"/>
       <c r="I360" s="11"/>
     </row>
-    <row r="361" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D361" s="11"/>
       <c r="E361" s="10"/>
       <c r="F361" s="10"/>
@@ -8619,7 +10137,7 @@
       <c r="H361" s="11"/>
       <c r="I361" s="11"/>
     </row>
-    <row r="362" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D362" s="11"/>
       <c r="E362" s="10"/>
       <c r="F362" s="10"/>
@@ -8627,7 +10145,7 @@
       <c r="H362" s="11"/>
       <c r="I362" s="11"/>
     </row>
-    <row r="363" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D363" s="11"/>
       <c r="E363" s="10"/>
       <c r="F363" s="10"/>
@@ -8635,7 +10153,7 @@
       <c r="H363" s="11"/>
       <c r="I363" s="11"/>
     </row>
-    <row r="364" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D364" s="11"/>
       <c r="E364" s="10"/>
       <c r="F364" s="10"/>
@@ -8643,7 +10161,7 @@
       <c r="H364" s="11"/>
       <c r="I364" s="11"/>
     </row>
-    <row r="365" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D365" s="11"/>
       <c r="E365" s="10"/>
       <c r="F365" s="10"/>
@@ -8651,7 +10169,7 @@
       <c r="H365" s="11"/>
       <c r="I365" s="11"/>
     </row>
-    <row r="366" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D366" s="11"/>
       <c r="E366" s="10"/>
       <c r="F366" s="10"/>
@@ -8659,7 +10177,7 @@
       <c r="H366" s="11"/>
       <c r="I366" s="11"/>
     </row>
-    <row r="367" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D367" s="11"/>
       <c r="E367" s="10"/>
       <c r="F367" s="10"/>
@@ -8667,7 +10185,7 @@
       <c r="H367" s="11"/>
       <c r="I367" s="11"/>
     </row>
-    <row r="368" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D368" s="11"/>
       <c r="E368" s="10"/>
       <c r="F368" s="10"/>
@@ -13795,19 +15313,43 @@
       <c r="H1008" s="11"/>
       <c r="I1008" s="11"/>
     </row>
+    <row r="1009" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D1009" s="11"/>
+      <c r="E1009" s="10"/>
+      <c r="F1009" s="10"/>
+      <c r="G1009" s="10"/>
+      <c r="H1009" s="11"/>
+      <c r="I1009" s="11"/>
+    </row>
+    <row r="1010" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D1010" s="11"/>
+      <c r="E1010" s="10"/>
+      <c r="F1010" s="10"/>
+      <c r="G1010" s="10"/>
+      <c r="H1010" s="11"/>
+      <c r="I1010" s="11"/>
+    </row>
+    <row r="1011" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D1011" s="11"/>
+      <c r="E1011" s="10"/>
+      <c r="F1011" s="10"/>
+      <c r="G1011" s="10"/>
+      <c r="H1011" s="11"/>
+      <c r="I1011" s="11"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:I1"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E3:E176 E180:E183 E188:E194 E196 E202:E203 E207:E208 E239:E243 E254:E257 E267:E278 E280:E282 E300:E1008">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E3:E176 E180:E183 E188:E194 E196 E202:E203 E207:E208 E239:E243 E254:E257 E267:E278 E280:E282 E300 E303:E306 E313:E326 E357:E1011">
       <formula1>"GABRIEL,UILLIAM"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F32 F40">
       <formula1>"TI,NPJ,LAB,MED,PAV01,EAD,AULA,CORD MED,PROF MED,PROG,ARQ,ATEND,CAP,CORD"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F3:F27 F29:F31 F33:F39 F41:F176 F180:F183 F188:F194 F196 F202:F203 F207:F208 F239:F243 F254:F257 F267:F278 F280:F282 F300:F1008">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F3:F27 F29:F31 F33:F39 F41:F176 F180:F183 F188:F194 F196 F202:F203 F207:F208 F239:F243 F254:F257 F267:F278 F280:F282 F300 F303:F306 F313:F326 F357:F1011">
       <formula1>"TI,NPJ,LAB,MED,PAV01,EAD,AULA,CORD MED,PROF MED,PROG,ARQ,ATEND,CAP,CPA,CORD,BLIB,DIR,FIN,RH"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F28">

--- a/Registro-de-atividades.xlsx
+++ b/Registro-de-atividades.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="376">
   <si>
     <t>Registro de atividades</t>
   </si>
@@ -1024,6 +1024,129 @@
   </si>
   <si>
     <t>instalando DVR</t>
+  </si>
+  <si>
+    <t>pediando acesso para dona leonor e dando logim e senha</t>
+  </si>
+  <si>
+    <t>Colando tombo na impresora</t>
+  </si>
+  <si>
+    <t>Revisa instalação da dvr, e separando cabos que não estava funcionando</t>
+  </si>
+  <si>
+    <t>Ligando as tvs</t>
+  </si>
+  <si>
+    <t>Buscando impressora hp na informak</t>
+  </si>
+  <si>
+    <t>adicinando graficos no app de estoque</t>
+  </si>
+  <si>
+    <t>Arumando raque da cordenação com Feranndo</t>
+  </si>
+  <si>
+    <t>colocando impressora na rede</t>
+  </si>
+  <si>
+    <t>Importando dados Lds para o CRM</t>
+  </si>
+  <si>
+    <t>Instalando camera na sala de katia</t>
+  </si>
+  <si>
+    <t>Ligando equipamentos para a aula de medicina nos debrifs</t>
+  </si>
+  <si>
+    <t>Instalando microfone na mesa 1 do debrif</t>
+  </si>
+  <si>
+    <t>Consertando audio e trocando mricofone do debrifg 2</t>
+  </si>
+  <si>
+    <t>Cadastrando produtos no app de estoque</t>
+  </si>
+  <si>
+    <t>Programando mapa de sala</t>
+  </si>
+  <si>
+    <t>Fazendo testes na criação de notificações para o sistema de estoque</t>
+  </si>
+  <si>
+    <t>Fazendo teste com, datashow da sala de betodologias ativas</t>
+  </si>
+  <si>
+    <t>Isntalando datashow e notbook na sala de metodologias ativas</t>
+  </si>
+  <si>
+    <t>testando fontes dell</t>
+  </si>
+  <si>
+    <t>subinfo unicornio e nginx no mapa de sala</t>
+  </si>
+  <si>
+    <t>consertando impresora do finaceiro</t>
+  </si>
+  <si>
+    <t>Montando sala de runião</t>
+  </si>
+  <si>
+    <t>Criando firebase do app rotaUnifacemp</t>
+  </si>
+  <si>
+    <t>tentando subir mapa de sala no ngix</t>
+  </si>
+  <si>
+    <t>Resolvendo problema do telefone que não estava funcionando</t>
+  </si>
+  <si>
+    <t>colocando impressora sec-01 no computador de Paris</t>
+  </si>
+  <si>
+    <t>Liagando equipamentos do debrifg</t>
+  </si>
+  <si>
+    <t>Analisando pq Beta não estava conseguindo visualizar doculmento salvo na pasta</t>
+  </si>
+  <si>
+    <t>Testando mic do defifig 01que não estava funcionando</t>
+  </si>
+  <si>
+    <t>Indentificando webcam</t>
+  </si>
+  <si>
+    <t>testando computador da sala de morfologia, não estava dando video</t>
+  </si>
+  <si>
+    <t>Colocando impressora do finaceira no pc de Dina</t>
+  </si>
+  <si>
+    <t>Configurando rota facemp no pc de João</t>
+  </si>
+  <si>
+    <t>Suporte Taize no workchat</t>
+  </si>
+  <si>
+    <t>Conectando pcs da secretaria na impressora do finaceiro</t>
+  </si>
+  <si>
+    <t>Verificando loop na rede</t>
+  </si>
+  <si>
+    <t>Levando impressora epslon para a informak</t>
+  </si>
+  <si>
+    <t>Verificando loop na rede pavilhão 2 terreo</t>
+  </si>
+  <si>
+    <t>Resolvendo problema de internet no pc FIN-02</t>
+  </si>
+  <si>
+    <t>ligando as tvs</t>
+  </si>
+  <si>
+    <t>Fazendo testes na antena da sala 11</t>
   </si>
 </sst>
 </file>
@@ -1033,7 +1156,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1107,6 +1230,14 @@
     <font>
       <sz val="10"/>
       <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1372,7 +1503,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1527,6 +1658,19 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="21" fontId="8" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="11" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="11" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1755,10 +1899,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:X1011"/>
+  <dimension ref="A1:X1012"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A347" workbookViewId="0">
-      <selection activeCell="A353" sqref="A353:X356"/>
+    <sheetView tabSelected="1" topLeftCell="A398" workbookViewId="0">
+      <selection activeCell="G416" sqref="G416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1770,17 +1914,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="61"/>
-      <c r="B1" s="62"/>
-      <c r="C1" s="63" t="s">
+      <c r="A1" s="66"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="65"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="70"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -10097,463 +10241,2155 @@
       <c r="W356" s="22"/>
       <c r="X356" s="22"/>
     </row>
-    <row r="357" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D357" s="11"/>
-      <c r="E357" s="10"/>
-      <c r="F357" s="10"/>
-      <c r="G357" s="10"/>
-      <c r="H357" s="11"/>
-      <c r="I357" s="11"/>
-    </row>
-    <row r="358" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D358" s="11"/>
-      <c r="E358" s="10"/>
-      <c r="F358" s="10"/>
-      <c r="G358" s="10"/>
-      <c r="H358" s="11"/>
-      <c r="I358" s="11"/>
-    </row>
-    <row r="359" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D359" s="11"/>
-      <c r="E359" s="10"/>
-      <c r="F359" s="10"/>
-      <c r="G359" s="10"/>
-      <c r="H359" s="11"/>
-      <c r="I359" s="11"/>
-    </row>
-    <row r="360" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D360" s="11"/>
-      <c r="E360" s="10"/>
-      <c r="F360" s="10"/>
-      <c r="G360" s="10"/>
-      <c r="H360" s="11"/>
-      <c r="I360" s="11"/>
-    </row>
-    <row r="361" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D361" s="11"/>
-      <c r="E361" s="10"/>
-      <c r="F361" s="10"/>
-      <c r="G361" s="10"/>
-      <c r="H361" s="11"/>
-      <c r="I361" s="11"/>
-    </row>
-    <row r="362" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D362" s="11"/>
-      <c r="E362" s="10"/>
-      <c r="F362" s="10"/>
-      <c r="G362" s="10"/>
-      <c r="H362" s="11"/>
-      <c r="I362" s="11"/>
-    </row>
-    <row r="363" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D363" s="11"/>
-      <c r="E363" s="10"/>
-      <c r="F363" s="10"/>
-      <c r="G363" s="10"/>
-      <c r="H363" s="11"/>
-      <c r="I363" s="11"/>
-    </row>
-    <row r="364" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D364" s="11"/>
-      <c r="E364" s="10"/>
-      <c r="F364" s="10"/>
-      <c r="G364" s="10"/>
-      <c r="H364" s="11"/>
-      <c r="I364" s="11"/>
-    </row>
-    <row r="365" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D365" s="11"/>
-      <c r="E365" s="10"/>
-      <c r="F365" s="10"/>
-      <c r="G365" s="10"/>
-      <c r="H365" s="11"/>
-      <c r="I365" s="11"/>
-    </row>
-    <row r="366" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D366" s="11"/>
-      <c r="E366" s="10"/>
-      <c r="F366" s="10"/>
-      <c r="G366" s="10"/>
-      <c r="H366" s="11"/>
-      <c r="I366" s="11"/>
-    </row>
-    <row r="367" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D367" s="11"/>
-      <c r="E367" s="10"/>
-      <c r="F367" s="10"/>
-      <c r="G367" s="10"/>
-      <c r="H367" s="11"/>
-      <c r="I367" s="11"/>
-    </row>
-    <row r="368" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D368" s="11"/>
-      <c r="E368" s="10"/>
-      <c r="F368" s="10"/>
-      <c r="G368" s="10"/>
-      <c r="H368" s="11"/>
-      <c r="I368" s="11"/>
-    </row>
-    <row r="369" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D369" s="11"/>
-      <c r="E369" s="10"/>
-      <c r="F369" s="10"/>
-      <c r="G369" s="10"/>
-      <c r="H369" s="11"/>
-      <c r="I369" s="11"/>
-    </row>
-    <row r="370" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D370" s="11"/>
-      <c r="E370" s="10"/>
-      <c r="F370" s="10"/>
-      <c r="G370" s="10"/>
-      <c r="H370" s="11"/>
-      <c r="I370" s="11"/>
-    </row>
-    <row r="371" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D371" s="11"/>
-      <c r="E371" s="10"/>
-      <c r="F371" s="10"/>
-      <c r="G371" s="10"/>
-      <c r="H371" s="11"/>
-      <c r="I371" s="11"/>
-    </row>
-    <row r="372" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D372" s="11"/>
-      <c r="E372" s="10"/>
-      <c r="F372" s="10"/>
-      <c r="G372" s="10"/>
-      <c r="H372" s="11"/>
-      <c r="I372" s="11"/>
-    </row>
-    <row r="373" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D373" s="11"/>
-      <c r="E373" s="10"/>
-      <c r="F373" s="10"/>
-      <c r="G373" s="10"/>
-      <c r="H373" s="11"/>
-      <c r="I373" s="11"/>
-    </row>
-    <row r="374" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D374" s="11"/>
-      <c r="E374" s="10"/>
-      <c r="F374" s="10"/>
-      <c r="G374" s="10"/>
-      <c r="H374" s="11"/>
-      <c r="I374" s="11"/>
-    </row>
-    <row r="375" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D375" s="11"/>
-      <c r="E375" s="10"/>
-      <c r="F375" s="10"/>
-      <c r="G375" s="10"/>
-      <c r="H375" s="11"/>
-      <c r="I375" s="11"/>
-    </row>
-    <row r="376" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D376" s="11"/>
-      <c r="E376" s="10"/>
-      <c r="F376" s="10"/>
-      <c r="G376" s="10"/>
-      <c r="H376" s="11"/>
-      <c r="I376" s="11"/>
-    </row>
-    <row r="377" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D377" s="11"/>
-      <c r="E377" s="10"/>
-      <c r="F377" s="10"/>
-      <c r="G377" s="10"/>
-      <c r="H377" s="11"/>
-      <c r="I377" s="11"/>
-    </row>
-    <row r="378" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D378" s="11"/>
-      <c r="E378" s="10"/>
-      <c r="F378" s="10"/>
-      <c r="G378" s="10"/>
-      <c r="H378" s="11"/>
-      <c r="I378" s="11"/>
-    </row>
-    <row r="379" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D379" s="11"/>
-      <c r="E379" s="10"/>
-      <c r="F379" s="10"/>
-      <c r="G379" s="10"/>
-      <c r="H379" s="11"/>
-      <c r="I379" s="11"/>
-    </row>
-    <row r="380" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D380" s="11"/>
-      <c r="E380" s="10"/>
-      <c r="F380" s="10"/>
-      <c r="G380" s="10"/>
-      <c r="H380" s="11"/>
-      <c r="I380" s="11"/>
-    </row>
-    <row r="381" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D381" s="11"/>
-      <c r="E381" s="10"/>
-      <c r="F381" s="10"/>
-      <c r="G381" s="10"/>
-      <c r="H381" s="11"/>
-      <c r="I381" s="11"/>
-    </row>
-    <row r="382" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D382" s="11"/>
-      <c r="E382" s="10"/>
-      <c r="F382" s="10"/>
-      <c r="G382" s="10"/>
-      <c r="H382" s="11"/>
-      <c r="I382" s="11"/>
-    </row>
-    <row r="383" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D383" s="11"/>
-      <c r="E383" s="10"/>
-      <c r="F383" s="10"/>
-      <c r="G383" s="10"/>
-      <c r="H383" s="11"/>
-      <c r="I383" s="11"/>
-    </row>
-    <row r="384" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D384" s="11"/>
-      <c r="E384" s="10"/>
-      <c r="F384" s="10"/>
-      <c r="G384" s="10"/>
-      <c r="H384" s="11"/>
-      <c r="I384" s="11"/>
-    </row>
-    <row r="385" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D385" s="11"/>
-      <c r="E385" s="10"/>
-      <c r="F385" s="10"/>
-      <c r="G385" s="10"/>
-      <c r="H385" s="11"/>
-      <c r="I385" s="11"/>
-    </row>
-    <row r="386" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D386" s="11"/>
-      <c r="E386" s="10"/>
-      <c r="F386" s="10"/>
-      <c r="G386" s="10"/>
-      <c r="H386" s="11"/>
-      <c r="I386" s="11"/>
-    </row>
-    <row r="387" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D387" s="11"/>
-      <c r="E387" s="10"/>
-      <c r="F387" s="10"/>
-      <c r="G387" s="10"/>
-      <c r="H387" s="11"/>
-      <c r="I387" s="11"/>
-    </row>
-    <row r="388" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D388" s="11"/>
-      <c r="E388" s="10"/>
-      <c r="F388" s="10"/>
-      <c r="G388" s="10"/>
-      <c r="H388" s="11"/>
-      <c r="I388" s="11"/>
-    </row>
-    <row r="389" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D389" s="11"/>
-      <c r="E389" s="10"/>
-      <c r="F389" s="10"/>
-      <c r="G389" s="10"/>
-      <c r="H389" s="11"/>
-      <c r="I389" s="11"/>
-    </row>
-    <row r="390" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D390" s="11"/>
-      <c r="E390" s="10"/>
-      <c r="F390" s="10"/>
-      <c r="G390" s="10"/>
-      <c r="H390" s="11"/>
-      <c r="I390" s="11"/>
-    </row>
-    <row r="391" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D391" s="11"/>
-      <c r="E391" s="10"/>
-      <c r="F391" s="10"/>
-      <c r="G391" s="10"/>
-      <c r="H391" s="11"/>
-      <c r="I391" s="11"/>
-    </row>
-    <row r="392" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D392" s="11"/>
-      <c r="E392" s="10"/>
-      <c r="F392" s="10"/>
-      <c r="G392" s="10"/>
-      <c r="H392" s="11"/>
-      <c r="I392" s="11"/>
-    </row>
-    <row r="393" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D393" s="11"/>
-      <c r="E393" s="10"/>
-      <c r="F393" s="10"/>
-      <c r="G393" s="10"/>
-      <c r="H393" s="11"/>
-      <c r="I393" s="11"/>
-    </row>
-    <row r="394" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D394" s="11"/>
-      <c r="E394" s="10"/>
-      <c r="F394" s="10"/>
-      <c r="G394" s="10"/>
-      <c r="H394" s="11"/>
-      <c r="I394" s="11"/>
-    </row>
-    <row r="395" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D395" s="11"/>
-      <c r="E395" s="10"/>
-      <c r="F395" s="10"/>
-      <c r="G395" s="10"/>
-      <c r="H395" s="11"/>
-      <c r="I395" s="11"/>
-    </row>
-    <row r="396" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D396" s="11"/>
-      <c r="E396" s="10"/>
-      <c r="F396" s="10"/>
-      <c r="G396" s="10"/>
-      <c r="H396" s="11"/>
-      <c r="I396" s="11"/>
-    </row>
-    <row r="397" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D397" s="11"/>
-      <c r="E397" s="10"/>
-      <c r="F397" s="10"/>
-      <c r="G397" s="10"/>
-      <c r="H397" s="11"/>
-      <c r="I397" s="11"/>
-    </row>
-    <row r="398" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D398" s="11"/>
-      <c r="E398" s="10"/>
-      <c r="F398" s="10"/>
-      <c r="G398" s="10"/>
-      <c r="H398" s="11"/>
-      <c r="I398" s="11"/>
-    </row>
-    <row r="399" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D399" s="11"/>
-      <c r="E399" s="10"/>
-      <c r="F399" s="10"/>
-      <c r="G399" s="10"/>
-      <c r="H399" s="11"/>
-      <c r="I399" s="11"/>
-    </row>
-    <row r="400" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D400" s="11"/>
-      <c r="E400" s="10"/>
-      <c r="F400" s="10"/>
-      <c r="G400" s="10"/>
-      <c r="H400" s="11"/>
-      <c r="I400" s="11"/>
-    </row>
-    <row r="401" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D401" s="11"/>
-      <c r="E401" s="10"/>
-      <c r="F401" s="10"/>
-      <c r="G401" s="10"/>
-      <c r="H401" s="11"/>
-      <c r="I401" s="11"/>
-    </row>
-    <row r="402" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D402" s="11"/>
-      <c r="E402" s="10"/>
-      <c r="F402" s="10"/>
-      <c r="G402" s="10"/>
-      <c r="H402" s="11"/>
-      <c r="I402" s="11"/>
-    </row>
-    <row r="403" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D403" s="11"/>
-      <c r="E403" s="10"/>
-      <c r="F403" s="10"/>
-      <c r="G403" s="10"/>
-      <c r="H403" s="11"/>
-      <c r="I403" s="11"/>
-    </row>
-    <row r="404" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D404" s="11"/>
-      <c r="E404" s="10"/>
-      <c r="F404" s="10"/>
-      <c r="G404" s="10"/>
-      <c r="H404" s="11"/>
-      <c r="I404" s="11"/>
-    </row>
-    <row r="405" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D405" s="11"/>
-      <c r="E405" s="10"/>
-      <c r="F405" s="10"/>
-      <c r="G405" s="10"/>
-      <c r="H405" s="11"/>
-      <c r="I405" s="11"/>
-    </row>
-    <row r="406" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D406" s="11"/>
-      <c r="E406" s="10"/>
-      <c r="F406" s="10"/>
-      <c r="G406" s="10"/>
-      <c r="H406" s="11"/>
-      <c r="I406" s="11"/>
-    </row>
-    <row r="407" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D407" s="11"/>
-      <c r="E407" s="10"/>
-      <c r="F407" s="10"/>
-      <c r="G407" s="10"/>
-      <c r="H407" s="11"/>
-      <c r="I407" s="11"/>
-    </row>
-    <row r="408" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D408" s="11"/>
-      <c r="E408" s="10"/>
-      <c r="F408" s="10"/>
-      <c r="G408" s="10"/>
-      <c r="H408" s="11"/>
-      <c r="I408" s="11"/>
-    </row>
-    <row r="409" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D409" s="11"/>
-      <c r="E409" s="10"/>
-      <c r="F409" s="10"/>
-      <c r="G409" s="10"/>
-      <c r="H409" s="11"/>
-      <c r="I409" s="11"/>
-    </row>
-    <row r="410" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D410" s="11"/>
-      <c r="E410" s="10"/>
-      <c r="F410" s="10"/>
-      <c r="G410" s="10"/>
-      <c r="H410" s="11"/>
-      <c r="I410" s="11"/>
-    </row>
-    <row r="411" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D411" s="11"/>
-      <c r="E411" s="10"/>
-      <c r="F411" s="10"/>
-      <c r="G411" s="10"/>
-      <c r="H411" s="11"/>
-      <c r="I411" s="11"/>
-    </row>
-    <row r="412" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D412" s="11"/>
-      <c r="E412" s="10"/>
-      <c r="F412" s="10"/>
-      <c r="G412" s="10"/>
-      <c r="H412" s="11"/>
-      <c r="I412" s="11"/>
-    </row>
-    <row r="413" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D413" s="11"/>
-      <c r="E413" s="10"/>
-      <c r="F413" s="10"/>
-      <c r="G413" s="10"/>
-      <c r="H413" s="11"/>
-      <c r="I413" s="11"/>
-    </row>
-    <row r="414" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A357" s="22"/>
+      <c r="B357" s="22"/>
+      <c r="C357" s="23"/>
+      <c r="D357" s="24">
+        <v>45632</v>
+      </c>
+      <c r="E357" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F357" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G357" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="H357" s="16">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I357" s="16">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="J357" s="22"/>
+      <c r="K357" s="22"/>
+      <c r="L357" s="22"/>
+      <c r="M357" s="22"/>
+      <c r="N357" s="22"/>
+      <c r="O357" s="22"/>
+      <c r="P357" s="22"/>
+      <c r="Q357" s="22"/>
+      <c r="R357" s="22"/>
+      <c r="S357" s="22"/>
+      <c r="T357" s="22"/>
+      <c r="U357" s="22"/>
+      <c r="V357" s="22"/>
+      <c r="W357" s="22"/>
+      <c r="X357" s="22"/>
+    </row>
+    <row r="358" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A358" s="22"/>
+      <c r="B358" s="22"/>
+      <c r="C358" s="23"/>
+      <c r="D358" s="36">
+        <v>45632</v>
+      </c>
+      <c r="E358" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F358" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G358" s="18" t="s">
+        <v>335</v>
+      </c>
+      <c r="H358" s="19">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="I358" s="19">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="J358" s="22"/>
+      <c r="K358" s="22"/>
+      <c r="L358" s="22"/>
+      <c r="M358" s="22"/>
+      <c r="N358" s="22"/>
+      <c r="O358" s="22"/>
+      <c r="P358" s="22"/>
+      <c r="Q358" s="22"/>
+      <c r="R358" s="22"/>
+      <c r="S358" s="22"/>
+      <c r="T358" s="22"/>
+      <c r="U358" s="22"/>
+      <c r="V358" s="22"/>
+      <c r="W358" s="22"/>
+      <c r="X358" s="22"/>
+    </row>
+    <row r="359" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A359" s="22"/>
+      <c r="B359" s="22"/>
+      <c r="C359" s="23"/>
+      <c r="D359" s="36">
+        <v>45632</v>
+      </c>
+      <c r="E359" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F359" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G359" s="18" t="s">
+        <v>336</v>
+      </c>
+      <c r="H359" s="19">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="I359" s="19">
+        <v>0.37152777777777773</v>
+      </c>
+      <c r="J359" s="22"/>
+      <c r="K359" s="22"/>
+      <c r="L359" s="22"/>
+      <c r="M359" s="22"/>
+      <c r="N359" s="22"/>
+      <c r="O359" s="22"/>
+      <c r="P359" s="22"/>
+      <c r="Q359" s="22"/>
+      <c r="R359" s="22"/>
+      <c r="S359" s="22"/>
+      <c r="T359" s="22"/>
+      <c r="U359" s="22"/>
+      <c r="V359" s="22"/>
+      <c r="W359" s="22"/>
+      <c r="X359" s="22"/>
+    </row>
+    <row r="360" spans="1:24" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A360" s="22"/>
+      <c r="B360" s="22"/>
+      <c r="C360" s="23"/>
+      <c r="D360" s="57">
+        <v>45632</v>
+      </c>
+      <c r="E360" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="F360" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="G360" s="58" t="s">
+        <v>337</v>
+      </c>
+      <c r="H360" s="54">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="I360" s="54">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="J360" s="22"/>
+      <c r="K360" s="22"/>
+      <c r="L360" s="22"/>
+      <c r="M360" s="22"/>
+      <c r="N360" s="22"/>
+      <c r="O360" s="22"/>
+      <c r="P360" s="22"/>
+      <c r="Q360" s="22"/>
+      <c r="R360" s="22"/>
+      <c r="S360" s="22"/>
+      <c r="T360" s="22"/>
+      <c r="U360" s="22"/>
+      <c r="V360" s="22"/>
+      <c r="W360" s="22"/>
+      <c r="X360" s="22"/>
+    </row>
+    <row r="361" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A361" s="22"/>
+      <c r="B361" s="22"/>
+      <c r="C361" s="23"/>
+      <c r="D361" s="36">
+        <v>45632</v>
+      </c>
+      <c r="E361" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F361" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G361" s="18" t="s">
+        <v>332</v>
+      </c>
+      <c r="H361" s="19">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="I361" s="19">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="J361" s="22"/>
+      <c r="K361" s="22"/>
+      <c r="L361" s="22"/>
+      <c r="M361" s="22"/>
+      <c r="N361" s="22"/>
+      <c r="O361" s="22"/>
+      <c r="P361" s="22"/>
+      <c r="Q361" s="22"/>
+      <c r="R361" s="22"/>
+      <c r="S361" s="22"/>
+      <c r="T361" s="22"/>
+      <c r="U361" s="22"/>
+      <c r="V361" s="22"/>
+      <c r="W361" s="22"/>
+      <c r="X361" s="22"/>
+    </row>
+    <row r="362" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A362" s="22"/>
+      <c r="B362" s="22"/>
+      <c r="C362" s="23"/>
+      <c r="D362" s="24">
+        <v>45635</v>
+      </c>
+      <c r="E362" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F362" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G362" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="H362" s="61">
+        <v>0.34027777777777773</v>
+      </c>
+      <c r="I362" s="61">
+        <v>0.3430555555555555</v>
+      </c>
+      <c r="J362" s="22"/>
+      <c r="K362" s="22"/>
+      <c r="L362" s="22"/>
+      <c r="M362" s="22"/>
+      <c r="N362" s="22"/>
+      <c r="O362" s="22"/>
+      <c r="P362" s="22"/>
+      <c r="Q362" s="22"/>
+      <c r="R362" s="22"/>
+      <c r="S362" s="22"/>
+      <c r="T362" s="22"/>
+      <c r="U362" s="22"/>
+      <c r="V362" s="22"/>
+      <c r="W362" s="22"/>
+      <c r="X362" s="22"/>
+    </row>
+    <row r="363" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A363" s="22"/>
+      <c r="B363" s="22"/>
+      <c r="C363" s="23"/>
+      <c r="D363" s="36">
+        <v>45635</v>
+      </c>
+      <c r="E363" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F363" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G363" s="18" t="s">
+        <v>339</v>
+      </c>
+      <c r="H363" s="19">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="I363" s="19">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="J363" s="22"/>
+      <c r="K363" s="22"/>
+      <c r="L363" s="22"/>
+      <c r="M363" s="22"/>
+      <c r="N363" s="22"/>
+      <c r="O363" s="22"/>
+      <c r="P363" s="22"/>
+      <c r="Q363" s="22"/>
+      <c r="R363" s="22"/>
+      <c r="S363" s="22"/>
+      <c r="T363" s="22"/>
+      <c r="U363" s="22"/>
+      <c r="V363" s="22"/>
+      <c r="W363" s="22"/>
+      <c r="X363" s="22"/>
+    </row>
+    <row r="364" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A364" s="22"/>
+      <c r="B364" s="22"/>
+      <c r="C364" s="23"/>
+      <c r="D364" s="36">
+        <v>45635</v>
+      </c>
+      <c r="E364" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F364" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G364" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="H364" s="19">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="I364" s="19">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="J364" s="22"/>
+      <c r="K364" s="22"/>
+      <c r="L364" s="22"/>
+      <c r="M364" s="22"/>
+      <c r="N364" s="22"/>
+      <c r="O364" s="22"/>
+      <c r="P364" s="22"/>
+      <c r="Q364" s="22"/>
+      <c r="R364" s="22"/>
+      <c r="S364" s="22"/>
+      <c r="T364" s="22"/>
+      <c r="U364" s="22"/>
+      <c r="V364" s="22"/>
+      <c r="W364" s="22"/>
+      <c r="X364" s="22"/>
+    </row>
+    <row r="365" spans="1:24" s="62" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A365" s="22"/>
+      <c r="B365" s="22"/>
+      <c r="C365" s="23"/>
+      <c r="D365" s="24">
+        <v>45635</v>
+      </c>
+      <c r="E365" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F365" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="G365" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="H365" s="16">
+        <v>0.57916666666666672</v>
+      </c>
+      <c r="I365" s="16">
+        <v>0.58750000000000002</v>
+      </c>
+      <c r="J365" s="22"/>
+      <c r="K365" s="22"/>
+      <c r="L365" s="22"/>
+      <c r="M365" s="22"/>
+      <c r="N365" s="22"/>
+      <c r="O365" s="22"/>
+      <c r="P365" s="22"/>
+      <c r="Q365" s="22"/>
+      <c r="R365" s="22"/>
+      <c r="S365" s="22"/>
+      <c r="T365" s="22"/>
+      <c r="U365" s="22"/>
+      <c r="V365" s="22"/>
+      <c r="W365" s="22"/>
+      <c r="X365" s="22"/>
+    </row>
+    <row r="366" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A366" s="22"/>
+      <c r="B366" s="22"/>
+      <c r="C366" s="23"/>
+      <c r="D366" s="24">
+        <v>45636</v>
+      </c>
+      <c r="E366" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F366" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G366" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="H366" s="16">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I366" s="16">
+        <v>0.34027777777777773</v>
+      </c>
+      <c r="J366" s="22"/>
+      <c r="K366" s="22"/>
+      <c r="L366" s="22"/>
+      <c r="M366" s="22"/>
+      <c r="N366" s="22"/>
+      <c r="O366" s="22"/>
+      <c r="P366" s="22"/>
+      <c r="Q366" s="22"/>
+      <c r="R366" s="22"/>
+      <c r="S366" s="22"/>
+      <c r="T366" s="22"/>
+      <c r="U366" s="22"/>
+      <c r="V366" s="22"/>
+      <c r="W366" s="22"/>
+      <c r="X366" s="22"/>
+    </row>
+    <row r="367" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A367" s="22"/>
+      <c r="B367" s="22"/>
+      <c r="C367" s="23"/>
+      <c r="D367" s="36">
+        <v>45636</v>
+      </c>
+      <c r="E367" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F367" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G367" s="18" t="s">
+        <v>332</v>
+      </c>
+      <c r="H367" s="19">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="I367" s="19">
+        <v>0.375</v>
+      </c>
+      <c r="J367" s="22"/>
+      <c r="K367" s="22"/>
+      <c r="L367" s="22"/>
+      <c r="M367" s="22"/>
+      <c r="N367" s="22"/>
+      <c r="O367" s="22"/>
+      <c r="P367" s="22"/>
+      <c r="Q367" s="22"/>
+      <c r="R367" s="22"/>
+      <c r="S367" s="22"/>
+      <c r="T367" s="22"/>
+      <c r="U367" s="22"/>
+      <c r="V367" s="22"/>
+      <c r="W367" s="22"/>
+      <c r="X367" s="22"/>
+    </row>
+    <row r="368" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A368" s="22"/>
+      <c r="B368" s="22"/>
+      <c r="C368" s="23"/>
+      <c r="D368" s="36">
+        <v>45636</v>
+      </c>
+      <c r="E368" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F368" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G368" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="H368" s="19">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="I368" s="19">
+        <v>0.47361111111111115</v>
+      </c>
+      <c r="J368" s="22"/>
+      <c r="K368" s="22"/>
+      <c r="L368" s="22"/>
+      <c r="M368" s="22"/>
+      <c r="N368" s="22"/>
+      <c r="O368" s="22"/>
+      <c r="P368" s="22"/>
+      <c r="Q368" s="22"/>
+      <c r="R368" s="22"/>
+      <c r="S368" s="22"/>
+      <c r="T368" s="22"/>
+      <c r="U368" s="22"/>
+      <c r="V368" s="22"/>
+      <c r="W368" s="22"/>
+      <c r="X368" s="22"/>
+    </row>
+    <row r="369" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A369" s="22"/>
+      <c r="B369" s="22"/>
+      <c r="C369" s="23"/>
+      <c r="D369" s="24">
+        <v>45637</v>
+      </c>
+      <c r="E369" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F369" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G369" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="H369" s="16">
+        <v>0.33263888888888887</v>
+      </c>
+      <c r="I369" s="16">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="J369" s="22"/>
+      <c r="K369" s="22"/>
+      <c r="L369" s="22"/>
+      <c r="M369" s="22"/>
+      <c r="N369" s="22"/>
+      <c r="O369" s="22"/>
+      <c r="P369" s="22"/>
+      <c r="Q369" s="22"/>
+      <c r="R369" s="22"/>
+      <c r="S369" s="22"/>
+      <c r="T369" s="22"/>
+      <c r="U369" s="22"/>
+      <c r="V369" s="22"/>
+      <c r="W369" s="22"/>
+      <c r="X369" s="22"/>
+    </row>
+    <row r="370" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A370" s="22"/>
+      <c r="B370" s="22"/>
+      <c r="C370" s="23"/>
+      <c r="D370" s="36">
+        <v>45637</v>
+      </c>
+      <c r="E370" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F370" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G370" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="H370" s="19">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="I370" s="19">
+        <v>0.4375</v>
+      </c>
+      <c r="J370" s="22"/>
+      <c r="K370" s="22"/>
+      <c r="L370" s="22"/>
+      <c r="M370" s="22"/>
+      <c r="N370" s="22"/>
+      <c r="O370" s="22"/>
+      <c r="P370" s="22"/>
+      <c r="Q370" s="22"/>
+      <c r="R370" s="22"/>
+      <c r="S370" s="22"/>
+      <c r="T370" s="22"/>
+      <c r="U370" s="22"/>
+      <c r="V370" s="22"/>
+      <c r="W370" s="22"/>
+      <c r="X370" s="22"/>
+    </row>
+    <row r="371" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A371" s="22"/>
+      <c r="B371" s="22"/>
+      <c r="C371" s="23"/>
+      <c r="D371" s="36">
+        <v>45637</v>
+      </c>
+      <c r="E371" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F371" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G371" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="H371" s="19">
+        <v>0.4375</v>
+      </c>
+      <c r="I371" s="19">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="J371" s="22"/>
+      <c r="K371" s="22"/>
+      <c r="L371" s="22"/>
+      <c r="M371" s="22"/>
+      <c r="N371" s="22"/>
+      <c r="O371" s="22"/>
+      <c r="P371" s="22"/>
+      <c r="Q371" s="22"/>
+      <c r="R371" s="22"/>
+      <c r="S371" s="22"/>
+      <c r="T371" s="22"/>
+      <c r="U371" s="22"/>
+      <c r="V371" s="22"/>
+      <c r="W371" s="22"/>
+      <c r="X371" s="22"/>
+    </row>
+    <row r="372" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A372" s="22"/>
+      <c r="B372" s="22"/>
+      <c r="C372" s="23"/>
+      <c r="D372" s="36">
+        <v>45637</v>
+      </c>
+      <c r="E372" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F372" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G372" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="H372" s="19">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="I372" s="19">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="J372" s="22"/>
+      <c r="K372" s="22"/>
+      <c r="L372" s="22"/>
+      <c r="M372" s="22"/>
+      <c r="N372" s="22"/>
+      <c r="O372" s="22"/>
+      <c r="P372" s="22"/>
+      <c r="Q372" s="22"/>
+      <c r="R372" s="22"/>
+      <c r="S372" s="22"/>
+      <c r="T372" s="22"/>
+      <c r="U372" s="22"/>
+      <c r="V372" s="22"/>
+      <c r="W372" s="22"/>
+      <c r="X372" s="22"/>
+    </row>
+    <row r="373" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A373" s="22"/>
+      <c r="B373" s="22"/>
+      <c r="C373" s="23"/>
+      <c r="D373" s="36">
+        <v>45637</v>
+      </c>
+      <c r="E373" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F373" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G373" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="H373" s="19">
+        <v>0.50416666666666665</v>
+      </c>
+      <c r="I373" s="19">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="J373" s="22"/>
+      <c r="K373" s="22"/>
+      <c r="L373" s="22"/>
+      <c r="M373" s="22"/>
+      <c r="N373" s="22"/>
+      <c r="O373" s="22"/>
+      <c r="P373" s="22"/>
+      <c r="Q373" s="22"/>
+      <c r="R373" s="22"/>
+      <c r="S373" s="22"/>
+      <c r="T373" s="22"/>
+      <c r="U373" s="22"/>
+      <c r="V373" s="22"/>
+      <c r="W373" s="22"/>
+      <c r="X373" s="22"/>
+    </row>
+    <row r="374" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A374" s="22"/>
+      <c r="B374" s="22"/>
+      <c r="C374" s="23"/>
+      <c r="D374" s="24">
+        <v>45637</v>
+      </c>
+      <c r="E374" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F374" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G374" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="H374" s="16">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="I374" s="16">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="J374" s="22"/>
+      <c r="K374" s="22"/>
+      <c r="L374" s="22"/>
+      <c r="M374" s="22"/>
+      <c r="N374" s="22"/>
+      <c r="O374" s="22"/>
+      <c r="P374" s="22"/>
+      <c r="Q374" s="22"/>
+      <c r="R374" s="22"/>
+      <c r="S374" s="22"/>
+      <c r="T374" s="22"/>
+      <c r="U374" s="22"/>
+      <c r="V374" s="22"/>
+      <c r="W374" s="22"/>
+      <c r="X374" s="22"/>
+    </row>
+    <row r="375" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A375" s="22"/>
+      <c r="B375" s="22"/>
+      <c r="C375" s="23"/>
+      <c r="D375" s="36">
+        <v>45638</v>
+      </c>
+      <c r="E375" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F375" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G375" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="H375" s="19">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I375" s="19">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="J375" s="22"/>
+      <c r="K375" s="22"/>
+      <c r="L375" s="22"/>
+      <c r="M375" s="22"/>
+      <c r="N375" s="22"/>
+      <c r="O375" s="22"/>
+      <c r="P375" s="22"/>
+      <c r="Q375" s="22"/>
+      <c r="R375" s="22"/>
+      <c r="S375" s="22"/>
+      <c r="T375" s="22"/>
+      <c r="U375" s="22"/>
+      <c r="V375" s="22"/>
+      <c r="W375" s="22"/>
+      <c r="X375" s="22"/>
+    </row>
+    <row r="376" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A376" s="22"/>
+      <c r="B376" s="22"/>
+      <c r="C376" s="23"/>
+      <c r="D376" s="36">
+        <v>45638</v>
+      </c>
+      <c r="E376" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F376" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G376" s="18" t="s">
+        <v>348</v>
+      </c>
+      <c r="H376" s="19">
+        <v>0.34027777777777773</v>
+      </c>
+      <c r="I376" s="19">
+        <v>0.45277777777777778</v>
+      </c>
+      <c r="J376" s="22"/>
+      <c r="K376" s="22"/>
+      <c r="L376" s="22"/>
+      <c r="M376" s="22"/>
+      <c r="N376" s="22"/>
+      <c r="O376" s="22"/>
+      <c r="P376" s="22"/>
+      <c r="Q376" s="22"/>
+      <c r="R376" s="22"/>
+      <c r="S376" s="22"/>
+      <c r="T376" s="22"/>
+      <c r="U376" s="22"/>
+      <c r="V376" s="22"/>
+      <c r="W376" s="22"/>
+      <c r="X376" s="22"/>
+    </row>
+    <row r="377" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A377" s="22"/>
+      <c r="B377" s="22"/>
+      <c r="C377" s="23"/>
+      <c r="D377" s="36">
+        <v>45638</v>
+      </c>
+      <c r="E377" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F377" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G377" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="H377" s="19">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="I377" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="J377" s="22"/>
+      <c r="K377" s="22"/>
+      <c r="L377" s="22"/>
+      <c r="M377" s="22"/>
+      <c r="N377" s="22"/>
+      <c r="O377" s="22"/>
+      <c r="P377" s="22"/>
+      <c r="Q377" s="22"/>
+      <c r="R377" s="22"/>
+      <c r="S377" s="22"/>
+      <c r="T377" s="22"/>
+      <c r="U377" s="22"/>
+      <c r="V377" s="22"/>
+      <c r="W377" s="22"/>
+      <c r="X377" s="22"/>
+    </row>
+    <row r="378" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A378" s="22"/>
+      <c r="B378" s="22"/>
+      <c r="C378" s="23"/>
+      <c r="D378" s="24">
+        <v>45639</v>
+      </c>
+      <c r="E378" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F378" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G378" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="H378" s="16">
+        <v>0.33263888888888887</v>
+      </c>
+      <c r="I378" s="16">
+        <v>0.33611111111111108</v>
+      </c>
+      <c r="J378" s="22"/>
+      <c r="K378" s="22"/>
+      <c r="L378" s="22"/>
+      <c r="M378" s="22"/>
+      <c r="N378" s="22"/>
+      <c r="O378" s="22"/>
+      <c r="P378" s="22"/>
+      <c r="Q378" s="22"/>
+      <c r="R378" s="22"/>
+      <c r="S378" s="22"/>
+      <c r="T378" s="22"/>
+      <c r="U378" s="22"/>
+      <c r="V378" s="22"/>
+      <c r="W378" s="22"/>
+      <c r="X378" s="22"/>
+    </row>
+    <row r="379" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A379" s="22"/>
+      <c r="B379" s="22"/>
+      <c r="C379" s="23"/>
+      <c r="D379" s="36">
+        <v>45639</v>
+      </c>
+      <c r="E379" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F379" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G379" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="H379" s="19">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="I379" s="19">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="J379" s="22"/>
+      <c r="K379" s="22"/>
+      <c r="L379" s="22"/>
+      <c r="M379" s="22"/>
+      <c r="N379" s="22"/>
+      <c r="O379" s="22"/>
+      <c r="P379" s="22"/>
+      <c r="Q379" s="22"/>
+      <c r="R379" s="22"/>
+      <c r="S379" s="22"/>
+      <c r="T379" s="22"/>
+      <c r="U379" s="22"/>
+      <c r="V379" s="22"/>
+      <c r="W379" s="22"/>
+      <c r="X379" s="22"/>
+    </row>
+    <row r="380" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A380" s="22"/>
+      <c r="B380" s="22"/>
+      <c r="C380" s="23"/>
+      <c r="D380" s="36">
+        <v>45639</v>
+      </c>
+      <c r="E380" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F380" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G380" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="H380" s="19">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="I380" s="19">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="J380" s="22"/>
+      <c r="K380" s="22"/>
+      <c r="L380" s="22"/>
+      <c r="M380" s="22"/>
+      <c r="N380" s="22"/>
+      <c r="O380" s="22"/>
+      <c r="P380" s="22"/>
+      <c r="Q380" s="22"/>
+      <c r="R380" s="22"/>
+      <c r="S380" s="22"/>
+      <c r="T380" s="22"/>
+      <c r="U380" s="22"/>
+      <c r="V380" s="22"/>
+      <c r="W380" s="22"/>
+      <c r="X380" s="22"/>
+    </row>
+    <row r="381" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A381" s="22"/>
+      <c r="B381" s="22"/>
+      <c r="C381" s="23"/>
+      <c r="D381" s="36">
+        <v>45639</v>
+      </c>
+      <c r="E381" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F381" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G381" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="H381" s="19">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="I381" s="19">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="J381" s="22"/>
+      <c r="K381" s="22"/>
+      <c r="L381" s="22"/>
+      <c r="M381" s="22"/>
+      <c r="N381" s="22"/>
+      <c r="O381" s="22"/>
+      <c r="P381" s="22"/>
+      <c r="Q381" s="22"/>
+      <c r="R381" s="22"/>
+      <c r="S381" s="22"/>
+      <c r="T381" s="22"/>
+      <c r="U381" s="22"/>
+      <c r="V381" s="22"/>
+      <c r="W381" s="22"/>
+      <c r="X381" s="22"/>
+    </row>
+    <row r="382" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A382" s="22"/>
+      <c r="B382" s="22"/>
+      <c r="C382" s="23"/>
+      <c r="D382" s="24">
+        <v>45642</v>
+      </c>
+      <c r="E382" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F382" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G382" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="H382" s="16">
+        <v>0.33263888888888887</v>
+      </c>
+      <c r="I382" s="16">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="J382" s="22"/>
+      <c r="K382" s="22"/>
+      <c r="L382" s="22"/>
+      <c r="M382" s="22"/>
+      <c r="N382" s="22"/>
+      <c r="O382" s="22"/>
+      <c r="P382" s="22"/>
+      <c r="Q382" s="22"/>
+      <c r="R382" s="22"/>
+      <c r="S382" s="22"/>
+      <c r="T382" s="22"/>
+      <c r="U382" s="22"/>
+      <c r="V382" s="22"/>
+      <c r="W382" s="22"/>
+      <c r="X382" s="22"/>
+    </row>
+    <row r="383" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A383" s="22"/>
+      <c r="B383" s="22"/>
+      <c r="C383" s="23"/>
+      <c r="D383" s="36">
+        <v>45642</v>
+      </c>
+      <c r="E383" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F383" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G383" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="H383" s="19">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="I383" s="19">
+        <v>0.4375</v>
+      </c>
+      <c r="J383" s="22"/>
+      <c r="K383" s="22"/>
+      <c r="L383" s="22"/>
+      <c r="M383" s="22"/>
+      <c r="N383" s="22"/>
+      <c r="O383" s="22"/>
+      <c r="P383" s="22"/>
+      <c r="Q383" s="22"/>
+      <c r="R383" s="22"/>
+      <c r="S383" s="22"/>
+      <c r="T383" s="22"/>
+      <c r="U383" s="22"/>
+      <c r="V383" s="22"/>
+      <c r="W383" s="22"/>
+      <c r="X383" s="22"/>
+    </row>
+    <row r="384" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A384" s="22"/>
+      <c r="B384" s="22"/>
+      <c r="C384" s="23"/>
+      <c r="D384" s="36">
+        <v>45642</v>
+      </c>
+      <c r="E384" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F384" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G384" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="H384" s="19">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="I384" s="19">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="J384" s="22"/>
+      <c r="K384" s="22"/>
+      <c r="L384" s="22"/>
+      <c r="M384" s="22"/>
+      <c r="N384" s="22"/>
+      <c r="O384" s="22"/>
+      <c r="P384" s="22"/>
+      <c r="Q384" s="22"/>
+      <c r="R384" s="22"/>
+      <c r="S384" s="22"/>
+      <c r="T384" s="22"/>
+      <c r="U384" s="22"/>
+      <c r="V384" s="22"/>
+      <c r="W384" s="22"/>
+      <c r="X384" s="22"/>
+    </row>
+    <row r="385" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A385" s="22"/>
+      <c r="B385" s="22"/>
+      <c r="C385" s="23"/>
+      <c r="D385" s="36">
+        <v>45643</v>
+      </c>
+      <c r="E385" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F385" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G385" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="H385" s="19">
+        <v>0.34027777777777773</v>
+      </c>
+      <c r="I385" s="19">
+        <v>0.34375</v>
+      </c>
+      <c r="J385" s="22"/>
+      <c r="K385" s="22"/>
+      <c r="L385" s="22"/>
+      <c r="M385" s="22"/>
+      <c r="N385" s="22"/>
+      <c r="O385" s="22"/>
+      <c r="P385" s="22"/>
+      <c r="Q385" s="22"/>
+      <c r="R385" s="22"/>
+      <c r="S385" s="22"/>
+      <c r="T385" s="22"/>
+      <c r="U385" s="22"/>
+      <c r="V385" s="22"/>
+      <c r="W385" s="22"/>
+      <c r="X385" s="22"/>
+    </row>
+    <row r="386" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A386" s="22"/>
+      <c r="B386" s="22"/>
+      <c r="C386" s="23"/>
+      <c r="D386" s="36">
+        <v>45643</v>
+      </c>
+      <c r="E386" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F386" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G386" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="H386" s="19">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="I386" s="19">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="J386" s="22"/>
+      <c r="K386" s="22"/>
+      <c r="L386" s="22"/>
+      <c r="M386" s="22"/>
+      <c r="N386" s="22"/>
+      <c r="O386" s="22"/>
+      <c r="P386" s="22"/>
+      <c r="Q386" s="22"/>
+      <c r="R386" s="22"/>
+      <c r="S386" s="22"/>
+      <c r="T386" s="22"/>
+      <c r="U386" s="22"/>
+      <c r="V386" s="22"/>
+      <c r="W386" s="22"/>
+      <c r="X386" s="22"/>
+    </row>
+    <row r="387" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A387" s="22"/>
+      <c r="B387" s="22"/>
+      <c r="C387" s="23"/>
+      <c r="D387" s="36">
+        <v>45643</v>
+      </c>
+      <c r="E387" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F387" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G387" s="18" t="s">
+        <v>355</v>
+      </c>
+      <c r="H387" s="19">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="I387" s="19">
+        <v>0.4375</v>
+      </c>
+      <c r="J387" s="22"/>
+      <c r="K387" s="22"/>
+      <c r="L387" s="22"/>
+      <c r="M387" s="22"/>
+      <c r="N387" s="22"/>
+      <c r="O387" s="22"/>
+      <c r="P387" s="22"/>
+      <c r="Q387" s="22"/>
+      <c r="R387" s="22"/>
+      <c r="S387" s="22"/>
+      <c r="T387" s="22"/>
+      <c r="U387" s="22"/>
+      <c r="V387" s="22"/>
+      <c r="W387" s="22"/>
+      <c r="X387" s="22"/>
+    </row>
+    <row r="388" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A388" s="22"/>
+      <c r="B388" s="22"/>
+      <c r="C388" s="23"/>
+      <c r="D388" s="36">
+        <v>45643</v>
+      </c>
+      <c r="E388" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F388" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="G388" s="18" t="s">
+        <v>356</v>
+      </c>
+      <c r="H388" s="19">
+        <v>0.4381944444444445</v>
+      </c>
+      <c r="I388" s="19">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="J388" s="22"/>
+      <c r="K388" s="22"/>
+      <c r="L388" s="22"/>
+      <c r="M388" s="22"/>
+      <c r="N388" s="22"/>
+      <c r="O388" s="22"/>
+      <c r="P388" s="22"/>
+      <c r="Q388" s="22"/>
+      <c r="R388" s="22"/>
+      <c r="S388" s="22"/>
+      <c r="T388" s="22"/>
+      <c r="U388" s="22"/>
+      <c r="V388" s="22"/>
+      <c r="W388" s="22"/>
+      <c r="X388" s="22"/>
+    </row>
+    <row r="389" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A389" s="22"/>
+      <c r="B389" s="22"/>
+      <c r="C389" s="23"/>
+      <c r="D389" s="36">
+        <v>45643</v>
+      </c>
+      <c r="E389" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F389" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G389" s="18" t="s">
+        <v>357</v>
+      </c>
+      <c r="H389" s="19">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="I389" s="19">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="J389" s="22"/>
+      <c r="K389" s="22"/>
+      <c r="L389" s="22"/>
+      <c r="M389" s="22"/>
+      <c r="N389" s="22"/>
+      <c r="O389" s="22"/>
+      <c r="P389" s="22"/>
+      <c r="Q389" s="22"/>
+      <c r="R389" s="22"/>
+      <c r="S389" s="22"/>
+      <c r="T389" s="22"/>
+      <c r="U389" s="22"/>
+      <c r="V389" s="22"/>
+      <c r="W389" s="22"/>
+      <c r="X389" s="22"/>
+    </row>
+    <row r="390" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A390" s="22"/>
+      <c r="B390" s="22"/>
+      <c r="C390" s="23"/>
+      <c r="D390" s="36">
+        <v>45644</v>
+      </c>
+      <c r="E390" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F390" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G390" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="H390" s="19">
+        <v>0.33263888888888887</v>
+      </c>
+      <c r="I390" s="19">
+        <v>0.3354166666666667</v>
+      </c>
+      <c r="J390" s="22"/>
+      <c r="K390" s="22"/>
+      <c r="L390" s="22"/>
+      <c r="M390" s="22"/>
+      <c r="N390" s="22"/>
+      <c r="O390" s="22"/>
+      <c r="P390" s="22"/>
+      <c r="Q390" s="22"/>
+      <c r="R390" s="22"/>
+      <c r="S390" s="22"/>
+      <c r="T390" s="22"/>
+      <c r="U390" s="22"/>
+      <c r="V390" s="22"/>
+      <c r="W390" s="22"/>
+      <c r="X390" s="22"/>
+    </row>
+    <row r="391" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A391" s="22"/>
+      <c r="B391" s="22"/>
+      <c r="C391" s="23"/>
+      <c r="D391" s="36">
+        <v>45644</v>
+      </c>
+      <c r="E391" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F391" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G391" s="18" t="s">
+        <v>358</v>
+      </c>
+      <c r="H391" s="19">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="I391" s="19">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="J391" s="22"/>
+      <c r="K391" s="22"/>
+      <c r="L391" s="22"/>
+      <c r="M391" s="22"/>
+      <c r="N391" s="22"/>
+      <c r="O391" s="22"/>
+      <c r="P391" s="22"/>
+      <c r="Q391" s="22"/>
+      <c r="R391" s="22"/>
+      <c r="S391" s="22"/>
+      <c r="T391" s="22"/>
+      <c r="U391" s="22"/>
+      <c r="V391" s="22"/>
+      <c r="W391" s="22"/>
+      <c r="X391" s="22"/>
+    </row>
+    <row r="392" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A392" s="22"/>
+      <c r="B392" s="22"/>
+      <c r="C392" s="23"/>
+      <c r="D392" s="36">
+        <v>45644</v>
+      </c>
+      <c r="E392" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F392" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="G392" s="18" t="s">
+        <v>359</v>
+      </c>
+      <c r="H392" s="19">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="I392" s="19">
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="J392" s="22"/>
+      <c r="K392" s="22"/>
+      <c r="L392" s="22"/>
+      <c r="M392" s="22"/>
+      <c r="N392" s="22"/>
+      <c r="O392" s="22"/>
+      <c r="P392" s="22"/>
+      <c r="Q392" s="22"/>
+      <c r="R392" s="22"/>
+      <c r="S392" s="22"/>
+      <c r="T392" s="22"/>
+      <c r="U392" s="22"/>
+      <c r="V392" s="22"/>
+      <c r="W392" s="22"/>
+      <c r="X392" s="22"/>
+    </row>
+    <row r="393" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A393" s="22"/>
+      <c r="B393" s="22"/>
+      <c r="C393" s="23"/>
+      <c r="D393" s="36">
+        <v>45644</v>
+      </c>
+      <c r="E393" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F393" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="G393" s="18" t="s">
+        <v>360</v>
+      </c>
+      <c r="H393" s="19">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="I393" s="19">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="J393" s="22"/>
+      <c r="K393" s="22"/>
+      <c r="L393" s="22"/>
+      <c r="M393" s="22"/>
+      <c r="N393" s="22"/>
+      <c r="O393" s="22"/>
+      <c r="P393" s="22"/>
+      <c r="Q393" s="22"/>
+      <c r="R393" s="22"/>
+      <c r="S393" s="22"/>
+      <c r="T393" s="22"/>
+      <c r="U393" s="22"/>
+      <c r="V393" s="22"/>
+      <c r="W393" s="22"/>
+      <c r="X393" s="22"/>
+    </row>
+    <row r="394" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A394" s="22"/>
+      <c r="B394" s="22"/>
+      <c r="C394" s="23"/>
+      <c r="D394" s="36">
+        <v>45644</v>
+      </c>
+      <c r="E394" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F394" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G394" s="18" t="s">
+        <v>348</v>
+      </c>
+      <c r="H394" s="19">
+        <v>0.4375</v>
+      </c>
+      <c r="I394" s="19">
+        <v>0.46875</v>
+      </c>
+      <c r="J394" s="22"/>
+      <c r="K394" s="22"/>
+      <c r="L394" s="22"/>
+      <c r="M394" s="22"/>
+      <c r="N394" s="22"/>
+      <c r="O394" s="22"/>
+      <c r="P394" s="22"/>
+      <c r="Q394" s="22"/>
+      <c r="R394" s="22"/>
+      <c r="S394" s="22"/>
+      <c r="T394" s="22"/>
+      <c r="U394" s="22"/>
+      <c r="V394" s="22"/>
+      <c r="W394" s="22"/>
+      <c r="X394" s="22"/>
+    </row>
+    <row r="395" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A395" s="22"/>
+      <c r="B395" s="22"/>
+      <c r="C395" s="23"/>
+      <c r="D395" s="36">
+        <v>45644</v>
+      </c>
+      <c r="E395" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F395" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G395" s="18" t="s">
+        <v>361</v>
+      </c>
+      <c r="H395" s="19">
+        <v>0.46875</v>
+      </c>
+      <c r="I395" s="19">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="J395" s="22"/>
+      <c r="K395" s="22"/>
+      <c r="L395" s="22"/>
+      <c r="M395" s="22"/>
+      <c r="N395" s="22"/>
+      <c r="O395" s="22"/>
+      <c r="P395" s="22"/>
+      <c r="Q395" s="22"/>
+      <c r="R395" s="22"/>
+      <c r="S395" s="22"/>
+      <c r="T395" s="22"/>
+      <c r="U395" s="22"/>
+      <c r="V395" s="22"/>
+      <c r="W395" s="22"/>
+      <c r="X395" s="22"/>
+    </row>
+    <row r="396" spans="1:24" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A396" s="22"/>
+      <c r="B396" s="22"/>
+      <c r="C396" s="23"/>
+      <c r="D396" s="36">
+        <v>45644</v>
+      </c>
+      <c r="E396" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F396" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G396" s="18" t="s">
+        <v>362</v>
+      </c>
+      <c r="H396" s="19">
+        <v>0.52152777777777781</v>
+      </c>
+      <c r="I396" s="19">
+        <v>0.53263888888888888</v>
+      </c>
+      <c r="J396" s="22"/>
+      <c r="K396" s="22"/>
+      <c r="L396" s="22"/>
+      <c r="M396" s="22"/>
+      <c r="N396" s="22"/>
+      <c r="O396" s="22"/>
+      <c r="P396" s="22"/>
+      <c r="Q396" s="22"/>
+      <c r="R396" s="22"/>
+      <c r="S396" s="22"/>
+      <c r="T396" s="22"/>
+      <c r="U396" s="22"/>
+      <c r="V396" s="22"/>
+      <c r="W396" s="22"/>
+      <c r="X396" s="22"/>
+    </row>
+    <row r="397" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A397" s="22"/>
+      <c r="B397" s="22"/>
+      <c r="C397" s="23"/>
+      <c r="D397" s="36">
+        <v>45644</v>
+      </c>
+      <c r="E397" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F397" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G397" s="18" t="s">
+        <v>363</v>
+      </c>
+      <c r="H397" s="19">
+        <v>0.5625</v>
+      </c>
+      <c r="I397" s="19">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="J397" s="22"/>
+      <c r="K397" s="22"/>
+      <c r="L397" s="22"/>
+      <c r="M397" s="22"/>
+      <c r="N397" s="22"/>
+      <c r="O397" s="22"/>
+      <c r="P397" s="22"/>
+      <c r="Q397" s="22"/>
+      <c r="R397" s="22"/>
+      <c r="S397" s="22"/>
+      <c r="T397" s="22"/>
+      <c r="U397" s="22"/>
+      <c r="V397" s="22"/>
+      <c r="W397" s="22"/>
+      <c r="X397" s="22"/>
+    </row>
+    <row r="398" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A398" s="22"/>
+      <c r="B398" s="22"/>
+      <c r="C398" s="23"/>
+      <c r="D398" s="36">
+        <v>45645</v>
+      </c>
+      <c r="E398" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F398" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G398" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="H398" s="19">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="I398" s="19">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="J398" s="22"/>
+      <c r="K398" s="22"/>
+      <c r="L398" s="22"/>
+      <c r="M398" s="22"/>
+      <c r="N398" s="22"/>
+      <c r="O398" s="22"/>
+      <c r="P398" s="22"/>
+      <c r="Q398" s="22"/>
+      <c r="R398" s="22"/>
+      <c r="S398" s="22"/>
+      <c r="T398" s="22"/>
+      <c r="U398" s="22"/>
+      <c r="V398" s="22"/>
+      <c r="W398" s="22"/>
+      <c r="X398" s="22"/>
+    </row>
+    <row r="399" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A399" s="22"/>
+      <c r="B399" s="22"/>
+      <c r="C399" s="23"/>
+      <c r="D399" s="36">
+        <v>45645</v>
+      </c>
+      <c r="E399" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F399" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G399" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="H399" s="19">
+        <v>0.375</v>
+      </c>
+      <c r="I399" s="19">
+        <v>0.41388888888888892</v>
+      </c>
+      <c r="J399" s="22"/>
+      <c r="K399" s="22"/>
+      <c r="L399" s="22"/>
+      <c r="M399" s="22"/>
+      <c r="N399" s="22"/>
+      <c r="O399" s="22"/>
+      <c r="P399" s="22"/>
+      <c r="Q399" s="22"/>
+      <c r="R399" s="22"/>
+      <c r="S399" s="22"/>
+      <c r="T399" s="22"/>
+      <c r="U399" s="22"/>
+      <c r="V399" s="22"/>
+      <c r="W399" s="22"/>
+      <c r="X399" s="22"/>
+    </row>
+    <row r="400" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A400" s="22"/>
+      <c r="B400" s="22"/>
+      <c r="C400" s="23"/>
+      <c r="D400" s="36">
+        <v>45645</v>
+      </c>
+      <c r="E400" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F400" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G400" s="18" t="s">
+        <v>365</v>
+      </c>
+      <c r="H400" s="19">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="I400" s="19">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="J400" s="22"/>
+      <c r="K400" s="22"/>
+      <c r="L400" s="22"/>
+      <c r="M400" s="22"/>
+      <c r="N400" s="22"/>
+      <c r="O400" s="22"/>
+      <c r="P400" s="22"/>
+      <c r="Q400" s="22"/>
+      <c r="R400" s="22"/>
+      <c r="S400" s="22"/>
+      <c r="T400" s="22"/>
+      <c r="U400" s="22"/>
+      <c r="V400" s="22"/>
+      <c r="W400" s="22"/>
+      <c r="X400" s="22"/>
+    </row>
+    <row r="401" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A401" s="22"/>
+      <c r="B401" s="22"/>
+      <c r="C401" s="23"/>
+      <c r="D401" s="36">
+        <v>45645</v>
+      </c>
+      <c r="E401" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F401" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="G401" s="18" t="s">
+        <v>366</v>
+      </c>
+      <c r="H401" s="19">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="I401" s="19">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="J401" s="22"/>
+      <c r="K401" s="22"/>
+      <c r="L401" s="22"/>
+      <c r="M401" s="22"/>
+      <c r="N401" s="22"/>
+      <c r="O401" s="22"/>
+      <c r="P401" s="22"/>
+      <c r="Q401" s="22"/>
+      <c r="R401" s="22"/>
+      <c r="S401" s="22"/>
+      <c r="T401" s="22"/>
+      <c r="U401" s="22"/>
+      <c r="V401" s="22"/>
+      <c r="W401" s="22"/>
+      <c r="X401" s="22"/>
+    </row>
+    <row r="402" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A402" s="22"/>
+      <c r="B402" s="22"/>
+      <c r="C402" s="23"/>
+      <c r="D402" s="36">
+        <v>45645</v>
+      </c>
+      <c r="E402" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F402" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G402" s="18" t="s">
+        <v>367</v>
+      </c>
+      <c r="H402" s="19">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="I402" s="19">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="J402" s="22"/>
+      <c r="K402" s="22"/>
+      <c r="L402" s="22"/>
+      <c r="M402" s="22"/>
+      <c r="N402" s="22"/>
+      <c r="O402" s="22"/>
+      <c r="P402" s="22"/>
+      <c r="Q402" s="22"/>
+      <c r="R402" s="22"/>
+      <c r="S402" s="22"/>
+      <c r="T402" s="22"/>
+      <c r="U402" s="22"/>
+      <c r="V402" s="22"/>
+      <c r="W402" s="22"/>
+      <c r="X402" s="22"/>
+    </row>
+    <row r="403" spans="1:24" s="20" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D403" s="63">
+        <v>45645</v>
+      </c>
+      <c r="E403" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="F403" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="G403" s="64" t="s">
+        <v>368</v>
+      </c>
+      <c r="H403" s="65">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="I403" s="65">
+        <v>0.54513888888888895</v>
+      </c>
+    </row>
+    <row r="404" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A404" s="22"/>
+      <c r="B404" s="22"/>
+      <c r="C404" s="23"/>
+      <c r="D404" s="24">
+        <v>45645</v>
+      </c>
+      <c r="E404" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F404" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="G404" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="H404" s="16">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="I404" s="16">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="J404" s="22"/>
+      <c r="K404" s="22"/>
+      <c r="L404" s="22"/>
+      <c r="M404" s="22"/>
+      <c r="N404" s="22"/>
+      <c r="O404" s="22"/>
+      <c r="P404" s="22"/>
+      <c r="Q404" s="22"/>
+      <c r="R404" s="22"/>
+      <c r="S404" s="22"/>
+      <c r="T404" s="22"/>
+      <c r="U404" s="22"/>
+      <c r="V404" s="22"/>
+      <c r="W404" s="22"/>
+      <c r="X404" s="22"/>
+    </row>
+    <row r="405" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A405" s="22"/>
+      <c r="B405" s="22"/>
+      <c r="C405" s="23"/>
+      <c r="D405" s="24">
+        <v>45646</v>
+      </c>
+      <c r="E405" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F405" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G405" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="H405" s="16">
+        <v>0.33194444444444443</v>
+      </c>
+      <c r="I405" s="16">
+        <v>0.34027777777777773</v>
+      </c>
+      <c r="J405" s="22"/>
+      <c r="K405" s="22"/>
+      <c r="L405" s="22"/>
+      <c r="M405" s="22"/>
+      <c r="N405" s="22"/>
+      <c r="O405" s="22"/>
+      <c r="P405" s="22"/>
+      <c r="Q405" s="22"/>
+      <c r="R405" s="22"/>
+      <c r="S405" s="22"/>
+      <c r="T405" s="22"/>
+      <c r="U405" s="22"/>
+      <c r="V405" s="22"/>
+      <c r="W405" s="22"/>
+      <c r="X405" s="22"/>
+    </row>
+    <row r="406" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A406" s="22"/>
+      <c r="B406" s="22"/>
+      <c r="C406" s="23"/>
+      <c r="D406" s="36">
+        <v>45646</v>
+      </c>
+      <c r="E406" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F406" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G406" s="18" t="s">
+        <v>370</v>
+      </c>
+      <c r="H406" s="19">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="I406" s="19">
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="J406" s="22"/>
+      <c r="K406" s="22"/>
+      <c r="L406" s="22"/>
+      <c r="M406" s="22"/>
+      <c r="N406" s="22"/>
+      <c r="O406" s="22"/>
+      <c r="P406" s="22"/>
+      <c r="Q406" s="22"/>
+      <c r="R406" s="22"/>
+      <c r="S406" s="22"/>
+      <c r="T406" s="22"/>
+      <c r="U406" s="22"/>
+      <c r="V406" s="22"/>
+      <c r="W406" s="22"/>
+      <c r="X406" s="22"/>
+    </row>
+    <row r="407" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A407" s="22"/>
+      <c r="B407" s="22"/>
+      <c r="C407" s="23"/>
+      <c r="D407" s="36">
+        <v>45646</v>
+      </c>
+      <c r="E407" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F407" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G407" s="18" t="s">
+        <v>371</v>
+      </c>
+      <c r="H407" s="19">
+        <v>0.41388888888888892</v>
+      </c>
+      <c r="I407" s="19">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="J407" s="22"/>
+      <c r="K407" s="22"/>
+      <c r="L407" s="22"/>
+      <c r="M407" s="22"/>
+      <c r="N407" s="22"/>
+      <c r="O407" s="22"/>
+      <c r="P407" s="22"/>
+      <c r="Q407" s="22"/>
+      <c r="R407" s="22"/>
+      <c r="S407" s="22"/>
+      <c r="T407" s="22"/>
+      <c r="U407" s="22"/>
+      <c r="V407" s="22"/>
+      <c r="W407" s="22"/>
+      <c r="X407" s="22"/>
+    </row>
+    <row r="408" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A408" s="22"/>
+      <c r="B408" s="22"/>
+      <c r="C408" s="23"/>
+      <c r="D408" s="36">
+        <v>45646</v>
+      </c>
+      <c r="E408" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F408" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G408" s="18" t="s">
+        <v>372</v>
+      </c>
+      <c r="H408" s="19">
+        <v>0.42777777777777781</v>
+      </c>
+      <c r="I408" s="19">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="J408" s="22"/>
+      <c r="K408" s="22"/>
+      <c r="L408" s="22"/>
+      <c r="M408" s="22"/>
+      <c r="N408" s="22"/>
+      <c r="O408" s="22"/>
+      <c r="P408" s="22"/>
+      <c r="Q408" s="22"/>
+      <c r="R408" s="22"/>
+      <c r="S408" s="22"/>
+      <c r="T408" s="22"/>
+      <c r="U408" s="22"/>
+      <c r="V408" s="22"/>
+      <c r="W408" s="22"/>
+      <c r="X408" s="22"/>
+    </row>
+    <row r="409" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A409" s="22"/>
+      <c r="B409" s="22"/>
+      <c r="C409" s="23"/>
+      <c r="D409" s="24">
+        <v>45646</v>
+      </c>
+      <c r="E409" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F409" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G409" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="H409" s="16">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="I409" s="16">
+        <v>0.47152777777777777</v>
+      </c>
+      <c r="J409" s="22"/>
+      <c r="K409" s="22"/>
+      <c r="L409" s="22"/>
+      <c r="M409" s="22"/>
+      <c r="N409" s="22"/>
+      <c r="O409" s="22"/>
+      <c r="P409" s="22"/>
+      <c r="Q409" s="22"/>
+      <c r="R409" s="22"/>
+      <c r="S409" s="22"/>
+      <c r="T409" s="22"/>
+      <c r="U409" s="22"/>
+      <c r="V409" s="22"/>
+      <c r="W409" s="22"/>
+      <c r="X409" s="22"/>
+    </row>
+    <row r="410" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A410" s="22"/>
+      <c r="B410" s="22"/>
+      <c r="C410" s="23"/>
+      <c r="D410" s="24">
+        <v>45649</v>
+      </c>
+      <c r="E410" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F410" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G410" s="15" t="s">
+        <v>374</v>
+      </c>
+      <c r="H410" s="16">
+        <v>0.33194444444444443</v>
+      </c>
+      <c r="I410" s="16">
+        <v>0.33819444444444446</v>
+      </c>
+      <c r="J410" s="22"/>
+      <c r="K410" s="22"/>
+      <c r="L410" s="22"/>
+      <c r="M410" s="22"/>
+      <c r="N410" s="22"/>
+      <c r="O410" s="22"/>
+      <c r="P410" s="22"/>
+      <c r="Q410" s="22"/>
+      <c r="R410" s="22"/>
+      <c r="S410" s="22"/>
+      <c r="T410" s="22"/>
+      <c r="U410" s="22"/>
+      <c r="V410" s="22"/>
+      <c r="W410" s="22"/>
+      <c r="X410" s="22"/>
+    </row>
+    <row r="411" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A411" s="22"/>
+      <c r="B411" s="22"/>
+      <c r="C411" s="23"/>
+      <c r="D411" s="36">
+        <v>45649</v>
+      </c>
+      <c r="E411" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F411" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G411" s="18" t="s">
+        <v>348</v>
+      </c>
+      <c r="H411" s="19">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="I411" s="19">
+        <v>0.4375</v>
+      </c>
+      <c r="J411" s="22"/>
+      <c r="K411" s="22"/>
+      <c r="L411" s="22"/>
+      <c r="M411" s="22"/>
+      <c r="N411" s="22"/>
+      <c r="O411" s="22"/>
+      <c r="P411" s="22"/>
+      <c r="Q411" s="22"/>
+      <c r="R411" s="22"/>
+      <c r="S411" s="22"/>
+      <c r="T411" s="22"/>
+      <c r="U411" s="22"/>
+      <c r="V411" s="22"/>
+      <c r="W411" s="22"/>
+      <c r="X411" s="22"/>
+    </row>
+    <row r="412" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A412" s="22"/>
+      <c r="B412" s="22"/>
+      <c r="C412" s="23"/>
+      <c r="D412" s="36">
+        <v>45649</v>
+      </c>
+      <c r="E412" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F412" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G412" s="18" t="s">
+        <v>375</v>
+      </c>
+      <c r="H412" s="19">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="I412" s="19">
+        <v>0.58819444444444446</v>
+      </c>
+      <c r="J412" s="22"/>
+      <c r="K412" s="22"/>
+      <c r="L412" s="22"/>
+      <c r="M412" s="22"/>
+      <c r="N412" s="22"/>
+      <c r="O412" s="22"/>
+      <c r="P412" s="22"/>
+      <c r="Q412" s="22"/>
+      <c r="R412" s="22"/>
+      <c r="S412" s="22"/>
+      <c r="T412" s="22"/>
+      <c r="U412" s="22"/>
+      <c r="V412" s="22"/>
+      <c r="W412" s="22"/>
+      <c r="X412" s="22"/>
+    </row>
+    <row r="413" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A413" s="22"/>
+      <c r="B413" s="22"/>
+      <c r="C413" s="23"/>
+      <c r="D413" s="36">
+        <v>45650</v>
+      </c>
+      <c r="E413" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F413" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G413" s="18" t="s">
+        <v>374</v>
+      </c>
+      <c r="H413" s="19">
+        <v>0.33263888888888887</v>
+      </c>
+      <c r="I413" s="19">
+        <v>0.33888888888888885</v>
+      </c>
+      <c r="J413" s="22"/>
+      <c r="K413" s="22"/>
+      <c r="L413" s="22"/>
+      <c r="M413" s="22"/>
+      <c r="N413" s="22"/>
+      <c r="O413" s="22"/>
+      <c r="P413" s="22"/>
+      <c r="Q413" s="22"/>
+      <c r="R413" s="22"/>
+      <c r="S413" s="22"/>
+      <c r="T413" s="22"/>
+      <c r="U413" s="22"/>
+      <c r="V413" s="22"/>
+      <c r="W413" s="22"/>
+      <c r="X413" s="22"/>
+    </row>
+    <row r="414" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D414" s="11"/>
       <c r="E414" s="10"/>
       <c r="F414" s="10"/>
@@ -10561,7 +12397,7 @@
       <c r="H414" s="11"/>
       <c r="I414" s="11"/>
     </row>
-    <row r="415" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D415" s="11"/>
       <c r="E415" s="10"/>
       <c r="F415" s="10"/>
@@ -10569,7 +12405,7 @@
       <c r="H415" s="11"/>
       <c r="I415" s="11"/>
     </row>
-    <row r="416" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D416" s="11"/>
       <c r="E416" s="10"/>
       <c r="F416" s="10"/>
@@ -15337,19 +17173,27 @@
       <c r="H1011" s="11"/>
       <c r="I1011" s="11"/>
     </row>
+    <row r="1012" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D1012" s="11"/>
+      <c r="E1012" s="10"/>
+      <c r="F1012" s="10"/>
+      <c r="G1012" s="10"/>
+      <c r="H1012" s="11"/>
+      <c r="I1012" s="11"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:I1"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E3:E176 E180:E183 E188:E194 E196 E202:E203 E207:E208 E239:E243 E254:E257 E267:E278 E280:E282 E300 E303:E306 E313:E326 E357:E1011">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E3:E176 E180:E183 E188:E194 E196 E202:E203 E207:E208 E239:E243 E254:E257 E267:E278 E280:E282 E300 E303:E306 E313:E326 E403 E414:E1012">
       <formula1>"GABRIEL,UILLIAM"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F32 F40">
       <formula1>"TI,NPJ,LAB,MED,PAV01,EAD,AULA,CORD MED,PROF MED,PROG,ARQ,ATEND,CAP,CORD"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F3:F27 F29:F31 F33:F39 F41:F176 F180:F183 F188:F194 F196 F202:F203 F207:F208 F239:F243 F254:F257 F267:F278 F280:F282 F300 F303:F306 F313:F326 F357:F1011">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F3:F27 F29:F31 F33:F39 F41:F176 F180:F183 F188:F194 F196 F202:F203 F207:F208 F239:F243 F254:F257 F267:F278 F280:F282 F300 F303:F306 F313:F326 F403 F414:F1012">
       <formula1>"TI,NPJ,LAB,MED,PAV01,EAD,AULA,CORD MED,PROF MED,PROG,ARQ,ATEND,CAP,CPA,CORD,BLIB,DIR,FIN,RH"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F28">

--- a/Registro-de-atividades.xlsx
+++ b/Registro-de-atividades.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="378">
   <si>
     <t>Registro de atividades</t>
   </si>
@@ -1147,6 +1147,12 @@
   </si>
   <si>
     <t>Fazendo testes na antena da sala 11</t>
+  </si>
+  <si>
+    <t>criando nova função para o app de registro de atividades</t>
+  </si>
+  <si>
+    <t>Suporte a João no atendimento para inserir cartão na catraca</t>
   </si>
 </sst>
 </file>
@@ -1902,7 +1908,7 @@
   <dimension ref="A1:X1012"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A398" workbookViewId="0">
-      <selection activeCell="G416" sqref="G416"/>
+      <selection activeCell="A414" sqref="A414:Y415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -12390,20 +12396,44 @@
       <c r="X413" s="22"/>
     </row>
     <row r="414" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D414" s="11"/>
-      <c r="E414" s="10"/>
-      <c r="F414" s="10"/>
-      <c r="G414" s="10"/>
-      <c r="H414" s="11"/>
-      <c r="I414" s="11"/>
+      <c r="D414" s="4">
+        <v>45650</v>
+      </c>
+      <c r="E414" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F414" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G414" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="H414" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="I414" s="6">
+        <v>0.39583333333333331</v>
+      </c>
     </row>
     <row r="415" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D415" s="11"/>
-      <c r="E415" s="10"/>
-      <c r="F415" s="10"/>
-      <c r="G415" s="10"/>
-      <c r="H415" s="11"/>
-      <c r="I415" s="11"/>
+      <c r="D415" s="4">
+        <v>45650</v>
+      </c>
+      <c r="E415" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F415" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G415" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="H415" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="I415" s="6">
+        <v>0.50416666666666665</v>
+      </c>
     </row>
     <row r="416" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D416" s="11"/>

--- a/Registro-de-atividades.xlsx
+++ b/Registro-de-atividades.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1657" uniqueCount="500">
   <si>
     <t>Registro de atividades</t>
   </si>
@@ -1153,6 +1153,372 @@
   </si>
   <si>
     <t>Suporte a João no atendimento para inserir cartão na catraca</t>
+  </si>
+  <si>
+    <t>Verificando DVR do cpd</t>
+  </si>
+  <si>
+    <t>testando cartões na catraca</t>
+  </si>
+  <si>
+    <t>Colocando computador de luciana na rede corporativa</t>
+  </si>
+  <si>
+    <t>Instalando swith para troca de telas dos servidores</t>
+  </si>
+  <si>
+    <t>Verificanco onde estava o cabo de rede do link no rack da coordenação</t>
+  </si>
+  <si>
+    <t>Resetando antenas da recepcção e da cantina e clipando cabos</t>
+  </si>
+  <si>
+    <t>verificando antena da sala 6 que parou de funcionar</t>
+  </si>
+  <si>
+    <t>Scaneando doculmentos dos alunos de 2024.1</t>
+  </si>
+  <si>
+    <t>PROCURADORIA</t>
+  </si>
+  <si>
+    <t>Scaneanso doculmentos</t>
+  </si>
+  <si>
+    <t>Cortando gesso da sala de metodologias ativas</t>
+  </si>
+  <si>
+    <t>Clipando cabo de limk no rack da coordenação e verfificado o pq estava sem internet</t>
+  </si>
+  <si>
+    <t>Ajudando jonatas na configuração dos swites para pegar 2 links</t>
+  </si>
+  <si>
+    <t>Vendo como configurar cartão na catraca</t>
+  </si>
+  <si>
+    <t>Criando tela de listagem de carros no app rota unifacemp</t>
+  </si>
+  <si>
+    <t>montando sala de medicina para aula omline</t>
+  </si>
+  <si>
+    <t>trocando do pc da recepção de medicina</t>
+  </si>
+  <si>
+    <t>suporte para geovane nas catracas</t>
+  </si>
+  <si>
+    <t>troca de teclado na recpção de medcina</t>
+  </si>
+  <si>
+    <t>suporte na aula de medicina</t>
+  </si>
+  <si>
+    <t>Suporte a Beta no exel</t>
+  </si>
+  <si>
+    <t>Verificando computador fin 02 que não estava acessando usuario de rede</t>
+  </si>
+  <si>
+    <t>Colocando impressora do finaceiro no pc fin 02</t>
+  </si>
+  <si>
+    <t>Arrumando deposito do ti</t>
+  </si>
+  <si>
+    <t>Fazendo orçamento na Rudik para impreção de crachas</t>
+  </si>
+  <si>
+    <t>reclipando cabo da antena da cordenação</t>
+  </si>
+  <si>
+    <t>Reclipando cabo do pc coord 01</t>
+  </si>
+  <si>
+    <t>Reinstalando o TOTVS no pc bib 02</t>
+  </si>
+  <si>
+    <t>Clipando cabo do pc bib 03</t>
+  </si>
+  <si>
+    <t>colocanto RM na aria de trabalho no pc bib 02</t>
+  </si>
+  <si>
+    <t>Ligando equipamento para a aula pratica</t>
+  </si>
+  <si>
+    <t>Liganto tvs</t>
+  </si>
+  <si>
+    <t>Atualizando slides das tvs</t>
+  </si>
+  <si>
+    <t>clipando cabos dos pc dos alunos</t>
+  </si>
+  <si>
+    <t>RECEPÇÃO</t>
+  </si>
+  <si>
+    <t>Clipando cabo da tv</t>
+  </si>
+  <si>
+    <t>verificando problema do RI</t>
+  </si>
+  <si>
+    <t>Pegando impressora para manutenção</t>
+  </si>
+  <si>
+    <t>ligando tv da recpção</t>
+  </si>
+  <si>
+    <t>Resolvendo problema de rede do pc ssa-05</t>
+  </si>
+  <si>
+    <t>Indentificando cabos que não estavam indentificados no switch</t>
+  </si>
+  <si>
+    <t>testando impressora do npj</t>
+  </si>
+  <si>
+    <t>embalando impressoa do professor e guardando no deposito</t>
+  </si>
+  <si>
+    <t>levando impressora brother na informak e buscando orçamento da epslon</t>
+  </si>
+  <si>
+    <t>buscando pc molhado no consultorio de odonto</t>
+  </si>
+  <si>
+    <t>realizando conserto do pc do consultorio de odonto</t>
+  </si>
+  <si>
+    <t>Quabrando senha do computador da sala de apoio tecnico</t>
+  </si>
+  <si>
+    <t>Verificando pq a impressora da secretaria não estava imprimindo</t>
+  </si>
+  <si>
+    <t>Colocando pc no dominio</t>
+  </si>
+  <si>
+    <t>procurando cabos de rede</t>
+  </si>
+  <si>
+    <t>Criando usuario para ingryd bo pc da coorderdenação de med</t>
+  </si>
+  <si>
+    <t>Clipando cado do telefone</t>
+  </si>
+  <si>
+    <t>Arrumando debrifings</t>
+  </si>
+  <si>
+    <t>Analisando como fazer a migração dos computadores do atendimento para sala 1</t>
+  </si>
+  <si>
+    <t>liandos equipamentos no debrifing</t>
+  </si>
+  <si>
+    <t>liando pc de daiana</t>
+  </si>
+  <si>
+    <t>fazendo levantamento de pcs da instituição ADM e ACAD</t>
+  </si>
+  <si>
+    <t>Indo buscar impressora epslon na informak</t>
+  </si>
+  <si>
+    <t>levando impresora spslon na adr2</t>
+  </si>
+  <si>
+    <t>ligando tvs</t>
+  </si>
+  <si>
+    <t>Verificando pq o pc atend 2 e 3 não estavão funcionando</t>
+  </si>
+  <si>
+    <t>Indo buscar impressora epslon na adr2 so que a impressora estava aberta</t>
+  </si>
+  <si>
+    <t>procurando cabos de rede e indentificando</t>
+  </si>
+  <si>
+    <t>Indentificando cabo de rede que fica atras da tv sony no corredor pv1 1 andar</t>
+  </si>
+  <si>
+    <t>indo na Rudik para realizar ai impressão dos crachas</t>
+  </si>
+  <si>
+    <t>preocurando e indentificando cabos de rede</t>
+  </si>
+  <si>
+    <t>Analisando e reclipando cabo da tv da recpção que não estava sendo reconhecido</t>
+  </si>
+  <si>
+    <t>Conectando computador do aluno na rede wi-fi</t>
+  </si>
+  <si>
+    <t>Suporte a Taise na impreção de prints da tela</t>
+  </si>
+  <si>
+    <t>Etiquetando controles de passar slide</t>
+  </si>
+  <si>
+    <t>criando slide sobre segurança da informação</t>
+  </si>
+  <si>
+    <t>indo na rudik ver se os chachas ja tinham sido impresso</t>
+  </si>
+  <si>
+    <t>preocurando outo lugar para realizar a impreção dos crachas</t>
+  </si>
+  <si>
+    <t>Confirmando impressão dos crachas na rudik</t>
+  </si>
+  <si>
+    <t>realizando orçamendo dos crachas na desing plotter</t>
+  </si>
+  <si>
+    <t>fazendo slide sobre segurança da informação</t>
+  </si>
+  <si>
+    <t>indo buscar chachas impressos na desing plotter</t>
+  </si>
+  <si>
+    <t>indo na rudik para realizar ai impressão dos crachas</t>
+  </si>
+  <si>
+    <t>Suporte a Indrydy para atualizar a planilha a ser atualizada no qrcode</t>
+  </si>
+  <si>
+    <t>levando impressora brother la na adr2</t>
+  </si>
+  <si>
+    <t>doculmentando equipamentos a serem guardados no deposito do hospital simu</t>
+  </si>
+  <si>
+    <t>levando caixas para o depoisito do hospital simulado</t>
+  </si>
+  <si>
+    <t>colando crachas no pvc</t>
+  </si>
+  <si>
+    <t>Ajustando arte dos chachas para o tamanho correto</t>
+  </si>
+  <si>
+    <t>buscando chachas ma rudik</t>
+  </si>
+  <si>
+    <t>recortando e colado chachas no pvc</t>
+  </si>
+  <si>
+    <t>Analiando caso de Beta do sistema do fieis</t>
+  </si>
+  <si>
+    <t>trocando teclado de Jessica cap 02</t>
+  </si>
+  <si>
+    <t>buscando assinatura de bia para o chacha</t>
+  </si>
+  <si>
+    <t>testando todos os projetores da instituição</t>
+  </si>
+  <si>
+    <t>Indo na rudik verificar se os chacás ja estão prontos</t>
+  </si>
+  <si>
+    <t>Testenado projetores na ala da saude</t>
+  </si>
+  <si>
+    <t>Doculmentando melhor a indentificação dos cabos de rede</t>
+  </si>
+  <si>
+    <t>Indo busca chachas na rudick</t>
+  </si>
+  <si>
+    <t>Montando crachas</t>
+  </si>
+  <si>
+    <t>Tirando duvida de Ingrydy sobre a transferencia de chamada</t>
+  </si>
+  <si>
+    <t>Entregando chachas</t>
+  </si>
+  <si>
+    <t>Fazendo backup do celular do NPJ</t>
+  </si>
+  <si>
+    <t>Analisando codigo do app mapa de sala para traca o email de relatorio</t>
+  </si>
+  <si>
+    <t>Tocando email do app de sala para enviar relatorio</t>
+  </si>
+  <si>
+    <t>Colocando pc de beta nos dados moveis do celular para acesso do fieis</t>
+  </si>
+  <si>
+    <t>Decobrindo poblema do pq o app de sala não estava enviando o relatorio resolvido</t>
+  </si>
+  <si>
+    <t>levando tablet com o app de sala para a recpção</t>
+  </si>
+  <si>
+    <t>Resolvendo problema no pc cap 01 que não estava abrindo o app so scanner</t>
+  </si>
+  <si>
+    <t>colocando notebook nos dados moveis para acesso do fies</t>
+  </si>
+  <si>
+    <t>conectando sec 01 usario laize na impresora ricoh</t>
+  </si>
+  <si>
+    <t>Trocando teclado do pc da recepção da reitoria, pelo do pc marck 01</t>
+  </si>
+  <si>
+    <t>Levando celular do npj la na tecnocell para manutenção</t>
+  </si>
+  <si>
+    <t>Buscando impressora bother na adr2</t>
+  </si>
+  <si>
+    <t>testando impresso brother que veioda adr2</t>
+  </si>
+  <si>
+    <t>Ligando tvs da repção</t>
+  </si>
+  <si>
+    <t>Realizando testes no pc atend 01</t>
+  </si>
+  <si>
+    <t>Buscando notebook na secretaria</t>
+  </si>
+  <si>
+    <t>Verificando com beta se o site do fieis voltou</t>
+  </si>
+  <si>
+    <t>Imprimeindo doculmento que não estavão conseguindo imprimir</t>
+  </si>
+  <si>
+    <t>Levando impressora brother para o npj</t>
+  </si>
+  <si>
+    <t>Instalando impressora brorher no npj</t>
+  </si>
+  <si>
+    <t>Fazendo orçamento de teclado da c3tech</t>
+  </si>
+  <si>
+    <t>Instalando pc atend 01</t>
+  </si>
+  <si>
+    <t>Instalando notbook para beta conseguir acessar o site do fieis</t>
+  </si>
+  <si>
+    <t>Reconectando notebook nos dados moveis</t>
+  </si>
+  <si>
+    <t>testando Hd do pc do consultorio de odontologia</t>
   </si>
 </sst>
 </file>
@@ -1249,7 +1615,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1274,8 +1640,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4A86E8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1505,11 +1877,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1677,6 +2062,27 @@
     </xf>
     <xf numFmtId="20" fontId="11" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1905,10 +2311,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:X1012"/>
+  <dimension ref="A1:Y1011"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A398" workbookViewId="0">
-      <selection activeCell="A414" sqref="A414:Y415"/>
+    <sheetView tabSelected="1" topLeftCell="A530" workbookViewId="0">
+      <selection activeCell="G552" sqref="G552"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1920,17 +2326,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="66"/>
-      <c r="B1" s="67"/>
-      <c r="C1" s="68" t="s">
+      <c r="A1" s="73"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="70"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="77"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -11919,7 +12325,7 @@
       <c r="W400" s="22"/>
       <c r="X400" s="22"/>
     </row>
-    <row r="401" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A401" s="22"/>
       <c r="B401" s="22"/>
       <c r="C401" s="23"/>
@@ -11957,7 +12363,7 @@
       <c r="W401" s="22"/>
       <c r="X401" s="22"/>
     </row>
-    <row r="402" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A402" s="22"/>
       <c r="B402" s="22"/>
       <c r="C402" s="23"/>
@@ -11995,7 +12401,7 @@
       <c r="W402" s="22"/>
       <c r="X402" s="22"/>
     </row>
-    <row r="403" spans="1:24" s="20" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:25" s="20" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D403" s="63">
         <v>45645</v>
       </c>
@@ -12015,7 +12421,7 @@
         <v>0.54513888888888895</v>
       </c>
     </row>
-    <row r="404" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A404" s="22"/>
       <c r="B404" s="22"/>
       <c r="C404" s="23"/>
@@ -12053,7 +12459,7 @@
       <c r="W404" s="22"/>
       <c r="X404" s="22"/>
     </row>
-    <row r="405" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A405" s="22"/>
       <c r="B405" s="22"/>
       <c r="C405" s="23"/>
@@ -12091,7 +12497,7 @@
       <c r="W405" s="22"/>
       <c r="X405" s="22"/>
     </row>
-    <row r="406" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A406" s="22"/>
       <c r="B406" s="22"/>
       <c r="C406" s="23"/>
@@ -12129,7 +12535,7 @@
       <c r="W406" s="22"/>
       <c r="X406" s="22"/>
     </row>
-    <row r="407" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A407" s="22"/>
       <c r="B407" s="22"/>
       <c r="C407" s="23"/>
@@ -12167,7 +12573,7 @@
       <c r="W407" s="22"/>
       <c r="X407" s="22"/>
     </row>
-    <row r="408" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A408" s="22"/>
       <c r="B408" s="22"/>
       <c r="C408" s="23"/>
@@ -12205,7 +12611,7 @@
       <c r="W408" s="22"/>
       <c r="X408" s="22"/>
     </row>
-    <row r="409" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A409" s="22"/>
       <c r="B409" s="22"/>
       <c r="C409" s="23"/>
@@ -12243,7 +12649,7 @@
       <c r="W409" s="22"/>
       <c r="X409" s="22"/>
     </row>
-    <row r="410" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A410" s="22"/>
       <c r="B410" s="22"/>
       <c r="C410" s="23"/>
@@ -12281,7 +12687,7 @@
       <c r="W410" s="22"/>
       <c r="X410" s="22"/>
     </row>
-    <row r="411" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A411" s="22"/>
       <c r="B411" s="22"/>
       <c r="C411" s="23"/>
@@ -12319,7 +12725,7 @@
       <c r="W411" s="22"/>
       <c r="X411" s="22"/>
     </row>
-    <row r="412" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A412" s="22"/>
       <c r="B412" s="22"/>
       <c r="C412" s="23"/>
@@ -12357,7 +12763,7 @@
       <c r="W412" s="22"/>
       <c r="X412" s="22"/>
     </row>
-    <row r="413" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A413" s="22"/>
       <c r="B413" s="22"/>
       <c r="C413" s="23"/>
@@ -12395,7 +12801,7 @@
       <c r="W413" s="22"/>
       <c r="X413" s="22"/>
     </row>
-    <row r="414" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D414" s="4">
         <v>45650</v>
       </c>
@@ -12415,7 +12821,7 @@
         <v>0.39583333333333331</v>
       </c>
     </row>
-    <row r="415" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D415" s="4">
         <v>45650</v>
       </c>
@@ -12435,1095 +12841,5306 @@
         <v>0.50416666666666665</v>
       </c>
     </row>
-    <row r="416" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D416" s="11"/>
-      <c r="E416" s="10"/>
-      <c r="F416" s="10"/>
-      <c r="G416" s="10"/>
-      <c r="H416" s="11"/>
-      <c r="I416" s="11"/>
-    </row>
-    <row r="417" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D417" s="11"/>
-      <c r="E417" s="10"/>
-      <c r="F417" s="10"/>
-      <c r="G417" s="10"/>
-      <c r="H417" s="11"/>
-      <c r="I417" s="11"/>
-    </row>
-    <row r="418" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D418" s="11"/>
-      <c r="E418" s="10"/>
-      <c r="F418" s="10"/>
-      <c r="G418" s="10"/>
-      <c r="H418" s="11"/>
-      <c r="I418" s="11"/>
-    </row>
-    <row r="419" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D419" s="11"/>
-      <c r="E419" s="10"/>
-      <c r="F419" s="10"/>
-      <c r="G419" s="10"/>
-      <c r="H419" s="11"/>
-      <c r="I419" s="11"/>
-    </row>
-    <row r="420" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D420" s="11"/>
-      <c r="E420" s="10"/>
-      <c r="F420" s="10"/>
-      <c r="G420" s="10"/>
-      <c r="H420" s="11"/>
-      <c r="I420" s="11"/>
-    </row>
-    <row r="421" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D421" s="11"/>
-      <c r="E421" s="10"/>
-      <c r="F421" s="10"/>
-      <c r="G421" s="10"/>
-      <c r="H421" s="11"/>
-      <c r="I421" s="11"/>
-    </row>
-    <row r="422" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D422" s="11"/>
-      <c r="E422" s="10"/>
-      <c r="F422" s="10"/>
-      <c r="G422" s="10"/>
-      <c r="H422" s="11"/>
-      <c r="I422" s="11"/>
-    </row>
-    <row r="423" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D423" s="11"/>
-      <c r="E423" s="10"/>
-      <c r="F423" s="10"/>
-      <c r="G423" s="10"/>
-      <c r="H423" s="11"/>
-      <c r="I423" s="11"/>
-    </row>
-    <row r="424" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D424" s="11"/>
-      <c r="E424" s="10"/>
-      <c r="F424" s="10"/>
-      <c r="G424" s="10"/>
-      <c r="H424" s="11"/>
-      <c r="I424" s="11"/>
-    </row>
-    <row r="425" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D425" s="11"/>
-      <c r="E425" s="10"/>
-      <c r="F425" s="10"/>
-      <c r="G425" s="10"/>
-      <c r="H425" s="11"/>
-      <c r="I425" s="11"/>
-    </row>
-    <row r="426" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D426" s="11"/>
-      <c r="E426" s="10"/>
-      <c r="F426" s="10"/>
-      <c r="G426" s="10"/>
-      <c r="H426" s="11"/>
-      <c r="I426" s="11"/>
-    </row>
-    <row r="427" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D427" s="11"/>
-      <c r="E427" s="10"/>
-      <c r="F427" s="10"/>
-      <c r="G427" s="10"/>
-      <c r="H427" s="11"/>
-      <c r="I427" s="11"/>
-    </row>
-    <row r="428" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D428" s="11"/>
-      <c r="E428" s="10"/>
-      <c r="F428" s="10"/>
-      <c r="G428" s="10"/>
-      <c r="H428" s="11"/>
-      <c r="I428" s="11"/>
-    </row>
-    <row r="429" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D429" s="11"/>
-      <c r="E429" s="10"/>
-      <c r="F429" s="10"/>
-      <c r="G429" s="10"/>
-      <c r="H429" s="11"/>
-      <c r="I429" s="11"/>
-    </row>
-    <row r="430" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D430" s="11"/>
-      <c r="E430" s="10"/>
-      <c r="F430" s="10"/>
-      <c r="G430" s="10"/>
-      <c r="H430" s="11"/>
-      <c r="I430" s="11"/>
-    </row>
-    <row r="431" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D431" s="11"/>
-      <c r="E431" s="10"/>
-      <c r="F431" s="10"/>
-      <c r="G431" s="10"/>
-      <c r="H431" s="11"/>
-      <c r="I431" s="11"/>
-    </row>
-    <row r="432" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D432" s="11"/>
-      <c r="E432" s="10"/>
-      <c r="F432" s="10"/>
-      <c r="G432" s="10"/>
-      <c r="H432" s="11"/>
-      <c r="I432" s="11"/>
-    </row>
-    <row r="433" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D433" s="11"/>
-      <c r="E433" s="10"/>
-      <c r="F433" s="10"/>
-      <c r="G433" s="10"/>
-      <c r="H433" s="11"/>
-      <c r="I433" s="11"/>
-    </row>
-    <row r="434" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D434" s="11"/>
-      <c r="E434" s="10"/>
-      <c r="F434" s="10"/>
-      <c r="G434" s="10"/>
-      <c r="H434" s="11"/>
-      <c r="I434" s="11"/>
-    </row>
-    <row r="435" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D435" s="11"/>
-      <c r="E435" s="10"/>
-      <c r="F435" s="10"/>
-      <c r="G435" s="10"/>
-      <c r="H435" s="11"/>
-      <c r="I435" s="11"/>
-    </row>
-    <row r="436" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D436" s="11"/>
-      <c r="E436" s="10"/>
-      <c r="F436" s="10"/>
-      <c r="G436" s="10"/>
-      <c r="H436" s="11"/>
-      <c r="I436" s="11"/>
-    </row>
-    <row r="437" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D437" s="11"/>
-      <c r="E437" s="10"/>
-      <c r="F437" s="10"/>
-      <c r="G437" s="10"/>
-      <c r="H437" s="11"/>
-      <c r="I437" s="11"/>
-    </row>
-    <row r="438" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D438" s="11"/>
-      <c r="E438" s="10"/>
-      <c r="F438" s="10"/>
-      <c r="G438" s="10"/>
-      <c r="H438" s="11"/>
-      <c r="I438" s="11"/>
-    </row>
-    <row r="439" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D439" s="11"/>
-      <c r="E439" s="10"/>
-      <c r="F439" s="10"/>
-      <c r="G439" s="10"/>
-      <c r="H439" s="11"/>
-      <c r="I439" s="11"/>
-    </row>
-    <row r="440" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D440" s="11"/>
-      <c r="E440" s="10"/>
-      <c r="F440" s="10"/>
-      <c r="G440" s="10"/>
-      <c r="H440" s="11"/>
-      <c r="I440" s="11"/>
-    </row>
-    <row r="441" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D441" s="11"/>
-      <c r="E441" s="10"/>
-      <c r="F441" s="10"/>
-      <c r="G441" s="10"/>
-      <c r="H441" s="11"/>
-      <c r="I441" s="11"/>
-    </row>
-    <row r="442" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D442" s="11"/>
-      <c r="E442" s="10"/>
-      <c r="F442" s="10"/>
-      <c r="G442" s="10"/>
-      <c r="H442" s="11"/>
-      <c r="I442" s="11"/>
-    </row>
-    <row r="443" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D443" s="11"/>
-      <c r="E443" s="10"/>
-      <c r="F443" s="10"/>
-      <c r="G443" s="10"/>
-      <c r="H443" s="11"/>
-      <c r="I443" s="11"/>
-    </row>
-    <row r="444" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D444" s="11"/>
-      <c r="E444" s="10"/>
-      <c r="F444" s="10"/>
-      <c r="G444" s="10"/>
-      <c r="H444" s="11"/>
-      <c r="I444" s="11"/>
-    </row>
-    <row r="445" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D445" s="11"/>
-      <c r="E445" s="10"/>
-      <c r="F445" s="10"/>
-      <c r="G445" s="10"/>
-      <c r="H445" s="11"/>
-      <c r="I445" s="11"/>
-    </row>
-    <row r="446" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D446" s="11"/>
-      <c r="E446" s="10"/>
-      <c r="F446" s="10"/>
-      <c r="G446" s="10"/>
-      <c r="H446" s="11"/>
-      <c r="I446" s="11"/>
-    </row>
-    <row r="447" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D447" s="11"/>
-      <c r="E447" s="10"/>
-      <c r="F447" s="10"/>
-      <c r="G447" s="10"/>
-      <c r="H447" s="11"/>
-      <c r="I447" s="11"/>
-    </row>
-    <row r="448" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D448" s="11"/>
-      <c r="E448" s="10"/>
-      <c r="F448" s="10"/>
-      <c r="G448" s="10"/>
-      <c r="H448" s="11"/>
-      <c r="I448" s="11"/>
-    </row>
-    <row r="449" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D449" s="11"/>
-      <c r="E449" s="10"/>
-      <c r="F449" s="10"/>
-      <c r="G449" s="10"/>
-      <c r="H449" s="11"/>
-      <c r="I449" s="11"/>
-    </row>
-    <row r="450" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D450" s="11"/>
-      <c r="E450" s="10"/>
-      <c r="F450" s="10"/>
-      <c r="G450" s="10"/>
-      <c r="H450" s="11"/>
-      <c r="I450" s="11"/>
-    </row>
-    <row r="451" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D451" s="11"/>
-      <c r="E451" s="10"/>
-      <c r="F451" s="10"/>
-      <c r="G451" s="10"/>
-      <c r="H451" s="11"/>
-      <c r="I451" s="11"/>
-    </row>
-    <row r="452" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D452" s="11"/>
-      <c r="E452" s="10"/>
-      <c r="F452" s="10"/>
-      <c r="G452" s="10"/>
-      <c r="H452" s="11"/>
-      <c r="I452" s="11"/>
-    </row>
-    <row r="453" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D453" s="11"/>
-      <c r="E453" s="10"/>
-      <c r="F453" s="10"/>
-      <c r="G453" s="10"/>
-      <c r="H453" s="11"/>
-      <c r="I453" s="11"/>
-    </row>
-    <row r="454" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D454" s="11"/>
-      <c r="E454" s="10"/>
-      <c r="F454" s="10"/>
-      <c r="G454" s="10"/>
-      <c r="H454" s="11"/>
-      <c r="I454" s="11"/>
-    </row>
-    <row r="455" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D455" s="11"/>
-      <c r="E455" s="10"/>
-      <c r="F455" s="10"/>
-      <c r="G455" s="10"/>
-      <c r="H455" s="11"/>
-      <c r="I455" s="11"/>
-    </row>
-    <row r="456" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D456" s="11"/>
-      <c r="E456" s="10"/>
-      <c r="F456" s="10"/>
-      <c r="G456" s="10"/>
-      <c r="H456" s="11"/>
-      <c r="I456" s="11"/>
-    </row>
-    <row r="457" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D457" s="11"/>
-      <c r="E457" s="10"/>
-      <c r="F457" s="10"/>
-      <c r="G457" s="10"/>
-      <c r="H457" s="11"/>
-      <c r="I457" s="11"/>
-    </row>
-    <row r="458" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D458" s="11"/>
-      <c r="E458" s="10"/>
-      <c r="F458" s="10"/>
-      <c r="G458" s="10"/>
-      <c r="H458" s="11"/>
-      <c r="I458" s="11"/>
-    </row>
-    <row r="459" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D459" s="11"/>
-      <c r="E459" s="10"/>
-      <c r="F459" s="10"/>
-      <c r="G459" s="10"/>
-      <c r="H459" s="11"/>
-      <c r="I459" s="11"/>
-    </row>
-    <row r="460" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D460" s="11"/>
-      <c r="E460" s="10"/>
-      <c r="F460" s="10"/>
-      <c r="G460" s="10"/>
-      <c r="H460" s="11"/>
-      <c r="I460" s="11"/>
-    </row>
-    <row r="461" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D461" s="11"/>
-      <c r="E461" s="10"/>
-      <c r="F461" s="10"/>
-      <c r="G461" s="10"/>
-      <c r="H461" s="11"/>
-      <c r="I461" s="11"/>
-    </row>
-    <row r="462" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D462" s="11"/>
-      <c r="E462" s="10"/>
-      <c r="F462" s="10"/>
-      <c r="G462" s="10"/>
-      <c r="H462" s="11"/>
-      <c r="I462" s="11"/>
-    </row>
-    <row r="463" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D463" s="11"/>
-      <c r="E463" s="10"/>
-      <c r="F463" s="10"/>
-      <c r="G463" s="10"/>
-      <c r="H463" s="11"/>
-      <c r="I463" s="11"/>
-    </row>
-    <row r="464" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D464" s="11"/>
-      <c r="E464" s="10"/>
-      <c r="F464" s="10"/>
-      <c r="G464" s="10"/>
-      <c r="H464" s="11"/>
-      <c r="I464" s="11"/>
-    </row>
-    <row r="465" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D465" s="11"/>
-      <c r="E465" s="10"/>
-      <c r="F465" s="10"/>
-      <c r="G465" s="10"/>
-      <c r="H465" s="11"/>
-      <c r="I465" s="11"/>
-    </row>
-    <row r="466" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D466" s="11"/>
-      <c r="E466" s="10"/>
-      <c r="F466" s="10"/>
-      <c r="G466" s="10"/>
-      <c r="H466" s="11"/>
-      <c r="I466" s="11"/>
-    </row>
-    <row r="467" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D467" s="11"/>
-      <c r="E467" s="10"/>
-      <c r="F467" s="10"/>
-      <c r="G467" s="10"/>
-      <c r="H467" s="11"/>
-      <c r="I467" s="11"/>
-    </row>
-    <row r="468" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D468" s="11"/>
-      <c r="E468" s="10"/>
-      <c r="F468" s="10"/>
-      <c r="G468" s="10"/>
-      <c r="H468" s="11"/>
-      <c r="I468" s="11"/>
-    </row>
-    <row r="469" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D469" s="11"/>
-      <c r="E469" s="10"/>
-      <c r="F469" s="10"/>
-      <c r="G469" s="10"/>
-      <c r="H469" s="11"/>
-      <c r="I469" s="11"/>
-    </row>
-    <row r="470" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D470" s="11"/>
-      <c r="E470" s="10"/>
-      <c r="F470" s="10"/>
-      <c r="G470" s="10"/>
-      <c r="H470" s="11"/>
-      <c r="I470" s="11"/>
-    </row>
-    <row r="471" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D471" s="11"/>
-      <c r="E471" s="10"/>
-      <c r="F471" s="10"/>
-      <c r="G471" s="10"/>
-      <c r="H471" s="11"/>
-      <c r="I471" s="11"/>
-    </row>
-    <row r="472" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D472" s="11"/>
-      <c r="E472" s="10"/>
-      <c r="F472" s="10"/>
-      <c r="G472" s="10"/>
-      <c r="H472" s="11"/>
-      <c r="I472" s="11"/>
-    </row>
-    <row r="473" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D473" s="11"/>
-      <c r="E473" s="10"/>
-      <c r="F473" s="10"/>
-      <c r="G473" s="10"/>
-      <c r="H473" s="11"/>
-      <c r="I473" s="11"/>
-    </row>
-    <row r="474" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D474" s="11"/>
-      <c r="E474" s="10"/>
-      <c r="F474" s="10"/>
-      <c r="G474" s="10"/>
-      <c r="H474" s="11"/>
-      <c r="I474" s="11"/>
-    </row>
-    <row r="475" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D475" s="11"/>
-      <c r="E475" s="10"/>
-      <c r="F475" s="10"/>
-      <c r="G475" s="10"/>
-      <c r="H475" s="11"/>
-      <c r="I475" s="11"/>
-    </row>
-    <row r="476" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D476" s="11"/>
-      <c r="E476" s="10"/>
-      <c r="F476" s="10"/>
-      <c r="G476" s="10"/>
-      <c r="H476" s="11"/>
-      <c r="I476" s="11"/>
-    </row>
-    <row r="477" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D477" s="11"/>
-      <c r="E477" s="10"/>
-      <c r="F477" s="10"/>
-      <c r="G477" s="10"/>
-      <c r="H477" s="11"/>
-      <c r="I477" s="11"/>
-    </row>
-    <row r="478" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D478" s="11"/>
-      <c r="E478" s="10"/>
-      <c r="F478" s="10"/>
-      <c r="G478" s="10"/>
-      <c r="H478" s="11"/>
-      <c r="I478" s="11"/>
-    </row>
-    <row r="479" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D479" s="11"/>
-      <c r="E479" s="10"/>
-      <c r="F479" s="10"/>
-      <c r="G479" s="10"/>
-      <c r="H479" s="11"/>
-      <c r="I479" s="11"/>
-    </row>
-    <row r="480" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D480" s="11"/>
-      <c r="E480" s="10"/>
-      <c r="F480" s="10"/>
-      <c r="G480" s="10"/>
-      <c r="H480" s="11"/>
-      <c r="I480" s="11"/>
-    </row>
-    <row r="481" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D481" s="11"/>
-      <c r="E481" s="10"/>
-      <c r="F481" s="10"/>
-      <c r="G481" s="10"/>
-      <c r="H481" s="11"/>
-      <c r="I481" s="11"/>
-    </row>
-    <row r="482" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D482" s="11"/>
-      <c r="E482" s="10"/>
-      <c r="F482" s="10"/>
-      <c r="G482" s="10"/>
-      <c r="H482" s="11"/>
-      <c r="I482" s="11"/>
-    </row>
-    <row r="483" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D483" s="11"/>
-      <c r="E483" s="10"/>
-      <c r="F483" s="10"/>
-      <c r="G483" s="10"/>
-      <c r="H483" s="11"/>
-      <c r="I483" s="11"/>
-    </row>
-    <row r="484" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D484" s="11"/>
-      <c r="E484" s="10"/>
-      <c r="F484" s="10"/>
-      <c r="G484" s="10"/>
-      <c r="H484" s="11"/>
-      <c r="I484" s="11"/>
-    </row>
-    <row r="485" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D485" s="11"/>
-      <c r="E485" s="10"/>
-      <c r="F485" s="10"/>
-      <c r="G485" s="10"/>
-      <c r="H485" s="11"/>
-      <c r="I485" s="11"/>
-    </row>
-    <row r="486" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D486" s="11"/>
-      <c r="E486" s="10"/>
-      <c r="F486" s="10"/>
-      <c r="G486" s="10"/>
-      <c r="H486" s="11"/>
-      <c r="I486" s="11"/>
-    </row>
-    <row r="487" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D487" s="11"/>
-      <c r="E487" s="10"/>
-      <c r="F487" s="10"/>
-      <c r="G487" s="10"/>
-      <c r="H487" s="11"/>
-      <c r="I487" s="11"/>
-    </row>
-    <row r="488" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D488" s="11"/>
-      <c r="E488" s="10"/>
-      <c r="F488" s="10"/>
-      <c r="G488" s="10"/>
-      <c r="H488" s="11"/>
-      <c r="I488" s="11"/>
-    </row>
-    <row r="489" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D489" s="11"/>
-      <c r="E489" s="10"/>
-      <c r="F489" s="10"/>
-      <c r="G489" s="10"/>
-      <c r="H489" s="11"/>
-      <c r="I489" s="11"/>
-    </row>
-    <row r="490" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D490" s="11"/>
-      <c r="E490" s="10"/>
-      <c r="F490" s="10"/>
-      <c r="G490" s="10"/>
-      <c r="H490" s="11"/>
-      <c r="I490" s="11"/>
-    </row>
-    <row r="491" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D491" s="11"/>
-      <c r="E491" s="10"/>
-      <c r="F491" s="10"/>
-      <c r="G491" s="10"/>
-      <c r="H491" s="11"/>
-      <c r="I491" s="11"/>
-    </row>
-    <row r="492" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D492" s="11"/>
-      <c r="E492" s="10"/>
-      <c r="F492" s="10"/>
-      <c r="G492" s="10"/>
-      <c r="H492" s="11"/>
-      <c r="I492" s="11"/>
-    </row>
-    <row r="493" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D493" s="11"/>
-      <c r="E493" s="10"/>
-      <c r="F493" s="10"/>
-      <c r="G493" s="10"/>
-      <c r="H493" s="11"/>
-      <c r="I493" s="11"/>
-    </row>
-    <row r="494" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D494" s="11"/>
-      <c r="E494" s="10"/>
-      <c r="F494" s="10"/>
-      <c r="G494" s="10"/>
-      <c r="H494" s="11"/>
-      <c r="I494" s="11"/>
-    </row>
-    <row r="495" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D495" s="11"/>
-      <c r="E495" s="10"/>
-      <c r="F495" s="10"/>
-      <c r="G495" s="10"/>
-      <c r="H495" s="11"/>
-      <c r="I495" s="11"/>
-    </row>
-    <row r="496" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D496" s="11"/>
-      <c r="E496" s="10"/>
-      <c r="F496" s="10"/>
-      <c r="G496" s="10"/>
-      <c r="H496" s="11"/>
-      <c r="I496" s="11"/>
-    </row>
-    <row r="497" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D497" s="11"/>
-      <c r="E497" s="10"/>
-      <c r="F497" s="10"/>
-      <c r="G497" s="10"/>
-      <c r="H497" s="11"/>
-      <c r="I497" s="11"/>
-    </row>
-    <row r="498" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D498" s="11"/>
-      <c r="E498" s="10"/>
-      <c r="F498" s="10"/>
-      <c r="G498" s="10"/>
-      <c r="H498" s="11"/>
-      <c r="I498" s="11"/>
-    </row>
-    <row r="499" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D499" s="11"/>
-      <c r="E499" s="10"/>
-      <c r="F499" s="10"/>
-      <c r="G499" s="10"/>
-      <c r="H499" s="11"/>
-      <c r="I499" s="11"/>
-    </row>
-    <row r="500" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D500" s="11"/>
-      <c r="E500" s="10"/>
-      <c r="F500" s="10"/>
-      <c r="G500" s="10"/>
-      <c r="H500" s="11"/>
-      <c r="I500" s="11"/>
-    </row>
-    <row r="501" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D501" s="11"/>
-      <c r="E501" s="10"/>
-      <c r="F501" s="10"/>
-      <c r="G501" s="10"/>
-      <c r="H501" s="11"/>
-      <c r="I501" s="11"/>
-    </row>
-    <row r="502" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D502" s="11"/>
-      <c r="E502" s="10"/>
-      <c r="F502" s="10"/>
-      <c r="G502" s="10"/>
-      <c r="H502" s="11"/>
-      <c r="I502" s="11"/>
-    </row>
-    <row r="503" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D503" s="11"/>
-      <c r="E503" s="10"/>
-      <c r="F503" s="10"/>
-      <c r="G503" s="10"/>
-      <c r="H503" s="11"/>
-      <c r="I503" s="11"/>
-    </row>
-    <row r="504" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D504" s="11"/>
-      <c r="E504" s="10"/>
-      <c r="F504" s="10"/>
-      <c r="G504" s="10"/>
-      <c r="H504" s="11"/>
-      <c r="I504" s="11"/>
-    </row>
-    <row r="505" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D505" s="11"/>
-      <c r="E505" s="10"/>
-      <c r="F505" s="10"/>
-      <c r="G505" s="10"/>
-      <c r="H505" s="11"/>
-      <c r="I505" s="11"/>
-    </row>
-    <row r="506" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D506" s="11"/>
-      <c r="E506" s="10"/>
-      <c r="F506" s="10"/>
-      <c r="G506" s="10"/>
-      <c r="H506" s="11"/>
-      <c r="I506" s="11"/>
-    </row>
-    <row r="507" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D507" s="11"/>
-      <c r="E507" s="10"/>
-      <c r="F507" s="10"/>
-      <c r="G507" s="10"/>
-      <c r="H507" s="11"/>
-      <c r="I507" s="11"/>
-    </row>
-    <row r="508" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D508" s="11"/>
-      <c r="E508" s="10"/>
-      <c r="F508" s="10"/>
-      <c r="G508" s="10"/>
-      <c r="H508" s="11"/>
-      <c r="I508" s="11"/>
-    </row>
-    <row r="509" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D509" s="11"/>
-      <c r="E509" s="10"/>
-      <c r="F509" s="10"/>
-      <c r="G509" s="10"/>
-      <c r="H509" s="11"/>
-      <c r="I509" s="11"/>
-    </row>
-    <row r="510" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D510" s="11"/>
-      <c r="E510" s="10"/>
-      <c r="F510" s="10"/>
-      <c r="G510" s="10"/>
-      <c r="H510" s="11"/>
-      <c r="I510" s="11"/>
-    </row>
-    <row r="511" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D511" s="11"/>
-      <c r="E511" s="10"/>
-      <c r="F511" s="10"/>
-      <c r="G511" s="10"/>
-      <c r="H511" s="11"/>
-      <c r="I511" s="11"/>
-    </row>
-    <row r="512" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D512" s="11"/>
-      <c r="E512" s="10"/>
-      <c r="F512" s="10"/>
-      <c r="G512" s="10"/>
-      <c r="H512" s="11"/>
-      <c r="I512" s="11"/>
-    </row>
-    <row r="513" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D513" s="11"/>
-      <c r="E513" s="10"/>
-      <c r="F513" s="10"/>
-      <c r="G513" s="10"/>
-      <c r="H513" s="11"/>
-      <c r="I513" s="11"/>
-    </row>
-    <row r="514" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D514" s="11"/>
-      <c r="E514" s="10"/>
-      <c r="F514" s="10"/>
-      <c r="G514" s="10"/>
-      <c r="H514" s="11"/>
-      <c r="I514" s="11"/>
-    </row>
-    <row r="515" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D515" s="11"/>
-      <c r="E515" s="10"/>
-      <c r="F515" s="10"/>
-      <c r="G515" s="10"/>
-      <c r="H515" s="11"/>
-      <c r="I515" s="11"/>
-    </row>
-    <row r="516" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D516" s="11"/>
-      <c r="E516" s="10"/>
-      <c r="F516" s="10"/>
-      <c r="G516" s="10"/>
-      <c r="H516" s="11"/>
-      <c r="I516" s="11"/>
-    </row>
-    <row r="517" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D517" s="11"/>
-      <c r="E517" s="10"/>
-      <c r="F517" s="10"/>
-      <c r="G517" s="10"/>
-      <c r="H517" s="11"/>
-      <c r="I517" s="11"/>
-    </row>
-    <row r="518" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D518" s="11"/>
-      <c r="E518" s="10"/>
-      <c r="F518" s="10"/>
-      <c r="G518" s="10"/>
-      <c r="H518" s="11"/>
-      <c r="I518" s="11"/>
-    </row>
-    <row r="519" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D519" s="11"/>
-      <c r="E519" s="10"/>
-      <c r="F519" s="10"/>
-      <c r="G519" s="10"/>
-      <c r="H519" s="11"/>
-      <c r="I519" s="11"/>
-    </row>
-    <row r="520" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D520" s="11"/>
-      <c r="E520" s="10"/>
-      <c r="F520" s="10"/>
-      <c r="G520" s="10"/>
-      <c r="H520" s="11"/>
-      <c r="I520" s="11"/>
-    </row>
-    <row r="521" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D521" s="11"/>
-      <c r="E521" s="10"/>
-      <c r="F521" s="10"/>
-      <c r="G521" s="10"/>
-      <c r="H521" s="11"/>
-      <c r="I521" s="11"/>
-    </row>
-    <row r="522" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D522" s="11"/>
-      <c r="E522" s="10"/>
-      <c r="F522" s="10"/>
-      <c r="G522" s="10"/>
-      <c r="H522" s="11"/>
-      <c r="I522" s="11"/>
-    </row>
-    <row r="523" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D523" s="11"/>
-      <c r="E523" s="10"/>
-      <c r="F523" s="10"/>
-      <c r="G523" s="10"/>
-      <c r="H523" s="11"/>
-      <c r="I523" s="11"/>
-    </row>
-    <row r="524" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D524" s="11"/>
-      <c r="E524" s="10"/>
-      <c r="F524" s="10"/>
-      <c r="G524" s="10"/>
-      <c r="H524" s="11"/>
-      <c r="I524" s="11"/>
-    </row>
-    <row r="525" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D525" s="11"/>
-      <c r="E525" s="10"/>
-      <c r="F525" s="10"/>
-      <c r="G525" s="10"/>
-      <c r="H525" s="11"/>
-      <c r="I525" s="11"/>
-    </row>
-    <row r="526" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D526" s="11"/>
-      <c r="E526" s="10"/>
-      <c r="F526" s="10"/>
-      <c r="G526" s="10"/>
-      <c r="H526" s="11"/>
-      <c r="I526" s="11"/>
-    </row>
-    <row r="527" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D527" s="11"/>
-      <c r="E527" s="10"/>
-      <c r="F527" s="10"/>
-      <c r="G527" s="10"/>
-      <c r="H527" s="11"/>
-      <c r="I527" s="11"/>
-    </row>
-    <row r="528" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D528" s="11"/>
-      <c r="E528" s="10"/>
-      <c r="F528" s="10"/>
-      <c r="G528" s="10"/>
-      <c r="H528" s="11"/>
-      <c r="I528" s="11"/>
-    </row>
-    <row r="529" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D529" s="11"/>
-      <c r="E529" s="10"/>
-      <c r="F529" s="10"/>
-      <c r="G529" s="10"/>
-      <c r="H529" s="11"/>
-      <c r="I529" s="11"/>
-    </row>
-    <row r="530" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D530" s="11"/>
-      <c r="E530" s="10"/>
-      <c r="F530" s="10"/>
-      <c r="G530" s="10"/>
-      <c r="H530" s="11"/>
-      <c r="I530" s="11"/>
-    </row>
-    <row r="531" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D531" s="11"/>
-      <c r="E531" s="10"/>
-      <c r="F531" s="10"/>
-      <c r="G531" s="10"/>
-      <c r="H531" s="11"/>
-      <c r="I531" s="11"/>
-    </row>
-    <row r="532" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D532" s="11"/>
-      <c r="E532" s="10"/>
-      <c r="F532" s="10"/>
-      <c r="G532" s="10"/>
-      <c r="H532" s="11"/>
-      <c r="I532" s="11"/>
-    </row>
-    <row r="533" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D533" s="11"/>
-      <c r="E533" s="10"/>
-      <c r="F533" s="10"/>
-      <c r="G533" s="10"/>
-      <c r="H533" s="11"/>
-      <c r="I533" s="11"/>
-    </row>
-    <row r="534" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D534" s="11"/>
-      <c r="E534" s="10"/>
-      <c r="F534" s="10"/>
-      <c r="G534" s="10"/>
-      <c r="H534" s="11"/>
-      <c r="I534" s="11"/>
-    </row>
-    <row r="535" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D535" s="11"/>
-      <c r="E535" s="10"/>
-      <c r="F535" s="10"/>
-      <c r="G535" s="10"/>
-      <c r="H535" s="11"/>
-      <c r="I535" s="11"/>
-    </row>
-    <row r="536" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D536" s="11"/>
-      <c r="E536" s="10"/>
-      <c r="F536" s="10"/>
-      <c r="G536" s="10"/>
-      <c r="H536" s="11"/>
-      <c r="I536" s="11"/>
-    </row>
-    <row r="537" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D537" s="11"/>
-      <c r="E537" s="10"/>
-      <c r="F537" s="10"/>
-      <c r="G537" s="10"/>
-      <c r="H537" s="11"/>
-      <c r="I537" s="11"/>
-    </row>
-    <row r="538" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D538" s="11"/>
-      <c r="E538" s="10"/>
-      <c r="F538" s="10"/>
-      <c r="G538" s="10"/>
-      <c r="H538" s="11"/>
-      <c r="I538" s="11"/>
-    </row>
-    <row r="539" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D539" s="11"/>
-      <c r="E539" s="10"/>
-      <c r="F539" s="10"/>
-      <c r="G539" s="10"/>
-      <c r="H539" s="11"/>
-      <c r="I539" s="11"/>
-    </row>
-    <row r="540" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D540" s="11"/>
-      <c r="E540" s="10"/>
-      <c r="F540" s="10"/>
-      <c r="G540" s="10"/>
-      <c r="H540" s="11"/>
-      <c r="I540" s="11"/>
-    </row>
-    <row r="541" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D541" s="11"/>
-      <c r="E541" s="10"/>
-      <c r="F541" s="10"/>
-      <c r="G541" s="10"/>
-      <c r="H541" s="11"/>
-      <c r="I541" s="11"/>
-    </row>
-    <row r="542" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D542" s="11"/>
-      <c r="E542" s="10"/>
-      <c r="F542" s="10"/>
-      <c r="G542" s="10"/>
-      <c r="H542" s="11"/>
-      <c r="I542" s="11"/>
-    </row>
-    <row r="543" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D543" s="11"/>
-      <c r="E543" s="10"/>
-      <c r="F543" s="10"/>
-      <c r="G543" s="10"/>
-      <c r="H543" s="11"/>
-      <c r="I543" s="11"/>
-    </row>
-    <row r="544" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D544" s="11"/>
-      <c r="E544" s="10"/>
-      <c r="F544" s="10"/>
-      <c r="G544" s="10"/>
-      <c r="H544" s="11"/>
-      <c r="I544" s="11"/>
-    </row>
-    <row r="545" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D545" s="11"/>
-      <c r="E545" s="10"/>
-      <c r="F545" s="10"/>
-      <c r="G545" s="10"/>
-      <c r="H545" s="11"/>
-      <c r="I545" s="11"/>
-    </row>
-    <row r="546" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D546" s="11"/>
-      <c r="E546" s="10"/>
-      <c r="F546" s="10"/>
-      <c r="G546" s="10"/>
-      <c r="H546" s="11"/>
-      <c r="I546" s="11"/>
-    </row>
-    <row r="547" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D547" s="11"/>
-      <c r="E547" s="10"/>
-      <c r="F547" s="10"/>
-      <c r="G547" s="10"/>
-      <c r="H547" s="11"/>
-      <c r="I547" s="11"/>
-    </row>
-    <row r="548" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D548" s="11"/>
-      <c r="E548" s="10"/>
-      <c r="F548" s="10"/>
-      <c r="G548" s="10"/>
-      <c r="H548" s="11"/>
-      <c r="I548" s="11"/>
-    </row>
-    <row r="549" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D549" s="11"/>
-      <c r="E549" s="10"/>
-      <c r="F549" s="10"/>
-      <c r="G549" s="10"/>
-      <c r="H549" s="11"/>
-      <c r="I549" s="11"/>
-    </row>
-    <row r="550" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D550" s="11"/>
-      <c r="E550" s="10"/>
-      <c r="F550" s="10"/>
-      <c r="G550" s="10"/>
-      <c r="H550" s="11"/>
-      <c r="I550" s="11"/>
-    </row>
-    <row r="551" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D551" s="11"/>
-      <c r="E551" s="10"/>
-      <c r="F551" s="10"/>
-      <c r="G551" s="10"/>
-      <c r="H551" s="11"/>
-      <c r="I551" s="11"/>
-    </row>
-    <row r="552" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A416" s="22"/>
+      <c r="B416" s="22"/>
+      <c r="C416" s="23"/>
+      <c r="D416" s="24">
+        <v>45652</v>
+      </c>
+      <c r="E416" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F416" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G416" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="H416" s="16">
+        <v>0.33194444444444443</v>
+      </c>
+      <c r="I416" s="16">
+        <v>0.33611111111111108</v>
+      </c>
+      <c r="J416" s="22"/>
+      <c r="K416" s="22"/>
+      <c r="L416" s="22"/>
+      <c r="M416" s="22"/>
+      <c r="N416" s="22"/>
+      <c r="O416" s="22"/>
+      <c r="P416" s="22"/>
+      <c r="Q416" s="22"/>
+      <c r="R416" s="22"/>
+      <c r="S416" s="22"/>
+      <c r="T416" s="22"/>
+      <c r="U416" s="22"/>
+      <c r="V416" s="22"/>
+      <c r="W416" s="22"/>
+      <c r="X416" s="22"/>
+      <c r="Y416" s="22"/>
+    </row>
+    <row r="417" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A417" s="22"/>
+      <c r="B417" s="22"/>
+      <c r="C417" s="23"/>
+      <c r="D417" s="36">
+        <v>45652</v>
+      </c>
+      <c r="E417" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F417" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G417" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="H417" s="19">
+        <v>0.375</v>
+      </c>
+      <c r="I417" s="19">
+        <v>0.37777777777777777</v>
+      </c>
+      <c r="J417" s="22"/>
+      <c r="K417" s="22"/>
+      <c r="L417" s="22"/>
+      <c r="M417" s="22"/>
+      <c r="N417" s="22"/>
+      <c r="O417" s="22"/>
+      <c r="P417" s="22"/>
+      <c r="Q417" s="22"/>
+      <c r="R417" s="22"/>
+      <c r="S417" s="22"/>
+      <c r="T417" s="22"/>
+      <c r="U417" s="22"/>
+      <c r="V417" s="22"/>
+      <c r="W417" s="22"/>
+      <c r="X417" s="22"/>
+      <c r="Y417" s="22"/>
+    </row>
+    <row r="418" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A418" s="22"/>
+      <c r="B418" s="22"/>
+      <c r="C418" s="23"/>
+      <c r="D418" s="36">
+        <v>45652</v>
+      </c>
+      <c r="E418" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F418" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G418" s="18" t="s">
+        <v>379</v>
+      </c>
+      <c r="H418" s="19">
+        <v>0.41388888888888892</v>
+      </c>
+      <c r="I418" s="19">
+        <v>0.44513888888888892</v>
+      </c>
+      <c r="J418" s="22"/>
+      <c r="K418" s="22"/>
+      <c r="L418" s="22"/>
+      <c r="M418" s="22"/>
+      <c r="N418" s="22"/>
+      <c r="O418" s="22"/>
+      <c r="P418" s="22"/>
+      <c r="Q418" s="22"/>
+      <c r="R418" s="22"/>
+      <c r="S418" s="22"/>
+      <c r="T418" s="22"/>
+      <c r="U418" s="22"/>
+      <c r="V418" s="22"/>
+      <c r="W418" s="22"/>
+      <c r="X418" s="22"/>
+      <c r="Y418" s="22"/>
+    </row>
+    <row r="419" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A419" s="22"/>
+      <c r="B419" s="22"/>
+      <c r="C419" s="23"/>
+      <c r="D419" s="36">
+        <v>45652</v>
+      </c>
+      <c r="E419" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F419" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="G419" s="18" t="s">
+        <v>380</v>
+      </c>
+      <c r="H419" s="19">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="I419" s="19">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="J419" s="22"/>
+      <c r="K419" s="22"/>
+      <c r="L419" s="22"/>
+      <c r="M419" s="22"/>
+      <c r="N419" s="22"/>
+      <c r="O419" s="22"/>
+      <c r="P419" s="22"/>
+      <c r="Q419" s="22"/>
+      <c r="R419" s="22"/>
+      <c r="S419" s="22"/>
+      <c r="T419" s="22"/>
+      <c r="U419" s="22"/>
+      <c r="V419" s="22"/>
+      <c r="W419" s="22"/>
+      <c r="X419" s="22"/>
+      <c r="Y419" s="22"/>
+    </row>
+    <row r="420" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A420" s="22"/>
+      <c r="B420" s="22"/>
+      <c r="C420" s="23"/>
+      <c r="D420" s="36">
+        <v>45652</v>
+      </c>
+      <c r="E420" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F420" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G420" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="H420" s="19">
+        <v>0.51736111111111105</v>
+      </c>
+      <c r="I420" s="19">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="J420" s="22"/>
+      <c r="K420" s="22"/>
+      <c r="L420" s="22"/>
+      <c r="M420" s="22"/>
+      <c r="N420" s="22"/>
+      <c r="O420" s="22"/>
+      <c r="P420" s="22"/>
+      <c r="Q420" s="22"/>
+      <c r="R420" s="22"/>
+      <c r="S420" s="22"/>
+      <c r="T420" s="22"/>
+      <c r="U420" s="22"/>
+      <c r="V420" s="22"/>
+      <c r="W420" s="22"/>
+      <c r="X420" s="22"/>
+      <c r="Y420" s="22"/>
+    </row>
+    <row r="421" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A421" s="22"/>
+      <c r="B421" s="22"/>
+      <c r="C421" s="23"/>
+      <c r="D421" s="24">
+        <v>45653</v>
+      </c>
+      <c r="E421" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F421" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G421" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="H421" s="16">
+        <v>0.33194444444444443</v>
+      </c>
+      <c r="I421" s="16">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="J421" s="22"/>
+      <c r="K421" s="22"/>
+      <c r="L421" s="22"/>
+      <c r="M421" s="22"/>
+      <c r="N421" s="22"/>
+      <c r="O421" s="22"/>
+      <c r="P421" s="22"/>
+      <c r="Q421" s="22"/>
+      <c r="R421" s="22"/>
+      <c r="S421" s="22"/>
+      <c r="T421" s="22"/>
+      <c r="U421" s="22"/>
+      <c r="V421" s="22"/>
+      <c r="W421" s="22"/>
+      <c r="X421" s="22"/>
+      <c r="Y421" s="22"/>
+    </row>
+    <row r="422" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A422" s="22"/>
+      <c r="B422" s="22"/>
+      <c r="C422" s="23"/>
+      <c r="D422" s="36">
+        <v>45653</v>
+      </c>
+      <c r="E422" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F422" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G422" s="18" t="s">
+        <v>381</v>
+      </c>
+      <c r="H422" s="19">
+        <v>0.34027777777777773</v>
+      </c>
+      <c r="I422" s="19">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="J422" s="22"/>
+      <c r="K422" s="22"/>
+      <c r="L422" s="22"/>
+      <c r="M422" s="22"/>
+      <c r="N422" s="22"/>
+      <c r="O422" s="22"/>
+      <c r="P422" s="22"/>
+      <c r="Q422" s="22"/>
+      <c r="R422" s="22"/>
+      <c r="S422" s="22"/>
+      <c r="T422" s="22"/>
+      <c r="U422" s="22"/>
+      <c r="V422" s="22"/>
+      <c r="W422" s="22"/>
+      <c r="X422" s="22"/>
+      <c r="Y422" s="22"/>
+    </row>
+    <row r="423" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A423" s="22"/>
+      <c r="B423" s="22"/>
+      <c r="C423" s="23"/>
+      <c r="D423" s="36">
+        <v>45653</v>
+      </c>
+      <c r="E423" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F423" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G423" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="H423" s="19">
+        <v>0.35486111111111113</v>
+      </c>
+      <c r="I423" s="19">
+        <v>0.41597222222222219</v>
+      </c>
+      <c r="J423" s="22"/>
+      <c r="K423" s="22"/>
+      <c r="L423" s="22"/>
+      <c r="M423" s="22"/>
+      <c r="N423" s="22"/>
+      <c r="O423" s="22"/>
+      <c r="P423" s="22"/>
+      <c r="Q423" s="22"/>
+      <c r="R423" s="22"/>
+      <c r="S423" s="22"/>
+      <c r="T423" s="22"/>
+      <c r="U423" s="22"/>
+      <c r="V423" s="22"/>
+      <c r="W423" s="22"/>
+      <c r="X423" s="22"/>
+      <c r="Y423" s="22"/>
+    </row>
+    <row r="424" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A424" s="22"/>
+      <c r="B424" s="22"/>
+      <c r="C424" s="23"/>
+      <c r="D424" s="36">
+        <v>45653</v>
+      </c>
+      <c r="E424" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F424" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G424" s="18" t="s">
+        <v>383</v>
+      </c>
+      <c r="H424" s="19">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="I424" s="19">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="J424" s="22"/>
+      <c r="K424" s="22"/>
+      <c r="L424" s="22"/>
+      <c r="M424" s="22"/>
+      <c r="N424" s="22"/>
+      <c r="O424" s="22"/>
+      <c r="P424" s="22"/>
+      <c r="Q424" s="22"/>
+      <c r="R424" s="22"/>
+      <c r="S424" s="22"/>
+      <c r="T424" s="22"/>
+      <c r="U424" s="22"/>
+      <c r="V424" s="22"/>
+      <c r="W424" s="22"/>
+      <c r="X424" s="22"/>
+      <c r="Y424" s="22"/>
+    </row>
+    <row r="425" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A425" s="22"/>
+      <c r="B425" s="22"/>
+      <c r="C425" s="23"/>
+      <c r="D425" s="36">
+        <v>45653</v>
+      </c>
+      <c r="E425" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F425" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G425" s="18" t="s">
+        <v>384</v>
+      </c>
+      <c r="H425" s="19">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="I425" s="19">
+        <v>0.58124999999999993</v>
+      </c>
+      <c r="J425" s="22"/>
+      <c r="K425" s="22"/>
+      <c r="L425" s="22"/>
+      <c r="M425" s="22"/>
+      <c r="N425" s="22"/>
+      <c r="O425" s="22"/>
+      <c r="P425" s="22"/>
+      <c r="Q425" s="22"/>
+      <c r="R425" s="22"/>
+      <c r="S425" s="22"/>
+      <c r="T425" s="22"/>
+      <c r="U425" s="22"/>
+      <c r="V425" s="22"/>
+      <c r="W425" s="22"/>
+      <c r="X425" s="22"/>
+      <c r="Y425" s="22"/>
+    </row>
+    <row r="426" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A426" s="22"/>
+      <c r="B426" s="22"/>
+      <c r="C426" s="23"/>
+      <c r="D426" s="36">
+        <v>45656</v>
+      </c>
+      <c r="E426" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F426" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G426" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="H426" s="19">
+        <v>0.33194444444444443</v>
+      </c>
+      <c r="I426" s="19">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="J426" s="22"/>
+      <c r="K426" s="22"/>
+      <c r="L426" s="22"/>
+      <c r="M426" s="22"/>
+      <c r="N426" s="22"/>
+      <c r="O426" s="22"/>
+      <c r="P426" s="22"/>
+      <c r="Q426" s="22"/>
+      <c r="R426" s="22"/>
+      <c r="S426" s="22"/>
+      <c r="T426" s="22"/>
+      <c r="U426" s="22"/>
+      <c r="V426" s="22"/>
+      <c r="W426" s="22"/>
+      <c r="X426" s="22"/>
+      <c r="Y426" s="22"/>
+    </row>
+    <row r="427" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A427" s="22"/>
+      <c r="B427" s="22"/>
+      <c r="C427" s="23"/>
+      <c r="D427" s="24">
+        <v>45656</v>
+      </c>
+      <c r="E427" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F427" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G427" s="15" t="s">
+        <v>385</v>
+      </c>
+      <c r="H427" s="16">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="I427" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="J427" s="22"/>
+      <c r="K427" s="22"/>
+      <c r="L427" s="22"/>
+      <c r="M427" s="22"/>
+      <c r="N427" s="22"/>
+      <c r="O427" s="22"/>
+      <c r="P427" s="22"/>
+      <c r="Q427" s="22"/>
+      <c r="R427" s="22"/>
+      <c r="S427" s="22"/>
+      <c r="T427" s="22"/>
+      <c r="U427" s="22"/>
+      <c r="V427" s="22"/>
+      <c r="W427" s="22"/>
+      <c r="X427" s="22"/>
+    </row>
+    <row r="428" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A428" s="22"/>
+      <c r="B428" s="22"/>
+      <c r="C428" s="23"/>
+      <c r="D428" s="36">
+        <v>45656</v>
+      </c>
+      <c r="E428" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F428" s="18" t="s">
+        <v>386</v>
+      </c>
+      <c r="G428" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="H428" s="19">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="I428" s="19">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="J428" s="22"/>
+      <c r="K428" s="22"/>
+      <c r="L428" s="22"/>
+      <c r="M428" s="22"/>
+      <c r="N428" s="22"/>
+      <c r="O428" s="22"/>
+      <c r="P428" s="22"/>
+      <c r="Q428" s="22"/>
+      <c r="R428" s="22"/>
+      <c r="S428" s="22"/>
+      <c r="T428" s="22"/>
+      <c r="U428" s="22"/>
+      <c r="V428" s="22"/>
+      <c r="W428" s="22"/>
+      <c r="X428" s="22"/>
+    </row>
+    <row r="429" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A429" s="22"/>
+      <c r="B429" s="22"/>
+      <c r="C429" s="23"/>
+      <c r="D429" s="36">
+        <v>45656</v>
+      </c>
+      <c r="E429" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F429" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G429" s="18" t="s">
+        <v>388</v>
+      </c>
+      <c r="H429" s="19">
+        <v>0.54513888888888895</v>
+      </c>
+      <c r="I429" s="19">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="J429" s="22"/>
+      <c r="K429" s="22"/>
+      <c r="L429" s="22"/>
+      <c r="M429" s="22"/>
+      <c r="N429" s="22"/>
+      <c r="O429" s="22"/>
+      <c r="P429" s="22"/>
+      <c r="Q429" s="22"/>
+      <c r="R429" s="22"/>
+      <c r="S429" s="22"/>
+      <c r="T429" s="22"/>
+      <c r="U429" s="22"/>
+      <c r="V429" s="22"/>
+      <c r="W429" s="22"/>
+      <c r="X429" s="22"/>
+    </row>
+    <row r="430" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A430" s="22"/>
+      <c r="B430" s="22"/>
+      <c r="C430" s="23"/>
+      <c r="D430" s="36">
+        <v>45657</v>
+      </c>
+      <c r="E430" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F430" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G430" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="H430" s="19">
+        <v>0.33194444444444443</v>
+      </c>
+      <c r="I430" s="19">
+        <v>0.3354166666666667</v>
+      </c>
+      <c r="J430" s="22"/>
+      <c r="K430" s="22"/>
+      <c r="L430" s="22"/>
+      <c r="M430" s="22"/>
+      <c r="N430" s="22"/>
+      <c r="O430" s="22"/>
+      <c r="P430" s="22"/>
+      <c r="Q430" s="22"/>
+      <c r="R430" s="22"/>
+      <c r="S430" s="22"/>
+      <c r="T430" s="22"/>
+      <c r="U430" s="22"/>
+      <c r="V430" s="22"/>
+      <c r="W430" s="22"/>
+      <c r="X430" s="22"/>
+    </row>
+    <row r="431" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A431" s="22"/>
+      <c r="B431" s="22"/>
+      <c r="C431" s="23"/>
+      <c r="D431" s="36">
+        <v>45659</v>
+      </c>
+      <c r="E431" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F431" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G431" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="H431" s="19">
+        <v>0.33194444444444443</v>
+      </c>
+      <c r="I431" s="19">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="J431" s="22"/>
+      <c r="K431" s="22"/>
+      <c r="L431" s="22"/>
+      <c r="M431" s="22"/>
+      <c r="N431" s="22"/>
+      <c r="O431" s="22"/>
+      <c r="P431" s="22"/>
+      <c r="Q431" s="22"/>
+      <c r="R431" s="22"/>
+      <c r="S431" s="22"/>
+      <c r="T431" s="22"/>
+      <c r="U431" s="22"/>
+      <c r="V431" s="22"/>
+      <c r="W431" s="22"/>
+      <c r="X431" s="22"/>
+    </row>
+    <row r="432" spans="1:25" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A432" s="69"/>
+      <c r="B432" s="70"/>
+      <c r="C432" s="66"/>
+      <c r="D432" s="24">
+        <v>45659</v>
+      </c>
+      <c r="E432" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F432" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G432" s="15" t="s">
+        <v>389</v>
+      </c>
+      <c r="H432" s="16">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="I432" s="16">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="J432" s="66"/>
+      <c r="K432" s="71"/>
+      <c r="L432" s="72"/>
+      <c r="M432" s="66"/>
+      <c r="N432" s="66"/>
+      <c r="O432" s="66"/>
+      <c r="P432" s="66"/>
+      <c r="Q432" s="66"/>
+      <c r="R432" s="66"/>
+      <c r="S432" s="66"/>
+      <c r="T432" s="66"/>
+      <c r="U432" s="66"/>
+      <c r="V432" s="66"/>
+      <c r="W432" s="66"/>
+      <c r="X432" s="66"/>
+      <c r="Y432" s="66"/>
+    </row>
+    <row r="433" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A433" s="69"/>
+      <c r="B433" s="70"/>
+      <c r="C433" s="67"/>
+      <c r="D433" s="36">
+        <v>45659</v>
+      </c>
+      <c r="E433" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F433" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G433" s="18" t="s">
+        <v>390</v>
+      </c>
+      <c r="H433" s="19">
+        <v>0.41736111111111113</v>
+      </c>
+      <c r="I433" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="J433" s="67"/>
+      <c r="K433" s="71"/>
+      <c r="L433" s="72"/>
+      <c r="M433" s="67"/>
+      <c r="N433" s="67"/>
+      <c r="O433" s="67"/>
+      <c r="P433" s="67"/>
+      <c r="Q433" s="67"/>
+      <c r="R433" s="67"/>
+      <c r="S433" s="67"/>
+      <c r="T433" s="67"/>
+      <c r="U433" s="67"/>
+      <c r="V433" s="67"/>
+      <c r="W433" s="67"/>
+      <c r="X433" s="67"/>
+      <c r="Y433" s="67"/>
+    </row>
+    <row r="434" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A434" s="69"/>
+      <c r="B434" s="70"/>
+      <c r="C434" s="67"/>
+      <c r="D434" s="36">
+        <v>45659</v>
+      </c>
+      <c r="E434" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F434" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G434" s="18" t="s">
+        <v>391</v>
+      </c>
+      <c r="H434" s="19">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="I434" s="19">
+        <v>0.5805555555555556</v>
+      </c>
+      <c r="J434" s="67"/>
+      <c r="K434" s="71"/>
+      <c r="L434" s="72"/>
+      <c r="M434" s="67"/>
+      <c r="N434" s="67"/>
+      <c r="O434" s="67"/>
+      <c r="P434" s="67"/>
+      <c r="Q434" s="67"/>
+      <c r="R434" s="67"/>
+      <c r="S434" s="67"/>
+      <c r="T434" s="67"/>
+      <c r="U434" s="67"/>
+      <c r="V434" s="67"/>
+      <c r="W434" s="67"/>
+      <c r="X434" s="67"/>
+      <c r="Y434" s="67"/>
+    </row>
+    <row r="435" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A435" s="69"/>
+      <c r="B435" s="70"/>
+      <c r="C435" s="67"/>
+      <c r="D435" s="36">
+        <v>45660</v>
+      </c>
+      <c r="E435" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F435" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G435" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="H435" s="19">
+        <v>0.375</v>
+      </c>
+      <c r="I435" s="19">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="J435" s="67"/>
+      <c r="K435" s="71"/>
+      <c r="L435" s="72"/>
+      <c r="M435" s="67"/>
+      <c r="N435" s="67"/>
+      <c r="O435" s="67"/>
+      <c r="P435" s="67"/>
+      <c r="Q435" s="67"/>
+      <c r="R435" s="67"/>
+      <c r="S435" s="67"/>
+      <c r="T435" s="67"/>
+      <c r="U435" s="67"/>
+      <c r="V435" s="67"/>
+      <c r="W435" s="67"/>
+      <c r="X435" s="67"/>
+      <c r="Y435" s="67"/>
+    </row>
+    <row r="436" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A436" s="69"/>
+      <c r="B436" s="70"/>
+      <c r="C436" s="67"/>
+      <c r="D436" s="36">
+        <v>45663</v>
+      </c>
+      <c r="E436" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F436" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G436" s="18" t="s">
+        <v>393</v>
+      </c>
+      <c r="H436" s="19">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I436" s="19">
+        <v>0.35069444444444442</v>
+      </c>
+      <c r="J436" s="67"/>
+      <c r="K436" s="71"/>
+      <c r="L436" s="72"/>
+      <c r="M436" s="67"/>
+      <c r="N436" s="67"/>
+      <c r="O436" s="67"/>
+      <c r="P436" s="67"/>
+      <c r="Q436" s="67"/>
+      <c r="R436" s="67"/>
+      <c r="S436" s="67"/>
+      <c r="T436" s="67"/>
+      <c r="U436" s="67"/>
+      <c r="V436" s="67"/>
+      <c r="W436" s="67"/>
+      <c r="X436" s="67"/>
+      <c r="Y436" s="67"/>
+    </row>
+    <row r="437" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A437" s="69"/>
+      <c r="B437" s="70"/>
+      <c r="C437" s="67"/>
+      <c r="D437" s="36">
+        <v>45663</v>
+      </c>
+      <c r="E437" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F437" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G437" s="18" t="s">
+        <v>394</v>
+      </c>
+      <c r="H437" s="19">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="I437" s="19">
+        <v>0.375</v>
+      </c>
+      <c r="J437" s="67"/>
+      <c r="K437" s="71"/>
+      <c r="L437" s="72"/>
+      <c r="M437" s="67"/>
+      <c r="N437" s="67"/>
+      <c r="O437" s="67"/>
+      <c r="P437" s="67"/>
+      <c r="Q437" s="67"/>
+      <c r="R437" s="67"/>
+      <c r="S437" s="67"/>
+      <c r="T437" s="67"/>
+      <c r="U437" s="67"/>
+      <c r="V437" s="67"/>
+      <c r="W437" s="67"/>
+      <c r="X437" s="67"/>
+      <c r="Y437" s="67"/>
+    </row>
+    <row r="438" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A438" s="69"/>
+      <c r="B438" s="70"/>
+      <c r="C438" s="67"/>
+      <c r="D438" s="36">
+        <v>45663</v>
+      </c>
+      <c r="E438" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F438" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G438" s="18" t="s">
+        <v>395</v>
+      </c>
+      <c r="H438" s="19">
+        <v>0.3756944444444445</v>
+      </c>
+      <c r="I438" s="19">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="J438" s="67"/>
+      <c r="K438" s="71"/>
+      <c r="L438" s="72"/>
+      <c r="M438" s="67"/>
+      <c r="N438" s="67"/>
+      <c r="O438" s="67"/>
+      <c r="P438" s="67"/>
+      <c r="Q438" s="67"/>
+      <c r="R438" s="67"/>
+      <c r="S438" s="67"/>
+      <c r="T438" s="67"/>
+      <c r="U438" s="67"/>
+      <c r="V438" s="67"/>
+      <c r="W438" s="67"/>
+      <c r="X438" s="67"/>
+      <c r="Y438" s="67"/>
+    </row>
+    <row r="439" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A439" s="69"/>
+      <c r="B439" s="70"/>
+      <c r="C439" s="67"/>
+      <c r="D439" s="36">
+        <v>45663</v>
+      </c>
+      <c r="E439" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F439" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G439" s="18" t="s">
+        <v>396</v>
+      </c>
+      <c r="H439" s="19">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="I439" s="19">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="J439" s="67"/>
+      <c r="K439" s="71"/>
+      <c r="L439" s="72"/>
+      <c r="M439" s="67"/>
+      <c r="N439" s="67"/>
+      <c r="O439" s="67"/>
+      <c r="P439" s="67"/>
+      <c r="Q439" s="67"/>
+      <c r="R439" s="67"/>
+      <c r="S439" s="67"/>
+      <c r="T439" s="67"/>
+      <c r="U439" s="67"/>
+      <c r="V439" s="67"/>
+      <c r="W439" s="67"/>
+      <c r="X439" s="67"/>
+      <c r="Y439" s="67"/>
+    </row>
+    <row r="440" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A440" s="69"/>
+      <c r="B440" s="70"/>
+      <c r="C440" s="67"/>
+      <c r="D440" s="36">
+        <v>45663</v>
+      </c>
+      <c r="E440" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F440" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G440" s="18" t="s">
+        <v>397</v>
+      </c>
+      <c r="H440" s="19">
+        <v>0.40625</v>
+      </c>
+      <c r="I440" s="19">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="J440" s="67"/>
+      <c r="K440" s="71"/>
+      <c r="L440" s="72"/>
+      <c r="M440" s="67"/>
+      <c r="N440" s="67"/>
+      <c r="O440" s="67"/>
+      <c r="P440" s="67"/>
+      <c r="Q440" s="67"/>
+      <c r="R440" s="67"/>
+      <c r="S440" s="67"/>
+      <c r="T440" s="67"/>
+      <c r="U440" s="67"/>
+      <c r="V440" s="67"/>
+      <c r="W440" s="67"/>
+      <c r="X440" s="67"/>
+      <c r="Y440" s="67"/>
+    </row>
+    <row r="441" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A441" s="69"/>
+      <c r="B441" s="70"/>
+      <c r="C441" s="67"/>
+      <c r="D441" s="36">
+        <v>45663</v>
+      </c>
+      <c r="E441" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F441" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G441" s="18" t="s">
+        <v>397</v>
+      </c>
+      <c r="H441" s="19">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="I441" s="19">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="J441" s="67"/>
+      <c r="K441" s="71"/>
+      <c r="L441" s="72"/>
+      <c r="M441" s="67"/>
+      <c r="N441" s="67"/>
+      <c r="O441" s="67"/>
+      <c r="P441" s="67"/>
+      <c r="Q441" s="67"/>
+      <c r="R441" s="67"/>
+      <c r="S441" s="67"/>
+      <c r="T441" s="67"/>
+      <c r="U441" s="67"/>
+      <c r="V441" s="67"/>
+      <c r="W441" s="67"/>
+      <c r="X441" s="67"/>
+      <c r="Y441" s="67"/>
+    </row>
+    <row r="442" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A442" s="69"/>
+      <c r="B442" s="70"/>
+      <c r="C442" s="67"/>
+      <c r="D442" s="36">
+        <v>45664</v>
+      </c>
+      <c r="E442" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F442" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G442" s="18" t="s">
+        <v>398</v>
+      </c>
+      <c r="H442" s="19">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="I442" s="19">
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="J442" s="67"/>
+      <c r="K442" s="71"/>
+      <c r="L442" s="72"/>
+      <c r="M442" s="67"/>
+      <c r="N442" s="67"/>
+      <c r="O442" s="67"/>
+      <c r="P442" s="67"/>
+      <c r="Q442" s="67"/>
+      <c r="R442" s="67"/>
+      <c r="S442" s="67"/>
+      <c r="T442" s="67"/>
+      <c r="U442" s="67"/>
+      <c r="V442" s="67"/>
+      <c r="W442" s="67"/>
+      <c r="X442" s="67"/>
+      <c r="Y442" s="67"/>
+    </row>
+    <row r="443" spans="1:25" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A443" s="69"/>
+      <c r="B443" s="70"/>
+      <c r="C443" s="67"/>
+      <c r="D443" s="36">
+        <v>45664</v>
+      </c>
+      <c r="E443" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F443" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G443" s="18" t="s">
+        <v>399</v>
+      </c>
+      <c r="H443" s="19">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="I443" s="19">
+        <v>0.36527777777777781</v>
+      </c>
+      <c r="J443" s="67"/>
+      <c r="K443" s="71"/>
+      <c r="L443" s="72"/>
+      <c r="M443" s="67"/>
+      <c r="N443" s="67"/>
+      <c r="O443" s="67"/>
+      <c r="P443" s="67"/>
+      <c r="Q443" s="67"/>
+      <c r="R443" s="67"/>
+      <c r="S443" s="67"/>
+      <c r="T443" s="67"/>
+      <c r="U443" s="67"/>
+      <c r="V443" s="67"/>
+      <c r="W443" s="67"/>
+      <c r="X443" s="67"/>
+      <c r="Y443" s="67"/>
+    </row>
+    <row r="444" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A444" s="69"/>
+      <c r="B444" s="70"/>
+      <c r="C444" s="67"/>
+      <c r="D444" s="36">
+        <v>45664</v>
+      </c>
+      <c r="E444" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F444" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G444" s="18" t="s">
+        <v>400</v>
+      </c>
+      <c r="H444" s="19">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="I444" s="19">
+        <v>0.37152777777777773</v>
+      </c>
+      <c r="J444" s="67"/>
+      <c r="K444" s="71"/>
+      <c r="L444" s="72"/>
+      <c r="M444" s="67"/>
+      <c r="N444" s="67"/>
+      <c r="O444" s="67"/>
+      <c r="P444" s="67"/>
+      <c r="Q444" s="67"/>
+      <c r="R444" s="67"/>
+      <c r="S444" s="67"/>
+      <c r="T444" s="67"/>
+      <c r="U444" s="67"/>
+      <c r="V444" s="67"/>
+      <c r="W444" s="67"/>
+      <c r="X444" s="67"/>
+      <c r="Y444" s="67"/>
+    </row>
+    <row r="445" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A445" s="69"/>
+      <c r="B445" s="70"/>
+      <c r="C445" s="67"/>
+      <c r="D445" s="36">
+        <v>45664</v>
+      </c>
+      <c r="E445" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F445" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G445" s="18" t="s">
+        <v>401</v>
+      </c>
+      <c r="H445" s="19">
+        <v>0.375</v>
+      </c>
+      <c r="I445" s="19">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="J445" s="67"/>
+      <c r="K445" s="71"/>
+      <c r="L445" s="72"/>
+      <c r="M445" s="67"/>
+      <c r="N445" s="67"/>
+      <c r="O445" s="67"/>
+      <c r="P445" s="67"/>
+      <c r="Q445" s="67"/>
+      <c r="R445" s="67"/>
+      <c r="S445" s="67"/>
+      <c r="T445" s="67"/>
+      <c r="U445" s="67"/>
+      <c r="V445" s="67"/>
+      <c r="W445" s="67"/>
+      <c r="X445" s="67"/>
+      <c r="Y445" s="67"/>
+    </row>
+    <row r="446" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A446" s="69"/>
+      <c r="B446" s="70"/>
+      <c r="C446" s="67"/>
+      <c r="D446" s="36">
+        <v>45664</v>
+      </c>
+      <c r="E446" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F446" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G446" s="18" t="s">
+        <v>402</v>
+      </c>
+      <c r="H446" s="19">
+        <v>0.44930555555555557</v>
+      </c>
+      <c r="I446" s="19">
+        <v>0.4597222222222222</v>
+      </c>
+      <c r="J446" s="67"/>
+      <c r="K446" s="71"/>
+      <c r="L446" s="72"/>
+      <c r="M446" s="67"/>
+      <c r="N446" s="67"/>
+      <c r="O446" s="67"/>
+      <c r="P446" s="67"/>
+      <c r="Q446" s="67"/>
+      <c r="R446" s="67"/>
+      <c r="S446" s="67"/>
+      <c r="T446" s="67"/>
+      <c r="U446" s="67"/>
+      <c r="V446" s="67"/>
+      <c r="W446" s="67"/>
+      <c r="X446" s="67"/>
+      <c r="Y446" s="67"/>
+    </row>
+    <row r="447" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A447" s="69"/>
+      <c r="B447" s="70"/>
+      <c r="C447" s="67"/>
+      <c r="D447" s="36">
+        <v>45665</v>
+      </c>
+      <c r="E447" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F447" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G447" s="18" t="s">
+        <v>403</v>
+      </c>
+      <c r="H447" s="19">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="I447" s="19">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="J447" s="67"/>
+      <c r="K447" s="71"/>
+      <c r="L447" s="72"/>
+      <c r="M447" s="67"/>
+      <c r="N447" s="67"/>
+      <c r="O447" s="67"/>
+      <c r="P447" s="67"/>
+      <c r="Q447" s="67"/>
+      <c r="R447" s="67"/>
+      <c r="S447" s="67"/>
+      <c r="T447" s="67"/>
+      <c r="U447" s="67"/>
+      <c r="V447" s="67"/>
+      <c r="W447" s="67"/>
+      <c r="X447" s="67"/>
+      <c r="Y447" s="67"/>
+    </row>
+    <row r="448" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A448" s="69"/>
+      <c r="B448" s="70"/>
+      <c r="C448" s="67"/>
+      <c r="D448" s="36">
+        <v>45665</v>
+      </c>
+      <c r="E448" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F448" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G448" s="18" t="s">
+        <v>404</v>
+      </c>
+      <c r="H448" s="19">
+        <v>0.44513888888888892</v>
+      </c>
+      <c r="I448" s="19">
+        <v>0.45</v>
+      </c>
+      <c r="J448" s="67"/>
+      <c r="K448" s="71"/>
+      <c r="L448" s="72"/>
+      <c r="M448" s="67"/>
+      <c r="N448" s="67"/>
+      <c r="O448" s="67"/>
+      <c r="P448" s="67"/>
+      <c r="Q448" s="67"/>
+      <c r="R448" s="67"/>
+      <c r="S448" s="67"/>
+      <c r="T448" s="67"/>
+      <c r="U448" s="67"/>
+      <c r="V448" s="67"/>
+      <c r="W448" s="67"/>
+      <c r="X448" s="67"/>
+      <c r="Y448" s="67"/>
+    </row>
+    <row r="449" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A449" s="68"/>
+      <c r="B449" s="67"/>
+      <c r="C449" s="67"/>
+      <c r="D449" s="36">
+        <v>45665</v>
+      </c>
+      <c r="E449" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F449" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="G449" s="18" t="s">
+        <v>405</v>
+      </c>
+      <c r="H449" s="19">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="I449" s="19">
+        <v>0.45763888888888887</v>
+      </c>
+      <c r="J449" s="67"/>
+      <c r="K449" s="67"/>
+      <c r="L449" s="67"/>
+      <c r="M449" s="67"/>
+      <c r="N449" s="67"/>
+      <c r="O449" s="67"/>
+      <c r="P449" s="67"/>
+      <c r="Q449" s="67"/>
+      <c r="R449" s="67"/>
+      <c r="S449" s="67"/>
+      <c r="T449" s="67"/>
+      <c r="U449" s="67"/>
+      <c r="V449" s="67"/>
+      <c r="W449" s="67"/>
+      <c r="X449" s="67"/>
+      <c r="Y449" s="67"/>
+    </row>
+    <row r="450" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A450" s="68"/>
+      <c r="B450" s="67"/>
+      <c r="C450" s="67"/>
+      <c r="D450" s="36">
+        <v>45665</v>
+      </c>
+      <c r="E450" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F450" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="G450" s="18" t="s">
+        <v>406</v>
+      </c>
+      <c r="H450" s="19">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="I450" s="19">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="J450" s="67"/>
+      <c r="K450" s="67"/>
+      <c r="L450" s="67"/>
+      <c r="M450" s="67"/>
+      <c r="N450" s="67"/>
+      <c r="O450" s="67"/>
+      <c r="P450" s="67"/>
+      <c r="Q450" s="67"/>
+      <c r="R450" s="67"/>
+      <c r="S450" s="67"/>
+      <c r="T450" s="67"/>
+      <c r="U450" s="67"/>
+      <c r="V450" s="67"/>
+      <c r="W450" s="67"/>
+      <c r="X450" s="67"/>
+      <c r="Y450" s="67"/>
+    </row>
+    <row r="451" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A451" s="69"/>
+      <c r="B451" s="70"/>
+      <c r="C451" s="67"/>
+      <c r="D451" s="36">
+        <v>45665</v>
+      </c>
+      <c r="E451" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F451" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="G451" s="18" t="s">
+        <v>407</v>
+      </c>
+      <c r="H451" s="19">
+        <v>0.4680555555555555</v>
+      </c>
+      <c r="I451" s="19">
+        <v>0.46875</v>
+      </c>
+      <c r="J451" s="67"/>
+      <c r="K451" s="71"/>
+      <c r="L451" s="72"/>
+      <c r="M451" s="67"/>
+      <c r="N451" s="67"/>
+      <c r="O451" s="67"/>
+      <c r="P451" s="67"/>
+      <c r="Q451" s="67"/>
+      <c r="R451" s="67"/>
+      <c r="S451" s="67"/>
+      <c r="T451" s="67"/>
+      <c r="U451" s="67"/>
+      <c r="V451" s="67"/>
+      <c r="W451" s="67"/>
+      <c r="X451" s="67"/>
+      <c r="Y451" s="67"/>
+    </row>
+    <row r="452" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A452" s="69"/>
+      <c r="B452" s="70"/>
+      <c r="C452" s="67"/>
+      <c r="D452" s="36">
+        <v>45665</v>
+      </c>
+      <c r="E452" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F452" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G452" s="18" t="s">
+        <v>408</v>
+      </c>
+      <c r="H452" s="19">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="I452" s="19">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="J452" s="67"/>
+      <c r="K452" s="71"/>
+      <c r="L452" s="72"/>
+      <c r="M452" s="67"/>
+      <c r="N452" s="67"/>
+      <c r="O452" s="67"/>
+      <c r="P452" s="67"/>
+      <c r="Q452" s="67"/>
+      <c r="R452" s="67"/>
+      <c r="S452" s="67"/>
+      <c r="T452" s="67"/>
+      <c r="U452" s="67"/>
+      <c r="V452" s="67"/>
+      <c r="W452" s="67"/>
+      <c r="X452" s="67"/>
+      <c r="Y452" s="67"/>
+    </row>
+    <row r="453" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A453" s="69"/>
+      <c r="B453" s="70"/>
+      <c r="C453" s="67"/>
+      <c r="D453" s="36">
+        <v>45666</v>
+      </c>
+      <c r="E453" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F453" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G453" s="18" t="s">
+        <v>409</v>
+      </c>
+      <c r="H453" s="19">
+        <v>0.33055555555555555</v>
+      </c>
+      <c r="I453" s="19">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="J453" s="67"/>
+      <c r="K453" s="71"/>
+      <c r="L453" s="72"/>
+      <c r="M453" s="67"/>
+      <c r="N453" s="67"/>
+      <c r="O453" s="67"/>
+      <c r="P453" s="67"/>
+      <c r="Q453" s="67"/>
+      <c r="R453" s="67"/>
+      <c r="S453" s="67"/>
+      <c r="T453" s="67"/>
+      <c r="U453" s="67"/>
+      <c r="V453" s="67"/>
+      <c r="W453" s="67"/>
+      <c r="X453" s="67"/>
+      <c r="Y453" s="67"/>
+    </row>
+    <row r="454" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A454" s="69"/>
+      <c r="B454" s="70"/>
+      <c r="C454" s="67"/>
+      <c r="D454" s="36">
+        <v>45666</v>
+      </c>
+      <c r="E454" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F454" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G454" s="18" t="s">
+        <v>410</v>
+      </c>
+      <c r="H454" s="19">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="I454" s="19">
+        <v>0.375</v>
+      </c>
+      <c r="J454" s="67"/>
+      <c r="K454" s="71"/>
+      <c r="L454" s="72"/>
+      <c r="M454" s="67"/>
+      <c r="N454" s="67"/>
+      <c r="O454" s="67"/>
+      <c r="P454" s="67"/>
+      <c r="Q454" s="67"/>
+      <c r="R454" s="67"/>
+      <c r="S454" s="67"/>
+      <c r="T454" s="67"/>
+      <c r="U454" s="67"/>
+      <c r="V454" s="67"/>
+      <c r="W454" s="67"/>
+      <c r="X454" s="67"/>
+      <c r="Y454" s="67"/>
+    </row>
+    <row r="455" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A455" s="69"/>
+      <c r="B455" s="70"/>
+      <c r="C455" s="67"/>
+      <c r="D455" s="36">
+        <v>45666</v>
+      </c>
+      <c r="E455" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F455" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="G455" s="18" t="s">
+        <v>411</v>
+      </c>
+      <c r="H455" s="19">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="I455" s="19">
+        <v>0.46875</v>
+      </c>
+      <c r="J455" s="67"/>
+      <c r="K455" s="71"/>
+      <c r="L455" s="72"/>
+      <c r="M455" s="67"/>
+      <c r="N455" s="67"/>
+      <c r="O455" s="67"/>
+      <c r="P455" s="67"/>
+      <c r="Q455" s="67"/>
+      <c r="R455" s="67"/>
+      <c r="S455" s="67"/>
+      <c r="T455" s="67"/>
+      <c r="U455" s="67"/>
+      <c r="V455" s="67"/>
+      <c r="W455" s="67"/>
+      <c r="X455" s="67"/>
+      <c r="Y455" s="67"/>
+    </row>
+    <row r="456" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A456" s="69"/>
+      <c r="B456" s="70"/>
+      <c r="C456" s="67"/>
+      <c r="D456" s="36">
+        <v>45666</v>
+      </c>
+      <c r="E456" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F456" s="18" t="s">
+        <v>412</v>
+      </c>
+      <c r="G456" s="18" t="s">
+        <v>413</v>
+      </c>
+      <c r="H456" s="19">
+        <v>0.4694444444444445</v>
+      </c>
+      <c r="I456" s="19">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="J456" s="67"/>
+      <c r="K456" s="71"/>
+      <c r="L456" s="72"/>
+      <c r="M456" s="67"/>
+      <c r="N456" s="67"/>
+      <c r="O456" s="67"/>
+      <c r="P456" s="67"/>
+      <c r="Q456" s="67"/>
+      <c r="R456" s="67"/>
+      <c r="S456" s="67"/>
+      <c r="T456" s="67"/>
+      <c r="U456" s="67"/>
+      <c r="V456" s="67"/>
+      <c r="W456" s="67"/>
+      <c r="X456" s="67"/>
+      <c r="Y456" s="67"/>
+    </row>
+    <row r="457" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A457" s="69"/>
+      <c r="B457" s="70"/>
+      <c r="C457" s="67"/>
+      <c r="D457" s="36">
+        <v>45666</v>
+      </c>
+      <c r="E457" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F457" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="G457" s="18" t="s">
+        <v>414</v>
+      </c>
+      <c r="H457" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="I457" s="19">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="J457" s="67"/>
+      <c r="K457" s="71"/>
+      <c r="L457" s="72"/>
+      <c r="M457" s="67"/>
+      <c r="N457" s="67"/>
+      <c r="O457" s="67"/>
+      <c r="P457" s="67"/>
+      <c r="Q457" s="67"/>
+      <c r="R457" s="67"/>
+      <c r="S457" s="67"/>
+      <c r="T457" s="67"/>
+      <c r="U457" s="67"/>
+      <c r="V457" s="67"/>
+      <c r="W457" s="67"/>
+      <c r="X457" s="67"/>
+      <c r="Y457" s="67"/>
+    </row>
+    <row r="458" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A458" s="68"/>
+      <c r="B458" s="67"/>
+      <c r="C458" s="67"/>
+      <c r="D458" s="36">
+        <v>45666</v>
+      </c>
+      <c r="E458" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F458" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G458" s="18" t="s">
+        <v>415</v>
+      </c>
+      <c r="H458" s="19">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="I458" s="19">
+        <v>0.56597222222222221</v>
+      </c>
+      <c r="J458" s="67"/>
+      <c r="K458" s="67"/>
+      <c r="L458" s="67"/>
+      <c r="M458" s="67"/>
+      <c r="N458" s="67"/>
+      <c r="O458" s="67"/>
+      <c r="P458" s="67"/>
+      <c r="Q458" s="67"/>
+      <c r="R458" s="67"/>
+      <c r="S458" s="67"/>
+      <c r="T458" s="67"/>
+      <c r="U458" s="67"/>
+      <c r="V458" s="67"/>
+      <c r="W458" s="67"/>
+      <c r="X458" s="67"/>
+      <c r="Y458" s="67"/>
+    </row>
+    <row r="459" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A459" s="69"/>
+      <c r="B459" s="70"/>
+      <c r="C459" s="67"/>
+      <c r="D459" s="36">
+        <v>45667</v>
+      </c>
+      <c r="E459" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F459" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G459" s="18" t="s">
+        <v>416</v>
+      </c>
+      <c r="H459" s="19">
+        <v>0.33055555555555555</v>
+      </c>
+      <c r="I459" s="19">
+        <v>0.33124999999999999</v>
+      </c>
+      <c r="J459" s="67"/>
+      <c r="K459" s="71"/>
+      <c r="L459" s="72"/>
+      <c r="M459" s="67"/>
+      <c r="N459" s="67"/>
+      <c r="O459" s="67"/>
+      <c r="P459" s="67"/>
+      <c r="Q459" s="67"/>
+      <c r="R459" s="67"/>
+      <c r="S459" s="67"/>
+      <c r="T459" s="67"/>
+      <c r="U459" s="67"/>
+      <c r="V459" s="67"/>
+      <c r="W459" s="67"/>
+      <c r="X459" s="67"/>
+      <c r="Y459" s="67"/>
+    </row>
+    <row r="460" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A460" s="69"/>
+      <c r="B460" s="70"/>
+      <c r="C460" s="67"/>
+      <c r="D460" s="36">
+        <v>45667</v>
+      </c>
+      <c r="E460" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F460" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G460" s="18" t="s">
+        <v>417</v>
+      </c>
+      <c r="H460" s="19">
+        <v>0.37638888888888888</v>
+      </c>
+      <c r="I460" s="19">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="J460" s="67"/>
+      <c r="K460" s="71"/>
+      <c r="L460" s="72"/>
+      <c r="M460" s="67"/>
+      <c r="N460" s="67"/>
+      <c r="O460" s="67"/>
+      <c r="P460" s="67"/>
+      <c r="Q460" s="67"/>
+      <c r="R460" s="67"/>
+      <c r="S460" s="67"/>
+      <c r="T460" s="67"/>
+      <c r="U460" s="67"/>
+      <c r="V460" s="67"/>
+      <c r="W460" s="67"/>
+      <c r="X460" s="67"/>
+      <c r="Y460" s="67"/>
+    </row>
+    <row r="461" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A461" s="69"/>
+      <c r="B461" s="70"/>
+      <c r="C461" s="67"/>
+      <c r="D461" s="36">
+        <v>45667</v>
+      </c>
+      <c r="E461" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F461" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G461" s="18" t="s">
+        <v>418</v>
+      </c>
+      <c r="H461" s="19">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="I461" s="19">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="J461" s="67"/>
+      <c r="K461" s="71"/>
+      <c r="L461" s="72"/>
+      <c r="M461" s="67"/>
+      <c r="N461" s="67"/>
+      <c r="O461" s="67"/>
+      <c r="P461" s="67"/>
+      <c r="Q461" s="67"/>
+      <c r="R461" s="67"/>
+      <c r="S461" s="67"/>
+      <c r="T461" s="67"/>
+      <c r="U461" s="67"/>
+      <c r="V461" s="67"/>
+      <c r="W461" s="67"/>
+      <c r="X461" s="67"/>
+      <c r="Y461" s="67"/>
+    </row>
+    <row r="462" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A462" s="69"/>
+      <c r="B462" s="70"/>
+      <c r="C462" s="67"/>
+      <c r="D462" s="36">
+        <v>45667</v>
+      </c>
+      <c r="E462" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F462" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G462" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="H462" s="19">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="I462" s="19">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="J462" s="67"/>
+      <c r="K462" s="71"/>
+      <c r="L462" s="72"/>
+      <c r="M462" s="67"/>
+      <c r="N462" s="67"/>
+      <c r="O462" s="67"/>
+      <c r="P462" s="67"/>
+      <c r="Q462" s="67"/>
+      <c r="R462" s="67"/>
+      <c r="S462" s="67"/>
+      <c r="T462" s="67"/>
+      <c r="U462" s="67"/>
+      <c r="V462" s="67"/>
+      <c r="W462" s="67"/>
+      <c r="X462" s="67"/>
+      <c r="Y462" s="67"/>
+    </row>
+    <row r="463" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A463" s="69"/>
+      <c r="B463" s="70"/>
+      <c r="C463" s="67"/>
+      <c r="D463" s="36">
+        <v>45670</v>
+      </c>
+      <c r="E463" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F463" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G463" s="18" t="s">
+        <v>420</v>
+      </c>
+      <c r="H463" s="19">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I463" s="19">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="J463" s="67"/>
+      <c r="K463" s="71"/>
+      <c r="L463" s="72"/>
+      <c r="M463" s="67"/>
+      <c r="N463" s="67"/>
+      <c r="O463" s="67"/>
+      <c r="P463" s="67"/>
+      <c r="Q463" s="67"/>
+      <c r="R463" s="67"/>
+      <c r="S463" s="67"/>
+      <c r="T463" s="67"/>
+      <c r="U463" s="67"/>
+      <c r="V463" s="67"/>
+      <c r="W463" s="67"/>
+      <c r="X463" s="67"/>
+      <c r="Y463" s="67"/>
+    </row>
+    <row r="464" spans="1:25" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A464" s="69"/>
+      <c r="B464" s="70"/>
+      <c r="C464" s="67"/>
+      <c r="D464" s="36">
+        <v>45670</v>
+      </c>
+      <c r="E464" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F464" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G464" s="18" t="s">
+        <v>421</v>
+      </c>
+      <c r="H464" s="19">
+        <v>0.375</v>
+      </c>
+      <c r="I464" s="19">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="J464" s="67"/>
+      <c r="K464" s="71"/>
+      <c r="L464" s="72"/>
+      <c r="M464" s="67"/>
+      <c r="N464" s="67"/>
+      <c r="O464" s="67"/>
+      <c r="P464" s="67"/>
+      <c r="Q464" s="67"/>
+      <c r="R464" s="67"/>
+      <c r="S464" s="67"/>
+      <c r="T464" s="67"/>
+      <c r="U464" s="67"/>
+      <c r="V464" s="67"/>
+      <c r="W464" s="67"/>
+      <c r="X464" s="67"/>
+      <c r="Y464" s="67"/>
+    </row>
+    <row r="465" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A465" s="69"/>
+      <c r="B465" s="70"/>
+      <c r="C465" s="67"/>
+      <c r="D465" s="36">
+        <v>45670</v>
+      </c>
+      <c r="E465" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F465" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="G465" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="H465" s="19">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="I465" s="19">
+        <v>0.40833333333333338</v>
+      </c>
+      <c r="J465" s="67"/>
+      <c r="K465" s="71"/>
+      <c r="L465" s="72"/>
+      <c r="M465" s="67"/>
+      <c r="N465" s="67"/>
+      <c r="O465" s="67"/>
+      <c r="P465" s="67"/>
+      <c r="Q465" s="67"/>
+      <c r="R465" s="67"/>
+      <c r="S465" s="67"/>
+      <c r="T465" s="67"/>
+      <c r="U465" s="67"/>
+      <c r="V465" s="67"/>
+      <c r="W465" s="67"/>
+      <c r="X465" s="67"/>
+      <c r="Y465" s="67"/>
+    </row>
+    <row r="466" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A466" s="69"/>
+      <c r="B466" s="70"/>
+      <c r="C466" s="67"/>
+      <c r="D466" s="36">
+        <v>45670</v>
+      </c>
+      <c r="E466" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F466" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G466" s="18" t="s">
+        <v>423</v>
+      </c>
+      <c r="H466" s="19">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="I466" s="19">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="J466" s="67"/>
+      <c r="K466" s="71"/>
+      <c r="L466" s="72"/>
+      <c r="M466" s="67"/>
+      <c r="N466" s="67"/>
+      <c r="O466" s="67"/>
+      <c r="P466" s="67"/>
+      <c r="Q466" s="67"/>
+      <c r="R466" s="67"/>
+      <c r="S466" s="67"/>
+      <c r="T466" s="67"/>
+      <c r="U466" s="67"/>
+      <c r="V466" s="67"/>
+      <c r="W466" s="67"/>
+      <c r="X466" s="67"/>
+      <c r="Y466" s="67"/>
+    </row>
+    <row r="467" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A467" s="69"/>
+      <c r="B467" s="70"/>
+      <c r="C467" s="67"/>
+      <c r="D467" s="36">
+        <v>45670</v>
+      </c>
+      <c r="E467" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F467" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G467" s="18" t="s">
+        <v>424</v>
+      </c>
+      <c r="H467" s="19">
+        <v>0.5625</v>
+      </c>
+      <c r="I467" s="19">
+        <v>0.56666666666666665</v>
+      </c>
+      <c r="J467" s="67"/>
+      <c r="K467" s="71"/>
+      <c r="L467" s="72"/>
+      <c r="M467" s="67"/>
+      <c r="N467" s="67"/>
+      <c r="O467" s="67"/>
+      <c r="P467" s="67"/>
+      <c r="Q467" s="67"/>
+      <c r="R467" s="67"/>
+      <c r="S467" s="67"/>
+      <c r="T467" s="67"/>
+      <c r="U467" s="67"/>
+      <c r="V467" s="67"/>
+      <c r="W467" s="67"/>
+      <c r="X467" s="67"/>
+      <c r="Y467" s="67"/>
+    </row>
+    <row r="468" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A468" s="69"/>
+      <c r="B468" s="70"/>
+      <c r="C468" s="67"/>
+      <c r="D468" s="36">
+        <v>45670</v>
+      </c>
+      <c r="E468" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F468" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="G468" s="18" t="s">
+        <v>425</v>
+      </c>
+      <c r="H468" s="19">
+        <v>0.57152777777777775</v>
+      </c>
+      <c r="I468" s="19">
+        <v>0.57430555555555551</v>
+      </c>
+      <c r="J468" s="67"/>
+      <c r="K468" s="71"/>
+      <c r="L468" s="72"/>
+      <c r="M468" s="67"/>
+      <c r="N468" s="67"/>
+      <c r="O468" s="67"/>
+      <c r="P468" s="67"/>
+      <c r="Q468" s="67"/>
+      <c r="R468" s="67"/>
+      <c r="S468" s="67"/>
+      <c r="T468" s="67"/>
+      <c r="U468" s="67"/>
+      <c r="V468" s="67"/>
+      <c r="W468" s="67"/>
+      <c r="X468" s="67"/>
+      <c r="Y468" s="67"/>
+    </row>
+    <row r="469" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A469" s="69"/>
+      <c r="B469" s="70"/>
+      <c r="C469" s="67"/>
+      <c r="D469" s="36">
+        <v>45671</v>
+      </c>
+      <c r="E469" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F469" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G469" s="18" t="s">
+        <v>416</v>
+      </c>
+      <c r="H469" s="19">
+        <v>0.33055555555555555</v>
+      </c>
+      <c r="I469" s="19">
+        <v>0.33124999999999999</v>
+      </c>
+      <c r="J469" s="67"/>
+      <c r="K469" s="71"/>
+      <c r="L469" s="72"/>
+      <c r="M469" s="67"/>
+      <c r="N469" s="67"/>
+      <c r="O469" s="67"/>
+      <c r="P469" s="67"/>
+      <c r="Q469" s="67"/>
+      <c r="R469" s="67"/>
+      <c r="S469" s="67"/>
+      <c r="T469" s="67"/>
+      <c r="U469" s="67"/>
+      <c r="V469" s="67"/>
+      <c r="W469" s="67"/>
+      <c r="X469" s="67"/>
+      <c r="Y469" s="67"/>
+    </row>
+    <row r="470" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A470" s="69"/>
+      <c r="B470" s="70"/>
+      <c r="C470" s="67"/>
+      <c r="D470" s="36">
+        <v>45671</v>
+      </c>
+      <c r="E470" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F470" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G470" s="18" t="s">
+        <v>426</v>
+      </c>
+      <c r="H470" s="19">
+        <v>0.34375</v>
+      </c>
+      <c r="I470" s="19">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="J470" s="67"/>
+      <c r="K470" s="71"/>
+      <c r="L470" s="72"/>
+      <c r="M470" s="67"/>
+      <c r="N470" s="67"/>
+      <c r="O470" s="67"/>
+      <c r="P470" s="67"/>
+      <c r="Q470" s="67"/>
+      <c r="R470" s="67"/>
+      <c r="S470" s="67"/>
+      <c r="T470" s="67"/>
+      <c r="U470" s="67"/>
+      <c r="V470" s="67"/>
+      <c r="W470" s="67"/>
+      <c r="X470" s="67"/>
+      <c r="Y470" s="67"/>
+    </row>
+    <row r="471" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A471" s="69"/>
+      <c r="B471" s="70"/>
+      <c r="C471" s="67"/>
+      <c r="D471" s="36">
+        <v>45671</v>
+      </c>
+      <c r="E471" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F471" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G471" s="18" t="s">
+        <v>427</v>
+      </c>
+      <c r="H471" s="19">
+        <v>0.375</v>
+      </c>
+      <c r="I471" s="19">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="J471" s="67"/>
+      <c r="K471" s="71"/>
+      <c r="L471" s="72"/>
+      <c r="M471" s="67"/>
+      <c r="N471" s="67"/>
+      <c r="O471" s="67"/>
+      <c r="P471" s="67"/>
+      <c r="Q471" s="67"/>
+      <c r="R471" s="67"/>
+      <c r="S471" s="67"/>
+      <c r="T471" s="67"/>
+      <c r="U471" s="67"/>
+      <c r="V471" s="67"/>
+      <c r="W471" s="67"/>
+      <c r="X471" s="67"/>
+      <c r="Y471" s="67"/>
+    </row>
+    <row r="472" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A472" s="69"/>
+      <c r="B472" s="70"/>
+      <c r="C472" s="67"/>
+      <c r="D472" s="36">
+        <v>45672</v>
+      </c>
+      <c r="E472" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F472" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G472" s="18" t="s">
+        <v>427</v>
+      </c>
+      <c r="H472" s="19">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I472" s="19">
+        <v>0.34027777777777773</v>
+      </c>
+      <c r="J472" s="67"/>
+      <c r="K472" s="71"/>
+      <c r="L472" s="72"/>
+      <c r="M472" s="67"/>
+      <c r="N472" s="67"/>
+      <c r="O472" s="67"/>
+      <c r="P472" s="67"/>
+      <c r="Q472" s="67"/>
+      <c r="R472" s="67"/>
+      <c r="S472" s="67"/>
+      <c r="T472" s="67"/>
+      <c r="U472" s="67"/>
+      <c r="V472" s="67"/>
+      <c r="W472" s="67"/>
+      <c r="X472" s="67"/>
+      <c r="Y472" s="67"/>
+    </row>
+    <row r="473" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A473" s="69"/>
+      <c r="B473" s="70"/>
+      <c r="C473" s="67"/>
+      <c r="D473" s="36">
+        <v>45672</v>
+      </c>
+      <c r="E473" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F473" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G473" s="18" t="s">
+        <v>428</v>
+      </c>
+      <c r="H473" s="19">
+        <v>0.34375</v>
+      </c>
+      <c r="I473" s="19">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="J473" s="67"/>
+      <c r="K473" s="71"/>
+      <c r="L473" s="72"/>
+      <c r="M473" s="67"/>
+      <c r="N473" s="67"/>
+      <c r="O473" s="67"/>
+      <c r="P473" s="67"/>
+      <c r="Q473" s="67"/>
+      <c r="R473" s="67"/>
+      <c r="S473" s="67"/>
+      <c r="T473" s="67"/>
+      <c r="U473" s="67"/>
+      <c r="V473" s="67"/>
+      <c r="W473" s="67"/>
+      <c r="X473" s="67"/>
+      <c r="Y473" s="67"/>
+    </row>
+    <row r="474" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A474" s="69"/>
+      <c r="B474" s="70"/>
+      <c r="C474" s="67"/>
+      <c r="D474" s="36">
+        <v>45672</v>
+      </c>
+      <c r="E474" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F474" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G474" s="18" t="s">
+        <v>429</v>
+      </c>
+      <c r="H474" s="19">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="I474" s="19">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="J474" s="67"/>
+      <c r="K474" s="71"/>
+      <c r="L474" s="72"/>
+      <c r="M474" s="67"/>
+      <c r="N474" s="67"/>
+      <c r="O474" s="67"/>
+      <c r="P474" s="67"/>
+      <c r="Q474" s="67"/>
+      <c r="R474" s="67"/>
+      <c r="S474" s="67"/>
+      <c r="T474" s="67"/>
+      <c r="U474" s="67"/>
+      <c r="V474" s="67"/>
+      <c r="W474" s="67"/>
+      <c r="X474" s="67"/>
+      <c r="Y474" s="67"/>
+    </row>
+    <row r="475" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A475" s="69"/>
+      <c r="B475" s="70"/>
+      <c r="C475" s="67"/>
+      <c r="D475" s="36">
+        <v>45672</v>
+      </c>
+      <c r="E475" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F475" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G475" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="H475" s="19">
+        <v>0.375</v>
+      </c>
+      <c r="I475" s="19">
+        <v>0.38958333333333334</v>
+      </c>
+      <c r="J475" s="67"/>
+      <c r="K475" s="71"/>
+      <c r="L475" s="72"/>
+      <c r="M475" s="67"/>
+      <c r="N475" s="67"/>
+      <c r="O475" s="67"/>
+      <c r="P475" s="67"/>
+      <c r="Q475" s="67"/>
+      <c r="R475" s="67"/>
+      <c r="S475" s="67"/>
+      <c r="T475" s="67"/>
+      <c r="U475" s="67"/>
+      <c r="V475" s="67"/>
+      <c r="W475" s="67"/>
+      <c r="X475" s="67"/>
+      <c r="Y475" s="67"/>
+    </row>
+    <row r="476" spans="1:25" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A476" s="69"/>
+      <c r="B476" s="70"/>
+      <c r="C476" s="67"/>
+      <c r="D476" s="36">
+        <v>45672</v>
+      </c>
+      <c r="E476" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F476" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G476" s="18" t="s">
+        <v>431</v>
+      </c>
+      <c r="H476" s="19">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="I476" s="19">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="J476" s="67"/>
+      <c r="K476" s="71"/>
+      <c r="L476" s="72"/>
+      <c r="M476" s="67"/>
+      <c r="N476" s="67"/>
+      <c r="O476" s="67"/>
+      <c r="P476" s="67"/>
+      <c r="Q476" s="67"/>
+      <c r="R476" s="67"/>
+      <c r="S476" s="67"/>
+      <c r="T476" s="67"/>
+      <c r="U476" s="67"/>
+      <c r="V476" s="67"/>
+      <c r="W476" s="67"/>
+      <c r="X476" s="67"/>
+      <c r="Y476" s="67"/>
+    </row>
+    <row r="477" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A477" s="69"/>
+      <c r="B477" s="70"/>
+      <c r="C477" s="67"/>
+      <c r="D477" s="36">
+        <v>45672</v>
+      </c>
+      <c r="E477" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F477" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G477" s="18" t="s">
+        <v>432</v>
+      </c>
+      <c r="H477" s="19">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="I477" s="19">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="J477" s="67"/>
+      <c r="K477" s="71"/>
+      <c r="L477" s="72"/>
+      <c r="M477" s="67"/>
+      <c r="N477" s="67"/>
+      <c r="O477" s="67"/>
+      <c r="P477" s="67"/>
+      <c r="Q477" s="67"/>
+      <c r="R477" s="67"/>
+      <c r="S477" s="67"/>
+      <c r="T477" s="67"/>
+      <c r="U477" s="67"/>
+      <c r="V477" s="67"/>
+      <c r="W477" s="67"/>
+      <c r="X477" s="67"/>
+      <c r="Y477" s="67"/>
+    </row>
+    <row r="478" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A478" s="69"/>
+      <c r="B478" s="70"/>
+      <c r="C478" s="67"/>
+      <c r="D478" s="36">
+        <v>45673</v>
+      </c>
+      <c r="E478" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F478" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G478" s="18" t="s">
+        <v>416</v>
+      </c>
+      <c r="H478" s="19">
+        <v>0.33055555555555555</v>
+      </c>
+      <c r="I478" s="19">
+        <v>0.33124999999999999</v>
+      </c>
+      <c r="J478" s="67"/>
+      <c r="K478" s="71"/>
+      <c r="L478" s="72"/>
+      <c r="M478" s="67"/>
+      <c r="N478" s="67"/>
+      <c r="O478" s="67"/>
+      <c r="P478" s="67"/>
+      <c r="Q478" s="67"/>
+      <c r="R478" s="67"/>
+      <c r="S478" s="67"/>
+      <c r="T478" s="67"/>
+      <c r="U478" s="67"/>
+      <c r="V478" s="67"/>
+      <c r="W478" s="67"/>
+      <c r="X478" s="67"/>
+      <c r="Y478" s="67"/>
+    </row>
+    <row r="479" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A479" s="69"/>
+      <c r="B479" s="70"/>
+      <c r="C479" s="67"/>
+      <c r="D479" s="36">
+        <v>45673</v>
+      </c>
+      <c r="E479" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F479" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G479" s="18" t="s">
+        <v>433</v>
+      </c>
+      <c r="H479" s="19">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="I479" s="19">
+        <v>0.3576388888888889</v>
+      </c>
+      <c r="J479" s="67"/>
+      <c r="K479" s="71"/>
+      <c r="L479" s="72"/>
+      <c r="M479" s="67"/>
+      <c r="N479" s="67"/>
+      <c r="O479" s="67"/>
+      <c r="P479" s="67"/>
+      <c r="Q479" s="67"/>
+      <c r="R479" s="67"/>
+      <c r="S479" s="67"/>
+      <c r="T479" s="67"/>
+      <c r="U479" s="67"/>
+      <c r="V479" s="67"/>
+      <c r="W479" s="67"/>
+      <c r="X479" s="67"/>
+      <c r="Y479" s="67"/>
+    </row>
+    <row r="480" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A480" s="69"/>
+      <c r="B480" s="70"/>
+      <c r="C480" s="67"/>
+      <c r="D480" s="36">
+        <v>45673</v>
+      </c>
+      <c r="E480" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F480" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G480" s="18" t="s">
+        <v>434</v>
+      </c>
+      <c r="H480" s="19">
+        <v>0.375</v>
+      </c>
+      <c r="I480" s="19">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="J480" s="67"/>
+      <c r="K480" s="71"/>
+      <c r="L480" s="72"/>
+      <c r="M480" s="67"/>
+      <c r="N480" s="67"/>
+      <c r="O480" s="67"/>
+      <c r="P480" s="67"/>
+      <c r="Q480" s="67"/>
+      <c r="R480" s="67"/>
+      <c r="S480" s="67"/>
+      <c r="T480" s="67"/>
+      <c r="U480" s="67"/>
+      <c r="V480" s="67"/>
+      <c r="W480" s="67"/>
+      <c r="X480" s="67"/>
+      <c r="Y480" s="67"/>
+    </row>
+    <row r="481" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A481" s="69"/>
+      <c r="B481" s="70"/>
+      <c r="C481" s="67"/>
+      <c r="D481" s="36">
+        <v>45673</v>
+      </c>
+      <c r="E481" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F481" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G481" s="18" t="s">
+        <v>435</v>
+      </c>
+      <c r="H481" s="19">
+        <v>0.40625</v>
+      </c>
+      <c r="I481" s="19">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="J481" s="67"/>
+      <c r="K481" s="71"/>
+      <c r="L481" s="72"/>
+      <c r="M481" s="67"/>
+      <c r="N481" s="67"/>
+      <c r="O481" s="67"/>
+      <c r="P481" s="67"/>
+      <c r="Q481" s="67"/>
+      <c r="R481" s="67"/>
+      <c r="S481" s="67"/>
+      <c r="T481" s="67"/>
+      <c r="U481" s="67"/>
+      <c r="V481" s="67"/>
+      <c r="W481" s="67"/>
+      <c r="X481" s="67"/>
+      <c r="Y481" s="67"/>
+    </row>
+    <row r="482" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A482" s="69"/>
+      <c r="B482" s="70"/>
+      <c r="C482" s="67"/>
+      <c r="D482" s="36">
+        <v>45673</v>
+      </c>
+      <c r="E482" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F482" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G482" s="18" t="s">
+        <v>436</v>
+      </c>
+      <c r="H482" s="19">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="I482" s="19">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="J482" s="67"/>
+      <c r="K482" s="71"/>
+      <c r="L482" s="72"/>
+      <c r="M482" s="67"/>
+      <c r="N482" s="67"/>
+      <c r="O482" s="67"/>
+      <c r="P482" s="67"/>
+      <c r="Q482" s="67"/>
+      <c r="R482" s="67"/>
+      <c r="S482" s="67"/>
+      <c r="T482" s="67"/>
+      <c r="U482" s="67"/>
+      <c r="V482" s="67"/>
+      <c r="W482" s="67"/>
+      <c r="X482" s="67"/>
+      <c r="Y482" s="67"/>
+    </row>
+    <row r="483" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A483" s="69"/>
+      <c r="B483" s="70"/>
+      <c r="C483" s="67"/>
+      <c r="D483" s="36">
+        <v>45674</v>
+      </c>
+      <c r="E483" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F483" s="18" t="s">
+        <v>412</v>
+      </c>
+      <c r="G483" s="18" t="s">
+        <v>416</v>
+      </c>
+      <c r="H483" s="19">
+        <v>0.33055555555555555</v>
+      </c>
+      <c r="I483" s="19">
+        <v>0.33124999999999999</v>
+      </c>
+      <c r="J483" s="67"/>
+      <c r="K483" s="71"/>
+      <c r="L483" s="72"/>
+      <c r="M483" s="67"/>
+      <c r="N483" s="67"/>
+      <c r="O483" s="67"/>
+      <c r="P483" s="67"/>
+      <c r="Q483" s="67"/>
+      <c r="R483" s="67"/>
+      <c r="S483" s="67"/>
+      <c r="T483" s="67"/>
+      <c r="U483" s="67"/>
+      <c r="V483" s="67"/>
+      <c r="W483" s="67"/>
+      <c r="X483" s="67"/>
+      <c r="Y483" s="67"/>
+    </row>
+    <row r="484" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A484" s="69"/>
+      <c r="B484" s="70"/>
+      <c r="C484" s="67"/>
+      <c r="D484" s="36">
+        <v>45674</v>
+      </c>
+      <c r="E484" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F484" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G484" s="18" t="s">
+        <v>437</v>
+      </c>
+      <c r="H484" s="19">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I484" s="19">
+        <v>0.33611111111111108</v>
+      </c>
+      <c r="J484" s="67"/>
+      <c r="K484" s="71"/>
+      <c r="L484" s="72"/>
+      <c r="M484" s="67"/>
+      <c r="N484" s="67"/>
+      <c r="O484" s="67"/>
+      <c r="P484" s="67"/>
+      <c r="Q484" s="67"/>
+      <c r="R484" s="67"/>
+      <c r="S484" s="67"/>
+      <c r="T484" s="67"/>
+      <c r="U484" s="67"/>
+      <c r="V484" s="67"/>
+      <c r="W484" s="67"/>
+      <c r="X484" s="67"/>
+      <c r="Y484" s="67"/>
+    </row>
+    <row r="485" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A485" s="69"/>
+      <c r="B485" s="70"/>
+      <c r="C485" s="67"/>
+      <c r="D485" s="36">
+        <v>45674</v>
+      </c>
+      <c r="E485" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F485" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G485" s="18" t="s">
+        <v>427</v>
+      </c>
+      <c r="H485" s="19">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="I485" s="19">
+        <v>0.41805555555555557</v>
+      </c>
+      <c r="J485" s="67"/>
+      <c r="K485" s="71"/>
+      <c r="L485" s="72"/>
+      <c r="M485" s="67"/>
+      <c r="N485" s="67"/>
+      <c r="O485" s="67"/>
+      <c r="P485" s="67"/>
+      <c r="Q485" s="67"/>
+      <c r="R485" s="67"/>
+      <c r="S485" s="67"/>
+      <c r="T485" s="67"/>
+      <c r="U485" s="67"/>
+      <c r="V485" s="67"/>
+      <c r="W485" s="67"/>
+      <c r="X485" s="67"/>
+      <c r="Y485" s="67"/>
+    </row>
+    <row r="486" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A486" s="69"/>
+      <c r="B486" s="70"/>
+      <c r="C486" s="67"/>
+      <c r="D486" s="36">
+        <v>45674</v>
+      </c>
+      <c r="E486" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F486" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G486" s="18" t="s">
+        <v>438</v>
+      </c>
+      <c r="H486" s="19">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="I486" s="19">
+        <v>0.4375</v>
+      </c>
+      <c r="J486" s="67"/>
+      <c r="K486" s="71"/>
+      <c r="L486" s="72"/>
+      <c r="M486" s="67"/>
+      <c r="N486" s="67"/>
+      <c r="O486" s="67"/>
+      <c r="P486" s="67"/>
+      <c r="Q486" s="67"/>
+      <c r="R486" s="67"/>
+      <c r="S486" s="67"/>
+      <c r="T486" s="67"/>
+      <c r="U486" s="67"/>
+      <c r="V486" s="67"/>
+      <c r="W486" s="67"/>
+      <c r="X486" s="67"/>
+      <c r="Y486" s="67"/>
+    </row>
+    <row r="487" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A487" s="69"/>
+      <c r="B487" s="70"/>
+      <c r="C487" s="67"/>
+      <c r="D487" s="36">
+        <v>45674</v>
+      </c>
+      <c r="E487" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F487" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G487" s="18" t="s">
+        <v>427</v>
+      </c>
+      <c r="H487" s="19">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="I487" s="19">
+        <v>0.46875</v>
+      </c>
+      <c r="J487" s="67"/>
+      <c r="K487" s="71"/>
+      <c r="L487" s="72"/>
+      <c r="M487" s="67"/>
+      <c r="N487" s="67"/>
+      <c r="O487" s="67"/>
+      <c r="P487" s="67"/>
+      <c r="Q487" s="67"/>
+      <c r="R487" s="67"/>
+      <c r="S487" s="67"/>
+      <c r="T487" s="67"/>
+      <c r="U487" s="67"/>
+      <c r="V487" s="67"/>
+      <c r="W487" s="67"/>
+      <c r="X487" s="67"/>
+      <c r="Y487" s="67"/>
+    </row>
+    <row r="488" spans="1:25" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A488" s="69"/>
+      <c r="B488" s="70"/>
+      <c r="C488" s="67"/>
+      <c r="D488" s="36">
+        <v>45674</v>
+      </c>
+      <c r="E488" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F488" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G488" s="18" t="s">
+        <v>439</v>
+      </c>
+      <c r="H488" s="19">
+        <v>0.4909722222222222</v>
+      </c>
+      <c r="I488" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="J488" s="67"/>
+      <c r="K488" s="71"/>
+      <c r="L488" s="72"/>
+      <c r="M488" s="67"/>
+      <c r="N488" s="67"/>
+      <c r="O488" s="67"/>
+      <c r="P488" s="67"/>
+      <c r="Q488" s="67"/>
+      <c r="R488" s="67"/>
+      <c r="S488" s="67"/>
+      <c r="T488" s="67"/>
+      <c r="U488" s="67"/>
+      <c r="V488" s="67"/>
+      <c r="W488" s="67"/>
+      <c r="X488" s="67"/>
+      <c r="Y488" s="67"/>
+    </row>
+    <row r="489" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A489" s="69"/>
+      <c r="B489" s="70"/>
+      <c r="C489" s="67"/>
+      <c r="D489" s="36">
+        <v>45677</v>
+      </c>
+      <c r="E489" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F489" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G489" s="18" t="s">
+        <v>416</v>
+      </c>
+      <c r="H489" s="19">
+        <v>0.33055555555555555</v>
+      </c>
+      <c r="I489" s="19">
+        <v>0.33124999999999999</v>
+      </c>
+      <c r="J489" s="67"/>
+      <c r="K489" s="71"/>
+      <c r="L489" s="72"/>
+      <c r="M489" s="67"/>
+      <c r="N489" s="67"/>
+      <c r="O489" s="67"/>
+      <c r="P489" s="67"/>
+      <c r="Q489" s="67"/>
+      <c r="R489" s="67"/>
+      <c r="S489" s="67"/>
+      <c r="T489" s="67"/>
+      <c r="U489" s="67"/>
+      <c r="V489" s="67"/>
+      <c r="W489" s="67"/>
+      <c r="X489" s="67"/>
+      <c r="Y489" s="67"/>
+    </row>
+    <row r="490" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A490" s="69"/>
+      <c r="B490" s="70"/>
+      <c r="C490" s="67"/>
+      <c r="D490" s="36">
+        <v>45677</v>
+      </c>
+      <c r="E490" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F490" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G490" s="18" t="s">
+        <v>440</v>
+      </c>
+      <c r="H490" s="19">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="I490" s="19">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="J490" s="67"/>
+      <c r="K490" s="71"/>
+      <c r="L490" s="72"/>
+      <c r="M490" s="67"/>
+      <c r="N490" s="67"/>
+      <c r="O490" s="67"/>
+      <c r="P490" s="67"/>
+      <c r="Q490" s="67"/>
+      <c r="R490" s="67"/>
+      <c r="S490" s="67"/>
+      <c r="T490" s="67"/>
+      <c r="U490" s="67"/>
+      <c r="V490" s="67"/>
+      <c r="W490" s="67"/>
+      <c r="X490" s="67"/>
+      <c r="Y490" s="67"/>
+    </row>
+    <row r="491" spans="1:25" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A491" s="69"/>
+      <c r="B491" s="70"/>
+      <c r="C491" s="67"/>
+      <c r="D491" s="36">
+        <v>45677</v>
+      </c>
+      <c r="E491" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F491" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G491" s="18" t="s">
+        <v>441</v>
+      </c>
+      <c r="H491" s="19">
+        <v>0.5625</v>
+      </c>
+      <c r="I491" s="19">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="J491" s="67"/>
+      <c r="K491" s="71"/>
+      <c r="L491" s="72"/>
+      <c r="M491" s="67"/>
+      <c r="N491" s="67"/>
+      <c r="O491" s="67"/>
+      <c r="P491" s="67"/>
+      <c r="Q491" s="67"/>
+      <c r="R491" s="67"/>
+      <c r="S491" s="67"/>
+      <c r="T491" s="67"/>
+      <c r="U491" s="67"/>
+      <c r="V491" s="67"/>
+      <c r="W491" s="67"/>
+      <c r="X491" s="67"/>
+      <c r="Y491" s="67"/>
+    </row>
+    <row r="492" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A492" s="69"/>
+      <c r="B492" s="70"/>
+      <c r="C492" s="67"/>
+      <c r="D492" s="36">
+        <v>45678</v>
+      </c>
+      <c r="E492" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F492" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G492" s="18" t="s">
+        <v>442</v>
+      </c>
+      <c r="H492" s="19">
+        <v>0.3576388888888889</v>
+      </c>
+      <c r="I492" s="19">
+        <v>0.36944444444444446</v>
+      </c>
+      <c r="J492" s="67"/>
+      <c r="K492" s="71"/>
+      <c r="L492" s="72"/>
+      <c r="M492" s="67"/>
+      <c r="N492" s="67"/>
+      <c r="O492" s="67"/>
+      <c r="P492" s="67"/>
+      <c r="Q492" s="67"/>
+      <c r="R492" s="67"/>
+      <c r="S492" s="67"/>
+      <c r="T492" s="67"/>
+      <c r="U492" s="67"/>
+      <c r="V492" s="67"/>
+      <c r="W492" s="67"/>
+      <c r="X492" s="67"/>
+      <c r="Y492" s="67"/>
+    </row>
+    <row r="493" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A493" s="69"/>
+      <c r="B493" s="70"/>
+      <c r="C493" s="67"/>
+      <c r="D493" s="36">
+        <v>45678</v>
+      </c>
+      <c r="E493" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F493" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G493" s="18" t="s">
+        <v>443</v>
+      </c>
+      <c r="H493" s="19">
+        <v>0.375</v>
+      </c>
+      <c r="I493" s="19">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="J493" s="67"/>
+      <c r="K493" s="71"/>
+      <c r="L493" s="72"/>
+      <c r="M493" s="67"/>
+      <c r="N493" s="67"/>
+      <c r="O493" s="67"/>
+      <c r="P493" s="67"/>
+      <c r="Q493" s="67"/>
+      <c r="R493" s="67"/>
+      <c r="S493" s="67"/>
+      <c r="T493" s="67"/>
+      <c r="U493" s="67"/>
+      <c r="V493" s="67"/>
+      <c r="W493" s="67"/>
+      <c r="X493" s="67"/>
+      <c r="Y493" s="67"/>
+    </row>
+    <row r="494" spans="1:25" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A494" s="69"/>
+      <c r="B494" s="70"/>
+      <c r="C494" s="67"/>
+      <c r="D494" s="36">
+        <v>45678</v>
+      </c>
+      <c r="E494" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F494" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G494" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="H494" s="19">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="I494" s="19">
+        <v>0.4375</v>
+      </c>
+      <c r="J494" s="67"/>
+      <c r="K494" s="71"/>
+      <c r="L494" s="72"/>
+      <c r="M494" s="67"/>
+      <c r="N494" s="67"/>
+      <c r="O494" s="67"/>
+      <c r="P494" s="67"/>
+      <c r="Q494" s="67"/>
+      <c r="R494" s="67"/>
+      <c r="S494" s="67"/>
+      <c r="T494" s="67"/>
+      <c r="U494" s="67"/>
+      <c r="V494" s="67"/>
+      <c r="W494" s="67"/>
+      <c r="X494" s="67"/>
+      <c r="Y494" s="67"/>
+    </row>
+    <row r="495" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A495" s="69"/>
+      <c r="B495" s="70"/>
+      <c r="C495" s="67"/>
+      <c r="D495" s="36">
+        <v>45678</v>
+      </c>
+      <c r="E495" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F495" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G495" s="18" t="s">
+        <v>445</v>
+      </c>
+      <c r="H495" s="19">
+        <v>0.49652777777777773</v>
+      </c>
+      <c r="I495" s="19">
+        <v>0.50138888888888888</v>
+      </c>
+      <c r="J495" s="67"/>
+      <c r="K495" s="71"/>
+      <c r="L495" s="72"/>
+      <c r="M495" s="67"/>
+      <c r="N495" s="67"/>
+      <c r="O495" s="67"/>
+      <c r="P495" s="67"/>
+      <c r="Q495" s="67"/>
+      <c r="R495" s="67"/>
+      <c r="S495" s="67"/>
+      <c r="T495" s="67"/>
+      <c r="U495" s="67"/>
+      <c r="V495" s="67"/>
+      <c r="W495" s="67"/>
+      <c r="X495" s="67"/>
+      <c r="Y495" s="67"/>
+    </row>
+    <row r="496" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A496" s="69"/>
+      <c r="B496" s="70"/>
+      <c r="C496" s="67"/>
+      <c r="D496" s="36">
+        <v>45678</v>
+      </c>
+      <c r="E496" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F496" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G496" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="H496" s="19">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="I496" s="19">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="J496" s="67"/>
+      <c r="K496" s="71"/>
+      <c r="L496" s="72"/>
+      <c r="M496" s="67"/>
+      <c r="N496" s="67"/>
+      <c r="O496" s="67"/>
+      <c r="P496" s="67"/>
+      <c r="Q496" s="67"/>
+      <c r="R496" s="67"/>
+      <c r="S496" s="67"/>
+      <c r="T496" s="67"/>
+      <c r="U496" s="67"/>
+      <c r="V496" s="67"/>
+      <c r="W496" s="67"/>
+      <c r="X496" s="67"/>
+      <c r="Y496" s="67"/>
+    </row>
+    <row r="497" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A497" s="69"/>
+      <c r="B497" s="70"/>
+      <c r="C497" s="67"/>
+      <c r="D497" s="36">
+        <v>45678</v>
+      </c>
+      <c r="E497" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F497" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G497" s="18" t="s">
+        <v>447</v>
+      </c>
+      <c r="H497" s="19">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="I497" s="19">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="J497" s="67"/>
+      <c r="K497" s="71"/>
+      <c r="L497" s="72"/>
+      <c r="M497" s="67"/>
+      <c r="N497" s="67"/>
+      <c r="O497" s="67"/>
+      <c r="P497" s="67"/>
+      <c r="Q497" s="67"/>
+      <c r="R497" s="67"/>
+      <c r="S497" s="67"/>
+      <c r="T497" s="67"/>
+      <c r="U497" s="67"/>
+      <c r="V497" s="67"/>
+      <c r="W497" s="67"/>
+      <c r="X497" s="67"/>
+      <c r="Y497" s="67"/>
+    </row>
+    <row r="498" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A498" s="69"/>
+      <c r="B498" s="70"/>
+      <c r="C498" s="67"/>
+      <c r="D498" s="36">
+        <v>45679</v>
+      </c>
+      <c r="E498" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F498" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G498" s="18" t="s">
+        <v>448</v>
+      </c>
+      <c r="H498" s="19">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I498" s="19">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="J498" s="67"/>
+      <c r="K498" s="71"/>
+      <c r="L498" s="72"/>
+      <c r="M498" s="67"/>
+      <c r="N498" s="67"/>
+      <c r="O498" s="67"/>
+      <c r="P498" s="67"/>
+      <c r="Q498" s="67"/>
+      <c r="R498" s="67"/>
+      <c r="S498" s="67"/>
+      <c r="T498" s="67"/>
+      <c r="U498" s="67"/>
+      <c r="V498" s="67"/>
+      <c r="W498" s="67"/>
+      <c r="X498" s="67"/>
+      <c r="Y498" s="67"/>
+    </row>
+    <row r="499" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A499" s="69"/>
+      <c r="B499" s="70"/>
+      <c r="C499" s="67"/>
+      <c r="D499" s="36">
+        <v>45679</v>
+      </c>
+      <c r="E499" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F499" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G499" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="H499" s="19">
+        <v>0.35486111111111113</v>
+      </c>
+      <c r="I499" s="19">
+        <v>0.36041666666666666</v>
+      </c>
+      <c r="J499" s="67"/>
+      <c r="K499" s="71"/>
+      <c r="L499" s="72"/>
+      <c r="M499" s="67"/>
+      <c r="N499" s="67"/>
+      <c r="O499" s="67"/>
+      <c r="P499" s="67"/>
+      <c r="Q499" s="67"/>
+      <c r="R499" s="67"/>
+      <c r="S499" s="67"/>
+      <c r="T499" s="67"/>
+      <c r="U499" s="67"/>
+      <c r="V499" s="67"/>
+      <c r="W499" s="67"/>
+      <c r="X499" s="67"/>
+      <c r="Y499" s="67"/>
+    </row>
+    <row r="500" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A500" s="69"/>
+      <c r="B500" s="70"/>
+      <c r="C500" s="67"/>
+      <c r="D500" s="36">
+        <v>45679</v>
+      </c>
+      <c r="E500" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F500" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G500" s="18" t="s">
+        <v>448</v>
+      </c>
+      <c r="H500" s="19">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="I500" s="19">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="J500" s="67"/>
+      <c r="K500" s="71"/>
+      <c r="L500" s="72"/>
+      <c r="M500" s="67"/>
+      <c r="N500" s="67"/>
+      <c r="O500" s="67"/>
+      <c r="P500" s="67"/>
+      <c r="Q500" s="67"/>
+      <c r="R500" s="67"/>
+      <c r="S500" s="67"/>
+      <c r="T500" s="67"/>
+      <c r="U500" s="67"/>
+      <c r="V500" s="67"/>
+      <c r="W500" s="67"/>
+      <c r="X500" s="67"/>
+      <c r="Y500" s="67"/>
+    </row>
+    <row r="501" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A501" s="69"/>
+      <c r="B501" s="70"/>
+      <c r="C501" s="67"/>
+      <c r="D501" s="36">
+        <v>45679</v>
+      </c>
+      <c r="E501" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F501" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G501" s="18" t="s">
+        <v>450</v>
+      </c>
+      <c r="H501" s="19">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="I501" s="19">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="J501" s="67"/>
+      <c r="K501" s="71"/>
+      <c r="L501" s="72"/>
+      <c r="M501" s="67"/>
+      <c r="N501" s="67"/>
+      <c r="O501" s="67"/>
+      <c r="P501" s="67"/>
+      <c r="Q501" s="67"/>
+      <c r="R501" s="67"/>
+      <c r="S501" s="67"/>
+      <c r="T501" s="67"/>
+      <c r="U501" s="67"/>
+      <c r="V501" s="67"/>
+      <c r="W501" s="67"/>
+      <c r="X501" s="67"/>
+      <c r="Y501" s="67"/>
+    </row>
+    <row r="502" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A502" s="68"/>
+      <c r="B502" s="67"/>
+      <c r="C502" s="67"/>
+      <c r="D502" s="36">
+        <v>45679</v>
+      </c>
+      <c r="E502" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F502" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G502" s="18" t="s">
+        <v>451</v>
+      </c>
+      <c r="H502" s="19">
+        <v>0.56180555555555556</v>
+      </c>
+      <c r="I502" s="19">
+        <v>0.61875000000000002</v>
+      </c>
+      <c r="J502" s="67"/>
+      <c r="K502" s="67"/>
+      <c r="L502" s="67"/>
+      <c r="M502" s="67"/>
+      <c r="N502" s="67"/>
+      <c r="O502" s="67"/>
+      <c r="P502" s="67"/>
+      <c r="Q502" s="67"/>
+      <c r="R502" s="67"/>
+      <c r="S502" s="67"/>
+      <c r="T502" s="67"/>
+      <c r="U502" s="67"/>
+      <c r="V502" s="67"/>
+      <c r="W502" s="67"/>
+      <c r="X502" s="67"/>
+      <c r="Y502" s="67"/>
+    </row>
+    <row r="503" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A503" s="69"/>
+      <c r="B503" s="70"/>
+      <c r="C503" s="67"/>
+      <c r="D503" s="36">
+        <v>45679</v>
+      </c>
+      <c r="E503" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F503" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G503" s="18" t="s">
+        <v>452</v>
+      </c>
+      <c r="H503" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="I503" s="19">
+        <v>0.63055555555555554</v>
+      </c>
+      <c r="J503" s="67"/>
+      <c r="K503" s="71"/>
+      <c r="L503" s="72"/>
+      <c r="M503" s="67"/>
+      <c r="N503" s="67"/>
+      <c r="O503" s="67"/>
+      <c r="P503" s="67"/>
+      <c r="Q503" s="67"/>
+      <c r="R503" s="67"/>
+      <c r="S503" s="67"/>
+      <c r="T503" s="67"/>
+      <c r="U503" s="67"/>
+      <c r="V503" s="67"/>
+      <c r="W503" s="67"/>
+      <c r="X503" s="67"/>
+      <c r="Y503" s="67"/>
+    </row>
+    <row r="504" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A504" s="69"/>
+      <c r="B504" s="70"/>
+      <c r="C504" s="67"/>
+      <c r="D504" s="36">
+        <v>45680</v>
+      </c>
+      <c r="E504" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F504" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G504" s="18" t="s">
+        <v>453</v>
+      </c>
+      <c r="H504" s="19">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I504" s="19">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="J504" s="67"/>
+      <c r="K504" s="71"/>
+      <c r="L504" s="72"/>
+      <c r="M504" s="67"/>
+      <c r="N504" s="67"/>
+      <c r="O504" s="67"/>
+      <c r="P504" s="67"/>
+      <c r="Q504" s="67"/>
+      <c r="R504" s="67"/>
+      <c r="S504" s="67"/>
+      <c r="T504" s="67"/>
+      <c r="U504" s="67"/>
+      <c r="V504" s="67"/>
+      <c r="W504" s="67"/>
+      <c r="X504" s="67"/>
+      <c r="Y504" s="67"/>
+    </row>
+    <row r="505" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A505" s="69"/>
+      <c r="B505" s="70"/>
+      <c r="C505" s="67"/>
+      <c r="D505" s="36">
+        <v>45680</v>
+      </c>
+      <c r="E505" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F505" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G505" s="18" t="s">
+        <v>454</v>
+      </c>
+      <c r="H505" s="19">
+        <v>0.34791666666666665</v>
+      </c>
+      <c r="I505" s="19">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="J505" s="67"/>
+      <c r="K505" s="71"/>
+      <c r="L505" s="72"/>
+      <c r="M505" s="67"/>
+      <c r="N505" s="67"/>
+      <c r="O505" s="67"/>
+      <c r="P505" s="67"/>
+      <c r="Q505" s="67"/>
+      <c r="R505" s="67"/>
+      <c r="S505" s="67"/>
+      <c r="T505" s="67"/>
+      <c r="U505" s="67"/>
+      <c r="V505" s="67"/>
+      <c r="W505" s="67"/>
+      <c r="X505" s="67"/>
+      <c r="Y505" s="67"/>
+    </row>
+    <row r="506" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A506" s="69"/>
+      <c r="B506" s="70"/>
+      <c r="C506" s="67"/>
+      <c r="D506" s="36">
+        <v>45680</v>
+      </c>
+      <c r="E506" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F506" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G506" s="18" t="s">
+        <v>455</v>
+      </c>
+      <c r="H506" s="19">
+        <v>0.375</v>
+      </c>
+      <c r="I506" s="19">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="J506" s="67"/>
+      <c r="K506" s="71"/>
+      <c r="L506" s="72"/>
+      <c r="M506" s="67"/>
+      <c r="N506" s="67"/>
+      <c r="O506" s="67"/>
+      <c r="P506" s="67"/>
+      <c r="Q506" s="67"/>
+      <c r="R506" s="67"/>
+      <c r="S506" s="67"/>
+      <c r="T506" s="67"/>
+      <c r="U506" s="67"/>
+      <c r="V506" s="67"/>
+      <c r="W506" s="67"/>
+      <c r="X506" s="67"/>
+      <c r="Y506" s="67"/>
+    </row>
+    <row r="507" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A507" s="69"/>
+      <c r="B507" s="70"/>
+      <c r="C507" s="67"/>
+      <c r="D507" s="36">
+        <v>45680</v>
+      </c>
+      <c r="E507" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F507" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G507" s="18" t="s">
+        <v>456</v>
+      </c>
+      <c r="H507" s="19">
+        <v>0.41388888888888892</v>
+      </c>
+      <c r="I507" s="19">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="J507" s="67"/>
+      <c r="K507" s="71"/>
+      <c r="L507" s="72"/>
+      <c r="M507" s="67"/>
+      <c r="N507" s="67"/>
+      <c r="O507" s="67"/>
+      <c r="P507" s="67"/>
+      <c r="Q507" s="67"/>
+      <c r="R507" s="67"/>
+      <c r="S507" s="67"/>
+      <c r="T507" s="67"/>
+      <c r="U507" s="67"/>
+      <c r="V507" s="67"/>
+      <c r="W507" s="67"/>
+      <c r="X507" s="67"/>
+      <c r="Y507" s="67"/>
+    </row>
+    <row r="508" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A508" s="69"/>
+      <c r="B508" s="70"/>
+      <c r="C508" s="67"/>
+      <c r="D508" s="36">
+        <v>45680</v>
+      </c>
+      <c r="E508" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F508" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G508" s="18" t="s">
+        <v>457</v>
+      </c>
+      <c r="H508" s="19">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="I508" s="19">
+        <v>0.56527777777777777</v>
+      </c>
+      <c r="J508" s="67"/>
+      <c r="K508" s="71"/>
+      <c r="L508" s="72"/>
+      <c r="M508" s="67"/>
+      <c r="N508" s="67"/>
+      <c r="O508" s="67"/>
+      <c r="P508" s="67"/>
+      <c r="Q508" s="67"/>
+      <c r="R508" s="67"/>
+      <c r="S508" s="67"/>
+      <c r="T508" s="67"/>
+      <c r="U508" s="67"/>
+      <c r="V508" s="67"/>
+      <c r="W508" s="67"/>
+      <c r="X508" s="67"/>
+      <c r="Y508" s="67"/>
+    </row>
+    <row r="509" spans="1:25" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A509" s="69"/>
+      <c r="B509" s="70"/>
+      <c r="C509" s="67"/>
+      <c r="D509" s="36">
+        <v>45681</v>
+      </c>
+      <c r="E509" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F509" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G509" s="18" t="s">
+        <v>458</v>
+      </c>
+      <c r="H509" s="19">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I509" s="19">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="J509" s="67"/>
+      <c r="K509" s="71"/>
+      <c r="L509" s="72"/>
+      <c r="M509" s="67"/>
+      <c r="N509" s="67"/>
+      <c r="O509" s="67"/>
+      <c r="P509" s="67"/>
+      <c r="Q509" s="67"/>
+      <c r="R509" s="67"/>
+      <c r="S509" s="67"/>
+      <c r="T509" s="67"/>
+      <c r="U509" s="67"/>
+      <c r="V509" s="67"/>
+      <c r="W509" s="67"/>
+      <c r="X509" s="67"/>
+      <c r="Y509" s="67"/>
+    </row>
+    <row r="510" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A510" s="69"/>
+      <c r="B510" s="70"/>
+      <c r="C510" s="67"/>
+      <c r="D510" s="36">
+        <v>45681</v>
+      </c>
+      <c r="E510" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F510" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G510" s="18" t="s">
+        <v>459</v>
+      </c>
+      <c r="H510" s="19">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="I510" s="19">
+        <v>0.375</v>
+      </c>
+      <c r="J510" s="67"/>
+      <c r="K510" s="71"/>
+      <c r="L510" s="72"/>
+      <c r="M510" s="67"/>
+      <c r="N510" s="67"/>
+      <c r="O510" s="67"/>
+      <c r="P510" s="67"/>
+      <c r="Q510" s="67"/>
+      <c r="R510" s="67"/>
+      <c r="S510" s="67"/>
+      <c r="T510" s="67"/>
+      <c r="U510" s="67"/>
+      <c r="V510" s="67"/>
+      <c r="W510" s="67"/>
+      <c r="X510" s="67"/>
+      <c r="Y510" s="67"/>
+    </row>
+    <row r="511" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A511" s="69"/>
+      <c r="B511" s="70"/>
+      <c r="C511" s="67"/>
+      <c r="D511" s="36">
+        <v>45681</v>
+      </c>
+      <c r="E511" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F511" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G511" s="18" t="s">
+        <v>460</v>
+      </c>
+      <c r="H511" s="19">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="I511" s="19">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="J511" s="67"/>
+      <c r="K511" s="71"/>
+      <c r="L511" s="72"/>
+      <c r="M511" s="67"/>
+      <c r="N511" s="67"/>
+      <c r="O511" s="67"/>
+      <c r="P511" s="67"/>
+      <c r="Q511" s="67"/>
+      <c r="R511" s="67"/>
+      <c r="S511" s="67"/>
+      <c r="T511" s="67"/>
+      <c r="U511" s="67"/>
+      <c r="V511" s="67"/>
+      <c r="W511" s="67"/>
+      <c r="X511" s="67"/>
+      <c r="Y511" s="67"/>
+    </row>
+    <row r="512" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A512" s="69"/>
+      <c r="B512" s="70"/>
+      <c r="C512" s="67"/>
+      <c r="D512" s="36">
+        <v>45681</v>
+      </c>
+      <c r="E512" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F512" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G512" s="18" t="s">
+        <v>461</v>
+      </c>
+      <c r="H512" s="19">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="I512" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="J512" s="67"/>
+      <c r="K512" s="71"/>
+      <c r="L512" s="72"/>
+      <c r="M512" s="67"/>
+      <c r="N512" s="67"/>
+      <c r="O512" s="67"/>
+      <c r="P512" s="67"/>
+      <c r="Q512" s="67"/>
+      <c r="R512" s="67"/>
+      <c r="S512" s="67"/>
+      <c r="T512" s="67"/>
+      <c r="U512" s="67"/>
+      <c r="V512" s="67"/>
+      <c r="W512" s="67"/>
+      <c r="X512" s="67"/>
+      <c r="Y512" s="67"/>
+    </row>
+    <row r="513" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A513" s="69"/>
+      <c r="B513" s="70"/>
+      <c r="C513" s="67"/>
+      <c r="D513" s="36">
+        <v>45684</v>
+      </c>
+      <c r="E513" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F513" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G513" s="18" t="s">
+        <v>462</v>
+      </c>
+      <c r="H513" s="19">
+        <v>0.34027777777777773</v>
+      </c>
+      <c r="I513" s="19">
+        <v>0.34375</v>
+      </c>
+      <c r="J513" s="67"/>
+      <c r="K513" s="71"/>
+      <c r="L513" s="72"/>
+      <c r="M513" s="67"/>
+      <c r="N513" s="67"/>
+      <c r="O513" s="67"/>
+      <c r="P513" s="67"/>
+      <c r="Q513" s="67"/>
+      <c r="R513" s="67"/>
+      <c r="S513" s="67"/>
+      <c r="T513" s="67"/>
+      <c r="U513" s="67"/>
+      <c r="V513" s="67"/>
+      <c r="W513" s="67"/>
+      <c r="X513" s="67"/>
+      <c r="Y513" s="67"/>
+    </row>
+    <row r="514" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A514" s="69"/>
+      <c r="B514" s="70"/>
+      <c r="C514" s="67"/>
+      <c r="D514" s="36">
+        <v>45684</v>
+      </c>
+      <c r="E514" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F514" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G514" s="18" t="s">
+        <v>463</v>
+      </c>
+      <c r="H514" s="19">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="I514" s="19">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="J514" s="67"/>
+      <c r="K514" s="71"/>
+      <c r="L514" s="72"/>
+      <c r="M514" s="67"/>
+      <c r="N514" s="67"/>
+      <c r="O514" s="67"/>
+      <c r="P514" s="67"/>
+      <c r="Q514" s="67"/>
+      <c r="R514" s="67"/>
+      <c r="S514" s="67"/>
+      <c r="T514" s="67"/>
+      <c r="U514" s="67"/>
+      <c r="V514" s="67"/>
+      <c r="W514" s="67"/>
+      <c r="X514" s="67"/>
+      <c r="Y514" s="67"/>
+    </row>
+    <row r="515" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A515" s="69"/>
+      <c r="B515" s="70"/>
+      <c r="C515" s="67"/>
+      <c r="D515" s="36">
+        <v>45684</v>
+      </c>
+      <c r="E515" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F515" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G515" s="18" t="s">
+        <v>464</v>
+      </c>
+      <c r="H515" s="19">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="I515" s="19">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="J515" s="67"/>
+      <c r="K515" s="71"/>
+      <c r="L515" s="72"/>
+      <c r="M515" s="67"/>
+      <c r="N515" s="67"/>
+      <c r="O515" s="67"/>
+      <c r="P515" s="67"/>
+      <c r="Q515" s="67"/>
+      <c r="R515" s="67"/>
+      <c r="S515" s="67"/>
+      <c r="T515" s="67"/>
+      <c r="U515" s="67"/>
+      <c r="V515" s="67"/>
+      <c r="W515" s="67"/>
+      <c r="X515" s="67"/>
+      <c r="Y515" s="67"/>
+    </row>
+    <row r="516" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A516" s="69"/>
+      <c r="B516" s="70"/>
+      <c r="C516" s="67"/>
+      <c r="D516" s="36">
+        <v>45684</v>
+      </c>
+      <c r="E516" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F516" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G516" s="18" t="s">
+        <v>465</v>
+      </c>
+      <c r="H516" s="19">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="I516" s="19">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="J516" s="67"/>
+      <c r="K516" s="71"/>
+      <c r="L516" s="72"/>
+      <c r="M516" s="67"/>
+      <c r="N516" s="67"/>
+      <c r="O516" s="67"/>
+      <c r="P516" s="67"/>
+      <c r="Q516" s="67"/>
+      <c r="R516" s="67"/>
+      <c r="S516" s="67"/>
+      <c r="T516" s="67"/>
+      <c r="U516" s="67"/>
+      <c r="V516" s="67"/>
+      <c r="W516" s="67"/>
+      <c r="X516" s="67"/>
+      <c r="Y516" s="67"/>
+    </row>
+    <row r="517" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A517" s="69"/>
+      <c r="B517" s="70"/>
+      <c r="C517" s="67"/>
+      <c r="D517" s="36">
+        <v>45684</v>
+      </c>
+      <c r="E517" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F517" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G517" s="18" t="s">
+        <v>466</v>
+      </c>
+      <c r="H517" s="19">
+        <v>0.43124999999999997</v>
+      </c>
+      <c r="I517" s="19">
+        <v>0.43402777777777773</v>
+      </c>
+      <c r="J517" s="67"/>
+      <c r="K517" s="71"/>
+      <c r="L517" s="72"/>
+      <c r="M517" s="67"/>
+      <c r="N517" s="67"/>
+      <c r="O517" s="67"/>
+      <c r="P517" s="67"/>
+      <c r="Q517" s="67"/>
+      <c r="R517" s="67"/>
+      <c r="S517" s="67"/>
+      <c r="T517" s="67"/>
+      <c r="U517" s="67"/>
+      <c r="V517" s="67"/>
+      <c r="W517" s="67"/>
+      <c r="X517" s="67"/>
+      <c r="Y517" s="67"/>
+    </row>
+    <row r="518" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A518" s="69"/>
+      <c r="B518" s="70"/>
+      <c r="C518" s="67"/>
+      <c r="D518" s="36">
+        <v>45684</v>
+      </c>
+      <c r="E518" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F518" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G518" s="18" t="s">
+        <v>467</v>
+      </c>
+      <c r="H518" s="19">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="I518" s="19">
+        <v>0.57986111111111105</v>
+      </c>
+      <c r="J518" s="67"/>
+      <c r="K518" s="71"/>
+      <c r="L518" s="72"/>
+      <c r="M518" s="67"/>
+      <c r="N518" s="67"/>
+      <c r="O518" s="67"/>
+      <c r="P518" s="67"/>
+      <c r="Q518" s="67"/>
+      <c r="R518" s="67"/>
+      <c r="S518" s="67"/>
+      <c r="T518" s="67"/>
+      <c r="U518" s="67"/>
+      <c r="V518" s="67"/>
+      <c r="W518" s="67"/>
+      <c r="X518" s="67"/>
+      <c r="Y518" s="67"/>
+    </row>
+    <row r="519" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A519" s="69"/>
+      <c r="B519" s="70"/>
+      <c r="C519" s="67"/>
+      <c r="D519" s="36">
+        <v>45685</v>
+      </c>
+      <c r="E519" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F519" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G519" s="18" t="s">
+        <v>468</v>
+      </c>
+      <c r="H519" s="19">
+        <v>0.33819444444444446</v>
+      </c>
+      <c r="I519" s="19">
+        <v>0.34375</v>
+      </c>
+      <c r="J519" s="67"/>
+      <c r="K519" s="71"/>
+      <c r="L519" s="72"/>
+      <c r="M519" s="67"/>
+      <c r="N519" s="67"/>
+      <c r="O519" s="67"/>
+      <c r="P519" s="67"/>
+      <c r="Q519" s="67"/>
+      <c r="R519" s="67"/>
+      <c r="S519" s="67"/>
+      <c r="T519" s="67"/>
+      <c r="U519" s="67"/>
+      <c r="V519" s="67"/>
+      <c r="W519" s="67"/>
+      <c r="X519" s="67"/>
+      <c r="Y519" s="67"/>
+    </row>
+    <row r="520" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A520" s="69"/>
+      <c r="B520" s="70"/>
+      <c r="C520" s="67"/>
+      <c r="D520" s="36">
+        <v>45685</v>
+      </c>
+      <c r="E520" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F520" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G520" s="18" t="s">
+        <v>469</v>
+      </c>
+      <c r="H520" s="19">
+        <v>0.375</v>
+      </c>
+      <c r="I520" s="19">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="J520" s="67"/>
+      <c r="K520" s="71"/>
+      <c r="L520" s="72"/>
+      <c r="M520" s="67"/>
+      <c r="N520" s="67"/>
+      <c r="O520" s="67"/>
+      <c r="P520" s="67"/>
+      <c r="Q520" s="67"/>
+      <c r="R520" s="67"/>
+      <c r="S520" s="67"/>
+      <c r="T520" s="67"/>
+      <c r="U520" s="67"/>
+      <c r="V520" s="67"/>
+      <c r="W520" s="67"/>
+      <c r="X520" s="67"/>
+      <c r="Y520" s="67"/>
+    </row>
+    <row r="521" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A521" s="69"/>
+      <c r="B521" s="70"/>
+      <c r="C521" s="67"/>
+      <c r="D521" s="36">
+        <v>45685</v>
+      </c>
+      <c r="E521" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F521" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G521" s="18" t="s">
+        <v>470</v>
+      </c>
+      <c r="H521" s="19">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="I521" s="19">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="J521" s="67"/>
+      <c r="K521" s="71"/>
+      <c r="L521" s="72"/>
+      <c r="M521" s="67"/>
+      <c r="N521" s="67"/>
+      <c r="O521" s="67"/>
+      <c r="P521" s="67"/>
+      <c r="Q521" s="67"/>
+      <c r="R521" s="67"/>
+      <c r="S521" s="67"/>
+      <c r="T521" s="67"/>
+      <c r="U521" s="67"/>
+      <c r="V521" s="67"/>
+      <c r="W521" s="67"/>
+      <c r="X521" s="67"/>
+      <c r="Y521" s="67"/>
+    </row>
+    <row r="522" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A522" s="69"/>
+      <c r="B522" s="70"/>
+      <c r="C522" s="67"/>
+      <c r="D522" s="36">
+        <v>45685</v>
+      </c>
+      <c r="E522" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F522" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G522" s="18" t="s">
+        <v>471</v>
+      </c>
+      <c r="H522" s="19">
+        <v>0.40625</v>
+      </c>
+      <c r="I522" s="19">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="J522" s="67"/>
+      <c r="K522" s="71"/>
+      <c r="L522" s="72"/>
+      <c r="M522" s="67"/>
+      <c r="N522" s="67"/>
+      <c r="O522" s="67"/>
+      <c r="P522" s="67"/>
+      <c r="Q522" s="67"/>
+      <c r="R522" s="67"/>
+      <c r="S522" s="67"/>
+      <c r="T522" s="67"/>
+      <c r="U522" s="67"/>
+      <c r="V522" s="67"/>
+      <c r="W522" s="67"/>
+      <c r="X522" s="67"/>
+      <c r="Y522" s="67"/>
+    </row>
+    <row r="523" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A523" s="69"/>
+      <c r="B523" s="70"/>
+      <c r="C523" s="67"/>
+      <c r="D523" s="36">
+        <v>45685</v>
+      </c>
+      <c r="E523" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F523" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G523" s="18" t="s">
+        <v>472</v>
+      </c>
+      <c r="H523" s="19">
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="I523" s="19">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="J523" s="67"/>
+      <c r="K523" s="71"/>
+      <c r="L523" s="72"/>
+      <c r="M523" s="67"/>
+      <c r="N523" s="67"/>
+      <c r="O523" s="67"/>
+      <c r="P523" s="67"/>
+      <c r="Q523" s="67"/>
+      <c r="R523" s="67"/>
+      <c r="S523" s="67"/>
+      <c r="T523" s="67"/>
+      <c r="U523" s="67"/>
+      <c r="V523" s="67"/>
+      <c r="W523" s="67"/>
+      <c r="X523" s="67"/>
+      <c r="Y523" s="67"/>
+    </row>
+    <row r="524" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A524" s="69"/>
+      <c r="B524" s="70"/>
+      <c r="C524" s="67"/>
+      <c r="D524" s="36">
+        <v>45685</v>
+      </c>
+      <c r="E524" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F524" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G524" s="18" t="s">
+        <v>473</v>
+      </c>
+      <c r="H524" s="19">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="I524" s="19">
+        <v>0.43402777777777773</v>
+      </c>
+      <c r="J524" s="67"/>
+      <c r="K524" s="71"/>
+      <c r="L524" s="72"/>
+      <c r="M524" s="67"/>
+      <c r="N524" s="67"/>
+      <c r="O524" s="67"/>
+      <c r="P524" s="67"/>
+      <c r="Q524" s="67"/>
+      <c r="R524" s="67"/>
+      <c r="S524" s="67"/>
+      <c r="T524" s="67"/>
+      <c r="U524" s="67"/>
+      <c r="V524" s="67"/>
+      <c r="W524" s="67"/>
+      <c r="X524" s="67"/>
+      <c r="Y524" s="67"/>
+    </row>
+    <row r="525" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A525" s="69"/>
+      <c r="B525" s="70"/>
+      <c r="C525" s="67"/>
+      <c r="D525" s="36">
+        <v>45685</v>
+      </c>
+      <c r="E525" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F525" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G525" s="18" t="s">
+        <v>474</v>
+      </c>
+      <c r="H525" s="19">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="I525" s="19">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="J525" s="67"/>
+      <c r="K525" s="71"/>
+      <c r="L525" s="72"/>
+      <c r="M525" s="67"/>
+      <c r="N525" s="67"/>
+      <c r="O525" s="67"/>
+      <c r="P525" s="67"/>
+      <c r="Q525" s="67"/>
+      <c r="R525" s="67"/>
+      <c r="S525" s="67"/>
+      <c r="T525" s="67"/>
+      <c r="U525" s="67"/>
+      <c r="V525" s="67"/>
+      <c r="W525" s="67"/>
+      <c r="X525" s="67"/>
+      <c r="Y525" s="67"/>
+    </row>
+    <row r="526" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A526" s="68"/>
+      <c r="B526" s="67"/>
+      <c r="C526" s="67"/>
+      <c r="D526" s="36">
+        <v>45685</v>
+      </c>
+      <c r="E526" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F526" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G526" s="18" t="s">
+        <v>475</v>
+      </c>
+      <c r="H526" s="19">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="I526" s="19">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="J526" s="67"/>
+      <c r="K526" s="67"/>
+      <c r="L526" s="67"/>
+      <c r="M526" s="67"/>
+      <c r="N526" s="67"/>
+      <c r="O526" s="67"/>
+      <c r="P526" s="67"/>
+      <c r="Q526" s="67"/>
+      <c r="R526" s="67"/>
+      <c r="S526" s="67"/>
+      <c r="T526" s="67"/>
+      <c r="U526" s="67"/>
+      <c r="V526" s="67"/>
+      <c r="W526" s="67"/>
+      <c r="X526" s="67"/>
+      <c r="Y526" s="67"/>
+    </row>
+    <row r="527" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A527" s="68"/>
+      <c r="B527" s="67"/>
+      <c r="C527" s="67"/>
+      <c r="D527" s="36">
+        <v>45685</v>
+      </c>
+      <c r="E527" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F527" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G527" s="18" t="s">
+        <v>476</v>
+      </c>
+      <c r="H527" s="19">
+        <v>0.5625</v>
+      </c>
+      <c r="I527" s="19">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="J527" s="67"/>
+      <c r="K527" s="67"/>
+      <c r="L527" s="67"/>
+      <c r="M527" s="67"/>
+      <c r="N527" s="67"/>
+      <c r="O527" s="67"/>
+      <c r="P527" s="67"/>
+      <c r="Q527" s="67"/>
+      <c r="R527" s="67"/>
+      <c r="S527" s="67"/>
+      <c r="T527" s="67"/>
+      <c r="U527" s="67"/>
+      <c r="V527" s="67"/>
+      <c r="W527" s="67"/>
+      <c r="X527" s="67"/>
+      <c r="Y527" s="67"/>
+    </row>
+    <row r="528" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A528" s="69"/>
+      <c r="B528" s="70"/>
+      <c r="C528" s="67"/>
+      <c r="D528" s="36">
+        <v>45686</v>
+      </c>
+      <c r="E528" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F528" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G528" s="18" t="s">
+        <v>477</v>
+      </c>
+      <c r="H528" s="19">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I528" s="19">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="J528" s="67"/>
+      <c r="K528" s="71"/>
+      <c r="L528" s="72"/>
+      <c r="M528" s="67"/>
+      <c r="N528" s="67"/>
+      <c r="O528" s="67"/>
+      <c r="P528" s="67"/>
+      <c r="Q528" s="67"/>
+      <c r="R528" s="67"/>
+      <c r="S528" s="67"/>
+      <c r="T528" s="67"/>
+      <c r="U528" s="67"/>
+      <c r="V528" s="67"/>
+      <c r="W528" s="67"/>
+      <c r="X528" s="67"/>
+      <c r="Y528" s="67"/>
+    </row>
+    <row r="529" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A529" s="69"/>
+      <c r="B529" s="70"/>
+      <c r="C529" s="67"/>
+      <c r="D529" s="36">
+        <v>45686</v>
+      </c>
+      <c r="E529" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F529" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G529" s="18" t="s">
+        <v>478</v>
+      </c>
+      <c r="H529" s="19">
+        <v>0.35555555555555557</v>
+      </c>
+      <c r="I529" s="19">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="J529" s="67"/>
+      <c r="K529" s="71"/>
+      <c r="L529" s="72"/>
+      <c r="M529" s="67"/>
+      <c r="N529" s="67"/>
+      <c r="O529" s="67"/>
+      <c r="P529" s="67"/>
+      <c r="Q529" s="67"/>
+      <c r="R529" s="67"/>
+      <c r="S529" s="67"/>
+      <c r="T529" s="67"/>
+      <c r="U529" s="67"/>
+      <c r="V529" s="67"/>
+      <c r="W529" s="67"/>
+      <c r="X529" s="67"/>
+      <c r="Y529" s="67"/>
+    </row>
+    <row r="530" spans="1:25" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A530" s="69"/>
+      <c r="B530" s="70"/>
+      <c r="C530" s="67"/>
+      <c r="D530" s="36">
+        <v>45686</v>
+      </c>
+      <c r="E530" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F530" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G530" s="18" t="s">
+        <v>479</v>
+      </c>
+      <c r="H530" s="19">
+        <v>0.375</v>
+      </c>
+      <c r="I530" s="19">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="J530" s="67"/>
+      <c r="K530" s="71"/>
+      <c r="L530" s="72"/>
+      <c r="M530" s="67"/>
+      <c r="N530" s="67"/>
+      <c r="O530" s="67"/>
+      <c r="P530" s="67"/>
+      <c r="Q530" s="67"/>
+      <c r="R530" s="67"/>
+      <c r="S530" s="67"/>
+      <c r="T530" s="67"/>
+      <c r="U530" s="67"/>
+      <c r="V530" s="67"/>
+      <c r="W530" s="67"/>
+      <c r="X530" s="67"/>
+      <c r="Y530" s="67"/>
+    </row>
+    <row r="531" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A531" s="69"/>
+      <c r="B531" s="70"/>
+      <c r="C531" s="67"/>
+      <c r="D531" s="36">
+        <v>45686</v>
+      </c>
+      <c r="E531" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F531" s="18" t="s">
+        <v>412</v>
+      </c>
+      <c r="G531" s="18" t="s">
+        <v>480</v>
+      </c>
+      <c r="H531" s="19">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="I531" s="19">
+        <v>0.41180555555555554</v>
+      </c>
+      <c r="J531" s="67"/>
+      <c r="K531" s="71"/>
+      <c r="L531" s="72"/>
+      <c r="M531" s="67"/>
+      <c r="N531" s="67"/>
+      <c r="O531" s="67"/>
+      <c r="P531" s="67"/>
+      <c r="Q531" s="67"/>
+      <c r="R531" s="67"/>
+      <c r="S531" s="67"/>
+      <c r="T531" s="67"/>
+      <c r="U531" s="67"/>
+      <c r="V531" s="67"/>
+      <c r="W531" s="67"/>
+      <c r="X531" s="67"/>
+      <c r="Y531" s="67"/>
+    </row>
+    <row r="532" spans="1:25" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A532" s="69"/>
+      <c r="B532" s="70"/>
+      <c r="C532" s="66"/>
+      <c r="D532" s="24">
+        <v>45686</v>
+      </c>
+      <c r="E532" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F532" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="G532" s="15" t="s">
+        <v>481</v>
+      </c>
+      <c r="H532" s="16">
+        <v>0.51250000000000007</v>
+      </c>
+      <c r="I532" s="16">
+        <v>0.51597222222222217</v>
+      </c>
+      <c r="J532" s="66"/>
+      <c r="K532" s="71"/>
+      <c r="L532" s="72"/>
+      <c r="M532" s="66"/>
+      <c r="N532" s="66"/>
+      <c r="O532" s="66"/>
+      <c r="P532" s="66"/>
+      <c r="Q532" s="66"/>
+      <c r="R532" s="66"/>
+      <c r="S532" s="66"/>
+      <c r="T532" s="66"/>
+      <c r="U532" s="66"/>
+      <c r="V532" s="66"/>
+      <c r="W532" s="66"/>
+      <c r="X532" s="66"/>
+      <c r="Y532" s="66"/>
+    </row>
+    <row r="533" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A533" s="68"/>
+      <c r="B533" s="67"/>
+      <c r="C533" s="67"/>
+      <c r="D533" s="36">
+        <v>45687</v>
+      </c>
+      <c r="E533" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F533" s="18" t="s">
+        <v>412</v>
+      </c>
+      <c r="G533" s="18" t="s">
+        <v>416</v>
+      </c>
+      <c r="H533" s="19">
+        <v>0.33055555555555555</v>
+      </c>
+      <c r="I533" s="19">
+        <v>0.33124999999999999</v>
+      </c>
+      <c r="J533" s="67"/>
+      <c r="K533" s="67"/>
+      <c r="L533" s="67"/>
+      <c r="M533" s="67"/>
+      <c r="N533" s="67"/>
+      <c r="O533" s="67"/>
+      <c r="P533" s="67"/>
+      <c r="Q533" s="67"/>
+      <c r="R533" s="67"/>
+      <c r="S533" s="67"/>
+      <c r="T533" s="67"/>
+      <c r="U533" s="67"/>
+      <c r="V533" s="67"/>
+      <c r="W533" s="67"/>
+      <c r="X533" s="67"/>
+      <c r="Y533" s="67"/>
+    </row>
+    <row r="534" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A534" s="69"/>
+      <c r="B534" s="70"/>
+      <c r="C534" s="67"/>
+      <c r="D534" s="36">
+        <v>45687</v>
+      </c>
+      <c r="E534" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F534" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G534" s="18" t="s">
+        <v>482</v>
+      </c>
+      <c r="H534" s="19">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I534" s="19">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="J534" s="67"/>
+      <c r="K534" s="71"/>
+      <c r="L534" s="72"/>
+      <c r="M534" s="67"/>
+      <c r="N534" s="67"/>
+      <c r="O534" s="67"/>
+      <c r="P534" s="67"/>
+      <c r="Q534" s="67"/>
+      <c r="R534" s="67"/>
+      <c r="S534" s="67"/>
+      <c r="T534" s="67"/>
+      <c r="U534" s="67"/>
+      <c r="V534" s="67"/>
+      <c r="W534" s="67"/>
+      <c r="X534" s="67"/>
+      <c r="Y534" s="67"/>
+    </row>
+    <row r="535" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A535" s="69"/>
+      <c r="B535" s="70"/>
+      <c r="C535" s="67"/>
+      <c r="D535" s="36">
+        <v>45687</v>
+      </c>
+      <c r="E535" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F535" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G535" s="18" t="s">
+        <v>483</v>
+      </c>
+      <c r="H535" s="19">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="I535" s="19">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="J535" s="67"/>
+      <c r="K535" s="71"/>
+      <c r="L535" s="72"/>
+      <c r="M535" s="67"/>
+      <c r="N535" s="67"/>
+      <c r="O535" s="67"/>
+      <c r="P535" s="67"/>
+      <c r="Q535" s="67"/>
+      <c r="R535" s="67"/>
+      <c r="S535" s="67"/>
+      <c r="T535" s="67"/>
+      <c r="U535" s="67"/>
+      <c r="V535" s="67"/>
+      <c r="W535" s="67"/>
+      <c r="X535" s="67"/>
+      <c r="Y535" s="67"/>
+    </row>
+    <row r="536" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A536" s="69"/>
+      <c r="B536" s="70"/>
+      <c r="C536" s="67"/>
+      <c r="D536" s="36">
+        <v>45687</v>
+      </c>
+      <c r="E536" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F536" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G536" s="18" t="s">
+        <v>484</v>
+      </c>
+      <c r="H536" s="19">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="I536" s="19">
+        <v>0.4375</v>
+      </c>
+      <c r="J536" s="67"/>
+      <c r="K536" s="71"/>
+      <c r="L536" s="72"/>
+      <c r="M536" s="67"/>
+      <c r="N536" s="67"/>
+      <c r="O536" s="67"/>
+      <c r="P536" s="67"/>
+      <c r="Q536" s="67"/>
+      <c r="R536" s="67"/>
+      <c r="S536" s="67"/>
+      <c r="T536" s="67"/>
+      <c r="U536" s="67"/>
+      <c r="V536" s="67"/>
+      <c r="W536" s="67"/>
+      <c r="X536" s="67"/>
+      <c r="Y536" s="67"/>
+    </row>
+    <row r="537" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A537" s="69"/>
+      <c r="B537" s="70"/>
+      <c r="C537" s="67"/>
+      <c r="D537" s="36">
+        <v>45687</v>
+      </c>
+      <c r="E537" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F537" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G537" s="18" t="s">
+        <v>485</v>
+      </c>
+      <c r="H537" s="19">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="I537" s="19">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="J537" s="67"/>
+      <c r="K537" s="71"/>
+      <c r="L537" s="72"/>
+      <c r="M537" s="67"/>
+      <c r="N537" s="67"/>
+      <c r="O537" s="67"/>
+      <c r="P537" s="67"/>
+      <c r="Q537" s="67"/>
+      <c r="R537" s="67"/>
+      <c r="S537" s="67"/>
+      <c r="T537" s="67"/>
+      <c r="U537" s="67"/>
+      <c r="V537" s="67"/>
+      <c r="W537" s="67"/>
+      <c r="X537" s="67"/>
+      <c r="Y537" s="67"/>
+    </row>
+    <row r="538" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A538" s="69"/>
+      <c r="B538" s="70"/>
+      <c r="C538" s="67"/>
+      <c r="D538" s="36">
+        <v>45687</v>
+      </c>
+      <c r="E538" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F538" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G538" s="18" t="s">
+        <v>486</v>
+      </c>
+      <c r="H538" s="19">
+        <v>0.46597222222222223</v>
+      </c>
+      <c r="I538" s="19">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="J538" s="67"/>
+      <c r="K538" s="71"/>
+      <c r="L538" s="72"/>
+      <c r="M538" s="67"/>
+      <c r="N538" s="67"/>
+      <c r="O538" s="67"/>
+      <c r="P538" s="67"/>
+      <c r="Q538" s="67"/>
+      <c r="R538" s="67"/>
+      <c r="S538" s="67"/>
+      <c r="T538" s="67"/>
+      <c r="U538" s="67"/>
+      <c r="V538" s="67"/>
+      <c r="W538" s="67"/>
+      <c r="X538" s="67"/>
+      <c r="Y538" s="67"/>
+    </row>
+    <row r="539" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A539" s="69"/>
+      <c r="B539" s="70"/>
+      <c r="C539" s="67"/>
+      <c r="D539" s="36">
+        <v>45687</v>
+      </c>
+      <c r="E539" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F539" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G539" s="18" t="s">
+        <v>487</v>
+      </c>
+      <c r="H539" s="19">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="I539" s="19">
+        <v>0.51736111111111105</v>
+      </c>
+      <c r="J539" s="67"/>
+      <c r="K539" s="71"/>
+      <c r="L539" s="72"/>
+      <c r="M539" s="67"/>
+      <c r="N539" s="67"/>
+      <c r="O539" s="67"/>
+      <c r="P539" s="67"/>
+      <c r="Q539" s="67"/>
+      <c r="R539" s="67"/>
+      <c r="S539" s="67"/>
+      <c r="T539" s="67"/>
+      <c r="U539" s="67"/>
+      <c r="V539" s="67"/>
+      <c r="W539" s="67"/>
+      <c r="X539" s="67"/>
+      <c r="Y539" s="67"/>
+    </row>
+    <row r="540" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A540" s="69"/>
+      <c r="B540" s="70"/>
+      <c r="C540" s="67"/>
+      <c r="D540" s="36">
+        <v>45688</v>
+      </c>
+      <c r="E540" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F540" s="18" t="s">
+        <v>412</v>
+      </c>
+      <c r="G540" s="18" t="s">
+        <v>488</v>
+      </c>
+      <c r="H540" s="19">
+        <v>0.33124999999999999</v>
+      </c>
+      <c r="I540" s="19">
+        <v>0.33194444444444443</v>
+      </c>
+      <c r="J540" s="67"/>
+      <c r="K540" s="71"/>
+      <c r="L540" s="72"/>
+      <c r="M540" s="67"/>
+      <c r="N540" s="67"/>
+      <c r="O540" s="67"/>
+      <c r="P540" s="67"/>
+      <c r="Q540" s="67"/>
+      <c r="R540" s="67"/>
+      <c r="S540" s="67"/>
+      <c r="T540" s="67"/>
+      <c r="U540" s="67"/>
+      <c r="V540" s="67"/>
+      <c r="W540" s="67"/>
+      <c r="X540" s="67"/>
+      <c r="Y540" s="67"/>
+    </row>
+    <row r="541" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A541" s="69"/>
+      <c r="B541" s="70"/>
+      <c r="C541" s="67"/>
+      <c r="D541" s="36">
+        <v>45688</v>
+      </c>
+      <c r="E541" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F541" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G541" s="18" t="s">
+        <v>489</v>
+      </c>
+      <c r="H541" s="19">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I541" s="19">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="J541" s="67"/>
+      <c r="K541" s="71"/>
+      <c r="L541" s="72"/>
+      <c r="M541" s="67"/>
+      <c r="N541" s="67"/>
+      <c r="O541" s="67"/>
+      <c r="P541" s="67"/>
+      <c r="Q541" s="67"/>
+      <c r="R541" s="67"/>
+      <c r="S541" s="67"/>
+      <c r="T541" s="67"/>
+      <c r="U541" s="67"/>
+      <c r="V541" s="67"/>
+      <c r="W541" s="67"/>
+      <c r="X541" s="67"/>
+      <c r="Y541" s="67"/>
+    </row>
+    <row r="542" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A542" s="69"/>
+      <c r="B542" s="70"/>
+      <c r="C542" s="67"/>
+      <c r="D542" s="36">
+        <v>45688</v>
+      </c>
+      <c r="E542" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F542" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G542" s="18" t="s">
+        <v>490</v>
+      </c>
+      <c r="H542" s="19">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="I542" s="19">
+        <v>0.34861111111111115</v>
+      </c>
+      <c r="J542" s="67"/>
+      <c r="K542" s="71"/>
+      <c r="L542" s="72"/>
+      <c r="M542" s="67"/>
+      <c r="N542" s="67"/>
+      <c r="O542" s="67"/>
+      <c r="P542" s="67"/>
+      <c r="Q542" s="67"/>
+      <c r="R542" s="67"/>
+      <c r="S542" s="67"/>
+      <c r="T542" s="67"/>
+      <c r="U542" s="67"/>
+      <c r="V542" s="67"/>
+      <c r="W542" s="67"/>
+      <c r="X542" s="67"/>
+      <c r="Y542" s="67"/>
+    </row>
+    <row r="543" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A543" s="69"/>
+      <c r="B543" s="70"/>
+      <c r="C543" s="67"/>
+      <c r="D543" s="36">
+        <v>45688</v>
+      </c>
+      <c r="E543" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F543" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G543" s="18" t="s">
+        <v>491</v>
+      </c>
+      <c r="H543" s="19">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="I543" s="19">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="J543" s="67"/>
+      <c r="K543" s="71"/>
+      <c r="L543" s="72"/>
+      <c r="M543" s="67"/>
+      <c r="N543" s="67"/>
+      <c r="O543" s="67"/>
+      <c r="P543" s="67"/>
+      <c r="Q543" s="67"/>
+      <c r="R543" s="67"/>
+      <c r="S543" s="67"/>
+      <c r="T543" s="67"/>
+      <c r="U543" s="67"/>
+      <c r="V543" s="67"/>
+      <c r="W543" s="67"/>
+      <c r="X543" s="67"/>
+      <c r="Y543" s="67"/>
+    </row>
+    <row r="544" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A544" s="69"/>
+      <c r="B544" s="70"/>
+      <c r="C544" s="67"/>
+      <c r="D544" s="36">
+        <v>45688</v>
+      </c>
+      <c r="E544" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F544" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G544" s="18" t="s">
+        <v>492</v>
+      </c>
+      <c r="H544" s="19">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="I544" s="19">
+        <v>0.375</v>
+      </c>
+      <c r="J544" s="67"/>
+      <c r="K544" s="71"/>
+      <c r="L544" s="72"/>
+      <c r="M544" s="67"/>
+      <c r="N544" s="67"/>
+      <c r="O544" s="67"/>
+      <c r="P544" s="67"/>
+      <c r="Q544" s="67"/>
+      <c r="R544" s="67"/>
+      <c r="S544" s="67"/>
+      <c r="T544" s="67"/>
+      <c r="U544" s="67"/>
+      <c r="V544" s="67"/>
+      <c r="W544" s="67"/>
+      <c r="X544" s="67"/>
+      <c r="Y544" s="67"/>
+    </row>
+    <row r="545" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A545" s="69"/>
+      <c r="B545" s="70"/>
+      <c r="C545" s="67"/>
+      <c r="D545" s="36">
+        <v>45688</v>
+      </c>
+      <c r="E545" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F545" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G545" s="18" t="s">
+        <v>493</v>
+      </c>
+      <c r="H545" s="19">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="I545" s="19">
+        <v>0.4069444444444445</v>
+      </c>
+      <c r="J545" s="67"/>
+      <c r="K545" s="71"/>
+      <c r="L545" s="72"/>
+      <c r="M545" s="67"/>
+      <c r="N545" s="67"/>
+      <c r="O545" s="67"/>
+      <c r="P545" s="67"/>
+      <c r="Q545" s="67"/>
+      <c r="R545" s="67"/>
+      <c r="S545" s="67"/>
+      <c r="T545" s="67"/>
+      <c r="U545" s="67"/>
+      <c r="V545" s="67"/>
+      <c r="W545" s="67"/>
+      <c r="X545" s="67"/>
+      <c r="Y545" s="67"/>
+    </row>
+    <row r="546" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A546" s="69"/>
+      <c r="B546" s="70"/>
+      <c r="C546" s="67"/>
+      <c r="D546" s="36">
+        <v>45688</v>
+      </c>
+      <c r="E546" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F546" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G546" s="18" t="s">
+        <v>494</v>
+      </c>
+      <c r="H546" s="19">
+        <v>0.40763888888888888</v>
+      </c>
+      <c r="I546" s="19">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="J546" s="67"/>
+      <c r="K546" s="71"/>
+      <c r="L546" s="72"/>
+      <c r="M546" s="67"/>
+      <c r="N546" s="67"/>
+      <c r="O546" s="67"/>
+      <c r="P546" s="67"/>
+      <c r="Q546" s="67"/>
+      <c r="R546" s="67"/>
+      <c r="S546" s="67"/>
+      <c r="T546" s="67"/>
+      <c r="U546" s="67"/>
+      <c r="V546" s="67"/>
+      <c r="W546" s="67"/>
+      <c r="X546" s="67"/>
+      <c r="Y546" s="67"/>
+    </row>
+    <row r="547" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A547" s="69"/>
+      <c r="B547" s="70"/>
+      <c r="C547" s="67"/>
+      <c r="D547" s="36">
+        <v>45688</v>
+      </c>
+      <c r="E547" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F547" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G547" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="H547" s="19">
+        <v>0.43541666666666662</v>
+      </c>
+      <c r="I547" s="19">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="J547" s="67"/>
+      <c r="K547" s="71"/>
+      <c r="L547" s="72"/>
+      <c r="M547" s="67"/>
+      <c r="N547" s="67"/>
+      <c r="O547" s="67"/>
+      <c r="P547" s="67"/>
+      <c r="Q547" s="67"/>
+      <c r="R547" s="67"/>
+      <c r="S547" s="67"/>
+      <c r="T547" s="67"/>
+      <c r="U547" s="67"/>
+      <c r="V547" s="67"/>
+      <c r="W547" s="67"/>
+      <c r="X547" s="67"/>
+      <c r="Y547" s="67"/>
+    </row>
+    <row r="548" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A548" s="69"/>
+      <c r="B548" s="70"/>
+      <c r="C548" s="67"/>
+      <c r="D548" s="36">
+        <v>45688</v>
+      </c>
+      <c r="E548" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F548" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G548" s="18" t="s">
+        <v>496</v>
+      </c>
+      <c r="H548" s="19">
+        <v>0.54236111111111118</v>
+      </c>
+      <c r="I548" s="19">
+        <v>0.54583333333333328</v>
+      </c>
+      <c r="J548" s="67"/>
+      <c r="K548" s="71"/>
+      <c r="L548" s="72"/>
+      <c r="M548" s="67"/>
+      <c r="N548" s="67"/>
+      <c r="O548" s="67"/>
+      <c r="P548" s="67"/>
+      <c r="Q548" s="67"/>
+      <c r="R548" s="67"/>
+      <c r="S548" s="67"/>
+      <c r="T548" s="67"/>
+      <c r="U548" s="67"/>
+      <c r="V548" s="67"/>
+      <c r="W548" s="67"/>
+      <c r="X548" s="67"/>
+      <c r="Y548" s="67"/>
+    </row>
+    <row r="549" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A549" s="69"/>
+      <c r="B549" s="70"/>
+      <c r="C549" s="67"/>
+      <c r="D549" s="36">
+        <v>45691</v>
+      </c>
+      <c r="E549" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F549" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G549" s="18" t="s">
+        <v>497</v>
+      </c>
+      <c r="H549" s="19">
+        <v>0.35069444444444442</v>
+      </c>
+      <c r="I549" s="19">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="J549" s="67"/>
+      <c r="K549" s="71"/>
+      <c r="L549" s="72"/>
+      <c r="M549" s="67"/>
+      <c r="N549" s="67"/>
+      <c r="O549" s="67"/>
+      <c r="P549" s="67"/>
+      <c r="Q549" s="67"/>
+      <c r="R549" s="67"/>
+      <c r="S549" s="67"/>
+      <c r="T549" s="67"/>
+      <c r="U549" s="67"/>
+      <c r="V549" s="67"/>
+      <c r="W549" s="67"/>
+      <c r="X549" s="67"/>
+      <c r="Y549" s="67"/>
+    </row>
+    <row r="550" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A550" s="69"/>
+      <c r="B550" s="70"/>
+      <c r="C550" s="67"/>
+      <c r="D550" s="36">
+        <v>45691</v>
+      </c>
+      <c r="E550" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F550" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G550" s="18" t="s">
+        <v>498</v>
+      </c>
+      <c r="H550" s="19">
+        <v>0.3923611111111111</v>
+      </c>
+      <c r="I550" s="19">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="J550" s="67"/>
+      <c r="K550" s="71"/>
+      <c r="L550" s="72"/>
+      <c r="M550" s="67"/>
+      <c r="N550" s="67"/>
+      <c r="O550" s="67"/>
+      <c r="P550" s="67"/>
+      <c r="Q550" s="67"/>
+      <c r="R550" s="67"/>
+      <c r="S550" s="67"/>
+      <c r="T550" s="67"/>
+      <c r="U550" s="67"/>
+      <c r="V550" s="67"/>
+      <c r="W550" s="67"/>
+      <c r="X550" s="67"/>
+      <c r="Y550" s="67"/>
+    </row>
+    <row r="551" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A551" s="69"/>
+      <c r="B551" s="70"/>
+      <c r="C551" s="66"/>
+      <c r="D551" s="24">
+        <v>45691</v>
+      </c>
+      <c r="E551" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F551" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G551" s="15" t="s">
+        <v>499</v>
+      </c>
+      <c r="H551" s="16">
+        <v>0.4375</v>
+      </c>
+      <c r="I551" s="16">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="J551" s="66"/>
+      <c r="K551" s="71"/>
+      <c r="L551" s="72"/>
+      <c r="M551" s="66"/>
+      <c r="N551" s="66"/>
+      <c r="O551" s="66"/>
+      <c r="P551" s="66"/>
+      <c r="Q551" s="66"/>
+      <c r="R551" s="66"/>
+      <c r="S551" s="66"/>
+      <c r="T551" s="66"/>
+      <c r="U551" s="66"/>
+      <c r="V551" s="66"/>
+      <c r="W551" s="66"/>
+      <c r="X551" s="66"/>
+      <c r="Y551" s="66"/>
+    </row>
+    <row r="552" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D552" s="11"/>
       <c r="E552" s="10"/>
       <c r="F552" s="10"/>
@@ -13531,7 +18148,7 @@
       <c r="H552" s="11"/>
       <c r="I552" s="11"/>
     </row>
-    <row r="553" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D553" s="11"/>
       <c r="E553" s="10"/>
       <c r="F553" s="10"/>
@@ -13539,7 +18156,7 @@
       <c r="H553" s="11"/>
       <c r="I553" s="11"/>
     </row>
-    <row r="554" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D554" s="11"/>
       <c r="E554" s="10"/>
       <c r="F554" s="10"/>
@@ -13547,7 +18164,7 @@
       <c r="H554" s="11"/>
       <c r="I554" s="11"/>
     </row>
-    <row r="555" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D555" s="11"/>
       <c r="E555" s="10"/>
       <c r="F555" s="10"/>
@@ -13555,7 +18172,7 @@
       <c r="H555" s="11"/>
       <c r="I555" s="11"/>
     </row>
-    <row r="556" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D556" s="11"/>
       <c r="E556" s="10"/>
       <c r="F556" s="10"/>
@@ -13563,7 +18180,7 @@
       <c r="H556" s="11"/>
       <c r="I556" s="11"/>
     </row>
-    <row r="557" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D557" s="11"/>
       <c r="E557" s="10"/>
       <c r="F557" s="10"/>
@@ -13571,7 +18188,7 @@
       <c r="H557" s="11"/>
       <c r="I557" s="11"/>
     </row>
-    <row r="558" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D558" s="11"/>
       <c r="E558" s="10"/>
       <c r="F558" s="10"/>
@@ -13579,7 +18196,7 @@
       <c r="H558" s="11"/>
       <c r="I558" s="11"/>
     </row>
-    <row r="559" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D559" s="11"/>
       <c r="E559" s="10"/>
       <c r="F559" s="10"/>
@@ -13587,7 +18204,7 @@
       <c r="H559" s="11"/>
       <c r="I559" s="11"/>
     </row>
-    <row r="560" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D560" s="11"/>
       <c r="E560" s="10"/>
       <c r="F560" s="10"/>
@@ -17203,27 +21820,245 @@
       <c r="H1011" s="11"/>
       <c r="I1011" s="11"/>
     </row>
-    <row r="1012" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D1012" s="11"/>
-      <c r="E1012" s="10"/>
-      <c r="F1012" s="10"/>
-      <c r="G1012" s="10"/>
-      <c r="H1012" s="11"/>
-      <c r="I1012" s="11"/>
-    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="228">
+    <mergeCell ref="A551:B551"/>
+    <mergeCell ref="K551:L551"/>
+    <mergeCell ref="A530:B530"/>
+    <mergeCell ref="K530:L530"/>
+    <mergeCell ref="A531:B531"/>
+    <mergeCell ref="K531:L531"/>
+    <mergeCell ref="A525:B525"/>
+    <mergeCell ref="K525:L525"/>
+    <mergeCell ref="A528:B528"/>
+    <mergeCell ref="K528:L528"/>
+    <mergeCell ref="A529:B529"/>
+    <mergeCell ref="K529:L529"/>
+    <mergeCell ref="A522:B522"/>
+    <mergeCell ref="K522:L522"/>
+    <mergeCell ref="A523:B523"/>
+    <mergeCell ref="K523:L523"/>
+    <mergeCell ref="A524:B524"/>
+    <mergeCell ref="K524:L524"/>
+    <mergeCell ref="A519:B519"/>
+    <mergeCell ref="K519:L519"/>
+    <mergeCell ref="A520:B520"/>
+    <mergeCell ref="K520:L520"/>
+    <mergeCell ref="A521:B521"/>
+    <mergeCell ref="K521:L521"/>
+    <mergeCell ref="A516:B516"/>
+    <mergeCell ref="K516:L516"/>
+    <mergeCell ref="A517:B517"/>
+    <mergeCell ref="K517:L517"/>
+    <mergeCell ref="A518:B518"/>
+    <mergeCell ref="K518:L518"/>
+    <mergeCell ref="A513:B513"/>
+    <mergeCell ref="K513:L513"/>
+    <mergeCell ref="A514:B514"/>
+    <mergeCell ref="K514:L514"/>
+    <mergeCell ref="A515:B515"/>
+    <mergeCell ref="K515:L515"/>
+    <mergeCell ref="A510:B510"/>
+    <mergeCell ref="K510:L510"/>
+    <mergeCell ref="A511:B511"/>
+    <mergeCell ref="K511:L511"/>
+    <mergeCell ref="A512:B512"/>
+    <mergeCell ref="K512:L512"/>
+    <mergeCell ref="A507:B507"/>
+    <mergeCell ref="K507:L507"/>
+    <mergeCell ref="A508:B508"/>
+    <mergeCell ref="K508:L508"/>
+    <mergeCell ref="A509:B509"/>
+    <mergeCell ref="K509:L509"/>
+    <mergeCell ref="A504:B504"/>
+    <mergeCell ref="K504:L504"/>
+    <mergeCell ref="A505:B505"/>
+    <mergeCell ref="K505:L505"/>
+    <mergeCell ref="A506:B506"/>
+    <mergeCell ref="K506:L506"/>
+    <mergeCell ref="A500:B500"/>
+    <mergeCell ref="K500:L500"/>
+    <mergeCell ref="A501:B501"/>
+    <mergeCell ref="K501:L501"/>
+    <mergeCell ref="A503:B503"/>
+    <mergeCell ref="K503:L503"/>
+    <mergeCell ref="A497:B497"/>
+    <mergeCell ref="K497:L497"/>
+    <mergeCell ref="A498:B498"/>
+    <mergeCell ref="K498:L498"/>
+    <mergeCell ref="A499:B499"/>
+    <mergeCell ref="K499:L499"/>
+    <mergeCell ref="A494:B494"/>
+    <mergeCell ref="K494:L494"/>
+    <mergeCell ref="A495:B495"/>
+    <mergeCell ref="K495:L495"/>
+    <mergeCell ref="A496:B496"/>
+    <mergeCell ref="K496:L496"/>
+    <mergeCell ref="A491:B491"/>
+    <mergeCell ref="K491:L491"/>
+    <mergeCell ref="A492:B492"/>
+    <mergeCell ref="K492:L492"/>
+    <mergeCell ref="A493:B493"/>
+    <mergeCell ref="K493:L493"/>
+    <mergeCell ref="A488:B488"/>
+    <mergeCell ref="K488:L488"/>
+    <mergeCell ref="A489:B489"/>
+    <mergeCell ref="K489:L489"/>
+    <mergeCell ref="A490:B490"/>
+    <mergeCell ref="K490:L490"/>
+    <mergeCell ref="A485:B485"/>
+    <mergeCell ref="K485:L485"/>
+    <mergeCell ref="A486:B486"/>
+    <mergeCell ref="K486:L486"/>
+    <mergeCell ref="A487:B487"/>
+    <mergeCell ref="K487:L487"/>
+    <mergeCell ref="A482:B482"/>
+    <mergeCell ref="K482:L482"/>
+    <mergeCell ref="A483:B483"/>
+    <mergeCell ref="K483:L483"/>
+    <mergeCell ref="A484:B484"/>
+    <mergeCell ref="K484:L484"/>
+    <mergeCell ref="A479:B479"/>
+    <mergeCell ref="K479:L479"/>
+    <mergeCell ref="A480:B480"/>
+    <mergeCell ref="K480:L480"/>
+    <mergeCell ref="A481:B481"/>
+    <mergeCell ref="K481:L481"/>
+    <mergeCell ref="A476:B476"/>
+    <mergeCell ref="K476:L476"/>
+    <mergeCell ref="A477:B477"/>
+    <mergeCell ref="K477:L477"/>
+    <mergeCell ref="A478:B478"/>
+    <mergeCell ref="K478:L478"/>
+    <mergeCell ref="A473:B473"/>
+    <mergeCell ref="K473:L473"/>
+    <mergeCell ref="A474:B474"/>
+    <mergeCell ref="K474:L474"/>
+    <mergeCell ref="A475:B475"/>
+    <mergeCell ref="K475:L475"/>
+    <mergeCell ref="A470:B470"/>
+    <mergeCell ref="K470:L470"/>
+    <mergeCell ref="A471:B471"/>
+    <mergeCell ref="K471:L471"/>
+    <mergeCell ref="A472:B472"/>
+    <mergeCell ref="K472:L472"/>
+    <mergeCell ref="A467:B467"/>
+    <mergeCell ref="K467:L467"/>
+    <mergeCell ref="A468:B468"/>
+    <mergeCell ref="K468:L468"/>
+    <mergeCell ref="A469:B469"/>
+    <mergeCell ref="K469:L469"/>
+    <mergeCell ref="A464:B464"/>
+    <mergeCell ref="K464:L464"/>
+    <mergeCell ref="A465:B465"/>
+    <mergeCell ref="K465:L465"/>
+    <mergeCell ref="A466:B466"/>
+    <mergeCell ref="K466:L466"/>
+    <mergeCell ref="A461:B461"/>
+    <mergeCell ref="K461:L461"/>
+    <mergeCell ref="A462:B462"/>
+    <mergeCell ref="K462:L462"/>
+    <mergeCell ref="A463:B463"/>
+    <mergeCell ref="K463:L463"/>
+    <mergeCell ref="A457:B457"/>
+    <mergeCell ref="K457:L457"/>
+    <mergeCell ref="A459:B459"/>
+    <mergeCell ref="K459:L459"/>
+    <mergeCell ref="A460:B460"/>
+    <mergeCell ref="K460:L460"/>
+    <mergeCell ref="A454:B454"/>
+    <mergeCell ref="K454:L454"/>
+    <mergeCell ref="A455:B455"/>
+    <mergeCell ref="K455:L455"/>
+    <mergeCell ref="A456:B456"/>
+    <mergeCell ref="K456:L456"/>
+    <mergeCell ref="A451:B451"/>
+    <mergeCell ref="K451:L451"/>
+    <mergeCell ref="A452:B452"/>
+    <mergeCell ref="K452:L452"/>
+    <mergeCell ref="A453:B453"/>
+    <mergeCell ref="K453:L453"/>
+    <mergeCell ref="A446:B446"/>
+    <mergeCell ref="K446:L446"/>
+    <mergeCell ref="A447:B447"/>
+    <mergeCell ref="K447:L447"/>
+    <mergeCell ref="A448:B448"/>
+    <mergeCell ref="K448:L448"/>
+    <mergeCell ref="A443:B443"/>
+    <mergeCell ref="K443:L443"/>
+    <mergeCell ref="A444:B444"/>
+    <mergeCell ref="K444:L444"/>
+    <mergeCell ref="A445:B445"/>
+    <mergeCell ref="K445:L445"/>
+    <mergeCell ref="A440:B440"/>
+    <mergeCell ref="K440:L440"/>
+    <mergeCell ref="A441:B441"/>
+    <mergeCell ref="K441:L441"/>
+    <mergeCell ref="A442:B442"/>
+    <mergeCell ref="K442:L442"/>
+    <mergeCell ref="A437:B437"/>
+    <mergeCell ref="K437:L437"/>
+    <mergeCell ref="A438:B438"/>
+    <mergeCell ref="K438:L438"/>
+    <mergeCell ref="A439:B439"/>
+    <mergeCell ref="K439:L439"/>
+    <mergeCell ref="A434:B434"/>
+    <mergeCell ref="K434:L434"/>
+    <mergeCell ref="A435:B435"/>
+    <mergeCell ref="K435:L435"/>
+    <mergeCell ref="A436:B436"/>
+    <mergeCell ref="K436:L436"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A432:B432"/>
+    <mergeCell ref="K432:L432"/>
+    <mergeCell ref="A433:B433"/>
+    <mergeCell ref="K433:L433"/>
+    <mergeCell ref="A532:B532"/>
+    <mergeCell ref="K532:L532"/>
+    <mergeCell ref="A534:B534"/>
+    <mergeCell ref="K534:L534"/>
+    <mergeCell ref="A535:B535"/>
+    <mergeCell ref="K535:L535"/>
+    <mergeCell ref="A536:B536"/>
+    <mergeCell ref="K536:L536"/>
+    <mergeCell ref="A537:B537"/>
+    <mergeCell ref="K537:L537"/>
+    <mergeCell ref="A538:B538"/>
+    <mergeCell ref="K538:L538"/>
+    <mergeCell ref="A539:B539"/>
+    <mergeCell ref="K539:L539"/>
+    <mergeCell ref="A540:B540"/>
+    <mergeCell ref="K540:L540"/>
+    <mergeCell ref="A541:B541"/>
+    <mergeCell ref="K541:L541"/>
+    <mergeCell ref="A542:B542"/>
+    <mergeCell ref="K542:L542"/>
+    <mergeCell ref="A548:B548"/>
+    <mergeCell ref="K548:L548"/>
+    <mergeCell ref="A549:B549"/>
+    <mergeCell ref="K549:L549"/>
+    <mergeCell ref="A550:B550"/>
+    <mergeCell ref="K550:L550"/>
+    <mergeCell ref="A543:B543"/>
+    <mergeCell ref="K543:L543"/>
+    <mergeCell ref="A544:B544"/>
+    <mergeCell ref="K544:L544"/>
+    <mergeCell ref="A545:B545"/>
+    <mergeCell ref="K545:L545"/>
+    <mergeCell ref="A546:B546"/>
+    <mergeCell ref="K546:L546"/>
+    <mergeCell ref="A547:B547"/>
+    <mergeCell ref="K547:L547"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E3:E176 E180:E183 E188:E194 E196 E202:E203 E207:E208 E239:E243 E254:E257 E267:E278 E280:E282 E300 E303:E306 E313:E326 E403 E414:E1012">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E3:E176 E180:E183 E188:E194 E196 E202:E203 E207:E208 E239:E243 E254:E257 E267:E278 E280:E282 E300 E303:E306 E313:E326 E403 E414:E415 E552:E1011">
       <formula1>"GABRIEL,UILLIAM"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F32 F40">
       <formula1>"TI,NPJ,LAB,MED,PAV01,EAD,AULA,CORD MED,PROF MED,PROG,ARQ,ATEND,CAP,CORD"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F3:F27 F29:F31 F33:F39 F41:F176 F180:F183 F188:F194 F196 F202:F203 F207:F208 F239:F243 F254:F257 F267:F278 F280:F282 F300 F303:F306 F313:F326 F403 F414:F1012">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F3:F27 F29:F31 F33:F39 F41:F176 F180:F183 F188:F194 F196 F202:F203 F207:F208 F239:F243 F254:F257 F267:F278 F280:F282 F300 F303:F306 F313:F326 F403 F414:F415 F552:F1011">
       <formula1>"TI,NPJ,LAB,MED,PAV01,EAD,AULA,CORD MED,PROF MED,PROG,ARQ,ATEND,CAP,CPA,CORD,BLIB,DIR,FIN,RH"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F28">

--- a/Registro-de-atividades.xlsx
+++ b/Registro-de-atividades.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1657" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1711" uniqueCount="515">
   <si>
     <t>Registro de atividades</t>
   </si>
@@ -1519,6 +1519,51 @@
   </si>
   <si>
     <t>testando Hd do pc do consultorio de odontologia</t>
+  </si>
+  <si>
+    <t>Conectando computador fin-01 na impressora da secretaria</t>
+  </si>
+  <si>
+    <t>Etiquetando caixas do estoque</t>
+  </si>
+  <si>
+    <t>Auxiliando Adriel a trocar de toner da impressora hp</t>
+  </si>
+  <si>
+    <t>Auxiliand Adriel a usar o app de estoque</t>
+  </si>
+  <si>
+    <t>Convertendo arquivos para Catia de dwg para pdf</t>
+  </si>
+  <si>
+    <t>Realizando checagem de equipamentos para o mac nos setores</t>
+  </si>
+  <si>
+    <t>Enviando nova remessa de chachas para a rudik</t>
+  </si>
+  <si>
+    <t>Registrando impressoras que foram para a manutenção na planilha</t>
+  </si>
+  <si>
+    <t>Entregando chacha de Luiz</t>
+  </si>
+  <si>
+    <t>Instalando notbool lenovo na sala de metodologias ativas</t>
+  </si>
+  <si>
+    <t>Buscando chachas na rudik</t>
+  </si>
+  <si>
+    <t>fazendo novos chachas</t>
+  </si>
+  <si>
+    <t>Instalando caixa de som na sala de metodologias ativas</t>
+  </si>
+  <si>
+    <t>Entregando chacha pra Alan</t>
+  </si>
+  <si>
+    <t>trocando ssd e processador do pc da clinica de odonto</t>
   </si>
 </sst>
 </file>
@@ -2313,8 +2358,8 @@
   </sheetPr>
   <dimension ref="A1:Y1011"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A530" workbookViewId="0">
-      <selection activeCell="G552" sqref="G552"/>
+    <sheetView tabSelected="1" topLeftCell="A551" workbookViewId="0">
+      <selection activeCell="E573" sqref="E573"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -18140,151 +18185,709 @@
       <c r="X551" s="66"/>
       <c r="Y551" s="66"/>
     </row>
-    <row r="552" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D552" s="11"/>
-      <c r="E552" s="10"/>
-      <c r="F552" s="10"/>
-      <c r="G552" s="10"/>
-      <c r="H552" s="11"/>
-      <c r="I552" s="11"/>
-    </row>
-    <row r="553" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D553" s="11"/>
-      <c r="E553" s="10"/>
-      <c r="F553" s="10"/>
-      <c r="G553" s="10"/>
-      <c r="H553" s="11"/>
-      <c r="I553" s="11"/>
-    </row>
-    <row r="554" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D554" s="11"/>
-      <c r="E554" s="10"/>
-      <c r="F554" s="10"/>
-      <c r="G554" s="10"/>
-      <c r="H554" s="11"/>
-      <c r="I554" s="11"/>
-    </row>
-    <row r="555" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D555" s="11"/>
-      <c r="E555" s="10"/>
-      <c r="F555" s="10"/>
-      <c r="G555" s="10"/>
-      <c r="H555" s="11"/>
-      <c r="I555" s="11"/>
-    </row>
-    <row r="556" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D556" s="11"/>
-      <c r="E556" s="10"/>
-      <c r="F556" s="10"/>
-      <c r="G556" s="10"/>
-      <c r="H556" s="11"/>
-      <c r="I556" s="11"/>
-    </row>
-    <row r="557" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D557" s="11"/>
-      <c r="E557" s="10"/>
-      <c r="F557" s="10"/>
-      <c r="G557" s="10"/>
-      <c r="H557" s="11"/>
-      <c r="I557" s="11"/>
-    </row>
-    <row r="558" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D558" s="11"/>
-      <c r="E558" s="10"/>
-      <c r="F558" s="10"/>
-      <c r="G558" s="10"/>
-      <c r="H558" s="11"/>
-      <c r="I558" s="11"/>
-    </row>
-    <row r="559" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D559" s="11"/>
-      <c r="E559" s="10"/>
-      <c r="F559" s="10"/>
-      <c r="G559" s="10"/>
-      <c r="H559" s="11"/>
-      <c r="I559" s="11"/>
-    </row>
-    <row r="560" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D560" s="11"/>
-      <c r="E560" s="10"/>
-      <c r="F560" s="10"/>
-      <c r="G560" s="10"/>
-      <c r="H560" s="11"/>
-      <c r="I560" s="11"/>
-    </row>
-    <row r="561" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D561" s="11"/>
-      <c r="E561" s="10"/>
-      <c r="F561" s="10"/>
-      <c r="G561" s="10"/>
-      <c r="H561" s="11"/>
-      <c r="I561" s="11"/>
-    </row>
-    <row r="562" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D562" s="11"/>
-      <c r="E562" s="10"/>
-      <c r="F562" s="10"/>
-      <c r="G562" s="10"/>
-      <c r="H562" s="11"/>
-      <c r="I562" s="11"/>
-    </row>
-    <row r="563" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D563" s="11"/>
-      <c r="E563" s="10"/>
-      <c r="F563" s="10"/>
-      <c r="G563" s="10"/>
-      <c r="H563" s="11"/>
-      <c r="I563" s="11"/>
-    </row>
-    <row r="564" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D564" s="11"/>
-      <c r="E564" s="10"/>
-      <c r="F564" s="10"/>
-      <c r="G564" s="10"/>
-      <c r="H564" s="11"/>
-      <c r="I564" s="11"/>
-    </row>
-    <row r="565" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D565" s="11"/>
-      <c r="E565" s="10"/>
-      <c r="F565" s="10"/>
-      <c r="G565" s="10"/>
-      <c r="H565" s="11"/>
-      <c r="I565" s="11"/>
-    </row>
-    <row r="566" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D566" s="11"/>
-      <c r="E566" s="10"/>
-      <c r="F566" s="10"/>
-      <c r="G566" s="10"/>
-      <c r="H566" s="11"/>
-      <c r="I566" s="11"/>
-    </row>
-    <row r="567" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D567" s="11"/>
-      <c r="E567" s="10"/>
-      <c r="F567" s="10"/>
-      <c r="G567" s="10"/>
-      <c r="H567" s="11"/>
-      <c r="I567" s="11"/>
-    </row>
-    <row r="568" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D568" s="11"/>
-      <c r="E568" s="10"/>
-      <c r="F568" s="10"/>
-      <c r="G568" s="10"/>
-      <c r="H568" s="11"/>
-      <c r="I568" s="11"/>
-    </row>
-    <row r="569" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D569" s="11"/>
-      <c r="E569" s="10"/>
-      <c r="F569" s="10"/>
-      <c r="G569" s="10"/>
-      <c r="H569" s="11"/>
-      <c r="I569" s="11"/>
-    </row>
-    <row r="570" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A552" s="69"/>
+      <c r="B552" s="70"/>
+      <c r="C552" s="66"/>
+      <c r="D552" s="24">
+        <v>45692</v>
+      </c>
+      <c r="E552" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F552" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G552" s="15" t="s">
+        <v>500</v>
+      </c>
+      <c r="H552" s="16">
+        <v>0.33194444444444443</v>
+      </c>
+      <c r="I552" s="16">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="J552" s="66"/>
+      <c r="K552" s="71"/>
+      <c r="L552" s="72"/>
+      <c r="M552" s="66"/>
+      <c r="N552" s="66"/>
+      <c r="O552" s="66"/>
+      <c r="P552" s="66"/>
+      <c r="Q552" s="66"/>
+      <c r="R552" s="66"/>
+      <c r="S552" s="66"/>
+      <c r="T552" s="66"/>
+      <c r="U552" s="66"/>
+      <c r="V552" s="66"/>
+      <c r="W552" s="66"/>
+      <c r="X552" s="66"/>
+      <c r="Y552" s="66"/>
+    </row>
+    <row r="553" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A553" s="69"/>
+      <c r="B553" s="70"/>
+      <c r="C553" s="67"/>
+      <c r="D553" s="36">
+        <v>45692</v>
+      </c>
+      <c r="E553" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F553" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G553" s="18" t="s">
+        <v>497</v>
+      </c>
+      <c r="H553" s="19">
+        <v>0.33749999999999997</v>
+      </c>
+      <c r="I553" s="19">
+        <v>0.34236111111111112</v>
+      </c>
+      <c r="J553" s="67"/>
+      <c r="K553" s="71"/>
+      <c r="L553" s="72"/>
+      <c r="M553" s="67"/>
+      <c r="N553" s="67"/>
+      <c r="O553" s="67"/>
+      <c r="P553" s="67"/>
+      <c r="Q553" s="67"/>
+      <c r="R553" s="67"/>
+      <c r="S553" s="67"/>
+      <c r="T553" s="67"/>
+      <c r="U553" s="67"/>
+      <c r="V553" s="67"/>
+      <c r="W553" s="67"/>
+      <c r="X553" s="67"/>
+      <c r="Y553" s="67"/>
+    </row>
+    <row r="554" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A554" s="69"/>
+      <c r="B554" s="70"/>
+      <c r="C554" s="67"/>
+      <c r="D554" s="36">
+        <v>45692</v>
+      </c>
+      <c r="E554" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F554" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G554" s="18" t="s">
+        <v>501</v>
+      </c>
+      <c r="H554" s="19">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="I554" s="19">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="J554" s="67"/>
+      <c r="K554" s="71"/>
+      <c r="L554" s="72"/>
+      <c r="M554" s="67"/>
+      <c r="N554" s="67"/>
+      <c r="O554" s="67"/>
+      <c r="P554" s="67"/>
+      <c r="Q554" s="67"/>
+      <c r="R554" s="67"/>
+      <c r="S554" s="67"/>
+      <c r="T554" s="67"/>
+      <c r="U554" s="67"/>
+      <c r="V554" s="67"/>
+      <c r="W554" s="67"/>
+      <c r="X554" s="67"/>
+      <c r="Y554" s="67"/>
+    </row>
+    <row r="555" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A555" s="69"/>
+      <c r="B555" s="70"/>
+      <c r="C555" s="67"/>
+      <c r="D555" s="36">
+        <v>45692</v>
+      </c>
+      <c r="E555" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F555" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="G555" s="18" t="s">
+        <v>502</v>
+      </c>
+      <c r="H555" s="19">
+        <v>0.3923611111111111</v>
+      </c>
+      <c r="I555" s="19">
+        <v>0.39652777777777781</v>
+      </c>
+      <c r="J555" s="67"/>
+      <c r="K555" s="71"/>
+      <c r="L555" s="72"/>
+      <c r="M555" s="67"/>
+      <c r="N555" s="67"/>
+      <c r="O555" s="67"/>
+      <c r="P555" s="67"/>
+      <c r="Q555" s="67"/>
+      <c r="R555" s="67"/>
+      <c r="S555" s="67"/>
+      <c r="T555" s="67"/>
+      <c r="U555" s="67"/>
+      <c r="V555" s="67"/>
+      <c r="W555" s="67"/>
+      <c r="X555" s="67"/>
+      <c r="Y555" s="67"/>
+    </row>
+    <row r="556" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A556" s="69"/>
+      <c r="B556" s="70"/>
+      <c r="C556" s="67"/>
+      <c r="D556" s="36">
+        <v>45692</v>
+      </c>
+      <c r="E556" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F556" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G556" s="18" t="s">
+        <v>503</v>
+      </c>
+      <c r="H556" s="19">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="I556" s="19">
+        <v>0.40625</v>
+      </c>
+      <c r="J556" s="67"/>
+      <c r="K556" s="71"/>
+      <c r="L556" s="72"/>
+      <c r="M556" s="67"/>
+      <c r="N556" s="67"/>
+      <c r="O556" s="67"/>
+      <c r="P556" s="67"/>
+      <c r="Q556" s="67"/>
+      <c r="R556" s="67"/>
+      <c r="S556" s="67"/>
+      <c r="T556" s="67"/>
+      <c r="U556" s="67"/>
+      <c r="V556" s="67"/>
+      <c r="W556" s="67"/>
+      <c r="X556" s="67"/>
+      <c r="Y556" s="67"/>
+    </row>
+    <row r="557" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A557" s="69"/>
+      <c r="B557" s="70"/>
+      <c r="C557" s="67"/>
+      <c r="D557" s="36">
+        <v>45692</v>
+      </c>
+      <c r="E557" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F557" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G557" s="18" t="s">
+        <v>504</v>
+      </c>
+      <c r="H557" s="19">
+        <v>0.49374999999999997</v>
+      </c>
+      <c r="I557" s="19">
+        <v>0.50069444444444444</v>
+      </c>
+      <c r="J557" s="67"/>
+      <c r="K557" s="71"/>
+      <c r="L557" s="72"/>
+      <c r="M557" s="67"/>
+      <c r="N557" s="67"/>
+      <c r="O557" s="67"/>
+      <c r="P557" s="67"/>
+      <c r="Q557" s="67"/>
+      <c r="R557" s="67"/>
+      <c r="S557" s="67"/>
+      <c r="T557" s="67"/>
+      <c r="U557" s="67"/>
+      <c r="V557" s="67"/>
+      <c r="W557" s="67"/>
+      <c r="X557" s="67"/>
+      <c r="Y557" s="67"/>
+    </row>
+    <row r="558" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A558" s="69"/>
+      <c r="B558" s="70"/>
+      <c r="C558" s="67"/>
+      <c r="D558" s="36">
+        <v>45692</v>
+      </c>
+      <c r="E558" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F558" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G558" s="18" t="s">
+        <v>504</v>
+      </c>
+      <c r="H558" s="19">
+        <v>0.52361111111111114</v>
+      </c>
+      <c r="I558" s="19">
+        <v>0.53125</v>
+      </c>
+      <c r="J558" s="67"/>
+      <c r="K558" s="71"/>
+      <c r="L558" s="72"/>
+      <c r="M558" s="67"/>
+      <c r="N558" s="67"/>
+      <c r="O558" s="67"/>
+      <c r="P558" s="67"/>
+      <c r="Q558" s="67"/>
+      <c r="R558" s="67"/>
+      <c r="S558" s="67"/>
+      <c r="T558" s="67"/>
+      <c r="U558" s="67"/>
+      <c r="V558" s="67"/>
+      <c r="W558" s="67"/>
+      <c r="X558" s="67"/>
+      <c r="Y558" s="67"/>
+    </row>
+    <row r="559" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A559" s="69"/>
+      <c r="B559" s="70"/>
+      <c r="C559" s="66"/>
+      <c r="D559" s="24">
+        <v>45693</v>
+      </c>
+      <c r="E559" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F559" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G559" s="15" t="s">
+        <v>505</v>
+      </c>
+      <c r="H559" s="16">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="I559" s="16">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="J559" s="66"/>
+      <c r="K559" s="71"/>
+      <c r="L559" s="72"/>
+      <c r="M559" s="66"/>
+      <c r="N559" s="66"/>
+      <c r="O559" s="66"/>
+      <c r="P559" s="66"/>
+      <c r="Q559" s="66"/>
+      <c r="R559" s="66"/>
+      <c r="S559" s="66"/>
+      <c r="T559" s="66"/>
+      <c r="U559" s="66"/>
+      <c r="V559" s="66"/>
+      <c r="W559" s="66"/>
+      <c r="X559" s="66"/>
+      <c r="Y559" s="66"/>
+    </row>
+    <row r="560" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A560" s="69"/>
+      <c r="B560" s="70"/>
+      <c r="C560" s="67"/>
+      <c r="D560" s="36">
+        <v>45693</v>
+      </c>
+      <c r="E560" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F560" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G560" s="18" t="s">
+        <v>506</v>
+      </c>
+      <c r="H560" s="19">
+        <v>0.41736111111111113</v>
+      </c>
+      <c r="I560" s="19">
+        <v>0.41805555555555557</v>
+      </c>
+      <c r="J560" s="67"/>
+      <c r="K560" s="71"/>
+      <c r="L560" s="72"/>
+      <c r="M560" s="67"/>
+      <c r="N560" s="67"/>
+      <c r="O560" s="67"/>
+      <c r="P560" s="67"/>
+      <c r="Q560" s="67"/>
+      <c r="R560" s="67"/>
+      <c r="S560" s="67"/>
+      <c r="T560" s="67"/>
+      <c r="U560" s="67"/>
+      <c r="V560" s="67"/>
+      <c r="W560" s="67"/>
+      <c r="X560" s="67"/>
+      <c r="Y560" s="67"/>
+    </row>
+    <row r="561" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A561" s="69"/>
+      <c r="B561" s="70"/>
+      <c r="C561" s="67"/>
+      <c r="D561" s="36">
+        <v>45693</v>
+      </c>
+      <c r="E561" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F561" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G561" s="18" t="s">
+        <v>507</v>
+      </c>
+      <c r="H561" s="19">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="I561" s="19">
+        <v>0.46249999999999997</v>
+      </c>
+      <c r="J561" s="67"/>
+      <c r="K561" s="71"/>
+      <c r="L561" s="72"/>
+      <c r="M561" s="67"/>
+      <c r="N561" s="67"/>
+      <c r="O561" s="67"/>
+      <c r="P561" s="67"/>
+      <c r="Q561" s="67"/>
+      <c r="R561" s="67"/>
+      <c r="S561" s="67"/>
+      <c r="T561" s="67"/>
+      <c r="U561" s="67"/>
+      <c r="V561" s="67"/>
+      <c r="W561" s="67"/>
+      <c r="X561" s="67"/>
+      <c r="Y561" s="67"/>
+    </row>
+    <row r="562" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A562" s="69"/>
+      <c r="B562" s="70"/>
+      <c r="C562" s="67"/>
+      <c r="D562" s="36">
+        <v>45693</v>
+      </c>
+      <c r="E562" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F562" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G562" s="18" t="s">
+        <v>508</v>
+      </c>
+      <c r="H562" s="19">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="I562" s="19">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="J562" s="67"/>
+      <c r="K562" s="71"/>
+      <c r="L562" s="72"/>
+      <c r="M562" s="67"/>
+      <c r="N562" s="67"/>
+      <c r="O562" s="67"/>
+      <c r="P562" s="67"/>
+      <c r="Q562" s="67"/>
+      <c r="R562" s="67"/>
+      <c r="S562" s="67"/>
+      <c r="T562" s="67"/>
+      <c r="U562" s="67"/>
+      <c r="V562" s="67"/>
+      <c r="W562" s="67"/>
+      <c r="X562" s="67"/>
+      <c r="Y562" s="67"/>
+    </row>
+    <row r="563" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A563" s="68"/>
+      <c r="B563" s="67"/>
+      <c r="C563" s="67"/>
+      <c r="D563" s="36">
+        <v>45693</v>
+      </c>
+      <c r="E563" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F563" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G563" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="H563" s="19">
+        <v>0.53819444444444442</v>
+      </c>
+      <c r="I563" s="19">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="J563" s="67"/>
+      <c r="K563" s="67"/>
+      <c r="L563" s="67"/>
+      <c r="M563" s="67"/>
+      <c r="N563" s="67"/>
+      <c r="O563" s="67"/>
+      <c r="P563" s="67"/>
+      <c r="Q563" s="67"/>
+      <c r="R563" s="67"/>
+      <c r="S563" s="67"/>
+      <c r="T563" s="67"/>
+      <c r="U563" s="67"/>
+      <c r="V563" s="67"/>
+      <c r="W563" s="67"/>
+      <c r="X563" s="67"/>
+      <c r="Y563" s="67"/>
+    </row>
+    <row r="564" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A564" s="69"/>
+      <c r="B564" s="70"/>
+      <c r="C564" s="67"/>
+      <c r="D564" s="36">
+        <v>45693</v>
+      </c>
+      <c r="E564" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F564" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G564" s="18" t="s">
+        <v>510</v>
+      </c>
+      <c r="H564" s="19">
+        <v>0.54513888888888895</v>
+      </c>
+      <c r="I564" s="19">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="J564" s="67"/>
+      <c r="K564" s="71"/>
+      <c r="L564" s="72"/>
+      <c r="M564" s="67"/>
+      <c r="N564" s="67"/>
+      <c r="O564" s="67"/>
+      <c r="P564" s="67"/>
+      <c r="Q564" s="67"/>
+      <c r="R564" s="67"/>
+      <c r="S564" s="67"/>
+      <c r="T564" s="67"/>
+      <c r="U564" s="67"/>
+      <c r="V564" s="67"/>
+      <c r="W564" s="67"/>
+      <c r="X564" s="67"/>
+      <c r="Y564" s="67"/>
+    </row>
+    <row r="565" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A565" s="69"/>
+      <c r="B565" s="70"/>
+      <c r="C565" s="66"/>
+      <c r="D565" s="24">
+        <v>45693</v>
+      </c>
+      <c r="E565" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F565" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G565" s="15" t="s">
+        <v>511</v>
+      </c>
+      <c r="H565" s="16">
+        <v>0.5625</v>
+      </c>
+      <c r="I565" s="16">
+        <v>0.5708333333333333</v>
+      </c>
+      <c r="J565" s="66"/>
+      <c r="K565" s="71"/>
+      <c r="L565" s="72"/>
+      <c r="M565" s="66"/>
+      <c r="N565" s="66"/>
+      <c r="O565" s="66"/>
+      <c r="P565" s="66"/>
+      <c r="Q565" s="66"/>
+      <c r="R565" s="66"/>
+      <c r="S565" s="66"/>
+      <c r="T565" s="66"/>
+      <c r="U565" s="66"/>
+      <c r="V565" s="66"/>
+      <c r="W565" s="66"/>
+      <c r="X565" s="66"/>
+      <c r="Y565" s="66"/>
+    </row>
+    <row r="566" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A566" s="69"/>
+      <c r="B566" s="70"/>
+      <c r="C566" s="66"/>
+      <c r="D566" s="24">
+        <v>45694</v>
+      </c>
+      <c r="E566" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F566" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="G566" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="H566" s="16">
+        <v>0.33194444444444443</v>
+      </c>
+      <c r="I566" s="16">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J566" s="66"/>
+      <c r="K566" s="71"/>
+      <c r="L566" s="72"/>
+      <c r="M566" s="66"/>
+      <c r="N566" s="66"/>
+      <c r="O566" s="66"/>
+      <c r="P566" s="66"/>
+      <c r="Q566" s="66"/>
+      <c r="R566" s="66"/>
+      <c r="S566" s="66"/>
+      <c r="T566" s="66"/>
+      <c r="U566" s="66"/>
+      <c r="V566" s="66"/>
+      <c r="W566" s="66"/>
+      <c r="X566" s="66"/>
+      <c r="Y566" s="66"/>
+    </row>
+    <row r="567" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A567" s="69"/>
+      <c r="B567" s="70"/>
+      <c r="C567" s="67"/>
+      <c r="D567" s="36">
+        <v>45694</v>
+      </c>
+      <c r="E567" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F567" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G567" s="18" t="s">
+        <v>512</v>
+      </c>
+      <c r="H567" s="19">
+        <v>0.34375</v>
+      </c>
+      <c r="I567" s="19">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="J567" s="67"/>
+      <c r="K567" s="71"/>
+      <c r="L567" s="72"/>
+      <c r="M567" s="67"/>
+      <c r="N567" s="67"/>
+      <c r="O567" s="67"/>
+      <c r="P567" s="67"/>
+      <c r="Q567" s="67"/>
+      <c r="R567" s="67"/>
+      <c r="S567" s="67"/>
+      <c r="T567" s="67"/>
+      <c r="U567" s="67"/>
+      <c r="V567" s="67"/>
+      <c r="W567" s="67"/>
+      <c r="X567" s="67"/>
+      <c r="Y567" s="67"/>
+    </row>
+    <row r="568" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A568" s="69"/>
+      <c r="B568" s="70"/>
+      <c r="C568" s="67"/>
+      <c r="D568" s="36">
+        <v>45694</v>
+      </c>
+      <c r="E568" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F568" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G568" s="18" t="s">
+        <v>513</v>
+      </c>
+      <c r="H568" s="19">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="I568" s="19">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="J568" s="67"/>
+      <c r="K568" s="71"/>
+      <c r="L568" s="72"/>
+      <c r="M568" s="67"/>
+      <c r="N568" s="67"/>
+      <c r="O568" s="67"/>
+      <c r="P568" s="67"/>
+      <c r="Q568" s="67"/>
+      <c r="R568" s="67"/>
+      <c r="S568" s="67"/>
+      <c r="T568" s="67"/>
+      <c r="U568" s="67"/>
+      <c r="V568" s="67"/>
+      <c r="W568" s="67"/>
+      <c r="X568" s="67"/>
+      <c r="Y568" s="67"/>
+    </row>
+    <row r="569" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A569" s="69"/>
+      <c r="B569" s="70"/>
+      <c r="C569" s="67"/>
+      <c r="D569" s="36">
+        <v>45694</v>
+      </c>
+      <c r="E569" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F569" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G569" s="18" t="s">
+        <v>514</v>
+      </c>
+      <c r="H569" s="19">
+        <v>0.37152777777777773</v>
+      </c>
+      <c r="I569" s="19">
+        <v>0.40138888888888885</v>
+      </c>
+      <c r="J569" s="67"/>
+      <c r="K569" s="71"/>
+      <c r="L569" s="72"/>
+      <c r="M569" s="67"/>
+      <c r="N569" s="67"/>
+      <c r="O569" s="67"/>
+      <c r="P569" s="67"/>
+      <c r="Q569" s="67"/>
+      <c r="R569" s="67"/>
+      <c r="S569" s="67"/>
+      <c r="T569" s="67"/>
+      <c r="U569" s="67"/>
+      <c r="V569" s="67"/>
+      <c r="W569" s="67"/>
+      <c r="X569" s="67"/>
+      <c r="Y569" s="67"/>
+    </row>
+    <row r="570" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D570" s="11"/>
       <c r="E570" s="10"/>
       <c r="F570" s="10"/>
@@ -18292,7 +18895,7 @@
       <c r="H570" s="11"/>
       <c r="I570" s="11"/>
     </row>
-    <row r="571" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D571" s="11"/>
       <c r="E571" s="10"/>
       <c r="F571" s="10"/>
@@ -18300,7 +18903,7 @@
       <c r="H571" s="11"/>
       <c r="I571" s="11"/>
     </row>
-    <row r="572" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D572" s="11"/>
       <c r="E572" s="10"/>
       <c r="F572" s="10"/>
@@ -18308,7 +18911,7 @@
       <c r="H572" s="11"/>
       <c r="I572" s="11"/>
     </row>
-    <row r="573" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D573" s="11"/>
       <c r="E573" s="10"/>
       <c r="F573" s="10"/>
@@ -18316,7 +18919,7 @@
       <c r="H573" s="11"/>
       <c r="I573" s="11"/>
     </row>
-    <row r="574" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D574" s="11"/>
       <c r="E574" s="10"/>
       <c r="F574" s="10"/>
@@ -18324,7 +18927,7 @@
       <c r="H574" s="11"/>
       <c r="I574" s="11"/>
     </row>
-    <row r="575" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D575" s="11"/>
       <c r="E575" s="10"/>
       <c r="F575" s="10"/>
@@ -18332,7 +18935,7 @@
       <c r="H575" s="11"/>
       <c r="I575" s="11"/>
     </row>
-    <row r="576" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D576" s="11"/>
       <c r="E576" s="10"/>
       <c r="F576" s="10"/>
@@ -21821,7 +22424,17 @@
       <c r="I1011" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="228">
+  <mergeCells count="262">
+    <mergeCell ref="A564:B564"/>
+    <mergeCell ref="K564:L564"/>
+    <mergeCell ref="A566:B566"/>
+    <mergeCell ref="K566:L566"/>
+    <mergeCell ref="A567:B567"/>
+    <mergeCell ref="K567:L567"/>
+    <mergeCell ref="A568:B568"/>
+    <mergeCell ref="K568:L568"/>
+    <mergeCell ref="A569:B569"/>
+    <mergeCell ref="K569:L569"/>
     <mergeCell ref="A551:B551"/>
     <mergeCell ref="K551:L551"/>
     <mergeCell ref="A530:B530"/>
@@ -21834,6 +22447,18 @@
     <mergeCell ref="K528:L528"/>
     <mergeCell ref="A529:B529"/>
     <mergeCell ref="K529:L529"/>
+    <mergeCell ref="A532:B532"/>
+    <mergeCell ref="K532:L532"/>
+    <mergeCell ref="A534:B534"/>
+    <mergeCell ref="K534:L534"/>
+    <mergeCell ref="A535:B535"/>
+    <mergeCell ref="K535:L535"/>
+    <mergeCell ref="A536:B536"/>
+    <mergeCell ref="K536:L536"/>
+    <mergeCell ref="A537:B537"/>
+    <mergeCell ref="K537:L537"/>
+    <mergeCell ref="A538:B538"/>
+    <mergeCell ref="K538:L538"/>
     <mergeCell ref="A522:B522"/>
     <mergeCell ref="K522:L522"/>
     <mergeCell ref="A523:B523"/>
@@ -22014,18 +22639,6 @@
     <mergeCell ref="K432:L432"/>
     <mergeCell ref="A433:B433"/>
     <mergeCell ref="K433:L433"/>
-    <mergeCell ref="A532:B532"/>
-    <mergeCell ref="K532:L532"/>
-    <mergeCell ref="A534:B534"/>
-    <mergeCell ref="K534:L534"/>
-    <mergeCell ref="A535:B535"/>
-    <mergeCell ref="K535:L535"/>
-    <mergeCell ref="A536:B536"/>
-    <mergeCell ref="K536:L536"/>
-    <mergeCell ref="A537:B537"/>
-    <mergeCell ref="K537:L537"/>
-    <mergeCell ref="A538:B538"/>
-    <mergeCell ref="K538:L538"/>
     <mergeCell ref="A539:B539"/>
     <mergeCell ref="K539:L539"/>
     <mergeCell ref="A540:B540"/>
@@ -22050,15 +22663,39 @@
     <mergeCell ref="K546:L546"/>
     <mergeCell ref="A547:B547"/>
     <mergeCell ref="K547:L547"/>
+    <mergeCell ref="A565:B565"/>
+    <mergeCell ref="K565:L565"/>
+    <mergeCell ref="A557:B557"/>
+    <mergeCell ref="K557:L557"/>
+    <mergeCell ref="A558:B558"/>
+    <mergeCell ref="K558:L558"/>
+    <mergeCell ref="A552:B552"/>
+    <mergeCell ref="K552:L552"/>
+    <mergeCell ref="A553:B553"/>
+    <mergeCell ref="K553:L553"/>
+    <mergeCell ref="A554:B554"/>
+    <mergeCell ref="K554:L554"/>
+    <mergeCell ref="A555:B555"/>
+    <mergeCell ref="K555:L555"/>
+    <mergeCell ref="A556:B556"/>
+    <mergeCell ref="K556:L556"/>
+    <mergeCell ref="A559:B559"/>
+    <mergeCell ref="K559:L559"/>
+    <mergeCell ref="A560:B560"/>
+    <mergeCell ref="K560:L560"/>
+    <mergeCell ref="A561:B561"/>
+    <mergeCell ref="K561:L561"/>
+    <mergeCell ref="A562:B562"/>
+    <mergeCell ref="K562:L562"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E3:E176 E180:E183 E188:E194 E196 E202:E203 E207:E208 E239:E243 E254:E257 E267:E278 E280:E282 E300 E303:E306 E313:E326 E403 E414:E415 E552:E1011">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E3:E176 E180:E183 E188:E194 E196 E202:E203 E207:E208 E239:E243 E254:E257 E267:E278 E280:E282 E300 E303:E306 E313:E326 E403 E414:E415 E570:E1011">
       <formula1>"GABRIEL,UILLIAM"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F32 F40">
       <formula1>"TI,NPJ,LAB,MED,PAV01,EAD,AULA,CORD MED,PROF MED,PROG,ARQ,ATEND,CAP,CORD"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F3:F27 F29:F31 F33:F39 F41:F176 F180:F183 F188:F194 F196 F202:F203 F207:F208 F239:F243 F254:F257 F267:F278 F280:F282 F300 F303:F306 F313:F326 F403 F414:F415 F552:F1011">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F3:F27 F29:F31 F33:F39 F41:F176 F180:F183 F188:F194 F196 F202:F203 F207:F208 F239:F243 F254:F257 F267:F278 F280:F282 F300 F303:F306 F313:F326 F403 F414:F415 F570:F1011">
       <formula1>"TI,NPJ,LAB,MED,PAV01,EAD,AULA,CORD MED,PROF MED,PROG,ARQ,ATEND,CAP,CPA,CORD,BLIB,DIR,FIN,RH"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F28">

--- a/Registro-de-atividades.xlsx
+++ b/Registro-de-atividades.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1711" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1726" uniqueCount="520">
   <si>
     <t>Registro de atividades</t>
   </si>
@@ -1564,6 +1564,21 @@
   </si>
   <si>
     <t>trocando ssd e processador do pc da clinica de odonto</t>
+  </si>
+  <si>
+    <t>Inslatando ssd no pc clinica de odonto</t>
+  </si>
+  <si>
+    <t>Baixando o ventoy para colocar no hd</t>
+  </si>
+  <si>
+    <t>Instalando pc para o mac na antiga sala do rh</t>
+  </si>
+  <si>
+    <t>Criando HD butavel</t>
+  </si>
+  <si>
+    <t>Instalando pc de Cilene na sala de Milena</t>
   </si>
 </sst>
 </file>
@@ -2359,7 +2374,7 @@
   <dimension ref="A1:Y1011"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A551" workbookViewId="0">
-      <selection activeCell="E573" sqref="E573"/>
+      <selection activeCell="D575" sqref="D575"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -18887,45 +18902,200 @@
       <c r="X569" s="67"/>
       <c r="Y569" s="67"/>
     </row>
-    <row r="570" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D570" s="11"/>
-      <c r="E570" s="10"/>
-      <c r="F570" s="10"/>
-      <c r="G570" s="10"/>
-      <c r="H570" s="11"/>
-      <c r="I570" s="11"/>
-    </row>
-    <row r="571" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D571" s="11"/>
-      <c r="E571" s="10"/>
-      <c r="F571" s="10"/>
-      <c r="G571" s="10"/>
-      <c r="H571" s="11"/>
-      <c r="I571" s="11"/>
-    </row>
-    <row r="572" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D572" s="11"/>
-      <c r="E572" s="10"/>
-      <c r="F572" s="10"/>
-      <c r="G572" s="10"/>
-      <c r="H572" s="11"/>
-      <c r="I572" s="11"/>
-    </row>
-    <row r="573" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D573" s="11"/>
-      <c r="E573" s="10"/>
-      <c r="F573" s="10"/>
-      <c r="G573" s="10"/>
-      <c r="H573" s="11"/>
-      <c r="I573" s="11"/>
-    </row>
-    <row r="574" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D574" s="11"/>
-      <c r="E574" s="10"/>
-      <c r="F574" s="10"/>
-      <c r="G574" s="10"/>
-      <c r="H574" s="11"/>
-      <c r="I574" s="11"/>
+    <row r="570" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A570" s="69"/>
+      <c r="B570" s="70"/>
+      <c r="C570" s="66"/>
+      <c r="D570" s="24">
+        <v>45694</v>
+      </c>
+      <c r="E570" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F570" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G570" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="H570" s="16">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="I570" s="16">
+        <v>0.40625</v>
+      </c>
+      <c r="J570" s="66"/>
+      <c r="K570" s="71"/>
+      <c r="L570" s="72"/>
+      <c r="M570" s="66"/>
+      <c r="N570" s="66"/>
+      <c r="O570" s="66"/>
+      <c r="P570" s="66"/>
+      <c r="Q570" s="66"/>
+      <c r="R570" s="66"/>
+      <c r="S570" s="66"/>
+      <c r="T570" s="66"/>
+      <c r="U570" s="66"/>
+      <c r="V570" s="66"/>
+      <c r="W570" s="66"/>
+      <c r="X570" s="66"/>
+      <c r="Y570" s="66"/>
+    </row>
+    <row r="571" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A571" s="68"/>
+      <c r="B571" s="67"/>
+      <c r="C571" s="67"/>
+      <c r="D571" s="36">
+        <v>45694</v>
+      </c>
+      <c r="E571" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F571" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G571" s="18" t="s">
+        <v>516</v>
+      </c>
+      <c r="H571" s="19">
+        <v>0.44930555555555557</v>
+      </c>
+      <c r="I571" s="19">
+        <v>0.46458333333333335</v>
+      </c>
+      <c r="J571" s="67"/>
+      <c r="K571" s="67"/>
+      <c r="L571" s="67"/>
+      <c r="M571" s="67"/>
+      <c r="N571" s="67"/>
+      <c r="O571" s="67"/>
+      <c r="P571" s="67"/>
+      <c r="Q571" s="67"/>
+      <c r="R571" s="67"/>
+      <c r="S571" s="67"/>
+      <c r="T571" s="67"/>
+      <c r="U571" s="67"/>
+      <c r="V571" s="67"/>
+      <c r="W571" s="67"/>
+      <c r="X571" s="67"/>
+      <c r="Y571" s="67"/>
+    </row>
+    <row r="572" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A572" s="69"/>
+      <c r="B572" s="70"/>
+      <c r="C572" s="67"/>
+      <c r="D572" s="36">
+        <v>45694</v>
+      </c>
+      <c r="E572" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F572" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G572" s="18" t="s">
+        <v>517</v>
+      </c>
+      <c r="H572" s="19">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="I572" s="19">
+        <v>0.4770833333333333</v>
+      </c>
+      <c r="J572" s="67"/>
+      <c r="K572" s="71"/>
+      <c r="L572" s="72"/>
+      <c r="M572" s="67"/>
+      <c r="N572" s="67"/>
+      <c r="O572" s="67"/>
+      <c r="P572" s="67"/>
+      <c r="Q572" s="67"/>
+      <c r="R572" s="67"/>
+      <c r="S572" s="67"/>
+      <c r="T572" s="67"/>
+      <c r="U572" s="67"/>
+      <c r="V572" s="67"/>
+      <c r="W572" s="67"/>
+      <c r="X572" s="67"/>
+      <c r="Y572" s="67"/>
+    </row>
+    <row r="573" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A573" s="69"/>
+      <c r="B573" s="70"/>
+      <c r="C573" s="67"/>
+      <c r="D573" s="36">
+        <v>45694</v>
+      </c>
+      <c r="E573" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F573" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G573" s="18" t="s">
+        <v>518</v>
+      </c>
+      <c r="H573" s="19">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="I573" s="19">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="J573" s="67"/>
+      <c r="K573" s="71"/>
+      <c r="L573" s="72"/>
+      <c r="M573" s="67"/>
+      <c r="N573" s="67"/>
+      <c r="O573" s="67"/>
+      <c r="P573" s="67"/>
+      <c r="Q573" s="67"/>
+      <c r="R573" s="67"/>
+      <c r="S573" s="67"/>
+      <c r="T573" s="67"/>
+      <c r="U573" s="67"/>
+      <c r="V573" s="67"/>
+      <c r="W573" s="67"/>
+      <c r="X573" s="67"/>
+      <c r="Y573" s="67"/>
+    </row>
+    <row r="574" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A574" s="69"/>
+      <c r="B574" s="70"/>
+      <c r="C574" s="66"/>
+      <c r="D574" s="24">
+        <v>45694</v>
+      </c>
+      <c r="E574" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F574" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G574" s="15" t="s">
+        <v>519</v>
+      </c>
+      <c r="H574" s="16">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="I574" s="16">
+        <v>0.49652777777777773</v>
+      </c>
+      <c r="J574" s="66"/>
+      <c r="K574" s="71"/>
+      <c r="L574" s="72"/>
+      <c r="M574" s="66"/>
+      <c r="N574" s="66"/>
+      <c r="O574" s="66"/>
+      <c r="P574" s="66"/>
+      <c r="Q574" s="66"/>
+      <c r="R574" s="66"/>
+      <c r="S574" s="66"/>
+      <c r="T574" s="66"/>
+      <c r="U574" s="66"/>
+      <c r="V574" s="66"/>
+      <c r="W574" s="66"/>
+      <c r="X574" s="66"/>
+      <c r="Y574" s="66"/>
     </row>
     <row r="575" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D575" s="11"/>
@@ -22424,17 +22594,11 @@
       <c r="I1011" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="262">
-    <mergeCell ref="A564:B564"/>
-    <mergeCell ref="K564:L564"/>
-    <mergeCell ref="A566:B566"/>
-    <mergeCell ref="K566:L566"/>
-    <mergeCell ref="A567:B567"/>
-    <mergeCell ref="K567:L567"/>
-    <mergeCell ref="A568:B568"/>
-    <mergeCell ref="K568:L568"/>
-    <mergeCell ref="A569:B569"/>
-    <mergeCell ref="K569:L569"/>
+  <mergeCells count="270">
+    <mergeCell ref="A565:B565"/>
+    <mergeCell ref="K565:L565"/>
+    <mergeCell ref="A574:B574"/>
+    <mergeCell ref="K574:L574"/>
     <mergeCell ref="A551:B551"/>
     <mergeCell ref="K551:L551"/>
     <mergeCell ref="A530:B530"/>
@@ -22663,8 +22827,6 @@
     <mergeCell ref="K546:L546"/>
     <mergeCell ref="A547:B547"/>
     <mergeCell ref="K547:L547"/>
-    <mergeCell ref="A565:B565"/>
-    <mergeCell ref="K565:L565"/>
     <mergeCell ref="A557:B557"/>
     <mergeCell ref="K557:L557"/>
     <mergeCell ref="A558:B558"/>
@@ -22679,6 +22841,10 @@
     <mergeCell ref="K555:L555"/>
     <mergeCell ref="A556:B556"/>
     <mergeCell ref="K556:L556"/>
+    <mergeCell ref="A572:B572"/>
+    <mergeCell ref="K572:L572"/>
+    <mergeCell ref="A573:B573"/>
+    <mergeCell ref="K573:L573"/>
     <mergeCell ref="A559:B559"/>
     <mergeCell ref="K559:L559"/>
     <mergeCell ref="A560:B560"/>
@@ -22687,15 +22853,27 @@
     <mergeCell ref="K561:L561"/>
     <mergeCell ref="A562:B562"/>
     <mergeCell ref="K562:L562"/>
+    <mergeCell ref="A570:B570"/>
+    <mergeCell ref="K570:L570"/>
+    <mergeCell ref="A564:B564"/>
+    <mergeCell ref="K564:L564"/>
+    <mergeCell ref="A566:B566"/>
+    <mergeCell ref="K566:L566"/>
+    <mergeCell ref="A567:B567"/>
+    <mergeCell ref="K567:L567"/>
+    <mergeCell ref="A568:B568"/>
+    <mergeCell ref="K568:L568"/>
+    <mergeCell ref="A569:B569"/>
+    <mergeCell ref="K569:L569"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E3:E176 E180:E183 E188:E194 E196 E202:E203 E207:E208 E239:E243 E254:E257 E267:E278 E280:E282 E300 E303:E306 E313:E326 E403 E414:E415 E570:E1011">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E3:E176 E180:E183 E188:E194 E196 E202:E203 E207:E208 E239:E243 E254:E257 E267:E278 E280:E282 E300 E303:E306 E313:E326 E403 E414:E415 E575:E1011">
       <formula1>"GABRIEL,UILLIAM"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F32 F40">
       <formula1>"TI,NPJ,LAB,MED,PAV01,EAD,AULA,CORD MED,PROF MED,PROG,ARQ,ATEND,CAP,CORD"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F3:F27 F29:F31 F33:F39 F41:F176 F180:F183 F188:F194 F196 F202:F203 F207:F208 F239:F243 F254:F257 F267:F278 F280:F282 F300 F303:F306 F313:F326 F403 F414:F415 F570:F1011">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F3:F27 F29:F31 F33:F39 F41:F176 F180:F183 F188:F194 F196 F202:F203 F207:F208 F239:F243 F254:F257 F267:F278 F280:F282 F300 F303:F306 F313:F326 F403 F414:F415 F575:F1011">
       <formula1>"TI,NPJ,LAB,MED,PAV01,EAD,AULA,CORD MED,PROF MED,PROG,ARQ,ATEND,CAP,CPA,CORD,BLIB,DIR,FIN,RH"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F28">

--- a/Registro-de-atividades.xlsx
+++ b/Registro-de-atividades.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1726" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1759" uniqueCount="531">
   <si>
     <t>Registro de atividades</t>
   </si>
@@ -1579,6 +1579,39 @@
   </si>
   <si>
     <t>Instalando pc de Cilene na sala de Milena</t>
+  </si>
+  <si>
+    <t>Testando pc da clinca de odonto com os equipamentos do proprio</t>
+  </si>
+  <si>
+    <t>Instalando pc na clinica de odonto</t>
+  </si>
+  <si>
+    <t>Verificando rede wi-fi do pc sala 08 pav 2</t>
+  </si>
+  <si>
+    <t>Realizando orçamento de mose e teclado</t>
+  </si>
+  <si>
+    <t>cadastrando saida de ssd e hd no app de estoque</t>
+  </si>
+  <si>
+    <t>Formatando computador dell sala dos provessores de ti</t>
+  </si>
+  <si>
+    <t>Colocando computador de Cilene no local de origem</t>
+  </si>
+  <si>
+    <t>retirando processadores de computadores dell sem uso</t>
+  </si>
+  <si>
+    <t>embalando caixas de equipamentos sem uso e guardando no deposito</t>
+  </si>
+  <si>
+    <t>Ligando todos os computadores dos dois laboratorios para visita do mac</t>
+  </si>
+  <si>
+    <t>Acompanhando visita do mac lab 1</t>
   </si>
 </sst>
 </file>
@@ -2373,8 +2406,8 @@
   </sheetPr>
   <dimension ref="A1:Y1011"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A551" workbookViewId="0">
-      <selection activeCell="D575" sqref="D575"/>
+    <sheetView tabSelected="1" topLeftCell="A566" workbookViewId="0">
+      <selection activeCell="A585" sqref="A585:Y585"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -19097,95 +19130,436 @@
       <c r="X574" s="66"/>
       <c r="Y574" s="66"/>
     </row>
-    <row r="575" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D575" s="11"/>
-      <c r="E575" s="10"/>
-      <c r="F575" s="10"/>
-      <c r="G575" s="10"/>
-      <c r="H575" s="11"/>
-      <c r="I575" s="11"/>
-    </row>
-    <row r="576" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D576" s="11"/>
-      <c r="E576" s="10"/>
-      <c r="F576" s="10"/>
-      <c r="G576" s="10"/>
-      <c r="H576" s="11"/>
-      <c r="I576" s="11"/>
-    </row>
-    <row r="577" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D577" s="11"/>
-      <c r="E577" s="10"/>
-      <c r="F577" s="10"/>
-      <c r="G577" s="10"/>
-      <c r="H577" s="11"/>
-      <c r="I577" s="11"/>
-    </row>
-    <row r="578" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D578" s="11"/>
-      <c r="E578" s="10"/>
-      <c r="F578" s="10"/>
-      <c r="G578" s="10"/>
-      <c r="H578" s="11"/>
-      <c r="I578" s="11"/>
-    </row>
-    <row r="579" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D579" s="11"/>
-      <c r="E579" s="10"/>
-      <c r="F579" s="10"/>
-      <c r="G579" s="10"/>
-      <c r="H579" s="11"/>
-      <c r="I579" s="11"/>
-    </row>
-    <row r="580" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D580" s="11"/>
-      <c r="E580" s="10"/>
-      <c r="F580" s="10"/>
-      <c r="G580" s="10"/>
-      <c r="H580" s="11"/>
-      <c r="I580" s="11"/>
-    </row>
-    <row r="581" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D581" s="11"/>
-      <c r="E581" s="10"/>
-      <c r="F581" s="10"/>
-      <c r="G581" s="10"/>
-      <c r="H581" s="11"/>
-      <c r="I581" s="11"/>
-    </row>
-    <row r="582" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D582" s="11"/>
-      <c r="E582" s="10"/>
-      <c r="F582" s="10"/>
-      <c r="G582" s="10"/>
-      <c r="H582" s="11"/>
-      <c r="I582" s="11"/>
-    </row>
-    <row r="583" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D583" s="11"/>
-      <c r="E583" s="10"/>
-      <c r="F583" s="10"/>
-      <c r="G583" s="10"/>
-      <c r="H583" s="11"/>
-      <c r="I583" s="11"/>
-    </row>
-    <row r="584" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D584" s="11"/>
-      <c r="E584" s="10"/>
-      <c r="F584" s="10"/>
-      <c r="G584" s="10"/>
-      <c r="H584" s="11"/>
-      <c r="I584" s="11"/>
-    </row>
-    <row r="585" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D585" s="11"/>
-      <c r="E585" s="10"/>
-      <c r="F585" s="10"/>
-      <c r="G585" s="10"/>
-      <c r="H585" s="11"/>
-      <c r="I585" s="11"/>
-    </row>
-    <row r="586" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A575" s="69"/>
+      <c r="B575" s="70"/>
+      <c r="C575" s="66"/>
+      <c r="D575" s="24">
+        <v>45695</v>
+      </c>
+      <c r="E575" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F575" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G575" s="15" t="s">
+        <v>520</v>
+      </c>
+      <c r="H575" s="16">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="I575" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="J575" s="66"/>
+      <c r="K575" s="71"/>
+      <c r="L575" s="72"/>
+      <c r="M575" s="66"/>
+      <c r="N575" s="66"/>
+      <c r="O575" s="66"/>
+      <c r="P575" s="66"/>
+      <c r="Q575" s="66"/>
+      <c r="R575" s="66"/>
+      <c r="S575" s="66"/>
+      <c r="T575" s="66"/>
+      <c r="U575" s="66"/>
+      <c r="V575" s="66"/>
+      <c r="W575" s="66"/>
+      <c r="X575" s="66"/>
+      <c r="Y575" s="66"/>
+    </row>
+    <row r="576" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A576" s="69"/>
+      <c r="B576" s="70"/>
+      <c r="C576" s="67"/>
+      <c r="D576" s="36">
+        <v>45695</v>
+      </c>
+      <c r="E576" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F576" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="G576" s="18" t="s">
+        <v>521</v>
+      </c>
+      <c r="H576" s="19">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="I576" s="19">
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="J576" s="67"/>
+      <c r="K576" s="71"/>
+      <c r="L576" s="72"/>
+      <c r="M576" s="67"/>
+      <c r="N576" s="67"/>
+      <c r="O576" s="67"/>
+      <c r="P576" s="67"/>
+      <c r="Q576" s="67"/>
+      <c r="R576" s="67"/>
+      <c r="S576" s="67"/>
+      <c r="T576" s="67"/>
+      <c r="U576" s="67"/>
+      <c r="V576" s="67"/>
+      <c r="W576" s="67"/>
+      <c r="X576" s="67"/>
+      <c r="Y576" s="67"/>
+    </row>
+    <row r="577" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A577" s="69"/>
+      <c r="B577" s="70"/>
+      <c r="C577" s="67"/>
+      <c r="D577" s="36">
+        <v>45695</v>
+      </c>
+      <c r="E577" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F577" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G577" s="18" t="s">
+        <v>522</v>
+      </c>
+      <c r="H577" s="19">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="I577" s="19">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="J577" s="67"/>
+      <c r="K577" s="71"/>
+      <c r="L577" s="72"/>
+      <c r="M577" s="67"/>
+      <c r="N577" s="67"/>
+      <c r="O577" s="67"/>
+      <c r="P577" s="67"/>
+      <c r="Q577" s="67"/>
+      <c r="R577" s="67"/>
+      <c r="S577" s="67"/>
+      <c r="T577" s="67"/>
+      <c r="U577" s="67"/>
+      <c r="V577" s="67"/>
+      <c r="W577" s="67"/>
+      <c r="X577" s="67"/>
+      <c r="Y577" s="67"/>
+    </row>
+    <row r="578" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A578" s="69"/>
+      <c r="B578" s="70"/>
+      <c r="C578" s="67"/>
+      <c r="D578" s="36">
+        <v>45695</v>
+      </c>
+      <c r="E578" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F578" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G578" s="18" t="s">
+        <v>523</v>
+      </c>
+      <c r="H578" s="19">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="I578" s="19">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="J578" s="67"/>
+      <c r="K578" s="71"/>
+      <c r="L578" s="72"/>
+      <c r="M578" s="67"/>
+      <c r="N578" s="67"/>
+      <c r="O578" s="67"/>
+      <c r="P578" s="67"/>
+      <c r="Q578" s="67"/>
+      <c r="R578" s="67"/>
+      <c r="S578" s="67"/>
+      <c r="T578" s="67"/>
+      <c r="U578" s="67"/>
+      <c r="V578" s="67"/>
+      <c r="W578" s="67"/>
+      <c r="X578" s="67"/>
+      <c r="Y578" s="67"/>
+    </row>
+    <row r="579" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A579" s="69"/>
+      <c r="B579" s="70"/>
+      <c r="C579" s="67"/>
+      <c r="D579" s="36">
+        <v>45695</v>
+      </c>
+      <c r="E579" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F579" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G579" s="18" t="s">
+        <v>524</v>
+      </c>
+      <c r="H579" s="19">
+        <v>0.46875</v>
+      </c>
+      <c r="I579" s="19">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="J579" s="67"/>
+      <c r="K579" s="71"/>
+      <c r="L579" s="72"/>
+      <c r="M579" s="67"/>
+      <c r="N579" s="67"/>
+      <c r="O579" s="67"/>
+      <c r="P579" s="67"/>
+      <c r="Q579" s="67"/>
+      <c r="R579" s="67"/>
+      <c r="S579" s="67"/>
+      <c r="T579" s="67"/>
+      <c r="U579" s="67"/>
+      <c r="V579" s="67"/>
+      <c r="W579" s="67"/>
+      <c r="X579" s="67"/>
+      <c r="Y579" s="67"/>
+    </row>
+    <row r="580" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A580" s="69"/>
+      <c r="B580" s="70"/>
+      <c r="C580" s="67"/>
+      <c r="D580" s="36">
+        <v>45695</v>
+      </c>
+      <c r="E580" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F580" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G580" s="18" t="s">
+        <v>525</v>
+      </c>
+      <c r="H580" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="I580" s="19">
+        <v>0.5625</v>
+      </c>
+      <c r="J580" s="67"/>
+      <c r="K580" s="71"/>
+      <c r="L580" s="72"/>
+      <c r="M580" s="67"/>
+      <c r="N580" s="67"/>
+      <c r="O580" s="67"/>
+      <c r="P580" s="67"/>
+      <c r="Q580" s="67"/>
+      <c r="R580" s="67"/>
+      <c r="S580" s="67"/>
+      <c r="T580" s="67"/>
+      <c r="U580" s="67"/>
+      <c r="V580" s="67"/>
+      <c r="W580" s="67"/>
+      <c r="X580" s="67"/>
+      <c r="Y580" s="67"/>
+    </row>
+    <row r="581" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A581" s="69"/>
+      <c r="B581" s="70"/>
+      <c r="C581" s="67"/>
+      <c r="D581" s="36">
+        <v>45698</v>
+      </c>
+      <c r="E581" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F581" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G581" s="18" t="s">
+        <v>526</v>
+      </c>
+      <c r="H581" s="19">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="I581" s="19">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="J581" s="67"/>
+      <c r="K581" s="71"/>
+      <c r="L581" s="72"/>
+      <c r="M581" s="67"/>
+      <c r="N581" s="67"/>
+      <c r="O581" s="67"/>
+      <c r="P581" s="67"/>
+      <c r="Q581" s="67"/>
+      <c r="R581" s="67"/>
+      <c r="S581" s="67"/>
+      <c r="T581" s="67"/>
+      <c r="U581" s="67"/>
+      <c r="V581" s="67"/>
+      <c r="W581" s="67"/>
+      <c r="X581" s="67"/>
+      <c r="Y581" s="67"/>
+    </row>
+    <row r="582" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A582" s="69"/>
+      <c r="B582" s="70"/>
+      <c r="C582" s="67"/>
+      <c r="D582" s="36">
+        <v>45698</v>
+      </c>
+      <c r="E582" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F582" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G582" s="18" t="s">
+        <v>527</v>
+      </c>
+      <c r="H582" s="19">
+        <v>0.375</v>
+      </c>
+      <c r="I582" s="19">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="J582" s="67"/>
+      <c r="K582" s="71"/>
+      <c r="L582" s="72"/>
+      <c r="M582" s="67"/>
+      <c r="N582" s="67"/>
+      <c r="O582" s="67"/>
+      <c r="P582" s="67"/>
+      <c r="Q582" s="67"/>
+      <c r="R582" s="67"/>
+      <c r="S582" s="67"/>
+      <c r="T582" s="67"/>
+      <c r="U582" s="67"/>
+      <c r="V582" s="67"/>
+      <c r="W582" s="67"/>
+      <c r="X582" s="67"/>
+      <c r="Y582" s="67"/>
+    </row>
+    <row r="583" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A583" s="69"/>
+      <c r="B583" s="70"/>
+      <c r="C583" s="67"/>
+      <c r="D583" s="36">
+        <v>45698</v>
+      </c>
+      <c r="E583" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F583" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G583" s="18" t="s">
+        <v>528</v>
+      </c>
+      <c r="H583" s="19">
+        <v>0.41736111111111113</v>
+      </c>
+      <c r="I583" s="19">
+        <v>0.48402777777777778</v>
+      </c>
+      <c r="J583" s="67"/>
+      <c r="K583" s="71"/>
+      <c r="L583" s="72"/>
+      <c r="M583" s="67"/>
+      <c r="N583" s="67"/>
+      <c r="O583" s="67"/>
+      <c r="P583" s="67"/>
+      <c r="Q583" s="67"/>
+      <c r="R583" s="67"/>
+      <c r="S583" s="67"/>
+      <c r="T583" s="67"/>
+      <c r="U583" s="67"/>
+      <c r="V583" s="67"/>
+      <c r="W583" s="67"/>
+      <c r="X583" s="67"/>
+      <c r="Y583" s="67"/>
+    </row>
+    <row r="584" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A584" s="69"/>
+      <c r="B584" s="70"/>
+      <c r="C584" s="66"/>
+      <c r="D584" s="24">
+        <v>45698</v>
+      </c>
+      <c r="E584" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F584" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G584" s="15" t="s">
+        <v>529</v>
+      </c>
+      <c r="H584" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="I584" s="16">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="J584" s="66"/>
+      <c r="K584" s="71"/>
+      <c r="L584" s="72"/>
+      <c r="M584" s="66"/>
+      <c r="N584" s="66"/>
+      <c r="O584" s="66"/>
+      <c r="P584" s="66"/>
+      <c r="Q584" s="66"/>
+      <c r="R584" s="66"/>
+      <c r="S584" s="66"/>
+      <c r="T584" s="66"/>
+      <c r="U584" s="66"/>
+      <c r="V584" s="66"/>
+      <c r="W584" s="66"/>
+      <c r="X584" s="66"/>
+      <c r="Y584" s="66"/>
+    </row>
+    <row r="585" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A585" s="69"/>
+      <c r="B585" s="70"/>
+      <c r="C585" s="66"/>
+      <c r="D585" s="24">
+        <v>45698</v>
+      </c>
+      <c r="E585" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F585" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G585" s="15" t="s">
+        <v>530</v>
+      </c>
+      <c r="H585" s="16">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="I585" s="16">
+        <v>0.58680555555555558</v>
+      </c>
+      <c r="J585" s="66"/>
+      <c r="K585" s="71"/>
+      <c r="L585" s="72"/>
+      <c r="M585" s="66"/>
+      <c r="N585" s="66"/>
+      <c r="O585" s="66"/>
+      <c r="P585" s="66"/>
+      <c r="Q585" s="66"/>
+      <c r="R585" s="66"/>
+      <c r="S585" s="66"/>
+      <c r="T585" s="66"/>
+      <c r="U585" s="66"/>
+      <c r="V585" s="66"/>
+      <c r="W585" s="66"/>
+      <c r="X585" s="66"/>
+      <c r="Y585" s="66"/>
+    </row>
+    <row r="586" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D586" s="11"/>
       <c r="E586" s="10"/>
       <c r="F586" s="10"/>
@@ -19193,7 +19567,7 @@
       <c r="H586" s="11"/>
       <c r="I586" s="11"/>
     </row>
-    <row r="587" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D587" s="11"/>
       <c r="E587" s="10"/>
       <c r="F587" s="10"/>
@@ -19201,7 +19575,7 @@
       <c r="H587" s="11"/>
       <c r="I587" s="11"/>
     </row>
-    <row r="588" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D588" s="11"/>
       <c r="E588" s="10"/>
       <c r="F588" s="10"/>
@@ -19209,7 +19583,7 @@
       <c r="H588" s="11"/>
       <c r="I588" s="11"/>
     </row>
-    <row r="589" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D589" s="11"/>
       <c r="E589" s="10"/>
       <c r="F589" s="10"/>
@@ -19217,7 +19591,7 @@
       <c r="H589" s="11"/>
       <c r="I589" s="11"/>
     </row>
-    <row r="590" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D590" s="11"/>
       <c r="E590" s="10"/>
       <c r="F590" s="10"/>
@@ -19225,7 +19599,7 @@
       <c r="H590" s="11"/>
       <c r="I590" s="11"/>
     </row>
-    <row r="591" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D591" s="11"/>
       <c r="E591" s="10"/>
       <c r="F591" s="10"/>
@@ -19233,7 +19607,7 @@
       <c r="H591" s="11"/>
       <c r="I591" s="11"/>
     </row>
-    <row r="592" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D592" s="11"/>
       <c r="E592" s="10"/>
       <c r="F592" s="10"/>
@@ -22594,253 +22968,27 @@
       <c r="I1011" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="270">
-    <mergeCell ref="A565:B565"/>
-    <mergeCell ref="K565:L565"/>
-    <mergeCell ref="A574:B574"/>
-    <mergeCell ref="K574:L574"/>
-    <mergeCell ref="A551:B551"/>
-    <mergeCell ref="K551:L551"/>
-    <mergeCell ref="A530:B530"/>
-    <mergeCell ref="K530:L530"/>
-    <mergeCell ref="A531:B531"/>
-    <mergeCell ref="K531:L531"/>
-    <mergeCell ref="A525:B525"/>
-    <mergeCell ref="K525:L525"/>
-    <mergeCell ref="A528:B528"/>
-    <mergeCell ref="K528:L528"/>
-    <mergeCell ref="A529:B529"/>
-    <mergeCell ref="K529:L529"/>
-    <mergeCell ref="A532:B532"/>
-    <mergeCell ref="K532:L532"/>
-    <mergeCell ref="A534:B534"/>
-    <mergeCell ref="K534:L534"/>
-    <mergeCell ref="A535:B535"/>
-    <mergeCell ref="K535:L535"/>
-    <mergeCell ref="A536:B536"/>
-    <mergeCell ref="K536:L536"/>
-    <mergeCell ref="A537:B537"/>
-    <mergeCell ref="K537:L537"/>
-    <mergeCell ref="A538:B538"/>
-    <mergeCell ref="K538:L538"/>
-    <mergeCell ref="A522:B522"/>
-    <mergeCell ref="K522:L522"/>
-    <mergeCell ref="A523:B523"/>
-    <mergeCell ref="K523:L523"/>
-    <mergeCell ref="A524:B524"/>
-    <mergeCell ref="K524:L524"/>
-    <mergeCell ref="A519:B519"/>
-    <mergeCell ref="K519:L519"/>
-    <mergeCell ref="A520:B520"/>
-    <mergeCell ref="K520:L520"/>
-    <mergeCell ref="A521:B521"/>
-    <mergeCell ref="K521:L521"/>
-    <mergeCell ref="A516:B516"/>
-    <mergeCell ref="K516:L516"/>
-    <mergeCell ref="A517:B517"/>
-    <mergeCell ref="K517:L517"/>
-    <mergeCell ref="A518:B518"/>
-    <mergeCell ref="K518:L518"/>
-    <mergeCell ref="A513:B513"/>
-    <mergeCell ref="K513:L513"/>
-    <mergeCell ref="A514:B514"/>
-    <mergeCell ref="K514:L514"/>
-    <mergeCell ref="A515:B515"/>
-    <mergeCell ref="K515:L515"/>
-    <mergeCell ref="A510:B510"/>
-    <mergeCell ref="K510:L510"/>
-    <mergeCell ref="A511:B511"/>
-    <mergeCell ref="K511:L511"/>
-    <mergeCell ref="A512:B512"/>
-    <mergeCell ref="K512:L512"/>
-    <mergeCell ref="A507:B507"/>
-    <mergeCell ref="K507:L507"/>
-    <mergeCell ref="A508:B508"/>
-    <mergeCell ref="K508:L508"/>
-    <mergeCell ref="A509:B509"/>
-    <mergeCell ref="K509:L509"/>
-    <mergeCell ref="A504:B504"/>
-    <mergeCell ref="K504:L504"/>
-    <mergeCell ref="A505:B505"/>
-    <mergeCell ref="K505:L505"/>
-    <mergeCell ref="A506:B506"/>
-    <mergeCell ref="K506:L506"/>
-    <mergeCell ref="A500:B500"/>
-    <mergeCell ref="K500:L500"/>
-    <mergeCell ref="A501:B501"/>
-    <mergeCell ref="K501:L501"/>
-    <mergeCell ref="A503:B503"/>
-    <mergeCell ref="K503:L503"/>
-    <mergeCell ref="A497:B497"/>
-    <mergeCell ref="K497:L497"/>
-    <mergeCell ref="A498:B498"/>
-    <mergeCell ref="K498:L498"/>
-    <mergeCell ref="A499:B499"/>
-    <mergeCell ref="K499:L499"/>
-    <mergeCell ref="A494:B494"/>
-    <mergeCell ref="K494:L494"/>
-    <mergeCell ref="A495:B495"/>
-    <mergeCell ref="K495:L495"/>
-    <mergeCell ref="A496:B496"/>
-    <mergeCell ref="K496:L496"/>
-    <mergeCell ref="A491:B491"/>
-    <mergeCell ref="K491:L491"/>
-    <mergeCell ref="A492:B492"/>
-    <mergeCell ref="K492:L492"/>
-    <mergeCell ref="A493:B493"/>
-    <mergeCell ref="K493:L493"/>
-    <mergeCell ref="A488:B488"/>
-    <mergeCell ref="K488:L488"/>
-    <mergeCell ref="A489:B489"/>
-    <mergeCell ref="K489:L489"/>
-    <mergeCell ref="A490:B490"/>
-    <mergeCell ref="K490:L490"/>
-    <mergeCell ref="A485:B485"/>
-    <mergeCell ref="K485:L485"/>
-    <mergeCell ref="A486:B486"/>
-    <mergeCell ref="K486:L486"/>
-    <mergeCell ref="A487:B487"/>
-    <mergeCell ref="K487:L487"/>
-    <mergeCell ref="A482:B482"/>
-    <mergeCell ref="K482:L482"/>
-    <mergeCell ref="A483:B483"/>
-    <mergeCell ref="K483:L483"/>
-    <mergeCell ref="A484:B484"/>
-    <mergeCell ref="K484:L484"/>
-    <mergeCell ref="A479:B479"/>
-    <mergeCell ref="K479:L479"/>
-    <mergeCell ref="A480:B480"/>
-    <mergeCell ref="K480:L480"/>
-    <mergeCell ref="A481:B481"/>
-    <mergeCell ref="K481:L481"/>
-    <mergeCell ref="A476:B476"/>
-    <mergeCell ref="K476:L476"/>
-    <mergeCell ref="A477:B477"/>
-    <mergeCell ref="K477:L477"/>
-    <mergeCell ref="A478:B478"/>
-    <mergeCell ref="K478:L478"/>
-    <mergeCell ref="A473:B473"/>
-    <mergeCell ref="K473:L473"/>
-    <mergeCell ref="A474:B474"/>
-    <mergeCell ref="K474:L474"/>
-    <mergeCell ref="A475:B475"/>
-    <mergeCell ref="K475:L475"/>
-    <mergeCell ref="A470:B470"/>
-    <mergeCell ref="K470:L470"/>
-    <mergeCell ref="A471:B471"/>
-    <mergeCell ref="K471:L471"/>
-    <mergeCell ref="A472:B472"/>
-    <mergeCell ref="K472:L472"/>
-    <mergeCell ref="A467:B467"/>
-    <mergeCell ref="K467:L467"/>
-    <mergeCell ref="A468:B468"/>
-    <mergeCell ref="K468:L468"/>
-    <mergeCell ref="A469:B469"/>
-    <mergeCell ref="K469:L469"/>
-    <mergeCell ref="A464:B464"/>
-    <mergeCell ref="K464:L464"/>
-    <mergeCell ref="A465:B465"/>
-    <mergeCell ref="K465:L465"/>
-    <mergeCell ref="A466:B466"/>
-    <mergeCell ref="K466:L466"/>
-    <mergeCell ref="A461:B461"/>
-    <mergeCell ref="K461:L461"/>
-    <mergeCell ref="A462:B462"/>
-    <mergeCell ref="K462:L462"/>
-    <mergeCell ref="A463:B463"/>
-    <mergeCell ref="K463:L463"/>
-    <mergeCell ref="A457:B457"/>
-    <mergeCell ref="K457:L457"/>
-    <mergeCell ref="A459:B459"/>
-    <mergeCell ref="K459:L459"/>
-    <mergeCell ref="A460:B460"/>
-    <mergeCell ref="K460:L460"/>
-    <mergeCell ref="A454:B454"/>
-    <mergeCell ref="K454:L454"/>
-    <mergeCell ref="A455:B455"/>
-    <mergeCell ref="K455:L455"/>
-    <mergeCell ref="A456:B456"/>
-    <mergeCell ref="K456:L456"/>
-    <mergeCell ref="A451:B451"/>
-    <mergeCell ref="K451:L451"/>
-    <mergeCell ref="A452:B452"/>
-    <mergeCell ref="K452:L452"/>
-    <mergeCell ref="A453:B453"/>
-    <mergeCell ref="K453:L453"/>
-    <mergeCell ref="A446:B446"/>
-    <mergeCell ref="K446:L446"/>
-    <mergeCell ref="A447:B447"/>
-    <mergeCell ref="K447:L447"/>
-    <mergeCell ref="A448:B448"/>
-    <mergeCell ref="K448:L448"/>
-    <mergeCell ref="A443:B443"/>
-    <mergeCell ref="K443:L443"/>
-    <mergeCell ref="A444:B444"/>
-    <mergeCell ref="K444:L444"/>
-    <mergeCell ref="A445:B445"/>
-    <mergeCell ref="K445:L445"/>
-    <mergeCell ref="A440:B440"/>
-    <mergeCell ref="K440:L440"/>
-    <mergeCell ref="A441:B441"/>
-    <mergeCell ref="K441:L441"/>
-    <mergeCell ref="A442:B442"/>
-    <mergeCell ref="K442:L442"/>
-    <mergeCell ref="A437:B437"/>
-    <mergeCell ref="K437:L437"/>
-    <mergeCell ref="A438:B438"/>
-    <mergeCell ref="K438:L438"/>
-    <mergeCell ref="A439:B439"/>
-    <mergeCell ref="K439:L439"/>
-    <mergeCell ref="A434:B434"/>
-    <mergeCell ref="K434:L434"/>
-    <mergeCell ref="A435:B435"/>
-    <mergeCell ref="K435:L435"/>
-    <mergeCell ref="A436:B436"/>
-    <mergeCell ref="K436:L436"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="A432:B432"/>
-    <mergeCell ref="K432:L432"/>
-    <mergeCell ref="A433:B433"/>
-    <mergeCell ref="K433:L433"/>
-    <mergeCell ref="A539:B539"/>
-    <mergeCell ref="K539:L539"/>
-    <mergeCell ref="A540:B540"/>
-    <mergeCell ref="K540:L540"/>
-    <mergeCell ref="A541:B541"/>
-    <mergeCell ref="K541:L541"/>
-    <mergeCell ref="A542:B542"/>
-    <mergeCell ref="K542:L542"/>
-    <mergeCell ref="A548:B548"/>
-    <mergeCell ref="K548:L548"/>
-    <mergeCell ref="A549:B549"/>
-    <mergeCell ref="K549:L549"/>
-    <mergeCell ref="A550:B550"/>
-    <mergeCell ref="K550:L550"/>
-    <mergeCell ref="A543:B543"/>
-    <mergeCell ref="K543:L543"/>
-    <mergeCell ref="A544:B544"/>
-    <mergeCell ref="K544:L544"/>
-    <mergeCell ref="A545:B545"/>
-    <mergeCell ref="K545:L545"/>
-    <mergeCell ref="A546:B546"/>
-    <mergeCell ref="K546:L546"/>
-    <mergeCell ref="A547:B547"/>
-    <mergeCell ref="K547:L547"/>
-    <mergeCell ref="A557:B557"/>
-    <mergeCell ref="K557:L557"/>
-    <mergeCell ref="A558:B558"/>
-    <mergeCell ref="K558:L558"/>
-    <mergeCell ref="A552:B552"/>
-    <mergeCell ref="K552:L552"/>
-    <mergeCell ref="A553:B553"/>
-    <mergeCell ref="K553:L553"/>
-    <mergeCell ref="A554:B554"/>
-    <mergeCell ref="K554:L554"/>
-    <mergeCell ref="A555:B555"/>
-    <mergeCell ref="K555:L555"/>
-    <mergeCell ref="A556:B556"/>
-    <mergeCell ref="K556:L556"/>
+  <mergeCells count="292">
+    <mergeCell ref="A585:B585"/>
+    <mergeCell ref="K585:L585"/>
+    <mergeCell ref="A580:B580"/>
+    <mergeCell ref="K580:L580"/>
+    <mergeCell ref="A581:B581"/>
+    <mergeCell ref="K581:L581"/>
+    <mergeCell ref="A582:B582"/>
+    <mergeCell ref="K582:L582"/>
+    <mergeCell ref="A583:B583"/>
+    <mergeCell ref="K583:L583"/>
+    <mergeCell ref="A575:B575"/>
+    <mergeCell ref="K575:L575"/>
+    <mergeCell ref="A576:B576"/>
+    <mergeCell ref="K576:L576"/>
+    <mergeCell ref="A577:B577"/>
+    <mergeCell ref="K577:L577"/>
+    <mergeCell ref="A578:B578"/>
+    <mergeCell ref="K578:L578"/>
+    <mergeCell ref="A579:B579"/>
+    <mergeCell ref="K579:L579"/>
     <mergeCell ref="A572:B572"/>
     <mergeCell ref="K572:L572"/>
     <mergeCell ref="A573:B573"/>
@@ -22865,15 +23013,263 @@
     <mergeCell ref="K568:L568"/>
     <mergeCell ref="A569:B569"/>
     <mergeCell ref="K569:L569"/>
+    <mergeCell ref="A557:B557"/>
+    <mergeCell ref="K557:L557"/>
+    <mergeCell ref="A558:B558"/>
+    <mergeCell ref="K558:L558"/>
+    <mergeCell ref="A552:B552"/>
+    <mergeCell ref="K552:L552"/>
+    <mergeCell ref="A553:B553"/>
+    <mergeCell ref="K553:L553"/>
+    <mergeCell ref="A554:B554"/>
+    <mergeCell ref="K554:L554"/>
+    <mergeCell ref="A555:B555"/>
+    <mergeCell ref="K555:L555"/>
+    <mergeCell ref="A556:B556"/>
+    <mergeCell ref="K556:L556"/>
+    <mergeCell ref="A542:B542"/>
+    <mergeCell ref="K542:L542"/>
+    <mergeCell ref="A548:B548"/>
+    <mergeCell ref="K548:L548"/>
+    <mergeCell ref="A549:B549"/>
+    <mergeCell ref="K549:L549"/>
+    <mergeCell ref="A550:B550"/>
+    <mergeCell ref="K550:L550"/>
+    <mergeCell ref="A543:B543"/>
+    <mergeCell ref="K543:L543"/>
+    <mergeCell ref="A544:B544"/>
+    <mergeCell ref="K544:L544"/>
+    <mergeCell ref="A545:B545"/>
+    <mergeCell ref="K545:L545"/>
+    <mergeCell ref="A546:B546"/>
+    <mergeCell ref="K546:L546"/>
+    <mergeCell ref="A547:B547"/>
+    <mergeCell ref="K547:L547"/>
+    <mergeCell ref="A434:B434"/>
+    <mergeCell ref="K434:L434"/>
+    <mergeCell ref="A435:B435"/>
+    <mergeCell ref="K435:L435"/>
+    <mergeCell ref="A436:B436"/>
+    <mergeCell ref="K436:L436"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A432:B432"/>
+    <mergeCell ref="K432:L432"/>
+    <mergeCell ref="A433:B433"/>
+    <mergeCell ref="K433:L433"/>
+    <mergeCell ref="A440:B440"/>
+    <mergeCell ref="K440:L440"/>
+    <mergeCell ref="A441:B441"/>
+    <mergeCell ref="K441:L441"/>
+    <mergeCell ref="A442:B442"/>
+    <mergeCell ref="K442:L442"/>
+    <mergeCell ref="A437:B437"/>
+    <mergeCell ref="K437:L437"/>
+    <mergeCell ref="A438:B438"/>
+    <mergeCell ref="K438:L438"/>
+    <mergeCell ref="A439:B439"/>
+    <mergeCell ref="K439:L439"/>
+    <mergeCell ref="A446:B446"/>
+    <mergeCell ref="K446:L446"/>
+    <mergeCell ref="A447:B447"/>
+    <mergeCell ref="K447:L447"/>
+    <mergeCell ref="A448:B448"/>
+    <mergeCell ref="K448:L448"/>
+    <mergeCell ref="A443:B443"/>
+    <mergeCell ref="K443:L443"/>
+    <mergeCell ref="A444:B444"/>
+    <mergeCell ref="K444:L444"/>
+    <mergeCell ref="A445:B445"/>
+    <mergeCell ref="K445:L445"/>
+    <mergeCell ref="A454:B454"/>
+    <mergeCell ref="K454:L454"/>
+    <mergeCell ref="A455:B455"/>
+    <mergeCell ref="K455:L455"/>
+    <mergeCell ref="A456:B456"/>
+    <mergeCell ref="K456:L456"/>
+    <mergeCell ref="A451:B451"/>
+    <mergeCell ref="K451:L451"/>
+    <mergeCell ref="A452:B452"/>
+    <mergeCell ref="K452:L452"/>
+    <mergeCell ref="A453:B453"/>
+    <mergeCell ref="K453:L453"/>
+    <mergeCell ref="A461:B461"/>
+    <mergeCell ref="K461:L461"/>
+    <mergeCell ref="A462:B462"/>
+    <mergeCell ref="K462:L462"/>
+    <mergeCell ref="A463:B463"/>
+    <mergeCell ref="K463:L463"/>
+    <mergeCell ref="A457:B457"/>
+    <mergeCell ref="K457:L457"/>
+    <mergeCell ref="A459:B459"/>
+    <mergeCell ref="K459:L459"/>
+    <mergeCell ref="A460:B460"/>
+    <mergeCell ref="K460:L460"/>
+    <mergeCell ref="A467:B467"/>
+    <mergeCell ref="K467:L467"/>
+    <mergeCell ref="A468:B468"/>
+    <mergeCell ref="K468:L468"/>
+    <mergeCell ref="A469:B469"/>
+    <mergeCell ref="K469:L469"/>
+    <mergeCell ref="A464:B464"/>
+    <mergeCell ref="K464:L464"/>
+    <mergeCell ref="A465:B465"/>
+    <mergeCell ref="K465:L465"/>
+    <mergeCell ref="A466:B466"/>
+    <mergeCell ref="K466:L466"/>
+    <mergeCell ref="A473:B473"/>
+    <mergeCell ref="K473:L473"/>
+    <mergeCell ref="A474:B474"/>
+    <mergeCell ref="K474:L474"/>
+    <mergeCell ref="A475:B475"/>
+    <mergeCell ref="K475:L475"/>
+    <mergeCell ref="A470:B470"/>
+    <mergeCell ref="K470:L470"/>
+    <mergeCell ref="A471:B471"/>
+    <mergeCell ref="K471:L471"/>
+    <mergeCell ref="A472:B472"/>
+    <mergeCell ref="K472:L472"/>
+    <mergeCell ref="A479:B479"/>
+    <mergeCell ref="K479:L479"/>
+    <mergeCell ref="A480:B480"/>
+    <mergeCell ref="K480:L480"/>
+    <mergeCell ref="A481:B481"/>
+    <mergeCell ref="K481:L481"/>
+    <mergeCell ref="A476:B476"/>
+    <mergeCell ref="K476:L476"/>
+    <mergeCell ref="A477:B477"/>
+    <mergeCell ref="K477:L477"/>
+    <mergeCell ref="A478:B478"/>
+    <mergeCell ref="K478:L478"/>
+    <mergeCell ref="A485:B485"/>
+    <mergeCell ref="K485:L485"/>
+    <mergeCell ref="A486:B486"/>
+    <mergeCell ref="K486:L486"/>
+    <mergeCell ref="A487:B487"/>
+    <mergeCell ref="K487:L487"/>
+    <mergeCell ref="A482:B482"/>
+    <mergeCell ref="K482:L482"/>
+    <mergeCell ref="A483:B483"/>
+    <mergeCell ref="K483:L483"/>
+    <mergeCell ref="A484:B484"/>
+    <mergeCell ref="K484:L484"/>
+    <mergeCell ref="A491:B491"/>
+    <mergeCell ref="K491:L491"/>
+    <mergeCell ref="A492:B492"/>
+    <mergeCell ref="K492:L492"/>
+    <mergeCell ref="A493:B493"/>
+    <mergeCell ref="K493:L493"/>
+    <mergeCell ref="A488:B488"/>
+    <mergeCell ref="K488:L488"/>
+    <mergeCell ref="A489:B489"/>
+    <mergeCell ref="K489:L489"/>
+    <mergeCell ref="A490:B490"/>
+    <mergeCell ref="K490:L490"/>
+    <mergeCell ref="A497:B497"/>
+    <mergeCell ref="K497:L497"/>
+    <mergeCell ref="A498:B498"/>
+    <mergeCell ref="K498:L498"/>
+    <mergeCell ref="A499:B499"/>
+    <mergeCell ref="K499:L499"/>
+    <mergeCell ref="A494:B494"/>
+    <mergeCell ref="K494:L494"/>
+    <mergeCell ref="A495:B495"/>
+    <mergeCell ref="K495:L495"/>
+    <mergeCell ref="A496:B496"/>
+    <mergeCell ref="K496:L496"/>
+    <mergeCell ref="A504:B504"/>
+    <mergeCell ref="K504:L504"/>
+    <mergeCell ref="A505:B505"/>
+    <mergeCell ref="K505:L505"/>
+    <mergeCell ref="A506:B506"/>
+    <mergeCell ref="K506:L506"/>
+    <mergeCell ref="A500:B500"/>
+    <mergeCell ref="K500:L500"/>
+    <mergeCell ref="A501:B501"/>
+    <mergeCell ref="K501:L501"/>
+    <mergeCell ref="A503:B503"/>
+    <mergeCell ref="K503:L503"/>
+    <mergeCell ref="A510:B510"/>
+    <mergeCell ref="K510:L510"/>
+    <mergeCell ref="A511:B511"/>
+    <mergeCell ref="K511:L511"/>
+    <mergeCell ref="A512:B512"/>
+    <mergeCell ref="K512:L512"/>
+    <mergeCell ref="A507:B507"/>
+    <mergeCell ref="K507:L507"/>
+    <mergeCell ref="A508:B508"/>
+    <mergeCell ref="K508:L508"/>
+    <mergeCell ref="A509:B509"/>
+    <mergeCell ref="K509:L509"/>
+    <mergeCell ref="A516:B516"/>
+    <mergeCell ref="K516:L516"/>
+    <mergeCell ref="A517:B517"/>
+    <mergeCell ref="K517:L517"/>
+    <mergeCell ref="A518:B518"/>
+    <mergeCell ref="K518:L518"/>
+    <mergeCell ref="A513:B513"/>
+    <mergeCell ref="K513:L513"/>
+    <mergeCell ref="A514:B514"/>
+    <mergeCell ref="K514:L514"/>
+    <mergeCell ref="A515:B515"/>
+    <mergeCell ref="K515:L515"/>
+    <mergeCell ref="A522:B522"/>
+    <mergeCell ref="K522:L522"/>
+    <mergeCell ref="A523:B523"/>
+    <mergeCell ref="K523:L523"/>
+    <mergeCell ref="A524:B524"/>
+    <mergeCell ref="K524:L524"/>
+    <mergeCell ref="A519:B519"/>
+    <mergeCell ref="K519:L519"/>
+    <mergeCell ref="A520:B520"/>
+    <mergeCell ref="K520:L520"/>
+    <mergeCell ref="A521:B521"/>
+    <mergeCell ref="K521:L521"/>
+    <mergeCell ref="A541:B541"/>
+    <mergeCell ref="K541:L541"/>
+    <mergeCell ref="A525:B525"/>
+    <mergeCell ref="K525:L525"/>
+    <mergeCell ref="A528:B528"/>
+    <mergeCell ref="K528:L528"/>
+    <mergeCell ref="A529:B529"/>
+    <mergeCell ref="K529:L529"/>
+    <mergeCell ref="A532:B532"/>
+    <mergeCell ref="K532:L532"/>
+    <mergeCell ref="A534:B534"/>
+    <mergeCell ref="K534:L534"/>
+    <mergeCell ref="A584:B584"/>
+    <mergeCell ref="K584:L584"/>
+    <mergeCell ref="A565:B565"/>
+    <mergeCell ref="K565:L565"/>
+    <mergeCell ref="A574:B574"/>
+    <mergeCell ref="K574:L574"/>
+    <mergeCell ref="A551:B551"/>
+    <mergeCell ref="K551:L551"/>
+    <mergeCell ref="A530:B530"/>
+    <mergeCell ref="K530:L530"/>
+    <mergeCell ref="A531:B531"/>
+    <mergeCell ref="K531:L531"/>
+    <mergeCell ref="A535:B535"/>
+    <mergeCell ref="K535:L535"/>
+    <mergeCell ref="A536:B536"/>
+    <mergeCell ref="K536:L536"/>
+    <mergeCell ref="A537:B537"/>
+    <mergeCell ref="K537:L537"/>
+    <mergeCell ref="A538:B538"/>
+    <mergeCell ref="K538:L538"/>
+    <mergeCell ref="A539:B539"/>
+    <mergeCell ref="K539:L539"/>
+    <mergeCell ref="A540:B540"/>
+    <mergeCell ref="K540:L540"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E3:E176 E180:E183 E188:E194 E196 E202:E203 E207:E208 E239:E243 E254:E257 E267:E278 E280:E282 E300 E303:E306 E313:E326 E403 E414:E415 E575:E1011">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E3:E176 E180:E183 E188:E194 E196 E202:E203 E207:E208 E239:E243 E254:E257 E267:E278 E280:E282 E300 E303:E306 E313:E326 E403 E414:E415 E586:E1011">
       <formula1>"GABRIEL,UILLIAM"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F32 F40">
       <formula1>"TI,NPJ,LAB,MED,PAV01,EAD,AULA,CORD MED,PROF MED,PROG,ARQ,ATEND,CAP,CORD"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F3:F27 F29:F31 F33:F39 F41:F176 F180:F183 F188:F194 F196 F202:F203 F207:F208 F239:F243 F254:F257 F267:F278 F280:F282 F300 F303:F306 F313:F326 F403 F414:F415 F575:F1011">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F3:F27 F29:F31 F33:F39 F41:F176 F180:F183 F188:F194 F196 F202:F203 F207:F208 F239:F243 F254:F257 F267:F278 F280:F282 F300 F303:F306 F313:F326 F403 F414:F415 F586:F1011">
       <formula1>"TI,NPJ,LAB,MED,PAV01,EAD,AULA,CORD MED,PROF MED,PROG,ARQ,ATEND,CAP,CPA,CORD,BLIB,DIR,FIN,RH"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F28">

--- a/Registro-de-atividades.xlsx
+++ b/Registro-de-atividades.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1759" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1912" uniqueCount="580">
   <si>
     <t>Registro de atividades</t>
   </si>
@@ -1612,6 +1612,153 @@
   </si>
   <si>
     <t>Acompanhando visita do mac lab 1</t>
+  </si>
+  <si>
+    <t>colocando telefeno na sala dos profesores ti</t>
+  </si>
+  <si>
+    <t>configurando telefones</t>
+  </si>
+  <si>
+    <t>Suporte a debora na importação de dados da planilha na blib virtual</t>
+  </si>
+  <si>
+    <t>Suporte na bliblioteca para acessar usuario na bliblioteca virtual</t>
+  </si>
+  <si>
+    <t>Realizando impressão de ramais para dona Leonor</t>
+  </si>
+  <si>
+    <t>Reiniciando o swith</t>
+  </si>
+  <si>
+    <t>Imprimeindo etiquetas para diretora Mariana</t>
+  </si>
+  <si>
+    <t>realizando orçamento de conectores de emenda rj45</t>
+  </si>
+  <si>
+    <t>Enviando orçamento para a compra de emenda</t>
+  </si>
+  <si>
+    <t>Vendo motivo do scaner nao esta funcionndo</t>
+  </si>
+  <si>
+    <t>Acompanhando professor martini no lab 1 para mostrar a situação dos comutadores</t>
+  </si>
+  <si>
+    <t>Se Informando com a studio pc se eles trabalham com o cartão bnb</t>
+  </si>
+  <si>
+    <t>Arrumando fiação</t>
+  </si>
+  <si>
+    <t>Testando nova configuração de tomadas para ver se as maquinas param de desligar</t>
+  </si>
+  <si>
+    <t>Emprestando not 04 ao professor le martini</t>
+  </si>
+  <si>
+    <t>CONTROLADORIA</t>
+  </si>
+  <si>
+    <t>Aplicando configuração no compudador catia bloquear quando não estiver em uso</t>
+  </si>
+  <si>
+    <t>Retirando papel preso dentro da impressoa da direção</t>
+  </si>
+  <si>
+    <t>Arquivando fotos da Cerimônia do jaleco medicina</t>
+  </si>
+  <si>
+    <t>Indentificando caixa com conectores rj45</t>
+  </si>
+  <si>
+    <t>Consertando telefone que estava mudo que estava mudo ao reseber ligação</t>
+  </si>
+  <si>
+    <t>Resolvendo problema de conexão wi-fi do comutador do fieis</t>
+  </si>
+  <si>
+    <t>Deixando canaletas e hdmi na sala 12 pv 2</t>
+  </si>
+  <si>
+    <t>Conectando pc cood 01 nas impressoas sec-01 e fin-01</t>
+  </si>
+  <si>
+    <t>colocando masepade e trocando mnitor do pc positivo</t>
+  </si>
+  <si>
+    <t>Conectando impressora RIKO no pc cood 01</t>
+  </si>
+  <si>
+    <t>Buscando pc do consultorio de odonto que esta com ssd ruim</t>
+  </si>
+  <si>
+    <t>Respondendo email das emendas</t>
+  </si>
+  <si>
+    <t>Suporte a Gabriel e Jessica</t>
+  </si>
+  <si>
+    <t>Abrindo pc da clinica de odonto</t>
+  </si>
+  <si>
+    <t>fazendo testes no compudador de odonto para a formatação</t>
+  </si>
+  <si>
+    <t>Analisando pq o scaner não esta funcionando do usuario de Yvane</t>
+  </si>
+  <si>
+    <t>Configurando acesso remoto para Jessica Matos</t>
+  </si>
+  <si>
+    <t>testando monitor banq</t>
+  </si>
+  <si>
+    <t>Resolvendo problema do scaner no ususrio de Yvane</t>
+  </si>
+  <si>
+    <t>Fazebdo manutenção improssora epslon</t>
+  </si>
+  <si>
+    <t>Instalando programa nos computadores do lab 1</t>
+  </si>
+  <si>
+    <t>Criando filtro e separando por requistos na planilha de beta fieis</t>
+  </si>
+  <si>
+    <t>Retirando scaner da capitação e instalando no pc fin 02</t>
+  </si>
+  <si>
+    <t>Fazendo orçamento de cabos vga hdmi e adaptador</t>
+  </si>
+  <si>
+    <t>instalando pc odonto e levando datashow no nissa</t>
+  </si>
+  <si>
+    <t>Instaland scanner</t>
+  </si>
+  <si>
+    <t>Organizando planilha COMPRAS TI NOTAS FISCAIS para João</t>
+  </si>
+  <si>
+    <t>Conferindo se o Kaspersky esta ativado noscomputadores da instituição</t>
+  </si>
+  <si>
+    <t>Arrumando bancada</t>
+  </si>
+  <si>
+    <t>Entando em contato com a tecnocell para saber quando o celular fica pronto</t>
+  </si>
+  <si>
+    <t>Cortando etiquetas para a indentificação das caixas</t>
+  </si>
+  <si>
+    <t>Entrando em contato com a tecnosaj para conserto da caixa de som</t>
+  </si>
+  <si>
+    <t>Instalando Kaspersky nos computadores da captação e da cordenação</t>
   </si>
 </sst>
 </file>
@@ -1740,7 +1887,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1983,11 +2130,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2165,6 +2323,27 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="8" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="8" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2177,6 +2356,18 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2186,6 +2377,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2406,8 +2603,8 @@
   </sheetPr>
   <dimension ref="A1:Y1011"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A566" workbookViewId="0">
-      <selection activeCell="A585" sqref="A585:Y585"/>
+    <sheetView tabSelected="1" topLeftCell="A622" workbookViewId="0">
+      <selection activeCell="A636" sqref="A636:Y636"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2419,17 +2616,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="73"/>
-      <c r="B1" s="74"/>
-      <c r="C1" s="75" t="s">
+      <c r="A1" s="84"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="77"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="88"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -13554,8 +13751,8 @@
       <c r="X431" s="22"/>
     </row>
     <row r="432" spans="1:25" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A432" s="69"/>
-      <c r="B432" s="70"/>
+      <c r="A432" s="76"/>
+      <c r="B432" s="77"/>
       <c r="C432" s="66"/>
       <c r="D432" s="24">
         <v>45659</v>
@@ -13576,8 +13773,8 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="J432" s="66"/>
-      <c r="K432" s="71"/>
-      <c r="L432" s="72"/>
+      <c r="K432" s="78"/>
+      <c r="L432" s="79"/>
       <c r="M432" s="66"/>
       <c r="N432" s="66"/>
       <c r="O432" s="66"/>
@@ -13593,8 +13790,8 @@
       <c r="Y432" s="66"/>
     </row>
     <row r="433" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A433" s="69"/>
-      <c r="B433" s="70"/>
+      <c r="A433" s="76"/>
+      <c r="B433" s="77"/>
       <c r="C433" s="67"/>
       <c r="D433" s="36">
         <v>45659</v>
@@ -13615,8 +13812,8 @@
         <v>0.5</v>
       </c>
       <c r="J433" s="67"/>
-      <c r="K433" s="71"/>
-      <c r="L433" s="72"/>
+      <c r="K433" s="78"/>
+      <c r="L433" s="79"/>
       <c r="M433" s="67"/>
       <c r="N433" s="67"/>
       <c r="O433" s="67"/>
@@ -13632,8 +13829,8 @@
       <c r="Y433" s="67"/>
     </row>
     <row r="434" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A434" s="69"/>
-      <c r="B434" s="70"/>
+      <c r="A434" s="76"/>
+      <c r="B434" s="77"/>
       <c r="C434" s="67"/>
       <c r="D434" s="36">
         <v>45659</v>
@@ -13654,8 +13851,8 @@
         <v>0.5805555555555556</v>
       </c>
       <c r="J434" s="67"/>
-      <c r="K434" s="71"/>
-      <c r="L434" s="72"/>
+      <c r="K434" s="78"/>
+      <c r="L434" s="79"/>
       <c r="M434" s="67"/>
       <c r="N434" s="67"/>
       <c r="O434" s="67"/>
@@ -13671,8 +13868,8 @@
       <c r="Y434" s="67"/>
     </row>
     <row r="435" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A435" s="69"/>
-      <c r="B435" s="70"/>
+      <c r="A435" s="76"/>
+      <c r="B435" s="77"/>
       <c r="C435" s="67"/>
       <c r="D435" s="36">
         <v>45660</v>
@@ -13693,8 +13890,8 @@
         <v>0.40972222222222227</v>
       </c>
       <c r="J435" s="67"/>
-      <c r="K435" s="71"/>
-      <c r="L435" s="72"/>
+      <c r="K435" s="78"/>
+      <c r="L435" s="79"/>
       <c r="M435" s="67"/>
       <c r="N435" s="67"/>
       <c r="O435" s="67"/>
@@ -13710,8 +13907,8 @@
       <c r="Y435" s="67"/>
     </row>
     <row r="436" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A436" s="69"/>
-      <c r="B436" s="70"/>
+      <c r="A436" s="76"/>
+      <c r="B436" s="77"/>
       <c r="C436" s="67"/>
       <c r="D436" s="36">
         <v>45663</v>
@@ -13732,8 +13929,8 @@
         <v>0.35069444444444442</v>
       </c>
       <c r="J436" s="67"/>
-      <c r="K436" s="71"/>
-      <c r="L436" s="72"/>
+      <c r="K436" s="78"/>
+      <c r="L436" s="79"/>
       <c r="M436" s="67"/>
       <c r="N436" s="67"/>
       <c r="O436" s="67"/>
@@ -13749,8 +13946,8 @@
       <c r="Y436" s="67"/>
     </row>
     <row r="437" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A437" s="69"/>
-      <c r="B437" s="70"/>
+      <c r="A437" s="76"/>
+      <c r="B437" s="77"/>
       <c r="C437" s="67"/>
       <c r="D437" s="36">
         <v>45663</v>
@@ -13771,8 +13968,8 @@
         <v>0.375</v>
       </c>
       <c r="J437" s="67"/>
-      <c r="K437" s="71"/>
-      <c r="L437" s="72"/>
+      <c r="K437" s="78"/>
+      <c r="L437" s="79"/>
       <c r="M437" s="67"/>
       <c r="N437" s="67"/>
       <c r="O437" s="67"/>
@@ -13788,8 +13985,8 @@
       <c r="Y437" s="67"/>
     </row>
     <row r="438" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A438" s="69"/>
-      <c r="B438" s="70"/>
+      <c r="A438" s="76"/>
+      <c r="B438" s="77"/>
       <c r="C438" s="67"/>
       <c r="D438" s="36">
         <v>45663</v>
@@ -13810,8 +14007,8 @@
         <v>0.38194444444444442</v>
       </c>
       <c r="J438" s="67"/>
-      <c r="K438" s="71"/>
-      <c r="L438" s="72"/>
+      <c r="K438" s="78"/>
+      <c r="L438" s="79"/>
       <c r="M438" s="67"/>
       <c r="N438" s="67"/>
       <c r="O438" s="67"/>
@@ -13827,8 +14024,8 @@
       <c r="Y438" s="67"/>
     </row>
     <row r="439" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A439" s="69"/>
-      <c r="B439" s="70"/>
+      <c r="A439" s="76"/>
+      <c r="B439" s="77"/>
       <c r="C439" s="67"/>
       <c r="D439" s="36">
         <v>45663</v>
@@ -13849,8 +14046,8 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="J439" s="67"/>
-      <c r="K439" s="71"/>
-      <c r="L439" s="72"/>
+      <c r="K439" s="78"/>
+      <c r="L439" s="79"/>
       <c r="M439" s="67"/>
       <c r="N439" s="67"/>
       <c r="O439" s="67"/>
@@ -13866,8 +14063,8 @@
       <c r="Y439" s="67"/>
     </row>
     <row r="440" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A440" s="69"/>
-      <c r="B440" s="70"/>
+      <c r="A440" s="76"/>
+      <c r="B440" s="77"/>
       <c r="C440" s="67"/>
       <c r="D440" s="36">
         <v>45663</v>
@@ -13888,8 +14085,8 @@
         <v>0.43055555555555558</v>
       </c>
       <c r="J440" s="67"/>
-      <c r="K440" s="71"/>
-      <c r="L440" s="72"/>
+      <c r="K440" s="78"/>
+      <c r="L440" s="79"/>
       <c r="M440" s="67"/>
       <c r="N440" s="67"/>
       <c r="O440" s="67"/>
@@ -13905,8 +14102,8 @@
       <c r="Y440" s="67"/>
     </row>
     <row r="441" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A441" s="69"/>
-      <c r="B441" s="70"/>
+      <c r="A441" s="76"/>
+      <c r="B441" s="77"/>
       <c r="C441" s="67"/>
       <c r="D441" s="36">
         <v>45663</v>
@@ -13927,8 +14124,8 @@
         <v>0.55208333333333337</v>
       </c>
       <c r="J441" s="67"/>
-      <c r="K441" s="71"/>
-      <c r="L441" s="72"/>
+      <c r="K441" s="78"/>
+      <c r="L441" s="79"/>
       <c r="M441" s="67"/>
       <c r="N441" s="67"/>
       <c r="O441" s="67"/>
@@ -13944,8 +14141,8 @@
       <c r="Y441" s="67"/>
     </row>
     <row r="442" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A442" s="69"/>
-      <c r="B442" s="70"/>
+      <c r="A442" s="76"/>
+      <c r="B442" s="77"/>
       <c r="C442" s="67"/>
       <c r="D442" s="36">
         <v>45664</v>
@@ -13966,8 +14163,8 @@
         <v>0.35000000000000003</v>
       </c>
       <c r="J442" s="67"/>
-      <c r="K442" s="71"/>
-      <c r="L442" s="72"/>
+      <c r="K442" s="78"/>
+      <c r="L442" s="79"/>
       <c r="M442" s="67"/>
       <c r="N442" s="67"/>
       <c r="O442" s="67"/>
@@ -13983,8 +14180,8 @@
       <c r="Y442" s="67"/>
     </row>
     <row r="443" spans="1:25" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A443" s="69"/>
-      <c r="B443" s="70"/>
+      <c r="A443" s="76"/>
+      <c r="B443" s="77"/>
       <c r="C443" s="67"/>
       <c r="D443" s="36">
         <v>45664</v>
@@ -14005,8 +14202,8 @@
         <v>0.36527777777777781</v>
       </c>
       <c r="J443" s="67"/>
-      <c r="K443" s="71"/>
-      <c r="L443" s="72"/>
+      <c r="K443" s="78"/>
+      <c r="L443" s="79"/>
       <c r="M443" s="67"/>
       <c r="N443" s="67"/>
       <c r="O443" s="67"/>
@@ -14022,8 +14219,8 @@
       <c r="Y443" s="67"/>
     </row>
     <row r="444" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A444" s="69"/>
-      <c r="B444" s="70"/>
+      <c r="A444" s="76"/>
+      <c r="B444" s="77"/>
       <c r="C444" s="67"/>
       <c r="D444" s="36">
         <v>45664</v>
@@ -14044,8 +14241,8 @@
         <v>0.37152777777777773</v>
       </c>
       <c r="J444" s="67"/>
-      <c r="K444" s="71"/>
-      <c r="L444" s="72"/>
+      <c r="K444" s="78"/>
+      <c r="L444" s="79"/>
       <c r="M444" s="67"/>
       <c r="N444" s="67"/>
       <c r="O444" s="67"/>
@@ -14061,8 +14258,8 @@
       <c r="Y444" s="67"/>
     </row>
     <row r="445" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A445" s="69"/>
-      <c r="B445" s="70"/>
+      <c r="A445" s="76"/>
+      <c r="B445" s="77"/>
       <c r="C445" s="67"/>
       <c r="D445" s="36">
         <v>45664</v>
@@ -14083,8 +14280,8 @@
         <v>0.44444444444444442</v>
       </c>
       <c r="J445" s="67"/>
-      <c r="K445" s="71"/>
-      <c r="L445" s="72"/>
+      <c r="K445" s="78"/>
+      <c r="L445" s="79"/>
       <c r="M445" s="67"/>
       <c r="N445" s="67"/>
       <c r="O445" s="67"/>
@@ -14100,8 +14297,8 @@
       <c r="Y445" s="67"/>
     </row>
     <row r="446" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A446" s="69"/>
-      <c r="B446" s="70"/>
+      <c r="A446" s="76"/>
+      <c r="B446" s="77"/>
       <c r="C446" s="67"/>
       <c r="D446" s="36">
         <v>45664</v>
@@ -14122,8 +14319,8 @@
         <v>0.4597222222222222</v>
       </c>
       <c r="J446" s="67"/>
-      <c r="K446" s="71"/>
-      <c r="L446" s="72"/>
+      <c r="K446" s="78"/>
+      <c r="L446" s="79"/>
       <c r="M446" s="67"/>
       <c r="N446" s="67"/>
       <c r="O446" s="67"/>
@@ -14139,8 +14336,8 @@
       <c r="Y446" s="67"/>
     </row>
     <row r="447" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A447" s="69"/>
-      <c r="B447" s="70"/>
+      <c r="A447" s="76"/>
+      <c r="B447" s="77"/>
       <c r="C447" s="67"/>
       <c r="D447" s="36">
         <v>45665</v>
@@ -14161,8 +14358,8 @@
         <v>0.44444444444444442</v>
       </c>
       <c r="J447" s="67"/>
-      <c r="K447" s="71"/>
-      <c r="L447" s="72"/>
+      <c r="K447" s="78"/>
+      <c r="L447" s="79"/>
       <c r="M447" s="67"/>
       <c r="N447" s="67"/>
       <c r="O447" s="67"/>
@@ -14178,8 +14375,8 @@
       <c r="Y447" s="67"/>
     </row>
     <row r="448" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A448" s="69"/>
-      <c r="B448" s="70"/>
+      <c r="A448" s="76"/>
+      <c r="B448" s="77"/>
       <c r="C448" s="67"/>
       <c r="D448" s="36">
         <v>45665</v>
@@ -14200,8 +14397,8 @@
         <v>0.45</v>
       </c>
       <c r="J448" s="67"/>
-      <c r="K448" s="71"/>
-      <c r="L448" s="72"/>
+      <c r="K448" s="78"/>
+      <c r="L448" s="79"/>
       <c r="M448" s="67"/>
       <c r="N448" s="67"/>
       <c r="O448" s="67"/>
@@ -14295,8 +14492,8 @@
       <c r="Y450" s="67"/>
     </row>
     <row r="451" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A451" s="69"/>
-      <c r="B451" s="70"/>
+      <c r="A451" s="76"/>
+      <c r="B451" s="77"/>
       <c r="C451" s="67"/>
       <c r="D451" s="36">
         <v>45665</v>
@@ -14317,8 +14514,8 @@
         <v>0.46875</v>
       </c>
       <c r="J451" s="67"/>
-      <c r="K451" s="71"/>
-      <c r="L451" s="72"/>
+      <c r="K451" s="78"/>
+      <c r="L451" s="79"/>
       <c r="M451" s="67"/>
       <c r="N451" s="67"/>
       <c r="O451" s="67"/>
@@ -14334,8 +14531,8 @@
       <c r="Y451" s="67"/>
     </row>
     <row r="452" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A452" s="69"/>
-      <c r="B452" s="70"/>
+      <c r="A452" s="76"/>
+      <c r="B452" s="77"/>
       <c r="C452" s="67"/>
       <c r="D452" s="36">
         <v>45665</v>
@@ -14356,8 +14553,8 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="J452" s="67"/>
-      <c r="K452" s="71"/>
-      <c r="L452" s="72"/>
+      <c r="K452" s="78"/>
+      <c r="L452" s="79"/>
       <c r="M452" s="67"/>
       <c r="N452" s="67"/>
       <c r="O452" s="67"/>
@@ -14373,8 +14570,8 @@
       <c r="Y452" s="67"/>
     </row>
     <row r="453" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A453" s="69"/>
-      <c r="B453" s="70"/>
+      <c r="A453" s="76"/>
+      <c r="B453" s="77"/>
       <c r="C453" s="67"/>
       <c r="D453" s="36">
         <v>45666</v>
@@ -14395,8 +14592,8 @@
         <v>0.33680555555555558</v>
       </c>
       <c r="J453" s="67"/>
-      <c r="K453" s="71"/>
-      <c r="L453" s="72"/>
+      <c r="K453" s="78"/>
+      <c r="L453" s="79"/>
       <c r="M453" s="67"/>
       <c r="N453" s="67"/>
       <c r="O453" s="67"/>
@@ -14412,8 +14609,8 @@
       <c r="Y453" s="67"/>
     </row>
     <row r="454" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A454" s="69"/>
-      <c r="B454" s="70"/>
+      <c r="A454" s="76"/>
+      <c r="B454" s="77"/>
       <c r="C454" s="67"/>
       <c r="D454" s="36">
         <v>45666</v>
@@ -14434,8 +14631,8 @@
         <v>0.375</v>
       </c>
       <c r="J454" s="67"/>
-      <c r="K454" s="71"/>
-      <c r="L454" s="72"/>
+      <c r="K454" s="78"/>
+      <c r="L454" s="79"/>
       <c r="M454" s="67"/>
       <c r="N454" s="67"/>
       <c r="O454" s="67"/>
@@ -14451,8 +14648,8 @@
       <c r="Y454" s="67"/>
     </row>
     <row r="455" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A455" s="69"/>
-      <c r="B455" s="70"/>
+      <c r="A455" s="76"/>
+      <c r="B455" s="77"/>
       <c r="C455" s="67"/>
       <c r="D455" s="36">
         <v>45666</v>
@@ -14473,8 +14670,8 @@
         <v>0.46875</v>
       </c>
       <c r="J455" s="67"/>
-      <c r="K455" s="71"/>
-      <c r="L455" s="72"/>
+      <c r="K455" s="78"/>
+      <c r="L455" s="79"/>
       <c r="M455" s="67"/>
       <c r="N455" s="67"/>
       <c r="O455" s="67"/>
@@ -14490,8 +14687,8 @@
       <c r="Y455" s="67"/>
     </row>
     <row r="456" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A456" s="69"/>
-      <c r="B456" s="70"/>
+      <c r="A456" s="76"/>
+      <c r="B456" s="77"/>
       <c r="C456" s="67"/>
       <c r="D456" s="36">
         <v>45666</v>
@@ -14512,8 +14709,8 @@
         <v>0.47569444444444442</v>
       </c>
       <c r="J456" s="67"/>
-      <c r="K456" s="71"/>
-      <c r="L456" s="72"/>
+      <c r="K456" s="78"/>
+      <c r="L456" s="79"/>
       <c r="M456" s="67"/>
       <c r="N456" s="67"/>
       <c r="O456" s="67"/>
@@ -14529,8 +14726,8 @@
       <c r="Y456" s="67"/>
     </row>
     <row r="457" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A457" s="69"/>
-      <c r="B457" s="70"/>
+      <c r="A457" s="76"/>
+      <c r="B457" s="77"/>
       <c r="C457" s="67"/>
       <c r="D457" s="36">
         <v>45666</v>
@@ -14551,8 +14748,8 @@
         <v>0.50694444444444442</v>
       </c>
       <c r="J457" s="67"/>
-      <c r="K457" s="71"/>
-      <c r="L457" s="72"/>
+      <c r="K457" s="78"/>
+      <c r="L457" s="79"/>
       <c r="M457" s="67"/>
       <c r="N457" s="67"/>
       <c r="O457" s="67"/>
@@ -14607,8 +14804,8 @@
       <c r="Y458" s="67"/>
     </row>
     <row r="459" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A459" s="69"/>
-      <c r="B459" s="70"/>
+      <c r="A459" s="76"/>
+      <c r="B459" s="77"/>
       <c r="C459" s="67"/>
       <c r="D459" s="36">
         <v>45667</v>
@@ -14629,8 +14826,8 @@
         <v>0.33124999999999999</v>
       </c>
       <c r="J459" s="67"/>
-      <c r="K459" s="71"/>
-      <c r="L459" s="72"/>
+      <c r="K459" s="78"/>
+      <c r="L459" s="79"/>
       <c r="M459" s="67"/>
       <c r="N459" s="67"/>
       <c r="O459" s="67"/>
@@ -14646,8 +14843,8 @@
       <c r="Y459" s="67"/>
     </row>
     <row r="460" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A460" s="69"/>
-      <c r="B460" s="70"/>
+      <c r="A460" s="76"/>
+      <c r="B460" s="77"/>
       <c r="C460" s="67"/>
       <c r="D460" s="36">
         <v>45667</v>
@@ -14668,8 +14865,8 @@
         <v>0.38194444444444442</v>
       </c>
       <c r="J460" s="67"/>
-      <c r="K460" s="71"/>
-      <c r="L460" s="72"/>
+      <c r="K460" s="78"/>
+      <c r="L460" s="79"/>
       <c r="M460" s="67"/>
       <c r="N460" s="67"/>
       <c r="O460" s="67"/>
@@ -14685,8 +14882,8 @@
       <c r="Y460" s="67"/>
     </row>
     <row r="461" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A461" s="69"/>
-      <c r="B461" s="70"/>
+      <c r="A461" s="76"/>
+      <c r="B461" s="77"/>
       <c r="C461" s="67"/>
       <c r="D461" s="36">
         <v>45667</v>
@@ -14707,8 +14904,8 @@
         <v>0.46527777777777773</v>
       </c>
       <c r="J461" s="67"/>
-      <c r="K461" s="71"/>
-      <c r="L461" s="72"/>
+      <c r="K461" s="78"/>
+      <c r="L461" s="79"/>
       <c r="M461" s="67"/>
       <c r="N461" s="67"/>
       <c r="O461" s="67"/>
@@ -14724,8 +14921,8 @@
       <c r="Y461" s="67"/>
     </row>
     <row r="462" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A462" s="69"/>
-      <c r="B462" s="70"/>
+      <c r="A462" s="76"/>
+      <c r="B462" s="77"/>
       <c r="C462" s="67"/>
       <c r="D462" s="36">
         <v>45667</v>
@@ -14746,8 +14943,8 @@
         <v>0.50347222222222221</v>
       </c>
       <c r="J462" s="67"/>
-      <c r="K462" s="71"/>
-      <c r="L462" s="72"/>
+      <c r="K462" s="78"/>
+      <c r="L462" s="79"/>
       <c r="M462" s="67"/>
       <c r="N462" s="67"/>
       <c r="O462" s="67"/>
@@ -14763,8 +14960,8 @@
       <c r="Y462" s="67"/>
     </row>
     <row r="463" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A463" s="69"/>
-      <c r="B463" s="70"/>
+      <c r="A463" s="76"/>
+      <c r="B463" s="77"/>
       <c r="C463" s="67"/>
       <c r="D463" s="36">
         <v>45670</v>
@@ -14785,8 +14982,8 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="J463" s="67"/>
-      <c r="K463" s="71"/>
-      <c r="L463" s="72"/>
+      <c r="K463" s="78"/>
+      <c r="L463" s="79"/>
       <c r="M463" s="67"/>
       <c r="N463" s="67"/>
       <c r="O463" s="67"/>
@@ -14802,8 +14999,8 @@
       <c r="Y463" s="67"/>
     </row>
     <row r="464" spans="1:25" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A464" s="69"/>
-      <c r="B464" s="70"/>
+      <c r="A464" s="76"/>
+      <c r="B464" s="77"/>
       <c r="C464" s="67"/>
       <c r="D464" s="36">
         <v>45670</v>
@@ -14824,8 +15021,8 @@
         <v>0.38541666666666669</v>
       </c>
       <c r="J464" s="67"/>
-      <c r="K464" s="71"/>
-      <c r="L464" s="72"/>
+      <c r="K464" s="78"/>
+      <c r="L464" s="79"/>
       <c r="M464" s="67"/>
       <c r="N464" s="67"/>
       <c r="O464" s="67"/>
@@ -14841,8 +15038,8 @@
       <c r="Y464" s="67"/>
     </row>
     <row r="465" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A465" s="69"/>
-      <c r="B465" s="70"/>
+      <c r="A465" s="76"/>
+      <c r="B465" s="77"/>
       <c r="C465" s="67"/>
       <c r="D465" s="36">
         <v>45670</v>
@@ -14863,8 +15060,8 @@
         <v>0.40833333333333338</v>
       </c>
       <c r="J465" s="67"/>
-      <c r="K465" s="71"/>
-      <c r="L465" s="72"/>
+      <c r="K465" s="78"/>
+      <c r="L465" s="79"/>
       <c r="M465" s="67"/>
       <c r="N465" s="67"/>
       <c r="O465" s="67"/>
@@ -14880,8 +15077,8 @@
       <c r="Y465" s="67"/>
     </row>
     <row r="466" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A466" s="69"/>
-      <c r="B466" s="70"/>
+      <c r="A466" s="76"/>
+      <c r="B466" s="77"/>
       <c r="C466" s="67"/>
       <c r="D466" s="36">
         <v>45670</v>
@@ -14902,8 +15099,8 @@
         <v>0.46180555555555558</v>
       </c>
       <c r="J466" s="67"/>
-      <c r="K466" s="71"/>
-      <c r="L466" s="72"/>
+      <c r="K466" s="78"/>
+      <c r="L466" s="79"/>
       <c r="M466" s="67"/>
       <c r="N466" s="67"/>
       <c r="O466" s="67"/>
@@ -14919,8 +15116,8 @@
       <c r="Y466" s="67"/>
     </row>
     <row r="467" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A467" s="69"/>
-      <c r="B467" s="70"/>
+      <c r="A467" s="76"/>
+      <c r="B467" s="77"/>
       <c r="C467" s="67"/>
       <c r="D467" s="36">
         <v>45670</v>
@@ -14941,8 +15138,8 @@
         <v>0.56666666666666665</v>
       </c>
       <c r="J467" s="67"/>
-      <c r="K467" s="71"/>
-      <c r="L467" s="72"/>
+      <c r="K467" s="78"/>
+      <c r="L467" s="79"/>
       <c r="M467" s="67"/>
       <c r="N467" s="67"/>
       <c r="O467" s="67"/>
@@ -14958,8 +15155,8 @@
       <c r="Y467" s="67"/>
     </row>
     <row r="468" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A468" s="69"/>
-      <c r="B468" s="70"/>
+      <c r="A468" s="76"/>
+      <c r="B468" s="77"/>
       <c r="C468" s="67"/>
       <c r="D468" s="36">
         <v>45670</v>
@@ -14980,8 +15177,8 @@
         <v>0.57430555555555551</v>
       </c>
       <c r="J468" s="67"/>
-      <c r="K468" s="71"/>
-      <c r="L468" s="72"/>
+      <c r="K468" s="78"/>
+      <c r="L468" s="79"/>
       <c r="M468" s="67"/>
       <c r="N468" s="67"/>
       <c r="O468" s="67"/>
@@ -14997,8 +15194,8 @@
       <c r="Y468" s="67"/>
     </row>
     <row r="469" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A469" s="69"/>
-      <c r="B469" s="70"/>
+      <c r="A469" s="76"/>
+      <c r="B469" s="77"/>
       <c r="C469" s="67"/>
       <c r="D469" s="36">
         <v>45671</v>
@@ -15019,8 +15216,8 @@
         <v>0.33124999999999999</v>
       </c>
       <c r="J469" s="67"/>
-      <c r="K469" s="71"/>
-      <c r="L469" s="72"/>
+      <c r="K469" s="78"/>
+      <c r="L469" s="79"/>
       <c r="M469" s="67"/>
       <c r="N469" s="67"/>
       <c r="O469" s="67"/>
@@ -15036,8 +15233,8 @@
       <c r="Y469" s="67"/>
     </row>
     <row r="470" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A470" s="69"/>
-      <c r="B470" s="70"/>
+      <c r="A470" s="76"/>
+      <c r="B470" s="77"/>
       <c r="C470" s="67"/>
       <c r="D470" s="36">
         <v>45671</v>
@@ -15058,8 +15255,8 @@
         <v>0.36458333333333331</v>
       </c>
       <c r="J470" s="67"/>
-      <c r="K470" s="71"/>
-      <c r="L470" s="72"/>
+      <c r="K470" s="78"/>
+      <c r="L470" s="79"/>
       <c r="M470" s="67"/>
       <c r="N470" s="67"/>
       <c r="O470" s="67"/>
@@ -15075,8 +15272,8 @@
       <c r="Y470" s="67"/>
     </row>
     <row r="471" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A471" s="69"/>
-      <c r="B471" s="70"/>
+      <c r="A471" s="76"/>
+      <c r="B471" s="77"/>
       <c r="C471" s="67"/>
       <c r="D471" s="36">
         <v>45671</v>
@@ -15097,8 +15294,8 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="J471" s="67"/>
-      <c r="K471" s="71"/>
-      <c r="L471" s="72"/>
+      <c r="K471" s="78"/>
+      <c r="L471" s="79"/>
       <c r="M471" s="67"/>
       <c r="N471" s="67"/>
       <c r="O471" s="67"/>
@@ -15114,8 +15311,8 @@
       <c r="Y471" s="67"/>
     </row>
     <row r="472" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A472" s="69"/>
-      <c r="B472" s="70"/>
+      <c r="A472" s="76"/>
+      <c r="B472" s="77"/>
       <c r="C472" s="67"/>
       <c r="D472" s="36">
         <v>45672</v>
@@ -15136,8 +15333,8 @@
         <v>0.34027777777777773</v>
       </c>
       <c r="J472" s="67"/>
-      <c r="K472" s="71"/>
-      <c r="L472" s="72"/>
+      <c r="K472" s="78"/>
+      <c r="L472" s="79"/>
       <c r="M472" s="67"/>
       <c r="N472" s="67"/>
       <c r="O472" s="67"/>
@@ -15153,8 +15350,8 @@
       <c r="Y472" s="67"/>
     </row>
     <row r="473" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A473" s="69"/>
-      <c r="B473" s="70"/>
+      <c r="A473" s="76"/>
+      <c r="B473" s="77"/>
       <c r="C473" s="67"/>
       <c r="D473" s="36">
         <v>45672</v>
@@ -15175,8 +15372,8 @@
         <v>0.34722222222222227</v>
       </c>
       <c r="J473" s="67"/>
-      <c r="K473" s="71"/>
-      <c r="L473" s="72"/>
+      <c r="K473" s="78"/>
+      <c r="L473" s="79"/>
       <c r="M473" s="67"/>
       <c r="N473" s="67"/>
       <c r="O473" s="67"/>
@@ -15192,8 +15389,8 @@
       <c r="Y473" s="67"/>
     </row>
     <row r="474" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A474" s="69"/>
-      <c r="B474" s="70"/>
+      <c r="A474" s="76"/>
+      <c r="B474" s="77"/>
       <c r="C474" s="67"/>
       <c r="D474" s="36">
         <v>45672</v>
@@ -15214,8 +15411,8 @@
         <v>0.36805555555555558</v>
       </c>
       <c r="J474" s="67"/>
-      <c r="K474" s="71"/>
-      <c r="L474" s="72"/>
+      <c r="K474" s="78"/>
+      <c r="L474" s="79"/>
       <c r="M474" s="67"/>
       <c r="N474" s="67"/>
       <c r="O474" s="67"/>
@@ -15231,8 +15428,8 @@
       <c r="Y474" s="67"/>
     </row>
     <row r="475" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A475" s="69"/>
-      <c r="B475" s="70"/>
+      <c r="A475" s="76"/>
+      <c r="B475" s="77"/>
       <c r="C475" s="67"/>
       <c r="D475" s="36">
         <v>45672</v>
@@ -15253,8 +15450,8 @@
         <v>0.38958333333333334</v>
       </c>
       <c r="J475" s="67"/>
-      <c r="K475" s="71"/>
-      <c r="L475" s="72"/>
+      <c r="K475" s="78"/>
+      <c r="L475" s="79"/>
       <c r="M475" s="67"/>
       <c r="N475" s="67"/>
       <c r="O475" s="67"/>
@@ -15270,8 +15467,8 @@
       <c r="Y475" s="67"/>
     </row>
     <row r="476" spans="1:25" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A476" s="69"/>
-      <c r="B476" s="70"/>
+      <c r="A476" s="76"/>
+      <c r="B476" s="77"/>
       <c r="C476" s="67"/>
       <c r="D476" s="36">
         <v>45672</v>
@@ -15292,8 +15489,8 @@
         <v>0.4201388888888889</v>
       </c>
       <c r="J476" s="67"/>
-      <c r="K476" s="71"/>
-      <c r="L476" s="72"/>
+      <c r="K476" s="78"/>
+      <c r="L476" s="79"/>
       <c r="M476" s="67"/>
       <c r="N476" s="67"/>
       <c r="O476" s="67"/>
@@ -15309,8 +15506,8 @@
       <c r="Y476" s="67"/>
     </row>
     <row r="477" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A477" s="69"/>
-      <c r="B477" s="70"/>
+      <c r="A477" s="76"/>
+      <c r="B477" s="77"/>
       <c r="C477" s="67"/>
       <c r="D477" s="36">
         <v>45672</v>
@@ -15331,8 +15528,8 @@
         <v>0.43055555555555558</v>
       </c>
       <c r="J477" s="67"/>
-      <c r="K477" s="71"/>
-      <c r="L477" s="72"/>
+      <c r="K477" s="78"/>
+      <c r="L477" s="79"/>
       <c r="M477" s="67"/>
       <c r="N477" s="67"/>
       <c r="O477" s="67"/>
@@ -15348,8 +15545,8 @@
       <c r="Y477" s="67"/>
     </row>
     <row r="478" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A478" s="69"/>
-      <c r="B478" s="70"/>
+      <c r="A478" s="76"/>
+      <c r="B478" s="77"/>
       <c r="C478" s="67"/>
       <c r="D478" s="36">
         <v>45673</v>
@@ -15370,8 +15567,8 @@
         <v>0.33124999999999999</v>
       </c>
       <c r="J478" s="67"/>
-      <c r="K478" s="71"/>
-      <c r="L478" s="72"/>
+      <c r="K478" s="78"/>
+      <c r="L478" s="79"/>
       <c r="M478" s="67"/>
       <c r="N478" s="67"/>
       <c r="O478" s="67"/>
@@ -15387,8 +15584,8 @@
       <c r="Y478" s="67"/>
     </row>
     <row r="479" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A479" s="69"/>
-      <c r="B479" s="70"/>
+      <c r="A479" s="76"/>
+      <c r="B479" s="77"/>
       <c r="C479" s="67"/>
       <c r="D479" s="36">
         <v>45673</v>
@@ -15409,8 +15606,8 @@
         <v>0.3576388888888889</v>
       </c>
       <c r="J479" s="67"/>
-      <c r="K479" s="71"/>
-      <c r="L479" s="72"/>
+      <c r="K479" s="78"/>
+      <c r="L479" s="79"/>
       <c r="M479" s="67"/>
       <c r="N479" s="67"/>
       <c r="O479" s="67"/>
@@ -15426,8 +15623,8 @@
       <c r="Y479" s="67"/>
     </row>
     <row r="480" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A480" s="69"/>
-      <c r="B480" s="70"/>
+      <c r="A480" s="76"/>
+      <c r="B480" s="77"/>
       <c r="C480" s="67"/>
       <c r="D480" s="36">
         <v>45673</v>
@@ -15448,8 +15645,8 @@
         <v>0.40277777777777773</v>
       </c>
       <c r="J480" s="67"/>
-      <c r="K480" s="71"/>
-      <c r="L480" s="72"/>
+      <c r="K480" s="78"/>
+      <c r="L480" s="79"/>
       <c r="M480" s="67"/>
       <c r="N480" s="67"/>
       <c r="O480" s="67"/>
@@ -15465,8 +15662,8 @@
       <c r="Y480" s="67"/>
     </row>
     <row r="481" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A481" s="69"/>
-      <c r="B481" s="70"/>
+      <c r="A481" s="76"/>
+      <c r="B481" s="77"/>
       <c r="C481" s="67"/>
       <c r="D481" s="36">
         <v>45673</v>
@@ -15487,8 +15684,8 @@
         <v>0.4513888888888889</v>
       </c>
       <c r="J481" s="67"/>
-      <c r="K481" s="71"/>
-      <c r="L481" s="72"/>
+      <c r="K481" s="78"/>
+      <c r="L481" s="79"/>
       <c r="M481" s="67"/>
       <c r="N481" s="67"/>
       <c r="O481" s="67"/>
@@ -15504,8 +15701,8 @@
       <c r="Y481" s="67"/>
     </row>
     <row r="482" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A482" s="69"/>
-      <c r="B482" s="70"/>
+      <c r="A482" s="76"/>
+      <c r="B482" s="77"/>
       <c r="C482" s="67"/>
       <c r="D482" s="36">
         <v>45673</v>
@@ -15526,8 +15723,8 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="J482" s="67"/>
-      <c r="K482" s="71"/>
-      <c r="L482" s="72"/>
+      <c r="K482" s="78"/>
+      <c r="L482" s="79"/>
       <c r="M482" s="67"/>
       <c r="N482" s="67"/>
       <c r="O482" s="67"/>
@@ -15543,8 +15740,8 @@
       <c r="Y482" s="67"/>
     </row>
     <row r="483" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A483" s="69"/>
-      <c r="B483" s="70"/>
+      <c r="A483" s="76"/>
+      <c r="B483" s="77"/>
       <c r="C483" s="67"/>
       <c r="D483" s="36">
         <v>45674</v>
@@ -15565,8 +15762,8 @@
         <v>0.33124999999999999</v>
       </c>
       <c r="J483" s="67"/>
-      <c r="K483" s="71"/>
-      <c r="L483" s="72"/>
+      <c r="K483" s="78"/>
+      <c r="L483" s="79"/>
       <c r="M483" s="67"/>
       <c r="N483" s="67"/>
       <c r="O483" s="67"/>
@@ -15582,8 +15779,8 @@
       <c r="Y483" s="67"/>
     </row>
     <row r="484" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A484" s="69"/>
-      <c r="B484" s="70"/>
+      <c r="A484" s="76"/>
+      <c r="B484" s="77"/>
       <c r="C484" s="67"/>
       <c r="D484" s="36">
         <v>45674</v>
@@ -15604,8 +15801,8 @@
         <v>0.33611111111111108</v>
       </c>
       <c r="J484" s="67"/>
-      <c r="K484" s="71"/>
-      <c r="L484" s="72"/>
+      <c r="K484" s="78"/>
+      <c r="L484" s="79"/>
       <c r="M484" s="67"/>
       <c r="N484" s="67"/>
       <c r="O484" s="67"/>
@@ -15621,8 +15818,8 @@
       <c r="Y484" s="67"/>
     </row>
     <row r="485" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A485" s="69"/>
-      <c r="B485" s="70"/>
+      <c r="A485" s="76"/>
+      <c r="B485" s="77"/>
       <c r="C485" s="67"/>
       <c r="D485" s="36">
         <v>45674</v>
@@ -15643,8 +15840,8 @@
         <v>0.41805555555555557</v>
       </c>
       <c r="J485" s="67"/>
-      <c r="K485" s="71"/>
-      <c r="L485" s="72"/>
+      <c r="K485" s="78"/>
+      <c r="L485" s="79"/>
       <c r="M485" s="67"/>
       <c r="N485" s="67"/>
       <c r="O485" s="67"/>
@@ -15660,8 +15857,8 @@
       <c r="Y485" s="67"/>
     </row>
     <row r="486" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A486" s="69"/>
-      <c r="B486" s="70"/>
+      <c r="A486" s="76"/>
+      <c r="B486" s="77"/>
       <c r="C486" s="67"/>
       <c r="D486" s="36">
         <v>45674</v>
@@ -15682,8 +15879,8 @@
         <v>0.4375</v>
       </c>
       <c r="J486" s="67"/>
-      <c r="K486" s="71"/>
-      <c r="L486" s="72"/>
+      <c r="K486" s="78"/>
+      <c r="L486" s="79"/>
       <c r="M486" s="67"/>
       <c r="N486" s="67"/>
       <c r="O486" s="67"/>
@@ -15699,8 +15896,8 @@
       <c r="Y486" s="67"/>
     </row>
     <row r="487" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A487" s="69"/>
-      <c r="B487" s="70"/>
+      <c r="A487" s="76"/>
+      <c r="B487" s="77"/>
       <c r="C487" s="67"/>
       <c r="D487" s="36">
         <v>45674</v>
@@ -15721,8 +15918,8 @@
         <v>0.46875</v>
       </c>
       <c r="J487" s="67"/>
-      <c r="K487" s="71"/>
-      <c r="L487" s="72"/>
+      <c r="K487" s="78"/>
+      <c r="L487" s="79"/>
       <c r="M487" s="67"/>
       <c r="N487" s="67"/>
       <c r="O487" s="67"/>
@@ -15738,8 +15935,8 @@
       <c r="Y487" s="67"/>
     </row>
     <row r="488" spans="1:25" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A488" s="69"/>
-      <c r="B488" s="70"/>
+      <c r="A488" s="76"/>
+      <c r="B488" s="77"/>
       <c r="C488" s="67"/>
       <c r="D488" s="36">
         <v>45674</v>
@@ -15760,8 +15957,8 @@
         <v>0.5</v>
       </c>
       <c r="J488" s="67"/>
-      <c r="K488" s="71"/>
-      <c r="L488" s="72"/>
+      <c r="K488" s="78"/>
+      <c r="L488" s="79"/>
       <c r="M488" s="67"/>
       <c r="N488" s="67"/>
       <c r="O488" s="67"/>
@@ -15777,8 +15974,8 @@
       <c r="Y488" s="67"/>
     </row>
     <row r="489" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A489" s="69"/>
-      <c r="B489" s="70"/>
+      <c r="A489" s="76"/>
+      <c r="B489" s="77"/>
       <c r="C489" s="67"/>
       <c r="D489" s="36">
         <v>45677</v>
@@ -15799,8 +15996,8 @@
         <v>0.33124999999999999</v>
       </c>
       <c r="J489" s="67"/>
-      <c r="K489" s="71"/>
-      <c r="L489" s="72"/>
+      <c r="K489" s="78"/>
+      <c r="L489" s="79"/>
       <c r="M489" s="67"/>
       <c r="N489" s="67"/>
       <c r="O489" s="67"/>
@@ -15816,8 +16013,8 @@
       <c r="Y489" s="67"/>
     </row>
     <row r="490" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A490" s="69"/>
-      <c r="B490" s="70"/>
+      <c r="A490" s="76"/>
+      <c r="B490" s="77"/>
       <c r="C490" s="67"/>
       <c r="D490" s="36">
         <v>45677</v>
@@ -15838,8 +16035,8 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="J490" s="67"/>
-      <c r="K490" s="71"/>
-      <c r="L490" s="72"/>
+      <c r="K490" s="78"/>
+      <c r="L490" s="79"/>
       <c r="M490" s="67"/>
       <c r="N490" s="67"/>
       <c r="O490" s="67"/>
@@ -15855,8 +16052,8 @@
       <c r="Y490" s="67"/>
     </row>
     <row r="491" spans="1:25" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A491" s="69"/>
-      <c r="B491" s="70"/>
+      <c r="A491" s="76"/>
+      <c r="B491" s="77"/>
       <c r="C491" s="67"/>
       <c r="D491" s="36">
         <v>45677</v>
@@ -15877,8 +16074,8 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="J491" s="67"/>
-      <c r="K491" s="71"/>
-      <c r="L491" s="72"/>
+      <c r="K491" s="78"/>
+      <c r="L491" s="79"/>
       <c r="M491" s="67"/>
       <c r="N491" s="67"/>
       <c r="O491" s="67"/>
@@ -15894,8 +16091,8 @@
       <c r="Y491" s="67"/>
     </row>
     <row r="492" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A492" s="69"/>
-      <c r="B492" s="70"/>
+      <c r="A492" s="76"/>
+      <c r="B492" s="77"/>
       <c r="C492" s="67"/>
       <c r="D492" s="36">
         <v>45678</v>
@@ -15916,8 +16113,8 @@
         <v>0.36944444444444446</v>
       </c>
       <c r="J492" s="67"/>
-      <c r="K492" s="71"/>
-      <c r="L492" s="72"/>
+      <c r="K492" s="78"/>
+      <c r="L492" s="79"/>
       <c r="M492" s="67"/>
       <c r="N492" s="67"/>
       <c r="O492" s="67"/>
@@ -15933,8 +16130,8 @@
       <c r="Y492" s="67"/>
     </row>
     <row r="493" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A493" s="69"/>
-      <c r="B493" s="70"/>
+      <c r="A493" s="76"/>
+      <c r="B493" s="77"/>
       <c r="C493" s="67"/>
       <c r="D493" s="36">
         <v>45678</v>
@@ -15955,8 +16152,8 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="J493" s="67"/>
-      <c r="K493" s="71"/>
-      <c r="L493" s="72"/>
+      <c r="K493" s="78"/>
+      <c r="L493" s="79"/>
       <c r="M493" s="67"/>
       <c r="N493" s="67"/>
       <c r="O493" s="67"/>
@@ -15972,8 +16169,8 @@
       <c r="Y493" s="67"/>
     </row>
     <row r="494" spans="1:25" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A494" s="69"/>
-      <c r="B494" s="70"/>
+      <c r="A494" s="76"/>
+      <c r="B494" s="77"/>
       <c r="C494" s="67"/>
       <c r="D494" s="36">
         <v>45678</v>
@@ -15994,8 +16191,8 @@
         <v>0.4375</v>
       </c>
       <c r="J494" s="67"/>
-      <c r="K494" s="71"/>
-      <c r="L494" s="72"/>
+      <c r="K494" s="78"/>
+      <c r="L494" s="79"/>
       <c r="M494" s="67"/>
       <c r="N494" s="67"/>
       <c r="O494" s="67"/>
@@ -16011,8 +16208,8 @@
       <c r="Y494" s="67"/>
     </row>
     <row r="495" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A495" s="69"/>
-      <c r="B495" s="70"/>
+      <c r="A495" s="76"/>
+      <c r="B495" s="77"/>
       <c r="C495" s="67"/>
       <c r="D495" s="36">
         <v>45678</v>
@@ -16033,8 +16230,8 @@
         <v>0.50138888888888888</v>
       </c>
       <c r="J495" s="67"/>
-      <c r="K495" s="71"/>
-      <c r="L495" s="72"/>
+      <c r="K495" s="78"/>
+      <c r="L495" s="79"/>
       <c r="M495" s="67"/>
       <c r="N495" s="67"/>
       <c r="O495" s="67"/>
@@ -16050,8 +16247,8 @@
       <c r="Y495" s="67"/>
     </row>
     <row r="496" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A496" s="69"/>
-      <c r="B496" s="70"/>
+      <c r="A496" s="76"/>
+      <c r="B496" s="77"/>
       <c r="C496" s="67"/>
       <c r="D496" s="36">
         <v>45678</v>
@@ -16072,8 +16269,8 @@
         <v>0.51388888888888895</v>
       </c>
       <c r="J496" s="67"/>
-      <c r="K496" s="71"/>
-      <c r="L496" s="72"/>
+      <c r="K496" s="78"/>
+      <c r="L496" s="79"/>
       <c r="M496" s="67"/>
       <c r="N496" s="67"/>
       <c r="O496" s="67"/>
@@ -16089,8 +16286,8 @@
       <c r="Y496" s="67"/>
     </row>
     <row r="497" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A497" s="69"/>
-      <c r="B497" s="70"/>
+      <c r="A497" s="76"/>
+      <c r="B497" s="77"/>
       <c r="C497" s="67"/>
       <c r="D497" s="36">
         <v>45678</v>
@@ -16111,8 +16308,8 @@
         <v>0.55555555555555558</v>
       </c>
       <c r="J497" s="67"/>
-      <c r="K497" s="71"/>
-      <c r="L497" s="72"/>
+      <c r="K497" s="78"/>
+      <c r="L497" s="79"/>
       <c r="M497" s="67"/>
       <c r="N497" s="67"/>
       <c r="O497" s="67"/>
@@ -16128,8 +16325,8 @@
       <c r="Y497" s="67"/>
     </row>
     <row r="498" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A498" s="69"/>
-      <c r="B498" s="70"/>
+      <c r="A498" s="76"/>
+      <c r="B498" s="77"/>
       <c r="C498" s="67"/>
       <c r="D498" s="36">
         <v>45679</v>
@@ -16150,8 +16347,8 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="J498" s="67"/>
-      <c r="K498" s="71"/>
-      <c r="L498" s="72"/>
+      <c r="K498" s="78"/>
+      <c r="L498" s="79"/>
       <c r="M498" s="67"/>
       <c r="N498" s="67"/>
       <c r="O498" s="67"/>
@@ -16167,8 +16364,8 @@
       <c r="Y498" s="67"/>
     </row>
     <row r="499" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A499" s="69"/>
-      <c r="B499" s="70"/>
+      <c r="A499" s="76"/>
+      <c r="B499" s="77"/>
       <c r="C499" s="67"/>
       <c r="D499" s="36">
         <v>45679</v>
@@ -16189,8 +16386,8 @@
         <v>0.36041666666666666</v>
       </c>
       <c r="J499" s="67"/>
-      <c r="K499" s="71"/>
-      <c r="L499" s="72"/>
+      <c r="K499" s="78"/>
+      <c r="L499" s="79"/>
       <c r="M499" s="67"/>
       <c r="N499" s="67"/>
       <c r="O499" s="67"/>
@@ -16206,8 +16403,8 @@
       <c r="Y499" s="67"/>
     </row>
     <row r="500" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A500" s="69"/>
-      <c r="B500" s="70"/>
+      <c r="A500" s="76"/>
+      <c r="B500" s="77"/>
       <c r="C500" s="67"/>
       <c r="D500" s="36">
         <v>45679</v>
@@ -16228,8 +16425,8 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="J500" s="67"/>
-      <c r="K500" s="71"/>
-      <c r="L500" s="72"/>
+      <c r="K500" s="78"/>
+      <c r="L500" s="79"/>
       <c r="M500" s="67"/>
       <c r="N500" s="67"/>
       <c r="O500" s="67"/>
@@ -16245,8 +16442,8 @@
       <c r="Y500" s="67"/>
     </row>
     <row r="501" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A501" s="69"/>
-      <c r="B501" s="70"/>
+      <c r="A501" s="76"/>
+      <c r="B501" s="77"/>
       <c r="C501" s="67"/>
       <c r="D501" s="36">
         <v>45679</v>
@@ -16267,8 +16464,8 @@
         <v>0.4861111111111111</v>
       </c>
       <c r="J501" s="67"/>
-      <c r="K501" s="71"/>
-      <c r="L501" s="72"/>
+      <c r="K501" s="78"/>
+      <c r="L501" s="79"/>
       <c r="M501" s="67"/>
       <c r="N501" s="67"/>
       <c r="O501" s="67"/>
@@ -16323,8 +16520,8 @@
       <c r="Y502" s="67"/>
     </row>
     <row r="503" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A503" s="69"/>
-      <c r="B503" s="70"/>
+      <c r="A503" s="76"/>
+      <c r="B503" s="77"/>
       <c r="C503" s="67"/>
       <c r="D503" s="36">
         <v>45679</v>
@@ -16345,8 +16542,8 @@
         <v>0.63055555555555554</v>
       </c>
       <c r="J503" s="67"/>
-      <c r="K503" s="71"/>
-      <c r="L503" s="72"/>
+      <c r="K503" s="78"/>
+      <c r="L503" s="79"/>
       <c r="M503" s="67"/>
       <c r="N503" s="67"/>
       <c r="O503" s="67"/>
@@ -16362,8 +16559,8 @@
       <c r="Y503" s="67"/>
     </row>
     <row r="504" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A504" s="69"/>
-      <c r="B504" s="70"/>
+      <c r="A504" s="76"/>
+      <c r="B504" s="77"/>
       <c r="C504" s="67"/>
       <c r="D504" s="36">
         <v>45680</v>
@@ -16384,8 +16581,8 @@
         <v>0.34722222222222227</v>
       </c>
       <c r="J504" s="67"/>
-      <c r="K504" s="71"/>
-      <c r="L504" s="72"/>
+      <c r="K504" s="78"/>
+      <c r="L504" s="79"/>
       <c r="M504" s="67"/>
       <c r="N504" s="67"/>
       <c r="O504" s="67"/>
@@ -16401,8 +16598,8 @@
       <c r="Y504" s="67"/>
     </row>
     <row r="505" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A505" s="69"/>
-      <c r="B505" s="70"/>
+      <c r="A505" s="76"/>
+      <c r="B505" s="77"/>
       <c r="C505" s="67"/>
       <c r="D505" s="36">
         <v>45680</v>
@@ -16423,8 +16620,8 @@
         <v>0.36458333333333331</v>
       </c>
       <c r="J505" s="67"/>
-      <c r="K505" s="71"/>
-      <c r="L505" s="72"/>
+      <c r="K505" s="78"/>
+      <c r="L505" s="79"/>
       <c r="M505" s="67"/>
       <c r="N505" s="67"/>
       <c r="O505" s="67"/>
@@ -16440,8 +16637,8 @@
       <c r="Y505" s="67"/>
     </row>
     <row r="506" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A506" s="69"/>
-      <c r="B506" s="70"/>
+      <c r="A506" s="76"/>
+      <c r="B506" s="77"/>
       <c r="C506" s="67"/>
       <c r="D506" s="36">
         <v>45680</v>
@@ -16462,8 +16659,8 @@
         <v>0.38541666666666669</v>
       </c>
       <c r="J506" s="67"/>
-      <c r="K506" s="71"/>
-      <c r="L506" s="72"/>
+      <c r="K506" s="78"/>
+      <c r="L506" s="79"/>
       <c r="M506" s="67"/>
       <c r="N506" s="67"/>
       <c r="O506" s="67"/>
@@ -16479,8 +16676,8 @@
       <c r="Y506" s="67"/>
     </row>
     <row r="507" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A507" s="69"/>
-      <c r="B507" s="70"/>
+      <c r="A507" s="76"/>
+      <c r="B507" s="77"/>
       <c r="C507" s="67"/>
       <c r="D507" s="36">
         <v>45680</v>
@@ -16501,8 +16698,8 @@
         <v>0.4236111111111111</v>
       </c>
       <c r="J507" s="67"/>
-      <c r="K507" s="71"/>
-      <c r="L507" s="72"/>
+      <c r="K507" s="78"/>
+      <c r="L507" s="79"/>
       <c r="M507" s="67"/>
       <c r="N507" s="67"/>
       <c r="O507" s="67"/>
@@ -16518,8 +16715,8 @@
       <c r="Y507" s="67"/>
     </row>
     <row r="508" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A508" s="69"/>
-      <c r="B508" s="70"/>
+      <c r="A508" s="76"/>
+      <c r="B508" s="77"/>
       <c r="C508" s="67"/>
       <c r="D508" s="36">
         <v>45680</v>
@@ -16540,8 +16737,8 @@
         <v>0.56527777777777777</v>
       </c>
       <c r="J508" s="67"/>
-      <c r="K508" s="71"/>
-      <c r="L508" s="72"/>
+      <c r="K508" s="78"/>
+      <c r="L508" s="79"/>
       <c r="M508" s="67"/>
       <c r="N508" s="67"/>
       <c r="O508" s="67"/>
@@ -16557,8 +16754,8 @@
       <c r="Y508" s="67"/>
     </row>
     <row r="509" spans="1:25" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A509" s="69"/>
-      <c r="B509" s="70"/>
+      <c r="A509" s="76"/>
+      <c r="B509" s="77"/>
       <c r="C509" s="67"/>
       <c r="D509" s="36">
         <v>45681</v>
@@ -16579,8 +16776,8 @@
         <v>0.34722222222222227</v>
       </c>
       <c r="J509" s="67"/>
-      <c r="K509" s="71"/>
-      <c r="L509" s="72"/>
+      <c r="K509" s="78"/>
+      <c r="L509" s="79"/>
       <c r="M509" s="67"/>
       <c r="N509" s="67"/>
       <c r="O509" s="67"/>
@@ -16596,8 +16793,8 @@
       <c r="Y509" s="67"/>
     </row>
     <row r="510" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A510" s="69"/>
-      <c r="B510" s="70"/>
+      <c r="A510" s="76"/>
+      <c r="B510" s="77"/>
       <c r="C510" s="67"/>
       <c r="D510" s="36">
         <v>45681</v>
@@ -16618,8 +16815,8 @@
         <v>0.375</v>
       </c>
       <c r="J510" s="67"/>
-      <c r="K510" s="71"/>
-      <c r="L510" s="72"/>
+      <c r="K510" s="78"/>
+      <c r="L510" s="79"/>
       <c r="M510" s="67"/>
       <c r="N510" s="67"/>
       <c r="O510" s="67"/>
@@ -16635,8 +16832,8 @@
       <c r="Y510" s="67"/>
     </row>
     <row r="511" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A511" s="69"/>
-      <c r="B511" s="70"/>
+      <c r="A511" s="76"/>
+      <c r="B511" s="77"/>
       <c r="C511" s="67"/>
       <c r="D511" s="36">
         <v>45681</v>
@@ -16657,8 +16854,8 @@
         <v>0.42708333333333331</v>
       </c>
       <c r="J511" s="67"/>
-      <c r="K511" s="71"/>
-      <c r="L511" s="72"/>
+      <c r="K511" s="78"/>
+      <c r="L511" s="79"/>
       <c r="M511" s="67"/>
       <c r="N511" s="67"/>
       <c r="O511" s="67"/>
@@ -16674,8 +16871,8 @@
       <c r="Y511" s="67"/>
     </row>
     <row r="512" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A512" s="69"/>
-      <c r="B512" s="70"/>
+      <c r="A512" s="76"/>
+      <c r="B512" s="77"/>
       <c r="C512" s="67"/>
       <c r="D512" s="36">
         <v>45681</v>
@@ -16696,8 +16893,8 @@
         <v>0.5</v>
       </c>
       <c r="J512" s="67"/>
-      <c r="K512" s="71"/>
-      <c r="L512" s="72"/>
+      <c r="K512" s="78"/>
+      <c r="L512" s="79"/>
       <c r="M512" s="67"/>
       <c r="N512" s="67"/>
       <c r="O512" s="67"/>
@@ -16713,8 +16910,8 @@
       <c r="Y512" s="67"/>
     </row>
     <row r="513" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A513" s="69"/>
-      <c r="B513" s="70"/>
+      <c r="A513" s="76"/>
+      <c r="B513" s="77"/>
       <c r="C513" s="67"/>
       <c r="D513" s="36">
         <v>45684</v>
@@ -16735,8 +16932,8 @@
         <v>0.34375</v>
       </c>
       <c r="J513" s="67"/>
-      <c r="K513" s="71"/>
-      <c r="L513" s="72"/>
+      <c r="K513" s="78"/>
+      <c r="L513" s="79"/>
       <c r="M513" s="67"/>
       <c r="N513" s="67"/>
       <c r="O513" s="67"/>
@@ -16752,8 +16949,8 @@
       <c r="Y513" s="67"/>
     </row>
     <row r="514" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A514" s="69"/>
-      <c r="B514" s="70"/>
+      <c r="A514" s="76"/>
+      <c r="B514" s="77"/>
       <c r="C514" s="67"/>
       <c r="D514" s="36">
         <v>45684</v>
@@ -16774,8 +16971,8 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="J514" s="67"/>
-      <c r="K514" s="71"/>
-      <c r="L514" s="72"/>
+      <c r="K514" s="78"/>
+      <c r="L514" s="79"/>
       <c r="M514" s="67"/>
       <c r="N514" s="67"/>
       <c r="O514" s="67"/>
@@ -16791,8 +16988,8 @@
       <c r="Y514" s="67"/>
     </row>
     <row r="515" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A515" s="69"/>
-      <c r="B515" s="70"/>
+      <c r="A515" s="76"/>
+      <c r="B515" s="77"/>
       <c r="C515" s="67"/>
       <c r="D515" s="36">
         <v>45684</v>
@@ -16813,8 +17010,8 @@
         <v>0.4236111111111111</v>
       </c>
       <c r="J515" s="67"/>
-      <c r="K515" s="71"/>
-      <c r="L515" s="72"/>
+      <c r="K515" s="78"/>
+      <c r="L515" s="79"/>
       <c r="M515" s="67"/>
       <c r="N515" s="67"/>
       <c r="O515" s="67"/>
@@ -16830,8 +17027,8 @@
       <c r="Y515" s="67"/>
     </row>
     <row r="516" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A516" s="69"/>
-      <c r="B516" s="70"/>
+      <c r="A516" s="76"/>
+      <c r="B516" s="77"/>
       <c r="C516" s="67"/>
       <c r="D516" s="36">
         <v>45684</v>
@@ -16852,8 +17049,8 @@
         <v>0.43055555555555558</v>
       </c>
       <c r="J516" s="67"/>
-      <c r="K516" s="71"/>
-      <c r="L516" s="72"/>
+      <c r="K516" s="78"/>
+      <c r="L516" s="79"/>
       <c r="M516" s="67"/>
       <c r="N516" s="67"/>
       <c r="O516" s="67"/>
@@ -16869,8 +17066,8 @@
       <c r="Y516" s="67"/>
     </row>
     <row r="517" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A517" s="69"/>
-      <c r="B517" s="70"/>
+      <c r="A517" s="76"/>
+      <c r="B517" s="77"/>
       <c r="C517" s="67"/>
       <c r="D517" s="36">
         <v>45684</v>
@@ -16891,8 +17088,8 @@
         <v>0.43402777777777773</v>
       </c>
       <c r="J517" s="67"/>
-      <c r="K517" s="71"/>
-      <c r="L517" s="72"/>
+      <c r="K517" s="78"/>
+      <c r="L517" s="79"/>
       <c r="M517" s="67"/>
       <c r="N517" s="67"/>
       <c r="O517" s="67"/>
@@ -16908,8 +17105,8 @@
       <c r="Y517" s="67"/>
     </row>
     <row r="518" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A518" s="69"/>
-      <c r="B518" s="70"/>
+      <c r="A518" s="76"/>
+      <c r="B518" s="77"/>
       <c r="C518" s="67"/>
       <c r="D518" s="36">
         <v>45684</v>
@@ -16930,8 +17127,8 @@
         <v>0.57986111111111105</v>
       </c>
       <c r="J518" s="67"/>
-      <c r="K518" s="71"/>
-      <c r="L518" s="72"/>
+      <c r="K518" s="78"/>
+      <c r="L518" s="79"/>
       <c r="M518" s="67"/>
       <c r="N518" s="67"/>
       <c r="O518" s="67"/>
@@ -16947,8 +17144,8 @@
       <c r="Y518" s="67"/>
     </row>
     <row r="519" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A519" s="69"/>
-      <c r="B519" s="70"/>
+      <c r="A519" s="76"/>
+      <c r="B519" s="77"/>
       <c r="C519" s="67"/>
       <c r="D519" s="36">
         <v>45685</v>
@@ -16969,8 +17166,8 @@
         <v>0.34375</v>
       </c>
       <c r="J519" s="67"/>
-      <c r="K519" s="71"/>
-      <c r="L519" s="72"/>
+      <c r="K519" s="78"/>
+      <c r="L519" s="79"/>
       <c r="M519" s="67"/>
       <c r="N519" s="67"/>
       <c r="O519" s="67"/>
@@ -16986,8 +17183,8 @@
       <c r="Y519" s="67"/>
     </row>
     <row r="520" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A520" s="69"/>
-      <c r="B520" s="70"/>
+      <c r="A520" s="76"/>
+      <c r="B520" s="77"/>
       <c r="C520" s="67"/>
       <c r="D520" s="36">
         <v>45685</v>
@@ -17008,8 +17205,8 @@
         <v>0.38541666666666669</v>
       </c>
       <c r="J520" s="67"/>
-      <c r="K520" s="71"/>
-      <c r="L520" s="72"/>
+      <c r="K520" s="78"/>
+      <c r="L520" s="79"/>
       <c r="M520" s="67"/>
       <c r="N520" s="67"/>
       <c r="O520" s="67"/>
@@ -17025,8 +17222,8 @@
       <c r="Y520" s="67"/>
     </row>
     <row r="521" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A521" s="69"/>
-      <c r="B521" s="70"/>
+      <c r="A521" s="76"/>
+      <c r="B521" s="77"/>
       <c r="C521" s="67"/>
       <c r="D521" s="36">
         <v>45685</v>
@@ -17047,8 +17244,8 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="J521" s="67"/>
-      <c r="K521" s="71"/>
-      <c r="L521" s="72"/>
+      <c r="K521" s="78"/>
+      <c r="L521" s="79"/>
       <c r="M521" s="67"/>
       <c r="N521" s="67"/>
       <c r="O521" s="67"/>
@@ -17064,8 +17261,8 @@
       <c r="Y521" s="67"/>
     </row>
     <row r="522" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A522" s="69"/>
-      <c r="B522" s="70"/>
+      <c r="A522" s="76"/>
+      <c r="B522" s="77"/>
       <c r="C522" s="67"/>
       <c r="D522" s="36">
         <v>45685</v>
@@ -17086,8 +17283,8 @@
         <v>0.40972222222222227</v>
       </c>
       <c r="J522" s="67"/>
-      <c r="K522" s="71"/>
-      <c r="L522" s="72"/>
+      <c r="K522" s="78"/>
+      <c r="L522" s="79"/>
       <c r="M522" s="67"/>
       <c r="N522" s="67"/>
       <c r="O522" s="67"/>
@@ -17103,8 +17300,8 @@
       <c r="Y522" s="67"/>
     </row>
     <row r="523" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A523" s="69"/>
-      <c r="B523" s="70"/>
+      <c r="A523" s="76"/>
+      <c r="B523" s="77"/>
       <c r="C523" s="67"/>
       <c r="D523" s="36">
         <v>45685</v>
@@ -17125,8 +17322,8 @@
         <v>0.42708333333333331</v>
       </c>
       <c r="J523" s="67"/>
-      <c r="K523" s="71"/>
-      <c r="L523" s="72"/>
+      <c r="K523" s="78"/>
+      <c r="L523" s="79"/>
       <c r="M523" s="67"/>
       <c r="N523" s="67"/>
       <c r="O523" s="67"/>
@@ -17142,8 +17339,8 @@
       <c r="Y523" s="67"/>
     </row>
     <row r="524" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A524" s="69"/>
-      <c r="B524" s="70"/>
+      <c r="A524" s="76"/>
+      <c r="B524" s="77"/>
       <c r="C524" s="67"/>
       <c r="D524" s="36">
         <v>45685</v>
@@ -17164,8 +17361,8 @@
         <v>0.43402777777777773</v>
       </c>
       <c r="J524" s="67"/>
-      <c r="K524" s="71"/>
-      <c r="L524" s="72"/>
+      <c r="K524" s="78"/>
+      <c r="L524" s="79"/>
       <c r="M524" s="67"/>
       <c r="N524" s="67"/>
       <c r="O524" s="67"/>
@@ -17181,8 +17378,8 @@
       <c r="Y524" s="67"/>
     </row>
     <row r="525" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A525" s="69"/>
-      <c r="B525" s="70"/>
+      <c r="A525" s="76"/>
+      <c r="B525" s="77"/>
       <c r="C525" s="67"/>
       <c r="D525" s="36">
         <v>45685</v>
@@ -17203,8 +17400,8 @@
         <v>0.4548611111111111</v>
       </c>
       <c r="J525" s="67"/>
-      <c r="K525" s="71"/>
-      <c r="L525" s="72"/>
+      <c r="K525" s="78"/>
+      <c r="L525" s="79"/>
       <c r="M525" s="67"/>
       <c r="N525" s="67"/>
       <c r="O525" s="67"/>
@@ -17298,8 +17495,8 @@
       <c r="Y527" s="67"/>
     </row>
     <row r="528" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A528" s="69"/>
-      <c r="B528" s="70"/>
+      <c r="A528" s="76"/>
+      <c r="B528" s="77"/>
       <c r="C528" s="67"/>
       <c r="D528" s="36">
         <v>45686</v>
@@ -17320,8 +17517,8 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="J528" s="67"/>
-      <c r="K528" s="71"/>
-      <c r="L528" s="72"/>
+      <c r="K528" s="78"/>
+      <c r="L528" s="79"/>
       <c r="M528" s="67"/>
       <c r="N528" s="67"/>
       <c r="O528" s="67"/>
@@ -17337,8 +17534,8 @@
       <c r="Y528" s="67"/>
     </row>
     <row r="529" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A529" s="69"/>
-      <c r="B529" s="70"/>
+      <c r="A529" s="76"/>
+      <c r="B529" s="77"/>
       <c r="C529" s="67"/>
       <c r="D529" s="36">
         <v>45686</v>
@@ -17359,8 +17556,8 @@
         <v>0.36805555555555558</v>
       </c>
       <c r="J529" s="67"/>
-      <c r="K529" s="71"/>
-      <c r="L529" s="72"/>
+      <c r="K529" s="78"/>
+      <c r="L529" s="79"/>
       <c r="M529" s="67"/>
       <c r="N529" s="67"/>
       <c r="O529" s="67"/>
@@ -17376,8 +17573,8 @@
       <c r="Y529" s="67"/>
     </row>
     <row r="530" spans="1:25" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A530" s="69"/>
-      <c r="B530" s="70"/>
+      <c r="A530" s="76"/>
+      <c r="B530" s="77"/>
       <c r="C530" s="67"/>
       <c r="D530" s="36">
         <v>45686</v>
@@ -17398,8 +17595,8 @@
         <v>0.40277777777777773</v>
       </c>
       <c r="J530" s="67"/>
-      <c r="K530" s="71"/>
-      <c r="L530" s="72"/>
+      <c r="K530" s="78"/>
+      <c r="L530" s="79"/>
       <c r="M530" s="67"/>
       <c r="N530" s="67"/>
       <c r="O530" s="67"/>
@@ -17415,8 +17612,8 @@
       <c r="Y530" s="67"/>
     </row>
     <row r="531" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A531" s="69"/>
-      <c r="B531" s="70"/>
+      <c r="A531" s="76"/>
+      <c r="B531" s="77"/>
       <c r="C531" s="67"/>
       <c r="D531" s="36">
         <v>45686</v>
@@ -17437,8 +17634,8 @@
         <v>0.41180555555555554</v>
       </c>
       <c r="J531" s="67"/>
-      <c r="K531" s="71"/>
-      <c r="L531" s="72"/>
+      <c r="K531" s="78"/>
+      <c r="L531" s="79"/>
       <c r="M531" s="67"/>
       <c r="N531" s="67"/>
       <c r="O531" s="67"/>
@@ -17454,8 +17651,8 @@
       <c r="Y531" s="67"/>
     </row>
     <row r="532" spans="1:25" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A532" s="69"/>
-      <c r="B532" s="70"/>
+      <c r="A532" s="76"/>
+      <c r="B532" s="77"/>
       <c r="C532" s="66"/>
       <c r="D532" s="24">
         <v>45686</v>
@@ -17476,8 +17673,8 @@
         <v>0.51597222222222217</v>
       </c>
       <c r="J532" s="66"/>
-      <c r="K532" s="71"/>
-      <c r="L532" s="72"/>
+      <c r="K532" s="78"/>
+      <c r="L532" s="79"/>
       <c r="M532" s="66"/>
       <c r="N532" s="66"/>
       <c r="O532" s="66"/>
@@ -17532,8 +17729,8 @@
       <c r="Y533" s="67"/>
     </row>
     <row r="534" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A534" s="69"/>
-      <c r="B534" s="70"/>
+      <c r="A534" s="76"/>
+      <c r="B534" s="77"/>
       <c r="C534" s="67"/>
       <c r="D534" s="36">
         <v>45687</v>
@@ -17554,8 +17751,8 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="J534" s="67"/>
-      <c r="K534" s="71"/>
-      <c r="L534" s="72"/>
+      <c r="K534" s="78"/>
+      <c r="L534" s="79"/>
       <c r="M534" s="67"/>
       <c r="N534" s="67"/>
       <c r="O534" s="67"/>
@@ -17571,8 +17768,8 @@
       <c r="Y534" s="67"/>
     </row>
     <row r="535" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A535" s="69"/>
-      <c r="B535" s="70"/>
+      <c r="A535" s="76"/>
+      <c r="B535" s="77"/>
       <c r="C535" s="67"/>
       <c r="D535" s="36">
         <v>45687</v>
@@ -17593,8 +17790,8 @@
         <v>0.39930555555555558</v>
       </c>
       <c r="J535" s="67"/>
-      <c r="K535" s="71"/>
-      <c r="L535" s="72"/>
+      <c r="K535" s="78"/>
+      <c r="L535" s="79"/>
       <c r="M535" s="67"/>
       <c r="N535" s="67"/>
       <c r="O535" s="67"/>
@@ -17610,8 +17807,8 @@
       <c r="Y535" s="67"/>
     </row>
     <row r="536" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A536" s="69"/>
-      <c r="B536" s="70"/>
+      <c r="A536" s="76"/>
+      <c r="B536" s="77"/>
       <c r="C536" s="67"/>
       <c r="D536" s="36">
         <v>45687</v>
@@ -17632,8 +17829,8 @@
         <v>0.4375</v>
       </c>
       <c r="J536" s="67"/>
-      <c r="K536" s="71"/>
-      <c r="L536" s="72"/>
+      <c r="K536" s="78"/>
+      <c r="L536" s="79"/>
       <c r="M536" s="67"/>
       <c r="N536" s="67"/>
       <c r="O536" s="67"/>
@@ -17649,8 +17846,8 @@
       <c r="Y536" s="67"/>
     </row>
     <row r="537" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A537" s="69"/>
-      <c r="B537" s="70"/>
+      <c r="A537" s="76"/>
+      <c r="B537" s="77"/>
       <c r="C537" s="67"/>
       <c r="D537" s="36">
         <v>45687</v>
@@ -17671,8 +17868,8 @@
         <v>0.46527777777777773</v>
       </c>
       <c r="J537" s="67"/>
-      <c r="K537" s="71"/>
-      <c r="L537" s="72"/>
+      <c r="K537" s="78"/>
+      <c r="L537" s="79"/>
       <c r="M537" s="67"/>
       <c r="N537" s="67"/>
       <c r="O537" s="67"/>
@@ -17688,8 +17885,8 @@
       <c r="Y537" s="67"/>
     </row>
     <row r="538" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A538" s="69"/>
-      <c r="B538" s="70"/>
+      <c r="A538" s="76"/>
+      <c r="B538" s="77"/>
       <c r="C538" s="67"/>
       <c r="D538" s="36">
         <v>45687</v>
@@ -17710,8 +17907,8 @@
         <v>0.47222222222222227</v>
       </c>
       <c r="J538" s="67"/>
-      <c r="K538" s="71"/>
-      <c r="L538" s="72"/>
+      <c r="K538" s="78"/>
+      <c r="L538" s="79"/>
       <c r="M538" s="67"/>
       <c r="N538" s="67"/>
       <c r="O538" s="67"/>
@@ -17727,8 +17924,8 @@
       <c r="Y538" s="67"/>
     </row>
     <row r="539" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A539" s="69"/>
-      <c r="B539" s="70"/>
+      <c r="A539" s="76"/>
+      <c r="B539" s="77"/>
       <c r="C539" s="67"/>
       <c r="D539" s="36">
         <v>45687</v>
@@ -17749,8 +17946,8 @@
         <v>0.51736111111111105</v>
       </c>
       <c r="J539" s="67"/>
-      <c r="K539" s="71"/>
-      <c r="L539" s="72"/>
+      <c r="K539" s="78"/>
+      <c r="L539" s="79"/>
       <c r="M539" s="67"/>
       <c r="N539" s="67"/>
       <c r="O539" s="67"/>
@@ -17766,8 +17963,8 @@
       <c r="Y539" s="67"/>
     </row>
     <row r="540" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A540" s="69"/>
-      <c r="B540" s="70"/>
+      <c r="A540" s="76"/>
+      <c r="B540" s="77"/>
       <c r="C540" s="67"/>
       <c r="D540" s="36">
         <v>45688</v>
@@ -17788,8 +17985,8 @@
         <v>0.33194444444444443</v>
       </c>
       <c r="J540" s="67"/>
-      <c r="K540" s="71"/>
-      <c r="L540" s="72"/>
+      <c r="K540" s="78"/>
+      <c r="L540" s="79"/>
       <c r="M540" s="67"/>
       <c r="N540" s="67"/>
       <c r="O540" s="67"/>
@@ -17805,8 +18002,8 @@
       <c r="Y540" s="67"/>
     </row>
     <row r="541" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A541" s="69"/>
-      <c r="B541" s="70"/>
+      <c r="A541" s="76"/>
+      <c r="B541" s="77"/>
       <c r="C541" s="67"/>
       <c r="D541" s="36">
         <v>45688</v>
@@ -17827,8 +18024,8 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="J541" s="67"/>
-      <c r="K541" s="71"/>
-      <c r="L541" s="72"/>
+      <c r="K541" s="78"/>
+      <c r="L541" s="79"/>
       <c r="M541" s="67"/>
       <c r="N541" s="67"/>
       <c r="O541" s="67"/>
@@ -17844,8 +18041,8 @@
       <c r="Y541" s="67"/>
     </row>
     <row r="542" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A542" s="69"/>
-      <c r="B542" s="70"/>
+      <c r="A542" s="76"/>
+      <c r="B542" s="77"/>
       <c r="C542" s="67"/>
       <c r="D542" s="36">
         <v>45688</v>
@@ -17866,8 +18063,8 @@
         <v>0.34861111111111115</v>
       </c>
       <c r="J542" s="67"/>
-      <c r="K542" s="71"/>
-      <c r="L542" s="72"/>
+      <c r="K542" s="78"/>
+      <c r="L542" s="79"/>
       <c r="M542" s="67"/>
       <c r="N542" s="67"/>
       <c r="O542" s="67"/>
@@ -17883,8 +18080,8 @@
       <c r="Y542" s="67"/>
     </row>
     <row r="543" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A543" s="69"/>
-      <c r="B543" s="70"/>
+      <c r="A543" s="76"/>
+      <c r="B543" s="77"/>
       <c r="C543" s="67"/>
       <c r="D543" s="36">
         <v>45688</v>
@@ -17905,8 +18102,8 @@
         <v>0.3611111111111111</v>
       </c>
       <c r="J543" s="67"/>
-      <c r="K543" s="71"/>
-      <c r="L543" s="72"/>
+      <c r="K543" s="78"/>
+      <c r="L543" s="79"/>
       <c r="M543" s="67"/>
       <c r="N543" s="67"/>
       <c r="O543" s="67"/>
@@ -17922,8 +18119,8 @@
       <c r="Y543" s="67"/>
     </row>
     <row r="544" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A544" s="69"/>
-      <c r="B544" s="70"/>
+      <c r="A544" s="76"/>
+      <c r="B544" s="77"/>
       <c r="C544" s="67"/>
       <c r="D544" s="36">
         <v>45688</v>
@@ -17944,8 +18141,8 @@
         <v>0.375</v>
       </c>
       <c r="J544" s="67"/>
-      <c r="K544" s="71"/>
-      <c r="L544" s="72"/>
+      <c r="K544" s="78"/>
+      <c r="L544" s="79"/>
       <c r="M544" s="67"/>
       <c r="N544" s="67"/>
       <c r="O544" s="67"/>
@@ -17961,8 +18158,8 @@
       <c r="Y544" s="67"/>
     </row>
     <row r="545" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A545" s="69"/>
-      <c r="B545" s="70"/>
+      <c r="A545" s="76"/>
+      <c r="B545" s="77"/>
       <c r="C545" s="67"/>
       <c r="D545" s="36">
         <v>45688</v>
@@ -17983,8 +18180,8 @@
         <v>0.4069444444444445</v>
       </c>
       <c r="J545" s="67"/>
-      <c r="K545" s="71"/>
-      <c r="L545" s="72"/>
+      <c r="K545" s="78"/>
+      <c r="L545" s="79"/>
       <c r="M545" s="67"/>
       <c r="N545" s="67"/>
       <c r="O545" s="67"/>
@@ -18000,8 +18197,8 @@
       <c r="Y545" s="67"/>
     </row>
     <row r="546" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A546" s="69"/>
-      <c r="B546" s="70"/>
+      <c r="A546" s="76"/>
+      <c r="B546" s="77"/>
       <c r="C546" s="67"/>
       <c r="D546" s="36">
         <v>45688</v>
@@ -18022,8 +18219,8 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="J546" s="67"/>
-      <c r="K546" s="71"/>
-      <c r="L546" s="72"/>
+      <c r="K546" s="78"/>
+      <c r="L546" s="79"/>
       <c r="M546" s="67"/>
       <c r="N546" s="67"/>
       <c r="O546" s="67"/>
@@ -18039,8 +18236,8 @@
       <c r="Y546" s="67"/>
     </row>
     <row r="547" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A547" s="69"/>
-      <c r="B547" s="70"/>
+      <c r="A547" s="76"/>
+      <c r="B547" s="77"/>
       <c r="C547" s="67"/>
       <c r="D547" s="36">
         <v>45688</v>
@@ -18061,8 +18258,8 @@
         <v>0.44097222222222227</v>
       </c>
       <c r="J547" s="67"/>
-      <c r="K547" s="71"/>
-      <c r="L547" s="72"/>
+      <c r="K547" s="78"/>
+      <c r="L547" s="79"/>
       <c r="M547" s="67"/>
       <c r="N547" s="67"/>
       <c r="O547" s="67"/>
@@ -18078,8 +18275,8 @@
       <c r="Y547" s="67"/>
     </row>
     <row r="548" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A548" s="69"/>
-      <c r="B548" s="70"/>
+      <c r="A548" s="76"/>
+      <c r="B548" s="77"/>
       <c r="C548" s="67"/>
       <c r="D548" s="36">
         <v>45688</v>
@@ -18100,8 +18297,8 @@
         <v>0.54583333333333328</v>
       </c>
       <c r="J548" s="67"/>
-      <c r="K548" s="71"/>
-      <c r="L548" s="72"/>
+      <c r="K548" s="78"/>
+      <c r="L548" s="79"/>
       <c r="M548" s="67"/>
       <c r="N548" s="67"/>
       <c r="O548" s="67"/>
@@ -18117,8 +18314,8 @@
       <c r="Y548" s="67"/>
     </row>
     <row r="549" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A549" s="69"/>
-      <c r="B549" s="70"/>
+      <c r="A549" s="76"/>
+      <c r="B549" s="77"/>
       <c r="C549" s="67"/>
       <c r="D549" s="36">
         <v>45691</v>
@@ -18139,8 +18336,8 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="J549" s="67"/>
-      <c r="K549" s="71"/>
-      <c r="L549" s="72"/>
+      <c r="K549" s="78"/>
+      <c r="L549" s="79"/>
       <c r="M549" s="67"/>
       <c r="N549" s="67"/>
       <c r="O549" s="67"/>
@@ -18156,8 +18353,8 @@
       <c r="Y549" s="67"/>
     </row>
     <row r="550" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A550" s="69"/>
-      <c r="B550" s="70"/>
+      <c r="A550" s="76"/>
+      <c r="B550" s="77"/>
       <c r="C550" s="67"/>
       <c r="D550" s="36">
         <v>45691</v>
@@ -18178,8 +18375,8 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="J550" s="67"/>
-      <c r="K550" s="71"/>
-      <c r="L550" s="72"/>
+      <c r="K550" s="78"/>
+      <c r="L550" s="79"/>
       <c r="M550" s="67"/>
       <c r="N550" s="67"/>
       <c r="O550" s="67"/>
@@ -18195,8 +18392,8 @@
       <c r="Y550" s="67"/>
     </row>
     <row r="551" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A551" s="69"/>
-      <c r="B551" s="70"/>
+      <c r="A551" s="76"/>
+      <c r="B551" s="77"/>
       <c r="C551" s="66"/>
       <c r="D551" s="24">
         <v>45691</v>
@@ -18217,8 +18414,8 @@
         <v>0.46527777777777773</v>
       </c>
       <c r="J551" s="66"/>
-      <c r="K551" s="71"/>
-      <c r="L551" s="72"/>
+      <c r="K551" s="78"/>
+      <c r="L551" s="79"/>
       <c r="M551" s="66"/>
       <c r="N551" s="66"/>
       <c r="O551" s="66"/>
@@ -18234,8 +18431,8 @@
       <c r="Y551" s="66"/>
     </row>
     <row r="552" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A552" s="69"/>
-      <c r="B552" s="70"/>
+      <c r="A552" s="76"/>
+      <c r="B552" s="77"/>
       <c r="C552" s="66"/>
       <c r="D552" s="24">
         <v>45692</v>
@@ -18256,8 +18453,8 @@
         <v>0.33680555555555558</v>
       </c>
       <c r="J552" s="66"/>
-      <c r="K552" s="71"/>
-      <c r="L552" s="72"/>
+      <c r="K552" s="78"/>
+      <c r="L552" s="79"/>
       <c r="M552" s="66"/>
       <c r="N552" s="66"/>
       <c r="O552" s="66"/>
@@ -18273,8 +18470,8 @@
       <c r="Y552" s="66"/>
     </row>
     <row r="553" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A553" s="69"/>
-      <c r="B553" s="70"/>
+      <c r="A553" s="76"/>
+      <c r="B553" s="77"/>
       <c r="C553" s="67"/>
       <c r="D553" s="36">
         <v>45692</v>
@@ -18295,8 +18492,8 @@
         <v>0.34236111111111112</v>
       </c>
       <c r="J553" s="67"/>
-      <c r="K553" s="71"/>
-      <c r="L553" s="72"/>
+      <c r="K553" s="78"/>
+      <c r="L553" s="79"/>
       <c r="M553" s="67"/>
       <c r="N553" s="67"/>
       <c r="O553" s="67"/>
@@ -18312,8 +18509,8 @@
       <c r="Y553" s="67"/>
     </row>
     <row r="554" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A554" s="69"/>
-      <c r="B554" s="70"/>
+      <c r="A554" s="76"/>
+      <c r="B554" s="77"/>
       <c r="C554" s="67"/>
       <c r="D554" s="36">
         <v>45692</v>
@@ -18334,8 +18531,8 @@
         <v>0.3888888888888889</v>
       </c>
       <c r="J554" s="67"/>
-      <c r="K554" s="71"/>
-      <c r="L554" s="72"/>
+      <c r="K554" s="78"/>
+      <c r="L554" s="79"/>
       <c r="M554" s="67"/>
       <c r="N554" s="67"/>
       <c r="O554" s="67"/>
@@ -18351,8 +18548,8 @@
       <c r="Y554" s="67"/>
     </row>
     <row r="555" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A555" s="69"/>
-      <c r="B555" s="70"/>
+      <c r="A555" s="76"/>
+      <c r="B555" s="77"/>
       <c r="C555" s="67"/>
       <c r="D555" s="36">
         <v>45692</v>
@@ -18373,8 +18570,8 @@
         <v>0.39652777777777781</v>
       </c>
       <c r="J555" s="67"/>
-      <c r="K555" s="71"/>
-      <c r="L555" s="72"/>
+      <c r="K555" s="78"/>
+      <c r="L555" s="79"/>
       <c r="M555" s="67"/>
       <c r="N555" s="67"/>
       <c r="O555" s="67"/>
@@ -18390,8 +18587,8 @@
       <c r="Y555" s="67"/>
     </row>
     <row r="556" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A556" s="69"/>
-      <c r="B556" s="70"/>
+      <c r="A556" s="76"/>
+      <c r="B556" s="77"/>
       <c r="C556" s="67"/>
       <c r="D556" s="36">
         <v>45692</v>
@@ -18412,8 +18609,8 @@
         <v>0.40625</v>
       </c>
       <c r="J556" s="67"/>
-      <c r="K556" s="71"/>
-      <c r="L556" s="72"/>
+      <c r="K556" s="78"/>
+      <c r="L556" s="79"/>
       <c r="M556" s="67"/>
       <c r="N556" s="67"/>
       <c r="O556" s="67"/>
@@ -18429,8 +18626,8 @@
       <c r="Y556" s="67"/>
     </row>
     <row r="557" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A557" s="69"/>
-      <c r="B557" s="70"/>
+      <c r="A557" s="76"/>
+      <c r="B557" s="77"/>
       <c r="C557" s="67"/>
       <c r="D557" s="36">
         <v>45692</v>
@@ -18451,8 +18648,8 @@
         <v>0.50069444444444444</v>
       </c>
       <c r="J557" s="67"/>
-      <c r="K557" s="71"/>
-      <c r="L557" s="72"/>
+      <c r="K557" s="78"/>
+      <c r="L557" s="79"/>
       <c r="M557" s="67"/>
       <c r="N557" s="67"/>
       <c r="O557" s="67"/>
@@ -18468,8 +18665,8 @@
       <c r="Y557" s="67"/>
     </row>
     <row r="558" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A558" s="69"/>
-      <c r="B558" s="70"/>
+      <c r="A558" s="76"/>
+      <c r="B558" s="77"/>
       <c r="C558" s="67"/>
       <c r="D558" s="36">
         <v>45692</v>
@@ -18490,8 +18687,8 @@
         <v>0.53125</v>
       </c>
       <c r="J558" s="67"/>
-      <c r="K558" s="71"/>
-      <c r="L558" s="72"/>
+      <c r="K558" s="78"/>
+      <c r="L558" s="79"/>
       <c r="M558" s="67"/>
       <c r="N558" s="67"/>
       <c r="O558" s="67"/>
@@ -18507,8 +18704,8 @@
       <c r="Y558" s="67"/>
     </row>
     <row r="559" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A559" s="69"/>
-      <c r="B559" s="70"/>
+      <c r="A559" s="76"/>
+      <c r="B559" s="77"/>
       <c r="C559" s="66"/>
       <c r="D559" s="24">
         <v>45693</v>
@@ -18529,8 +18726,8 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="J559" s="66"/>
-      <c r="K559" s="71"/>
-      <c r="L559" s="72"/>
+      <c r="K559" s="78"/>
+      <c r="L559" s="79"/>
       <c r="M559" s="66"/>
       <c r="N559" s="66"/>
       <c r="O559" s="66"/>
@@ -18546,8 +18743,8 @@
       <c r="Y559" s="66"/>
     </row>
     <row r="560" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A560" s="69"/>
-      <c r="B560" s="70"/>
+      <c r="A560" s="76"/>
+      <c r="B560" s="77"/>
       <c r="C560" s="67"/>
       <c r="D560" s="36">
         <v>45693</v>
@@ -18568,8 +18765,8 @@
         <v>0.41805555555555557</v>
       </c>
       <c r="J560" s="67"/>
-      <c r="K560" s="71"/>
-      <c r="L560" s="72"/>
+      <c r="K560" s="78"/>
+      <c r="L560" s="79"/>
       <c r="M560" s="67"/>
       <c r="N560" s="67"/>
       <c r="O560" s="67"/>
@@ -18585,8 +18782,8 @@
       <c r="Y560" s="67"/>
     </row>
     <row r="561" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A561" s="69"/>
-      <c r="B561" s="70"/>
+      <c r="A561" s="76"/>
+      <c r="B561" s="77"/>
       <c r="C561" s="67"/>
       <c r="D561" s="36">
         <v>45693</v>
@@ -18607,8 +18804,8 @@
         <v>0.46249999999999997</v>
       </c>
       <c r="J561" s="67"/>
-      <c r="K561" s="71"/>
-      <c r="L561" s="72"/>
+      <c r="K561" s="78"/>
+      <c r="L561" s="79"/>
       <c r="M561" s="67"/>
       <c r="N561" s="67"/>
       <c r="O561" s="67"/>
@@ -18624,8 +18821,8 @@
       <c r="Y561" s="67"/>
     </row>
     <row r="562" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A562" s="69"/>
-      <c r="B562" s="70"/>
+      <c r="A562" s="76"/>
+      <c r="B562" s="77"/>
       <c r="C562" s="67"/>
       <c r="D562" s="36">
         <v>45693</v>
@@ -18646,8 +18843,8 @@
         <v>0.49305555555555558</v>
       </c>
       <c r="J562" s="67"/>
-      <c r="K562" s="71"/>
-      <c r="L562" s="72"/>
+      <c r="K562" s="78"/>
+      <c r="L562" s="79"/>
       <c r="M562" s="67"/>
       <c r="N562" s="67"/>
       <c r="O562" s="67"/>
@@ -18702,8 +18899,8 @@
       <c r="Y563" s="67"/>
     </row>
     <row r="564" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A564" s="69"/>
-      <c r="B564" s="70"/>
+      <c r="A564" s="76"/>
+      <c r="B564" s="77"/>
       <c r="C564" s="67"/>
       <c r="D564" s="36">
         <v>45693</v>
@@ -18724,8 +18921,8 @@
         <v>0.54861111111111105</v>
       </c>
       <c r="J564" s="67"/>
-      <c r="K564" s="71"/>
-      <c r="L564" s="72"/>
+      <c r="K564" s="78"/>
+      <c r="L564" s="79"/>
       <c r="M564" s="67"/>
       <c r="N564" s="67"/>
       <c r="O564" s="67"/>
@@ -18741,8 +18938,8 @@
       <c r="Y564" s="67"/>
     </row>
     <row r="565" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A565" s="69"/>
-      <c r="B565" s="70"/>
+      <c r="A565" s="76"/>
+      <c r="B565" s="77"/>
       <c r="C565" s="66"/>
       <c r="D565" s="24">
         <v>45693</v>
@@ -18763,8 +18960,8 @@
         <v>0.5708333333333333</v>
       </c>
       <c r="J565" s="66"/>
-      <c r="K565" s="71"/>
-      <c r="L565" s="72"/>
+      <c r="K565" s="78"/>
+      <c r="L565" s="79"/>
       <c r="M565" s="66"/>
       <c r="N565" s="66"/>
       <c r="O565" s="66"/>
@@ -18780,8 +18977,8 @@
       <c r="Y565" s="66"/>
     </row>
     <row r="566" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A566" s="69"/>
-      <c r="B566" s="70"/>
+      <c r="A566" s="76"/>
+      <c r="B566" s="77"/>
       <c r="C566" s="66"/>
       <c r="D566" s="24">
         <v>45694</v>
@@ -18802,8 +18999,8 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="J566" s="66"/>
-      <c r="K566" s="71"/>
-      <c r="L566" s="72"/>
+      <c r="K566" s="78"/>
+      <c r="L566" s="79"/>
       <c r="M566" s="66"/>
       <c r="N566" s="66"/>
       <c r="O566" s="66"/>
@@ -18819,8 +19016,8 @@
       <c r="Y566" s="66"/>
     </row>
     <row r="567" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A567" s="69"/>
-      <c r="B567" s="70"/>
+      <c r="A567" s="76"/>
+      <c r="B567" s="77"/>
       <c r="C567" s="67"/>
       <c r="D567" s="36">
         <v>45694</v>
@@ -18841,8 +19038,8 @@
         <v>0.34722222222222227</v>
       </c>
       <c r="J567" s="67"/>
-      <c r="K567" s="71"/>
-      <c r="L567" s="72"/>
+      <c r="K567" s="78"/>
+      <c r="L567" s="79"/>
       <c r="M567" s="67"/>
       <c r="N567" s="67"/>
       <c r="O567" s="67"/>
@@ -18858,8 +19055,8 @@
       <c r="Y567" s="67"/>
     </row>
     <row r="568" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A568" s="69"/>
-      <c r="B568" s="70"/>
+      <c r="A568" s="76"/>
+      <c r="B568" s="77"/>
       <c r="C568" s="67"/>
       <c r="D568" s="36">
         <v>45694</v>
@@ -18880,8 +19077,8 @@
         <v>0.36805555555555558</v>
       </c>
       <c r="J568" s="67"/>
-      <c r="K568" s="71"/>
-      <c r="L568" s="72"/>
+      <c r="K568" s="78"/>
+      <c r="L568" s="79"/>
       <c r="M568" s="67"/>
       <c r="N568" s="67"/>
       <c r="O568" s="67"/>
@@ -18897,8 +19094,8 @@
       <c r="Y568" s="67"/>
     </row>
     <row r="569" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A569" s="69"/>
-      <c r="B569" s="70"/>
+      <c r="A569" s="76"/>
+      <c r="B569" s="77"/>
       <c r="C569" s="67"/>
       <c r="D569" s="36">
         <v>45694</v>
@@ -18919,8 +19116,8 @@
         <v>0.40138888888888885</v>
       </c>
       <c r="J569" s="67"/>
-      <c r="K569" s="71"/>
-      <c r="L569" s="72"/>
+      <c r="K569" s="78"/>
+      <c r="L569" s="79"/>
       <c r="M569" s="67"/>
       <c r="N569" s="67"/>
       <c r="O569" s="67"/>
@@ -18936,8 +19133,8 @@
       <c r="Y569" s="67"/>
     </row>
     <row r="570" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A570" s="69"/>
-      <c r="B570" s="70"/>
+      <c r="A570" s="76"/>
+      <c r="B570" s="77"/>
       <c r="C570" s="66"/>
       <c r="D570" s="24">
         <v>45694</v>
@@ -18958,8 +19155,8 @@
         <v>0.40625</v>
       </c>
       <c r="J570" s="66"/>
-      <c r="K570" s="71"/>
-      <c r="L570" s="72"/>
+      <c r="K570" s="78"/>
+      <c r="L570" s="79"/>
       <c r="M570" s="66"/>
       <c r="N570" s="66"/>
       <c r="O570" s="66"/>
@@ -19014,8 +19211,8 @@
       <c r="Y571" s="67"/>
     </row>
     <row r="572" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A572" s="69"/>
-      <c r="B572" s="70"/>
+      <c r="A572" s="76"/>
+      <c r="B572" s="77"/>
       <c r="C572" s="67"/>
       <c r="D572" s="36">
         <v>45694</v>
@@ -19036,8 +19233,8 @@
         <v>0.4770833333333333</v>
       </c>
       <c r="J572" s="67"/>
-      <c r="K572" s="71"/>
-      <c r="L572" s="72"/>
+      <c r="K572" s="78"/>
+      <c r="L572" s="79"/>
       <c r="M572" s="67"/>
       <c r="N572" s="67"/>
       <c r="O572" s="67"/>
@@ -19053,8 +19250,8 @@
       <c r="Y572" s="67"/>
     </row>
     <row r="573" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A573" s="69"/>
-      <c r="B573" s="70"/>
+      <c r="A573" s="76"/>
+      <c r="B573" s="77"/>
       <c r="C573" s="67"/>
       <c r="D573" s="36">
         <v>45694</v>
@@ -19075,8 +19272,8 @@
         <v>0.49305555555555558</v>
       </c>
       <c r="J573" s="67"/>
-      <c r="K573" s="71"/>
-      <c r="L573" s="72"/>
+      <c r="K573" s="78"/>
+      <c r="L573" s="79"/>
       <c r="M573" s="67"/>
       <c r="N573" s="67"/>
       <c r="O573" s="67"/>
@@ -19092,8 +19289,8 @@
       <c r="Y573" s="67"/>
     </row>
     <row r="574" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A574" s="69"/>
-      <c r="B574" s="70"/>
+      <c r="A574" s="76"/>
+      <c r="B574" s="77"/>
       <c r="C574" s="66"/>
       <c r="D574" s="24">
         <v>45694</v>
@@ -19114,8 +19311,8 @@
         <v>0.49652777777777773</v>
       </c>
       <c r="J574" s="66"/>
-      <c r="K574" s="71"/>
-      <c r="L574" s="72"/>
+      <c r="K574" s="78"/>
+      <c r="L574" s="79"/>
       <c r="M574" s="66"/>
       <c r="N574" s="66"/>
       <c r="O574" s="66"/>
@@ -19131,8 +19328,8 @@
       <c r="Y574" s="66"/>
     </row>
     <row r="575" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A575" s="69"/>
-      <c r="B575" s="70"/>
+      <c r="A575" s="76"/>
+      <c r="B575" s="77"/>
       <c r="C575" s="66"/>
       <c r="D575" s="24">
         <v>45695</v>
@@ -19153,8 +19350,8 @@
         <v>0.375</v>
       </c>
       <c r="J575" s="66"/>
-      <c r="K575" s="71"/>
-      <c r="L575" s="72"/>
+      <c r="K575" s="78"/>
+      <c r="L575" s="79"/>
       <c r="M575" s="66"/>
       <c r="N575" s="66"/>
       <c r="O575" s="66"/>
@@ -19170,8 +19367,8 @@
       <c r="Y575" s="66"/>
     </row>
     <row r="576" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A576" s="69"/>
-      <c r="B576" s="70"/>
+      <c r="A576" s="76"/>
+      <c r="B576" s="77"/>
       <c r="C576" s="67"/>
       <c r="D576" s="36">
         <v>45695</v>
@@ -19192,8 +19389,8 @@
         <v>0.41319444444444442</v>
       </c>
       <c r="J576" s="67"/>
-      <c r="K576" s="71"/>
-      <c r="L576" s="72"/>
+      <c r="K576" s="78"/>
+      <c r="L576" s="79"/>
       <c r="M576" s="67"/>
       <c r="N576" s="67"/>
       <c r="O576" s="67"/>
@@ -19209,8 +19406,8 @@
       <c r="Y576" s="67"/>
     </row>
     <row r="577" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A577" s="69"/>
-      <c r="B577" s="70"/>
+      <c r="A577" s="76"/>
+      <c r="B577" s="77"/>
       <c r="C577" s="67"/>
       <c r="D577" s="36">
         <v>45695</v>
@@ -19231,8 +19428,8 @@
         <v>0.4548611111111111</v>
       </c>
       <c r="J577" s="67"/>
-      <c r="K577" s="71"/>
-      <c r="L577" s="72"/>
+      <c r="K577" s="78"/>
+      <c r="L577" s="79"/>
       <c r="M577" s="67"/>
       <c r="N577" s="67"/>
       <c r="O577" s="67"/>
@@ -19248,8 +19445,8 @@
       <c r="Y577" s="67"/>
     </row>
     <row r="578" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A578" s="69"/>
-      <c r="B578" s="70"/>
+      <c r="A578" s="76"/>
+      <c r="B578" s="77"/>
       <c r="C578" s="67"/>
       <c r="D578" s="36">
         <v>45695</v>
@@ -19270,8 +19467,8 @@
         <v>0.46180555555555558</v>
       </c>
       <c r="J578" s="67"/>
-      <c r="K578" s="71"/>
-      <c r="L578" s="72"/>
+      <c r="K578" s="78"/>
+      <c r="L578" s="79"/>
       <c r="M578" s="67"/>
       <c r="N578" s="67"/>
       <c r="O578" s="67"/>
@@ -19287,8 +19484,8 @@
       <c r="Y578" s="67"/>
     </row>
     <row r="579" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A579" s="69"/>
-      <c r="B579" s="70"/>
+      <c r="A579" s="76"/>
+      <c r="B579" s="77"/>
       <c r="C579" s="67"/>
       <c r="D579" s="36">
         <v>45695</v>
@@ -19309,8 +19506,8 @@
         <v>0.47222222222222227</v>
       </c>
       <c r="J579" s="67"/>
-      <c r="K579" s="71"/>
-      <c r="L579" s="72"/>
+      <c r="K579" s="78"/>
+      <c r="L579" s="79"/>
       <c r="M579" s="67"/>
       <c r="N579" s="67"/>
       <c r="O579" s="67"/>
@@ -19326,8 +19523,8 @@
       <c r="Y579" s="67"/>
     </row>
     <row r="580" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A580" s="69"/>
-      <c r="B580" s="70"/>
+      <c r="A580" s="76"/>
+      <c r="B580" s="77"/>
       <c r="C580" s="67"/>
       <c r="D580" s="36">
         <v>45695</v>
@@ -19348,8 +19545,8 @@
         <v>0.5625</v>
       </c>
       <c r="J580" s="67"/>
-      <c r="K580" s="71"/>
-      <c r="L580" s="72"/>
+      <c r="K580" s="78"/>
+      <c r="L580" s="79"/>
       <c r="M580" s="67"/>
       <c r="N580" s="67"/>
       <c r="O580" s="67"/>
@@ -19365,8 +19562,8 @@
       <c r="Y580" s="67"/>
     </row>
     <row r="581" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A581" s="69"/>
-      <c r="B581" s="70"/>
+      <c r="A581" s="76"/>
+      <c r="B581" s="77"/>
       <c r="C581" s="67"/>
       <c r="D581" s="36">
         <v>45698</v>
@@ -19387,8 +19584,8 @@
         <v>0.36458333333333331</v>
       </c>
       <c r="J581" s="67"/>
-      <c r="K581" s="71"/>
-      <c r="L581" s="72"/>
+      <c r="K581" s="78"/>
+      <c r="L581" s="79"/>
       <c r="M581" s="67"/>
       <c r="N581" s="67"/>
       <c r="O581" s="67"/>
@@ -19404,8 +19601,8 @@
       <c r="Y581" s="67"/>
     </row>
     <row r="582" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A582" s="69"/>
-      <c r="B582" s="70"/>
+      <c r="A582" s="76"/>
+      <c r="B582" s="77"/>
       <c r="C582" s="67"/>
       <c r="D582" s="36">
         <v>45698</v>
@@ -19426,8 +19623,8 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="J582" s="67"/>
-      <c r="K582" s="71"/>
-      <c r="L582" s="72"/>
+      <c r="K582" s="78"/>
+      <c r="L582" s="79"/>
       <c r="M582" s="67"/>
       <c r="N582" s="67"/>
       <c r="O582" s="67"/>
@@ -19443,8 +19640,8 @@
       <c r="Y582" s="67"/>
     </row>
     <row r="583" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A583" s="69"/>
-      <c r="B583" s="70"/>
+      <c r="A583" s="76"/>
+      <c r="B583" s="77"/>
       <c r="C583" s="67"/>
       <c r="D583" s="36">
         <v>45698</v>
@@ -19465,8 +19662,8 @@
         <v>0.48402777777777778</v>
       </c>
       <c r="J583" s="67"/>
-      <c r="K583" s="71"/>
-      <c r="L583" s="72"/>
+      <c r="K583" s="78"/>
+      <c r="L583" s="79"/>
       <c r="M583" s="67"/>
       <c r="N583" s="67"/>
       <c r="O583" s="67"/>
@@ -19482,8 +19679,8 @@
       <c r="Y583" s="67"/>
     </row>
     <row r="584" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A584" s="69"/>
-      <c r="B584" s="70"/>
+      <c r="A584" s="76"/>
+      <c r="B584" s="77"/>
       <c r="C584" s="66"/>
       <c r="D584" s="24">
         <v>45698</v>
@@ -19504,8 +19701,8 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="J584" s="66"/>
-      <c r="K584" s="71"/>
-      <c r="L584" s="72"/>
+      <c r="K584" s="78"/>
+      <c r="L584" s="79"/>
       <c r="M584" s="66"/>
       <c r="N584" s="66"/>
       <c r="O584" s="66"/>
@@ -19521,8 +19718,8 @@
       <c r="Y584" s="66"/>
     </row>
     <row r="585" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A585" s="69"/>
-      <c r="B585" s="70"/>
+      <c r="A585" s="76"/>
+      <c r="B585" s="77"/>
       <c r="C585" s="66"/>
       <c r="D585" s="24">
         <v>45698</v>
@@ -19543,8 +19740,8 @@
         <v>0.58680555555555558</v>
       </c>
       <c r="J585" s="66"/>
-      <c r="K585" s="71"/>
-      <c r="L585" s="72"/>
+      <c r="K585" s="78"/>
+      <c r="L585" s="79"/>
       <c r="M585" s="66"/>
       <c r="N585" s="66"/>
       <c r="O585" s="66"/>
@@ -19559,415 +19756,1996 @@
       <c r="X585" s="66"/>
       <c r="Y585" s="66"/>
     </row>
-    <row r="586" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D586" s="11"/>
-      <c r="E586" s="10"/>
-      <c r="F586" s="10"/>
-      <c r="G586" s="10"/>
-      <c r="H586" s="11"/>
-      <c r="I586" s="11"/>
-    </row>
-    <row r="587" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D587" s="11"/>
-      <c r="E587" s="10"/>
-      <c r="F587" s="10"/>
-      <c r="G587" s="10"/>
-      <c r="H587" s="11"/>
-      <c r="I587" s="11"/>
-    </row>
-    <row r="588" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D588" s="11"/>
-      <c r="E588" s="10"/>
-      <c r="F588" s="10"/>
-      <c r="G588" s="10"/>
-      <c r="H588" s="11"/>
-      <c r="I588" s="11"/>
-    </row>
-    <row r="589" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D589" s="11"/>
-      <c r="E589" s="10"/>
-      <c r="F589" s="10"/>
-      <c r="G589" s="10"/>
-      <c r="H589" s="11"/>
-      <c r="I589" s="11"/>
-    </row>
-    <row r="590" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D590" s="11"/>
-      <c r="E590" s="10"/>
-      <c r="F590" s="10"/>
-      <c r="G590" s="10"/>
-      <c r="H590" s="11"/>
-      <c r="I590" s="11"/>
-    </row>
-    <row r="591" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D591" s="11"/>
-      <c r="E591" s="10"/>
-      <c r="F591" s="10"/>
-      <c r="G591" s="10"/>
-      <c r="H591" s="11"/>
-      <c r="I591" s="11"/>
-    </row>
-    <row r="592" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D592" s="11"/>
-      <c r="E592" s="10"/>
-      <c r="F592" s="10"/>
-      <c r="G592" s="10"/>
-      <c r="H592" s="11"/>
-      <c r="I592" s="11"/>
-    </row>
-    <row r="593" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D593" s="11"/>
-      <c r="E593" s="10"/>
-      <c r="F593" s="10"/>
-      <c r="G593" s="10"/>
-      <c r="H593" s="11"/>
-      <c r="I593" s="11"/>
-    </row>
-    <row r="594" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D594" s="11"/>
-      <c r="E594" s="10"/>
-      <c r="F594" s="10"/>
-      <c r="G594" s="10"/>
-      <c r="H594" s="11"/>
-      <c r="I594" s="11"/>
-    </row>
-    <row r="595" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D595" s="11"/>
-      <c r="E595" s="10"/>
-      <c r="F595" s="10"/>
-      <c r="G595" s="10"/>
-      <c r="H595" s="11"/>
-      <c r="I595" s="11"/>
-    </row>
-    <row r="596" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D596" s="11"/>
-      <c r="E596" s="10"/>
-      <c r="F596" s="10"/>
-      <c r="G596" s="10"/>
-      <c r="H596" s="11"/>
-      <c r="I596" s="11"/>
-    </row>
-    <row r="597" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D597" s="11"/>
-      <c r="E597" s="10"/>
-      <c r="F597" s="10"/>
-      <c r="G597" s="10"/>
-      <c r="H597" s="11"/>
-      <c r="I597" s="11"/>
-    </row>
-    <row r="598" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D598" s="11"/>
-      <c r="E598" s="10"/>
-      <c r="F598" s="10"/>
-      <c r="G598" s="10"/>
-      <c r="H598" s="11"/>
-      <c r="I598" s="11"/>
-    </row>
-    <row r="599" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D599" s="11"/>
-      <c r="E599" s="10"/>
-      <c r="F599" s="10"/>
-      <c r="G599" s="10"/>
-      <c r="H599" s="11"/>
-      <c r="I599" s="11"/>
-    </row>
-    <row r="600" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D600" s="11"/>
-      <c r="E600" s="10"/>
-      <c r="F600" s="10"/>
-      <c r="G600" s="10"/>
-      <c r="H600" s="11"/>
-      <c r="I600" s="11"/>
-    </row>
-    <row r="601" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D601" s="11"/>
-      <c r="E601" s="10"/>
-      <c r="F601" s="10"/>
-      <c r="G601" s="10"/>
-      <c r="H601" s="11"/>
-      <c r="I601" s="11"/>
-    </row>
-    <row r="602" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D602" s="11"/>
-      <c r="E602" s="10"/>
-      <c r="F602" s="10"/>
-      <c r="G602" s="10"/>
-      <c r="H602" s="11"/>
-      <c r="I602" s="11"/>
-    </row>
-    <row r="603" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D603" s="11"/>
-      <c r="E603" s="10"/>
-      <c r="F603" s="10"/>
-      <c r="G603" s="10"/>
-      <c r="H603" s="11"/>
-      <c r="I603" s="11"/>
-    </row>
-    <row r="604" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D604" s="11"/>
-      <c r="E604" s="10"/>
-      <c r="F604" s="10"/>
-      <c r="G604" s="10"/>
-      <c r="H604" s="11"/>
-      <c r="I604" s="11"/>
-    </row>
-    <row r="605" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D605" s="11"/>
-      <c r="E605" s="10"/>
-      <c r="F605" s="10"/>
-      <c r="G605" s="10"/>
-      <c r="H605" s="11"/>
-      <c r="I605" s="11"/>
-    </row>
-    <row r="606" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D606" s="11"/>
-      <c r="E606" s="10"/>
-      <c r="F606" s="10"/>
-      <c r="G606" s="10"/>
-      <c r="H606" s="11"/>
-      <c r="I606" s="11"/>
-    </row>
-    <row r="607" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D607" s="11"/>
-      <c r="E607" s="10"/>
-      <c r="F607" s="10"/>
-      <c r="G607" s="10"/>
-      <c r="H607" s="11"/>
-      <c r="I607" s="11"/>
-    </row>
-    <row r="608" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D608" s="11"/>
-      <c r="E608" s="10"/>
-      <c r="F608" s="10"/>
-      <c r="G608" s="10"/>
-      <c r="H608" s="11"/>
-      <c r="I608" s="11"/>
-    </row>
-    <row r="609" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D609" s="11"/>
-      <c r="E609" s="10"/>
-      <c r="F609" s="10"/>
-      <c r="G609" s="10"/>
-      <c r="H609" s="11"/>
-      <c r="I609" s="11"/>
-    </row>
-    <row r="610" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D610" s="11"/>
-      <c r="E610" s="10"/>
-      <c r="F610" s="10"/>
-      <c r="G610" s="10"/>
-      <c r="H610" s="11"/>
-      <c r="I610" s="11"/>
-    </row>
-    <row r="611" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D611" s="11"/>
-      <c r="E611" s="10"/>
-      <c r="F611" s="10"/>
-      <c r="G611" s="10"/>
-      <c r="H611" s="11"/>
-      <c r="I611" s="11"/>
-    </row>
-    <row r="612" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D612" s="11"/>
-      <c r="E612" s="10"/>
-      <c r="F612" s="10"/>
-      <c r="G612" s="10"/>
-      <c r="H612" s="11"/>
-      <c r="I612" s="11"/>
-    </row>
-    <row r="613" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D613" s="11"/>
-      <c r="E613" s="10"/>
-      <c r="F613" s="10"/>
-      <c r="G613" s="10"/>
-      <c r="H613" s="11"/>
-      <c r="I613" s="11"/>
-    </row>
-    <row r="614" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D614" s="11"/>
-      <c r="E614" s="10"/>
-      <c r="F614" s="10"/>
-      <c r="G614" s="10"/>
-      <c r="H614" s="11"/>
-      <c r="I614" s="11"/>
-    </row>
-    <row r="615" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D615" s="11"/>
-      <c r="E615" s="10"/>
-      <c r="F615" s="10"/>
-      <c r="G615" s="10"/>
-      <c r="H615" s="11"/>
-      <c r="I615" s="11"/>
-    </row>
-    <row r="616" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D616" s="11"/>
-      <c r="E616" s="10"/>
-      <c r="F616" s="10"/>
-      <c r="G616" s="10"/>
-      <c r="H616" s="11"/>
-      <c r="I616" s="11"/>
-    </row>
-    <row r="617" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D617" s="11"/>
-      <c r="E617" s="10"/>
-      <c r="F617" s="10"/>
-      <c r="G617" s="10"/>
-      <c r="H617" s="11"/>
-      <c r="I617" s="11"/>
-    </row>
-    <row r="618" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D618" s="11"/>
-      <c r="E618" s="10"/>
-      <c r="F618" s="10"/>
-      <c r="G618" s="10"/>
-      <c r="H618" s="11"/>
-      <c r="I618" s="11"/>
-    </row>
-    <row r="619" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D619" s="11"/>
-      <c r="E619" s="10"/>
-      <c r="F619" s="10"/>
-      <c r="G619" s="10"/>
-      <c r="H619" s="11"/>
-      <c r="I619" s="11"/>
-    </row>
-    <row r="620" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D620" s="11"/>
-      <c r="E620" s="10"/>
-      <c r="F620" s="10"/>
-      <c r="G620" s="10"/>
-      <c r="H620" s="11"/>
-      <c r="I620" s="11"/>
-    </row>
-    <row r="621" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D621" s="11"/>
-      <c r="E621" s="10"/>
-      <c r="F621" s="10"/>
-      <c r="G621" s="10"/>
-      <c r="H621" s="11"/>
-      <c r="I621" s="11"/>
-    </row>
-    <row r="622" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D622" s="11"/>
-      <c r="E622" s="10"/>
-      <c r="F622" s="10"/>
-      <c r="G622" s="10"/>
-      <c r="H622" s="11"/>
-      <c r="I622" s="11"/>
-    </row>
-    <row r="623" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D623" s="11"/>
-      <c r="E623" s="10"/>
-      <c r="F623" s="10"/>
-      <c r="G623" s="10"/>
-      <c r="H623" s="11"/>
-      <c r="I623" s="11"/>
-    </row>
-    <row r="624" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D624" s="11"/>
-      <c r="E624" s="10"/>
-      <c r="F624" s="10"/>
-      <c r="G624" s="10"/>
-      <c r="H624" s="11"/>
-      <c r="I624" s="11"/>
-    </row>
-    <row r="625" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D625" s="11"/>
-      <c r="E625" s="10"/>
-      <c r="F625" s="10"/>
-      <c r="G625" s="10"/>
-      <c r="H625" s="11"/>
-      <c r="I625" s="11"/>
-    </row>
-    <row r="626" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D626" s="11"/>
-      <c r="E626" s="10"/>
-      <c r="F626" s="10"/>
-      <c r="G626" s="10"/>
-      <c r="H626" s="11"/>
-      <c r="I626" s="11"/>
-    </row>
-    <row r="627" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D627" s="11"/>
-      <c r="E627" s="10"/>
-      <c r="F627" s="10"/>
-      <c r="G627" s="10"/>
-      <c r="H627" s="11"/>
-      <c r="I627" s="11"/>
-    </row>
-    <row r="628" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D628" s="11"/>
-      <c r="E628" s="10"/>
-      <c r="F628" s="10"/>
-      <c r="G628" s="10"/>
-      <c r="H628" s="11"/>
-      <c r="I628" s="11"/>
-    </row>
-    <row r="629" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D629" s="11"/>
-      <c r="E629" s="10"/>
-      <c r="F629" s="10"/>
-      <c r="G629" s="10"/>
-      <c r="H629" s="11"/>
-      <c r="I629" s="11"/>
-    </row>
-    <row r="630" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D630" s="11"/>
-      <c r="E630" s="10"/>
-      <c r="F630" s="10"/>
-      <c r="G630" s="10"/>
-      <c r="H630" s="11"/>
-      <c r="I630" s="11"/>
-    </row>
-    <row r="631" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D631" s="11"/>
-      <c r="E631" s="10"/>
-      <c r="F631" s="10"/>
-      <c r="G631" s="10"/>
-      <c r="H631" s="11"/>
-      <c r="I631" s="11"/>
-    </row>
-    <row r="632" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D632" s="11"/>
-      <c r="E632" s="10"/>
-      <c r="F632" s="10"/>
-      <c r="G632" s="10"/>
-      <c r="H632" s="11"/>
-      <c r="I632" s="11"/>
-    </row>
-    <row r="633" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D633" s="11"/>
-      <c r="E633" s="10"/>
-      <c r="F633" s="10"/>
-      <c r="G633" s="10"/>
-      <c r="H633" s="11"/>
-      <c r="I633" s="11"/>
-    </row>
-    <row r="634" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D634" s="11"/>
-      <c r="E634" s="10"/>
-      <c r="F634" s="10"/>
-      <c r="G634" s="10"/>
-      <c r="H634" s="11"/>
-      <c r="I634" s="11"/>
-    </row>
-    <row r="635" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D635" s="11"/>
-      <c r="E635" s="10"/>
-      <c r="F635" s="10"/>
-      <c r="G635" s="10"/>
-      <c r="H635" s="11"/>
-      <c r="I635" s="11"/>
-    </row>
-    <row r="636" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D636" s="11"/>
-      <c r="E636" s="10"/>
-      <c r="F636" s="10"/>
-      <c r="G636" s="10"/>
-      <c r="H636" s="11"/>
-      <c r="I636" s="11"/>
-    </row>
-    <row r="637" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A586" s="76"/>
+      <c r="B586" s="77"/>
+      <c r="C586" s="66"/>
+      <c r="D586" s="24">
+        <v>45699</v>
+      </c>
+      <c r="E586" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F586" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G586" s="15" t="s">
+        <v>531</v>
+      </c>
+      <c r="H586" s="16">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="I586" s="16">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="J586" s="66"/>
+      <c r="K586" s="78"/>
+      <c r="L586" s="79"/>
+      <c r="M586" s="66"/>
+      <c r="N586" s="66"/>
+      <c r="O586" s="66"/>
+      <c r="P586" s="66"/>
+      <c r="Q586" s="66"/>
+      <c r="R586" s="66"/>
+      <c r="S586" s="66"/>
+      <c r="T586" s="66"/>
+      <c r="U586" s="66"/>
+      <c r="V586" s="66"/>
+      <c r="W586" s="66"/>
+      <c r="X586" s="66"/>
+      <c r="Y586" s="66"/>
+    </row>
+    <row r="587" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A587" s="76"/>
+      <c r="B587" s="77"/>
+      <c r="C587" s="67"/>
+      <c r="D587" s="36">
+        <v>45699</v>
+      </c>
+      <c r="E587" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F587" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G587" s="18" t="s">
+        <v>532</v>
+      </c>
+      <c r="H587" s="19">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="I587" s="19">
+        <v>0.4375</v>
+      </c>
+      <c r="J587" s="67"/>
+      <c r="K587" s="78"/>
+      <c r="L587" s="79"/>
+      <c r="M587" s="67"/>
+      <c r="N587" s="67"/>
+      <c r="O587" s="67"/>
+      <c r="P587" s="67"/>
+      <c r="Q587" s="67"/>
+      <c r="R587" s="67"/>
+      <c r="S587" s="67"/>
+      <c r="T587" s="67"/>
+      <c r="U587" s="67"/>
+      <c r="V587" s="67"/>
+      <c r="W587" s="67"/>
+      <c r="X587" s="67"/>
+      <c r="Y587" s="67"/>
+    </row>
+    <row r="588" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A588" s="76"/>
+      <c r="B588" s="77"/>
+      <c r="C588" s="67"/>
+      <c r="D588" s="36">
+        <v>45699</v>
+      </c>
+      <c r="E588" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F588" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="G588" s="18" t="s">
+        <v>533</v>
+      </c>
+      <c r="H588" s="19">
+        <v>0.46875</v>
+      </c>
+      <c r="I588" s="19">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="J588" s="67"/>
+      <c r="K588" s="78"/>
+      <c r="L588" s="79"/>
+      <c r="M588" s="67"/>
+      <c r="N588" s="67"/>
+      <c r="O588" s="67"/>
+      <c r="P588" s="67"/>
+      <c r="Q588" s="67"/>
+      <c r="R588" s="67"/>
+      <c r="S588" s="67"/>
+      <c r="T588" s="67"/>
+      <c r="U588" s="67"/>
+      <c r="V588" s="67"/>
+      <c r="W588" s="67"/>
+      <c r="X588" s="67"/>
+      <c r="Y588" s="67"/>
+    </row>
+    <row r="589" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A589" s="76"/>
+      <c r="B589" s="77"/>
+      <c r="C589" s="67"/>
+      <c r="D589" s="36">
+        <v>45699</v>
+      </c>
+      <c r="E589" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F589" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G589" s="18" t="s">
+        <v>510</v>
+      </c>
+      <c r="H589" s="19">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="I589" s="19">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="J589" s="67"/>
+      <c r="K589" s="78"/>
+      <c r="L589" s="79"/>
+      <c r="M589" s="67"/>
+      <c r="N589" s="67"/>
+      <c r="O589" s="67"/>
+      <c r="P589" s="67"/>
+      <c r="Q589" s="67"/>
+      <c r="R589" s="67"/>
+      <c r="S589" s="67"/>
+      <c r="T589" s="67"/>
+      <c r="U589" s="67"/>
+      <c r="V589" s="67"/>
+      <c r="W589" s="67"/>
+      <c r="X589" s="67"/>
+      <c r="Y589" s="67"/>
+    </row>
+    <row r="590" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A590" s="76"/>
+      <c r="B590" s="77"/>
+      <c r="C590" s="67"/>
+      <c r="D590" s="36">
+        <v>45699</v>
+      </c>
+      <c r="E590" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F590" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="G590" s="18" t="s">
+        <v>534</v>
+      </c>
+      <c r="H590" s="19">
+        <v>0.49444444444444446</v>
+      </c>
+      <c r="I590" s="19">
+        <v>0.49652777777777773</v>
+      </c>
+      <c r="J590" s="67"/>
+      <c r="K590" s="78"/>
+      <c r="L590" s="79"/>
+      <c r="M590" s="67"/>
+      <c r="N590" s="67"/>
+      <c r="O590" s="67"/>
+      <c r="P590" s="67"/>
+      <c r="Q590" s="67"/>
+      <c r="R590" s="67"/>
+      <c r="S590" s="67"/>
+      <c r="T590" s="67"/>
+      <c r="U590" s="67"/>
+      <c r="V590" s="67"/>
+      <c r="W590" s="67"/>
+      <c r="X590" s="67"/>
+      <c r="Y590" s="67"/>
+    </row>
+    <row r="591" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A591" s="76"/>
+      <c r="B591" s="77"/>
+      <c r="C591" s="66"/>
+      <c r="D591" s="24">
+        <v>45700</v>
+      </c>
+      <c r="E591" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F591" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G591" s="15" t="s">
+        <v>535</v>
+      </c>
+      <c r="H591" s="16">
+        <v>0.3347222222222222</v>
+      </c>
+      <c r="I591" s="16">
+        <v>0.34027777777777773</v>
+      </c>
+      <c r="J591" s="66"/>
+      <c r="K591" s="78"/>
+      <c r="L591" s="79"/>
+      <c r="M591" s="66"/>
+      <c r="N591" s="66"/>
+      <c r="O591" s="66"/>
+      <c r="P591" s="66"/>
+      <c r="Q591" s="66"/>
+      <c r="R591" s="66"/>
+      <c r="S591" s="66"/>
+      <c r="T591" s="66"/>
+      <c r="U591" s="66"/>
+      <c r="V591" s="66"/>
+      <c r="W591" s="66"/>
+      <c r="X591" s="66"/>
+      <c r="Y591" s="66"/>
+    </row>
+    <row r="592" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A592" s="76"/>
+      <c r="B592" s="77"/>
+      <c r="C592" s="67"/>
+      <c r="D592" s="36">
+        <v>45700</v>
+      </c>
+      <c r="E592" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F592" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G592" s="18" t="s">
+        <v>536</v>
+      </c>
+      <c r="H592" s="19">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="I592" s="19">
+        <v>0.3576388888888889</v>
+      </c>
+      <c r="J592" s="67"/>
+      <c r="K592" s="78"/>
+      <c r="L592" s="79"/>
+      <c r="M592" s="67"/>
+      <c r="N592" s="67"/>
+      <c r="O592" s="67"/>
+      <c r="P592" s="67"/>
+      <c r="Q592" s="67"/>
+      <c r="R592" s="67"/>
+      <c r="S592" s="67"/>
+      <c r="T592" s="67"/>
+      <c r="U592" s="67"/>
+      <c r="V592" s="67"/>
+      <c r="W592" s="67"/>
+      <c r="X592" s="67"/>
+      <c r="Y592" s="67"/>
+    </row>
+    <row r="593" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A593" s="76"/>
+      <c r="B593" s="77"/>
+      <c r="C593" s="67"/>
+      <c r="D593" s="36">
+        <v>45700</v>
+      </c>
+      <c r="E593" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F593" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G593" s="18" t="s">
+        <v>537</v>
+      </c>
+      <c r="H593" s="19">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="I593" s="19">
+        <v>0.3659722222222222</v>
+      </c>
+      <c r="J593" s="67"/>
+      <c r="K593" s="78"/>
+      <c r="L593" s="79"/>
+      <c r="M593" s="67"/>
+      <c r="N593" s="67"/>
+      <c r="O593" s="67"/>
+      <c r="P593" s="67"/>
+      <c r="Q593" s="67"/>
+      <c r="R593" s="67"/>
+      <c r="S593" s="67"/>
+      <c r="T593" s="67"/>
+      <c r="U593" s="67"/>
+      <c r="V593" s="67"/>
+      <c r="W593" s="67"/>
+      <c r="X593" s="67"/>
+      <c r="Y593" s="67"/>
+    </row>
+    <row r="594" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A594" s="76"/>
+      <c r="B594" s="77"/>
+      <c r="C594" s="67"/>
+      <c r="D594" s="36">
+        <v>45700</v>
+      </c>
+      <c r="E594" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F594" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G594" s="18" t="s">
+        <v>538</v>
+      </c>
+      <c r="H594" s="19">
+        <v>0.375</v>
+      </c>
+      <c r="I594" s="19">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="J594" s="67"/>
+      <c r="K594" s="78"/>
+      <c r="L594" s="79"/>
+      <c r="M594" s="67"/>
+      <c r="N594" s="67"/>
+      <c r="O594" s="67"/>
+      <c r="P594" s="67"/>
+      <c r="Q594" s="67"/>
+      <c r="R594" s="67"/>
+      <c r="S594" s="67"/>
+      <c r="T594" s="67"/>
+      <c r="U594" s="67"/>
+      <c r="V594" s="67"/>
+      <c r="W594" s="67"/>
+      <c r="X594" s="67"/>
+      <c r="Y594" s="67"/>
+    </row>
+    <row r="595" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A595" s="76"/>
+      <c r="B595" s="77"/>
+      <c r="C595" s="67"/>
+      <c r="D595" s="36">
+        <v>45700</v>
+      </c>
+      <c r="E595" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F595" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G595" s="18" t="s">
+        <v>539</v>
+      </c>
+      <c r="H595" s="19">
+        <v>0.39652777777777781</v>
+      </c>
+      <c r="I595" s="19">
+        <v>0.3972222222222222</v>
+      </c>
+      <c r="J595" s="67"/>
+      <c r="K595" s="78"/>
+      <c r="L595" s="79"/>
+      <c r="M595" s="67"/>
+      <c r="N595" s="67"/>
+      <c r="O595" s="67"/>
+      <c r="P595" s="67"/>
+      <c r="Q595" s="67"/>
+      <c r="R595" s="67"/>
+      <c r="S595" s="67"/>
+      <c r="T595" s="67"/>
+      <c r="U595" s="67"/>
+      <c r="V595" s="67"/>
+      <c r="W595" s="67"/>
+      <c r="X595" s="67"/>
+      <c r="Y595" s="67"/>
+    </row>
+    <row r="596" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A596" s="76"/>
+      <c r="B596" s="77"/>
+      <c r="C596" s="67"/>
+      <c r="D596" s="36">
+        <v>45700</v>
+      </c>
+      <c r="E596" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F596" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G596" s="18" t="s">
+        <v>540</v>
+      </c>
+      <c r="H596" s="19">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="I596" s="19">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="J596" s="67"/>
+      <c r="K596" s="78"/>
+      <c r="L596" s="79"/>
+      <c r="M596" s="67"/>
+      <c r="N596" s="67"/>
+      <c r="O596" s="67"/>
+      <c r="P596" s="67"/>
+      <c r="Q596" s="67"/>
+      <c r="R596" s="67"/>
+      <c r="S596" s="67"/>
+      <c r="T596" s="67"/>
+      <c r="U596" s="67"/>
+      <c r="V596" s="67"/>
+      <c r="W596" s="67"/>
+      <c r="X596" s="67"/>
+      <c r="Y596" s="67"/>
+    </row>
+    <row r="597" spans="1:25" s="59" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A597" s="80"/>
+      <c r="B597" s="81"/>
+      <c r="C597" s="69"/>
+      <c r="D597" s="57">
+        <v>45700</v>
+      </c>
+      <c r="E597" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="F597" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="G597" s="58" t="s">
+        <v>541</v>
+      </c>
+      <c r="H597" s="54">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="I597" s="54">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="J597" s="69"/>
+      <c r="K597" s="82"/>
+      <c r="L597" s="83"/>
+      <c r="M597" s="69"/>
+      <c r="N597" s="69"/>
+      <c r="O597" s="69"/>
+      <c r="P597" s="69"/>
+      <c r="Q597" s="69"/>
+      <c r="R597" s="69"/>
+      <c r="S597" s="69"/>
+      <c r="T597" s="69"/>
+      <c r="U597" s="69"/>
+      <c r="V597" s="69"/>
+      <c r="W597" s="69"/>
+      <c r="X597" s="69"/>
+      <c r="Y597" s="69"/>
+    </row>
+    <row r="598" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A598" s="76"/>
+      <c r="B598" s="77"/>
+      <c r="C598" s="67"/>
+      <c r="D598" s="36">
+        <v>45700</v>
+      </c>
+      <c r="E598" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F598" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G598" s="18" t="s">
+        <v>542</v>
+      </c>
+      <c r="H598" s="19">
+        <v>0.4597222222222222</v>
+      </c>
+      <c r="I598" s="19">
+        <v>0.46249999999999997</v>
+      </c>
+      <c r="J598" s="67"/>
+      <c r="K598" s="78"/>
+      <c r="L598" s="79"/>
+      <c r="M598" s="67"/>
+      <c r="N598" s="67"/>
+      <c r="O598" s="67"/>
+      <c r="P598" s="67"/>
+      <c r="Q598" s="67"/>
+      <c r="R598" s="67"/>
+      <c r="S598" s="67"/>
+      <c r="T598" s="67"/>
+      <c r="U598" s="67"/>
+      <c r="V598" s="67"/>
+      <c r="W598" s="67"/>
+      <c r="X598" s="67"/>
+      <c r="Y598" s="67"/>
+    </row>
+    <row r="599" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A599" s="76"/>
+      <c r="B599" s="77"/>
+      <c r="C599" s="66"/>
+      <c r="D599" s="24">
+        <v>45700</v>
+      </c>
+      <c r="E599" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F599" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="G599" s="15" t="s">
+        <v>543</v>
+      </c>
+      <c r="H599" s="16">
+        <v>0.53263888888888888</v>
+      </c>
+      <c r="I599" s="16">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="J599" s="66"/>
+      <c r="K599" s="78"/>
+      <c r="L599" s="79"/>
+      <c r="M599" s="66"/>
+      <c r="N599" s="66"/>
+      <c r="O599" s="66"/>
+      <c r="P599" s="66"/>
+      <c r="Q599" s="66"/>
+      <c r="R599" s="66"/>
+      <c r="S599" s="66"/>
+      <c r="T599" s="66"/>
+      <c r="U599" s="66"/>
+      <c r="V599" s="66"/>
+      <c r="W599" s="66"/>
+      <c r="X599" s="66"/>
+      <c r="Y599" s="66"/>
+    </row>
+    <row r="600" spans="1:25" s="59" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A600" s="80"/>
+      <c r="B600" s="81"/>
+      <c r="C600" s="70"/>
+      <c r="D600" s="71">
+        <v>45700</v>
+      </c>
+      <c r="E600" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="F600" s="72" t="s">
+        <v>59</v>
+      </c>
+      <c r="G600" s="72" t="s">
+        <v>544</v>
+      </c>
+      <c r="H600" s="73">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="I600" s="73">
+        <v>0.5625</v>
+      </c>
+      <c r="J600" s="70"/>
+      <c r="K600" s="82"/>
+      <c r="L600" s="83"/>
+      <c r="M600" s="70"/>
+      <c r="N600" s="70"/>
+      <c r="O600" s="70"/>
+      <c r="P600" s="70"/>
+      <c r="Q600" s="70"/>
+      <c r="R600" s="70"/>
+      <c r="S600" s="70"/>
+      <c r="T600" s="70"/>
+      <c r="U600" s="70"/>
+      <c r="V600" s="70"/>
+      <c r="W600" s="70"/>
+      <c r="X600" s="70"/>
+      <c r="Y600" s="70"/>
+    </row>
+    <row r="601" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A601" s="76"/>
+      <c r="B601" s="77"/>
+      <c r="C601" s="66"/>
+      <c r="D601" s="24">
+        <v>45701</v>
+      </c>
+      <c r="E601" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F601" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G601" s="15" t="s">
+        <v>545</v>
+      </c>
+      <c r="H601" s="16">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="I601" s="16">
+        <v>0.34791666666666665</v>
+      </c>
+      <c r="J601" s="66"/>
+      <c r="K601" s="78"/>
+      <c r="L601" s="79"/>
+      <c r="M601" s="66"/>
+      <c r="N601" s="66"/>
+      <c r="O601" s="66"/>
+      <c r="P601" s="66"/>
+      <c r="Q601" s="66"/>
+      <c r="R601" s="66"/>
+      <c r="S601" s="66"/>
+      <c r="T601" s="66"/>
+      <c r="U601" s="66"/>
+      <c r="V601" s="66"/>
+      <c r="W601" s="66"/>
+      <c r="X601" s="66"/>
+      <c r="Y601" s="66"/>
+    </row>
+    <row r="602" spans="1:25" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A602" s="76"/>
+      <c r="B602" s="77"/>
+      <c r="C602" s="67"/>
+      <c r="D602" s="36">
+        <v>45701</v>
+      </c>
+      <c r="E602" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F602" s="18" t="s">
+        <v>546</v>
+      </c>
+      <c r="G602" s="18" t="s">
+        <v>547</v>
+      </c>
+      <c r="H602" s="19">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="I602" s="19">
+        <v>0.3923611111111111</v>
+      </c>
+      <c r="J602" s="67"/>
+      <c r="K602" s="78"/>
+      <c r="L602" s="79"/>
+      <c r="M602" s="67"/>
+      <c r="N602" s="67"/>
+      <c r="O602" s="67"/>
+      <c r="P602" s="67"/>
+      <c r="Q602" s="67"/>
+      <c r="R602" s="67"/>
+      <c r="S602" s="67"/>
+      <c r="T602" s="67"/>
+      <c r="U602" s="67"/>
+      <c r="V602" s="67"/>
+      <c r="W602" s="67"/>
+      <c r="X602" s="67"/>
+      <c r="Y602" s="67"/>
+    </row>
+    <row r="603" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A603" s="76"/>
+      <c r="B603" s="77"/>
+      <c r="C603" s="67"/>
+      <c r="D603" s="36">
+        <v>45701</v>
+      </c>
+      <c r="E603" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F603" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="G603" s="18" t="s">
+        <v>548</v>
+      </c>
+      <c r="H603" s="19">
+        <v>0.39305555555555555</v>
+      </c>
+      <c r="I603" s="19">
+        <v>0.39652777777777781</v>
+      </c>
+      <c r="J603" s="67"/>
+      <c r="K603" s="78"/>
+      <c r="L603" s="79"/>
+      <c r="M603" s="67"/>
+      <c r="N603" s="67"/>
+      <c r="O603" s="67"/>
+      <c r="P603" s="67"/>
+      <c r="Q603" s="67"/>
+      <c r="R603" s="67"/>
+      <c r="S603" s="67"/>
+      <c r="T603" s="67"/>
+      <c r="U603" s="67"/>
+      <c r="V603" s="67"/>
+      <c r="W603" s="67"/>
+      <c r="X603" s="67"/>
+      <c r="Y603" s="67"/>
+    </row>
+    <row r="604" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A604" s="76"/>
+      <c r="B604" s="77"/>
+      <c r="C604" s="67"/>
+      <c r="D604" s="36">
+        <v>45701</v>
+      </c>
+      <c r="E604" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F604" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G604" s="18" t="s">
+        <v>549</v>
+      </c>
+      <c r="H604" s="19">
+        <v>0.40625</v>
+      </c>
+      <c r="I604" s="19">
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="J604" s="67"/>
+      <c r="K604" s="78"/>
+      <c r="L604" s="79"/>
+      <c r="M604" s="67"/>
+      <c r="N604" s="67"/>
+      <c r="O604" s="67"/>
+      <c r="P604" s="67"/>
+      <c r="Q604" s="67"/>
+      <c r="R604" s="67"/>
+      <c r="S604" s="67"/>
+      <c r="T604" s="67"/>
+      <c r="U604" s="67"/>
+      <c r="V604" s="67"/>
+      <c r="W604" s="67"/>
+      <c r="X604" s="67"/>
+      <c r="Y604" s="67"/>
+    </row>
+    <row r="605" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A605" s="76"/>
+      <c r="B605" s="77"/>
+      <c r="C605" s="67"/>
+      <c r="D605" s="36">
+        <v>45701</v>
+      </c>
+      <c r="E605" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F605" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G605" s="18" t="s">
+        <v>550</v>
+      </c>
+      <c r="H605" s="19">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="I605" s="19">
+        <v>0.4770833333333333</v>
+      </c>
+      <c r="J605" s="67"/>
+      <c r="K605" s="78"/>
+      <c r="L605" s="79"/>
+      <c r="M605" s="67"/>
+      <c r="N605" s="67"/>
+      <c r="O605" s="67"/>
+      <c r="P605" s="67"/>
+      <c r="Q605" s="67"/>
+      <c r="R605" s="67"/>
+      <c r="S605" s="67"/>
+      <c r="T605" s="67"/>
+      <c r="U605" s="67"/>
+      <c r="V605" s="67"/>
+      <c r="W605" s="67"/>
+      <c r="X605" s="67"/>
+      <c r="Y605" s="67"/>
+    </row>
+    <row r="606" spans="1:25" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A606" s="76"/>
+      <c r="B606" s="77"/>
+      <c r="C606" s="67"/>
+      <c r="D606" s="36">
+        <v>45701</v>
+      </c>
+      <c r="E606" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F606" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G606" s="18" t="s">
+        <v>551</v>
+      </c>
+      <c r="H606" s="19">
+        <v>0.48194444444444445</v>
+      </c>
+      <c r="I606" s="19">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="J606" s="67"/>
+      <c r="K606" s="78"/>
+      <c r="L606" s="79"/>
+      <c r="M606" s="67"/>
+      <c r="N606" s="67"/>
+      <c r="O606" s="67"/>
+      <c r="P606" s="67"/>
+      <c r="Q606" s="67"/>
+      <c r="R606" s="67"/>
+      <c r="S606" s="67"/>
+      <c r="T606" s="67"/>
+      <c r="U606" s="67"/>
+      <c r="V606" s="67"/>
+      <c r="W606" s="67"/>
+      <c r="X606" s="67"/>
+      <c r="Y606" s="67"/>
+    </row>
+    <row r="607" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A607" s="76"/>
+      <c r="B607" s="77"/>
+      <c r="C607" s="66"/>
+      <c r="D607" s="24">
+        <v>45701</v>
+      </c>
+      <c r="E607" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F607" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G607" s="15" t="s">
+        <v>552</v>
+      </c>
+      <c r="H607" s="16">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="I607" s="16">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="J607" s="66"/>
+      <c r="K607" s="78"/>
+      <c r="L607" s="79"/>
+      <c r="M607" s="66"/>
+      <c r="N607" s="66"/>
+      <c r="O607" s="66"/>
+      <c r="P607" s="66"/>
+      <c r="Q607" s="66"/>
+      <c r="R607" s="66"/>
+      <c r="S607" s="66"/>
+      <c r="T607" s="66"/>
+      <c r="U607" s="66"/>
+      <c r="V607" s="66"/>
+      <c r="W607" s="66"/>
+      <c r="X607" s="66"/>
+      <c r="Y607" s="66"/>
+    </row>
+    <row r="608" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A608" s="76"/>
+      <c r="B608" s="77"/>
+      <c r="C608" s="66"/>
+      <c r="D608" s="24">
+        <v>45702</v>
+      </c>
+      <c r="E608" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F608" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G608" s="15" t="s">
+        <v>553</v>
+      </c>
+      <c r="H608" s="16">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="I608" s="16">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="J608" s="66"/>
+      <c r="K608" s="78"/>
+      <c r="L608" s="79"/>
+      <c r="M608" s="66"/>
+      <c r="N608" s="66"/>
+      <c r="O608" s="66"/>
+      <c r="P608" s="66"/>
+      <c r="Q608" s="66"/>
+      <c r="R608" s="66"/>
+      <c r="S608" s="66"/>
+      <c r="T608" s="66"/>
+      <c r="U608" s="66"/>
+      <c r="V608" s="66"/>
+      <c r="W608" s="66"/>
+      <c r="X608" s="66"/>
+      <c r="Y608" s="66"/>
+    </row>
+    <row r="609" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A609" s="76"/>
+      <c r="B609" s="77"/>
+      <c r="C609" s="67"/>
+      <c r="D609" s="36">
+        <v>45702</v>
+      </c>
+      <c r="E609" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F609" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G609" s="18" t="s">
+        <v>554</v>
+      </c>
+      <c r="H609" s="19">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="I609" s="19">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="J609" s="67"/>
+      <c r="K609" s="78"/>
+      <c r="L609" s="79"/>
+      <c r="M609" s="67"/>
+      <c r="N609" s="67"/>
+      <c r="O609" s="67"/>
+      <c r="P609" s="67"/>
+      <c r="Q609" s="67"/>
+      <c r="R609" s="67"/>
+      <c r="S609" s="67"/>
+      <c r="T609" s="67"/>
+      <c r="U609" s="67"/>
+      <c r="V609" s="67"/>
+      <c r="W609" s="67"/>
+      <c r="X609" s="67"/>
+      <c r="Y609" s="67"/>
+    </row>
+    <row r="610" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A610" s="76"/>
+      <c r="B610" s="77"/>
+      <c r="C610" s="67"/>
+      <c r="D610" s="36">
+        <v>45702</v>
+      </c>
+      <c r="E610" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F610" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G610" s="18" t="s">
+        <v>555</v>
+      </c>
+      <c r="H610" s="19">
+        <v>0.39652777777777781</v>
+      </c>
+      <c r="I610" s="19">
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="J610" s="67"/>
+      <c r="K610" s="78"/>
+      <c r="L610" s="79"/>
+      <c r="M610" s="67"/>
+      <c r="N610" s="67"/>
+      <c r="O610" s="67"/>
+      <c r="P610" s="67"/>
+      <c r="Q610" s="67"/>
+      <c r="R610" s="67"/>
+      <c r="S610" s="67"/>
+      <c r="T610" s="67"/>
+      <c r="U610" s="67"/>
+      <c r="V610" s="67"/>
+      <c r="W610" s="67"/>
+      <c r="X610" s="67"/>
+      <c r="Y610" s="67"/>
+    </row>
+    <row r="611" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A611" s="76"/>
+      <c r="B611" s="77"/>
+      <c r="C611" s="67"/>
+      <c r="D611" s="36">
+        <v>45702</v>
+      </c>
+      <c r="E611" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F611" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G611" s="18" t="s">
+        <v>556</v>
+      </c>
+      <c r="H611" s="19">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="I611" s="19">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="J611" s="67"/>
+      <c r="K611" s="78"/>
+      <c r="L611" s="79"/>
+      <c r="M611" s="67"/>
+      <c r="N611" s="67"/>
+      <c r="O611" s="67"/>
+      <c r="P611" s="67"/>
+      <c r="Q611" s="67"/>
+      <c r="R611" s="67"/>
+      <c r="S611" s="67"/>
+      <c r="T611" s="67"/>
+      <c r="U611" s="67"/>
+      <c r="V611" s="67"/>
+      <c r="W611" s="67"/>
+      <c r="X611" s="67"/>
+      <c r="Y611" s="67"/>
+    </row>
+    <row r="612" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A612" s="76"/>
+      <c r="B612" s="77"/>
+      <c r="C612" s="66"/>
+      <c r="D612" s="24">
+        <v>45705</v>
+      </c>
+      <c r="E612" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F612" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="G612" s="15" t="s">
+        <v>557</v>
+      </c>
+      <c r="H612" s="16">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="I612" s="16">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="J612" s="66"/>
+      <c r="K612" s="78"/>
+      <c r="L612" s="79"/>
+      <c r="M612" s="66"/>
+      <c r="N612" s="66"/>
+      <c r="O612" s="66"/>
+      <c r="P612" s="66"/>
+      <c r="Q612" s="66"/>
+      <c r="R612" s="66"/>
+      <c r="S612" s="66"/>
+      <c r="T612" s="66"/>
+      <c r="U612" s="66"/>
+      <c r="V612" s="66"/>
+      <c r="W612" s="66"/>
+      <c r="X612" s="66"/>
+      <c r="Y612" s="66"/>
+    </row>
+    <row r="613" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A613" s="76"/>
+      <c r="B613" s="77"/>
+      <c r="C613" s="67"/>
+      <c r="D613" s="36">
+        <v>45705</v>
+      </c>
+      <c r="E613" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F613" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G613" s="18" t="s">
+        <v>558</v>
+      </c>
+      <c r="H613" s="19">
+        <v>0.375</v>
+      </c>
+      <c r="I613" s="19">
+        <v>0.3756944444444445</v>
+      </c>
+      <c r="J613" s="67"/>
+      <c r="K613" s="78"/>
+      <c r="L613" s="79"/>
+      <c r="M613" s="67"/>
+      <c r="N613" s="67"/>
+      <c r="O613" s="67"/>
+      <c r="P613" s="67"/>
+      <c r="Q613" s="67"/>
+      <c r="R613" s="67"/>
+      <c r="S613" s="67"/>
+      <c r="T613" s="67"/>
+      <c r="U613" s="67"/>
+      <c r="V613" s="67"/>
+      <c r="W613" s="67"/>
+      <c r="X613" s="67"/>
+      <c r="Y613" s="67"/>
+    </row>
+    <row r="614" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A614" s="76"/>
+      <c r="B614" s="77"/>
+      <c r="C614" s="67"/>
+      <c r="D614" s="36">
+        <v>45705</v>
+      </c>
+      <c r="E614" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F614" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G614" s="18" t="s">
+        <v>559</v>
+      </c>
+      <c r="H614" s="19">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="I614" s="19">
+        <v>0.3979166666666667</v>
+      </c>
+      <c r="J614" s="67"/>
+      <c r="K614" s="78"/>
+      <c r="L614" s="79"/>
+      <c r="M614" s="67"/>
+      <c r="N614" s="67"/>
+      <c r="O614" s="67"/>
+      <c r="P614" s="67"/>
+      <c r="Q614" s="67"/>
+      <c r="R614" s="67"/>
+      <c r="S614" s="67"/>
+      <c r="T614" s="67"/>
+      <c r="U614" s="67"/>
+      <c r="V614" s="67"/>
+      <c r="W614" s="67"/>
+      <c r="X614" s="67"/>
+      <c r="Y614" s="67"/>
+    </row>
+    <row r="615" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A615" s="76"/>
+      <c r="B615" s="77"/>
+      <c r="C615" s="67"/>
+      <c r="D615" s="36">
+        <v>45705</v>
+      </c>
+      <c r="E615" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F615" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G615" s="18" t="s">
+        <v>560</v>
+      </c>
+      <c r="H615" s="19">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="I615" s="19">
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="J615" s="67"/>
+      <c r="K615" s="78"/>
+      <c r="L615" s="79"/>
+      <c r="M615" s="67"/>
+      <c r="N615" s="67"/>
+      <c r="O615" s="67"/>
+      <c r="P615" s="67"/>
+      <c r="Q615" s="67"/>
+      <c r="R615" s="67"/>
+      <c r="S615" s="67"/>
+      <c r="T615" s="67"/>
+      <c r="U615" s="67"/>
+      <c r="V615" s="67"/>
+      <c r="W615" s="67"/>
+      <c r="X615" s="67"/>
+      <c r="Y615" s="67"/>
+    </row>
+    <row r="616" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A616" s="76"/>
+      <c r="B616" s="77"/>
+      <c r="C616" s="66"/>
+      <c r="D616" s="24">
+        <v>45705</v>
+      </c>
+      <c r="E616" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F616" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G616" s="15" t="s">
+        <v>561</v>
+      </c>
+      <c r="H616" s="16">
+        <v>0.4375</v>
+      </c>
+      <c r="I616" s="16">
+        <v>0.46875</v>
+      </c>
+      <c r="J616" s="66"/>
+      <c r="K616" s="78"/>
+      <c r="L616" s="79"/>
+      <c r="M616" s="66"/>
+      <c r="N616" s="66"/>
+      <c r="O616" s="66"/>
+      <c r="P616" s="66"/>
+      <c r="Q616" s="66"/>
+      <c r="R616" s="66"/>
+      <c r="S616" s="66"/>
+      <c r="T616" s="66"/>
+      <c r="U616" s="66"/>
+      <c r="V616" s="66"/>
+      <c r="W616" s="66"/>
+      <c r="X616" s="66"/>
+      <c r="Y616" s="66"/>
+    </row>
+    <row r="617" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A617" s="78"/>
+      <c r="B617" s="89"/>
+      <c r="C617" s="79"/>
+      <c r="D617" s="24">
+        <v>45705</v>
+      </c>
+      <c r="E617" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F617" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="G617" s="15" t="s">
+        <v>562</v>
+      </c>
+      <c r="H617" s="16">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="I617" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="J617" s="66"/>
+      <c r="K617" s="66"/>
+      <c r="L617" s="66"/>
+      <c r="M617" s="66"/>
+      <c r="N617" s="66"/>
+      <c r="O617" s="66"/>
+      <c r="P617" s="66"/>
+      <c r="Q617" s="66"/>
+      <c r="R617" s="66"/>
+      <c r="S617" s="66"/>
+      <c r="T617" s="66"/>
+      <c r="U617" s="66"/>
+      <c r="V617" s="66"/>
+      <c r="W617" s="66"/>
+      <c r="X617" s="66"/>
+      <c r="Y617" s="66"/>
+    </row>
+    <row r="618" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A618" s="76"/>
+      <c r="B618" s="90"/>
+      <c r="C618" s="77"/>
+      <c r="D618" s="36">
+        <v>45705</v>
+      </c>
+      <c r="E618" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F618" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G618" s="18" t="s">
+        <v>563</v>
+      </c>
+      <c r="H618" s="19">
+        <v>0.50069444444444444</v>
+      </c>
+      <c r="I618" s="19">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="J618" s="67"/>
+      <c r="K618" s="78"/>
+      <c r="L618" s="79"/>
+      <c r="M618" s="67"/>
+      <c r="N618" s="67"/>
+      <c r="O618" s="67"/>
+      <c r="P618" s="67"/>
+      <c r="Q618" s="67"/>
+      <c r="R618" s="67"/>
+      <c r="S618" s="67"/>
+      <c r="T618" s="67"/>
+      <c r="U618" s="67"/>
+      <c r="V618" s="67"/>
+      <c r="W618" s="67"/>
+      <c r="X618" s="67"/>
+      <c r="Y618" s="67"/>
+    </row>
+    <row r="619" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A619" s="76"/>
+      <c r="B619" s="77"/>
+      <c r="C619" s="66"/>
+      <c r="D619" s="24">
+        <v>45706</v>
+      </c>
+      <c r="E619" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F619" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G619" s="15" t="s">
+        <v>564</v>
+      </c>
+      <c r="H619" s="16">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="I619" s="16">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="J619" s="66"/>
+      <c r="K619" s="78"/>
+      <c r="L619" s="79"/>
+      <c r="M619" s="66"/>
+      <c r="N619" s="66"/>
+      <c r="O619" s="66"/>
+      <c r="P619" s="66"/>
+      <c r="Q619" s="66"/>
+      <c r="R619" s="66"/>
+      <c r="S619" s="66"/>
+      <c r="T619" s="66"/>
+      <c r="U619" s="66"/>
+      <c r="V619" s="66"/>
+      <c r="W619" s="66"/>
+      <c r="X619" s="66"/>
+      <c r="Y619" s="66"/>
+    </row>
+    <row r="620" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A620" s="76"/>
+      <c r="B620" s="77"/>
+      <c r="C620" s="67"/>
+      <c r="D620" s="36">
+        <v>45706</v>
+      </c>
+      <c r="E620" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F620" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G620" s="18" t="s">
+        <v>565</v>
+      </c>
+      <c r="H620" s="19">
+        <v>0.3666666666666667</v>
+      </c>
+      <c r="I620" s="19">
+        <v>0.40833333333333338</v>
+      </c>
+      <c r="J620" s="67"/>
+      <c r="K620" s="78"/>
+      <c r="L620" s="79"/>
+      <c r="M620" s="67"/>
+      <c r="N620" s="67"/>
+      <c r="O620" s="67"/>
+      <c r="P620" s="67"/>
+      <c r="Q620" s="67"/>
+      <c r="R620" s="67"/>
+      <c r="S620" s="67"/>
+      <c r="T620" s="67"/>
+      <c r="U620" s="67"/>
+      <c r="V620" s="67"/>
+      <c r="W620" s="67"/>
+      <c r="X620" s="67"/>
+      <c r="Y620" s="67"/>
+    </row>
+    <row r="621" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A621" s="76"/>
+      <c r="B621" s="77"/>
+      <c r="C621" s="67"/>
+      <c r="D621" s="36">
+        <v>45706</v>
+      </c>
+      <c r="E621" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F621" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="G621" s="18" t="s">
+        <v>566</v>
+      </c>
+      <c r="H621" s="19">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="I621" s="19">
+        <v>0.4375</v>
+      </c>
+      <c r="J621" s="67"/>
+      <c r="K621" s="78"/>
+      <c r="L621" s="79"/>
+      <c r="M621" s="67"/>
+      <c r="N621" s="67"/>
+      <c r="O621" s="67"/>
+      <c r="P621" s="67"/>
+      <c r="Q621" s="67"/>
+      <c r="R621" s="67"/>
+      <c r="S621" s="67"/>
+      <c r="T621" s="67"/>
+      <c r="U621" s="67"/>
+      <c r="V621" s="67"/>
+      <c r="W621" s="67"/>
+      <c r="X621" s="67"/>
+      <c r="Y621" s="67"/>
+    </row>
+    <row r="622" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A622" s="76"/>
+      <c r="B622" s="77"/>
+      <c r="C622" s="66"/>
+      <c r="D622" s="24">
+        <v>45707</v>
+      </c>
+      <c r="E622" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F622" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G622" s="15" t="s">
+        <v>567</v>
+      </c>
+      <c r="H622" s="16">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="I622" s="16">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="J622" s="66"/>
+      <c r="K622" s="78"/>
+      <c r="L622" s="79"/>
+      <c r="M622" s="66"/>
+      <c r="N622" s="66"/>
+      <c r="O622" s="66"/>
+      <c r="P622" s="66"/>
+      <c r="Q622" s="66"/>
+      <c r="R622" s="66"/>
+      <c r="S622" s="66"/>
+      <c r="T622" s="66"/>
+      <c r="U622" s="66"/>
+      <c r="V622" s="66"/>
+      <c r="W622" s="66"/>
+      <c r="X622" s="66"/>
+      <c r="Y622" s="66"/>
+    </row>
+    <row r="623" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A623" s="76"/>
+      <c r="B623" s="77"/>
+      <c r="C623" s="66"/>
+      <c r="D623" s="24">
+        <v>45707</v>
+      </c>
+      <c r="E623" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F623" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G623" s="15" t="s">
+        <v>568</v>
+      </c>
+      <c r="H623" s="16">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="I623" s="16">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="J623" s="66"/>
+      <c r="K623" s="78"/>
+      <c r="L623" s="79"/>
+      <c r="M623" s="66"/>
+      <c r="N623" s="66"/>
+      <c r="O623" s="66"/>
+      <c r="P623" s="66"/>
+      <c r="Q623" s="66"/>
+      <c r="R623" s="66"/>
+      <c r="S623" s="66"/>
+      <c r="T623" s="66"/>
+      <c r="U623" s="66"/>
+      <c r="V623" s="66"/>
+      <c r="W623" s="66"/>
+      <c r="X623" s="66"/>
+      <c r="Y623" s="66"/>
+    </row>
+    <row r="624" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A624" s="76"/>
+      <c r="B624" s="77"/>
+      <c r="C624" s="66"/>
+      <c r="D624" s="24">
+        <v>45707</v>
+      </c>
+      <c r="E624" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F624" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="G624" s="15" t="s">
+        <v>569</v>
+      </c>
+      <c r="H624" s="16">
+        <v>0.50763888888888886</v>
+      </c>
+      <c r="I624" s="16">
+        <v>0.53819444444444442</v>
+      </c>
+      <c r="J624" s="66"/>
+      <c r="K624" s="78"/>
+      <c r="L624" s="79"/>
+      <c r="M624" s="66"/>
+      <c r="N624" s="66"/>
+      <c r="O624" s="66"/>
+      <c r="P624" s="66"/>
+      <c r="Q624" s="66"/>
+      <c r="R624" s="66"/>
+      <c r="S624" s="66"/>
+      <c r="T624" s="66"/>
+      <c r="U624" s="66"/>
+      <c r="V624" s="66"/>
+      <c r="W624" s="66"/>
+      <c r="X624" s="66"/>
+      <c r="Y624" s="66"/>
+    </row>
+    <row r="625" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A625" s="76"/>
+      <c r="B625" s="77"/>
+      <c r="C625" s="66"/>
+      <c r="D625" s="24">
+        <v>45707</v>
+      </c>
+      <c r="E625" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F625" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G625" s="15" t="s">
+        <v>485</v>
+      </c>
+      <c r="H625" s="16">
+        <v>0.56597222222222221</v>
+      </c>
+      <c r="I625" s="16">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="J625" s="66"/>
+      <c r="K625" s="78"/>
+      <c r="L625" s="79"/>
+      <c r="M625" s="66"/>
+      <c r="N625" s="66"/>
+      <c r="O625" s="66"/>
+      <c r="P625" s="66"/>
+      <c r="Q625" s="66"/>
+      <c r="R625" s="66"/>
+      <c r="S625" s="66"/>
+      <c r="T625" s="66"/>
+      <c r="U625" s="66"/>
+      <c r="V625" s="66"/>
+      <c r="W625" s="66"/>
+      <c r="X625" s="66"/>
+      <c r="Y625" s="66"/>
+    </row>
+    <row r="626" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A626" s="76"/>
+      <c r="B626" s="77"/>
+      <c r="C626" s="67"/>
+      <c r="D626" s="36">
+        <v>45708</v>
+      </c>
+      <c r="E626" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F626" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G626" s="18" t="s">
+        <v>570</v>
+      </c>
+      <c r="H626" s="19">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="I626" s="19">
+        <v>0.375</v>
+      </c>
+      <c r="J626" s="67"/>
+      <c r="K626" s="78"/>
+      <c r="L626" s="79"/>
+      <c r="M626" s="67"/>
+      <c r="N626" s="67"/>
+      <c r="O626" s="67"/>
+      <c r="P626" s="67"/>
+      <c r="Q626" s="67"/>
+      <c r="R626" s="67"/>
+      <c r="S626" s="67"/>
+      <c r="T626" s="67"/>
+      <c r="U626" s="67"/>
+      <c r="V626" s="67"/>
+      <c r="W626" s="67"/>
+      <c r="X626" s="67"/>
+      <c r="Y626" s="67"/>
+    </row>
+    <row r="627" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A627" s="76"/>
+      <c r="B627" s="77"/>
+      <c r="C627" s="66"/>
+      <c r="D627" s="24">
+        <v>45708</v>
+      </c>
+      <c r="E627" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F627" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="G627" s="15" t="s">
+        <v>571</v>
+      </c>
+      <c r="H627" s="16">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="I627" s="16">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="J627" s="66"/>
+      <c r="K627" s="78"/>
+      <c r="L627" s="79"/>
+      <c r="M627" s="66"/>
+      <c r="N627" s="66"/>
+      <c r="O627" s="66"/>
+      <c r="P627" s="66"/>
+      <c r="Q627" s="66"/>
+      <c r="R627" s="66"/>
+      <c r="S627" s="66"/>
+      <c r="T627" s="66"/>
+      <c r="U627" s="66"/>
+      <c r="V627" s="66"/>
+      <c r="W627" s="66"/>
+      <c r="X627" s="66"/>
+      <c r="Y627" s="66"/>
+    </row>
+    <row r="628" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A628" s="76"/>
+      <c r="B628" s="77"/>
+      <c r="C628" s="67"/>
+      <c r="D628" s="36">
+        <v>45708</v>
+      </c>
+      <c r="E628" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F628" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="G628" s="18" t="s">
+        <v>572</v>
+      </c>
+      <c r="H628" s="19">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="I628" s="19">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="J628" s="67"/>
+      <c r="K628" s="78"/>
+      <c r="L628" s="79"/>
+      <c r="M628" s="67"/>
+      <c r="N628" s="67"/>
+      <c r="O628" s="67"/>
+      <c r="P628" s="67"/>
+      <c r="Q628" s="67"/>
+      <c r="R628" s="67"/>
+      <c r="S628" s="67"/>
+      <c r="T628" s="67"/>
+      <c r="U628" s="67"/>
+      <c r="V628" s="67"/>
+      <c r="W628" s="67"/>
+      <c r="X628" s="67"/>
+      <c r="Y628" s="67"/>
+    </row>
+    <row r="629" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A629" s="76"/>
+      <c r="B629" s="77"/>
+      <c r="C629" s="66"/>
+      <c r="D629" s="24">
+        <v>45708</v>
+      </c>
+      <c r="E629" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F629" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G629" s="15" t="s">
+        <v>573</v>
+      </c>
+      <c r="H629" s="16">
+        <v>0.47986111111111113</v>
+      </c>
+      <c r="I629" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="J629" s="66"/>
+      <c r="K629" s="78"/>
+      <c r="L629" s="79"/>
+      <c r="M629" s="66"/>
+      <c r="N629" s="66"/>
+      <c r="O629" s="66"/>
+      <c r="P629" s="66"/>
+      <c r="Q629" s="66"/>
+      <c r="R629" s="66"/>
+      <c r="S629" s="66"/>
+      <c r="T629" s="66"/>
+      <c r="U629" s="66"/>
+      <c r="V629" s="66"/>
+      <c r="W629" s="66"/>
+      <c r="X629" s="66"/>
+      <c r="Y629" s="66"/>
+    </row>
+    <row r="630" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A630" s="76"/>
+      <c r="B630" s="77"/>
+      <c r="C630" s="66"/>
+      <c r="D630" s="24">
+        <v>45708</v>
+      </c>
+      <c r="E630" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F630" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G630" s="15" t="s">
+        <v>574</v>
+      </c>
+      <c r="H630" s="16">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="I630" s="16">
+        <v>0.53819444444444442</v>
+      </c>
+      <c r="J630" s="66"/>
+      <c r="K630" s="78"/>
+      <c r="L630" s="79"/>
+      <c r="M630" s="66"/>
+      <c r="N630" s="66"/>
+      <c r="O630" s="66"/>
+      <c r="P630" s="66"/>
+      <c r="Q630" s="66"/>
+      <c r="R630" s="66"/>
+      <c r="S630" s="66"/>
+      <c r="T630" s="66"/>
+      <c r="U630" s="66"/>
+      <c r="V630" s="66"/>
+      <c r="W630" s="66"/>
+      <c r="X630" s="66"/>
+      <c r="Y630" s="66"/>
+    </row>
+    <row r="631" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A631" s="76"/>
+      <c r="B631" s="77"/>
+      <c r="C631" s="66"/>
+      <c r="D631" s="24">
+        <v>45708</v>
+      </c>
+      <c r="E631" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F631" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G631" s="15" t="s">
+        <v>575</v>
+      </c>
+      <c r="H631" s="16">
+        <v>0.53888888888888886</v>
+      </c>
+      <c r="I631" s="16">
+        <v>0.54375000000000007</v>
+      </c>
+      <c r="J631" s="66"/>
+      <c r="K631" s="78"/>
+      <c r="L631" s="79"/>
+      <c r="M631" s="66"/>
+      <c r="N631" s="66"/>
+      <c r="O631" s="66"/>
+      <c r="P631" s="66"/>
+      <c r="Q631" s="66"/>
+      <c r="R631" s="66"/>
+      <c r="S631" s="66"/>
+      <c r="T631" s="66"/>
+      <c r="U631" s="66"/>
+      <c r="V631" s="66"/>
+      <c r="W631" s="66"/>
+      <c r="X631" s="66"/>
+      <c r="Y631" s="66"/>
+    </row>
+    <row r="632" spans="1:25" s="59" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A632" s="75"/>
+      <c r="B632" s="70"/>
+      <c r="C632" s="70"/>
+      <c r="D632" s="71">
+        <v>45709</v>
+      </c>
+      <c r="E632" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="F632" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="G632" s="72" t="s">
+        <v>576</v>
+      </c>
+      <c r="H632" s="73">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I632" s="73">
+        <v>0.34097222222222223</v>
+      </c>
+      <c r="J632" s="70"/>
+      <c r="K632" s="70"/>
+      <c r="L632" s="70"/>
+      <c r="M632" s="70"/>
+      <c r="N632" s="70"/>
+      <c r="O632" s="70"/>
+      <c r="P632" s="70"/>
+      <c r="Q632" s="70"/>
+      <c r="R632" s="70"/>
+      <c r="S632" s="70"/>
+      <c r="T632" s="70"/>
+      <c r="U632" s="70"/>
+      <c r="V632" s="70"/>
+      <c r="W632" s="70"/>
+      <c r="X632" s="70"/>
+      <c r="Y632" s="70"/>
+    </row>
+    <row r="633" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A633" s="76"/>
+      <c r="B633" s="77"/>
+      <c r="C633" s="67"/>
+      <c r="D633" s="36">
+        <v>45709</v>
+      </c>
+      <c r="E633" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F633" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G633" s="18" t="s">
+        <v>577</v>
+      </c>
+      <c r="H633" s="19">
+        <v>0.34375</v>
+      </c>
+      <c r="I633" s="19">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="J633" s="67"/>
+      <c r="K633" s="78"/>
+      <c r="L633" s="79"/>
+      <c r="M633" s="67"/>
+      <c r="N633" s="67"/>
+      <c r="O633" s="67"/>
+      <c r="P633" s="67"/>
+      <c r="Q633" s="67"/>
+      <c r="R633" s="67"/>
+      <c r="S633" s="67"/>
+      <c r="T633" s="67"/>
+      <c r="U633" s="67"/>
+      <c r="V633" s="67"/>
+      <c r="W633" s="67"/>
+      <c r="X633" s="67"/>
+      <c r="Y633" s="67"/>
+    </row>
+    <row r="634" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A634" s="76"/>
+      <c r="B634" s="77"/>
+      <c r="C634" s="67"/>
+      <c r="D634" s="74">
+        <v>45709</v>
+      </c>
+      <c r="E634" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F634" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G634" s="18" t="s">
+        <v>578</v>
+      </c>
+      <c r="H634" s="19">
+        <v>0.40625</v>
+      </c>
+      <c r="I634" s="19">
+        <v>0.4145833333333333</v>
+      </c>
+      <c r="J634" s="67"/>
+      <c r="K634" s="78"/>
+      <c r="L634" s="79"/>
+      <c r="M634" s="67"/>
+      <c r="N634" s="67"/>
+      <c r="O634" s="67"/>
+      <c r="P634" s="67"/>
+      <c r="Q634" s="67"/>
+      <c r="R634" s="67"/>
+      <c r="S634" s="67"/>
+      <c r="T634" s="67"/>
+      <c r="U634" s="67"/>
+      <c r="V634" s="67"/>
+      <c r="W634" s="67"/>
+      <c r="X634" s="67"/>
+      <c r="Y634" s="67"/>
+    </row>
+    <row r="635" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A635" s="76"/>
+      <c r="B635" s="77"/>
+      <c r="C635" s="66"/>
+      <c r="D635" s="24">
+        <v>45709</v>
+      </c>
+      <c r="E635" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F635" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G635" s="15" t="s">
+        <v>501</v>
+      </c>
+      <c r="H635" s="16">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="I635" s="16">
+        <v>0.49652777777777773</v>
+      </c>
+      <c r="J635" s="66"/>
+      <c r="K635" s="78"/>
+      <c r="L635" s="79"/>
+      <c r="M635" s="66"/>
+      <c r="N635" s="66"/>
+      <c r="O635" s="66"/>
+      <c r="P635" s="66"/>
+      <c r="Q635" s="66"/>
+      <c r="R635" s="66"/>
+      <c r="S635" s="66"/>
+      <c r="T635" s="66"/>
+      <c r="U635" s="66"/>
+      <c r="V635" s="66"/>
+      <c r="W635" s="66"/>
+      <c r="X635" s="66"/>
+      <c r="Y635" s="66"/>
+    </row>
+    <row r="636" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A636" s="76"/>
+      <c r="B636" s="77"/>
+      <c r="C636" s="66"/>
+      <c r="D636" s="24">
+        <v>45709</v>
+      </c>
+      <c r="E636" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F636" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G636" s="15" t="s">
+        <v>579</v>
+      </c>
+      <c r="H636" s="16">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="I636" s="16">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="J636" s="66"/>
+      <c r="K636" s="78"/>
+      <c r="L636" s="79"/>
+      <c r="M636" s="66"/>
+      <c r="N636" s="66"/>
+      <c r="O636" s="66"/>
+      <c r="P636" s="66"/>
+      <c r="Q636" s="66"/>
+      <c r="R636" s="66"/>
+      <c r="S636" s="66"/>
+      <c r="T636" s="66"/>
+      <c r="U636" s="66"/>
+      <c r="V636" s="66"/>
+      <c r="W636" s="66"/>
+      <c r="X636" s="66"/>
+      <c r="Y636" s="66"/>
+    </row>
+    <row r="637" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D637" s="11"/>
       <c r="E637" s="10"/>
       <c r="F637" s="10"/>
@@ -19975,7 +21753,7 @@
       <c r="H637" s="11"/>
       <c r="I637" s="11"/>
     </row>
-    <row r="638" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D638" s="11"/>
       <c r="E638" s="10"/>
       <c r="F638" s="10"/>
@@ -19983,7 +21761,7 @@
       <c r="H638" s="11"/>
       <c r="I638" s="11"/>
     </row>
-    <row r="639" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D639" s="11"/>
       <c r="E639" s="10"/>
       <c r="F639" s="10"/>
@@ -19991,7 +21769,7 @@
       <c r="H639" s="11"/>
       <c r="I639" s="11"/>
     </row>
-    <row r="640" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D640" s="11"/>
       <c r="E640" s="10"/>
       <c r="F640" s="10"/>
@@ -22968,27 +24746,302 @@
       <c r="I1011" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="292">
-    <mergeCell ref="A585:B585"/>
-    <mergeCell ref="K585:L585"/>
-    <mergeCell ref="A580:B580"/>
-    <mergeCell ref="K580:L580"/>
-    <mergeCell ref="A581:B581"/>
-    <mergeCell ref="K581:L581"/>
-    <mergeCell ref="A582:B582"/>
-    <mergeCell ref="K582:L582"/>
-    <mergeCell ref="A583:B583"/>
-    <mergeCell ref="K583:L583"/>
-    <mergeCell ref="A575:B575"/>
-    <mergeCell ref="K575:L575"/>
-    <mergeCell ref="A576:B576"/>
-    <mergeCell ref="K576:L576"/>
-    <mergeCell ref="A577:B577"/>
-    <mergeCell ref="K577:L577"/>
-    <mergeCell ref="A578:B578"/>
-    <mergeCell ref="K578:L578"/>
-    <mergeCell ref="A579:B579"/>
-    <mergeCell ref="K579:L579"/>
+  <mergeCells count="391">
+    <mergeCell ref="A636:B636"/>
+    <mergeCell ref="K636:L636"/>
+    <mergeCell ref="A623:B623"/>
+    <mergeCell ref="K623:L623"/>
+    <mergeCell ref="A624:B624"/>
+    <mergeCell ref="K624:L624"/>
+    <mergeCell ref="A621:B621"/>
+    <mergeCell ref="K621:L621"/>
+    <mergeCell ref="A608:B608"/>
+    <mergeCell ref="K608:L608"/>
+    <mergeCell ref="A609:B609"/>
+    <mergeCell ref="K609:L609"/>
+    <mergeCell ref="A610:B610"/>
+    <mergeCell ref="K610:L610"/>
+    <mergeCell ref="A611:B611"/>
+    <mergeCell ref="K611:L611"/>
+    <mergeCell ref="A617:C617"/>
+    <mergeCell ref="A618:C618"/>
+    <mergeCell ref="K618:L618"/>
+    <mergeCell ref="A612:B612"/>
+    <mergeCell ref="K612:L612"/>
+    <mergeCell ref="A613:B613"/>
+    <mergeCell ref="K613:L613"/>
+    <mergeCell ref="A614:B614"/>
+    <mergeCell ref="K614:L614"/>
+    <mergeCell ref="A615:B615"/>
+    <mergeCell ref="A604:B604"/>
+    <mergeCell ref="K604:L604"/>
+    <mergeCell ref="A605:B605"/>
+    <mergeCell ref="K605:L605"/>
+    <mergeCell ref="A606:B606"/>
+    <mergeCell ref="K606:L606"/>
+    <mergeCell ref="A619:B619"/>
+    <mergeCell ref="K619:L619"/>
+    <mergeCell ref="A620:B620"/>
+    <mergeCell ref="K620:L620"/>
+    <mergeCell ref="K615:L615"/>
+    <mergeCell ref="A616:B616"/>
+    <mergeCell ref="K616:L616"/>
+    <mergeCell ref="A602:B602"/>
+    <mergeCell ref="K602:L602"/>
+    <mergeCell ref="A603:B603"/>
+    <mergeCell ref="K603:L603"/>
+    <mergeCell ref="K601:L601"/>
+    <mergeCell ref="A600:B600"/>
+    <mergeCell ref="K600:L600"/>
+    <mergeCell ref="A599:B599"/>
+    <mergeCell ref="K599:L599"/>
+    <mergeCell ref="A601:B601"/>
+    <mergeCell ref="A565:B565"/>
+    <mergeCell ref="K565:L565"/>
+    <mergeCell ref="A574:B574"/>
+    <mergeCell ref="K574:L574"/>
+    <mergeCell ref="A551:B551"/>
+    <mergeCell ref="K551:L551"/>
+    <mergeCell ref="A530:B530"/>
+    <mergeCell ref="K530:L530"/>
+    <mergeCell ref="A531:B531"/>
+    <mergeCell ref="K531:L531"/>
+    <mergeCell ref="A535:B535"/>
+    <mergeCell ref="K535:L535"/>
+    <mergeCell ref="A536:B536"/>
+    <mergeCell ref="K536:L536"/>
+    <mergeCell ref="A537:B537"/>
+    <mergeCell ref="K537:L537"/>
+    <mergeCell ref="A538:B538"/>
+    <mergeCell ref="K538:L538"/>
+    <mergeCell ref="A539:B539"/>
+    <mergeCell ref="K539:L539"/>
+    <mergeCell ref="A540:B540"/>
+    <mergeCell ref="K540:L540"/>
+    <mergeCell ref="A541:B541"/>
+    <mergeCell ref="K541:L541"/>
+    <mergeCell ref="A525:B525"/>
+    <mergeCell ref="K525:L525"/>
+    <mergeCell ref="A528:B528"/>
+    <mergeCell ref="K528:L528"/>
+    <mergeCell ref="A529:B529"/>
+    <mergeCell ref="K529:L529"/>
+    <mergeCell ref="A532:B532"/>
+    <mergeCell ref="K532:L532"/>
+    <mergeCell ref="A534:B534"/>
+    <mergeCell ref="K534:L534"/>
+    <mergeCell ref="A522:B522"/>
+    <mergeCell ref="K522:L522"/>
+    <mergeCell ref="A523:B523"/>
+    <mergeCell ref="K523:L523"/>
+    <mergeCell ref="A524:B524"/>
+    <mergeCell ref="K524:L524"/>
+    <mergeCell ref="A519:B519"/>
+    <mergeCell ref="K519:L519"/>
+    <mergeCell ref="A520:B520"/>
+    <mergeCell ref="K520:L520"/>
+    <mergeCell ref="A521:B521"/>
+    <mergeCell ref="K521:L521"/>
+    <mergeCell ref="A516:B516"/>
+    <mergeCell ref="K516:L516"/>
+    <mergeCell ref="A517:B517"/>
+    <mergeCell ref="K517:L517"/>
+    <mergeCell ref="A518:B518"/>
+    <mergeCell ref="K518:L518"/>
+    <mergeCell ref="A513:B513"/>
+    <mergeCell ref="K513:L513"/>
+    <mergeCell ref="A514:B514"/>
+    <mergeCell ref="K514:L514"/>
+    <mergeCell ref="A515:B515"/>
+    <mergeCell ref="K515:L515"/>
+    <mergeCell ref="A510:B510"/>
+    <mergeCell ref="K510:L510"/>
+    <mergeCell ref="A511:B511"/>
+    <mergeCell ref="K511:L511"/>
+    <mergeCell ref="A512:B512"/>
+    <mergeCell ref="K512:L512"/>
+    <mergeCell ref="A507:B507"/>
+    <mergeCell ref="K507:L507"/>
+    <mergeCell ref="A508:B508"/>
+    <mergeCell ref="K508:L508"/>
+    <mergeCell ref="A509:B509"/>
+    <mergeCell ref="K509:L509"/>
+    <mergeCell ref="A504:B504"/>
+    <mergeCell ref="K504:L504"/>
+    <mergeCell ref="A505:B505"/>
+    <mergeCell ref="K505:L505"/>
+    <mergeCell ref="A506:B506"/>
+    <mergeCell ref="K506:L506"/>
+    <mergeCell ref="A500:B500"/>
+    <mergeCell ref="K500:L500"/>
+    <mergeCell ref="A501:B501"/>
+    <mergeCell ref="K501:L501"/>
+    <mergeCell ref="A503:B503"/>
+    <mergeCell ref="K503:L503"/>
+    <mergeCell ref="A497:B497"/>
+    <mergeCell ref="K497:L497"/>
+    <mergeCell ref="A498:B498"/>
+    <mergeCell ref="K498:L498"/>
+    <mergeCell ref="A499:B499"/>
+    <mergeCell ref="K499:L499"/>
+    <mergeCell ref="A494:B494"/>
+    <mergeCell ref="K494:L494"/>
+    <mergeCell ref="A495:B495"/>
+    <mergeCell ref="K495:L495"/>
+    <mergeCell ref="A496:B496"/>
+    <mergeCell ref="K496:L496"/>
+    <mergeCell ref="A491:B491"/>
+    <mergeCell ref="K491:L491"/>
+    <mergeCell ref="A492:B492"/>
+    <mergeCell ref="K492:L492"/>
+    <mergeCell ref="A493:B493"/>
+    <mergeCell ref="K493:L493"/>
+    <mergeCell ref="A488:B488"/>
+    <mergeCell ref="K488:L488"/>
+    <mergeCell ref="A489:B489"/>
+    <mergeCell ref="K489:L489"/>
+    <mergeCell ref="A490:B490"/>
+    <mergeCell ref="K490:L490"/>
+    <mergeCell ref="A485:B485"/>
+    <mergeCell ref="K485:L485"/>
+    <mergeCell ref="A486:B486"/>
+    <mergeCell ref="K486:L486"/>
+    <mergeCell ref="A487:B487"/>
+    <mergeCell ref="K487:L487"/>
+    <mergeCell ref="A482:B482"/>
+    <mergeCell ref="K482:L482"/>
+    <mergeCell ref="A483:B483"/>
+    <mergeCell ref="K483:L483"/>
+    <mergeCell ref="A484:B484"/>
+    <mergeCell ref="K484:L484"/>
+    <mergeCell ref="A479:B479"/>
+    <mergeCell ref="K479:L479"/>
+    <mergeCell ref="A480:B480"/>
+    <mergeCell ref="K480:L480"/>
+    <mergeCell ref="A481:B481"/>
+    <mergeCell ref="K481:L481"/>
+    <mergeCell ref="A476:B476"/>
+    <mergeCell ref="K476:L476"/>
+    <mergeCell ref="A477:B477"/>
+    <mergeCell ref="K477:L477"/>
+    <mergeCell ref="A478:B478"/>
+    <mergeCell ref="K478:L478"/>
+    <mergeCell ref="A473:B473"/>
+    <mergeCell ref="K473:L473"/>
+    <mergeCell ref="A474:B474"/>
+    <mergeCell ref="K474:L474"/>
+    <mergeCell ref="A475:B475"/>
+    <mergeCell ref="K475:L475"/>
+    <mergeCell ref="A470:B470"/>
+    <mergeCell ref="K470:L470"/>
+    <mergeCell ref="A471:B471"/>
+    <mergeCell ref="K471:L471"/>
+    <mergeCell ref="A472:B472"/>
+    <mergeCell ref="K472:L472"/>
+    <mergeCell ref="A467:B467"/>
+    <mergeCell ref="K467:L467"/>
+    <mergeCell ref="A468:B468"/>
+    <mergeCell ref="K468:L468"/>
+    <mergeCell ref="A469:B469"/>
+    <mergeCell ref="K469:L469"/>
+    <mergeCell ref="A464:B464"/>
+    <mergeCell ref="K464:L464"/>
+    <mergeCell ref="A465:B465"/>
+    <mergeCell ref="K465:L465"/>
+    <mergeCell ref="A466:B466"/>
+    <mergeCell ref="K466:L466"/>
+    <mergeCell ref="A461:B461"/>
+    <mergeCell ref="K461:L461"/>
+    <mergeCell ref="A462:B462"/>
+    <mergeCell ref="K462:L462"/>
+    <mergeCell ref="A463:B463"/>
+    <mergeCell ref="K463:L463"/>
+    <mergeCell ref="A457:B457"/>
+    <mergeCell ref="K457:L457"/>
+    <mergeCell ref="A459:B459"/>
+    <mergeCell ref="K459:L459"/>
+    <mergeCell ref="A460:B460"/>
+    <mergeCell ref="K460:L460"/>
+    <mergeCell ref="A454:B454"/>
+    <mergeCell ref="K454:L454"/>
+    <mergeCell ref="A455:B455"/>
+    <mergeCell ref="K455:L455"/>
+    <mergeCell ref="A456:B456"/>
+    <mergeCell ref="K456:L456"/>
+    <mergeCell ref="A451:B451"/>
+    <mergeCell ref="K451:L451"/>
+    <mergeCell ref="A452:B452"/>
+    <mergeCell ref="K452:L452"/>
+    <mergeCell ref="A453:B453"/>
+    <mergeCell ref="K453:L453"/>
+    <mergeCell ref="A446:B446"/>
+    <mergeCell ref="K446:L446"/>
+    <mergeCell ref="A447:B447"/>
+    <mergeCell ref="K447:L447"/>
+    <mergeCell ref="A448:B448"/>
+    <mergeCell ref="K448:L448"/>
+    <mergeCell ref="A443:B443"/>
+    <mergeCell ref="K443:L443"/>
+    <mergeCell ref="A444:B444"/>
+    <mergeCell ref="K444:L444"/>
+    <mergeCell ref="A445:B445"/>
+    <mergeCell ref="K445:L445"/>
+    <mergeCell ref="A440:B440"/>
+    <mergeCell ref="K440:L440"/>
+    <mergeCell ref="A441:B441"/>
+    <mergeCell ref="K441:L441"/>
+    <mergeCell ref="A442:B442"/>
+    <mergeCell ref="K442:L442"/>
+    <mergeCell ref="A437:B437"/>
+    <mergeCell ref="K437:L437"/>
+    <mergeCell ref="A438:B438"/>
+    <mergeCell ref="K438:L438"/>
+    <mergeCell ref="A439:B439"/>
+    <mergeCell ref="K439:L439"/>
+    <mergeCell ref="A434:B434"/>
+    <mergeCell ref="K434:L434"/>
+    <mergeCell ref="A435:B435"/>
+    <mergeCell ref="K435:L435"/>
+    <mergeCell ref="A436:B436"/>
+    <mergeCell ref="K436:L436"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A432:B432"/>
+    <mergeCell ref="K432:L432"/>
+    <mergeCell ref="A433:B433"/>
+    <mergeCell ref="K433:L433"/>
+    <mergeCell ref="A542:B542"/>
+    <mergeCell ref="K542:L542"/>
+    <mergeCell ref="A548:B548"/>
+    <mergeCell ref="K548:L548"/>
+    <mergeCell ref="A549:B549"/>
+    <mergeCell ref="K549:L549"/>
+    <mergeCell ref="A550:B550"/>
+    <mergeCell ref="K550:L550"/>
+    <mergeCell ref="A543:B543"/>
+    <mergeCell ref="K543:L543"/>
+    <mergeCell ref="A544:B544"/>
+    <mergeCell ref="K544:L544"/>
+    <mergeCell ref="A545:B545"/>
+    <mergeCell ref="K545:L545"/>
+    <mergeCell ref="A546:B546"/>
+    <mergeCell ref="K546:L546"/>
+    <mergeCell ref="A547:B547"/>
+    <mergeCell ref="K547:L547"/>
+    <mergeCell ref="A557:B557"/>
+    <mergeCell ref="K557:L557"/>
+    <mergeCell ref="A558:B558"/>
+    <mergeCell ref="K558:L558"/>
+    <mergeCell ref="A552:B552"/>
+    <mergeCell ref="K552:L552"/>
+    <mergeCell ref="A553:B553"/>
+    <mergeCell ref="K553:L553"/>
+    <mergeCell ref="A554:B554"/>
+    <mergeCell ref="K554:L554"/>
+    <mergeCell ref="A555:B555"/>
+    <mergeCell ref="K555:L555"/>
+    <mergeCell ref="A556:B556"/>
+    <mergeCell ref="K556:L556"/>
     <mergeCell ref="A572:B572"/>
     <mergeCell ref="K572:L572"/>
     <mergeCell ref="A573:B573"/>
@@ -23013,263 +25066,87 @@
     <mergeCell ref="K568:L568"/>
     <mergeCell ref="A569:B569"/>
     <mergeCell ref="K569:L569"/>
-    <mergeCell ref="A557:B557"/>
-    <mergeCell ref="K557:L557"/>
-    <mergeCell ref="A558:B558"/>
-    <mergeCell ref="K558:L558"/>
-    <mergeCell ref="A552:B552"/>
-    <mergeCell ref="K552:L552"/>
-    <mergeCell ref="A553:B553"/>
-    <mergeCell ref="K553:L553"/>
-    <mergeCell ref="A554:B554"/>
-    <mergeCell ref="K554:L554"/>
-    <mergeCell ref="A555:B555"/>
-    <mergeCell ref="K555:L555"/>
-    <mergeCell ref="A556:B556"/>
-    <mergeCell ref="K556:L556"/>
-    <mergeCell ref="A542:B542"/>
-    <mergeCell ref="K542:L542"/>
-    <mergeCell ref="A548:B548"/>
-    <mergeCell ref="K548:L548"/>
-    <mergeCell ref="A549:B549"/>
-    <mergeCell ref="K549:L549"/>
-    <mergeCell ref="A550:B550"/>
-    <mergeCell ref="K550:L550"/>
-    <mergeCell ref="A543:B543"/>
-    <mergeCell ref="K543:L543"/>
-    <mergeCell ref="A544:B544"/>
-    <mergeCell ref="K544:L544"/>
-    <mergeCell ref="A545:B545"/>
-    <mergeCell ref="K545:L545"/>
-    <mergeCell ref="A546:B546"/>
-    <mergeCell ref="K546:L546"/>
-    <mergeCell ref="A547:B547"/>
-    <mergeCell ref="K547:L547"/>
-    <mergeCell ref="A434:B434"/>
-    <mergeCell ref="K434:L434"/>
-    <mergeCell ref="A435:B435"/>
-    <mergeCell ref="K435:L435"/>
-    <mergeCell ref="A436:B436"/>
-    <mergeCell ref="K436:L436"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="A432:B432"/>
-    <mergeCell ref="K432:L432"/>
-    <mergeCell ref="A433:B433"/>
-    <mergeCell ref="K433:L433"/>
-    <mergeCell ref="A440:B440"/>
-    <mergeCell ref="K440:L440"/>
-    <mergeCell ref="A441:B441"/>
-    <mergeCell ref="K441:L441"/>
-    <mergeCell ref="A442:B442"/>
-    <mergeCell ref="K442:L442"/>
-    <mergeCell ref="A437:B437"/>
-    <mergeCell ref="K437:L437"/>
-    <mergeCell ref="A438:B438"/>
-    <mergeCell ref="K438:L438"/>
-    <mergeCell ref="A439:B439"/>
-    <mergeCell ref="K439:L439"/>
-    <mergeCell ref="A446:B446"/>
-    <mergeCell ref="K446:L446"/>
-    <mergeCell ref="A447:B447"/>
-    <mergeCell ref="K447:L447"/>
-    <mergeCell ref="A448:B448"/>
-    <mergeCell ref="K448:L448"/>
-    <mergeCell ref="A443:B443"/>
-    <mergeCell ref="K443:L443"/>
-    <mergeCell ref="A444:B444"/>
-    <mergeCell ref="K444:L444"/>
-    <mergeCell ref="A445:B445"/>
-    <mergeCell ref="K445:L445"/>
-    <mergeCell ref="A454:B454"/>
-    <mergeCell ref="K454:L454"/>
-    <mergeCell ref="A455:B455"/>
-    <mergeCell ref="K455:L455"/>
-    <mergeCell ref="A456:B456"/>
-    <mergeCell ref="K456:L456"/>
-    <mergeCell ref="A451:B451"/>
-    <mergeCell ref="K451:L451"/>
-    <mergeCell ref="A452:B452"/>
-    <mergeCell ref="K452:L452"/>
-    <mergeCell ref="A453:B453"/>
-    <mergeCell ref="K453:L453"/>
-    <mergeCell ref="A461:B461"/>
-    <mergeCell ref="K461:L461"/>
-    <mergeCell ref="A462:B462"/>
-    <mergeCell ref="K462:L462"/>
-    <mergeCell ref="A463:B463"/>
-    <mergeCell ref="K463:L463"/>
-    <mergeCell ref="A457:B457"/>
-    <mergeCell ref="K457:L457"/>
-    <mergeCell ref="A459:B459"/>
-    <mergeCell ref="K459:L459"/>
-    <mergeCell ref="A460:B460"/>
-    <mergeCell ref="K460:L460"/>
-    <mergeCell ref="A467:B467"/>
-    <mergeCell ref="K467:L467"/>
-    <mergeCell ref="A468:B468"/>
-    <mergeCell ref="K468:L468"/>
-    <mergeCell ref="A469:B469"/>
-    <mergeCell ref="K469:L469"/>
-    <mergeCell ref="A464:B464"/>
-    <mergeCell ref="K464:L464"/>
-    <mergeCell ref="A465:B465"/>
-    <mergeCell ref="K465:L465"/>
-    <mergeCell ref="A466:B466"/>
-    <mergeCell ref="K466:L466"/>
-    <mergeCell ref="A473:B473"/>
-    <mergeCell ref="K473:L473"/>
-    <mergeCell ref="A474:B474"/>
-    <mergeCell ref="K474:L474"/>
-    <mergeCell ref="A475:B475"/>
-    <mergeCell ref="K475:L475"/>
-    <mergeCell ref="A470:B470"/>
-    <mergeCell ref="K470:L470"/>
-    <mergeCell ref="A471:B471"/>
-    <mergeCell ref="K471:L471"/>
-    <mergeCell ref="A472:B472"/>
-    <mergeCell ref="K472:L472"/>
-    <mergeCell ref="A479:B479"/>
-    <mergeCell ref="K479:L479"/>
-    <mergeCell ref="A480:B480"/>
-    <mergeCell ref="K480:L480"/>
-    <mergeCell ref="A481:B481"/>
-    <mergeCell ref="K481:L481"/>
-    <mergeCell ref="A476:B476"/>
-    <mergeCell ref="K476:L476"/>
-    <mergeCell ref="A477:B477"/>
-    <mergeCell ref="K477:L477"/>
-    <mergeCell ref="A478:B478"/>
-    <mergeCell ref="K478:L478"/>
-    <mergeCell ref="A485:B485"/>
-    <mergeCell ref="K485:L485"/>
-    <mergeCell ref="A486:B486"/>
-    <mergeCell ref="K486:L486"/>
-    <mergeCell ref="A487:B487"/>
-    <mergeCell ref="K487:L487"/>
-    <mergeCell ref="A482:B482"/>
-    <mergeCell ref="K482:L482"/>
-    <mergeCell ref="A483:B483"/>
-    <mergeCell ref="K483:L483"/>
-    <mergeCell ref="A484:B484"/>
-    <mergeCell ref="K484:L484"/>
-    <mergeCell ref="A491:B491"/>
-    <mergeCell ref="K491:L491"/>
-    <mergeCell ref="A492:B492"/>
-    <mergeCell ref="K492:L492"/>
-    <mergeCell ref="A493:B493"/>
-    <mergeCell ref="K493:L493"/>
-    <mergeCell ref="A488:B488"/>
-    <mergeCell ref="K488:L488"/>
-    <mergeCell ref="A489:B489"/>
-    <mergeCell ref="K489:L489"/>
-    <mergeCell ref="A490:B490"/>
-    <mergeCell ref="K490:L490"/>
-    <mergeCell ref="A497:B497"/>
-    <mergeCell ref="K497:L497"/>
-    <mergeCell ref="A498:B498"/>
-    <mergeCell ref="K498:L498"/>
-    <mergeCell ref="A499:B499"/>
-    <mergeCell ref="K499:L499"/>
-    <mergeCell ref="A494:B494"/>
-    <mergeCell ref="K494:L494"/>
-    <mergeCell ref="A495:B495"/>
-    <mergeCell ref="K495:L495"/>
-    <mergeCell ref="A496:B496"/>
-    <mergeCell ref="K496:L496"/>
-    <mergeCell ref="A504:B504"/>
-    <mergeCell ref="K504:L504"/>
-    <mergeCell ref="A505:B505"/>
-    <mergeCell ref="K505:L505"/>
-    <mergeCell ref="A506:B506"/>
-    <mergeCell ref="K506:L506"/>
-    <mergeCell ref="A500:B500"/>
-    <mergeCell ref="K500:L500"/>
-    <mergeCell ref="A501:B501"/>
-    <mergeCell ref="K501:L501"/>
-    <mergeCell ref="A503:B503"/>
-    <mergeCell ref="K503:L503"/>
-    <mergeCell ref="A510:B510"/>
-    <mergeCell ref="K510:L510"/>
-    <mergeCell ref="A511:B511"/>
-    <mergeCell ref="K511:L511"/>
-    <mergeCell ref="A512:B512"/>
-    <mergeCell ref="K512:L512"/>
-    <mergeCell ref="A507:B507"/>
-    <mergeCell ref="K507:L507"/>
-    <mergeCell ref="A508:B508"/>
-    <mergeCell ref="K508:L508"/>
-    <mergeCell ref="A509:B509"/>
-    <mergeCell ref="K509:L509"/>
-    <mergeCell ref="A516:B516"/>
-    <mergeCell ref="K516:L516"/>
-    <mergeCell ref="A517:B517"/>
-    <mergeCell ref="K517:L517"/>
-    <mergeCell ref="A518:B518"/>
-    <mergeCell ref="K518:L518"/>
-    <mergeCell ref="A513:B513"/>
-    <mergeCell ref="K513:L513"/>
-    <mergeCell ref="A514:B514"/>
-    <mergeCell ref="K514:L514"/>
-    <mergeCell ref="A515:B515"/>
-    <mergeCell ref="K515:L515"/>
-    <mergeCell ref="A522:B522"/>
-    <mergeCell ref="K522:L522"/>
-    <mergeCell ref="A523:B523"/>
-    <mergeCell ref="K523:L523"/>
-    <mergeCell ref="A524:B524"/>
-    <mergeCell ref="K524:L524"/>
-    <mergeCell ref="A519:B519"/>
-    <mergeCell ref="K519:L519"/>
-    <mergeCell ref="A520:B520"/>
-    <mergeCell ref="K520:L520"/>
-    <mergeCell ref="A521:B521"/>
-    <mergeCell ref="K521:L521"/>
-    <mergeCell ref="A541:B541"/>
-    <mergeCell ref="K541:L541"/>
-    <mergeCell ref="A525:B525"/>
-    <mergeCell ref="K525:L525"/>
-    <mergeCell ref="A528:B528"/>
-    <mergeCell ref="K528:L528"/>
-    <mergeCell ref="A529:B529"/>
-    <mergeCell ref="K529:L529"/>
-    <mergeCell ref="A532:B532"/>
-    <mergeCell ref="K532:L532"/>
-    <mergeCell ref="A534:B534"/>
-    <mergeCell ref="K534:L534"/>
+    <mergeCell ref="A575:B575"/>
+    <mergeCell ref="K575:L575"/>
+    <mergeCell ref="A576:B576"/>
+    <mergeCell ref="K576:L576"/>
+    <mergeCell ref="A577:B577"/>
+    <mergeCell ref="K577:L577"/>
+    <mergeCell ref="A578:B578"/>
+    <mergeCell ref="K578:L578"/>
+    <mergeCell ref="A579:B579"/>
+    <mergeCell ref="K579:L579"/>
+    <mergeCell ref="A585:B585"/>
+    <mergeCell ref="K585:L585"/>
+    <mergeCell ref="A580:B580"/>
+    <mergeCell ref="K580:L580"/>
+    <mergeCell ref="A581:B581"/>
+    <mergeCell ref="K581:L581"/>
+    <mergeCell ref="A582:B582"/>
+    <mergeCell ref="K582:L582"/>
+    <mergeCell ref="A583:B583"/>
+    <mergeCell ref="K583:L583"/>
     <mergeCell ref="A584:B584"/>
     <mergeCell ref="K584:L584"/>
-    <mergeCell ref="A565:B565"/>
-    <mergeCell ref="K565:L565"/>
-    <mergeCell ref="A574:B574"/>
-    <mergeCell ref="K574:L574"/>
-    <mergeCell ref="A551:B551"/>
-    <mergeCell ref="K551:L551"/>
-    <mergeCell ref="A530:B530"/>
-    <mergeCell ref="K530:L530"/>
-    <mergeCell ref="A531:B531"/>
-    <mergeCell ref="K531:L531"/>
-    <mergeCell ref="A535:B535"/>
-    <mergeCell ref="K535:L535"/>
-    <mergeCell ref="A536:B536"/>
-    <mergeCell ref="K536:L536"/>
-    <mergeCell ref="A537:B537"/>
-    <mergeCell ref="K537:L537"/>
-    <mergeCell ref="A538:B538"/>
-    <mergeCell ref="K538:L538"/>
-    <mergeCell ref="A539:B539"/>
-    <mergeCell ref="K539:L539"/>
-    <mergeCell ref="A540:B540"/>
-    <mergeCell ref="K540:L540"/>
+    <mergeCell ref="A594:B594"/>
+    <mergeCell ref="K594:L594"/>
+    <mergeCell ref="A595:B595"/>
+    <mergeCell ref="K595:L595"/>
+    <mergeCell ref="A598:B598"/>
+    <mergeCell ref="K598:L598"/>
+    <mergeCell ref="A596:B596"/>
+    <mergeCell ref="K596:L596"/>
+    <mergeCell ref="A597:B597"/>
+    <mergeCell ref="K597:L597"/>
+    <mergeCell ref="A625:B625"/>
+    <mergeCell ref="K625:L625"/>
+    <mergeCell ref="A626:B626"/>
+    <mergeCell ref="K626:L626"/>
+    <mergeCell ref="A622:B622"/>
+    <mergeCell ref="K622:L622"/>
+    <mergeCell ref="A586:B586"/>
+    <mergeCell ref="K586:L586"/>
+    <mergeCell ref="A587:B587"/>
+    <mergeCell ref="K587:L587"/>
+    <mergeCell ref="A607:B607"/>
+    <mergeCell ref="K607:L607"/>
+    <mergeCell ref="A588:B588"/>
+    <mergeCell ref="K588:L588"/>
+    <mergeCell ref="A589:B589"/>
+    <mergeCell ref="K589:L589"/>
+    <mergeCell ref="A590:B590"/>
+    <mergeCell ref="K590:L590"/>
+    <mergeCell ref="A591:B591"/>
+    <mergeCell ref="K591:L591"/>
+    <mergeCell ref="A592:B592"/>
+    <mergeCell ref="K592:L592"/>
+    <mergeCell ref="A593:B593"/>
+    <mergeCell ref="K593:L593"/>
+    <mergeCell ref="A635:B635"/>
+    <mergeCell ref="K635:L635"/>
+    <mergeCell ref="A633:B633"/>
+    <mergeCell ref="K633:L633"/>
+    <mergeCell ref="A634:B634"/>
+    <mergeCell ref="K634:L634"/>
+    <mergeCell ref="A627:B627"/>
+    <mergeCell ref="K627:L627"/>
+    <mergeCell ref="A628:B628"/>
+    <mergeCell ref="K628:L628"/>
+    <mergeCell ref="A629:B629"/>
+    <mergeCell ref="K629:L629"/>
+    <mergeCell ref="A630:B630"/>
+    <mergeCell ref="K630:L630"/>
+    <mergeCell ref="A631:B631"/>
+    <mergeCell ref="K631:L631"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E3:E176 E180:E183 E188:E194 E196 E202:E203 E207:E208 E239:E243 E254:E257 E267:E278 E280:E282 E300 E303:E306 E313:E326 E403 E414:E415 E586:E1011">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E3:E176 E180:E183 E188:E194 E196 E202:E203 E207:E208 E239:E243 E254:E257 E267:E278 E280:E282 E300 E303:E306 E313:E326 E403 E414:E415 E637:E1011">
       <formula1>"GABRIEL,UILLIAM"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F32 F40">
       <formula1>"TI,NPJ,LAB,MED,PAV01,EAD,AULA,CORD MED,PROF MED,PROG,ARQ,ATEND,CAP,CORD"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F3:F27 F29:F31 F33:F39 F41:F176 F180:F183 F188:F194 F196 F202:F203 F207:F208 F239:F243 F254:F257 F267:F278 F280:F282 F300 F303:F306 F313:F326 F403 F414:F415 F586:F1011">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F3:F27 F29:F31 F33:F39 F41:F176 F180:F183 F188:F194 F196 F202:F203 F207:F208 F239:F243 F254:F257 F267:F278 F280:F282 F300 F303:F306 F313:F326 F403 F414:F415 F637:F1011">
       <formula1>"TI,NPJ,LAB,MED,PAV01,EAD,AULA,CORD MED,PROF MED,PROG,ARQ,ATEND,CAP,CPA,CORD,BLIB,DIR,FIN,RH"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F28">

--- a/Registro-de-atividades.xlsx
+++ b/Registro-de-atividades.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1912" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2056" uniqueCount="624">
   <si>
     <t>Registro de atividades</t>
   </si>
@@ -1759,6 +1759,138 @@
   </si>
   <si>
     <t>Instalando Kaspersky nos computadores da captação e da cordenação</t>
+  </si>
+  <si>
+    <t>Testando projetor epslon</t>
+  </si>
+  <si>
+    <t>PEGANDO CAIXA DE TONER NA SECRETARIA</t>
+  </si>
+  <si>
+    <t>Registrando entrada e saida de toner no app de estoque</t>
+  </si>
+  <si>
+    <t>Fazendo etiquetas para indentificar as caixas do estoque</t>
+  </si>
+  <si>
+    <t>Registrando entrada e saida de conector emenda rj45 no app de estoque</t>
+  </si>
+  <si>
+    <t>Colocando emenda nos cabos da antena p2 sala 11</t>
+  </si>
+  <si>
+    <t>Etiquetando as caixas do estoque</t>
+  </si>
+  <si>
+    <t>Analisiando suposto email falso</t>
+  </si>
+  <si>
+    <t>Levando computadores de descarte para serem descartados</t>
+  </si>
+  <si>
+    <t>Guardando equipamentos do EAD</t>
+  </si>
+  <si>
+    <t>Suporte a professora Daiana para abrir o antigo sistema ead</t>
+  </si>
+  <si>
+    <t>Trocando senha do aluno no dominio contabel</t>
+  </si>
+  <si>
+    <t>cadastrando quetões na plataforma Rubeus para avaluação online</t>
+  </si>
+  <si>
+    <t>Indo buscar celular do npj na Tecnocell</t>
+  </si>
+  <si>
+    <t>Levando celular no npj</t>
+  </si>
+  <si>
+    <t>cadastrando produtos no app de estoque</t>
+  </si>
+  <si>
+    <t>levando baterias com joão para vender</t>
+  </si>
+  <si>
+    <t>Arrumando cameras</t>
+  </si>
+  <si>
+    <t>cadastrado produtos no app de estoque</t>
+  </si>
+  <si>
+    <t>Verificando a segunda tela do Pc de Milena que estava apagada</t>
+  </si>
+  <si>
+    <t>Suporte tde telefone</t>
+  </si>
+  <si>
+    <t>Manutenção em na impressora epslon</t>
+  </si>
+  <si>
+    <t>Conectando impressora sec 02 na impressora imp-sem-01</t>
+  </si>
+  <si>
+    <t>Realizando compras de tintas para impressoaras epslon</t>
+  </si>
+  <si>
+    <t>Verificando atualização do TOTVS nas maquinas da instituição</t>
+  </si>
+  <si>
+    <t>Colocando RM no computador BIB 02 usuario de Igrydy</t>
+  </si>
+  <si>
+    <t>Dando orientação via telefone de como acessar o portal do aluno</t>
+  </si>
+  <si>
+    <t>Indo buscar caixa de som em Gersom com carretinha</t>
+  </si>
+  <si>
+    <t>Instalando caixa de som sala de metodologias ativas para acolhimento aos calouros</t>
+  </si>
+  <si>
+    <t>dando caixas de ubiquit para luciana</t>
+  </si>
+  <si>
+    <t>testando datashow do deposito</t>
+  </si>
+  <si>
+    <t>Indo na casa de diretora Mariana para verifacar cabo</t>
+  </si>
+  <si>
+    <t>Indo buscar Roteador na need para casa de diretora Mariana</t>
+  </si>
+  <si>
+    <t>Indo estalar Roteador na casa de diretora mariana</t>
+  </si>
+  <si>
+    <t>Respondendo email correspondete a compra de tintas impressora epslon</t>
+  </si>
+  <si>
+    <t>Respondendo email sobre a compra de tintas impressora epslon</t>
+  </si>
+  <si>
+    <t>Troca de mouse pc fin 01</t>
+  </si>
+  <si>
+    <t>CLIN ESCOLA</t>
+  </si>
+  <si>
+    <t>Verificando telefone de Meire</t>
+  </si>
+  <si>
+    <t>Configurando e testando novo telefone para Meire, autorizado por Asdrubal</t>
+  </si>
+  <si>
+    <t>levando novo telefone, chegando la estava dando sem serviço</t>
+  </si>
+  <si>
+    <t>Conectando impressora sec-01 no pc atend-02</t>
+  </si>
+  <si>
+    <t>Retirando papel atolado da impresora do npj</t>
+  </si>
+  <si>
+    <t>Reiniciando catracas na captação</t>
   </si>
 </sst>
 </file>
@@ -2145,7 +2277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2344,6 +2476,11 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2601,10 +2738,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y1011"/>
+  <dimension ref="A1:Y1013"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A622" workbookViewId="0">
-      <selection activeCell="A636" sqref="A636:Y636"/>
+    <sheetView tabSelected="1" topLeftCell="A673" workbookViewId="0">
+      <selection activeCell="A684" sqref="A684:Y684"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2616,17 +2753,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="84"/>
-      <c r="B1" s="85"/>
-      <c r="C1" s="86" t="s">
+      <c r="A1" s="87"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="88"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="91"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -13751,8 +13888,8 @@
       <c r="X431" s="22"/>
     </row>
     <row r="432" spans="1:25" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A432" s="76"/>
-      <c r="B432" s="77"/>
+      <c r="A432" s="79"/>
+      <c r="B432" s="80"/>
       <c r="C432" s="66"/>
       <c r="D432" s="24">
         <v>45659</v>
@@ -13773,8 +13910,8 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="J432" s="66"/>
-      <c r="K432" s="78"/>
-      <c r="L432" s="79"/>
+      <c r="K432" s="81"/>
+      <c r="L432" s="82"/>
       <c r="M432" s="66"/>
       <c r="N432" s="66"/>
       <c r="O432" s="66"/>
@@ -13790,8 +13927,8 @@
       <c r="Y432" s="66"/>
     </row>
     <row r="433" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A433" s="76"/>
-      <c r="B433" s="77"/>
+      <c r="A433" s="79"/>
+      <c r="B433" s="80"/>
       <c r="C433" s="67"/>
       <c r="D433" s="36">
         <v>45659</v>
@@ -13812,8 +13949,8 @@
         <v>0.5</v>
       </c>
       <c r="J433" s="67"/>
-      <c r="K433" s="78"/>
-      <c r="L433" s="79"/>
+      <c r="K433" s="81"/>
+      <c r="L433" s="82"/>
       <c r="M433" s="67"/>
       <c r="N433" s="67"/>
       <c r="O433" s="67"/>
@@ -13829,8 +13966,8 @@
       <c r="Y433" s="67"/>
     </row>
     <row r="434" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A434" s="76"/>
-      <c r="B434" s="77"/>
+      <c r="A434" s="79"/>
+      <c r="B434" s="80"/>
       <c r="C434" s="67"/>
       <c r="D434" s="36">
         <v>45659</v>
@@ -13851,8 +13988,8 @@
         <v>0.5805555555555556</v>
       </c>
       <c r="J434" s="67"/>
-      <c r="K434" s="78"/>
-      <c r="L434" s="79"/>
+      <c r="K434" s="81"/>
+      <c r="L434" s="82"/>
       <c r="M434" s="67"/>
       <c r="N434" s="67"/>
       <c r="O434" s="67"/>
@@ -13868,8 +14005,8 @@
       <c r="Y434" s="67"/>
     </row>
     <row r="435" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A435" s="76"/>
-      <c r="B435" s="77"/>
+      <c r="A435" s="79"/>
+      <c r="B435" s="80"/>
       <c r="C435" s="67"/>
       <c r="D435" s="36">
         <v>45660</v>
@@ -13890,8 +14027,8 @@
         <v>0.40972222222222227</v>
       </c>
       <c r="J435" s="67"/>
-      <c r="K435" s="78"/>
-      <c r="L435" s="79"/>
+      <c r="K435" s="81"/>
+      <c r="L435" s="82"/>
       <c r="M435" s="67"/>
       <c r="N435" s="67"/>
       <c r="O435" s="67"/>
@@ -13907,8 +14044,8 @@
       <c r="Y435" s="67"/>
     </row>
     <row r="436" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A436" s="76"/>
-      <c r="B436" s="77"/>
+      <c r="A436" s="79"/>
+      <c r="B436" s="80"/>
       <c r="C436" s="67"/>
       <c r="D436" s="36">
         <v>45663</v>
@@ -13929,8 +14066,8 @@
         <v>0.35069444444444442</v>
       </c>
       <c r="J436" s="67"/>
-      <c r="K436" s="78"/>
-      <c r="L436" s="79"/>
+      <c r="K436" s="81"/>
+      <c r="L436" s="82"/>
       <c r="M436" s="67"/>
       <c r="N436" s="67"/>
       <c r="O436" s="67"/>
@@ -13946,8 +14083,8 @@
       <c r="Y436" s="67"/>
     </row>
     <row r="437" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A437" s="76"/>
-      <c r="B437" s="77"/>
+      <c r="A437" s="79"/>
+      <c r="B437" s="80"/>
       <c r="C437" s="67"/>
       <c r="D437" s="36">
         <v>45663</v>
@@ -13968,8 +14105,8 @@
         <v>0.375</v>
       </c>
       <c r="J437" s="67"/>
-      <c r="K437" s="78"/>
-      <c r="L437" s="79"/>
+      <c r="K437" s="81"/>
+      <c r="L437" s="82"/>
       <c r="M437" s="67"/>
       <c r="N437" s="67"/>
       <c r="O437" s="67"/>
@@ -13985,8 +14122,8 @@
       <c r="Y437" s="67"/>
     </row>
     <row r="438" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A438" s="76"/>
-      <c r="B438" s="77"/>
+      <c r="A438" s="79"/>
+      <c r="B438" s="80"/>
       <c r="C438" s="67"/>
       <c r="D438" s="36">
         <v>45663</v>
@@ -14007,8 +14144,8 @@
         <v>0.38194444444444442</v>
       </c>
       <c r="J438" s="67"/>
-      <c r="K438" s="78"/>
-      <c r="L438" s="79"/>
+      <c r="K438" s="81"/>
+      <c r="L438" s="82"/>
       <c r="M438" s="67"/>
       <c r="N438" s="67"/>
       <c r="O438" s="67"/>
@@ -14024,8 +14161,8 @@
       <c r="Y438" s="67"/>
     </row>
     <row r="439" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A439" s="76"/>
-      <c r="B439" s="77"/>
+      <c r="A439" s="79"/>
+      <c r="B439" s="80"/>
       <c r="C439" s="67"/>
       <c r="D439" s="36">
         <v>45663</v>
@@ -14046,8 +14183,8 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="J439" s="67"/>
-      <c r="K439" s="78"/>
-      <c r="L439" s="79"/>
+      <c r="K439" s="81"/>
+      <c r="L439" s="82"/>
       <c r="M439" s="67"/>
       <c r="N439" s="67"/>
       <c r="O439" s="67"/>
@@ -14063,8 +14200,8 @@
       <c r="Y439" s="67"/>
     </row>
     <row r="440" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A440" s="76"/>
-      <c r="B440" s="77"/>
+      <c r="A440" s="79"/>
+      <c r="B440" s="80"/>
       <c r="C440" s="67"/>
       <c r="D440" s="36">
         <v>45663</v>
@@ -14085,8 +14222,8 @@
         <v>0.43055555555555558</v>
       </c>
       <c r="J440" s="67"/>
-      <c r="K440" s="78"/>
-      <c r="L440" s="79"/>
+      <c r="K440" s="81"/>
+      <c r="L440" s="82"/>
       <c r="M440" s="67"/>
       <c r="N440" s="67"/>
       <c r="O440" s="67"/>
@@ -14102,8 +14239,8 @@
       <c r="Y440" s="67"/>
     </row>
     <row r="441" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A441" s="76"/>
-      <c r="B441" s="77"/>
+      <c r="A441" s="79"/>
+      <c r="B441" s="80"/>
       <c r="C441" s="67"/>
       <c r="D441" s="36">
         <v>45663</v>
@@ -14124,8 +14261,8 @@
         <v>0.55208333333333337</v>
       </c>
       <c r="J441" s="67"/>
-      <c r="K441" s="78"/>
-      <c r="L441" s="79"/>
+      <c r="K441" s="81"/>
+      <c r="L441" s="82"/>
       <c r="M441" s="67"/>
       <c r="N441" s="67"/>
       <c r="O441" s="67"/>
@@ -14141,8 +14278,8 @@
       <c r="Y441" s="67"/>
     </row>
     <row r="442" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A442" s="76"/>
-      <c r="B442" s="77"/>
+      <c r="A442" s="79"/>
+      <c r="B442" s="80"/>
       <c r="C442" s="67"/>
       <c r="D442" s="36">
         <v>45664</v>
@@ -14163,8 +14300,8 @@
         <v>0.35000000000000003</v>
       </c>
       <c r="J442" s="67"/>
-      <c r="K442" s="78"/>
-      <c r="L442" s="79"/>
+      <c r="K442" s="81"/>
+      <c r="L442" s="82"/>
       <c r="M442" s="67"/>
       <c r="N442" s="67"/>
       <c r="O442" s="67"/>
@@ -14180,8 +14317,8 @@
       <c r="Y442" s="67"/>
     </row>
     <row r="443" spans="1:25" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A443" s="76"/>
-      <c r="B443" s="77"/>
+      <c r="A443" s="79"/>
+      <c r="B443" s="80"/>
       <c r="C443" s="67"/>
       <c r="D443" s="36">
         <v>45664</v>
@@ -14202,8 +14339,8 @@
         <v>0.36527777777777781</v>
       </c>
       <c r="J443" s="67"/>
-      <c r="K443" s="78"/>
-      <c r="L443" s="79"/>
+      <c r="K443" s="81"/>
+      <c r="L443" s="82"/>
       <c r="M443" s="67"/>
       <c r="N443" s="67"/>
       <c r="O443" s="67"/>
@@ -14219,8 +14356,8 @@
       <c r="Y443" s="67"/>
     </row>
     <row r="444" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A444" s="76"/>
-      <c r="B444" s="77"/>
+      <c r="A444" s="79"/>
+      <c r="B444" s="80"/>
       <c r="C444" s="67"/>
       <c r="D444" s="36">
         <v>45664</v>
@@ -14241,8 +14378,8 @@
         <v>0.37152777777777773</v>
       </c>
       <c r="J444" s="67"/>
-      <c r="K444" s="78"/>
-      <c r="L444" s="79"/>
+      <c r="K444" s="81"/>
+      <c r="L444" s="82"/>
       <c r="M444" s="67"/>
       <c r="N444" s="67"/>
       <c r="O444" s="67"/>
@@ -14258,8 +14395,8 @@
       <c r="Y444" s="67"/>
     </row>
     <row r="445" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A445" s="76"/>
-      <c r="B445" s="77"/>
+      <c r="A445" s="79"/>
+      <c r="B445" s="80"/>
       <c r="C445" s="67"/>
       <c r="D445" s="36">
         <v>45664</v>
@@ -14280,8 +14417,8 @@
         <v>0.44444444444444442</v>
       </c>
       <c r="J445" s="67"/>
-      <c r="K445" s="78"/>
-      <c r="L445" s="79"/>
+      <c r="K445" s="81"/>
+      <c r="L445" s="82"/>
       <c r="M445" s="67"/>
       <c r="N445" s="67"/>
       <c r="O445" s="67"/>
@@ -14297,8 +14434,8 @@
       <c r="Y445" s="67"/>
     </row>
     <row r="446" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A446" s="76"/>
-      <c r="B446" s="77"/>
+      <c r="A446" s="79"/>
+      <c r="B446" s="80"/>
       <c r="C446" s="67"/>
       <c r="D446" s="36">
         <v>45664</v>
@@ -14319,8 +14456,8 @@
         <v>0.4597222222222222</v>
       </c>
       <c r="J446" s="67"/>
-      <c r="K446" s="78"/>
-      <c r="L446" s="79"/>
+      <c r="K446" s="81"/>
+      <c r="L446" s="82"/>
       <c r="M446" s="67"/>
       <c r="N446" s="67"/>
       <c r="O446" s="67"/>
@@ -14336,8 +14473,8 @@
       <c r="Y446" s="67"/>
     </row>
     <row r="447" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A447" s="76"/>
-      <c r="B447" s="77"/>
+      <c r="A447" s="79"/>
+      <c r="B447" s="80"/>
       <c r="C447" s="67"/>
       <c r="D447" s="36">
         <v>45665</v>
@@ -14358,8 +14495,8 @@
         <v>0.44444444444444442</v>
       </c>
       <c r="J447" s="67"/>
-      <c r="K447" s="78"/>
-      <c r="L447" s="79"/>
+      <c r="K447" s="81"/>
+      <c r="L447" s="82"/>
       <c r="M447" s="67"/>
       <c r="N447" s="67"/>
       <c r="O447" s="67"/>
@@ -14375,8 +14512,8 @@
       <c r="Y447" s="67"/>
     </row>
     <row r="448" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A448" s="76"/>
-      <c r="B448" s="77"/>
+      <c r="A448" s="79"/>
+      <c r="B448" s="80"/>
       <c r="C448" s="67"/>
       <c r="D448" s="36">
         <v>45665</v>
@@ -14397,8 +14534,8 @@
         <v>0.45</v>
       </c>
       <c r="J448" s="67"/>
-      <c r="K448" s="78"/>
-      <c r="L448" s="79"/>
+      <c r="K448" s="81"/>
+      <c r="L448" s="82"/>
       <c r="M448" s="67"/>
       <c r="N448" s="67"/>
       <c r="O448" s="67"/>
@@ -14492,8 +14629,8 @@
       <c r="Y450" s="67"/>
     </row>
     <row r="451" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A451" s="76"/>
-      <c r="B451" s="77"/>
+      <c r="A451" s="79"/>
+      <c r="B451" s="80"/>
       <c r="C451" s="67"/>
       <c r="D451" s="36">
         <v>45665</v>
@@ -14514,8 +14651,8 @@
         <v>0.46875</v>
       </c>
       <c r="J451" s="67"/>
-      <c r="K451" s="78"/>
-      <c r="L451" s="79"/>
+      <c r="K451" s="81"/>
+      <c r="L451" s="82"/>
       <c r="M451" s="67"/>
       <c r="N451" s="67"/>
       <c r="O451" s="67"/>
@@ -14531,8 +14668,8 @@
       <c r="Y451" s="67"/>
     </row>
     <row r="452" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A452" s="76"/>
-      <c r="B452" s="77"/>
+      <c r="A452" s="79"/>
+      <c r="B452" s="80"/>
       <c r="C452" s="67"/>
       <c r="D452" s="36">
         <v>45665</v>
@@ -14553,8 +14690,8 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="J452" s="67"/>
-      <c r="K452" s="78"/>
-      <c r="L452" s="79"/>
+      <c r="K452" s="81"/>
+      <c r="L452" s="82"/>
       <c r="M452" s="67"/>
       <c r="N452" s="67"/>
       <c r="O452" s="67"/>
@@ -14570,8 +14707,8 @@
       <c r="Y452" s="67"/>
     </row>
     <row r="453" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A453" s="76"/>
-      <c r="B453" s="77"/>
+      <c r="A453" s="79"/>
+      <c r="B453" s="80"/>
       <c r="C453" s="67"/>
       <c r="D453" s="36">
         <v>45666</v>
@@ -14592,8 +14729,8 @@
         <v>0.33680555555555558</v>
       </c>
       <c r="J453" s="67"/>
-      <c r="K453" s="78"/>
-      <c r="L453" s="79"/>
+      <c r="K453" s="81"/>
+      <c r="L453" s="82"/>
       <c r="M453" s="67"/>
       <c r="N453" s="67"/>
       <c r="O453" s="67"/>
@@ -14609,8 +14746,8 @@
       <c r="Y453" s="67"/>
     </row>
     <row r="454" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A454" s="76"/>
-      <c r="B454" s="77"/>
+      <c r="A454" s="79"/>
+      <c r="B454" s="80"/>
       <c r="C454" s="67"/>
       <c r="D454" s="36">
         <v>45666</v>
@@ -14631,8 +14768,8 @@
         <v>0.375</v>
       </c>
       <c r="J454" s="67"/>
-      <c r="K454" s="78"/>
-      <c r="L454" s="79"/>
+      <c r="K454" s="81"/>
+      <c r="L454" s="82"/>
       <c r="M454" s="67"/>
       <c r="N454" s="67"/>
       <c r="O454" s="67"/>
@@ -14648,8 +14785,8 @@
       <c r="Y454" s="67"/>
     </row>
     <row r="455" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A455" s="76"/>
-      <c r="B455" s="77"/>
+      <c r="A455" s="79"/>
+      <c r="B455" s="80"/>
       <c r="C455" s="67"/>
       <c r="D455" s="36">
         <v>45666</v>
@@ -14670,8 +14807,8 @@
         <v>0.46875</v>
       </c>
       <c r="J455" s="67"/>
-      <c r="K455" s="78"/>
-      <c r="L455" s="79"/>
+      <c r="K455" s="81"/>
+      <c r="L455" s="82"/>
       <c r="M455" s="67"/>
       <c r="N455" s="67"/>
       <c r="O455" s="67"/>
@@ -14687,8 +14824,8 @@
       <c r="Y455" s="67"/>
     </row>
     <row r="456" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A456" s="76"/>
-      <c r="B456" s="77"/>
+      <c r="A456" s="79"/>
+      <c r="B456" s="80"/>
       <c r="C456" s="67"/>
       <c r="D456" s="36">
         <v>45666</v>
@@ -14709,8 +14846,8 @@
         <v>0.47569444444444442</v>
       </c>
       <c r="J456" s="67"/>
-      <c r="K456" s="78"/>
-      <c r="L456" s="79"/>
+      <c r="K456" s="81"/>
+      <c r="L456" s="82"/>
       <c r="M456" s="67"/>
       <c r="N456" s="67"/>
       <c r="O456" s="67"/>
@@ -14726,8 +14863,8 @@
       <c r="Y456" s="67"/>
     </row>
     <row r="457" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A457" s="76"/>
-      <c r="B457" s="77"/>
+      <c r="A457" s="79"/>
+      <c r="B457" s="80"/>
       <c r="C457" s="67"/>
       <c r="D457" s="36">
         <v>45666</v>
@@ -14748,8 +14885,8 @@
         <v>0.50694444444444442</v>
       </c>
       <c r="J457" s="67"/>
-      <c r="K457" s="78"/>
-      <c r="L457" s="79"/>
+      <c r="K457" s="81"/>
+      <c r="L457" s="82"/>
       <c r="M457" s="67"/>
       <c r="N457" s="67"/>
       <c r="O457" s="67"/>
@@ -14804,8 +14941,8 @@
       <c r="Y458" s="67"/>
     </row>
     <row r="459" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A459" s="76"/>
-      <c r="B459" s="77"/>
+      <c r="A459" s="79"/>
+      <c r="B459" s="80"/>
       <c r="C459" s="67"/>
       <c r="D459" s="36">
         <v>45667</v>
@@ -14826,8 +14963,8 @@
         <v>0.33124999999999999</v>
       </c>
       <c r="J459" s="67"/>
-      <c r="K459" s="78"/>
-      <c r="L459" s="79"/>
+      <c r="K459" s="81"/>
+      <c r="L459" s="82"/>
       <c r="M459" s="67"/>
       <c r="N459" s="67"/>
       <c r="O459" s="67"/>
@@ -14843,8 +14980,8 @@
       <c r="Y459" s="67"/>
     </row>
     <row r="460" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A460" s="76"/>
-      <c r="B460" s="77"/>
+      <c r="A460" s="79"/>
+      <c r="B460" s="80"/>
       <c r="C460" s="67"/>
       <c r="D460" s="36">
         <v>45667</v>
@@ -14865,8 +15002,8 @@
         <v>0.38194444444444442</v>
       </c>
       <c r="J460" s="67"/>
-      <c r="K460" s="78"/>
-      <c r="L460" s="79"/>
+      <c r="K460" s="81"/>
+      <c r="L460" s="82"/>
       <c r="M460" s="67"/>
       <c r="N460" s="67"/>
       <c r="O460" s="67"/>
@@ -14882,8 +15019,8 @@
       <c r="Y460" s="67"/>
     </row>
     <row r="461" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A461" s="76"/>
-      <c r="B461" s="77"/>
+      <c r="A461" s="79"/>
+      <c r="B461" s="80"/>
       <c r="C461" s="67"/>
       <c r="D461" s="36">
         <v>45667</v>
@@ -14904,8 +15041,8 @@
         <v>0.46527777777777773</v>
       </c>
       <c r="J461" s="67"/>
-      <c r="K461" s="78"/>
-      <c r="L461" s="79"/>
+      <c r="K461" s="81"/>
+      <c r="L461" s="82"/>
       <c r="M461" s="67"/>
       <c r="N461" s="67"/>
       <c r="O461" s="67"/>
@@ -14921,8 +15058,8 @@
       <c r="Y461" s="67"/>
     </row>
     <row r="462" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A462" s="76"/>
-      <c r="B462" s="77"/>
+      <c r="A462" s="79"/>
+      <c r="B462" s="80"/>
       <c r="C462" s="67"/>
       <c r="D462" s="36">
         <v>45667</v>
@@ -14943,8 +15080,8 @@
         <v>0.50347222222222221</v>
       </c>
       <c r="J462" s="67"/>
-      <c r="K462" s="78"/>
-      <c r="L462" s="79"/>
+      <c r="K462" s="81"/>
+      <c r="L462" s="82"/>
       <c r="M462" s="67"/>
       <c r="N462" s="67"/>
       <c r="O462" s="67"/>
@@ -14960,8 +15097,8 @@
       <c r="Y462" s="67"/>
     </row>
     <row r="463" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A463" s="76"/>
-      <c r="B463" s="77"/>
+      <c r="A463" s="79"/>
+      <c r="B463" s="80"/>
       <c r="C463" s="67"/>
       <c r="D463" s="36">
         <v>45670</v>
@@ -14982,8 +15119,8 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="J463" s="67"/>
-      <c r="K463" s="78"/>
-      <c r="L463" s="79"/>
+      <c r="K463" s="81"/>
+      <c r="L463" s="82"/>
       <c r="M463" s="67"/>
       <c r="N463" s="67"/>
       <c r="O463" s="67"/>
@@ -14999,8 +15136,8 @@
       <c r="Y463" s="67"/>
     </row>
     <row r="464" spans="1:25" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A464" s="76"/>
-      <c r="B464" s="77"/>
+      <c r="A464" s="79"/>
+      <c r="B464" s="80"/>
       <c r="C464" s="67"/>
       <c r="D464" s="36">
         <v>45670</v>
@@ -15021,8 +15158,8 @@
         <v>0.38541666666666669</v>
       </c>
       <c r="J464" s="67"/>
-      <c r="K464" s="78"/>
-      <c r="L464" s="79"/>
+      <c r="K464" s="81"/>
+      <c r="L464" s="82"/>
       <c r="M464" s="67"/>
       <c r="N464" s="67"/>
       <c r="O464" s="67"/>
@@ -15038,8 +15175,8 @@
       <c r="Y464" s="67"/>
     </row>
     <row r="465" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A465" s="76"/>
-      <c r="B465" s="77"/>
+      <c r="A465" s="79"/>
+      <c r="B465" s="80"/>
       <c r="C465" s="67"/>
       <c r="D465" s="36">
         <v>45670</v>
@@ -15060,8 +15197,8 @@
         <v>0.40833333333333338</v>
       </c>
       <c r="J465" s="67"/>
-      <c r="K465" s="78"/>
-      <c r="L465" s="79"/>
+      <c r="K465" s="81"/>
+      <c r="L465" s="82"/>
       <c r="M465" s="67"/>
       <c r="N465" s="67"/>
       <c r="O465" s="67"/>
@@ -15077,8 +15214,8 @@
       <c r="Y465" s="67"/>
     </row>
     <row r="466" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A466" s="76"/>
-      <c r="B466" s="77"/>
+      <c r="A466" s="79"/>
+      <c r="B466" s="80"/>
       <c r="C466" s="67"/>
       <c r="D466" s="36">
         <v>45670</v>
@@ -15099,8 +15236,8 @@
         <v>0.46180555555555558</v>
       </c>
       <c r="J466" s="67"/>
-      <c r="K466" s="78"/>
-      <c r="L466" s="79"/>
+      <c r="K466" s="81"/>
+      <c r="L466" s="82"/>
       <c r="M466" s="67"/>
       <c r="N466" s="67"/>
       <c r="O466" s="67"/>
@@ -15116,8 +15253,8 @@
       <c r="Y466" s="67"/>
     </row>
     <row r="467" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A467" s="76"/>
-      <c r="B467" s="77"/>
+      <c r="A467" s="79"/>
+      <c r="B467" s="80"/>
       <c r="C467" s="67"/>
       <c r="D467" s="36">
         <v>45670</v>
@@ -15138,8 +15275,8 @@
         <v>0.56666666666666665</v>
       </c>
       <c r="J467" s="67"/>
-      <c r="K467" s="78"/>
-      <c r="L467" s="79"/>
+      <c r="K467" s="81"/>
+      <c r="L467" s="82"/>
       <c r="M467" s="67"/>
       <c r="N467" s="67"/>
       <c r="O467" s="67"/>
@@ -15155,8 +15292,8 @@
       <c r="Y467" s="67"/>
     </row>
     <row r="468" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A468" s="76"/>
-      <c r="B468" s="77"/>
+      <c r="A468" s="79"/>
+      <c r="B468" s="80"/>
       <c r="C468" s="67"/>
       <c r="D468" s="36">
         <v>45670</v>
@@ -15177,8 +15314,8 @@
         <v>0.57430555555555551</v>
       </c>
       <c r="J468" s="67"/>
-      <c r="K468" s="78"/>
-      <c r="L468" s="79"/>
+      <c r="K468" s="81"/>
+      <c r="L468" s="82"/>
       <c r="M468" s="67"/>
       <c r="N468" s="67"/>
       <c r="O468" s="67"/>
@@ -15194,8 +15331,8 @@
       <c r="Y468" s="67"/>
     </row>
     <row r="469" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A469" s="76"/>
-      <c r="B469" s="77"/>
+      <c r="A469" s="79"/>
+      <c r="B469" s="80"/>
       <c r="C469" s="67"/>
       <c r="D469" s="36">
         <v>45671</v>
@@ -15216,8 +15353,8 @@
         <v>0.33124999999999999</v>
       </c>
       <c r="J469" s="67"/>
-      <c r="K469" s="78"/>
-      <c r="L469" s="79"/>
+      <c r="K469" s="81"/>
+      <c r="L469" s="82"/>
       <c r="M469" s="67"/>
       <c r="N469" s="67"/>
       <c r="O469" s="67"/>
@@ -15233,8 +15370,8 @@
       <c r="Y469" s="67"/>
     </row>
     <row r="470" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A470" s="76"/>
-      <c r="B470" s="77"/>
+      <c r="A470" s="79"/>
+      <c r="B470" s="80"/>
       <c r="C470" s="67"/>
       <c r="D470" s="36">
         <v>45671</v>
@@ -15255,8 +15392,8 @@
         <v>0.36458333333333331</v>
       </c>
       <c r="J470" s="67"/>
-      <c r="K470" s="78"/>
-      <c r="L470" s="79"/>
+      <c r="K470" s="81"/>
+      <c r="L470" s="82"/>
       <c r="M470" s="67"/>
       <c r="N470" s="67"/>
       <c r="O470" s="67"/>
@@ -15272,8 +15409,8 @@
       <c r="Y470" s="67"/>
     </row>
     <row r="471" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A471" s="76"/>
-      <c r="B471" s="77"/>
+      <c r="A471" s="79"/>
+      <c r="B471" s="80"/>
       <c r="C471" s="67"/>
       <c r="D471" s="36">
         <v>45671</v>
@@ -15294,8 +15431,8 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="J471" s="67"/>
-      <c r="K471" s="78"/>
-      <c r="L471" s="79"/>
+      <c r="K471" s="81"/>
+      <c r="L471" s="82"/>
       <c r="M471" s="67"/>
       <c r="N471" s="67"/>
       <c r="O471" s="67"/>
@@ -15311,8 +15448,8 @@
       <c r="Y471" s="67"/>
     </row>
     <row r="472" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A472" s="76"/>
-      <c r="B472" s="77"/>
+      <c r="A472" s="79"/>
+      <c r="B472" s="80"/>
       <c r="C472" s="67"/>
       <c r="D472" s="36">
         <v>45672</v>
@@ -15333,8 +15470,8 @@
         <v>0.34027777777777773</v>
       </c>
       <c r="J472" s="67"/>
-      <c r="K472" s="78"/>
-      <c r="L472" s="79"/>
+      <c r="K472" s="81"/>
+      <c r="L472" s="82"/>
       <c r="M472" s="67"/>
       <c r="N472" s="67"/>
       <c r="O472" s="67"/>
@@ -15350,8 +15487,8 @@
       <c r="Y472" s="67"/>
     </row>
     <row r="473" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A473" s="76"/>
-      <c r="B473" s="77"/>
+      <c r="A473" s="79"/>
+      <c r="B473" s="80"/>
       <c r="C473" s="67"/>
       <c r="D473" s="36">
         <v>45672</v>
@@ -15372,8 +15509,8 @@
         <v>0.34722222222222227</v>
       </c>
       <c r="J473" s="67"/>
-      <c r="K473" s="78"/>
-      <c r="L473" s="79"/>
+      <c r="K473" s="81"/>
+      <c r="L473" s="82"/>
       <c r="M473" s="67"/>
       <c r="N473" s="67"/>
       <c r="O473" s="67"/>
@@ -15389,8 +15526,8 @@
       <c r="Y473" s="67"/>
     </row>
     <row r="474" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A474" s="76"/>
-      <c r="B474" s="77"/>
+      <c r="A474" s="79"/>
+      <c r="B474" s="80"/>
       <c r="C474" s="67"/>
       <c r="D474" s="36">
         <v>45672</v>
@@ -15411,8 +15548,8 @@
         <v>0.36805555555555558</v>
       </c>
       <c r="J474" s="67"/>
-      <c r="K474" s="78"/>
-      <c r="L474" s="79"/>
+      <c r="K474" s="81"/>
+      <c r="L474" s="82"/>
       <c r="M474" s="67"/>
       <c r="N474" s="67"/>
       <c r="O474" s="67"/>
@@ -15428,8 +15565,8 @@
       <c r="Y474" s="67"/>
     </row>
     <row r="475" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A475" s="76"/>
-      <c r="B475" s="77"/>
+      <c r="A475" s="79"/>
+      <c r="B475" s="80"/>
       <c r="C475" s="67"/>
       <c r="D475" s="36">
         <v>45672</v>
@@ -15450,8 +15587,8 @@
         <v>0.38958333333333334</v>
       </c>
       <c r="J475" s="67"/>
-      <c r="K475" s="78"/>
-      <c r="L475" s="79"/>
+      <c r="K475" s="81"/>
+      <c r="L475" s="82"/>
       <c r="M475" s="67"/>
       <c r="N475" s="67"/>
       <c r="O475" s="67"/>
@@ -15467,8 +15604,8 @@
       <c r="Y475" s="67"/>
     </row>
     <row r="476" spans="1:25" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A476" s="76"/>
-      <c r="B476" s="77"/>
+      <c r="A476" s="79"/>
+      <c r="B476" s="80"/>
       <c r="C476" s="67"/>
       <c r="D476" s="36">
         <v>45672</v>
@@ -15489,8 +15626,8 @@
         <v>0.4201388888888889</v>
       </c>
       <c r="J476" s="67"/>
-      <c r="K476" s="78"/>
-      <c r="L476" s="79"/>
+      <c r="K476" s="81"/>
+      <c r="L476" s="82"/>
       <c r="M476" s="67"/>
       <c r="N476" s="67"/>
       <c r="O476" s="67"/>
@@ -15506,8 +15643,8 @@
       <c r="Y476" s="67"/>
     </row>
     <row r="477" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A477" s="76"/>
-      <c r="B477" s="77"/>
+      <c r="A477" s="79"/>
+      <c r="B477" s="80"/>
       <c r="C477" s="67"/>
       <c r="D477" s="36">
         <v>45672</v>
@@ -15528,8 +15665,8 @@
         <v>0.43055555555555558</v>
       </c>
       <c r="J477" s="67"/>
-      <c r="K477" s="78"/>
-      <c r="L477" s="79"/>
+      <c r="K477" s="81"/>
+      <c r="L477" s="82"/>
       <c r="M477" s="67"/>
       <c r="N477" s="67"/>
       <c r="O477" s="67"/>
@@ -15545,8 +15682,8 @@
       <c r="Y477" s="67"/>
     </row>
     <row r="478" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A478" s="76"/>
-      <c r="B478" s="77"/>
+      <c r="A478" s="79"/>
+      <c r="B478" s="80"/>
       <c r="C478" s="67"/>
       <c r="D478" s="36">
         <v>45673</v>
@@ -15567,8 +15704,8 @@
         <v>0.33124999999999999</v>
       </c>
       <c r="J478" s="67"/>
-      <c r="K478" s="78"/>
-      <c r="L478" s="79"/>
+      <c r="K478" s="81"/>
+      <c r="L478" s="82"/>
       <c r="M478" s="67"/>
       <c r="N478" s="67"/>
       <c r="O478" s="67"/>
@@ -15584,8 +15721,8 @@
       <c r="Y478" s="67"/>
     </row>
     <row r="479" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A479" s="76"/>
-      <c r="B479" s="77"/>
+      <c r="A479" s="79"/>
+      <c r="B479" s="80"/>
       <c r="C479" s="67"/>
       <c r="D479" s="36">
         <v>45673</v>
@@ -15606,8 +15743,8 @@
         <v>0.3576388888888889</v>
       </c>
       <c r="J479" s="67"/>
-      <c r="K479" s="78"/>
-      <c r="L479" s="79"/>
+      <c r="K479" s="81"/>
+      <c r="L479" s="82"/>
       <c r="M479" s="67"/>
       <c r="N479" s="67"/>
       <c r="O479" s="67"/>
@@ -15623,8 +15760,8 @@
       <c r="Y479" s="67"/>
     </row>
     <row r="480" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A480" s="76"/>
-      <c r="B480" s="77"/>
+      <c r="A480" s="79"/>
+      <c r="B480" s="80"/>
       <c r="C480" s="67"/>
       <c r="D480" s="36">
         <v>45673</v>
@@ -15645,8 +15782,8 @@
         <v>0.40277777777777773</v>
       </c>
       <c r="J480" s="67"/>
-      <c r="K480" s="78"/>
-      <c r="L480" s="79"/>
+      <c r="K480" s="81"/>
+      <c r="L480" s="82"/>
       <c r="M480" s="67"/>
       <c r="N480" s="67"/>
       <c r="O480" s="67"/>
@@ -15662,8 +15799,8 @@
       <c r="Y480" s="67"/>
     </row>
     <row r="481" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A481" s="76"/>
-      <c r="B481" s="77"/>
+      <c r="A481" s="79"/>
+      <c r="B481" s="80"/>
       <c r="C481" s="67"/>
       <c r="D481" s="36">
         <v>45673</v>
@@ -15684,8 +15821,8 @@
         <v>0.4513888888888889</v>
       </c>
       <c r="J481" s="67"/>
-      <c r="K481" s="78"/>
-      <c r="L481" s="79"/>
+      <c r="K481" s="81"/>
+      <c r="L481" s="82"/>
       <c r="M481" s="67"/>
       <c r="N481" s="67"/>
       <c r="O481" s="67"/>
@@ -15701,8 +15838,8 @@
       <c r="Y481" s="67"/>
     </row>
     <row r="482" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A482" s="76"/>
-      <c r="B482" s="77"/>
+      <c r="A482" s="79"/>
+      <c r="B482" s="80"/>
       <c r="C482" s="67"/>
       <c r="D482" s="36">
         <v>45673</v>
@@ -15723,8 +15860,8 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="J482" s="67"/>
-      <c r="K482" s="78"/>
-      <c r="L482" s="79"/>
+      <c r="K482" s="81"/>
+      <c r="L482" s="82"/>
       <c r="M482" s="67"/>
       <c r="N482" s="67"/>
       <c r="O482" s="67"/>
@@ -15740,8 +15877,8 @@
       <c r="Y482" s="67"/>
     </row>
     <row r="483" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A483" s="76"/>
-      <c r="B483" s="77"/>
+      <c r="A483" s="79"/>
+      <c r="B483" s="80"/>
       <c r="C483" s="67"/>
       <c r="D483" s="36">
         <v>45674</v>
@@ -15762,8 +15899,8 @@
         <v>0.33124999999999999</v>
       </c>
       <c r="J483" s="67"/>
-      <c r="K483" s="78"/>
-      <c r="L483" s="79"/>
+      <c r="K483" s="81"/>
+      <c r="L483" s="82"/>
       <c r="M483" s="67"/>
       <c r="N483" s="67"/>
       <c r="O483" s="67"/>
@@ -15779,8 +15916,8 @@
       <c r="Y483" s="67"/>
     </row>
     <row r="484" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A484" s="76"/>
-      <c r="B484" s="77"/>
+      <c r="A484" s="79"/>
+      <c r="B484" s="80"/>
       <c r="C484" s="67"/>
       <c r="D484" s="36">
         <v>45674</v>
@@ -15801,8 +15938,8 @@
         <v>0.33611111111111108</v>
       </c>
       <c r="J484" s="67"/>
-      <c r="K484" s="78"/>
-      <c r="L484" s="79"/>
+      <c r="K484" s="81"/>
+      <c r="L484" s="82"/>
       <c r="M484" s="67"/>
       <c r="N484" s="67"/>
       <c r="O484" s="67"/>
@@ -15818,8 +15955,8 @@
       <c r="Y484" s="67"/>
     </row>
     <row r="485" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A485" s="76"/>
-      <c r="B485" s="77"/>
+      <c r="A485" s="79"/>
+      <c r="B485" s="80"/>
       <c r="C485" s="67"/>
       <c r="D485" s="36">
         <v>45674</v>
@@ -15840,8 +15977,8 @@
         <v>0.41805555555555557</v>
       </c>
       <c r="J485" s="67"/>
-      <c r="K485" s="78"/>
-      <c r="L485" s="79"/>
+      <c r="K485" s="81"/>
+      <c r="L485" s="82"/>
       <c r="M485" s="67"/>
       <c r="N485" s="67"/>
       <c r="O485" s="67"/>
@@ -15857,8 +15994,8 @@
       <c r="Y485" s="67"/>
     </row>
     <row r="486" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A486" s="76"/>
-      <c r="B486" s="77"/>
+      <c r="A486" s="79"/>
+      <c r="B486" s="80"/>
       <c r="C486" s="67"/>
       <c r="D486" s="36">
         <v>45674</v>
@@ -15879,8 +16016,8 @@
         <v>0.4375</v>
       </c>
       <c r="J486" s="67"/>
-      <c r="K486" s="78"/>
-      <c r="L486" s="79"/>
+      <c r="K486" s="81"/>
+      <c r="L486" s="82"/>
       <c r="M486" s="67"/>
       <c r="N486" s="67"/>
       <c r="O486" s="67"/>
@@ -15896,8 +16033,8 @@
       <c r="Y486" s="67"/>
     </row>
     <row r="487" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A487" s="76"/>
-      <c r="B487" s="77"/>
+      <c r="A487" s="79"/>
+      <c r="B487" s="80"/>
       <c r="C487" s="67"/>
       <c r="D487" s="36">
         <v>45674</v>
@@ -15918,8 +16055,8 @@
         <v>0.46875</v>
       </c>
       <c r="J487" s="67"/>
-      <c r="K487" s="78"/>
-      <c r="L487" s="79"/>
+      <c r="K487" s="81"/>
+      <c r="L487" s="82"/>
       <c r="M487" s="67"/>
       <c r="N487" s="67"/>
       <c r="O487" s="67"/>
@@ -15935,8 +16072,8 @@
       <c r="Y487" s="67"/>
     </row>
     <row r="488" spans="1:25" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A488" s="76"/>
-      <c r="B488" s="77"/>
+      <c r="A488" s="79"/>
+      <c r="B488" s="80"/>
       <c r="C488" s="67"/>
       <c r="D488" s="36">
         <v>45674</v>
@@ -15957,8 +16094,8 @@
         <v>0.5</v>
       </c>
       <c r="J488" s="67"/>
-      <c r="K488" s="78"/>
-      <c r="L488" s="79"/>
+      <c r="K488" s="81"/>
+      <c r="L488" s="82"/>
       <c r="M488" s="67"/>
       <c r="N488" s="67"/>
       <c r="O488" s="67"/>
@@ -15974,8 +16111,8 @@
       <c r="Y488" s="67"/>
     </row>
     <row r="489" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A489" s="76"/>
-      <c r="B489" s="77"/>
+      <c r="A489" s="79"/>
+      <c r="B489" s="80"/>
       <c r="C489" s="67"/>
       <c r="D489" s="36">
         <v>45677</v>
@@ -15996,8 +16133,8 @@
         <v>0.33124999999999999</v>
       </c>
       <c r="J489" s="67"/>
-      <c r="K489" s="78"/>
-      <c r="L489" s="79"/>
+      <c r="K489" s="81"/>
+      <c r="L489" s="82"/>
       <c r="M489" s="67"/>
       <c r="N489" s="67"/>
       <c r="O489" s="67"/>
@@ -16013,8 +16150,8 @@
       <c r="Y489" s="67"/>
     </row>
     <row r="490" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A490" s="76"/>
-      <c r="B490" s="77"/>
+      <c r="A490" s="79"/>
+      <c r="B490" s="80"/>
       <c r="C490" s="67"/>
       <c r="D490" s="36">
         <v>45677</v>
@@ -16035,8 +16172,8 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="J490" s="67"/>
-      <c r="K490" s="78"/>
-      <c r="L490" s="79"/>
+      <c r="K490" s="81"/>
+      <c r="L490" s="82"/>
       <c r="M490" s="67"/>
       <c r="N490" s="67"/>
       <c r="O490" s="67"/>
@@ -16052,8 +16189,8 @@
       <c r="Y490" s="67"/>
     </row>
     <row r="491" spans="1:25" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A491" s="76"/>
-      <c r="B491" s="77"/>
+      <c r="A491" s="79"/>
+      <c r="B491" s="80"/>
       <c r="C491" s="67"/>
       <c r="D491" s="36">
         <v>45677</v>
@@ -16074,8 +16211,8 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="J491" s="67"/>
-      <c r="K491" s="78"/>
-      <c r="L491" s="79"/>
+      <c r="K491" s="81"/>
+      <c r="L491" s="82"/>
       <c r="M491" s="67"/>
       <c r="N491" s="67"/>
       <c r="O491" s="67"/>
@@ -16091,8 +16228,8 @@
       <c r="Y491" s="67"/>
     </row>
     <row r="492" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A492" s="76"/>
-      <c r="B492" s="77"/>
+      <c r="A492" s="79"/>
+      <c r="B492" s="80"/>
       <c r="C492" s="67"/>
       <c r="D492" s="36">
         <v>45678</v>
@@ -16113,8 +16250,8 @@
         <v>0.36944444444444446</v>
       </c>
       <c r="J492" s="67"/>
-      <c r="K492" s="78"/>
-      <c r="L492" s="79"/>
+      <c r="K492" s="81"/>
+      <c r="L492" s="82"/>
       <c r="M492" s="67"/>
       <c r="N492" s="67"/>
       <c r="O492" s="67"/>
@@ -16130,8 +16267,8 @@
       <c r="Y492" s="67"/>
     </row>
     <row r="493" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A493" s="76"/>
-      <c r="B493" s="77"/>
+      <c r="A493" s="79"/>
+      <c r="B493" s="80"/>
       <c r="C493" s="67"/>
       <c r="D493" s="36">
         <v>45678</v>
@@ -16152,8 +16289,8 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="J493" s="67"/>
-      <c r="K493" s="78"/>
-      <c r="L493" s="79"/>
+      <c r="K493" s="81"/>
+      <c r="L493" s="82"/>
       <c r="M493" s="67"/>
       <c r="N493" s="67"/>
       <c r="O493" s="67"/>
@@ -16169,8 +16306,8 @@
       <c r="Y493" s="67"/>
     </row>
     <row r="494" spans="1:25" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A494" s="76"/>
-      <c r="B494" s="77"/>
+      <c r="A494" s="79"/>
+      <c r="B494" s="80"/>
       <c r="C494" s="67"/>
       <c r="D494" s="36">
         <v>45678</v>
@@ -16191,8 +16328,8 @@
         <v>0.4375</v>
       </c>
       <c r="J494" s="67"/>
-      <c r="K494" s="78"/>
-      <c r="L494" s="79"/>
+      <c r="K494" s="81"/>
+      <c r="L494" s="82"/>
       <c r="M494" s="67"/>
       <c r="N494" s="67"/>
       <c r="O494" s="67"/>
@@ -16208,8 +16345,8 @@
       <c r="Y494" s="67"/>
     </row>
     <row r="495" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A495" s="76"/>
-      <c r="B495" s="77"/>
+      <c r="A495" s="79"/>
+      <c r="B495" s="80"/>
       <c r="C495" s="67"/>
       <c r="D495" s="36">
         <v>45678</v>
@@ -16230,8 +16367,8 @@
         <v>0.50138888888888888</v>
       </c>
       <c r="J495" s="67"/>
-      <c r="K495" s="78"/>
-      <c r="L495" s="79"/>
+      <c r="K495" s="81"/>
+      <c r="L495" s="82"/>
       <c r="M495" s="67"/>
       <c r="N495" s="67"/>
       <c r="O495" s="67"/>
@@ -16247,8 +16384,8 @@
       <c r="Y495" s="67"/>
     </row>
     <row r="496" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A496" s="76"/>
-      <c r="B496" s="77"/>
+      <c r="A496" s="79"/>
+      <c r="B496" s="80"/>
       <c r="C496" s="67"/>
       <c r="D496" s="36">
         <v>45678</v>
@@ -16269,8 +16406,8 @@
         <v>0.51388888888888895</v>
       </c>
       <c r="J496" s="67"/>
-      <c r="K496" s="78"/>
-      <c r="L496" s="79"/>
+      <c r="K496" s="81"/>
+      <c r="L496" s="82"/>
       <c r="M496" s="67"/>
       <c r="N496" s="67"/>
       <c r="O496" s="67"/>
@@ -16286,8 +16423,8 @@
       <c r="Y496" s="67"/>
     </row>
     <row r="497" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A497" s="76"/>
-      <c r="B497" s="77"/>
+      <c r="A497" s="79"/>
+      <c r="B497" s="80"/>
       <c r="C497" s="67"/>
       <c r="D497" s="36">
         <v>45678</v>
@@ -16308,8 +16445,8 @@
         <v>0.55555555555555558</v>
       </c>
       <c r="J497" s="67"/>
-      <c r="K497" s="78"/>
-      <c r="L497" s="79"/>
+      <c r="K497" s="81"/>
+      <c r="L497" s="82"/>
       <c r="M497" s="67"/>
       <c r="N497" s="67"/>
       <c r="O497" s="67"/>
@@ -16325,8 +16462,8 @@
       <c r="Y497" s="67"/>
     </row>
     <row r="498" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A498" s="76"/>
-      <c r="B498" s="77"/>
+      <c r="A498" s="79"/>
+      <c r="B498" s="80"/>
       <c r="C498" s="67"/>
       <c r="D498" s="36">
         <v>45679</v>
@@ -16347,8 +16484,8 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="J498" s="67"/>
-      <c r="K498" s="78"/>
-      <c r="L498" s="79"/>
+      <c r="K498" s="81"/>
+      <c r="L498" s="82"/>
       <c r="M498" s="67"/>
       <c r="N498" s="67"/>
       <c r="O498" s="67"/>
@@ -16364,8 +16501,8 @@
       <c r="Y498" s="67"/>
     </row>
     <row r="499" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A499" s="76"/>
-      <c r="B499" s="77"/>
+      <c r="A499" s="79"/>
+      <c r="B499" s="80"/>
       <c r="C499" s="67"/>
       <c r="D499" s="36">
         <v>45679</v>
@@ -16386,8 +16523,8 @@
         <v>0.36041666666666666</v>
       </c>
       <c r="J499" s="67"/>
-      <c r="K499" s="78"/>
-      <c r="L499" s="79"/>
+      <c r="K499" s="81"/>
+      <c r="L499" s="82"/>
       <c r="M499" s="67"/>
       <c r="N499" s="67"/>
       <c r="O499" s="67"/>
@@ -16403,8 +16540,8 @@
       <c r="Y499" s="67"/>
     </row>
     <row r="500" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A500" s="76"/>
-      <c r="B500" s="77"/>
+      <c r="A500" s="79"/>
+      <c r="B500" s="80"/>
       <c r="C500" s="67"/>
       <c r="D500" s="36">
         <v>45679</v>
@@ -16425,8 +16562,8 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="J500" s="67"/>
-      <c r="K500" s="78"/>
-      <c r="L500" s="79"/>
+      <c r="K500" s="81"/>
+      <c r="L500" s="82"/>
       <c r="M500" s="67"/>
       <c r="N500" s="67"/>
       <c r="O500" s="67"/>
@@ -16442,8 +16579,8 @@
       <c r="Y500" s="67"/>
     </row>
     <row r="501" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A501" s="76"/>
-      <c r="B501" s="77"/>
+      <c r="A501" s="79"/>
+      <c r="B501" s="80"/>
       <c r="C501" s="67"/>
       <c r="D501" s="36">
         <v>45679</v>
@@ -16464,8 +16601,8 @@
         <v>0.4861111111111111</v>
       </c>
       <c r="J501" s="67"/>
-      <c r="K501" s="78"/>
-      <c r="L501" s="79"/>
+      <c r="K501" s="81"/>
+      <c r="L501" s="82"/>
       <c r="M501" s="67"/>
       <c r="N501" s="67"/>
       <c r="O501" s="67"/>
@@ -16520,8 +16657,8 @@
       <c r="Y502" s="67"/>
     </row>
     <row r="503" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A503" s="76"/>
-      <c r="B503" s="77"/>
+      <c r="A503" s="79"/>
+      <c r="B503" s="80"/>
       <c r="C503" s="67"/>
       <c r="D503" s="36">
         <v>45679</v>
@@ -16542,8 +16679,8 @@
         <v>0.63055555555555554</v>
       </c>
       <c r="J503" s="67"/>
-      <c r="K503" s="78"/>
-      <c r="L503" s="79"/>
+      <c r="K503" s="81"/>
+      <c r="L503" s="82"/>
       <c r="M503" s="67"/>
       <c r="N503" s="67"/>
       <c r="O503" s="67"/>
@@ -16559,8 +16696,8 @@
       <c r="Y503" s="67"/>
     </row>
     <row r="504" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A504" s="76"/>
-      <c r="B504" s="77"/>
+      <c r="A504" s="79"/>
+      <c r="B504" s="80"/>
       <c r="C504" s="67"/>
       <c r="D504" s="36">
         <v>45680</v>
@@ -16581,8 +16718,8 @@
         <v>0.34722222222222227</v>
       </c>
       <c r="J504" s="67"/>
-      <c r="K504" s="78"/>
-      <c r="L504" s="79"/>
+      <c r="K504" s="81"/>
+      <c r="L504" s="82"/>
       <c r="M504" s="67"/>
       <c r="N504" s="67"/>
       <c r="O504" s="67"/>
@@ -16598,8 +16735,8 @@
       <c r="Y504" s="67"/>
     </row>
     <row r="505" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A505" s="76"/>
-      <c r="B505" s="77"/>
+      <c r="A505" s="79"/>
+      <c r="B505" s="80"/>
       <c r="C505" s="67"/>
       <c r="D505" s="36">
         <v>45680</v>
@@ -16620,8 +16757,8 @@
         <v>0.36458333333333331</v>
       </c>
       <c r="J505" s="67"/>
-      <c r="K505" s="78"/>
-      <c r="L505" s="79"/>
+      <c r="K505" s="81"/>
+      <c r="L505" s="82"/>
       <c r="M505" s="67"/>
       <c r="N505" s="67"/>
       <c r="O505" s="67"/>
@@ -16637,8 +16774,8 @@
       <c r="Y505" s="67"/>
     </row>
     <row r="506" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A506" s="76"/>
-      <c r="B506" s="77"/>
+      <c r="A506" s="79"/>
+      <c r="B506" s="80"/>
       <c r="C506" s="67"/>
       <c r="D506" s="36">
         <v>45680</v>
@@ -16659,8 +16796,8 @@
         <v>0.38541666666666669</v>
       </c>
       <c r="J506" s="67"/>
-      <c r="K506" s="78"/>
-      <c r="L506" s="79"/>
+      <c r="K506" s="81"/>
+      <c r="L506" s="82"/>
       <c r="M506" s="67"/>
       <c r="N506" s="67"/>
       <c r="O506" s="67"/>
@@ -16676,8 +16813,8 @@
       <c r="Y506" s="67"/>
     </row>
     <row r="507" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A507" s="76"/>
-      <c r="B507" s="77"/>
+      <c r="A507" s="79"/>
+      <c r="B507" s="80"/>
       <c r="C507" s="67"/>
       <c r="D507" s="36">
         <v>45680</v>
@@ -16698,8 +16835,8 @@
         <v>0.4236111111111111</v>
       </c>
       <c r="J507" s="67"/>
-      <c r="K507" s="78"/>
-      <c r="L507" s="79"/>
+      <c r="K507" s="81"/>
+      <c r="L507" s="82"/>
       <c r="M507" s="67"/>
       <c r="N507" s="67"/>
       <c r="O507" s="67"/>
@@ -16715,8 +16852,8 @@
       <c r="Y507" s="67"/>
     </row>
     <row r="508" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A508" s="76"/>
-      <c r="B508" s="77"/>
+      <c r="A508" s="79"/>
+      <c r="B508" s="80"/>
       <c r="C508" s="67"/>
       <c r="D508" s="36">
         <v>45680</v>
@@ -16737,8 +16874,8 @@
         <v>0.56527777777777777</v>
       </c>
       <c r="J508" s="67"/>
-      <c r="K508" s="78"/>
-      <c r="L508" s="79"/>
+      <c r="K508" s="81"/>
+      <c r="L508" s="82"/>
       <c r="M508" s="67"/>
       <c r="N508" s="67"/>
       <c r="O508" s="67"/>
@@ -16754,8 +16891,8 @@
       <c r="Y508" s="67"/>
     </row>
     <row r="509" spans="1:25" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A509" s="76"/>
-      <c r="B509" s="77"/>
+      <c r="A509" s="79"/>
+      <c r="B509" s="80"/>
       <c r="C509" s="67"/>
       <c r="D509" s="36">
         <v>45681</v>
@@ -16776,8 +16913,8 @@
         <v>0.34722222222222227</v>
       </c>
       <c r="J509" s="67"/>
-      <c r="K509" s="78"/>
-      <c r="L509" s="79"/>
+      <c r="K509" s="81"/>
+      <c r="L509" s="82"/>
       <c r="M509" s="67"/>
       <c r="N509" s="67"/>
       <c r="O509" s="67"/>
@@ -16793,8 +16930,8 @@
       <c r="Y509" s="67"/>
     </row>
     <row r="510" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A510" s="76"/>
-      <c r="B510" s="77"/>
+      <c r="A510" s="79"/>
+      <c r="B510" s="80"/>
       <c r="C510" s="67"/>
       <c r="D510" s="36">
         <v>45681</v>
@@ -16815,8 +16952,8 @@
         <v>0.375</v>
       </c>
       <c r="J510" s="67"/>
-      <c r="K510" s="78"/>
-      <c r="L510" s="79"/>
+      <c r="K510" s="81"/>
+      <c r="L510" s="82"/>
       <c r="M510" s="67"/>
       <c r="N510" s="67"/>
       <c r="O510" s="67"/>
@@ -16832,8 +16969,8 @@
       <c r="Y510" s="67"/>
     </row>
     <row r="511" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A511" s="76"/>
-      <c r="B511" s="77"/>
+      <c r="A511" s="79"/>
+      <c r="B511" s="80"/>
       <c r="C511" s="67"/>
       <c r="D511" s="36">
         <v>45681</v>
@@ -16854,8 +16991,8 @@
         <v>0.42708333333333331</v>
       </c>
       <c r="J511" s="67"/>
-      <c r="K511" s="78"/>
-      <c r="L511" s="79"/>
+      <c r="K511" s="81"/>
+      <c r="L511" s="82"/>
       <c r="M511" s="67"/>
       <c r="N511" s="67"/>
       <c r="O511" s="67"/>
@@ -16871,8 +17008,8 @@
       <c r="Y511" s="67"/>
     </row>
     <row r="512" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A512" s="76"/>
-      <c r="B512" s="77"/>
+      <c r="A512" s="79"/>
+      <c r="B512" s="80"/>
       <c r="C512" s="67"/>
       <c r="D512" s="36">
         <v>45681</v>
@@ -16893,8 +17030,8 @@
         <v>0.5</v>
       </c>
       <c r="J512" s="67"/>
-      <c r="K512" s="78"/>
-      <c r="L512" s="79"/>
+      <c r="K512" s="81"/>
+      <c r="L512" s="82"/>
       <c r="M512" s="67"/>
       <c r="N512" s="67"/>
       <c r="O512" s="67"/>
@@ -16910,8 +17047,8 @@
       <c r="Y512" s="67"/>
     </row>
     <row r="513" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A513" s="76"/>
-      <c r="B513" s="77"/>
+      <c r="A513" s="79"/>
+      <c r="B513" s="80"/>
       <c r="C513" s="67"/>
       <c r="D513" s="36">
         <v>45684</v>
@@ -16932,8 +17069,8 @@
         <v>0.34375</v>
       </c>
       <c r="J513" s="67"/>
-      <c r="K513" s="78"/>
-      <c r="L513" s="79"/>
+      <c r="K513" s="81"/>
+      <c r="L513" s="82"/>
       <c r="M513" s="67"/>
       <c r="N513" s="67"/>
       <c r="O513" s="67"/>
@@ -16949,8 +17086,8 @@
       <c r="Y513" s="67"/>
     </row>
     <row r="514" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A514" s="76"/>
-      <c r="B514" s="77"/>
+      <c r="A514" s="79"/>
+      <c r="B514" s="80"/>
       <c r="C514" s="67"/>
       <c r="D514" s="36">
         <v>45684</v>
@@ -16971,8 +17108,8 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="J514" s="67"/>
-      <c r="K514" s="78"/>
-      <c r="L514" s="79"/>
+      <c r="K514" s="81"/>
+      <c r="L514" s="82"/>
       <c r="M514" s="67"/>
       <c r="N514" s="67"/>
       <c r="O514" s="67"/>
@@ -16988,8 +17125,8 @@
       <c r="Y514" s="67"/>
     </row>
     <row r="515" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A515" s="76"/>
-      <c r="B515" s="77"/>
+      <c r="A515" s="79"/>
+      <c r="B515" s="80"/>
       <c r="C515" s="67"/>
       <c r="D515" s="36">
         <v>45684</v>
@@ -17010,8 +17147,8 @@
         <v>0.4236111111111111</v>
       </c>
       <c r="J515" s="67"/>
-      <c r="K515" s="78"/>
-      <c r="L515" s="79"/>
+      <c r="K515" s="81"/>
+      <c r="L515" s="82"/>
       <c r="M515" s="67"/>
       <c r="N515" s="67"/>
       <c r="O515" s="67"/>
@@ -17027,8 +17164,8 @@
       <c r="Y515" s="67"/>
     </row>
     <row r="516" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A516" s="76"/>
-      <c r="B516" s="77"/>
+      <c r="A516" s="79"/>
+      <c r="B516" s="80"/>
       <c r="C516" s="67"/>
       <c r="D516" s="36">
         <v>45684</v>
@@ -17049,8 +17186,8 @@
         <v>0.43055555555555558</v>
       </c>
       <c r="J516" s="67"/>
-      <c r="K516" s="78"/>
-      <c r="L516" s="79"/>
+      <c r="K516" s="81"/>
+      <c r="L516" s="82"/>
       <c r="M516" s="67"/>
       <c r="N516" s="67"/>
       <c r="O516" s="67"/>
@@ -17066,8 +17203,8 @@
       <c r="Y516" s="67"/>
     </row>
     <row r="517" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A517" s="76"/>
-      <c r="B517" s="77"/>
+      <c r="A517" s="79"/>
+      <c r="B517" s="80"/>
       <c r="C517" s="67"/>
       <c r="D517" s="36">
         <v>45684</v>
@@ -17088,8 +17225,8 @@
         <v>0.43402777777777773</v>
       </c>
       <c r="J517" s="67"/>
-      <c r="K517" s="78"/>
-      <c r="L517" s="79"/>
+      <c r="K517" s="81"/>
+      <c r="L517" s="82"/>
       <c r="M517" s="67"/>
       <c r="N517" s="67"/>
       <c r="O517" s="67"/>
@@ -17105,8 +17242,8 @@
       <c r="Y517" s="67"/>
     </row>
     <row r="518" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A518" s="76"/>
-      <c r="B518" s="77"/>
+      <c r="A518" s="79"/>
+      <c r="B518" s="80"/>
       <c r="C518" s="67"/>
       <c r="D518" s="36">
         <v>45684</v>
@@ -17127,8 +17264,8 @@
         <v>0.57986111111111105</v>
       </c>
       <c r="J518" s="67"/>
-      <c r="K518" s="78"/>
-      <c r="L518" s="79"/>
+      <c r="K518" s="81"/>
+      <c r="L518" s="82"/>
       <c r="M518" s="67"/>
       <c r="N518" s="67"/>
       <c r="O518" s="67"/>
@@ -17144,8 +17281,8 @@
       <c r="Y518" s="67"/>
     </row>
     <row r="519" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A519" s="76"/>
-      <c r="B519" s="77"/>
+      <c r="A519" s="79"/>
+      <c r="B519" s="80"/>
       <c r="C519" s="67"/>
       <c r="D519" s="36">
         <v>45685</v>
@@ -17166,8 +17303,8 @@
         <v>0.34375</v>
       </c>
       <c r="J519" s="67"/>
-      <c r="K519" s="78"/>
-      <c r="L519" s="79"/>
+      <c r="K519" s="81"/>
+      <c r="L519" s="82"/>
       <c r="M519" s="67"/>
       <c r="N519" s="67"/>
       <c r="O519" s="67"/>
@@ -17183,8 +17320,8 @@
       <c r="Y519" s="67"/>
     </row>
     <row r="520" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A520" s="76"/>
-      <c r="B520" s="77"/>
+      <c r="A520" s="79"/>
+      <c r="B520" s="80"/>
       <c r="C520" s="67"/>
       <c r="D520" s="36">
         <v>45685</v>
@@ -17205,8 +17342,8 @@
         <v>0.38541666666666669</v>
       </c>
       <c r="J520" s="67"/>
-      <c r="K520" s="78"/>
-      <c r="L520" s="79"/>
+      <c r="K520" s="81"/>
+      <c r="L520" s="82"/>
       <c r="M520" s="67"/>
       <c r="N520" s="67"/>
       <c r="O520" s="67"/>
@@ -17222,8 +17359,8 @@
       <c r="Y520" s="67"/>
     </row>
     <row r="521" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A521" s="76"/>
-      <c r="B521" s="77"/>
+      <c r="A521" s="79"/>
+      <c r="B521" s="80"/>
       <c r="C521" s="67"/>
       <c r="D521" s="36">
         <v>45685</v>
@@ -17244,8 +17381,8 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="J521" s="67"/>
-      <c r="K521" s="78"/>
-      <c r="L521" s="79"/>
+      <c r="K521" s="81"/>
+      <c r="L521" s="82"/>
       <c r="M521" s="67"/>
       <c r="N521" s="67"/>
       <c r="O521" s="67"/>
@@ -17261,8 +17398,8 @@
       <c r="Y521" s="67"/>
     </row>
     <row r="522" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A522" s="76"/>
-      <c r="B522" s="77"/>
+      <c r="A522" s="79"/>
+      <c r="B522" s="80"/>
       <c r="C522" s="67"/>
       <c r="D522" s="36">
         <v>45685</v>
@@ -17283,8 +17420,8 @@
         <v>0.40972222222222227</v>
       </c>
       <c r="J522" s="67"/>
-      <c r="K522" s="78"/>
-      <c r="L522" s="79"/>
+      <c r="K522" s="81"/>
+      <c r="L522" s="82"/>
       <c r="M522" s="67"/>
       <c r="N522" s="67"/>
       <c r="O522" s="67"/>
@@ -17300,8 +17437,8 @@
       <c r="Y522" s="67"/>
     </row>
     <row r="523" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A523" s="76"/>
-      <c r="B523" s="77"/>
+      <c r="A523" s="79"/>
+      <c r="B523" s="80"/>
       <c r="C523" s="67"/>
       <c r="D523" s="36">
         <v>45685</v>
@@ -17322,8 +17459,8 @@
         <v>0.42708333333333331</v>
       </c>
       <c r="J523" s="67"/>
-      <c r="K523" s="78"/>
-      <c r="L523" s="79"/>
+      <c r="K523" s="81"/>
+      <c r="L523" s="82"/>
       <c r="M523" s="67"/>
       <c r="N523" s="67"/>
       <c r="O523" s="67"/>
@@ -17339,8 +17476,8 @@
       <c r="Y523" s="67"/>
     </row>
     <row r="524" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A524" s="76"/>
-      <c r="B524" s="77"/>
+      <c r="A524" s="79"/>
+      <c r="B524" s="80"/>
       <c r="C524" s="67"/>
       <c r="D524" s="36">
         <v>45685</v>
@@ -17361,8 +17498,8 @@
         <v>0.43402777777777773</v>
       </c>
       <c r="J524" s="67"/>
-      <c r="K524" s="78"/>
-      <c r="L524" s="79"/>
+      <c r="K524" s="81"/>
+      <c r="L524" s="82"/>
       <c r="M524" s="67"/>
       <c r="N524" s="67"/>
       <c r="O524" s="67"/>
@@ -17378,8 +17515,8 @@
       <c r="Y524" s="67"/>
     </row>
     <row r="525" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A525" s="76"/>
-      <c r="B525" s="77"/>
+      <c r="A525" s="79"/>
+      <c r="B525" s="80"/>
       <c r="C525" s="67"/>
       <c r="D525" s="36">
         <v>45685</v>
@@ -17400,8 +17537,8 @@
         <v>0.4548611111111111</v>
       </c>
       <c r="J525" s="67"/>
-      <c r="K525" s="78"/>
-      <c r="L525" s="79"/>
+      <c r="K525" s="81"/>
+      <c r="L525" s="82"/>
       <c r="M525" s="67"/>
       <c r="N525" s="67"/>
       <c r="O525" s="67"/>
@@ -17495,8 +17632,8 @@
       <c r="Y527" s="67"/>
     </row>
     <row r="528" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A528" s="76"/>
-      <c r="B528" s="77"/>
+      <c r="A528" s="79"/>
+      <c r="B528" s="80"/>
       <c r="C528" s="67"/>
       <c r="D528" s="36">
         <v>45686</v>
@@ -17517,8 +17654,8 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="J528" s="67"/>
-      <c r="K528" s="78"/>
-      <c r="L528" s="79"/>
+      <c r="K528" s="81"/>
+      <c r="L528" s="82"/>
       <c r="M528" s="67"/>
       <c r="N528" s="67"/>
       <c r="O528" s="67"/>
@@ -17534,8 +17671,8 @@
       <c r="Y528" s="67"/>
     </row>
     <row r="529" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A529" s="76"/>
-      <c r="B529" s="77"/>
+      <c r="A529" s="79"/>
+      <c r="B529" s="80"/>
       <c r="C529" s="67"/>
       <c r="D529" s="36">
         <v>45686</v>
@@ -17556,8 +17693,8 @@
         <v>0.36805555555555558</v>
       </c>
       <c r="J529" s="67"/>
-      <c r="K529" s="78"/>
-      <c r="L529" s="79"/>
+      <c r="K529" s="81"/>
+      <c r="L529" s="82"/>
       <c r="M529" s="67"/>
       <c r="N529" s="67"/>
       <c r="O529" s="67"/>
@@ -17573,8 +17710,8 @@
       <c r="Y529" s="67"/>
     </row>
     <row r="530" spans="1:25" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A530" s="76"/>
-      <c r="B530" s="77"/>
+      <c r="A530" s="79"/>
+      <c r="B530" s="80"/>
       <c r="C530" s="67"/>
       <c r="D530" s="36">
         <v>45686</v>
@@ -17595,8 +17732,8 @@
         <v>0.40277777777777773</v>
       </c>
       <c r="J530" s="67"/>
-      <c r="K530" s="78"/>
-      <c r="L530" s="79"/>
+      <c r="K530" s="81"/>
+      <c r="L530" s="82"/>
       <c r="M530" s="67"/>
       <c r="N530" s="67"/>
       <c r="O530" s="67"/>
@@ -17612,8 +17749,8 @@
       <c r="Y530" s="67"/>
     </row>
     <row r="531" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A531" s="76"/>
-      <c r="B531" s="77"/>
+      <c r="A531" s="79"/>
+      <c r="B531" s="80"/>
       <c r="C531" s="67"/>
       <c r="D531" s="36">
         <v>45686</v>
@@ -17634,8 +17771,8 @@
         <v>0.41180555555555554</v>
       </c>
       <c r="J531" s="67"/>
-      <c r="K531" s="78"/>
-      <c r="L531" s="79"/>
+      <c r="K531" s="81"/>
+      <c r="L531" s="82"/>
       <c r="M531" s="67"/>
       <c r="N531" s="67"/>
       <c r="O531" s="67"/>
@@ -17651,8 +17788,8 @@
       <c r="Y531" s="67"/>
     </row>
     <row r="532" spans="1:25" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A532" s="76"/>
-      <c r="B532" s="77"/>
+      <c r="A532" s="79"/>
+      <c r="B532" s="80"/>
       <c r="C532" s="66"/>
       <c r="D532" s="24">
         <v>45686</v>
@@ -17673,8 +17810,8 @@
         <v>0.51597222222222217</v>
       </c>
       <c r="J532" s="66"/>
-      <c r="K532" s="78"/>
-      <c r="L532" s="79"/>
+      <c r="K532" s="81"/>
+      <c r="L532" s="82"/>
       <c r="M532" s="66"/>
       <c r="N532" s="66"/>
       <c r="O532" s="66"/>
@@ -17729,8 +17866,8 @@
       <c r="Y533" s="67"/>
     </row>
     <row r="534" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A534" s="76"/>
-      <c r="B534" s="77"/>
+      <c r="A534" s="79"/>
+      <c r="B534" s="80"/>
       <c r="C534" s="67"/>
       <c r="D534" s="36">
         <v>45687</v>
@@ -17751,8 +17888,8 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="J534" s="67"/>
-      <c r="K534" s="78"/>
-      <c r="L534" s="79"/>
+      <c r="K534" s="81"/>
+      <c r="L534" s="82"/>
       <c r="M534" s="67"/>
       <c r="N534" s="67"/>
       <c r="O534" s="67"/>
@@ -17768,8 +17905,8 @@
       <c r="Y534" s="67"/>
     </row>
     <row r="535" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A535" s="76"/>
-      <c r="B535" s="77"/>
+      <c r="A535" s="79"/>
+      <c r="B535" s="80"/>
       <c r="C535" s="67"/>
       <c r="D535" s="36">
         <v>45687</v>
@@ -17790,8 +17927,8 @@
         <v>0.39930555555555558</v>
       </c>
       <c r="J535" s="67"/>
-      <c r="K535" s="78"/>
-      <c r="L535" s="79"/>
+      <c r="K535" s="81"/>
+      <c r="L535" s="82"/>
       <c r="M535" s="67"/>
       <c r="N535" s="67"/>
       <c r="O535" s="67"/>
@@ -17807,8 +17944,8 @@
       <c r="Y535" s="67"/>
     </row>
     <row r="536" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A536" s="76"/>
-      <c r="B536" s="77"/>
+      <c r="A536" s="79"/>
+      <c r="B536" s="80"/>
       <c r="C536" s="67"/>
       <c r="D536" s="36">
         <v>45687</v>
@@ -17829,8 +17966,8 @@
         <v>0.4375</v>
       </c>
       <c r="J536" s="67"/>
-      <c r="K536" s="78"/>
-      <c r="L536" s="79"/>
+      <c r="K536" s="81"/>
+      <c r="L536" s="82"/>
       <c r="M536" s="67"/>
       <c r="N536" s="67"/>
       <c r="O536" s="67"/>
@@ -17846,8 +17983,8 @@
       <c r="Y536" s="67"/>
     </row>
     <row r="537" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A537" s="76"/>
-      <c r="B537" s="77"/>
+      <c r="A537" s="79"/>
+      <c r="B537" s="80"/>
       <c r="C537" s="67"/>
       <c r="D537" s="36">
         <v>45687</v>
@@ -17868,8 +18005,8 @@
         <v>0.46527777777777773</v>
       </c>
       <c r="J537" s="67"/>
-      <c r="K537" s="78"/>
-      <c r="L537" s="79"/>
+      <c r="K537" s="81"/>
+      <c r="L537" s="82"/>
       <c r="M537" s="67"/>
       <c r="N537" s="67"/>
       <c r="O537" s="67"/>
@@ -17885,8 +18022,8 @@
       <c r="Y537" s="67"/>
     </row>
     <row r="538" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A538" s="76"/>
-      <c r="B538" s="77"/>
+      <c r="A538" s="79"/>
+      <c r="B538" s="80"/>
       <c r="C538" s="67"/>
       <c r="D538" s="36">
         <v>45687</v>
@@ -17907,8 +18044,8 @@
         <v>0.47222222222222227</v>
       </c>
       <c r="J538" s="67"/>
-      <c r="K538" s="78"/>
-      <c r="L538" s="79"/>
+      <c r="K538" s="81"/>
+      <c r="L538" s="82"/>
       <c r="M538" s="67"/>
       <c r="N538" s="67"/>
       <c r="O538" s="67"/>
@@ -17924,8 +18061,8 @@
       <c r="Y538" s="67"/>
     </row>
     <row r="539" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A539" s="76"/>
-      <c r="B539" s="77"/>
+      <c r="A539" s="79"/>
+      <c r="B539" s="80"/>
       <c r="C539" s="67"/>
       <c r="D539" s="36">
         <v>45687</v>
@@ -17946,8 +18083,8 @@
         <v>0.51736111111111105</v>
       </c>
       <c r="J539" s="67"/>
-      <c r="K539" s="78"/>
-      <c r="L539" s="79"/>
+      <c r="K539" s="81"/>
+      <c r="L539" s="82"/>
       <c r="M539" s="67"/>
       <c r="N539" s="67"/>
       <c r="O539" s="67"/>
@@ -17963,8 +18100,8 @@
       <c r="Y539" s="67"/>
     </row>
     <row r="540" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A540" s="76"/>
-      <c r="B540" s="77"/>
+      <c r="A540" s="79"/>
+      <c r="B540" s="80"/>
       <c r="C540" s="67"/>
       <c r="D540" s="36">
         <v>45688</v>
@@ -17985,8 +18122,8 @@
         <v>0.33194444444444443</v>
       </c>
       <c r="J540" s="67"/>
-      <c r="K540" s="78"/>
-      <c r="L540" s="79"/>
+      <c r="K540" s="81"/>
+      <c r="L540" s="82"/>
       <c r="M540" s="67"/>
       <c r="N540" s="67"/>
       <c r="O540" s="67"/>
@@ -18002,8 +18139,8 @@
       <c r="Y540" s="67"/>
     </row>
     <row r="541" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A541" s="76"/>
-      <c r="B541" s="77"/>
+      <c r="A541" s="79"/>
+      <c r="B541" s="80"/>
       <c r="C541" s="67"/>
       <c r="D541" s="36">
         <v>45688</v>
@@ -18024,8 +18161,8 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="J541" s="67"/>
-      <c r="K541" s="78"/>
-      <c r="L541" s="79"/>
+      <c r="K541" s="81"/>
+      <c r="L541" s="82"/>
       <c r="M541" s="67"/>
       <c r="N541" s="67"/>
       <c r="O541" s="67"/>
@@ -18041,8 +18178,8 @@
       <c r="Y541" s="67"/>
     </row>
     <row r="542" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A542" s="76"/>
-      <c r="B542" s="77"/>
+      <c r="A542" s="79"/>
+      <c r="B542" s="80"/>
       <c r="C542" s="67"/>
       <c r="D542" s="36">
         <v>45688</v>
@@ -18063,8 +18200,8 @@
         <v>0.34861111111111115</v>
       </c>
       <c r="J542" s="67"/>
-      <c r="K542" s="78"/>
-      <c r="L542" s="79"/>
+      <c r="K542" s="81"/>
+      <c r="L542" s="82"/>
       <c r="M542" s="67"/>
       <c r="N542" s="67"/>
       <c r="O542" s="67"/>
@@ -18080,8 +18217,8 @@
       <c r="Y542" s="67"/>
     </row>
     <row r="543" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A543" s="76"/>
-      <c r="B543" s="77"/>
+      <c r="A543" s="79"/>
+      <c r="B543" s="80"/>
       <c r="C543" s="67"/>
       <c r="D543" s="36">
         <v>45688</v>
@@ -18102,8 +18239,8 @@
         <v>0.3611111111111111</v>
       </c>
       <c r="J543" s="67"/>
-      <c r="K543" s="78"/>
-      <c r="L543" s="79"/>
+      <c r="K543" s="81"/>
+      <c r="L543" s="82"/>
       <c r="M543" s="67"/>
       <c r="N543" s="67"/>
       <c r="O543" s="67"/>
@@ -18119,8 +18256,8 @@
       <c r="Y543" s="67"/>
     </row>
     <row r="544" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A544" s="76"/>
-      <c r="B544" s="77"/>
+      <c r="A544" s="79"/>
+      <c r="B544" s="80"/>
       <c r="C544" s="67"/>
       <c r="D544" s="36">
         <v>45688</v>
@@ -18141,8 +18278,8 @@
         <v>0.375</v>
       </c>
       <c r="J544" s="67"/>
-      <c r="K544" s="78"/>
-      <c r="L544" s="79"/>
+      <c r="K544" s="81"/>
+      <c r="L544" s="82"/>
       <c r="M544" s="67"/>
       <c r="N544" s="67"/>
       <c r="O544" s="67"/>
@@ -18158,8 +18295,8 @@
       <c r="Y544" s="67"/>
     </row>
     <row r="545" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A545" s="76"/>
-      <c r="B545" s="77"/>
+      <c r="A545" s="79"/>
+      <c r="B545" s="80"/>
       <c r="C545" s="67"/>
       <c r="D545" s="36">
         <v>45688</v>
@@ -18180,8 +18317,8 @@
         <v>0.4069444444444445</v>
       </c>
       <c r="J545" s="67"/>
-      <c r="K545" s="78"/>
-      <c r="L545" s="79"/>
+      <c r="K545" s="81"/>
+      <c r="L545" s="82"/>
       <c r="M545" s="67"/>
       <c r="N545" s="67"/>
       <c r="O545" s="67"/>
@@ -18197,8 +18334,8 @@
       <c r="Y545" s="67"/>
     </row>
     <row r="546" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A546" s="76"/>
-      <c r="B546" s="77"/>
+      <c r="A546" s="79"/>
+      <c r="B546" s="80"/>
       <c r="C546" s="67"/>
       <c r="D546" s="36">
         <v>45688</v>
@@ -18219,8 +18356,8 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="J546" s="67"/>
-      <c r="K546" s="78"/>
-      <c r="L546" s="79"/>
+      <c r="K546" s="81"/>
+      <c r="L546" s="82"/>
       <c r="M546" s="67"/>
       <c r="N546" s="67"/>
       <c r="O546" s="67"/>
@@ -18236,8 +18373,8 @@
       <c r="Y546" s="67"/>
     </row>
     <row r="547" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A547" s="76"/>
-      <c r="B547" s="77"/>
+      <c r="A547" s="79"/>
+      <c r="B547" s="80"/>
       <c r="C547" s="67"/>
       <c r="D547" s="36">
         <v>45688</v>
@@ -18258,8 +18395,8 @@
         <v>0.44097222222222227</v>
       </c>
       <c r="J547" s="67"/>
-      <c r="K547" s="78"/>
-      <c r="L547" s="79"/>
+      <c r="K547" s="81"/>
+      <c r="L547" s="82"/>
       <c r="M547" s="67"/>
       <c r="N547" s="67"/>
       <c r="O547" s="67"/>
@@ -18275,8 +18412,8 @@
       <c r="Y547" s="67"/>
     </row>
     <row r="548" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A548" s="76"/>
-      <c r="B548" s="77"/>
+      <c r="A548" s="79"/>
+      <c r="B548" s="80"/>
       <c r="C548" s="67"/>
       <c r="D548" s="36">
         <v>45688</v>
@@ -18297,8 +18434,8 @@
         <v>0.54583333333333328</v>
       </c>
       <c r="J548" s="67"/>
-      <c r="K548" s="78"/>
-      <c r="L548" s="79"/>
+      <c r="K548" s="81"/>
+      <c r="L548" s="82"/>
       <c r="M548" s="67"/>
       <c r="N548" s="67"/>
       <c r="O548" s="67"/>
@@ -18314,8 +18451,8 @@
       <c r="Y548" s="67"/>
     </row>
     <row r="549" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A549" s="76"/>
-      <c r="B549" s="77"/>
+      <c r="A549" s="79"/>
+      <c r="B549" s="80"/>
       <c r="C549" s="67"/>
       <c r="D549" s="36">
         <v>45691</v>
@@ -18336,8 +18473,8 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="J549" s="67"/>
-      <c r="K549" s="78"/>
-      <c r="L549" s="79"/>
+      <c r="K549" s="81"/>
+      <c r="L549" s="82"/>
       <c r="M549" s="67"/>
       <c r="N549" s="67"/>
       <c r="O549" s="67"/>
@@ -18353,8 +18490,8 @@
       <c r="Y549" s="67"/>
     </row>
     <row r="550" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A550" s="76"/>
-      <c r="B550" s="77"/>
+      <c r="A550" s="79"/>
+      <c r="B550" s="80"/>
       <c r="C550" s="67"/>
       <c r="D550" s="36">
         <v>45691</v>
@@ -18375,8 +18512,8 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="J550" s="67"/>
-      <c r="K550" s="78"/>
-      <c r="L550" s="79"/>
+      <c r="K550" s="81"/>
+      <c r="L550" s="82"/>
       <c r="M550" s="67"/>
       <c r="N550" s="67"/>
       <c r="O550" s="67"/>
@@ -18392,8 +18529,8 @@
       <c r="Y550" s="67"/>
     </row>
     <row r="551" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A551" s="76"/>
-      <c r="B551" s="77"/>
+      <c r="A551" s="79"/>
+      <c r="B551" s="80"/>
       <c r="C551" s="66"/>
       <c r="D551" s="24">
         <v>45691</v>
@@ -18414,8 +18551,8 @@
         <v>0.46527777777777773</v>
       </c>
       <c r="J551" s="66"/>
-      <c r="K551" s="78"/>
-      <c r="L551" s="79"/>
+      <c r="K551" s="81"/>
+      <c r="L551" s="82"/>
       <c r="M551" s="66"/>
       <c r="N551" s="66"/>
       <c r="O551" s="66"/>
@@ -18431,8 +18568,8 @@
       <c r="Y551" s="66"/>
     </row>
     <row r="552" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A552" s="76"/>
-      <c r="B552" s="77"/>
+      <c r="A552" s="79"/>
+      <c r="B552" s="80"/>
       <c r="C552" s="66"/>
       <c r="D552" s="24">
         <v>45692</v>
@@ -18453,8 +18590,8 @@
         <v>0.33680555555555558</v>
       </c>
       <c r="J552" s="66"/>
-      <c r="K552" s="78"/>
-      <c r="L552" s="79"/>
+      <c r="K552" s="81"/>
+      <c r="L552" s="82"/>
       <c r="M552" s="66"/>
       <c r="N552" s="66"/>
       <c r="O552" s="66"/>
@@ -18470,8 +18607,8 @@
       <c r="Y552" s="66"/>
     </row>
     <row r="553" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A553" s="76"/>
-      <c r="B553" s="77"/>
+      <c r="A553" s="79"/>
+      <c r="B553" s="80"/>
       <c r="C553" s="67"/>
       <c r="D553" s="36">
         <v>45692</v>
@@ -18492,8 +18629,8 @@
         <v>0.34236111111111112</v>
       </c>
       <c r="J553" s="67"/>
-      <c r="K553" s="78"/>
-      <c r="L553" s="79"/>
+      <c r="K553" s="81"/>
+      <c r="L553" s="82"/>
       <c r="M553" s="67"/>
       <c r="N553" s="67"/>
       <c r="O553" s="67"/>
@@ -18509,8 +18646,8 @@
       <c r="Y553" s="67"/>
     </row>
     <row r="554" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A554" s="76"/>
-      <c r="B554" s="77"/>
+      <c r="A554" s="79"/>
+      <c r="B554" s="80"/>
       <c r="C554" s="67"/>
       <c r="D554" s="36">
         <v>45692</v>
@@ -18531,8 +18668,8 @@
         <v>0.3888888888888889</v>
       </c>
       <c r="J554" s="67"/>
-      <c r="K554" s="78"/>
-      <c r="L554" s="79"/>
+      <c r="K554" s="81"/>
+      <c r="L554" s="82"/>
       <c r="M554" s="67"/>
       <c r="N554" s="67"/>
       <c r="O554" s="67"/>
@@ -18548,8 +18685,8 @@
       <c r="Y554" s="67"/>
     </row>
     <row r="555" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A555" s="76"/>
-      <c r="B555" s="77"/>
+      <c r="A555" s="79"/>
+      <c r="B555" s="80"/>
       <c r="C555" s="67"/>
       <c r="D555" s="36">
         <v>45692</v>
@@ -18570,8 +18707,8 @@
         <v>0.39652777777777781</v>
       </c>
       <c r="J555" s="67"/>
-      <c r="K555" s="78"/>
-      <c r="L555" s="79"/>
+      <c r="K555" s="81"/>
+      <c r="L555" s="82"/>
       <c r="M555" s="67"/>
       <c r="N555" s="67"/>
       <c r="O555" s="67"/>
@@ -18587,8 +18724,8 @@
       <c r="Y555" s="67"/>
     </row>
     <row r="556" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A556" s="76"/>
-      <c r="B556" s="77"/>
+      <c r="A556" s="79"/>
+      <c r="B556" s="80"/>
       <c r="C556" s="67"/>
       <c r="D556" s="36">
         <v>45692</v>
@@ -18609,8 +18746,8 @@
         <v>0.40625</v>
       </c>
       <c r="J556" s="67"/>
-      <c r="K556" s="78"/>
-      <c r="L556" s="79"/>
+      <c r="K556" s="81"/>
+      <c r="L556" s="82"/>
       <c r="M556" s="67"/>
       <c r="N556" s="67"/>
       <c r="O556" s="67"/>
@@ -18626,8 +18763,8 @@
       <c r="Y556" s="67"/>
     </row>
     <row r="557" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A557" s="76"/>
-      <c r="B557" s="77"/>
+      <c r="A557" s="79"/>
+      <c r="B557" s="80"/>
       <c r="C557" s="67"/>
       <c r="D557" s="36">
         <v>45692</v>
@@ -18648,8 +18785,8 @@
         <v>0.50069444444444444</v>
       </c>
       <c r="J557" s="67"/>
-      <c r="K557" s="78"/>
-      <c r="L557" s="79"/>
+      <c r="K557" s="81"/>
+      <c r="L557" s="82"/>
       <c r="M557" s="67"/>
       <c r="N557" s="67"/>
       <c r="O557" s="67"/>
@@ -18665,8 +18802,8 @@
       <c r="Y557" s="67"/>
     </row>
     <row r="558" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A558" s="76"/>
-      <c r="B558" s="77"/>
+      <c r="A558" s="79"/>
+      <c r="B558" s="80"/>
       <c r="C558" s="67"/>
       <c r="D558" s="36">
         <v>45692</v>
@@ -18687,8 +18824,8 @@
         <v>0.53125</v>
       </c>
       <c r="J558" s="67"/>
-      <c r="K558" s="78"/>
-      <c r="L558" s="79"/>
+      <c r="K558" s="81"/>
+      <c r="L558" s="82"/>
       <c r="M558" s="67"/>
       <c r="N558" s="67"/>
       <c r="O558" s="67"/>
@@ -18704,8 +18841,8 @@
       <c r="Y558" s="67"/>
     </row>
     <row r="559" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A559" s="76"/>
-      <c r="B559" s="77"/>
+      <c r="A559" s="79"/>
+      <c r="B559" s="80"/>
       <c r="C559" s="66"/>
       <c r="D559" s="24">
         <v>45693</v>
@@ -18726,8 +18863,8 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="J559" s="66"/>
-      <c r="K559" s="78"/>
-      <c r="L559" s="79"/>
+      <c r="K559" s="81"/>
+      <c r="L559" s="82"/>
       <c r="M559" s="66"/>
       <c r="N559" s="66"/>
       <c r="O559" s="66"/>
@@ -18743,8 +18880,8 @@
       <c r="Y559" s="66"/>
     </row>
     <row r="560" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A560" s="76"/>
-      <c r="B560" s="77"/>
+      <c r="A560" s="79"/>
+      <c r="B560" s="80"/>
       <c r="C560" s="67"/>
       <c r="D560" s="36">
         <v>45693</v>
@@ -18765,8 +18902,8 @@
         <v>0.41805555555555557</v>
       </c>
       <c r="J560" s="67"/>
-      <c r="K560" s="78"/>
-      <c r="L560" s="79"/>
+      <c r="K560" s="81"/>
+      <c r="L560" s="82"/>
       <c r="M560" s="67"/>
       <c r="N560" s="67"/>
       <c r="O560" s="67"/>
@@ -18782,8 +18919,8 @@
       <c r="Y560" s="67"/>
     </row>
     <row r="561" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A561" s="76"/>
-      <c r="B561" s="77"/>
+      <c r="A561" s="79"/>
+      <c r="B561" s="80"/>
       <c r="C561" s="67"/>
       <c r="D561" s="36">
         <v>45693</v>
@@ -18804,8 +18941,8 @@
         <v>0.46249999999999997</v>
       </c>
       <c r="J561" s="67"/>
-      <c r="K561" s="78"/>
-      <c r="L561" s="79"/>
+      <c r="K561" s="81"/>
+      <c r="L561" s="82"/>
       <c r="M561" s="67"/>
       <c r="N561" s="67"/>
       <c r="O561" s="67"/>
@@ -18821,8 +18958,8 @@
       <c r="Y561" s="67"/>
     </row>
     <row r="562" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A562" s="76"/>
-      <c r="B562" s="77"/>
+      <c r="A562" s="79"/>
+      <c r="B562" s="80"/>
       <c r="C562" s="67"/>
       <c r="D562" s="36">
         <v>45693</v>
@@ -18843,8 +18980,8 @@
         <v>0.49305555555555558</v>
       </c>
       <c r="J562" s="67"/>
-      <c r="K562" s="78"/>
-      <c r="L562" s="79"/>
+      <c r="K562" s="81"/>
+      <c r="L562" s="82"/>
       <c r="M562" s="67"/>
       <c r="N562" s="67"/>
       <c r="O562" s="67"/>
@@ -18899,8 +19036,8 @@
       <c r="Y563" s="67"/>
     </row>
     <row r="564" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A564" s="76"/>
-      <c r="B564" s="77"/>
+      <c r="A564" s="79"/>
+      <c r="B564" s="80"/>
       <c r="C564" s="67"/>
       <c r="D564" s="36">
         <v>45693</v>
@@ -18921,8 +19058,8 @@
         <v>0.54861111111111105</v>
       </c>
       <c r="J564" s="67"/>
-      <c r="K564" s="78"/>
-      <c r="L564" s="79"/>
+      <c r="K564" s="81"/>
+      <c r="L564" s="82"/>
       <c r="M564" s="67"/>
       <c r="N564" s="67"/>
       <c r="O564" s="67"/>
@@ -18938,8 +19075,8 @@
       <c r="Y564" s="67"/>
     </row>
     <row r="565" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A565" s="76"/>
-      <c r="B565" s="77"/>
+      <c r="A565" s="79"/>
+      <c r="B565" s="80"/>
       <c r="C565" s="66"/>
       <c r="D565" s="24">
         <v>45693</v>
@@ -18960,8 +19097,8 @@
         <v>0.5708333333333333</v>
       </c>
       <c r="J565" s="66"/>
-      <c r="K565" s="78"/>
-      <c r="L565" s="79"/>
+      <c r="K565" s="81"/>
+      <c r="L565" s="82"/>
       <c r="M565" s="66"/>
       <c r="N565" s="66"/>
       <c r="O565" s="66"/>
@@ -18977,8 +19114,8 @@
       <c r="Y565" s="66"/>
     </row>
     <row r="566" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A566" s="76"/>
-      <c r="B566" s="77"/>
+      <c r="A566" s="79"/>
+      <c r="B566" s="80"/>
       <c r="C566" s="66"/>
       <c r="D566" s="24">
         <v>45694</v>
@@ -18999,8 +19136,8 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="J566" s="66"/>
-      <c r="K566" s="78"/>
-      <c r="L566" s="79"/>
+      <c r="K566" s="81"/>
+      <c r="L566" s="82"/>
       <c r="M566" s="66"/>
       <c r="N566" s="66"/>
       <c r="O566" s="66"/>
@@ -19016,8 +19153,8 @@
       <c r="Y566" s="66"/>
     </row>
     <row r="567" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A567" s="76"/>
-      <c r="B567" s="77"/>
+      <c r="A567" s="79"/>
+      <c r="B567" s="80"/>
       <c r="C567" s="67"/>
       <c r="D567" s="36">
         <v>45694</v>
@@ -19038,8 +19175,8 @@
         <v>0.34722222222222227</v>
       </c>
       <c r="J567" s="67"/>
-      <c r="K567" s="78"/>
-      <c r="L567" s="79"/>
+      <c r="K567" s="81"/>
+      <c r="L567" s="82"/>
       <c r="M567" s="67"/>
       <c r="N567" s="67"/>
       <c r="O567" s="67"/>
@@ -19055,8 +19192,8 @@
       <c r="Y567" s="67"/>
     </row>
     <row r="568" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A568" s="76"/>
-      <c r="B568" s="77"/>
+      <c r="A568" s="79"/>
+      <c r="B568" s="80"/>
       <c r="C568" s="67"/>
       <c r="D568" s="36">
         <v>45694</v>
@@ -19077,8 +19214,8 @@
         <v>0.36805555555555558</v>
       </c>
       <c r="J568" s="67"/>
-      <c r="K568" s="78"/>
-      <c r="L568" s="79"/>
+      <c r="K568" s="81"/>
+      <c r="L568" s="82"/>
       <c r="M568" s="67"/>
       <c r="N568" s="67"/>
       <c r="O568" s="67"/>
@@ -19094,8 +19231,8 @@
       <c r="Y568" s="67"/>
     </row>
     <row r="569" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A569" s="76"/>
-      <c r="B569" s="77"/>
+      <c r="A569" s="79"/>
+      <c r="B569" s="80"/>
       <c r="C569" s="67"/>
       <c r="D569" s="36">
         <v>45694</v>
@@ -19116,8 +19253,8 @@
         <v>0.40138888888888885</v>
       </c>
       <c r="J569" s="67"/>
-      <c r="K569" s="78"/>
-      <c r="L569" s="79"/>
+      <c r="K569" s="81"/>
+      <c r="L569" s="82"/>
       <c r="M569" s="67"/>
       <c r="N569" s="67"/>
       <c r="O569" s="67"/>
@@ -19133,8 +19270,8 @@
       <c r="Y569" s="67"/>
     </row>
     <row r="570" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A570" s="76"/>
-      <c r="B570" s="77"/>
+      <c r="A570" s="79"/>
+      <c r="B570" s="80"/>
       <c r="C570" s="66"/>
       <c r="D570" s="24">
         <v>45694</v>
@@ -19155,8 +19292,8 @@
         <v>0.40625</v>
       </c>
       <c r="J570" s="66"/>
-      <c r="K570" s="78"/>
-      <c r="L570" s="79"/>
+      <c r="K570" s="81"/>
+      <c r="L570" s="82"/>
       <c r="M570" s="66"/>
       <c r="N570" s="66"/>
       <c r="O570" s="66"/>
@@ -19211,8 +19348,8 @@
       <c r="Y571" s="67"/>
     </row>
     <row r="572" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A572" s="76"/>
-      <c r="B572" s="77"/>
+      <c r="A572" s="79"/>
+      <c r="B572" s="80"/>
       <c r="C572" s="67"/>
       <c r="D572" s="36">
         <v>45694</v>
@@ -19233,8 +19370,8 @@
         <v>0.4770833333333333</v>
       </c>
       <c r="J572" s="67"/>
-      <c r="K572" s="78"/>
-      <c r="L572" s="79"/>
+      <c r="K572" s="81"/>
+      <c r="L572" s="82"/>
       <c r="M572" s="67"/>
       <c r="N572" s="67"/>
       <c r="O572" s="67"/>
@@ -19250,8 +19387,8 @@
       <c r="Y572" s="67"/>
     </row>
     <row r="573" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A573" s="76"/>
-      <c r="B573" s="77"/>
+      <c r="A573" s="79"/>
+      <c r="B573" s="80"/>
       <c r="C573" s="67"/>
       <c r="D573" s="36">
         <v>45694</v>
@@ -19272,8 +19409,8 @@
         <v>0.49305555555555558</v>
       </c>
       <c r="J573" s="67"/>
-      <c r="K573" s="78"/>
-      <c r="L573" s="79"/>
+      <c r="K573" s="81"/>
+      <c r="L573" s="82"/>
       <c r="M573" s="67"/>
       <c r="N573" s="67"/>
       <c r="O573" s="67"/>
@@ -19289,8 +19426,8 @@
       <c r="Y573" s="67"/>
     </row>
     <row r="574" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A574" s="76"/>
-      <c r="B574" s="77"/>
+      <c r="A574" s="79"/>
+      <c r="B574" s="80"/>
       <c r="C574" s="66"/>
       <c r="D574" s="24">
         <v>45694</v>
@@ -19311,8 +19448,8 @@
         <v>0.49652777777777773</v>
       </c>
       <c r="J574" s="66"/>
-      <c r="K574" s="78"/>
-      <c r="L574" s="79"/>
+      <c r="K574" s="81"/>
+      <c r="L574" s="82"/>
       <c r="M574" s="66"/>
       <c r="N574" s="66"/>
       <c r="O574" s="66"/>
@@ -19328,8 +19465,8 @@
       <c r="Y574" s="66"/>
     </row>
     <row r="575" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A575" s="76"/>
-      <c r="B575" s="77"/>
+      <c r="A575" s="79"/>
+      <c r="B575" s="80"/>
       <c r="C575" s="66"/>
       <c r="D575" s="24">
         <v>45695</v>
@@ -19350,8 +19487,8 @@
         <v>0.375</v>
       </c>
       <c r="J575" s="66"/>
-      <c r="K575" s="78"/>
-      <c r="L575" s="79"/>
+      <c r="K575" s="81"/>
+      <c r="L575" s="82"/>
       <c r="M575" s="66"/>
       <c r="N575" s="66"/>
       <c r="O575" s="66"/>
@@ -19367,8 +19504,8 @@
       <c r="Y575" s="66"/>
     </row>
     <row r="576" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A576" s="76"/>
-      <c r="B576" s="77"/>
+      <c r="A576" s="79"/>
+      <c r="B576" s="80"/>
       <c r="C576" s="67"/>
       <c r="D576" s="36">
         <v>45695</v>
@@ -19389,8 +19526,8 @@
         <v>0.41319444444444442</v>
       </c>
       <c r="J576" s="67"/>
-      <c r="K576" s="78"/>
-      <c r="L576" s="79"/>
+      <c r="K576" s="81"/>
+      <c r="L576" s="82"/>
       <c r="M576" s="67"/>
       <c r="N576" s="67"/>
       <c r="O576" s="67"/>
@@ -19406,8 +19543,8 @@
       <c r="Y576" s="67"/>
     </row>
     <row r="577" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A577" s="76"/>
-      <c r="B577" s="77"/>
+      <c r="A577" s="79"/>
+      <c r="B577" s="80"/>
       <c r="C577" s="67"/>
       <c r="D577" s="36">
         <v>45695</v>
@@ -19428,8 +19565,8 @@
         <v>0.4548611111111111</v>
       </c>
       <c r="J577" s="67"/>
-      <c r="K577" s="78"/>
-      <c r="L577" s="79"/>
+      <c r="K577" s="81"/>
+      <c r="L577" s="82"/>
       <c r="M577" s="67"/>
       <c r="N577" s="67"/>
       <c r="O577" s="67"/>
@@ -19445,8 +19582,8 @@
       <c r="Y577" s="67"/>
     </row>
     <row r="578" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A578" s="76"/>
-      <c r="B578" s="77"/>
+      <c r="A578" s="79"/>
+      <c r="B578" s="80"/>
       <c r="C578" s="67"/>
       <c r="D578" s="36">
         <v>45695</v>
@@ -19467,8 +19604,8 @@
         <v>0.46180555555555558</v>
       </c>
       <c r="J578" s="67"/>
-      <c r="K578" s="78"/>
-      <c r="L578" s="79"/>
+      <c r="K578" s="81"/>
+      <c r="L578" s="82"/>
       <c r="M578" s="67"/>
       <c r="N578" s="67"/>
       <c r="O578" s="67"/>
@@ -19484,8 +19621,8 @@
       <c r="Y578" s="67"/>
     </row>
     <row r="579" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A579" s="76"/>
-      <c r="B579" s="77"/>
+      <c r="A579" s="79"/>
+      <c r="B579" s="80"/>
       <c r="C579" s="67"/>
       <c r="D579" s="36">
         <v>45695</v>
@@ -19506,8 +19643,8 @@
         <v>0.47222222222222227</v>
       </c>
       <c r="J579" s="67"/>
-      <c r="K579" s="78"/>
-      <c r="L579" s="79"/>
+      <c r="K579" s="81"/>
+      <c r="L579" s="82"/>
       <c r="M579" s="67"/>
       <c r="N579" s="67"/>
       <c r="O579" s="67"/>
@@ -19523,8 +19660,8 @@
       <c r="Y579" s="67"/>
     </row>
     <row r="580" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A580" s="76"/>
-      <c r="B580" s="77"/>
+      <c r="A580" s="79"/>
+      <c r="B580" s="80"/>
       <c r="C580" s="67"/>
       <c r="D580" s="36">
         <v>45695</v>
@@ -19545,8 +19682,8 @@
         <v>0.5625</v>
       </c>
       <c r="J580" s="67"/>
-      <c r="K580" s="78"/>
-      <c r="L580" s="79"/>
+      <c r="K580" s="81"/>
+      <c r="L580" s="82"/>
       <c r="M580" s="67"/>
       <c r="N580" s="67"/>
       <c r="O580" s="67"/>
@@ -19562,8 +19699,8 @@
       <c r="Y580" s="67"/>
     </row>
     <row r="581" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A581" s="76"/>
-      <c r="B581" s="77"/>
+      <c r="A581" s="79"/>
+      <c r="B581" s="80"/>
       <c r="C581" s="67"/>
       <c r="D581" s="36">
         <v>45698</v>
@@ -19584,8 +19721,8 @@
         <v>0.36458333333333331</v>
       </c>
       <c r="J581" s="67"/>
-      <c r="K581" s="78"/>
-      <c r="L581" s="79"/>
+      <c r="K581" s="81"/>
+      <c r="L581" s="82"/>
       <c r="M581" s="67"/>
       <c r="N581" s="67"/>
       <c r="O581" s="67"/>
@@ -19601,8 +19738,8 @@
       <c r="Y581" s="67"/>
     </row>
     <row r="582" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A582" s="76"/>
-      <c r="B582" s="77"/>
+      <c r="A582" s="79"/>
+      <c r="B582" s="80"/>
       <c r="C582" s="67"/>
       <c r="D582" s="36">
         <v>45698</v>
@@ -19623,8 +19760,8 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="J582" s="67"/>
-      <c r="K582" s="78"/>
-      <c r="L582" s="79"/>
+      <c r="K582" s="81"/>
+      <c r="L582" s="82"/>
       <c r="M582" s="67"/>
       <c r="N582" s="67"/>
       <c r="O582" s="67"/>
@@ -19640,8 +19777,8 @@
       <c r="Y582" s="67"/>
     </row>
     <row r="583" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A583" s="76"/>
-      <c r="B583" s="77"/>
+      <c r="A583" s="79"/>
+      <c r="B583" s="80"/>
       <c r="C583" s="67"/>
       <c r="D583" s="36">
         <v>45698</v>
@@ -19662,8 +19799,8 @@
         <v>0.48402777777777778</v>
       </c>
       <c r="J583" s="67"/>
-      <c r="K583" s="78"/>
-      <c r="L583" s="79"/>
+      <c r="K583" s="81"/>
+      <c r="L583" s="82"/>
       <c r="M583" s="67"/>
       <c r="N583" s="67"/>
       <c r="O583" s="67"/>
@@ -19679,8 +19816,8 @@
       <c r="Y583" s="67"/>
     </row>
     <row r="584" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A584" s="76"/>
-      <c r="B584" s="77"/>
+      <c r="A584" s="79"/>
+      <c r="B584" s="80"/>
       <c r="C584" s="66"/>
       <c r="D584" s="24">
         <v>45698</v>
@@ -19701,8 +19838,8 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="J584" s="66"/>
-      <c r="K584" s="78"/>
-      <c r="L584" s="79"/>
+      <c r="K584" s="81"/>
+      <c r="L584" s="82"/>
       <c r="M584" s="66"/>
       <c r="N584" s="66"/>
       <c r="O584" s="66"/>
@@ -19718,8 +19855,8 @@
       <c r="Y584" s="66"/>
     </row>
     <row r="585" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A585" s="76"/>
-      <c r="B585" s="77"/>
+      <c r="A585" s="79"/>
+      <c r="B585" s="80"/>
       <c r="C585" s="66"/>
       <c r="D585" s="24">
         <v>45698</v>
@@ -19740,8 +19877,8 @@
         <v>0.58680555555555558</v>
       </c>
       <c r="J585" s="66"/>
-      <c r="K585" s="78"/>
-      <c r="L585" s="79"/>
+      <c r="K585" s="81"/>
+      <c r="L585" s="82"/>
       <c r="M585" s="66"/>
       <c r="N585" s="66"/>
       <c r="O585" s="66"/>
@@ -19757,8 +19894,8 @@
       <c r="Y585" s="66"/>
     </row>
     <row r="586" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A586" s="76"/>
-      <c r="B586" s="77"/>
+      <c r="A586" s="79"/>
+      <c r="B586" s="80"/>
       <c r="C586" s="66"/>
       <c r="D586" s="24">
         <v>45699</v>
@@ -19779,8 +19916,8 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="J586" s="66"/>
-      <c r="K586" s="78"/>
-      <c r="L586" s="79"/>
+      <c r="K586" s="81"/>
+      <c r="L586" s="82"/>
       <c r="M586" s="66"/>
       <c r="N586" s="66"/>
       <c r="O586" s="66"/>
@@ -19796,8 +19933,8 @@
       <c r="Y586" s="66"/>
     </row>
     <row r="587" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A587" s="76"/>
-      <c r="B587" s="77"/>
+      <c r="A587" s="79"/>
+      <c r="B587" s="80"/>
       <c r="C587" s="67"/>
       <c r="D587" s="36">
         <v>45699</v>
@@ -19818,8 +19955,8 @@
         <v>0.4375</v>
       </c>
       <c r="J587" s="67"/>
-      <c r="K587" s="78"/>
-      <c r="L587" s="79"/>
+      <c r="K587" s="81"/>
+      <c r="L587" s="82"/>
       <c r="M587" s="67"/>
       <c r="N587" s="67"/>
       <c r="O587" s="67"/>
@@ -19835,8 +19972,8 @@
       <c r="Y587" s="67"/>
     </row>
     <row r="588" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A588" s="76"/>
-      <c r="B588" s="77"/>
+      <c r="A588" s="79"/>
+      <c r="B588" s="80"/>
       <c r="C588" s="67"/>
       <c r="D588" s="36">
         <v>45699</v>
@@ -19857,8 +19994,8 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="J588" s="67"/>
-      <c r="K588" s="78"/>
-      <c r="L588" s="79"/>
+      <c r="K588" s="81"/>
+      <c r="L588" s="82"/>
       <c r="M588" s="67"/>
       <c r="N588" s="67"/>
       <c r="O588" s="67"/>
@@ -19874,8 +20011,8 @@
       <c r="Y588" s="67"/>
     </row>
     <row r="589" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A589" s="76"/>
-      <c r="B589" s="77"/>
+      <c r="A589" s="79"/>
+      <c r="B589" s="80"/>
       <c r="C589" s="67"/>
       <c r="D589" s="36">
         <v>45699</v>
@@ -19896,8 +20033,8 @@
         <v>0.49305555555555558</v>
       </c>
       <c r="J589" s="67"/>
-      <c r="K589" s="78"/>
-      <c r="L589" s="79"/>
+      <c r="K589" s="81"/>
+      <c r="L589" s="82"/>
       <c r="M589" s="67"/>
       <c r="N589" s="67"/>
       <c r="O589" s="67"/>
@@ -19913,8 +20050,8 @@
       <c r="Y589" s="67"/>
     </row>
     <row r="590" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A590" s="76"/>
-      <c r="B590" s="77"/>
+      <c r="A590" s="79"/>
+      <c r="B590" s="80"/>
       <c r="C590" s="67"/>
       <c r="D590" s="36">
         <v>45699</v>
@@ -19935,8 +20072,8 @@
         <v>0.49652777777777773</v>
       </c>
       <c r="J590" s="67"/>
-      <c r="K590" s="78"/>
-      <c r="L590" s="79"/>
+      <c r="K590" s="81"/>
+      <c r="L590" s="82"/>
       <c r="M590" s="67"/>
       <c r="N590" s="67"/>
       <c r="O590" s="67"/>
@@ -19952,8 +20089,8 @@
       <c r="Y590" s="67"/>
     </row>
     <row r="591" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A591" s="76"/>
-      <c r="B591" s="77"/>
+      <c r="A591" s="79"/>
+      <c r="B591" s="80"/>
       <c r="C591" s="66"/>
       <c r="D591" s="24">
         <v>45700</v>
@@ -19974,8 +20111,8 @@
         <v>0.34027777777777773</v>
       </c>
       <c r="J591" s="66"/>
-      <c r="K591" s="78"/>
-      <c r="L591" s="79"/>
+      <c r="K591" s="81"/>
+      <c r="L591" s="82"/>
       <c r="M591" s="66"/>
       <c r="N591" s="66"/>
       <c r="O591" s="66"/>
@@ -19991,8 +20128,8 @@
       <c r="Y591" s="66"/>
     </row>
     <row r="592" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A592" s="76"/>
-      <c r="B592" s="77"/>
+      <c r="A592" s="79"/>
+      <c r="B592" s="80"/>
       <c r="C592" s="67"/>
       <c r="D592" s="36">
         <v>45700</v>
@@ -20013,8 +20150,8 @@
         <v>0.3576388888888889</v>
       </c>
       <c r="J592" s="67"/>
-      <c r="K592" s="78"/>
-      <c r="L592" s="79"/>
+      <c r="K592" s="81"/>
+      <c r="L592" s="82"/>
       <c r="M592" s="67"/>
       <c r="N592" s="67"/>
       <c r="O592" s="67"/>
@@ -20030,8 +20167,8 @@
       <c r="Y592" s="67"/>
     </row>
     <row r="593" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A593" s="76"/>
-      <c r="B593" s="77"/>
+      <c r="A593" s="79"/>
+      <c r="B593" s="80"/>
       <c r="C593" s="67"/>
       <c r="D593" s="36">
         <v>45700</v>
@@ -20052,8 +20189,8 @@
         <v>0.3659722222222222</v>
       </c>
       <c r="J593" s="67"/>
-      <c r="K593" s="78"/>
-      <c r="L593" s="79"/>
+      <c r="K593" s="81"/>
+      <c r="L593" s="82"/>
       <c r="M593" s="67"/>
       <c r="N593" s="67"/>
       <c r="O593" s="67"/>
@@ -20069,8 +20206,8 @@
       <c r="Y593" s="67"/>
     </row>
     <row r="594" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A594" s="76"/>
-      <c r="B594" s="77"/>
+      <c r="A594" s="79"/>
+      <c r="B594" s="80"/>
       <c r="C594" s="67"/>
       <c r="D594" s="36">
         <v>45700</v>
@@ -20091,8 +20228,8 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="J594" s="67"/>
-      <c r="K594" s="78"/>
-      <c r="L594" s="79"/>
+      <c r="K594" s="81"/>
+      <c r="L594" s="82"/>
       <c r="M594" s="67"/>
       <c r="N594" s="67"/>
       <c r="O594" s="67"/>
@@ -20108,8 +20245,8 @@
       <c r="Y594" s="67"/>
     </row>
     <row r="595" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A595" s="76"/>
-      <c r="B595" s="77"/>
+      <c r="A595" s="79"/>
+      <c r="B595" s="80"/>
       <c r="C595" s="67"/>
       <c r="D595" s="36">
         <v>45700</v>
@@ -20130,8 +20267,8 @@
         <v>0.3972222222222222</v>
       </c>
       <c r="J595" s="67"/>
-      <c r="K595" s="78"/>
-      <c r="L595" s="79"/>
+      <c r="K595" s="81"/>
+      <c r="L595" s="82"/>
       <c r="M595" s="67"/>
       <c r="N595" s="67"/>
       <c r="O595" s="67"/>
@@ -20147,8 +20284,8 @@
       <c r="Y595" s="67"/>
     </row>
     <row r="596" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A596" s="76"/>
-      <c r="B596" s="77"/>
+      <c r="A596" s="79"/>
+      <c r="B596" s="80"/>
       <c r="C596" s="67"/>
       <c r="D596" s="36">
         <v>45700</v>
@@ -20169,8 +20306,8 @@
         <v>0.42499999999999999</v>
       </c>
       <c r="J596" s="67"/>
-      <c r="K596" s="78"/>
-      <c r="L596" s="79"/>
+      <c r="K596" s="81"/>
+      <c r="L596" s="82"/>
       <c r="M596" s="67"/>
       <c r="N596" s="67"/>
       <c r="O596" s="67"/>
@@ -20186,8 +20323,8 @@
       <c r="Y596" s="67"/>
     </row>
     <row r="597" spans="1:25" s="59" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A597" s="80"/>
-      <c r="B597" s="81"/>
+      <c r="A597" s="83"/>
+      <c r="B597" s="84"/>
       <c r="C597" s="69"/>
       <c r="D597" s="57">
         <v>45700</v>
@@ -20208,8 +20345,8 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="J597" s="69"/>
-      <c r="K597" s="82"/>
-      <c r="L597" s="83"/>
+      <c r="K597" s="85"/>
+      <c r="L597" s="86"/>
       <c r="M597" s="69"/>
       <c r="N597" s="69"/>
       <c r="O597" s="69"/>
@@ -20225,8 +20362,8 @@
       <c r="Y597" s="69"/>
     </row>
     <row r="598" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A598" s="76"/>
-      <c r="B598" s="77"/>
+      <c r="A598" s="79"/>
+      <c r="B598" s="80"/>
       <c r="C598" s="67"/>
       <c r="D598" s="36">
         <v>45700</v>
@@ -20247,8 +20384,8 @@
         <v>0.46249999999999997</v>
       </c>
       <c r="J598" s="67"/>
-      <c r="K598" s="78"/>
-      <c r="L598" s="79"/>
+      <c r="K598" s="81"/>
+      <c r="L598" s="82"/>
       <c r="M598" s="67"/>
       <c r="N598" s="67"/>
       <c r="O598" s="67"/>
@@ -20264,8 +20401,8 @@
       <c r="Y598" s="67"/>
     </row>
     <row r="599" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A599" s="76"/>
-      <c r="B599" s="77"/>
+      <c r="A599" s="79"/>
+      <c r="B599" s="80"/>
       <c r="C599" s="66"/>
       <c r="D599" s="24">
         <v>45700</v>
@@ -20286,8 +20423,8 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="J599" s="66"/>
-      <c r="K599" s="78"/>
-      <c r="L599" s="79"/>
+      <c r="K599" s="81"/>
+      <c r="L599" s="82"/>
       <c r="M599" s="66"/>
       <c r="N599" s="66"/>
       <c r="O599" s="66"/>
@@ -20303,8 +20440,8 @@
       <c r="Y599" s="66"/>
     </row>
     <row r="600" spans="1:25" s="59" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A600" s="80"/>
-      <c r="B600" s="81"/>
+      <c r="A600" s="83"/>
+      <c r="B600" s="84"/>
       <c r="C600" s="70"/>
       <c r="D600" s="71">
         <v>45700</v>
@@ -20325,8 +20462,8 @@
         <v>0.5625</v>
       </c>
       <c r="J600" s="70"/>
-      <c r="K600" s="82"/>
-      <c r="L600" s="83"/>
+      <c r="K600" s="85"/>
+      <c r="L600" s="86"/>
       <c r="M600" s="70"/>
       <c r="N600" s="70"/>
       <c r="O600" s="70"/>
@@ -20342,8 +20479,8 @@
       <c r="Y600" s="70"/>
     </row>
     <row r="601" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A601" s="76"/>
-      <c r="B601" s="77"/>
+      <c r="A601" s="79"/>
+      <c r="B601" s="80"/>
       <c r="C601" s="66"/>
       <c r="D601" s="24">
         <v>45701</v>
@@ -20364,8 +20501,8 @@
         <v>0.34791666666666665</v>
       </c>
       <c r="J601" s="66"/>
-      <c r="K601" s="78"/>
-      <c r="L601" s="79"/>
+      <c r="K601" s="81"/>
+      <c r="L601" s="82"/>
       <c r="M601" s="66"/>
       <c r="N601" s="66"/>
       <c r="O601" s="66"/>
@@ -20381,8 +20518,8 @@
       <c r="Y601" s="66"/>
     </row>
     <row r="602" spans="1:25" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A602" s="76"/>
-      <c r="B602" s="77"/>
+      <c r="A602" s="79"/>
+      <c r="B602" s="80"/>
       <c r="C602" s="67"/>
       <c r="D602" s="36">
         <v>45701</v>
@@ -20403,8 +20540,8 @@
         <v>0.3923611111111111</v>
       </c>
       <c r="J602" s="67"/>
-      <c r="K602" s="78"/>
-      <c r="L602" s="79"/>
+      <c r="K602" s="81"/>
+      <c r="L602" s="82"/>
       <c r="M602" s="67"/>
       <c r="N602" s="67"/>
       <c r="O602" s="67"/>
@@ -20420,8 +20557,8 @@
       <c r="Y602" s="67"/>
     </row>
     <row r="603" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A603" s="76"/>
-      <c r="B603" s="77"/>
+      <c r="A603" s="79"/>
+      <c r="B603" s="80"/>
       <c r="C603" s="67"/>
       <c r="D603" s="36">
         <v>45701</v>
@@ -20442,8 +20579,8 @@
         <v>0.39652777777777781</v>
       </c>
       <c r="J603" s="67"/>
-      <c r="K603" s="78"/>
-      <c r="L603" s="79"/>
+      <c r="K603" s="81"/>
+      <c r="L603" s="82"/>
       <c r="M603" s="67"/>
       <c r="N603" s="67"/>
       <c r="O603" s="67"/>
@@ -20459,8 +20596,8 @@
       <c r="Y603" s="67"/>
     </row>
     <row r="604" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A604" s="76"/>
-      <c r="B604" s="77"/>
+      <c r="A604" s="79"/>
+      <c r="B604" s="80"/>
       <c r="C604" s="67"/>
       <c r="D604" s="36">
         <v>45701</v>
@@ -20481,8 +20618,8 @@
         <v>0.41319444444444442</v>
       </c>
       <c r="J604" s="67"/>
-      <c r="K604" s="78"/>
-      <c r="L604" s="79"/>
+      <c r="K604" s="81"/>
+      <c r="L604" s="82"/>
       <c r="M604" s="67"/>
       <c r="N604" s="67"/>
       <c r="O604" s="67"/>
@@ -20498,8 +20635,8 @@
       <c r="Y604" s="67"/>
     </row>
     <row r="605" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A605" s="76"/>
-      <c r="B605" s="77"/>
+      <c r="A605" s="79"/>
+      <c r="B605" s="80"/>
       <c r="C605" s="67"/>
       <c r="D605" s="36">
         <v>45701</v>
@@ -20520,8 +20657,8 @@
         <v>0.4770833333333333</v>
       </c>
       <c r="J605" s="67"/>
-      <c r="K605" s="78"/>
-      <c r="L605" s="79"/>
+      <c r="K605" s="81"/>
+      <c r="L605" s="82"/>
       <c r="M605" s="67"/>
       <c r="N605" s="67"/>
       <c r="O605" s="67"/>
@@ -20537,8 +20674,8 @@
       <c r="Y605" s="67"/>
     </row>
     <row r="606" spans="1:25" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A606" s="76"/>
-      <c r="B606" s="77"/>
+      <c r="A606" s="79"/>
+      <c r="B606" s="80"/>
       <c r="C606" s="67"/>
       <c r="D606" s="36">
         <v>45701</v>
@@ -20559,8 +20696,8 @@
         <v>0.4861111111111111</v>
       </c>
       <c r="J606" s="67"/>
-      <c r="K606" s="78"/>
-      <c r="L606" s="79"/>
+      <c r="K606" s="81"/>
+      <c r="L606" s="82"/>
       <c r="M606" s="67"/>
       <c r="N606" s="67"/>
       <c r="O606" s="67"/>
@@ -20576,8 +20713,8 @@
       <c r="Y606" s="67"/>
     </row>
     <row r="607" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A607" s="76"/>
-      <c r="B607" s="77"/>
+      <c r="A607" s="79"/>
+      <c r="B607" s="80"/>
       <c r="C607" s="66"/>
       <c r="D607" s="24">
         <v>45701</v>
@@ -20598,8 +20735,8 @@
         <v>0.50347222222222221</v>
       </c>
       <c r="J607" s="66"/>
-      <c r="K607" s="78"/>
-      <c r="L607" s="79"/>
+      <c r="K607" s="81"/>
+      <c r="L607" s="82"/>
       <c r="M607" s="66"/>
       <c r="N607" s="66"/>
       <c r="O607" s="66"/>
@@ -20615,8 +20752,8 @@
       <c r="Y607" s="66"/>
     </row>
     <row r="608" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A608" s="76"/>
-      <c r="B608" s="77"/>
+      <c r="A608" s="79"/>
+      <c r="B608" s="80"/>
       <c r="C608" s="66"/>
       <c r="D608" s="24">
         <v>45702</v>
@@ -20637,8 +20774,8 @@
         <v>0.3611111111111111</v>
       </c>
       <c r="J608" s="66"/>
-      <c r="K608" s="78"/>
-      <c r="L608" s="79"/>
+      <c r="K608" s="81"/>
+      <c r="L608" s="82"/>
       <c r="M608" s="66"/>
       <c r="N608" s="66"/>
       <c r="O608" s="66"/>
@@ -20654,8 +20791,8 @@
       <c r="Y608" s="66"/>
     </row>
     <row r="609" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A609" s="76"/>
-      <c r="B609" s="77"/>
+      <c r="A609" s="79"/>
+      <c r="B609" s="80"/>
       <c r="C609" s="67"/>
       <c r="D609" s="36">
         <v>45702</v>
@@ -20676,8 +20813,8 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="J609" s="67"/>
-      <c r="K609" s="78"/>
-      <c r="L609" s="79"/>
+      <c r="K609" s="81"/>
+      <c r="L609" s="82"/>
       <c r="M609" s="67"/>
       <c r="N609" s="67"/>
       <c r="O609" s="67"/>
@@ -20693,8 +20830,8 @@
       <c r="Y609" s="67"/>
     </row>
     <row r="610" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A610" s="76"/>
-      <c r="B610" s="77"/>
+      <c r="A610" s="79"/>
+      <c r="B610" s="80"/>
       <c r="C610" s="67"/>
       <c r="D610" s="36">
         <v>45702</v>
@@ -20715,8 +20852,8 @@
         <v>0.41319444444444442</v>
       </c>
       <c r="J610" s="67"/>
-      <c r="K610" s="78"/>
-      <c r="L610" s="79"/>
+      <c r="K610" s="81"/>
+      <c r="L610" s="82"/>
       <c r="M610" s="67"/>
       <c r="N610" s="67"/>
       <c r="O610" s="67"/>
@@ -20732,8 +20869,8 @@
       <c r="Y610" s="67"/>
     </row>
     <row r="611" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A611" s="76"/>
-      <c r="B611" s="77"/>
+      <c r="A611" s="79"/>
+      <c r="B611" s="80"/>
       <c r="C611" s="67"/>
       <c r="D611" s="36">
         <v>45702</v>
@@ -20754,8 +20891,8 @@
         <v>0.4201388888888889</v>
       </c>
       <c r="J611" s="67"/>
-      <c r="K611" s="78"/>
-      <c r="L611" s="79"/>
+      <c r="K611" s="81"/>
+      <c r="L611" s="82"/>
       <c r="M611" s="67"/>
       <c r="N611" s="67"/>
       <c r="O611" s="67"/>
@@ -20771,8 +20908,8 @@
       <c r="Y611" s="67"/>
     </row>
     <row r="612" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A612" s="76"/>
-      <c r="B612" s="77"/>
+      <c r="A612" s="79"/>
+      <c r="B612" s="80"/>
       <c r="C612" s="66"/>
       <c r="D612" s="24">
         <v>45705</v>
@@ -20793,8 +20930,8 @@
         <v>0.3611111111111111</v>
       </c>
       <c r="J612" s="66"/>
-      <c r="K612" s="78"/>
-      <c r="L612" s="79"/>
+      <c r="K612" s="81"/>
+      <c r="L612" s="82"/>
       <c r="M612" s="66"/>
       <c r="N612" s="66"/>
       <c r="O612" s="66"/>
@@ -20810,8 +20947,8 @@
       <c r="Y612" s="66"/>
     </row>
     <row r="613" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A613" s="76"/>
-      <c r="B613" s="77"/>
+      <c r="A613" s="79"/>
+      <c r="B613" s="80"/>
       <c r="C613" s="67"/>
       <c r="D613" s="36">
         <v>45705</v>
@@ -20832,8 +20969,8 @@
         <v>0.3756944444444445</v>
       </c>
       <c r="J613" s="67"/>
-      <c r="K613" s="78"/>
-      <c r="L613" s="79"/>
+      <c r="K613" s="81"/>
+      <c r="L613" s="82"/>
       <c r="M613" s="67"/>
       <c r="N613" s="67"/>
       <c r="O613" s="67"/>
@@ -20849,8 +20986,8 @@
       <c r="Y613" s="67"/>
     </row>
     <row r="614" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A614" s="76"/>
-      <c r="B614" s="77"/>
+      <c r="A614" s="79"/>
+      <c r="B614" s="80"/>
       <c r="C614" s="67"/>
       <c r="D614" s="36">
         <v>45705</v>
@@ -20871,8 +21008,8 @@
         <v>0.3979166666666667</v>
       </c>
       <c r="J614" s="67"/>
-      <c r="K614" s="78"/>
-      <c r="L614" s="79"/>
+      <c r="K614" s="81"/>
+      <c r="L614" s="82"/>
       <c r="M614" s="67"/>
       <c r="N614" s="67"/>
       <c r="O614" s="67"/>
@@ -20888,8 +21025,8 @@
       <c r="Y614" s="67"/>
     </row>
     <row r="615" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A615" s="76"/>
-      <c r="B615" s="77"/>
+      <c r="A615" s="79"/>
+      <c r="B615" s="80"/>
       <c r="C615" s="67"/>
       <c r="D615" s="36">
         <v>45705</v>
@@ -20910,8 +21047,8 @@
         <v>0.41319444444444442</v>
       </c>
       <c r="J615" s="67"/>
-      <c r="K615" s="78"/>
-      <c r="L615" s="79"/>
+      <c r="K615" s="81"/>
+      <c r="L615" s="82"/>
       <c r="M615" s="67"/>
       <c r="N615" s="67"/>
       <c r="O615" s="67"/>
@@ -20927,8 +21064,8 @@
       <c r="Y615" s="67"/>
     </row>
     <row r="616" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A616" s="76"/>
-      <c r="B616" s="77"/>
+      <c r="A616" s="79"/>
+      <c r="B616" s="80"/>
       <c r="C616" s="66"/>
       <c r="D616" s="24">
         <v>45705</v>
@@ -20949,8 +21086,8 @@
         <v>0.46875</v>
       </c>
       <c r="J616" s="66"/>
-      <c r="K616" s="78"/>
-      <c r="L616" s="79"/>
+      <c r="K616" s="81"/>
+      <c r="L616" s="82"/>
       <c r="M616" s="66"/>
       <c r="N616" s="66"/>
       <c r="O616" s="66"/>
@@ -20966,9 +21103,9 @@
       <c r="Y616" s="66"/>
     </row>
     <row r="617" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A617" s="78"/>
-      <c r="B617" s="89"/>
-      <c r="C617" s="79"/>
+      <c r="A617" s="81"/>
+      <c r="B617" s="92"/>
+      <c r="C617" s="82"/>
       <c r="D617" s="24">
         <v>45705</v>
       </c>
@@ -21005,9 +21142,9 @@
       <c r="Y617" s="66"/>
     </row>
     <row r="618" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A618" s="76"/>
-      <c r="B618" s="90"/>
-      <c r="C618" s="77"/>
+      <c r="A618" s="79"/>
+      <c r="B618" s="93"/>
+      <c r="C618" s="80"/>
       <c r="D618" s="36">
         <v>45705</v>
       </c>
@@ -21027,8 +21164,8 @@
         <v>0.52777777777777779</v>
       </c>
       <c r="J618" s="67"/>
-      <c r="K618" s="78"/>
-      <c r="L618" s="79"/>
+      <c r="K618" s="81"/>
+      <c r="L618" s="82"/>
       <c r="M618" s="67"/>
       <c r="N618" s="67"/>
       <c r="O618" s="67"/>
@@ -21044,8 +21181,8 @@
       <c r="Y618" s="67"/>
     </row>
     <row r="619" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A619" s="76"/>
-      <c r="B619" s="77"/>
+      <c r="A619" s="79"/>
+      <c r="B619" s="80"/>
       <c r="C619" s="66"/>
       <c r="D619" s="24">
         <v>45706</v>
@@ -21066,8 +21203,8 @@
         <v>0.36458333333333331</v>
       </c>
       <c r="J619" s="66"/>
-      <c r="K619" s="78"/>
-      <c r="L619" s="79"/>
+      <c r="K619" s="81"/>
+      <c r="L619" s="82"/>
       <c r="M619" s="66"/>
       <c r="N619" s="66"/>
       <c r="O619" s="66"/>
@@ -21083,8 +21220,8 @@
       <c r="Y619" s="66"/>
     </row>
     <row r="620" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A620" s="76"/>
-      <c r="B620" s="77"/>
+      <c r="A620" s="79"/>
+      <c r="B620" s="80"/>
       <c r="C620" s="67"/>
       <c r="D620" s="36">
         <v>45706</v>
@@ -21105,8 +21242,8 @@
         <v>0.40833333333333338</v>
       </c>
       <c r="J620" s="67"/>
-      <c r="K620" s="78"/>
-      <c r="L620" s="79"/>
+      <c r="K620" s="81"/>
+      <c r="L620" s="82"/>
       <c r="M620" s="67"/>
       <c r="N620" s="67"/>
       <c r="O620" s="67"/>
@@ -21122,8 +21259,8 @@
       <c r="Y620" s="67"/>
     </row>
     <row r="621" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A621" s="76"/>
-      <c r="B621" s="77"/>
+      <c r="A621" s="79"/>
+      <c r="B621" s="80"/>
       <c r="C621" s="67"/>
       <c r="D621" s="36">
         <v>45706</v>
@@ -21144,8 +21281,8 @@
         <v>0.4375</v>
       </c>
       <c r="J621" s="67"/>
-      <c r="K621" s="78"/>
-      <c r="L621" s="79"/>
+      <c r="K621" s="81"/>
+      <c r="L621" s="82"/>
       <c r="M621" s="67"/>
       <c r="N621" s="67"/>
       <c r="O621" s="67"/>
@@ -21161,8 +21298,8 @@
       <c r="Y621" s="67"/>
     </row>
     <row r="622" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A622" s="76"/>
-      <c r="B622" s="77"/>
+      <c r="A622" s="79"/>
+      <c r="B622" s="80"/>
       <c r="C622" s="66"/>
       <c r="D622" s="24">
         <v>45707</v>
@@ -21183,8 +21320,8 @@
         <v>0.42708333333333331</v>
       </c>
       <c r="J622" s="66"/>
-      <c r="K622" s="78"/>
-      <c r="L622" s="79"/>
+      <c r="K622" s="81"/>
+      <c r="L622" s="82"/>
       <c r="M622" s="66"/>
       <c r="N622" s="66"/>
       <c r="O622" s="66"/>
@@ -21200,8 +21337,8 @@
       <c r="Y622" s="66"/>
     </row>
     <row r="623" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A623" s="76"/>
-      <c r="B623" s="77"/>
+      <c r="A623" s="79"/>
+      <c r="B623" s="80"/>
       <c r="C623" s="66"/>
       <c r="D623" s="24">
         <v>45707</v>
@@ -21222,8 +21359,8 @@
         <v>0.50694444444444442</v>
       </c>
       <c r="J623" s="66"/>
-      <c r="K623" s="78"/>
-      <c r="L623" s="79"/>
+      <c r="K623" s="81"/>
+      <c r="L623" s="82"/>
       <c r="M623" s="66"/>
       <c r="N623" s="66"/>
       <c r="O623" s="66"/>
@@ -21239,8 +21376,8 @@
       <c r="Y623" s="66"/>
     </row>
     <row r="624" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A624" s="76"/>
-      <c r="B624" s="77"/>
+      <c r="A624" s="79"/>
+      <c r="B624" s="80"/>
       <c r="C624" s="66"/>
       <c r="D624" s="24">
         <v>45707</v>
@@ -21261,8 +21398,8 @@
         <v>0.53819444444444442</v>
       </c>
       <c r="J624" s="66"/>
-      <c r="K624" s="78"/>
-      <c r="L624" s="79"/>
+      <c r="K624" s="81"/>
+      <c r="L624" s="82"/>
       <c r="M624" s="66"/>
       <c r="N624" s="66"/>
       <c r="O624" s="66"/>
@@ -21278,8 +21415,8 @@
       <c r="Y624" s="66"/>
     </row>
     <row r="625" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A625" s="76"/>
-      <c r="B625" s="77"/>
+      <c r="A625" s="79"/>
+      <c r="B625" s="80"/>
       <c r="C625" s="66"/>
       <c r="D625" s="24">
         <v>45707</v>
@@ -21300,8 +21437,8 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="J625" s="66"/>
-      <c r="K625" s="78"/>
-      <c r="L625" s="79"/>
+      <c r="K625" s="81"/>
+      <c r="L625" s="82"/>
       <c r="M625" s="66"/>
       <c r="N625" s="66"/>
       <c r="O625" s="66"/>
@@ -21317,8 +21454,8 @@
       <c r="Y625" s="66"/>
     </row>
     <row r="626" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A626" s="76"/>
-      <c r="B626" s="77"/>
+      <c r="A626" s="79"/>
+      <c r="B626" s="80"/>
       <c r="C626" s="67"/>
       <c r="D626" s="36">
         <v>45708</v>
@@ -21339,8 +21476,8 @@
         <v>0.375</v>
       </c>
       <c r="J626" s="67"/>
-      <c r="K626" s="78"/>
-      <c r="L626" s="79"/>
+      <c r="K626" s="81"/>
+      <c r="L626" s="82"/>
       <c r="M626" s="67"/>
       <c r="N626" s="67"/>
       <c r="O626" s="67"/>
@@ -21356,8 +21493,8 @@
       <c r="Y626" s="67"/>
     </row>
     <row r="627" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A627" s="76"/>
-      <c r="B627" s="77"/>
+      <c r="A627" s="79"/>
+      <c r="B627" s="80"/>
       <c r="C627" s="66"/>
       <c r="D627" s="24">
         <v>45708</v>
@@ -21378,8 +21515,8 @@
         <v>0.4201388888888889</v>
       </c>
       <c r="J627" s="66"/>
-      <c r="K627" s="78"/>
-      <c r="L627" s="79"/>
+      <c r="K627" s="81"/>
+      <c r="L627" s="82"/>
       <c r="M627" s="66"/>
       <c r="N627" s="66"/>
       <c r="O627" s="66"/>
@@ -21395,8 +21532,8 @@
       <c r="Y627" s="66"/>
     </row>
     <row r="628" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A628" s="76"/>
-      <c r="B628" s="77"/>
+      <c r="A628" s="79"/>
+      <c r="B628" s="80"/>
       <c r="C628" s="67"/>
       <c r="D628" s="36">
         <v>45708</v>
@@ -21417,8 +21554,8 @@
         <v>0.47569444444444442</v>
       </c>
       <c r="J628" s="67"/>
-      <c r="K628" s="78"/>
-      <c r="L628" s="79"/>
+      <c r="K628" s="81"/>
+      <c r="L628" s="82"/>
       <c r="M628" s="67"/>
       <c r="N628" s="67"/>
       <c r="O628" s="67"/>
@@ -21434,8 +21571,8 @@
       <c r="Y628" s="67"/>
     </row>
     <row r="629" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A629" s="76"/>
-      <c r="B629" s="77"/>
+      <c r="A629" s="79"/>
+      <c r="B629" s="80"/>
       <c r="C629" s="66"/>
       <c r="D629" s="24">
         <v>45708</v>
@@ -21456,8 +21593,8 @@
         <v>0.5</v>
       </c>
       <c r="J629" s="66"/>
-      <c r="K629" s="78"/>
-      <c r="L629" s="79"/>
+      <c r="K629" s="81"/>
+      <c r="L629" s="82"/>
       <c r="M629" s="66"/>
       <c r="N629" s="66"/>
       <c r="O629" s="66"/>
@@ -21473,8 +21610,8 @@
       <c r="Y629" s="66"/>
     </row>
     <row r="630" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A630" s="76"/>
-      <c r="B630" s="77"/>
+      <c r="A630" s="79"/>
+      <c r="B630" s="80"/>
       <c r="C630" s="66"/>
       <c r="D630" s="24">
         <v>45708</v>
@@ -21495,8 +21632,8 @@
         <v>0.53819444444444442</v>
       </c>
       <c r="J630" s="66"/>
-      <c r="K630" s="78"/>
-      <c r="L630" s="79"/>
+      <c r="K630" s="81"/>
+      <c r="L630" s="82"/>
       <c r="M630" s="66"/>
       <c r="N630" s="66"/>
       <c r="O630" s="66"/>
@@ -21512,8 +21649,8 @@
       <c r="Y630" s="66"/>
     </row>
     <row r="631" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A631" s="76"/>
-      <c r="B631" s="77"/>
+      <c r="A631" s="79"/>
+      <c r="B631" s="80"/>
       <c r="C631" s="66"/>
       <c r="D631" s="24">
         <v>45708</v>
@@ -21534,8 +21671,8 @@
         <v>0.54375000000000007</v>
       </c>
       <c r="J631" s="66"/>
-      <c r="K631" s="78"/>
-      <c r="L631" s="79"/>
+      <c r="K631" s="81"/>
+      <c r="L631" s="82"/>
       <c r="M631" s="66"/>
       <c r="N631" s="66"/>
       <c r="O631" s="66"/>
@@ -21590,8 +21727,8 @@
       <c r="Y632" s="70"/>
     </row>
     <row r="633" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A633" s="76"/>
-      <c r="B633" s="77"/>
+      <c r="A633" s="79"/>
+      <c r="B633" s="80"/>
       <c r="C633" s="67"/>
       <c r="D633" s="36">
         <v>45709</v>
@@ -21612,8 +21749,8 @@
         <v>0.38194444444444442</v>
       </c>
       <c r="J633" s="67"/>
-      <c r="K633" s="78"/>
-      <c r="L633" s="79"/>
+      <c r="K633" s="81"/>
+      <c r="L633" s="82"/>
       <c r="M633" s="67"/>
       <c r="N633" s="67"/>
       <c r="O633" s="67"/>
@@ -21629,8 +21766,8 @@
       <c r="Y633" s="67"/>
     </row>
     <row r="634" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A634" s="76"/>
-      <c r="B634" s="77"/>
+      <c r="A634" s="79"/>
+      <c r="B634" s="80"/>
       <c r="C634" s="67"/>
       <c r="D634" s="74">
         <v>45709</v>
@@ -21651,8 +21788,8 @@
         <v>0.4145833333333333</v>
       </c>
       <c r="J634" s="67"/>
-      <c r="K634" s="78"/>
-      <c r="L634" s="79"/>
+      <c r="K634" s="81"/>
+      <c r="L634" s="82"/>
       <c r="M634" s="67"/>
       <c r="N634" s="67"/>
       <c r="O634" s="67"/>
@@ -21668,8 +21805,8 @@
       <c r="Y634" s="67"/>
     </row>
     <row r="635" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A635" s="76"/>
-      <c r="B635" s="77"/>
+      <c r="A635" s="79"/>
+      <c r="B635" s="80"/>
       <c r="C635" s="66"/>
       <c r="D635" s="24">
         <v>45709</v>
@@ -21690,8 +21827,8 @@
         <v>0.49652777777777773</v>
       </c>
       <c r="J635" s="66"/>
-      <c r="K635" s="78"/>
-      <c r="L635" s="79"/>
+      <c r="K635" s="81"/>
+      <c r="L635" s="82"/>
       <c r="M635" s="66"/>
       <c r="N635" s="66"/>
       <c r="O635" s="66"/>
@@ -21707,8 +21844,8 @@
       <c r="Y635" s="66"/>
     </row>
     <row r="636" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A636" s="76"/>
-      <c r="B636" s="77"/>
+      <c r="A636" s="79"/>
+      <c r="B636" s="80"/>
       <c r="C636" s="66"/>
       <c r="D636" s="24">
         <v>45709</v>
@@ -21729,8 +21866,8 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="J636" s="66"/>
-      <c r="K636" s="78"/>
-      <c r="L636" s="79"/>
+      <c r="K636" s="81"/>
+      <c r="L636" s="82"/>
       <c r="M636" s="66"/>
       <c r="N636" s="66"/>
       <c r="O636" s="66"/>
@@ -21745,391 +21882,1879 @@
       <c r="X636" s="66"/>
       <c r="Y636" s="66"/>
     </row>
-    <row r="637" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D637" s="11"/>
-      <c r="E637" s="10"/>
-      <c r="F637" s="10"/>
-      <c r="G637" s="10"/>
-      <c r="H637" s="11"/>
-      <c r="I637" s="11"/>
-    </row>
-    <row r="638" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D638" s="11"/>
-      <c r="E638" s="10"/>
-      <c r="F638" s="10"/>
-      <c r="G638" s="10"/>
-      <c r="H638" s="11"/>
-      <c r="I638" s="11"/>
-    </row>
-    <row r="639" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D639" s="11"/>
-      <c r="E639" s="10"/>
-      <c r="F639" s="10"/>
-      <c r="G639" s="10"/>
-      <c r="H639" s="11"/>
-      <c r="I639" s="11"/>
-    </row>
-    <row r="640" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D640" s="11"/>
-      <c r="E640" s="10"/>
-      <c r="F640" s="10"/>
-      <c r="G640" s="10"/>
-      <c r="H640" s="11"/>
-      <c r="I640" s="11"/>
-    </row>
-    <row r="641" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D641" s="11"/>
-      <c r="E641" s="10"/>
-      <c r="F641" s="10"/>
-      <c r="G641" s="10"/>
-      <c r="H641" s="11"/>
-      <c r="I641" s="11"/>
-    </row>
-    <row r="642" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D642" s="11"/>
-      <c r="E642" s="10"/>
-      <c r="F642" s="10"/>
-      <c r="G642" s="10"/>
-      <c r="H642" s="11"/>
-      <c r="I642" s="11"/>
-    </row>
-    <row r="643" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D643" s="11"/>
-      <c r="E643" s="10"/>
-      <c r="F643" s="10"/>
-      <c r="G643" s="10"/>
-      <c r="H643" s="11"/>
-      <c r="I643" s="11"/>
-    </row>
-    <row r="644" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D644" s="11"/>
-      <c r="E644" s="10"/>
-      <c r="F644" s="10"/>
-      <c r="G644" s="10"/>
-      <c r="H644" s="11"/>
-      <c r="I644" s="11"/>
-    </row>
-    <row r="645" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D645" s="11"/>
-      <c r="E645" s="10"/>
-      <c r="F645" s="10"/>
-      <c r="G645" s="10"/>
-      <c r="H645" s="11"/>
-      <c r="I645" s="11"/>
-    </row>
-    <row r="646" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D646" s="11"/>
-      <c r="E646" s="10"/>
-      <c r="F646" s="10"/>
-      <c r="G646" s="10"/>
-      <c r="H646" s="11"/>
-      <c r="I646" s="11"/>
-    </row>
-    <row r="647" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D647" s="11"/>
-      <c r="E647" s="10"/>
-      <c r="F647" s="10"/>
-      <c r="G647" s="10"/>
-      <c r="H647" s="11"/>
-      <c r="I647" s="11"/>
-    </row>
-    <row r="648" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D648" s="11"/>
-      <c r="E648" s="10"/>
-      <c r="F648" s="10"/>
-      <c r="G648" s="10"/>
-      <c r="H648" s="11"/>
-      <c r="I648" s="11"/>
-    </row>
-    <row r="649" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D649" s="11"/>
-      <c r="E649" s="10"/>
-      <c r="F649" s="10"/>
-      <c r="G649" s="10"/>
-      <c r="H649" s="11"/>
-      <c r="I649" s="11"/>
-    </row>
-    <row r="650" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D650" s="11"/>
-      <c r="E650" s="10"/>
-      <c r="F650" s="10"/>
-      <c r="G650" s="10"/>
-      <c r="H650" s="11"/>
-      <c r="I650" s="11"/>
-    </row>
-    <row r="651" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D651" s="11"/>
-      <c r="E651" s="10"/>
-      <c r="F651" s="10"/>
-      <c r="G651" s="10"/>
-      <c r="H651" s="11"/>
-      <c r="I651" s="11"/>
-    </row>
-    <row r="652" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D652" s="11"/>
-      <c r="E652" s="10"/>
-      <c r="F652" s="10"/>
-      <c r="G652" s="10"/>
-      <c r="H652" s="11"/>
-      <c r="I652" s="11"/>
-    </row>
-    <row r="653" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D653" s="11"/>
-      <c r="E653" s="10"/>
-      <c r="F653" s="10"/>
-      <c r="G653" s="10"/>
-      <c r="H653" s="11"/>
-      <c r="I653" s="11"/>
-    </row>
-    <row r="654" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D654" s="11"/>
-      <c r="E654" s="10"/>
-      <c r="F654" s="10"/>
-      <c r="G654" s="10"/>
-      <c r="H654" s="11"/>
-      <c r="I654" s="11"/>
-    </row>
-    <row r="655" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D655" s="11"/>
-      <c r="E655" s="10"/>
-      <c r="F655" s="10"/>
-      <c r="G655" s="10"/>
-      <c r="H655" s="11"/>
-      <c r="I655" s="11"/>
-    </row>
-    <row r="656" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D656" s="11"/>
-      <c r="E656" s="10"/>
-      <c r="F656" s="10"/>
-      <c r="G656" s="10"/>
-      <c r="H656" s="11"/>
-      <c r="I656" s="11"/>
-    </row>
-    <row r="657" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D657" s="11"/>
-      <c r="E657" s="10"/>
-      <c r="F657" s="10"/>
-      <c r="G657" s="10"/>
-      <c r="H657" s="11"/>
-      <c r="I657" s="11"/>
-    </row>
-    <row r="658" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D658" s="11"/>
-      <c r="E658" s="10"/>
-      <c r="F658" s="10"/>
-      <c r="G658" s="10"/>
-      <c r="H658" s="11"/>
-      <c r="I658" s="11"/>
-    </row>
-    <row r="659" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D659" s="11"/>
-      <c r="E659" s="10"/>
-      <c r="F659" s="10"/>
-      <c r="G659" s="10"/>
-      <c r="H659" s="11"/>
-      <c r="I659" s="11"/>
-    </row>
-    <row r="660" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D660" s="11"/>
-      <c r="E660" s="10"/>
-      <c r="F660" s="10"/>
-      <c r="G660" s="10"/>
-      <c r="H660" s="11"/>
-      <c r="I660" s="11"/>
-    </row>
-    <row r="661" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D661" s="11"/>
-      <c r="E661" s="10"/>
-      <c r="F661" s="10"/>
-      <c r="G661" s="10"/>
-      <c r="H661" s="11"/>
-      <c r="I661" s="11"/>
-    </row>
-    <row r="662" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D662" s="11"/>
-      <c r="E662" s="10"/>
-      <c r="F662" s="10"/>
-      <c r="G662" s="10"/>
-      <c r="H662" s="11"/>
-      <c r="I662" s="11"/>
-    </row>
-    <row r="663" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D663" s="11"/>
-      <c r="E663" s="10"/>
-      <c r="F663" s="10"/>
-      <c r="G663" s="10"/>
-      <c r="H663" s="11"/>
-      <c r="I663" s="11"/>
-    </row>
-    <row r="664" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D664" s="11"/>
-      <c r="E664" s="10"/>
-      <c r="F664" s="10"/>
-      <c r="G664" s="10"/>
-      <c r="H664" s="11"/>
-      <c r="I664" s="11"/>
-    </row>
-    <row r="665" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D665" s="11"/>
-      <c r="E665" s="10"/>
-      <c r="F665" s="10"/>
-      <c r="G665" s="10"/>
-      <c r="H665" s="11"/>
-      <c r="I665" s="11"/>
-    </row>
-    <row r="666" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D666" s="11"/>
-      <c r="E666" s="10"/>
-      <c r="F666" s="10"/>
-      <c r="G666" s="10"/>
-      <c r="H666" s="11"/>
-      <c r="I666" s="11"/>
-    </row>
-    <row r="667" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D667" s="11"/>
-      <c r="E667" s="10"/>
-      <c r="F667" s="10"/>
-      <c r="G667" s="10"/>
-      <c r="H667" s="11"/>
-      <c r="I667" s="11"/>
-    </row>
-    <row r="668" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D668" s="11"/>
-      <c r="E668" s="10"/>
-      <c r="F668" s="10"/>
-      <c r="G668" s="10"/>
-      <c r="H668" s="11"/>
-      <c r="I668" s="11"/>
-    </row>
-    <row r="669" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D669" s="11"/>
-      <c r="E669" s="10"/>
-      <c r="F669" s="10"/>
-      <c r="G669" s="10"/>
-      <c r="H669" s="11"/>
-      <c r="I669" s="11"/>
-    </row>
-    <row r="670" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D670" s="11"/>
-      <c r="E670" s="10"/>
-      <c r="F670" s="10"/>
-      <c r="G670" s="10"/>
-      <c r="H670" s="11"/>
-      <c r="I670" s="11"/>
-    </row>
-    <row r="671" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D671" s="11"/>
-      <c r="E671" s="10"/>
-      <c r="F671" s="10"/>
-      <c r="G671" s="10"/>
-      <c r="H671" s="11"/>
-      <c r="I671" s="11"/>
-    </row>
-    <row r="672" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D672" s="11"/>
-      <c r="E672" s="10"/>
-      <c r="F672" s="10"/>
-      <c r="G672" s="10"/>
-      <c r="H672" s="11"/>
-      <c r="I672" s="11"/>
-    </row>
-    <row r="673" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D673" s="11"/>
-      <c r="E673" s="10"/>
-      <c r="F673" s="10"/>
-      <c r="G673" s="10"/>
-      <c r="H673" s="11"/>
-      <c r="I673" s="11"/>
-    </row>
-    <row r="674" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D674" s="11"/>
-      <c r="E674" s="10"/>
-      <c r="F674" s="10"/>
-      <c r="G674" s="10"/>
-      <c r="H674" s="11"/>
-      <c r="I674" s="11"/>
-    </row>
-    <row r="675" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D675" s="11"/>
-      <c r="E675" s="10"/>
-      <c r="F675" s="10"/>
-      <c r="G675" s="10"/>
-      <c r="H675" s="11"/>
-      <c r="I675" s="11"/>
-    </row>
-    <row r="676" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D676" s="11"/>
-      <c r="E676" s="10"/>
-      <c r="F676" s="10"/>
-      <c r="G676" s="10"/>
-      <c r="H676" s="11"/>
-      <c r="I676" s="11"/>
-    </row>
-    <row r="677" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D677" s="11"/>
-      <c r="E677" s="10"/>
-      <c r="F677" s="10"/>
-      <c r="G677" s="10"/>
-      <c r="H677" s="11"/>
-      <c r="I677" s="11"/>
-    </row>
-    <row r="678" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D678" s="11"/>
-      <c r="E678" s="10"/>
-      <c r="F678" s="10"/>
-      <c r="G678" s="10"/>
-      <c r="H678" s="11"/>
-      <c r="I678" s="11"/>
-    </row>
-    <row r="679" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D679" s="11"/>
-      <c r="E679" s="10"/>
-      <c r="F679" s="10"/>
-      <c r="G679" s="10"/>
-      <c r="H679" s="11"/>
-      <c r="I679" s="11"/>
-    </row>
-    <row r="680" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D680" s="11"/>
-      <c r="E680" s="10"/>
-      <c r="F680" s="10"/>
-      <c r="G680" s="10"/>
-      <c r="H680" s="11"/>
-      <c r="I680" s="11"/>
-    </row>
-    <row r="681" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D681" s="11"/>
-      <c r="E681" s="10"/>
-      <c r="F681" s="10"/>
-      <c r="G681" s="10"/>
-      <c r="H681" s="11"/>
-      <c r="I681" s="11"/>
-    </row>
-    <row r="682" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D682" s="11"/>
-      <c r="E682" s="10"/>
-      <c r="F682" s="10"/>
-      <c r="G682" s="10"/>
-      <c r="H682" s="11"/>
-      <c r="I682" s="11"/>
-    </row>
-    <row r="683" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D683" s="11"/>
-      <c r="E683" s="10"/>
-      <c r="F683" s="10"/>
-      <c r="G683" s="10"/>
-      <c r="H683" s="11"/>
-      <c r="I683" s="11"/>
-    </row>
-    <row r="684" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D684" s="11"/>
-      <c r="E684" s="10"/>
-      <c r="F684" s="10"/>
-      <c r="G684" s="10"/>
-      <c r="H684" s="11"/>
-      <c r="I684" s="11"/>
-    </row>
-    <row r="685" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A637" s="79"/>
+      <c r="B637" s="80"/>
+      <c r="C637" s="66"/>
+      <c r="D637" s="24">
+        <v>45712</v>
+      </c>
+      <c r="E637" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F637" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G637" s="15" t="s">
+        <v>580</v>
+      </c>
+      <c r="H637" s="16">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="I637" s="16">
+        <v>0.34097222222222223</v>
+      </c>
+      <c r="J637" s="66"/>
+      <c r="K637" s="81"/>
+      <c r="L637" s="82"/>
+      <c r="M637" s="66"/>
+      <c r="N637" s="66"/>
+      <c r="O637" s="66"/>
+      <c r="P637" s="66"/>
+      <c r="Q637" s="66"/>
+      <c r="R637" s="66"/>
+      <c r="S637" s="66"/>
+      <c r="T637" s="66"/>
+      <c r="U637" s="66"/>
+      <c r="V637" s="66"/>
+      <c r="W637" s="66"/>
+      <c r="X637" s="66"/>
+      <c r="Y637" s="66"/>
+    </row>
+    <row r="638" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A638" s="79"/>
+      <c r="B638" s="80"/>
+      <c r="C638" s="67"/>
+      <c r="D638" s="36">
+        <v>45712</v>
+      </c>
+      <c r="E638" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F638" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G638" s="18" t="s">
+        <v>581</v>
+      </c>
+      <c r="H638" s="19">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="I638" s="19">
+        <v>0.37013888888888885</v>
+      </c>
+      <c r="J638" s="67"/>
+      <c r="K638" s="81"/>
+      <c r="L638" s="82"/>
+      <c r="M638" s="67"/>
+      <c r="N638" s="67"/>
+      <c r="O638" s="67"/>
+      <c r="P638" s="67"/>
+      <c r="Q638" s="67"/>
+      <c r="R638" s="67"/>
+      <c r="S638" s="67"/>
+      <c r="T638" s="67"/>
+      <c r="U638" s="67"/>
+      <c r="V638" s="67"/>
+      <c r="W638" s="67"/>
+      <c r="X638" s="67"/>
+      <c r="Y638" s="67"/>
+    </row>
+    <row r="639" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A639" s="68"/>
+      <c r="B639" s="67"/>
+      <c r="C639" s="67"/>
+      <c r="D639" s="36">
+        <v>45712</v>
+      </c>
+      <c r="E639" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F639" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G639" s="18" t="s">
+        <v>582</v>
+      </c>
+      <c r="H639" s="19">
+        <v>0.37083333333333335</v>
+      </c>
+      <c r="I639" s="19">
+        <v>0.37152777777777773</v>
+      </c>
+      <c r="J639" s="67"/>
+      <c r="K639" s="67"/>
+      <c r="L639" s="67"/>
+      <c r="M639" s="67"/>
+      <c r="N639" s="67"/>
+      <c r="O639" s="67"/>
+      <c r="P639" s="67"/>
+      <c r="Q639" s="67"/>
+      <c r="R639" s="67"/>
+      <c r="S639" s="67"/>
+      <c r="T639" s="67"/>
+      <c r="U639" s="67"/>
+      <c r="V639" s="67"/>
+      <c r="W639" s="67"/>
+      <c r="X639" s="67"/>
+      <c r="Y639" s="67"/>
+    </row>
+    <row r="640" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A640" s="79"/>
+      <c r="B640" s="80"/>
+      <c r="C640" s="67"/>
+      <c r="D640" s="36">
+        <v>45712</v>
+      </c>
+      <c r="E640" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F640" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G640" s="18" t="s">
+        <v>583</v>
+      </c>
+      <c r="H640" s="19">
+        <v>0.37222222222222223</v>
+      </c>
+      <c r="I640" s="19">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="J640" s="67"/>
+      <c r="K640" s="81"/>
+      <c r="L640" s="82"/>
+      <c r="M640" s="67"/>
+      <c r="N640" s="67"/>
+      <c r="O640" s="67"/>
+      <c r="P640" s="67"/>
+      <c r="Q640" s="67"/>
+      <c r="R640" s="67"/>
+      <c r="S640" s="67"/>
+      <c r="T640" s="67"/>
+      <c r="U640" s="67"/>
+      <c r="V640" s="67"/>
+      <c r="W640" s="67"/>
+      <c r="X640" s="67"/>
+      <c r="Y640" s="67"/>
+    </row>
+    <row r="641" spans="1:25" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A641" s="68"/>
+      <c r="B641" s="67"/>
+      <c r="C641" s="67"/>
+      <c r="D641" s="36">
+        <v>45712</v>
+      </c>
+      <c r="E641" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F641" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G641" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="H641" s="19">
+        <v>0.4069444444444445</v>
+      </c>
+      <c r="I641" s="19">
+        <v>0.40763888888888888</v>
+      </c>
+      <c r="J641" s="67"/>
+      <c r="K641" s="67"/>
+      <c r="L641" s="67"/>
+      <c r="M641" s="67"/>
+      <c r="N641" s="67"/>
+      <c r="O641" s="67"/>
+      <c r="P641" s="67"/>
+      <c r="Q641" s="67"/>
+      <c r="R641" s="67"/>
+      <c r="S641" s="67"/>
+      <c r="T641" s="67"/>
+      <c r="U641" s="67"/>
+      <c r="V641" s="67"/>
+      <c r="W641" s="67"/>
+      <c r="X641" s="67"/>
+      <c r="Y641" s="67"/>
+    </row>
+    <row r="642" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A642" s="79"/>
+      <c r="B642" s="80"/>
+      <c r="C642" s="67"/>
+      <c r="D642" s="36">
+        <v>45712</v>
+      </c>
+      <c r="E642" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F642" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G642" s="18" t="s">
+        <v>585</v>
+      </c>
+      <c r="H642" s="19">
+        <v>0.40833333333333338</v>
+      </c>
+      <c r="I642" s="19">
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="J642" s="67"/>
+      <c r="K642" s="81"/>
+      <c r="L642" s="82"/>
+      <c r="M642" s="67"/>
+      <c r="N642" s="67"/>
+      <c r="O642" s="67"/>
+      <c r="P642" s="67"/>
+      <c r="Q642" s="67"/>
+      <c r="R642" s="67"/>
+      <c r="S642" s="67"/>
+      <c r="T642" s="67"/>
+      <c r="U642" s="67"/>
+      <c r="V642" s="67"/>
+      <c r="W642" s="67"/>
+      <c r="X642" s="67"/>
+      <c r="Y642" s="67"/>
+    </row>
+    <row r="643" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A643" s="79"/>
+      <c r="B643" s="80"/>
+      <c r="C643" s="66"/>
+      <c r="D643" s="24">
+        <v>45712</v>
+      </c>
+      <c r="E643" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F643" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G643" s="15" t="s">
+        <v>586</v>
+      </c>
+      <c r="H643" s="16">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="I643" s="16">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="J643" s="66"/>
+      <c r="K643" s="81"/>
+      <c r="L643" s="82"/>
+      <c r="M643" s="66"/>
+      <c r="N643" s="66"/>
+      <c r="O643" s="66"/>
+      <c r="P643" s="66"/>
+      <c r="Q643" s="66"/>
+      <c r="R643" s="66"/>
+      <c r="S643" s="66"/>
+      <c r="T643" s="66"/>
+      <c r="U643" s="66"/>
+      <c r="V643" s="66"/>
+      <c r="W643" s="66"/>
+      <c r="X643" s="66"/>
+      <c r="Y643" s="66"/>
+    </row>
+    <row r="644" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A644" s="79"/>
+      <c r="B644" s="80"/>
+      <c r="C644" s="66"/>
+      <c r="D644" s="24">
+        <v>45712</v>
+      </c>
+      <c r="E644" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F644" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G644" s="15" t="s">
+        <v>587</v>
+      </c>
+      <c r="H644" s="16">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="I644" s="16">
+        <v>0.5625</v>
+      </c>
+      <c r="J644" s="66"/>
+      <c r="K644" s="81"/>
+      <c r="L644" s="82"/>
+      <c r="M644" s="66"/>
+      <c r="N644" s="66"/>
+      <c r="O644" s="66"/>
+      <c r="P644" s="66"/>
+      <c r="Q644" s="66"/>
+      <c r="R644" s="66"/>
+      <c r="S644" s="66"/>
+      <c r="T644" s="66"/>
+      <c r="U644" s="66"/>
+      <c r="V644" s="66"/>
+      <c r="W644" s="66"/>
+      <c r="X644" s="66"/>
+      <c r="Y644" s="66"/>
+    </row>
+    <row r="645" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A645" s="79"/>
+      <c r="B645" s="80"/>
+      <c r="C645" s="67"/>
+      <c r="D645" s="36">
+        <v>45712</v>
+      </c>
+      <c r="E645" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F645" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G645" s="18" t="s">
+        <v>588</v>
+      </c>
+      <c r="H645" s="19">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="I645" s="19">
+        <v>0.57361111111111118</v>
+      </c>
+      <c r="J645" s="67"/>
+      <c r="K645" s="81"/>
+      <c r="L645" s="82"/>
+      <c r="M645" s="67"/>
+      <c r="N645" s="67"/>
+      <c r="O645" s="67"/>
+      <c r="P645" s="67"/>
+      <c r="Q645" s="67"/>
+      <c r="R645" s="67"/>
+      <c r="S645" s="67"/>
+      <c r="T645" s="67"/>
+      <c r="U645" s="67"/>
+      <c r="V645" s="67"/>
+      <c r="W645" s="67"/>
+      <c r="X645" s="67"/>
+      <c r="Y645" s="67"/>
+    </row>
+    <row r="646" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A646" s="79"/>
+      <c r="B646" s="80"/>
+      <c r="C646" s="66"/>
+      <c r="D646" s="24">
+        <v>45713</v>
+      </c>
+      <c r="E646" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F646" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G646" s="15" t="s">
+        <v>589</v>
+      </c>
+      <c r="H646" s="16">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="I646" s="16">
+        <v>0.34027777777777773</v>
+      </c>
+      <c r="J646" s="66"/>
+      <c r="K646" s="81"/>
+      <c r="L646" s="82"/>
+      <c r="M646" s="66"/>
+      <c r="N646" s="66"/>
+      <c r="O646" s="66"/>
+      <c r="P646" s="66"/>
+      <c r="Q646" s="66"/>
+      <c r="R646" s="66"/>
+      <c r="S646" s="66"/>
+      <c r="T646" s="66"/>
+      <c r="U646" s="66"/>
+      <c r="V646" s="66"/>
+      <c r="W646" s="66"/>
+      <c r="X646" s="66"/>
+      <c r="Y646" s="66"/>
+    </row>
+    <row r="647" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A647" s="79"/>
+      <c r="B647" s="80"/>
+      <c r="C647" s="66"/>
+      <c r="D647" s="24">
+        <v>45713</v>
+      </c>
+      <c r="E647" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F647" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G647" s="15" t="s">
+        <v>583</v>
+      </c>
+      <c r="H647" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="I647" s="16">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="J647" s="66"/>
+      <c r="K647" s="81"/>
+      <c r="L647" s="82"/>
+      <c r="M647" s="66"/>
+      <c r="N647" s="66"/>
+      <c r="O647" s="66"/>
+      <c r="P647" s="66"/>
+      <c r="Q647" s="66"/>
+      <c r="R647" s="66"/>
+      <c r="S647" s="66"/>
+      <c r="T647" s="66"/>
+      <c r="U647" s="66"/>
+      <c r="V647" s="66"/>
+      <c r="W647" s="66"/>
+      <c r="X647" s="66"/>
+      <c r="Y647" s="66"/>
+    </row>
+    <row r="648" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A648" s="79"/>
+      <c r="B648" s="80"/>
+      <c r="C648" s="67"/>
+      <c r="D648" s="36">
+        <v>45713</v>
+      </c>
+      <c r="E648" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F648" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G648" s="18" t="s">
+        <v>586</v>
+      </c>
+      <c r="H648" s="19">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="I648" s="19">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="J648" s="67"/>
+      <c r="K648" s="81"/>
+      <c r="L648" s="82"/>
+      <c r="M648" s="67"/>
+      <c r="N648" s="67"/>
+      <c r="O648" s="67"/>
+      <c r="P648" s="67"/>
+      <c r="Q648" s="67"/>
+      <c r="R648" s="67"/>
+      <c r="S648" s="67"/>
+      <c r="T648" s="67"/>
+      <c r="U648" s="67"/>
+      <c r="V648" s="67"/>
+      <c r="W648" s="67"/>
+      <c r="X648" s="67"/>
+      <c r="Y648" s="67"/>
+    </row>
+    <row r="649" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A649" s="79"/>
+      <c r="B649" s="80"/>
+      <c r="C649" s="66"/>
+      <c r="D649" s="24">
+        <v>45713</v>
+      </c>
+      <c r="E649" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F649" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G649" s="15" t="s">
+        <v>590</v>
+      </c>
+      <c r="H649" s="16">
+        <v>0.46875</v>
+      </c>
+      <c r="I649" s="16">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="J649" s="66"/>
+      <c r="K649" s="81"/>
+      <c r="L649" s="82"/>
+      <c r="M649" s="66"/>
+      <c r="N649" s="66"/>
+      <c r="O649" s="66"/>
+      <c r="P649" s="66"/>
+      <c r="Q649" s="66"/>
+      <c r="R649" s="66"/>
+      <c r="S649" s="66"/>
+      <c r="T649" s="66"/>
+      <c r="U649" s="66"/>
+      <c r="V649" s="66"/>
+      <c r="W649" s="66"/>
+      <c r="X649" s="66"/>
+      <c r="Y649" s="66"/>
+    </row>
+    <row r="650" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A650" s="79"/>
+      <c r="B650" s="80"/>
+      <c r="C650" s="66"/>
+      <c r="D650" s="24">
+        <v>45714</v>
+      </c>
+      <c r="E650" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F650" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G650" s="15" t="s">
+        <v>591</v>
+      </c>
+      <c r="H650" s="16">
+        <v>0.34375</v>
+      </c>
+      <c r="I650" s="16">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="J650" s="66"/>
+      <c r="K650" s="81"/>
+      <c r="L650" s="82"/>
+      <c r="M650" s="66"/>
+      <c r="N650" s="66"/>
+      <c r="O650" s="66"/>
+      <c r="P650" s="66"/>
+      <c r="Q650" s="66"/>
+      <c r="R650" s="66"/>
+      <c r="S650" s="66"/>
+      <c r="T650" s="66"/>
+      <c r="U650" s="66"/>
+      <c r="V650" s="66"/>
+      <c r="W650" s="66"/>
+      <c r="X650" s="66"/>
+      <c r="Y650" s="66"/>
+    </row>
+    <row r="651" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A651" s="79"/>
+      <c r="B651" s="80"/>
+      <c r="C651" s="66"/>
+      <c r="D651" s="24">
+        <v>45714</v>
+      </c>
+      <c r="E651" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F651" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G651" s="15" t="s">
+        <v>592</v>
+      </c>
+      <c r="H651" s="16">
+        <v>0.45416666666666666</v>
+      </c>
+      <c r="I651" s="16">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="J651" s="66"/>
+      <c r="K651" s="81"/>
+      <c r="L651" s="82"/>
+      <c r="M651" s="66"/>
+      <c r="N651" s="66"/>
+      <c r="O651" s="66"/>
+      <c r="P651" s="66"/>
+      <c r="Q651" s="66"/>
+      <c r="R651" s="66"/>
+      <c r="S651" s="66"/>
+      <c r="T651" s="66"/>
+      <c r="U651" s="66"/>
+      <c r="V651" s="66"/>
+      <c r="W651" s="66"/>
+      <c r="X651" s="66"/>
+      <c r="Y651" s="66"/>
+    </row>
+    <row r="652" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A652" s="79"/>
+      <c r="B652" s="80"/>
+      <c r="C652" s="66"/>
+      <c r="D652" s="24">
+        <v>45715</v>
+      </c>
+      <c r="E652" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F652" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G652" s="15" t="s">
+        <v>593</v>
+      </c>
+      <c r="H652" s="16">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="I652" s="16">
+        <v>0.37152777777777773</v>
+      </c>
+      <c r="J652" s="66"/>
+      <c r="K652" s="81"/>
+      <c r="L652" s="82"/>
+      <c r="M652" s="66"/>
+      <c r="N652" s="66"/>
+      <c r="O652" s="66"/>
+      <c r="P652" s="66"/>
+      <c r="Q652" s="66"/>
+      <c r="R652" s="66"/>
+      <c r="S652" s="66"/>
+      <c r="T652" s="66"/>
+      <c r="U652" s="66"/>
+      <c r="V652" s="66"/>
+      <c r="W652" s="66"/>
+      <c r="X652" s="66"/>
+      <c r="Y652" s="66"/>
+    </row>
+    <row r="653" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A653" s="79"/>
+      <c r="B653" s="80"/>
+      <c r="C653" s="67"/>
+      <c r="D653" s="36">
+        <v>45715</v>
+      </c>
+      <c r="E653" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F653" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G653" s="18" t="s">
+        <v>594</v>
+      </c>
+      <c r="H653" s="19">
+        <v>0.37291666666666662</v>
+      </c>
+      <c r="I653" s="19">
+        <v>0.37847222222222227</v>
+      </c>
+      <c r="J653" s="67"/>
+      <c r="K653" s="81"/>
+      <c r="L653" s="82"/>
+      <c r="M653" s="67"/>
+      <c r="N653" s="67"/>
+      <c r="O653" s="67"/>
+      <c r="P653" s="67"/>
+      <c r="Q653" s="67"/>
+      <c r="R653" s="67"/>
+      <c r="S653" s="67"/>
+      <c r="T653" s="67"/>
+      <c r="U653" s="67"/>
+      <c r="V653" s="67"/>
+      <c r="W653" s="67"/>
+      <c r="X653" s="67"/>
+      <c r="Y653" s="67"/>
+    </row>
+    <row r="654" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A654" s="79"/>
+      <c r="B654" s="80"/>
+      <c r="C654" s="66"/>
+      <c r="D654" s="24">
+        <v>45715</v>
+      </c>
+      <c r="E654" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F654" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G654" s="15" t="s">
+        <v>595</v>
+      </c>
+      <c r="H654" s="16">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="I654" s="16">
+        <v>0.45208333333333334</v>
+      </c>
+      <c r="J654" s="66"/>
+      <c r="K654" s="81"/>
+      <c r="L654" s="82"/>
+      <c r="M654" s="66"/>
+      <c r="N654" s="66"/>
+      <c r="O654" s="66"/>
+      <c r="P654" s="66"/>
+      <c r="Q654" s="66"/>
+      <c r="R654" s="66"/>
+      <c r="S654" s="66"/>
+      <c r="T654" s="66"/>
+      <c r="U654" s="66"/>
+      <c r="V654" s="66"/>
+      <c r="W654" s="66"/>
+      <c r="X654" s="66"/>
+      <c r="Y654" s="66"/>
+    </row>
+    <row r="655" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A655" s="79"/>
+      <c r="B655" s="80"/>
+      <c r="C655" s="66"/>
+      <c r="D655" s="24">
+        <v>45715</v>
+      </c>
+      <c r="E655" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F655" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G655" s="15" t="s">
+        <v>596</v>
+      </c>
+      <c r="H655" s="16">
+        <v>0.49652777777777773</v>
+      </c>
+      <c r="I655" s="16">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="J655" s="66"/>
+      <c r="K655" s="81"/>
+      <c r="L655" s="82"/>
+      <c r="M655" s="66"/>
+      <c r="N655" s="66"/>
+      <c r="O655" s="66"/>
+      <c r="P655" s="66"/>
+      <c r="Q655" s="66"/>
+      <c r="R655" s="66"/>
+      <c r="S655" s="66"/>
+      <c r="T655" s="66"/>
+      <c r="U655" s="66"/>
+      <c r="V655" s="66"/>
+      <c r="W655" s="66"/>
+      <c r="X655" s="66"/>
+      <c r="Y655" s="66"/>
+    </row>
+    <row r="656" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A656" s="79"/>
+      <c r="B656" s="80"/>
+      <c r="C656" s="66"/>
+      <c r="D656" s="24">
+        <v>45715</v>
+      </c>
+      <c r="E656" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F656" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="G656" s="15" t="s">
+        <v>597</v>
+      </c>
+      <c r="H656" s="16">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="I656" s="16">
+        <v>0.63750000000000007</v>
+      </c>
+      <c r="J656" s="66"/>
+      <c r="K656" s="81"/>
+      <c r="L656" s="82"/>
+      <c r="M656" s="66"/>
+      <c r="N656" s="66"/>
+      <c r="O656" s="66"/>
+      <c r="P656" s="66"/>
+      <c r="Q656" s="66"/>
+      <c r="R656" s="66"/>
+      <c r="S656" s="66"/>
+      <c r="T656" s="66"/>
+      <c r="U656" s="66"/>
+      <c r="V656" s="66"/>
+      <c r="W656" s="66"/>
+      <c r="X656" s="66"/>
+      <c r="Y656" s="66"/>
+    </row>
+    <row r="657" spans="1:25" s="76" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A657" s="79"/>
+      <c r="B657" s="80"/>
+      <c r="C657" s="66"/>
+      <c r="D657" s="24">
+        <v>45716</v>
+      </c>
+      <c r="E657" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F657" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="G657" s="15" t="s">
+        <v>600</v>
+      </c>
+      <c r="H657" s="16">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="I657" s="16">
+        <v>0.3527777777777778</v>
+      </c>
+      <c r="J657" s="66"/>
+      <c r="K657" s="81"/>
+      <c r="L657" s="82"/>
+      <c r="M657" s="66"/>
+      <c r="N657" s="66"/>
+      <c r="O657" s="66"/>
+      <c r="P657" s="66"/>
+      <c r="Q657" s="66"/>
+      <c r="R657" s="66"/>
+      <c r="S657" s="66"/>
+      <c r="T657" s="66"/>
+      <c r="U657" s="66"/>
+      <c r="V657" s="66"/>
+      <c r="W657" s="66"/>
+      <c r="X657" s="66"/>
+      <c r="Y657" s="66"/>
+    </row>
+    <row r="658" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A658" s="77"/>
+      <c r="B658" s="66"/>
+      <c r="C658" s="66"/>
+      <c r="D658" s="24">
+        <v>45716</v>
+      </c>
+      <c r="E658" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F658" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G658" s="15" t="s">
+        <v>598</v>
+      </c>
+      <c r="H658" s="16">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="I658" s="16">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="J658" s="66"/>
+      <c r="K658" s="66"/>
+      <c r="L658" s="66"/>
+      <c r="M658" s="66"/>
+      <c r="N658" s="66"/>
+      <c r="O658" s="66"/>
+      <c r="P658" s="66"/>
+      <c r="Q658" s="66"/>
+      <c r="R658" s="66"/>
+      <c r="S658" s="66"/>
+      <c r="T658" s="66"/>
+      <c r="U658" s="66"/>
+      <c r="V658" s="66"/>
+      <c r="W658" s="66"/>
+      <c r="X658" s="66"/>
+      <c r="Y658" s="66"/>
+    </row>
+    <row r="659" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A659" s="79"/>
+      <c r="B659" s="80"/>
+      <c r="C659" s="66"/>
+      <c r="D659" s="24">
+        <v>45716</v>
+      </c>
+      <c r="E659" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F659" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G659" s="15" t="s">
+        <v>599</v>
+      </c>
+      <c r="H659" s="16">
+        <v>0.41111111111111115</v>
+      </c>
+      <c r="I659" s="16">
+        <v>0.41388888888888892</v>
+      </c>
+      <c r="J659" s="66"/>
+      <c r="K659" s="81"/>
+      <c r="L659" s="82"/>
+      <c r="M659" s="66"/>
+      <c r="N659" s="66"/>
+      <c r="O659" s="66"/>
+      <c r="P659" s="66"/>
+      <c r="Q659" s="66"/>
+      <c r="R659" s="66"/>
+      <c r="S659" s="66"/>
+      <c r="T659" s="66"/>
+      <c r="U659" s="66"/>
+      <c r="V659" s="66"/>
+      <c r="W659" s="66"/>
+      <c r="X659" s="66"/>
+      <c r="Y659" s="66"/>
+    </row>
+    <row r="660" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A660" s="79"/>
+      <c r="B660" s="80"/>
+      <c r="C660" s="66"/>
+      <c r="D660" s="24">
+        <v>45716</v>
+      </c>
+      <c r="E660" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F660" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="G660" s="15" t="s">
+        <v>601</v>
+      </c>
+      <c r="H660" s="16">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="I660" s="16">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="J660" s="66"/>
+      <c r="K660" s="81"/>
+      <c r="L660" s="82"/>
+      <c r="M660" s="66"/>
+      <c r="N660" s="66"/>
+      <c r="O660" s="66"/>
+      <c r="P660" s="66"/>
+      <c r="Q660" s="66"/>
+      <c r="R660" s="66"/>
+      <c r="S660" s="66"/>
+      <c r="T660" s="66"/>
+      <c r="U660" s="66"/>
+      <c r="V660" s="66"/>
+      <c r="W660" s="66"/>
+      <c r="X660" s="66"/>
+      <c r="Y660" s="66"/>
+    </row>
+    <row r="661" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A661" s="79"/>
+      <c r="B661" s="80"/>
+      <c r="C661" s="66"/>
+      <c r="D661" s="24">
+        <v>45722</v>
+      </c>
+      <c r="E661" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F661" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="G661" s="15" t="s">
+        <v>602</v>
+      </c>
+      <c r="H661" s="16">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="I661" s="16">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="J661" s="66"/>
+      <c r="K661" s="81"/>
+      <c r="L661" s="82"/>
+      <c r="M661" s="66"/>
+      <c r="N661" s="66"/>
+      <c r="O661" s="66"/>
+      <c r="P661" s="66"/>
+      <c r="Q661" s="66"/>
+      <c r="R661" s="66"/>
+      <c r="S661" s="66"/>
+      <c r="T661" s="66"/>
+      <c r="U661" s="66"/>
+      <c r="V661" s="66"/>
+      <c r="W661" s="66"/>
+      <c r="X661" s="66"/>
+      <c r="Y661" s="66"/>
+    </row>
+    <row r="662" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A662" s="79"/>
+      <c r="B662" s="80"/>
+      <c r="C662" s="66"/>
+      <c r="D662" s="24">
+        <v>45723</v>
+      </c>
+      <c r="E662" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F662" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G662" s="15" t="s">
+        <v>603</v>
+      </c>
+      <c r="H662" s="16">
+        <v>0.34027777777777773</v>
+      </c>
+      <c r="I662" s="16">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="J662" s="66"/>
+      <c r="K662" s="81"/>
+      <c r="L662" s="82"/>
+      <c r="M662" s="66"/>
+      <c r="N662" s="66"/>
+      <c r="O662" s="66"/>
+      <c r="P662" s="66"/>
+      <c r="Q662" s="66"/>
+      <c r="R662" s="66"/>
+      <c r="S662" s="66"/>
+      <c r="T662" s="66"/>
+      <c r="U662" s="66"/>
+      <c r="V662" s="66"/>
+      <c r="W662" s="66"/>
+      <c r="X662" s="66"/>
+      <c r="Y662" s="66"/>
+    </row>
+    <row r="663" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A663" s="79"/>
+      <c r="B663" s="80"/>
+      <c r="C663" s="67"/>
+      <c r="D663" s="36">
+        <v>45723</v>
+      </c>
+      <c r="E663" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F663" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G663" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="H663" s="19">
+        <v>0.375</v>
+      </c>
+      <c r="I663" s="19">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="J663" s="67"/>
+      <c r="K663" s="81"/>
+      <c r="L663" s="82"/>
+      <c r="M663" s="67"/>
+      <c r="N663" s="67"/>
+      <c r="O663" s="67"/>
+      <c r="P663" s="67"/>
+      <c r="Q663" s="67"/>
+      <c r="R663" s="67"/>
+      <c r="S663" s="67"/>
+      <c r="T663" s="67"/>
+      <c r="U663" s="67"/>
+      <c r="V663" s="67"/>
+      <c r="W663" s="67"/>
+      <c r="X663" s="67"/>
+      <c r="Y663" s="67"/>
+    </row>
+    <row r="664" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A664" s="79"/>
+      <c r="B664" s="80"/>
+      <c r="C664" s="66"/>
+      <c r="D664" s="24">
+        <v>45726</v>
+      </c>
+      <c r="E664" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F664" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="G664" s="15" t="s">
+        <v>605</v>
+      </c>
+      <c r="H664" s="16">
+        <v>0.34027777777777773</v>
+      </c>
+      <c r="I664" s="16">
+        <v>0.3430555555555555</v>
+      </c>
+      <c r="J664" s="66"/>
+      <c r="K664" s="81"/>
+      <c r="L664" s="82"/>
+      <c r="M664" s="66"/>
+      <c r="N664" s="66"/>
+      <c r="O664" s="66"/>
+      <c r="P664" s="66"/>
+      <c r="Q664" s="66"/>
+      <c r="R664" s="66"/>
+      <c r="S664" s="66"/>
+      <c r="T664" s="66"/>
+      <c r="U664" s="66"/>
+      <c r="V664" s="66"/>
+      <c r="W664" s="66"/>
+      <c r="X664" s="66"/>
+      <c r="Y664" s="66"/>
+    </row>
+    <row r="665" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A665" s="79"/>
+      <c r="B665" s="80"/>
+      <c r="C665" s="67"/>
+      <c r="D665" s="36">
+        <v>45726</v>
+      </c>
+      <c r="E665" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F665" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G665" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="H665" s="19">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="I665" s="19">
+        <v>0.35972222222222222</v>
+      </c>
+      <c r="J665" s="67"/>
+      <c r="K665" s="81"/>
+      <c r="L665" s="82"/>
+      <c r="M665" s="67"/>
+      <c r="N665" s="67"/>
+      <c r="O665" s="67"/>
+      <c r="P665" s="67"/>
+      <c r="Q665" s="67"/>
+      <c r="R665" s="67"/>
+      <c r="S665" s="67"/>
+      <c r="T665" s="67"/>
+      <c r="U665" s="67"/>
+      <c r="V665" s="67"/>
+      <c r="W665" s="67"/>
+      <c r="X665" s="67"/>
+      <c r="Y665" s="67"/>
+    </row>
+    <row r="666" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A666" s="79"/>
+      <c r="B666" s="80"/>
+      <c r="C666" s="67"/>
+      <c r="D666" s="36">
+        <v>45726</v>
+      </c>
+      <c r="E666" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F666" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G666" s="18" t="s">
+        <v>595</v>
+      </c>
+      <c r="H666" s="19">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="I666" s="19">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="J666" s="67"/>
+      <c r="K666" s="81"/>
+      <c r="L666" s="82"/>
+      <c r="M666" s="67"/>
+      <c r="N666" s="67"/>
+      <c r="O666" s="67"/>
+      <c r="P666" s="67"/>
+      <c r="Q666" s="67"/>
+      <c r="R666" s="67"/>
+      <c r="S666" s="67"/>
+      <c r="T666" s="67"/>
+      <c r="U666" s="67"/>
+      <c r="V666" s="67"/>
+      <c r="W666" s="67"/>
+      <c r="X666" s="67"/>
+      <c r="Y666" s="67"/>
+    </row>
+    <row r="667" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A667" s="79"/>
+      <c r="B667" s="80"/>
+      <c r="C667" s="67"/>
+      <c r="D667" s="36">
+        <v>45726</v>
+      </c>
+      <c r="E667" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F667" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G667" s="18" t="s">
+        <v>607</v>
+      </c>
+      <c r="H667" s="19">
+        <v>0.4291666666666667</v>
+      </c>
+      <c r="I667" s="19">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="J667" s="67"/>
+      <c r="K667" s="81"/>
+      <c r="L667" s="82"/>
+      <c r="M667" s="67"/>
+      <c r="N667" s="67"/>
+      <c r="O667" s="67"/>
+      <c r="P667" s="67"/>
+      <c r="Q667" s="67"/>
+      <c r="R667" s="67"/>
+      <c r="S667" s="67"/>
+      <c r="T667" s="67"/>
+      <c r="U667" s="67"/>
+      <c r="V667" s="67"/>
+      <c r="W667" s="67"/>
+      <c r="X667" s="67"/>
+      <c r="Y667" s="67"/>
+    </row>
+    <row r="668" spans="1:25" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A668" s="79"/>
+      <c r="B668" s="80"/>
+      <c r="C668" s="67"/>
+      <c r="D668" s="36">
+        <v>45726</v>
+      </c>
+      <c r="E668" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F668" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G668" s="18" t="s">
+        <v>608</v>
+      </c>
+      <c r="H668" s="19">
+        <v>0.44513888888888892</v>
+      </c>
+      <c r="I668" s="19">
+        <v>0.50069444444444444</v>
+      </c>
+      <c r="J668" s="67"/>
+      <c r="K668" s="81"/>
+      <c r="L668" s="82"/>
+      <c r="M668" s="67"/>
+      <c r="N668" s="67"/>
+      <c r="O668" s="67"/>
+      <c r="P668" s="67"/>
+      <c r="Q668" s="67"/>
+      <c r="R668" s="67"/>
+      <c r="S668" s="67"/>
+      <c r="T668" s="67"/>
+      <c r="U668" s="67"/>
+      <c r="V668" s="67"/>
+      <c r="W668" s="67"/>
+      <c r="X668" s="67"/>
+      <c r="Y668" s="67"/>
+    </row>
+    <row r="669" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A669" s="79"/>
+      <c r="B669" s="80"/>
+      <c r="C669" s="66"/>
+      <c r="D669" s="24">
+        <v>45727</v>
+      </c>
+      <c r="E669" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F669" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G669" s="15" t="s">
+        <v>604</v>
+      </c>
+      <c r="H669" s="16">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I669" s="16">
+        <v>0.34027777777777773</v>
+      </c>
+      <c r="J669" s="66"/>
+      <c r="K669" s="81"/>
+      <c r="L669" s="82"/>
+      <c r="M669" s="66"/>
+      <c r="N669" s="66"/>
+      <c r="O669" s="66"/>
+      <c r="P669" s="66"/>
+      <c r="Q669" s="66"/>
+      <c r="R669" s="66"/>
+      <c r="S669" s="66"/>
+      <c r="T669" s="66"/>
+      <c r="U669" s="66"/>
+      <c r="V669" s="66"/>
+      <c r="W669" s="66"/>
+      <c r="X669" s="66"/>
+      <c r="Y669" s="66"/>
+    </row>
+    <row r="670" spans="1:25" s="78" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A670" s="77"/>
+      <c r="B670" s="66"/>
+      <c r="C670" s="66"/>
+      <c r="D670" s="24">
+        <v>45727</v>
+      </c>
+      <c r="E670" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F670" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G670" s="15" t="s">
+        <v>614</v>
+      </c>
+      <c r="H670" s="16">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="I670" s="16">
+        <v>0.34930555555555554</v>
+      </c>
+      <c r="J670" s="66"/>
+      <c r="K670" s="66"/>
+      <c r="L670" s="66"/>
+      <c r="M670" s="66"/>
+      <c r="N670" s="66"/>
+      <c r="O670" s="66"/>
+      <c r="P670" s="66"/>
+      <c r="Q670" s="66"/>
+      <c r="R670" s="66"/>
+      <c r="S670" s="66"/>
+      <c r="T670" s="66"/>
+      <c r="U670" s="66"/>
+      <c r="V670" s="66"/>
+      <c r="W670" s="66"/>
+      <c r="X670" s="66"/>
+      <c r="Y670" s="66"/>
+    </row>
+    <row r="671" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A671" s="79"/>
+      <c r="B671" s="80"/>
+      <c r="C671" s="67"/>
+      <c r="D671" s="36">
+        <v>45727</v>
+      </c>
+      <c r="E671" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F671" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G671" s="18" t="s">
+        <v>609</v>
+      </c>
+      <c r="H671" s="19">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="I671" s="19">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="J671" s="67"/>
+      <c r="K671" s="81"/>
+      <c r="L671" s="82"/>
+      <c r="M671" s="67"/>
+      <c r="N671" s="67"/>
+      <c r="O671" s="67"/>
+      <c r="P671" s="67"/>
+      <c r="Q671" s="67"/>
+      <c r="R671" s="67"/>
+      <c r="S671" s="67"/>
+      <c r="T671" s="67"/>
+      <c r="U671" s="67"/>
+      <c r="V671" s="67"/>
+      <c r="W671" s="67"/>
+      <c r="X671" s="67"/>
+      <c r="Y671" s="67"/>
+    </row>
+    <row r="672" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A672" s="79"/>
+      <c r="B672" s="80"/>
+      <c r="C672" s="67"/>
+      <c r="D672" s="36">
+        <v>45727</v>
+      </c>
+      <c r="E672" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F672" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G672" s="18" t="s">
+        <v>610</v>
+      </c>
+      <c r="H672" s="19">
+        <v>0.375</v>
+      </c>
+      <c r="I672" s="19">
+        <v>0.40625</v>
+      </c>
+      <c r="J672" s="67"/>
+      <c r="K672" s="81"/>
+      <c r="L672" s="82"/>
+      <c r="M672" s="67"/>
+      <c r="N672" s="67"/>
+      <c r="O672" s="67"/>
+      <c r="P672" s="67"/>
+      <c r="Q672" s="67"/>
+      <c r="R672" s="67"/>
+      <c r="S672" s="67"/>
+      <c r="T672" s="67"/>
+      <c r="U672" s="67"/>
+      <c r="V672" s="67"/>
+      <c r="W672" s="67"/>
+      <c r="X672" s="67"/>
+      <c r="Y672" s="67"/>
+    </row>
+    <row r="673" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A673" s="79"/>
+      <c r="B673" s="80"/>
+      <c r="C673" s="67"/>
+      <c r="D673" s="36">
+        <v>45727</v>
+      </c>
+      <c r="E673" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F673" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G673" s="18" t="s">
+        <v>611</v>
+      </c>
+      <c r="H673" s="19">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="I673" s="19">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="J673" s="67"/>
+      <c r="K673" s="81"/>
+      <c r="L673" s="82"/>
+      <c r="M673" s="67"/>
+      <c r="N673" s="67"/>
+      <c r="O673" s="67"/>
+      <c r="P673" s="67"/>
+      <c r="Q673" s="67"/>
+      <c r="R673" s="67"/>
+      <c r="S673" s="67"/>
+      <c r="T673" s="67"/>
+      <c r="U673" s="67"/>
+      <c r="V673" s="67"/>
+      <c r="W673" s="67"/>
+      <c r="X673" s="67"/>
+      <c r="Y673" s="67"/>
+    </row>
+    <row r="674" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A674" s="79"/>
+      <c r="B674" s="80"/>
+      <c r="C674" s="67"/>
+      <c r="D674" s="36">
+        <v>45727</v>
+      </c>
+      <c r="E674" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F674" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G674" s="18" t="s">
+        <v>612</v>
+      </c>
+      <c r="H674" s="19">
+        <v>0.44166666666666665</v>
+      </c>
+      <c r="I674" s="19">
+        <v>0.44861111111111113</v>
+      </c>
+      <c r="J674" s="67"/>
+      <c r="K674" s="81"/>
+      <c r="L674" s="82"/>
+      <c r="M674" s="67"/>
+      <c r="N674" s="67"/>
+      <c r="O674" s="67"/>
+      <c r="P674" s="67"/>
+      <c r="Q674" s="67"/>
+      <c r="R674" s="67"/>
+      <c r="S674" s="67"/>
+      <c r="T674" s="67"/>
+      <c r="U674" s="67"/>
+      <c r="V674" s="67"/>
+      <c r="W674" s="67"/>
+      <c r="X674" s="67"/>
+      <c r="Y674" s="67"/>
+    </row>
+    <row r="675" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A675" s="79"/>
+      <c r="B675" s="80"/>
+      <c r="C675" s="67"/>
+      <c r="D675" s="36">
+        <v>45727</v>
+      </c>
+      <c r="E675" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F675" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G675" s="18" t="s">
+        <v>613</v>
+      </c>
+      <c r="H675" s="19">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="I675" s="19">
+        <v>0.50416666666666665</v>
+      </c>
+      <c r="J675" s="67"/>
+      <c r="K675" s="81"/>
+      <c r="L675" s="82"/>
+      <c r="M675" s="67"/>
+      <c r="N675" s="67"/>
+      <c r="O675" s="67"/>
+      <c r="P675" s="67"/>
+      <c r="Q675" s="67"/>
+      <c r="R675" s="67"/>
+      <c r="S675" s="67"/>
+      <c r="T675" s="67"/>
+      <c r="U675" s="67"/>
+      <c r="V675" s="67"/>
+      <c r="W675" s="67"/>
+      <c r="X675" s="67"/>
+      <c r="Y675" s="67"/>
+    </row>
+    <row r="676" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A676" s="77"/>
+      <c r="B676" s="66"/>
+      <c r="C676" s="66"/>
+      <c r="D676" s="24">
+        <v>45728</v>
+      </c>
+      <c r="E676" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F676" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G676" s="15" t="s">
+        <v>615</v>
+      </c>
+      <c r="H676" s="16">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="I676" s="16">
+        <v>0.36180555555555555</v>
+      </c>
+      <c r="J676" s="66"/>
+      <c r="K676" s="66"/>
+      <c r="L676" s="66"/>
+      <c r="M676" s="66"/>
+      <c r="N676" s="66"/>
+      <c r="O676" s="66"/>
+      <c r="P676" s="66"/>
+      <c r="Q676" s="66"/>
+      <c r="R676" s="66"/>
+      <c r="S676" s="66"/>
+      <c r="T676" s="66"/>
+      <c r="U676" s="66"/>
+      <c r="V676" s="66"/>
+      <c r="W676" s="66"/>
+      <c r="X676" s="66"/>
+      <c r="Y676" s="66"/>
+    </row>
+    <row r="677" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A677" s="79"/>
+      <c r="B677" s="80"/>
+      <c r="C677" s="67"/>
+      <c r="D677" s="36">
+        <v>45728</v>
+      </c>
+      <c r="E677" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F677" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G677" s="18" t="s">
+        <v>616</v>
+      </c>
+      <c r="H677" s="19">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="I677" s="19">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="J677" s="67"/>
+      <c r="K677" s="81"/>
+      <c r="L677" s="82"/>
+      <c r="M677" s="67"/>
+      <c r="N677" s="67"/>
+      <c r="O677" s="67"/>
+      <c r="P677" s="67"/>
+      <c r="Q677" s="67"/>
+      <c r="R677" s="67"/>
+      <c r="S677" s="67"/>
+      <c r="T677" s="67"/>
+      <c r="U677" s="67"/>
+      <c r="V677" s="67"/>
+      <c r="W677" s="67"/>
+      <c r="X677" s="67"/>
+      <c r="Y677" s="67"/>
+    </row>
+    <row r="678" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A678" s="79"/>
+      <c r="B678" s="80"/>
+      <c r="C678" s="66"/>
+      <c r="D678" s="24">
+        <v>45728</v>
+      </c>
+      <c r="E678" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F678" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G678" s="15" t="s">
+        <v>595</v>
+      </c>
+      <c r="H678" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="I678" s="16">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="J678" s="66"/>
+      <c r="K678" s="81"/>
+      <c r="L678" s="82"/>
+      <c r="M678" s="66"/>
+      <c r="N678" s="66"/>
+      <c r="O678" s="66"/>
+      <c r="P678" s="66"/>
+      <c r="Q678" s="66"/>
+      <c r="R678" s="66"/>
+      <c r="S678" s="66"/>
+      <c r="T678" s="66"/>
+      <c r="U678" s="66"/>
+      <c r="V678" s="66"/>
+      <c r="W678" s="66"/>
+      <c r="X678" s="66"/>
+      <c r="Y678" s="66"/>
+    </row>
+    <row r="679" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A679" s="79"/>
+      <c r="B679" s="80"/>
+      <c r="C679" s="67"/>
+      <c r="D679" s="36">
+        <v>45728</v>
+      </c>
+      <c r="E679" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F679" s="18" t="s">
+        <v>617</v>
+      </c>
+      <c r="G679" s="18" t="s">
+        <v>618</v>
+      </c>
+      <c r="H679" s="19">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="I679" s="19">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="J679" s="67"/>
+      <c r="K679" s="81"/>
+      <c r="L679" s="82"/>
+      <c r="M679" s="67"/>
+      <c r="N679" s="67"/>
+      <c r="O679" s="67"/>
+      <c r="P679" s="67"/>
+      <c r="Q679" s="67"/>
+      <c r="R679" s="67"/>
+      <c r="S679" s="67"/>
+      <c r="T679" s="67"/>
+      <c r="U679" s="67"/>
+      <c r="V679" s="67"/>
+      <c r="W679" s="67"/>
+      <c r="X679" s="67"/>
+      <c r="Y679" s="67"/>
+    </row>
+    <row r="680" spans="1:25" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A680" s="79"/>
+      <c r="B680" s="80"/>
+      <c r="C680" s="67"/>
+      <c r="D680" s="36">
+        <v>45728</v>
+      </c>
+      <c r="E680" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F680" s="18" t="s">
+        <v>617</v>
+      </c>
+      <c r="G680" s="18" t="s">
+        <v>619</v>
+      </c>
+      <c r="H680" s="19">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="I680" s="19">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="J680" s="67"/>
+      <c r="K680" s="81"/>
+      <c r="L680" s="82"/>
+      <c r="M680" s="67"/>
+      <c r="N680" s="67"/>
+      <c r="O680" s="67"/>
+      <c r="P680" s="67"/>
+      <c r="Q680" s="67"/>
+      <c r="R680" s="67"/>
+      <c r="S680" s="67"/>
+      <c r="T680" s="67"/>
+      <c r="U680" s="67"/>
+      <c r="V680" s="67"/>
+      <c r="W680" s="67"/>
+      <c r="X680" s="67"/>
+      <c r="Y680" s="67"/>
+    </row>
+    <row r="681" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A681" s="79"/>
+      <c r="B681" s="80"/>
+      <c r="C681" s="67"/>
+      <c r="D681" s="36">
+        <v>45728</v>
+      </c>
+      <c r="E681" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F681" s="18" t="s">
+        <v>617</v>
+      </c>
+      <c r="G681" s="18" t="s">
+        <v>620</v>
+      </c>
+      <c r="H681" s="19">
+        <v>0.47291666666666665</v>
+      </c>
+      <c r="I681" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="J681" s="67"/>
+      <c r="K681" s="81"/>
+      <c r="L681" s="82"/>
+      <c r="M681" s="67"/>
+      <c r="N681" s="67"/>
+      <c r="O681" s="67"/>
+      <c r="P681" s="67"/>
+      <c r="Q681" s="67"/>
+      <c r="R681" s="67"/>
+      <c r="S681" s="67"/>
+      <c r="T681" s="67"/>
+      <c r="U681" s="67"/>
+      <c r="V681" s="67"/>
+      <c r="W681" s="67"/>
+      <c r="X681" s="67"/>
+      <c r="Y681" s="67"/>
+    </row>
+    <row r="682" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A682" s="79"/>
+      <c r="B682" s="80"/>
+      <c r="C682" s="66"/>
+      <c r="D682" s="24">
+        <v>45729</v>
+      </c>
+      <c r="E682" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F682" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G682" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="H682" s="16">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="I682" s="16">
+        <v>0.37222222222222223</v>
+      </c>
+      <c r="J682" s="66"/>
+      <c r="K682" s="81"/>
+      <c r="L682" s="82"/>
+      <c r="M682" s="66"/>
+      <c r="N682" s="66"/>
+      <c r="O682" s="66"/>
+      <c r="P682" s="66"/>
+      <c r="Q682" s="66"/>
+      <c r="R682" s="66"/>
+      <c r="S682" s="66"/>
+      <c r="T682" s="66"/>
+      <c r="U682" s="66"/>
+      <c r="V682" s="66"/>
+      <c r="W682" s="66"/>
+      <c r="X682" s="66"/>
+      <c r="Y682" s="66"/>
+    </row>
+    <row r="683" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A683" s="79"/>
+      <c r="B683" s="80"/>
+      <c r="C683" s="66"/>
+      <c r="D683" s="24">
+        <v>45729</v>
+      </c>
+      <c r="E683" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F683" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G683" s="15" t="s">
+        <v>622</v>
+      </c>
+      <c r="H683" s="16">
+        <v>0.37847222222222227</v>
+      </c>
+      <c r="I683" s="16">
+        <v>0.3923611111111111</v>
+      </c>
+      <c r="J683" s="66"/>
+      <c r="K683" s="81"/>
+      <c r="L683" s="82"/>
+      <c r="M683" s="66"/>
+      <c r="N683" s="66"/>
+      <c r="O683" s="66"/>
+      <c r="P683" s="66"/>
+      <c r="Q683" s="66"/>
+      <c r="R683" s="66"/>
+      <c r="S683" s="66"/>
+      <c r="T683" s="66"/>
+      <c r="U683" s="66"/>
+      <c r="V683" s="66"/>
+      <c r="W683" s="66"/>
+      <c r="X683" s="66"/>
+      <c r="Y683" s="66"/>
+    </row>
+    <row r="684" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A684" s="79"/>
+      <c r="B684" s="80"/>
+      <c r="C684" s="66"/>
+      <c r="D684" s="24">
+        <v>45729</v>
+      </c>
+      <c r="E684" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F684" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G684" s="15" t="s">
+        <v>623</v>
+      </c>
+      <c r="H684" s="16">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="I684" s="16">
+        <v>0.43263888888888885</v>
+      </c>
+      <c r="J684" s="66"/>
+      <c r="K684" s="81"/>
+      <c r="L684" s="82"/>
+      <c r="M684" s="66"/>
+      <c r="N684" s="66"/>
+      <c r="O684" s="66"/>
+      <c r="P684" s="66"/>
+      <c r="Q684" s="66"/>
+      <c r="R684" s="66"/>
+      <c r="S684" s="66"/>
+      <c r="T684" s="66"/>
+      <c r="U684" s="66"/>
+      <c r="V684" s="66"/>
+      <c r="W684" s="66"/>
+      <c r="X684" s="66"/>
+      <c r="Y684" s="66"/>
+    </row>
+    <row r="685" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D685" s="11"/>
       <c r="E685" s="10"/>
       <c r="F685" s="10"/>
@@ -22137,7 +23762,7 @@
       <c r="H685" s="11"/>
       <c r="I685" s="11"/>
     </row>
-    <row r="686" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D686" s="11"/>
       <c r="E686" s="10"/>
       <c r="F686" s="10"/>
@@ -22145,7 +23770,7 @@
       <c r="H686" s="11"/>
       <c r="I686" s="11"/>
     </row>
-    <row r="687" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D687" s="11"/>
       <c r="E687" s="10"/>
       <c r="F687" s="10"/>
@@ -22153,7 +23778,7 @@
       <c r="H687" s="11"/>
       <c r="I687" s="11"/>
     </row>
-    <row r="688" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D688" s="11"/>
       <c r="E688" s="10"/>
       <c r="F688" s="10"/>
@@ -24745,10 +26370,58 @@
       <c r="H1011" s="11"/>
       <c r="I1011" s="11"/>
     </row>
+    <row r="1012" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D1012" s="11"/>
+      <c r="E1012" s="10"/>
+      <c r="F1012" s="10"/>
+      <c r="G1012" s="10"/>
+      <c r="H1012" s="11"/>
+      <c r="I1012" s="11"/>
+    </row>
+    <row r="1013" spans="4:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D1013" s="11"/>
+      <c r="E1013" s="10"/>
+      <c r="F1013" s="10"/>
+      <c r="G1013" s="10"/>
+      <c r="H1013" s="11"/>
+      <c r="I1013" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="391">
-    <mergeCell ref="A636:B636"/>
-    <mergeCell ref="K636:L636"/>
+  <mergeCells count="477">
+    <mergeCell ref="A684:B684"/>
+    <mergeCell ref="K684:L684"/>
+    <mergeCell ref="A662:B662"/>
+    <mergeCell ref="K662:L662"/>
+    <mergeCell ref="A663:B663"/>
+    <mergeCell ref="K663:L663"/>
+    <mergeCell ref="A660:B660"/>
+    <mergeCell ref="K660:L660"/>
+    <mergeCell ref="A659:B659"/>
+    <mergeCell ref="K659:L659"/>
+    <mergeCell ref="A677:B677"/>
+    <mergeCell ref="K677:L677"/>
+    <mergeCell ref="A673:B673"/>
+    <mergeCell ref="K673:L673"/>
+    <mergeCell ref="A674:B674"/>
+    <mergeCell ref="K674:L674"/>
+    <mergeCell ref="A675:B675"/>
+    <mergeCell ref="K675:L675"/>
+    <mergeCell ref="A661:B661"/>
+    <mergeCell ref="K661:L661"/>
+    <mergeCell ref="A668:B668"/>
+    <mergeCell ref="K668:L668"/>
+    <mergeCell ref="A671:B671"/>
+    <mergeCell ref="K671:L671"/>
+    <mergeCell ref="A672:B672"/>
+    <mergeCell ref="K672:L672"/>
+    <mergeCell ref="A664:B664"/>
+    <mergeCell ref="K664:L664"/>
+    <mergeCell ref="A665:B665"/>
+    <mergeCell ref="K665:L665"/>
+    <mergeCell ref="A666:B666"/>
+    <mergeCell ref="K666:L666"/>
+    <mergeCell ref="A667:B667"/>
+    <mergeCell ref="K667:L667"/>
     <mergeCell ref="A623:B623"/>
     <mergeCell ref="K623:L623"/>
     <mergeCell ref="A624:B624"/>
@@ -24771,6 +26444,15 @@
     <mergeCell ref="A613:B613"/>
     <mergeCell ref="K613:L613"/>
     <mergeCell ref="A614:B614"/>
+    <mergeCell ref="A620:B620"/>
+    <mergeCell ref="K620:L620"/>
+    <mergeCell ref="K615:L615"/>
+    <mergeCell ref="A616:B616"/>
+    <mergeCell ref="K616:L616"/>
+    <mergeCell ref="A602:B602"/>
+    <mergeCell ref="K602:L602"/>
+    <mergeCell ref="A603:B603"/>
+    <mergeCell ref="K603:L603"/>
     <mergeCell ref="K614:L614"/>
     <mergeCell ref="A615:B615"/>
     <mergeCell ref="A604:B604"/>
@@ -24781,15 +26463,6 @@
     <mergeCell ref="K606:L606"/>
     <mergeCell ref="A619:B619"/>
     <mergeCell ref="K619:L619"/>
-    <mergeCell ref="A620:B620"/>
-    <mergeCell ref="K620:L620"/>
-    <mergeCell ref="K615:L615"/>
-    <mergeCell ref="A616:B616"/>
-    <mergeCell ref="K616:L616"/>
-    <mergeCell ref="A602:B602"/>
-    <mergeCell ref="K602:L602"/>
-    <mergeCell ref="A603:B603"/>
-    <mergeCell ref="K603:L603"/>
     <mergeCell ref="K601:L601"/>
     <mergeCell ref="A600:B600"/>
     <mergeCell ref="K600:L600"/>
@@ -24800,6 +26473,20 @@
     <mergeCell ref="K565:L565"/>
     <mergeCell ref="A574:B574"/>
     <mergeCell ref="K574:L574"/>
+    <mergeCell ref="A572:B572"/>
+    <mergeCell ref="K572:L572"/>
+    <mergeCell ref="A573:B573"/>
+    <mergeCell ref="K573:L573"/>
+    <mergeCell ref="A575:B575"/>
+    <mergeCell ref="K575:L575"/>
+    <mergeCell ref="A576:B576"/>
+    <mergeCell ref="K576:L576"/>
+    <mergeCell ref="A577:B577"/>
+    <mergeCell ref="K577:L577"/>
+    <mergeCell ref="A578:B578"/>
+    <mergeCell ref="K578:L578"/>
+    <mergeCell ref="A579:B579"/>
+    <mergeCell ref="K579:L579"/>
     <mergeCell ref="A551:B551"/>
     <mergeCell ref="K551:L551"/>
     <mergeCell ref="A530:B530"/>
@@ -24820,6 +26507,8 @@
     <mergeCell ref="K540:L540"/>
     <mergeCell ref="A541:B541"/>
     <mergeCell ref="K541:L541"/>
+    <mergeCell ref="A542:B542"/>
+    <mergeCell ref="K542:L542"/>
     <mergeCell ref="A525:B525"/>
     <mergeCell ref="K525:L525"/>
     <mergeCell ref="A528:B528"/>
@@ -25010,10 +26699,6 @@
     <mergeCell ref="K432:L432"/>
     <mergeCell ref="A433:B433"/>
     <mergeCell ref="K433:L433"/>
-    <mergeCell ref="A542:B542"/>
-    <mergeCell ref="K542:L542"/>
-    <mergeCell ref="A548:B548"/>
-    <mergeCell ref="K548:L548"/>
     <mergeCell ref="A549:B549"/>
     <mergeCell ref="K549:L549"/>
     <mergeCell ref="A550:B550"/>
@@ -25028,6 +26713,8 @@
     <mergeCell ref="K546:L546"/>
     <mergeCell ref="A547:B547"/>
     <mergeCell ref="K547:L547"/>
+    <mergeCell ref="A548:B548"/>
+    <mergeCell ref="K548:L548"/>
     <mergeCell ref="A557:B557"/>
     <mergeCell ref="K557:L557"/>
     <mergeCell ref="A558:B558"/>
@@ -25042,10 +26729,6 @@
     <mergeCell ref="K555:L555"/>
     <mergeCell ref="A556:B556"/>
     <mergeCell ref="K556:L556"/>
-    <mergeCell ref="A572:B572"/>
-    <mergeCell ref="K572:L572"/>
-    <mergeCell ref="A573:B573"/>
-    <mergeCell ref="K573:L573"/>
     <mergeCell ref="A559:B559"/>
     <mergeCell ref="K559:L559"/>
     <mergeCell ref="A560:B560"/>
@@ -25066,16 +26749,12 @@
     <mergeCell ref="K568:L568"/>
     <mergeCell ref="A569:B569"/>
     <mergeCell ref="K569:L569"/>
-    <mergeCell ref="A575:B575"/>
-    <mergeCell ref="K575:L575"/>
-    <mergeCell ref="A576:B576"/>
-    <mergeCell ref="K576:L576"/>
-    <mergeCell ref="A577:B577"/>
-    <mergeCell ref="K577:L577"/>
-    <mergeCell ref="A578:B578"/>
-    <mergeCell ref="K578:L578"/>
-    <mergeCell ref="A579:B579"/>
-    <mergeCell ref="K579:L579"/>
+    <mergeCell ref="A598:B598"/>
+    <mergeCell ref="K598:L598"/>
+    <mergeCell ref="A596:B596"/>
+    <mergeCell ref="K596:L596"/>
+    <mergeCell ref="A597:B597"/>
+    <mergeCell ref="K597:L597"/>
     <mergeCell ref="A585:B585"/>
     <mergeCell ref="K585:L585"/>
     <mergeCell ref="A580:B580"/>
@@ -25088,20 +26767,6 @@
     <mergeCell ref="K583:L583"/>
     <mergeCell ref="A584:B584"/>
     <mergeCell ref="K584:L584"/>
-    <mergeCell ref="A594:B594"/>
-    <mergeCell ref="K594:L594"/>
-    <mergeCell ref="A595:B595"/>
-    <mergeCell ref="K595:L595"/>
-    <mergeCell ref="A598:B598"/>
-    <mergeCell ref="K598:L598"/>
-    <mergeCell ref="A596:B596"/>
-    <mergeCell ref="K596:L596"/>
-    <mergeCell ref="A597:B597"/>
-    <mergeCell ref="K597:L597"/>
-    <mergeCell ref="A625:B625"/>
-    <mergeCell ref="K625:L625"/>
-    <mergeCell ref="A626:B626"/>
-    <mergeCell ref="K626:L626"/>
     <mergeCell ref="A622:B622"/>
     <mergeCell ref="K622:L622"/>
     <mergeCell ref="A586:B586"/>
@@ -25122,8 +26787,22 @@
     <mergeCell ref="K592:L592"/>
     <mergeCell ref="A593:B593"/>
     <mergeCell ref="K593:L593"/>
+    <mergeCell ref="A594:B594"/>
+    <mergeCell ref="K594:L594"/>
+    <mergeCell ref="A595:B595"/>
+    <mergeCell ref="K595:L595"/>
+    <mergeCell ref="A646:B646"/>
+    <mergeCell ref="K646:L646"/>
+    <mergeCell ref="A647:B647"/>
+    <mergeCell ref="K647:L647"/>
+    <mergeCell ref="A648:B648"/>
+    <mergeCell ref="K648:L648"/>
     <mergeCell ref="A635:B635"/>
     <mergeCell ref="K635:L635"/>
+    <mergeCell ref="A625:B625"/>
+    <mergeCell ref="K625:L625"/>
+    <mergeCell ref="A626:B626"/>
+    <mergeCell ref="K626:L626"/>
     <mergeCell ref="A633:B633"/>
     <mergeCell ref="K633:L633"/>
     <mergeCell ref="A634:B634"/>
@@ -25138,15 +26817,63 @@
     <mergeCell ref="K630:L630"/>
     <mergeCell ref="A631:B631"/>
     <mergeCell ref="K631:L631"/>
+    <mergeCell ref="A657:B657"/>
+    <mergeCell ref="K657:L657"/>
+    <mergeCell ref="A669:B669"/>
+    <mergeCell ref="K669:L669"/>
+    <mergeCell ref="A649:B649"/>
+    <mergeCell ref="K649:L649"/>
+    <mergeCell ref="A636:B636"/>
+    <mergeCell ref="K636:L636"/>
+    <mergeCell ref="A644:B644"/>
+    <mergeCell ref="K644:L644"/>
+    <mergeCell ref="A645:B645"/>
+    <mergeCell ref="K645:L645"/>
+    <mergeCell ref="A637:B637"/>
+    <mergeCell ref="K637:L637"/>
+    <mergeCell ref="A638:B638"/>
+    <mergeCell ref="K638:L638"/>
+    <mergeCell ref="A640:B640"/>
+    <mergeCell ref="K640:L640"/>
+    <mergeCell ref="A642:B642"/>
+    <mergeCell ref="K642:L642"/>
+    <mergeCell ref="A643:B643"/>
+    <mergeCell ref="K643:L643"/>
+    <mergeCell ref="A650:B650"/>
+    <mergeCell ref="K650:L650"/>
+    <mergeCell ref="A651:B651"/>
+    <mergeCell ref="K651:L651"/>
+    <mergeCell ref="A652:B652"/>
+    <mergeCell ref="K652:L652"/>
+    <mergeCell ref="A653:B653"/>
+    <mergeCell ref="K653:L653"/>
+    <mergeCell ref="A656:B656"/>
+    <mergeCell ref="K656:L656"/>
+    <mergeCell ref="A655:B655"/>
+    <mergeCell ref="K655:L655"/>
+    <mergeCell ref="A654:B654"/>
+    <mergeCell ref="K654:L654"/>
+    <mergeCell ref="A683:B683"/>
+    <mergeCell ref="K683:L683"/>
+    <mergeCell ref="A678:B678"/>
+    <mergeCell ref="K678:L678"/>
+    <mergeCell ref="A679:B679"/>
+    <mergeCell ref="K679:L679"/>
+    <mergeCell ref="A680:B680"/>
+    <mergeCell ref="K680:L680"/>
+    <mergeCell ref="A681:B681"/>
+    <mergeCell ref="K681:L681"/>
+    <mergeCell ref="A682:B682"/>
+    <mergeCell ref="K682:L682"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E3:E176 E180:E183 E188:E194 E196 E202:E203 E207:E208 E239:E243 E254:E257 E267:E278 E280:E282 E300 E303:E306 E313:E326 E403 E414:E415 E637:E1011">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E3:E176 E180:E183 E188:E194 E196 E202:E203 E207:E208 E239:E243 E254:E257 E267:E278 E280:E282 E300 E303:E306 E313:E326 E403 E414:E415 E685:E1013">
       <formula1>"GABRIEL,UILLIAM"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F32 F40">
       <formula1>"TI,NPJ,LAB,MED,PAV01,EAD,AULA,CORD MED,PROF MED,PROG,ARQ,ATEND,CAP,CORD"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F3:F27 F29:F31 F33:F39 F41:F176 F180:F183 F188:F194 F196 F202:F203 F207:F208 F239:F243 F254:F257 F267:F278 F280:F282 F300 F303:F306 F313:F326 F403 F414:F415 F637:F1011">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F3:F27 F29:F31 F33:F39 F41:F176 F180:F183 F188:F194 F196 F202:F203 F207:F208 F239:F243 F254:F257 F267:F278 F280:F282 F300 F303:F306 F313:F326 F403 F414:F415 F685:F1013">
       <formula1>"TI,NPJ,LAB,MED,PAV01,EAD,AULA,CORD MED,PROF MED,PROG,ARQ,ATEND,CAP,CPA,CORD,BLIB,DIR,FIN,RH"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F28">
